--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3211" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="2681">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -8981,6 +8981,1250 @@
     <t xml:space="preserve">سینوس پریکارد مایل توسط کدام یک از ساختار های آناتومی زیر احاطه شده است؟</t>
   </si>
   <si>
+    <t xml:space="preserve">آئورت و تنه شریان ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید های ریوی راست و چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شریان های ریوی راست و چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آئورت صعودی و نزولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک دانشجو پزشکی برای شنیدن صدای دریچه آئورتی بهتر است گوشی را در کدام محل زیر قرار دهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتهای داخلی سومین فضای بین دنده ای چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتهای داخلی سومین فضای بین دنده ای راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتهای داخلی دومین فضای بین دنده ای چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتهای داخلی دومین فضای بین دنده ای راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قنات صدری (Thoracic duct) لنف کدام بخش زیر را تخلیه میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ریه سمت راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیمه راست سر و گردن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندام فوقانی سمت راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندام تحتانی سمت راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مری در برابر چه چیزی دیافراگم را سوراخ میکند و سوراخ آن نسبت به سوراخ ورید اجوف تحتانی در کجا قرار گرفته است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10,پایین و چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10,پایین و راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12,بالا و راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12,بالا و چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ Epiploic در خلف به وسیله کدام ساختمان زیر محدود میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bile duct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portal vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common hepatic artery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش نزولی (دوم) دوازدهه در خلف با کدام ساختمان زیر مجاورت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right kidney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatic flexure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ساختمان زیر در نگهداری زاویه Anorectal نقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal anal sphincter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External anal sphincter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puborectalis muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anococcygeal ligament</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید کلیوی چپ از بین آئورت و چه شریانی عبور میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior mesenterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right renal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left renal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inferior mesenteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دهانه غدد وستیبولار بزرگ (بارتولن) به کجا باز میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو طرف دهانه واژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سمینال کولیکولوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گردن مثانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نزدیک به سوراخ خارجی پیشابراه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوب مربعی کبد بین کدام یک از ساختار های آناتومی زیر قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگامان گرد کبدی و IVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگامان گرد کبدی و کیسه صفرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگامان وریدی و IVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگامان وریدی و کیسه صفرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از قسمت های زیر در پیشابراه پروستانی دیده نمیشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seminal colliculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prostatic utricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovula vesicea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prostatic sinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری مبتلا به عفونت منتشر در طول فاسیای Colles است. این ساختار ادامه کدام یک از لایه های زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelvic fascia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peritoneum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scarpa’s fascia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در آسیب نیمه راست نخاع در سطح سگمان T2 کدام یک از موارد زیر دیده نمیشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلج نیمه راست بدن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال حس درد در نیمه چپ بدن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال حس لمس دقیق در طرف چپ بدن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در درک حس عمقی ناخودآگاه اندام تحتانی سمت راست بدن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد مخچه صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منشا الیاف خزه ای (Massy) مخچه از هسته زیتونی تحتانی میباشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الیاف خروجی هسته های وستیبولار از طریق پایک مخچه ای میانی وارد مخچه میشوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منشا الیاف خروجی قشر مخچه از سلول های گرانولار میباشد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الیاف خروجی هسته دندانه ای مخچه وارد هسته ونترولترال تالاموس میشوند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر در سطح خارجی نیمکرات مخ قرار دارد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraterminal Gyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracentral lobule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triangular Gyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary motor area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حس سطحی ناحیه فک فوقانی به کدام هسته تالاموس وارد میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventroposteromedial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventroposterolateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventrolateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediodorsal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر در تشکیل کف بخش مرکزی بطن های طرفی مغز شرکت دارد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcar avis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapetum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thalamus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسیب کدام یک از شریان های زیر می تواند منجر به کاهش درک حس شنوایی شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posterior communicating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام نایحه از گره لنفاوی غنی از سلول های T است؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">کورتکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاراکورتکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سینوس مدولاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطاب های مغزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام سلول بافت همبندی قادر به ترشح لکوترین است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبروبلاست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبروسیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلاسماسل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماست سل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لاکونای هوشیپ محل قرارگیری کدام سلول بافت استخوانی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استئوکلاست ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استئوپروزنیتور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئین های کلاودین در کدام اتصال سلولی حضور دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چسبنده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منفذدار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همی دسموزوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محکم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corpora arenacea از جمله ویژگی های تشخیصی کدام غده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پینه آل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آدرنال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوفیز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تیروئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام سلول برونشیول انتهایی قادر به انجام فرایند سم زدایی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسواکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مژکدار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرانولی کوچک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلاب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از اجزای اسکلت سلولی به عنوان شاخصی برای تشخیص نوع سرطان استفاده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میکروتوبول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیلامنت حد واسط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میکروفیلامنت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توبولین الفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام سلول سطح داخلی بطن های جانبی مغز را مفروش میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الیگودندروسیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استروسیت رشته ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میکروگلیا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپاندمیال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاکتور مهار کننده مولرین توسط کدام سلول بیضه ترشح میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرتولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسپرماتید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لایدیگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسپرماتوسیت ثانویه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم سلولی سلول های حاوی دیسک های غشایی در شبکیه در کدام لایه واقع میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشبک دخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشبک خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته دار خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته دار داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه ساختار  حساسه مجاری نیم دایره گوش داخلی را نشان میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماکولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کریستا آمپولاریس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساکول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارگان کورتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یوبی کوئیتین با کدام ارگانل سیتوپلاسمی ارتباط مستقیم دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شبکه اندوپلاسمی صاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ریبوزوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پراکسی زوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئازوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تستوسترون باعث تحریک رشد کدام قسمت از دستگاه تناسلی مردانه میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپیدیدیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلت تناسلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروستات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسکروتوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الگو رده های سلول جنسی در بیضه یک پسر هشت ساله تا کدام مرحله سلولی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سئول های زایای بدوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسپرماتوگولیای نوع A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسپرماتوسیت اولیه در مرحله پاکی تن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسپرماتید گرد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در زمان لقاح کدام عامل موجب واکنش منطقه ای (Zona reaction) میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش هورمون LH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادامه تقسیم دوم میوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نفوذ اسپرم به منطقه شفاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آزاد شدن گرانول های قشری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر در مورد دوقلوهای منوزایگوتیک که در اواخر هفته دوم جنینی تشکیل شده باشند صدق نمیکند؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پایگوپاگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چسبیدن قل ها به یکدیگر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود کیسه زرده مجزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود آمنیون مشترک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بند ناف جنین پنج هفته کدام یک از ساختارهای زیر قابل مشاهده نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزودرم خارج رویانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عروق زرده ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الانتوئیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوس های روده ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مزودرم منشا دیواره عرضی (Septum transversum) است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارج رویانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احشایی اطراف قلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جداری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بینابینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختار های زیر منشا اکتودرمی ندارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لایه رنگدانه دار شبکیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجاری نیم دایره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرزهای زبانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لثه ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آستر مخاط دوازدهه از کدام لایه جنینی منشا می گیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزودرم احشایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزودرم جداری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منشا تکاملی کدام یک از لوله های دستگاه ادراری با بقیه متفاوت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیچیده نزدیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مستقیم نزدیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جمع کننده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دوره جنینی مخلوط شدن خون شریانی و وریدی در کدام یک از قسمت های زیر اتفاق نمی افتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کبد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طحال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دهلیز چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید اجوف تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عوامل ذیل سهم بیشتری در سلامت افراد دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عوامل بیولوژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محیط فیزیکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عوامل اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نظام ارائه خدمات سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصول خدمات سلامت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبق برنامه واکسیناسیون کشوری واکسن MMR در چه سنی تزریق میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بدو تولد و 6 ماهگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 ماهگی و 4 ماهگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ماهگی و 6 ماهگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 ماهگی و 18 ماهگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانم 25 ساله ای به درمانگاه زنان و زایمان مراجعه نموده است. با توجه به سن و تاریخچه فعالیت جنسی وی پزشک توصیه به انجام آزمایش پاپ اسمیر نموده است. انجام این آزمایش جز کدام یک از سطوح پیشگیری میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری مقدماتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری سطح اول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری سطح دوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری سطح سوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از ماسک در کارگرانی که با گرد و غبار مواجه هستند مصداق کدام سطح از پیشگیری است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری سطح چهارم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد ذکر شده زیر مجموعه عملکرد نظام سلامت است؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارتقای سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشارکت مالی عادلانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاسخگویی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تولیت و سیاست گذاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سازمان های بین المللی مرتبط با سلامت مسئول استاندارد کردن مواد بیولوژیک از  جمله آنتی بیوتیک ها می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سازمان غذا و کشاورزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سازمان جهانی سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دفتر بین المللی کار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صندوق جمعیت ملل متحد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بر اساس مدل مارپیچ برنامه ریزی اولین مرحله از مراحل برنامه ریزی کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بررسی وضعیت موجود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اولویت بندی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتخاب بین راهکار ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنظیم برنامه عملیاتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیوع اضافه وزن و چاقی در کودکان زیر پنج سال جز کدام دسته از شاخص های محوری سلامت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پوشش خدمات سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وضعیت سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نظام سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عوامل خطر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در اختیار قرار گرفتن خدمات سلامت متناسب با نیاز افراد جامعه نشان دهنده کدام اصل از مراقبت های اولیه سلامت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روش های مناسب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدالت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشارکت مردمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی بخش های توسعه اقتصادی اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد توانمندساز و مراجع محور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد پزشکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد تغییر رفتار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد تغییر اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پزشکی برای فردی که با تشخیص سردرد مراجعه میکند سی تی اسکن مغزی درخواست میکند از وی خواسته شده است برای جلوگیری از تشخیص بیش از حد (Over-diagnosis) از راهنما های بالینی تدوین شده بر اساس شواهد معتبر استفاده نماید. این رویکرد کدام یک از سطوح پیشگیری محسوب میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شخص سیگاری طی یک ماه آینده قصد ترک سیگار دارد و برای آن برنامه ریزی کرده و در خصوص موانع ترک سیگار و راه های غلبه بر آن اطلاعات دریافت کرده است. بر اساس مدل مراحل تغییر (Stage of change model) در چه مرحله ای قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیش قصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آمادگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فردی با علایم تنفسی به پزشک مراجعه و پس از معاینه بالینی آسم برای تشخیص داده شد. سپس دارو های لازم تجویز گردید. این مداخله در چه سطحی از پیشگیری قرار میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری نوع اول </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری نوع سوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری نوع دوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری نخستین (ابتدایی) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپیدمیلوژی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر در مورد ایجاد ایمنی گروهی (Herd Immunity) صحیح نمیباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال بین افراد آن گروه یا جامعه به صورت مستقیم باشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه افراد در آن جامعه باید واکسینه شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک مطالعه هم گروهی یک ساله بر روی 120 نفر از افراد سیگاری بعد از گذشت 8 ماه 24 نفر دچار سرطان ریه شدند. میزان بروز تجمعی (Camulative incidence) سرطان ریه چند درصد است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان مرگ و میر در یک جمعیت برای تمام علل مرگ شصت در هزار نفر است اگر میزان مرگ و میر تناسبی (proportionate mortality) برای سوانح ترافیکی 20% باشد میزان مرگ و میر علیتی (Cause specific mortality rate) برای سوانح ترافیکی چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 در 100 نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 در 100 نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 در 1000 نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 در 1000 نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک جامعه 1000 نفری شیوع سرطان پستان 10% است. اگر یک آزمون غربالگری با حساسیت و ویژگی به ترتیب 80% و 90% در این جامعه انجام شود ارزش اخباری مثبت چند درصد است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برای بررسی ارتباط متوسط سرانه شیر مصرفی با موارد تشخیص بیماری استئوپروز(Diagnosed cases of osteoporosis) در سطح کشور های مختلف قاره آسیا کدام مطالعه را پیشنهاد می کنید؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هم گروهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مورد-شاهدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکولوژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک مطالعه هم گروهی برای تعیین ارتباط بین مصرف گوشت قرمز با سرطان کولون از 1000 نفر از افراد مصرف کننده گوشت قرمز 600 نفر و از 1000 نفر از افرادی که مصرف گوشت قرمز نداشتند 200 نفر بعد از ده سال مبتلا به سرطان کولون شدند. خطر نسبی (relative risk) چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برای غربالگری ویروس نقص ایمنی انسان (HIV) در صورتی که از آزمون های غربالگری به صورت همزمان (موازی) استفاده شود؛ کدام یک از موارد زیر افزایش می یابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارزش اخباری منفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حساسیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویژگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منفی کاذب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در تعیین یک رابطه علیتی کدام یک از موارد زیر با توجیه بیولوژیکی (Biologic plausibility) هم خوانی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک فرضه بیولوژیک معقول بین مواجهه و پیامد وجود داشته باشد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هر چقدر ارتباط مواجهه با پیامد قوی تر باشد احتمال رابطه علی بیشتر می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مطالعات متعدد با جمعیت های متفاوت نتیجه یکسان بدست آید.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با یک مواجهه خاص تنها با ابتلا به یک بیماری خاص ارتباط داشته باشد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک مطالعه مورد شاهدی برای بررسی ارتباط بین سرطان حنجره و مصرف الکل 200 نفر بیمار مبتلا به سرطان حنجره با 400 نفر افراد سالم مقایسه شدند. در پایان مطالعه 120 نفر از مورد ها و 80 نفر از شاهدها سابقه مصرف الکل داشته اند. نسبت شانس را محاسبه کنید. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاثیر سم کورار و داروهای شبه کورار بر سلول کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهاركردن گيرنده های استيل كولین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازكردن كانال هاي سديمی وابسته به استيل كولین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیرفعال كردن آنزيم استيل كولین استراز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهار كردن رهايش استيل كولین از انتهای عصبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پزشکی اسفند 402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری میاستنی گراویس مربوطه به آسیب کدام مورد بوده وکدام عضلات را تحت تاثیر قرار میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غلاف ميلین-اسکلتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گیرنده های موسکارينی - روده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گيرنده های نيکوتينی-اسکلتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گیرنده هاي نيکوتینی - روده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دربیمار مبتلا به مولتیپل اسکلروزیس(MS) که در آن عایق میلین نورون ها تخریب می شود، کدام تغییر زیر
+در سلول عصبی باعث کاهش سرعت انتقال پیام و فلج عضلات میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش مقاومت درون سلولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش ظرفيت خازنی غشا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش تخريب كانالهاي يونی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش مقاومت غشا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه،ساختارهای سلولی را بهتر توصیف میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليزوزوم ها غنی از آنزيم كاتالاز هستند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروكسيزوم حاوی آنزيم های هيدرولاز زيادی است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیزوزوم ها خاصيت خود تکثیری دارند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گليکوكاليس می تواند به عنوان گيرنده عمل كند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاکتور تثبیت کننده فیبرین توسط کدام یک از موارد زیر تولید میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوتروفيل ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلبولهاي قرمز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندوتليوم آسيب ديده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلاكت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عوامل زیر در خروج کلسیم از سلول عضله قلبی و توقف انقباض همزمان با پایان مرحله کفه
+پتانسیل عمل نقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانال های كلسيمی وابسته به ولتاژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پمپ كلسيم-آدنوزين تری فسفاتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانال های كلسيمی-سديمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک عصب سمپاتیک از چه طریقی باعث افزایش قدرت انقباض قلب می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش زمان انتقال تحريک به بطن ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش سرعت شل شدن عضله بطنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش نفوذ پذيری غشا به پتاسيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش نفوذپذیری غشا به کلسیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با افزایش سرعت جریان خون در شریان های کوچک عروق خونی بزرگتر گشادمیگردد .علت این پدیده ترشح کدام ترکیب زیر است. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروستاگلندينI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برادی كينین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیتريک اكسيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آدنوزين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر فشار هیدرواستاتیک درون مویرگی افزایش یابد کدام یک از موارد زیر اتفاق می افتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جريان لنف و فيلتراسيون مويرگي افزايش می یابد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جريان لنف و بازجذب مويرگي كاهش می یابد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جريان لنف كاهش و بازجذب مویرگی افزايش می يابد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جريان لنف و فيلتراسيون مويرگی كاهش می يابد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از موارد زیر جریان متلاطم در عروق افزایش می یابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بارداری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افراد سیگاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتساع عروقی چشمگیر،برون ده قلبی بالا و رسوب خون از خصوصیات کدام یک از انواع شوک گردش خونی
+است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوک نوروژنيک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوک آنافيلاكتيک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوک عفونی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عوامل زیرموجب افزایش متوسط فشار  پرشدگی گردش خون میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش كومپليانس رگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش برون ده قلبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش فشار خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تزريق خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان ظرفیت انتشاری تنفسی در آمفیزوم و فیبروز ریوی نسبت به فرد سالم به ترتیب چه تغییری حاصل می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش-افزايش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش–كاهش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش-افزايش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش-كاهش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اثر رفلکس هرینگ بروئر با افزایش ورود هوا به بیش از 1.5 لیتر به ریه ها بر کدام مرکز و چگونه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آپنوستيک-مهاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنوموتاكسيک–تحريکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گروه تنفسی شکمی-تحريکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گروه تنفسی پشتی–مهاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر، زمانی که فرد ایستاده است، در قله ریه بیشتر از قاعده ریه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسبت تهويه به جريان خون (V/Q)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جريان خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تهويه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كمپليانس ريه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیماری به دنبال تصادف قسمت اعظم ایلئوم برداشته شده است، جذب کدام یک از موارد زیر مختل خواهد
+شد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويتامینCو اسيد فوليک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلسيم و آهن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويتامینB12و نمکهای صفراوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويتامین های محلول در چربی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر در شخصی انقباضات دودی اولیه حلق و مری (باوجود حضور انقباضات دودی ثانویه در قسمت تحتانی
+مری در پاسخ به اتساع مری) انجام نشود احتمال تخریب کدام یک از نواحی زیر وجود دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قشر مغز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله حلقوی ديواره مری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعصاب انتريک (داخلی) دیواره مری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعصاب اتونومیک مربوط به مری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عملکرد کدام پروتئاز پانکراسی در فرایند هضم پروتئین ها منجر به تولید اسیدهای آمینه میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كربوكسی پلی پپتیداز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تريپسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کيموتريپسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از شرایط زیر میتواند منجر به هایپوناترمی به همراه تجمع بیش از حد مایع (overhydration) شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصرف بيش از حد ديورتیک ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ديابت بی مزه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح بيش از حد ADH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح بيش از حد آلدسترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش فشار اسمزی کلوئیدی در مویرگ های دور توبولی باعث کدام یک از موارد زیر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش GFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش GFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش حجم ادرار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش حجم ادرار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسمولالیته مایع توبولی در کدام قطعه از نفرون همیشه هیپواسموتیک است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتهای توبول پروگزيمال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش نزولی لوله هنله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابتدای توبول ديستال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتهای مجاری جمع كننده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مورد توان غلیظ سازی ادرار توسط کلیه را کم می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش جريان خون بخش مركزی كليه ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داشتن رژيم غذایی پر پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بدام انداختن اوره در ميان بافت مركزی كليه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از ديورتيک فورسمايد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هورمون استروژن با واسطه کدام یک از موارد  زیردر میزان توده استخوانی بالغین نقش تعیین کننده ای دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش OPG - افزایش RANKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش OPG - کاهش RANKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش OPG - افزایش RANKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش OPG - کاهش RANKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر نشان دهنده پدیده گریز آلدوسترونی می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش دفع ادراری پتاسيم به دليل کاهش pH پلاسما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش دفع ادراری هيدروژن به دليل بروز آلکالوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش دفع ادراری آب به دليل كاهش فشار شریانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش دفع ادراری سديم به دليل افزايش فشار شریانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش ترشح کدام یک از هورمون های زیر باعث بروز مقاومت به انسولین میشود؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوماتوتروپین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تيروكسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلدوسترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوماتوستاتین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش ترشح هورمون های تیروئیدی موجب کاهش کدام یک از موارد زیر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ضربان قلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقاومت عروق محيطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشار شريانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برونده قلبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاز فولیکولی چرخه تخمدان همزمان با کدام فاز اندومتر رحم بوده و همراه با افزایش شدید کدام هورمون می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکثیری – استروژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکثیری – پروژستروژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشحی – استروژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشحی – پروژسترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عامل زیر موجب شروع یک حمله صرع بزرگ در یک فرد با استعداد ارثی نمی شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محرک های هیجانی شدید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدوز متابولیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارو های محرک سیستم عصبی مرکزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در فرد با فراموشی بعدی (Antrograde) کدام مورد زیر اتفاق می افتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اطلاعات حافظه دور به خاطر آورده نمی شود</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -8988,7 +10232,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">آ</t>
+      <t xml:space="preserve">فقط </t>
     </r>
     <r>
       <rPr>
@@ -8996,250 +10240,300 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ئورت و تنه شریان ریوی</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ورید های ریوی راست و چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شریان های ریوی راست و چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آئورت صعودی و نزولی</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">یک دانشجو پزشکی برای شنیدن صدای دریچه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">آئورتی بهتر است گوشی را در کدام محل زیر قرار دهد؟</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">انتهای داخلی سومین فضای بین دنده ای چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">انتهای داخلی سومین فضای بین دنده ای راست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">انتهای داخلی دومین فضای بین دنده ای چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">انتهای داخلی دومین فضای بین دنده ای راست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قنات صدری (Thoracic duct) لنف کدام بخش زیر را تخلیه میکند؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ریه سمت راست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نیمه راست سر و گردن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اندام فوقانی سمت راست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اندام تحتانی سمت راست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مری در برابر چه چیزی دیافراگم را سوراخ میکند و سوراخ آن نسبت به سوراخ ورید اجوف تحتانی در کجا قرار گرفته است؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10,پایین و چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10,پایین و راست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T12,بالا و راست</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T12,بالا و چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سوراخ Epiploic در خلف به وسیله کدام ساختمان زیر محدود میشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bile duct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portal vein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common hepatic artery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بخش نزولی (دوم) دوازدهه در خلف با کدام ساختمان زیر مجاورت دارد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right kidney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatic flexure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام ساختمان زیر در نگهداری زاویه Anorectal نقش دارد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal anal sphincter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External anal sphincter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puborectalis muscle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anococcygeal ligament</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ورید کلیوی چپ از بین </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">آئورت و چه شریانی عبور میکند؟</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Superior mesenterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right renal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">left renal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inferior mesenteric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دهانه غدد وستیبولار بزرگ (بارتولن) به کجا باز میشوند؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دو طرف دهانه واژن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سمینال کولیکولوس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">گردن مثانه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نزدیک به سوراخ خارجی پیشابراه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لوب مربعی کبد بین کدام یک از ساختار های آناتومی زیر قرار دارد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لیگامان گرد کبدی و IVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لیگامان گرد کبدی و کیسه صفرا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لیگامان وریدی و IVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لیگامان وریدی و کیسه صفرا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام یک از قسمت های زیر در پیشابراه پروستانی دیده نمیشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seminal colliculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prostatic utricle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ovula vesicea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prostatic sinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بیماری مبتلا به عفونت منتشر در طول فاسیای Colles است. این ساختار ادامه کدام یک از لایه های زیر است؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pelvic fascia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peritoneum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scarpa’s fascia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در آسیب نیمه راست نخاع در سطح سگمان T2 کدام یک از موارد زیر دیده نمیشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فلج نیمه راست بدن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختلال حس درد در نیمه چپ بدن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختلال حس لمس دقیق در طرف چپ بدن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختلال در درک حس عمقی ناخودآگاه اندام تحتانی سمت راست بدن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام گزینه در مورد مخچه صحیح است؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">منشا الیاف خزه ای (Massy) مخچه از هسته زیتونی تحتانی میباشد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الیاف خروجی هسته های وستیبولار از طریق پایک مخچه ای میانی وارد مخچه میشوند</t>
-  </si>
-  <si>
-    <t xml:space="preserve">منشا الیاف خروجی قشر مخچه از سلول های گرانولار میباشد.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الیاف خروجی هسته دندانه ای مخچه وارد هسته ونترولترال تالاموس میشوند.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام یک از گزینه های زیر در سطح خارجی نیمکرات مخ قرار دارد؟ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraterminal Gyrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracentral lobule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triangular Gyrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supplementary motor area</t>
+      <t xml:space="preserve">اطلاعات حافظه اخیر به خاطر آورده می شود</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">تثبیت اطلاعات جدید مختل میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حافظه مهارتی فرد مختل میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطع کامل نخاع در سطح اولین مهره کمری (L1) منجر به کدام یک از موارد زیر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن موقتی حس عمقی آگاهانه در زیر ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن موقتی رفلکس های کششی زیر ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن دائمی کنترل ارادی حرکت بالای ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن دائمی هوشیاری بالای ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت آسیب مخچه کدام یک از علائم زیر دیده می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لرزش در حین استراحت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حرکت پرتابه ای ناگهانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپرتونی عضلانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در تکلم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت آسیب کیاسمای بینایی کدام بخش از میدان بینایی قابل دیدن نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید تمپورال (محیطی) هر دو سمت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید نازال (مرکزی) هر دو سمت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید تمپورال سمت راست و دید نازال سمت چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید نازال سمت راست و دید تمپورال سمت چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخریب دو طرفه قشر شنوایی اولیه منجر به کدام اختلال میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناتوانی در تفسیر كلمات شنيده شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در تشخيص جهت صوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناتوانی در تشخيص الگو و آهنگ صوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناشنوايی كامل دو گوش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دروازه بندی درد توسط سیستم ضد درد مغز و نخاع، انتقال پیام درد در کجا بلوک می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپو تالاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته رافه بزرگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاخ خلفی نخاع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته بین تيغه ای تالاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مورد، در شرایط فعال شدن گلیکولیز غیر هوازی ایجاد می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدوز متابوليکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الکالوز تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدوز تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الکالوز متابوليکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به ترتیب کدام یک پایدارترین و منظم ترین پروتئین ها می باشد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صفحات بتا، برگشت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مارپيچ آلفا، مارپيچ آلفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوپ ها، صفحات بتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برگشت ها، مارپيچ آلفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ترکیب زیر سیالیک اسید است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-استيل نورامينيک اسيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-داكسی-L-گاالكتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-فوكوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-داكسی-L-مانوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از انواع مهارکنندگی ساختمان مهارکننده با سوبسترا شباهت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر رقابتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نارقابتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برگشت ناپذير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپیرین به عنوان یک داروی ضد التهابی غیر استروئیدی مهار کننده فعالیت کدام آنزیم است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آميلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليپاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيکلواكسيژناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ترکیب با مسدود کردن انتقال پروتون ها از طریق ATP سنتاز باعث مهار فسفریلاسیون اکسیداتیو می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی مایسین A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اولیگومایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آتراكتیلوزید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دیمركاپرول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در قرارگرفتن بلند مدت در مکان های مرتفع کدام جمله زیر صحیح نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش تعداد اريتروسيت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش غلظت هموگلوبين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش سنتز2،3-بيس فسفوگليسرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش تمايل هموگلوبین به O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنظیم کننده آلوستریک آنزیم فسفوفروکتوکینازIکدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوكز-6-فسفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يدواستاميد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیترات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در فرایند گلوکونئوژنز لاکتات برای تبدیل شدن به گلوکز ابتدا به کدام واسطه زیر تبدیل میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پيروات </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگزالواستات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مالات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیلان انرژی گلیکولیز در گلبول های قرمز بالغ چند مولکول ATP میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از انواع بیماریهای ذخیره گلیکوژن باعث ضعف و درد عضلانی و درنهایت مرگ ناشی از نارسایی
+قلبی در کودکان میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پمپی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آندرسون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ون ژيركه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مک آردل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در تولید کدام ماده باعث آسیب پذیری فرد نسبت به قرار گرفتن در معرض مواد اکسیدکننده در بیماری فاویسم میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FADH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كوانزيمA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سندرم زلوگر کاتابولیسم کدام نوع از اسید های چرب مختل شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدهای چرب كوتاه زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدهای چرب متوسط زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدهای چرب بسيار بلند زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدهای چرب شاخه دار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام لیپوپروتئین در انتقال معکوس کلسترول نقش کلیدی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمبودآنزیم زانتین اکسیداز(Xanthine oxidase)باعث کدام وضعیت میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپواوريسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپراوريسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپرآمونمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در واکنش تبدیل فنیل آلانین به تیروزین کدام آنزیم ها شرکت میکنند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تيروزين هيدروكسيلاز و دوپا هيدروكسيلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و دی هيدروبيوپترين ردوكتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و تترا هيدروبيوپترين ردوكتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و تيروزين اكسيداز</t>
   </si>
 </sst>
 </file>
@@ -9325,7 +10619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9350,12 +10644,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -9481,10 +10783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H462"/>
+  <dimension ref="A1:H559"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A452" colorId="64" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A462" activeCellId="0" sqref="A462"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C551" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F560" activeCellId="0" sqref="F560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21112,393 +22414,2864 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
+      <c r="A448" s="4" t="s">
         <v>2169</v>
       </c>
-      <c r="B448" s="0" t="s">
+      <c r="B448" s="4" t="s">
         <v>2170</v>
       </c>
-      <c r="C448" s="0" t="s">
+      <c r="C448" s="4" t="s">
         <v>2171</v>
       </c>
-      <c r="D448" s="0" t="s">
+      <c r="D448" s="4" t="s">
         <v>2172</v>
       </c>
-      <c r="E448" s="6" t="s">
+      <c r="E448" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="F448" s="6" t="s">
+      <c r="F448" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G448" s="6" t="s">
+      <c r="G448" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H448" s="0" t="n">
+      <c r="H448" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
+      <c r="A449" s="4" t="s">
         <v>2174</v>
       </c>
-      <c r="B449" s="0" t="s">
+      <c r="B449" s="4" t="s">
         <v>2175</v>
       </c>
-      <c r="C449" s="6" t="s">
+      <c r="C449" s="1" t="s">
         <v>2176</v>
       </c>
-      <c r="D449" s="6" t="s">
+      <c r="D449" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="E449" s="6" t="s">
+      <c r="E449" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="F449" s="6" t="s">
+      <c r="F449" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G449" s="6" t="s">
+      <c r="G449" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H449" s="0" t="n">
+      <c r="H449" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
+      <c r="A450" s="4" t="s">
         <v>2179</v>
       </c>
-      <c r="B450" s="0" t="s">
+      <c r="B450" s="4" t="s">
         <v>2180</v>
       </c>
-      <c r="C450" s="0" t="s">
+      <c r="C450" s="4" t="s">
         <v>2181</v>
       </c>
-      <c r="D450" s="0" t="s">
+      <c r="D450" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="E450" s="0" t="s">
+      <c r="E450" s="4" t="s">
         <v>2183</v>
       </c>
-      <c r="F450" s="6" t="s">
+      <c r="F450" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G450" s="6" t="s">
+      <c r="G450" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H450" s="0" t="n">
+      <c r="H450" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
+      <c r="A451" s="4" t="s">
         <v>2184</v>
       </c>
-      <c r="B451" s="0" t="s">
+      <c r="B451" s="4" t="s">
         <v>2185</v>
       </c>
-      <c r="C451" s="0" t="s">
+      <c r="C451" s="4" t="s">
         <v>2186</v>
       </c>
-      <c r="D451" s="0" t="s">
+      <c r="D451" s="4" t="s">
         <v>2187</v>
       </c>
-      <c r="E451" s="0" t="s">
+      <c r="E451" s="4" t="s">
         <v>2188</v>
       </c>
-      <c r="F451" s="6" t="s">
+      <c r="F451" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G451" s="6" t="s">
+      <c r="G451" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H451" s="0" t="n">
+      <c r="H451" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
+      <c r="A452" s="4" t="s">
         <v>2189</v>
       </c>
-      <c r="B452" s="0" t="s">
+      <c r="B452" s="4" t="s">
         <v>2190</v>
       </c>
-      <c r="C452" s="0" t="s">
+      <c r="C452" s="4" t="s">
         <v>2191</v>
       </c>
-      <c r="D452" s="0" t="s">
+      <c r="D452" s="4" t="s">
         <v>2192</v>
       </c>
-      <c r="E452" s="0" t="s">
+      <c r="E452" s="4" t="s">
         <v>2193</v>
       </c>
-      <c r="F452" s="6" t="s">
+      <c r="F452" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G452" s="6" t="s">
+      <c r="G452" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H452" s="0" t="n">
+      <c r="H452" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
+      <c r="A453" s="4" t="s">
         <v>2194</v>
       </c>
-      <c r="B453" s="0" t="s">
+      <c r="B453" s="4" t="s">
         <v>2195</v>
       </c>
-      <c r="C453" s="0" t="s">
+      <c r="C453" s="4" t="s">
         <v>2190</v>
       </c>
-      <c r="D453" s="0" t="s">
+      <c r="D453" s="4" t="s">
         <v>2192</v>
       </c>
-      <c r="E453" s="0" t="s">
+      <c r="E453" s="4" t="s">
         <v>2196</v>
       </c>
-      <c r="F453" s="6" t="s">
+      <c r="F453" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G453" s="6" t="s">
+      <c r="G453" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H453" s="0" t="n">
+      <c r="H453" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
+      <c r="A454" s="4" t="s">
         <v>2197</v>
       </c>
-      <c r="B454" s="0" t="s">
+      <c r="B454" s="4" t="s">
         <v>2198</v>
       </c>
-      <c r="C454" s="6" t="s">
+      <c r="C454" s="1" t="s">
         <v>2199</v>
       </c>
-      <c r="D454" s="7" t="s">
+      <c r="D454" s="1" t="s">
         <v>2200</v>
       </c>
-      <c r="E454" s="7" t="s">
+      <c r="E454" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="F454" s="6" t="s">
+      <c r="F454" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G454" s="6" t="s">
+      <c r="G454" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H454" s="0" t="n">
+      <c r="H454" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
+      <c r="A455" s="4" t="s">
         <v>2202</v>
       </c>
-      <c r="B455" s="0" t="s">
+      <c r="B455" s="4" t="s">
         <v>2203</v>
       </c>
-      <c r="C455" s="0" t="s">
+      <c r="C455" s="4" t="s">
         <v>2204</v>
       </c>
-      <c r="D455" s="0" t="s">
+      <c r="D455" s="4" t="s">
         <v>2205</v>
       </c>
-      <c r="E455" s="0" t="s">
+      <c r="E455" s="4" t="s">
         <v>2206</v>
       </c>
-      <c r="F455" s="6" t="s">
+      <c r="F455" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G455" s="6" t="s">
+      <c r="G455" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H455" s="0" t="n">
+      <c r="H455" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
+      <c r="A456" s="4" t="s">
         <v>2207</v>
       </c>
-      <c r="B456" s="0" t="s">
+      <c r="B456" s="4" t="s">
         <v>2208</v>
       </c>
-      <c r="C456" s="0" t="s">
+      <c r="C456" s="4" t="s">
         <v>2209</v>
       </c>
-      <c r="D456" s="0" t="s">
+      <c r="D456" s="4" t="s">
         <v>2210</v>
       </c>
-      <c r="E456" s="0" t="s">
+      <c r="E456" s="4" t="s">
         <v>2211</v>
       </c>
-      <c r="F456" s="6" t="s">
+      <c r="F456" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G456" s="6" t="s">
+      <c r="G456" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H456" s="0" t="n">
+      <c r="H456" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
+      <c r="A457" s="4" t="s">
         <v>2212</v>
       </c>
-      <c r="B457" s="0" t="s">
+      <c r="B457" s="4" t="s">
         <v>2213</v>
       </c>
-      <c r="C457" s="0" t="s">
+      <c r="C457" s="4" t="s">
         <v>2214</v>
       </c>
-      <c r="D457" s="0" t="s">
+      <c r="D457" s="4" t="s">
         <v>2215</v>
       </c>
-      <c r="E457" s="0" t="s">
+      <c r="E457" s="4" t="s">
         <v>2216</v>
       </c>
-      <c r="F457" s="6" t="s">
+      <c r="F457" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G457" s="6" t="s">
+      <c r="G457" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H457" s="0" t="n">
+      <c r="H457" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
+      <c r="A458" s="4" t="s">
         <v>2217</v>
       </c>
-      <c r="B458" s="0" t="s">
+      <c r="B458" s="4" t="s">
         <v>2218</v>
       </c>
-      <c r="C458" s="0" t="s">
+      <c r="C458" s="4" t="s">
         <v>2219</v>
       </c>
-      <c r="D458" s="0" t="s">
+      <c r="D458" s="4" t="s">
         <v>2220</v>
       </c>
-      <c r="E458" s="0" t="s">
+      <c r="E458" s="4" t="s">
         <v>2221</v>
       </c>
-      <c r="F458" s="6" t="s">
+      <c r="F458" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G458" s="6" t="s">
+      <c r="G458" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H458" s="0" t="n">
+      <c r="H458" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+      <c r="A459" s="4" t="s">
         <v>2222</v>
       </c>
-      <c r="B459" s="0" t="s">
+      <c r="B459" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="C459" s="0" t="s">
+      <c r="C459" s="4" t="s">
         <v>2223</v>
       </c>
-      <c r="D459" s="0" t="s">
+      <c r="D459" s="4" t="s">
         <v>2224</v>
       </c>
-      <c r="E459" s="0" t="s">
+      <c r="E459" s="4" t="s">
         <v>2225</v>
       </c>
-      <c r="F459" s="6" t="s">
+      <c r="F459" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G459" s="6" t="s">
+      <c r="G459" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H459" s="0" t="n">
+      <c r="H459" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
+      <c r="A460" s="4" t="s">
         <v>2226</v>
       </c>
-      <c r="B460" s="0" t="s">
+      <c r="B460" s="4" t="s">
         <v>2227</v>
       </c>
-      <c r="C460" s="0" t="s">
+      <c r="C460" s="4" t="s">
         <v>2228</v>
       </c>
-      <c r="D460" s="0" t="s">
+      <c r="D460" s="4" t="s">
         <v>2229</v>
       </c>
-      <c r="E460" s="0" t="s">
+      <c r="E460" s="4" t="s">
         <v>2230</v>
       </c>
-      <c r="F460" s="6" t="s">
+      <c r="F460" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G460" s="6" t="s">
+      <c r="G460" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H460" s="0" t="n">
+      <c r="H460" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
+      <c r="A461" s="4" t="s">
         <v>2231</v>
       </c>
-      <c r="B461" s="0" t="s">
+      <c r="B461" s="4" t="s">
         <v>2232</v>
       </c>
-      <c r="C461" s="0" t="s">
+      <c r="C461" s="4" t="s">
         <v>2233</v>
       </c>
-      <c r="D461" s="0" t="s">
+      <c r="D461" s="4" t="s">
         <v>2234</v>
       </c>
-      <c r="E461" s="0" t="s">
+      <c r="E461" s="4" t="s">
         <v>2235</v>
       </c>
-      <c r="F461" s="6" t="s">
+      <c r="F461" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G461" s="6" t="s">
+      <c r="G461" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H461" s="0" t="n">
+      <c r="H461" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
+      <c r="A462" s="4" t="s">
         <v>2236</v>
       </c>
-      <c r="B462" s="0" t="s">
+      <c r="B462" s="4" t="s">
         <v>2237</v>
       </c>
-      <c r="C462" s="0" t="s">
+      <c r="C462" s="4" t="s">
         <v>2238</v>
       </c>
-      <c r="D462" s="0" t="s">
+      <c r="D462" s="4" t="s">
         <v>2239</v>
       </c>
-      <c r="E462" s="0" t="s">
+      <c r="E462" s="4" t="s">
         <v>2240</v>
       </c>
-      <c r="F462" s="6" t="s">
+      <c r="F462" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G462" s="6" t="s">
+      <c r="G462" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="H462" s="0" t="n">
+      <c r="H462" s="4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="4" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E463" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H463" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D464" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E464" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H464" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H465" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D466" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E466" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H466" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="4" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E467" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H467" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H468" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="4" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>2268</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H469" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="4" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D470" s="4" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E470" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H470" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="4" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H471" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E472" s="4" t="s">
+        <v>2285</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H472" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="4" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D473" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E473" s="4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H473" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D474" s="4" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E474" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H474" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C475" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H475" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D476" s="4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E476" s="4" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H476" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C477" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D477" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E477" s="4" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H477" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D478" s="4" t="s">
+        <v>2314</v>
+      </c>
+      <c r="E478" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H478" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E479" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H479" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H480" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C481" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D481" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="E481" s="4" t="s">
+        <v>2330</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H481" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="4" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="D482" s="4" t="s">
+        <v>2334</v>
+      </c>
+      <c r="E482" s="4" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H482" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E483" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H483" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="4" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D484" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E484" s="4" t="s">
+        <v>2345</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H484" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D485" s="4" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E485" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H485" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D486" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E486" s="4" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H486" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>2356</v>
+      </c>
+      <c r="D487" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="E487" s="4" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F487" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H487" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="4" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D488" s="4" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E488" s="4" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F488" s="4" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H488" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="4" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>2366</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="D489" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="E489" s="4" t="s">
+        <v>2369</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H489" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="4" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>2371</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H490" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="4" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H491" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D492" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E492" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H492" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D493" s="4" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E493" s="4" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H493" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="D494" s="4" t="s">
+        <v>2390</v>
+      </c>
+      <c r="E494" s="4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H494" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="4" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E495" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H495" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="4" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="D496" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E496" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H496" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D497" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E497" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H497" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H498" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="E499" s="4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H499" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="4" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>2413</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H500" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D501" s="4" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E501" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H501" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="4" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B502" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C502" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D502" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="E502" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H502" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="4" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>2423</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E503" s="4" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H503" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="4" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B504" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C504" s="4" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D504" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="E504" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H504" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="4" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>2429</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D505" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="E505" s="4" t="s">
+        <v>2431</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H505" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="4" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B506" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C506" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D506" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E506" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H506" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="4" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="D507" s="4" t="s">
+        <v>2436</v>
+      </c>
+      <c r="E507" s="4" t="s">
+        <v>2437</v>
+      </c>
+      <c r="F507" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H507" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="4" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D508" s="4" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E508" s="4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H508" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B509" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C509" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D509" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E509" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F509" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H509" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F510" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H510" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>2452</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>2453</v>
+      </c>
+      <c r="E511" s="4" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F511" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H511" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="5" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F512" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H512" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="4" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>2461</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D513" s="4" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E513" s="4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F513" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H513" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>2466</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D514" s="4" t="s">
+        <v>2468</v>
+      </c>
+      <c r="E514" s="4" t="s">
+        <v>2469</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H514" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="6" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>2471</v>
+      </c>
+      <c r="C515" s="7" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D515" s="7" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E515" s="7" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F515" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G515" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H515" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>2477</v>
+      </c>
+      <c r="E516" s="0" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F516" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G516" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H516" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E517" s="0" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F517" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G517" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H517" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D518" s="0" t="s">
+        <v>2487</v>
+      </c>
+      <c r="E518" s="0" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F518" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G518" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H518" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>2490</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E519" s="0" t="s">
+        <v>2492</v>
+      </c>
+      <c r="F519" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G519" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H519" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="90.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="6" t="s">
+        <v>2493</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>2494</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D520" s="7" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E520" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F520" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G520" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H520" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="0" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E521" s="0" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F521" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G521" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H521" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D522" s="0" t="s">
+        <v>2505</v>
+      </c>
+      <c r="E522" s="0" t="s">
+        <v>2506</v>
+      </c>
+      <c r="F522" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G522" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H522" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>2507</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>2508</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>2510</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F523" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G523" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H523" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>2513</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E524" s="0" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F524" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G524" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H524" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="90.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="6" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>2518</v>
+      </c>
+      <c r="C525" s="7" t="s">
+        <v>2519</v>
+      </c>
+      <c r="D525" s="7" t="s">
+        <v>2520</v>
+      </c>
+      <c r="E525" s="7" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F525" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G525" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H525" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="146.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="9" t="s">
+        <v>2522</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>2523</v>
+      </c>
+      <c r="C526" s="8" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D526" s="8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="E526" s="7" t="s">
+        <v>2526</v>
+      </c>
+      <c r="F526" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G526" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H526" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>2527</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>2528</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E527" s="0" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F527" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G527" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H527" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B528" s="0" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D528" s="0" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E528" s="0" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F528" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G528" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H528" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B529" s="0" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D529" s="0" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E529" s="0" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F529" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G529" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H529" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D530" s="0" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E530" s="0" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F530" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G530" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H530" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
+        <v>2546</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D531" s="0" t="s">
+        <v>2549</v>
+      </c>
+      <c r="E531" s="0" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F531" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G531" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H531" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>2554</v>
+      </c>
+      <c r="E532" s="0" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F532" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G532" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H532" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="8" t="s">
+        <v>2556</v>
+      </c>
+      <c r="B533" s="8" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C533" s="8" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D533" s="7" t="s">
+        <v>2559</v>
+      </c>
+      <c r="E533" s="7" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F533" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G533" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H533" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>2561</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D534" s="0" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E534" s="0" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F534" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G534" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H534" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D535" s="0" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E535" s="0" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F535" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G535" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H535" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="s">
+        <v>2571</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>2574</v>
+      </c>
+      <c r="E536" s="0" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F536" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G536" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H536" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E537" s="0" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F537" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G537" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H537" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="s">
+        <v>2581</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D538" s="0" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E538" s="0" t="s">
+        <v>2585</v>
+      </c>
+      <c r="F538" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G538" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H538" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="s">
+        <v>2586</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D539" s="0" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E539" s="8" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F539" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G539" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H539" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="s">
+        <v>2591</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E540" s="0" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F540" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G540" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H540" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B541" s="0" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C541" s="8" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D541" s="7" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E541" s="7" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F541" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G541" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H541" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D542" s="0" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E542" s="0" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F542" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G542" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H542" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D543" s="0" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E543" s="0" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F543" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G543" s="8" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H543" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>2612</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D544" s="0" t="s">
+        <v>2614</v>
+      </c>
+      <c r="E544" s="0" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F544" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G544" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B545" s="0" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D545" s="0" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E545" s="0" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F545" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G545" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B546" s="0" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D546" s="0" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E546" s="0" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F546" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G546" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="0" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B547" s="0" t="s">
+        <v>760</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D547" s="0" t="s">
+        <v>2628</v>
+      </c>
+      <c r="E547" s="0" t="s">
+        <v>2629</v>
+      </c>
+      <c r="F547" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G547" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B548" s="0" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D548" s="0" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E548" s="0" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F548" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G548" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B549" s="0" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D549" s="0" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E549" s="0" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F549" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G549" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B550" s="0" t="s">
+        <v>2641</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D550" s="0" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E550" s="0" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F550" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G550" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="8" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B551" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C551" s="7" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D551" s="7" t="s">
+        <v>2647</v>
+      </c>
+      <c r="E551" s="7" t="s">
+        <v>2648</v>
+      </c>
+      <c r="F551" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G551" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D552" s="0" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E552" s="0" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F552" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G552" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B553" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C553" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E553" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F553" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G553" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="6" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>2655</v>
+      </c>
+      <c r="C554" s="7" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D554" s="7" t="s">
+        <v>2657</v>
+      </c>
+      <c r="E554" s="7" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F554" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G554" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C555" s="0" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D555" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="E555" s="0" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F555" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G555" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C556" s="0" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D556" s="0" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E556" s="0" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F556" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G556" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>2668</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D557" s="0" t="s">
+        <v>2670</v>
+      </c>
+      <c r="E557" s="0" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F557" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G557" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D558" s="0" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E558" s="0" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F558" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G558" s="8" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D559" s="0" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E559" s="0" t="s">
+        <v>2680</v>
+      </c>
+      <c r="F559" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G559" s="8" t="s">
+        <v>2449</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="2681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4387" uniqueCount="3034">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -10225,6 +10225,313 @@
     <t xml:space="preserve">اطلاعات حافظه دور به خاطر آورده نمی شود</t>
   </si>
   <si>
+    <t xml:space="preserve">فقط اطلاعات حافظه اخیر به خاطر آورده می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تثبیت اطلاعات جدید مختل میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حافظه مهارتی فرد مختل میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطع کامل نخاع در سطح اولین مهره کمری (L1) منجر به کدام یک از موارد زیر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن موقتی حس عمقی آگاهانه در زیر ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن موقتی رفلکس های کششی زیر ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن دائمی کنترل ارادی حرکت بالای ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دست دادن دائمی هوشیاری بالای ضایعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت آسیب مخچه کدام یک از علائم زیر دیده می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لرزش در حین استراحت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حرکت پرتابه ای ناگهانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپرتونی عضلانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در تکلم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت آسیب کیاسمای بینایی کدام بخش از میدان بینایی قابل دیدن نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید تمپورال (محیطی) هر دو سمت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید نازال (مرکزی) هر دو سمت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید تمپورال سمت راست و دید نازال سمت چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دید نازال سمت راست و دید تمپورال سمت چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخریب دو طرفه قشر شنوایی اولیه منجر به کدام اختلال میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناتوانی در تفسیر كلمات شنيده شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در تشخيص جهت صوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناتوانی در تشخيص الگو و آهنگ صوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناشنوايی كامل دو گوش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دروازه بندی درد توسط سیستم ضد درد مغز و نخاع، انتقال پیام درد در کجا بلوک می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپو تالاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته رافه بزرگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاخ خلفی نخاع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته بین تيغه ای تالاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مورد، در شرایط فعال شدن گلیکولیز غیر هوازی ایجاد می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدوز متابوليکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الکالوز تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدوز تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الکالوز متابوليکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به ترتیب کدام یک پایدارترین و منظم ترین پروتئین ها می باشد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صفحات بتا، برگشت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مارپيچ آلفا، مارپيچ آلفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوپ ها، صفحات بتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برگشت ها، مارپيچ آلفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ترکیب زیر سیالیک اسید است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-استيل نورامينيک اسيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-داكسی-L-گالاكتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-فوكوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-داكسی-L-مانوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از انواع مهارکنندگی ساختمان مهارکننده با سوبسترا شباهت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر رقابتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نارقابتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برگشت ناپذير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپیرین به عنوان یک داروی ضد التهابی غیر استروئیدی مهار کننده فعالیت کدام آنزیم است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آميلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليپاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيکلواكسيژناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ترکیب با مسدود کردن انتقال پروتون ها از طریق ATP سنتاز باعث مهار فسفریلاسیون اکسیداتیو می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی مایسین A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اولیگومایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آتراكتیلوزید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دیمركاپرول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در قرارگرفتن بلند مدت در مکان های مرتفع کدام جمله زیر صحیح نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش تعداد اريتروسيت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش غلظت هموگلوبين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش سنتز2،3-بيس فسفوگليسرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش تمايل هموگلوبین به O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنظیم کننده آلوستریک آنزیم فسفوفروکتوکینازIکدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوكز-6-فسفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يدواستاميد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیترات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در فرایند گلوکونئوژنز لاکتات برای تبدیل شدن به گلوکز ابتدا به کدام واسطه زیر تبدیل میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پيروات </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگزالواستات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مالات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیلان انرژی گلیکولیز در گلبول های قرمز بالغ چند مولکول ATP میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از انواع بیماریهای ذخیره گلیکوژن باعث ضعف و درد عضلانی و درنهایت مرگ ناشی از نارسایی
+قلبی در کودکان میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پمپی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آندرسون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ون ژيركه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مک آردل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در تولید کدام ماده باعث آسیب پذیری فرد نسبت به قرار گرفتن در معرض مواد اکسیدکننده در بیماری فاویسم میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FADH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كوانزيمA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سندرم زلوگر کاتابولیسم کدام نوع از اسید های چرب مختل شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدهای چرب كوتاه زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدهای چرب متوسط زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدهای چرب بسيار بلند زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسيدهای چرب شاخه دار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام لیپوپروتئین در انتقال معکوس کلسترول نقش کلیدی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VLDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمبودآنزیم زانتین اکسیداز(Xanthine oxidase)باعث کدام وضعیت میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپواوريسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپراوريسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپرآمونمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در واکنش تبدیل فنیل آلانین به تیروزین کدام آنزیم ها شرکت میکنند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تيروزين هيدروكسيلاز و دوپا هيدروكسيلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و دی هيدروبيوپترين ردوكتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و تترا هيدروبيوپترين ردوكتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و تيروزين اكسيداز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص کدام آنزیم چرخه اوره باعث هیپرآمونمی نوع 2 میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كرباموئيل فسفات سنتتاز 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N- استیل گلوتامات سنتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اورنیتین پرمئاز</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -10232,7 +10539,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">فقط </t>
+      <t xml:space="preserve">اورنيتن ترانس كربامو</t>
     </r>
     <r>
       <rPr>
@@ -10240,300 +10547,1058 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">اطلاعات حافظه اخیر به خاطر آورده می شود</t>
+      <t xml:space="preserve">ئیلاز</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">تثبیت اطلاعات جدید مختل میشود</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حافظه مهارتی فرد مختل میشود</t>
-  </si>
-  <si>
-    <t xml:space="preserve">قطع کامل نخاع در سطح اولین مهره کمری (L1) منجر به کدام یک از موارد زیر میشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">از دست دادن موقتی حس عمقی آگاهانه در زیر ضایعه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">از دست دادن موقتی رفلکس های کششی زیر ضایعه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">از دست دادن دائمی کنترل ارادی حرکت بالای ضایعه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">از دست دادن دائمی هوشیاری بالای ضایعه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در صورت آسیب مخچه کدام یک از علائم زیر دیده می شود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لرزش در حین استراحت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حرکت پرتابه ای ناگهانی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هیپرتونی عضلانی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختلال در تکلم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در صورت آسیب کیاسمای بینایی کدام بخش از میدان بینایی قابل دیدن نیست؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دید تمپورال (محیطی) هر دو سمت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دید نازال (مرکزی) هر دو سمت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دید تمپورال سمت راست و دید نازال سمت چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دید نازال سمت راست و دید تمپورال سمت چپ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تخریب دو طرفه قشر شنوایی اولیه منجر به کدام اختلال میشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ناتوانی در تفسیر كلمات شنيده شده</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختلال در تشخيص جهت صوت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ناتوانی در تشخيص الگو و آهنگ صوت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ناشنوايی كامل دو گوش</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در دروازه بندی درد توسط سیستم ضد درد مغز و نخاع، انتقال پیام درد در کجا بلوک می شود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هيپو تالاموس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هسته رافه بزرگ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شاخ خلفی نخاع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هسته بین تيغه ای تالاموس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام مورد، در شرایط فعال شدن گلیکولیز غیر هوازی ایجاد می شود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسيدوز متابوليکی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الکالوز تنفسی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسيدوز تنفسی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الکالوز متابوليکی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">به ترتیب کدام یک پایدارترین و منظم ترین پروتئین ها می باشد؟ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">صفحات بتا، برگشت ها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مارپيچ آلفا، مارپيچ آلفا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لوپ ها، صفحات بتا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برگشت ها، مارپيچ آلفا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام ترکیب زیر سیالیک اسید است؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-استيل نورامينيک اسيد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-داكسی-L-گاالكتوز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-فوكوز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-داكسی-L-مانوز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در کدام یک از انواع مهارکنندگی ساختمان مهارکننده با سوبسترا شباهت دارد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">غیر رقابتی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">نارقابتی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برگشت ناپذير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آسپیرین به عنوان یک داروی ضد التهابی غیر استروئیدی مهار کننده فعالیت کدام آنزیم است؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آميلاز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ليپاز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كيناز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سيکلواكسيژناز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام ترکیب با مسدود کردن انتقال پروتون ها از طریق ATP سنتاز باعث مهار فسفریلاسیون اکسیداتیو می شود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آنتی مایسین A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اولیگومایسین</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آتراكتیلوزید</t>
-  </si>
-  <si>
-    <t xml:space="preserve">دیمركاپرول</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در قرارگرفتن بلند مدت در مکان های مرتفع کدام جمله زیر صحیح نیست؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">افزايش تعداد اريتروسيت ها</t>
-  </si>
-  <si>
-    <t xml:space="preserve">افزايش غلظت هموگلوبين</t>
-  </si>
-  <si>
-    <t xml:space="preserve">افزايش سنتز2،3-بيس فسفوگليسرات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">افزايش تمايل هموگلوبین به O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تنظیم کننده آلوستریک آنزیم فسفوفروکتوکینازIکدام است؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">گلوكز-6-فسفات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يدواستاميد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سیترات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در فرایند گلوکونئوژنز لاکتات برای تبدیل شدن به گلوکز ابتدا به کدام واسطه زیر تبدیل میشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">پيروات </t>
-  </si>
-  <si>
-    <t xml:space="preserve">اگزالواستات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مالات</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بیلان انرژی گلیکولیز در گلبول های قرمز بالغ چند مولکول ATP میباشد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام یک از انواع بیماریهای ذخیره گلیکوژن باعث ضعف و درد عضلانی و درنهایت مرگ ناشی از نارسایی
-قلبی در کودکان میشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">پمپی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">آندرسون</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ون ژيركه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">مک آردل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختلال در تولید کدام ماده باعث آسیب پذیری فرد نسبت به قرار گرفتن در معرض مواد اکسیدکننده در بیماری فاویسم میشود.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FADH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كوانزيمA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در سندرم زلوگر کاتابولیسم کدام نوع از اسید های چرب مختل شده است؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسيدهای چرب كوتاه زنجیر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسيدهای چرب متوسط زنجیر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسیدهای چرب بسيار بلند زنجیر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اسيدهای چرب شاخه دار</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کدام لیپوپروتئین در انتقال معکوس کلسترول نقش کلیدی دارد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VLDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کمبودآنزیم زانتین اکسیداز(Xanthine oxidase)باعث کدام وضعیت میگردد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هيپواوريسمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هيپراوريسمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">هيپرآمونمی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در واکنش تبدیل فنیل آلانین به تیروزین کدام آنزیم ها شرکت میکنند؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تيروزين هيدروكسيلاز و دوپا هيدروكسيلاز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و دی هيدروبيوپترين ردوكتاز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و تترا هيدروبيوپترين ردوكتاز</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فنيل آلانين هيدروكسيلاز و تيروزين اكسيداز</t>
+    <t xml:space="preserve">POMC پیش ساز کدام یک نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-LPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-MSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-ENDROPHIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فعالیت لیپاز حساس به هورمون(HSL) توسط کدام یک از هورمون های زیر کاهش می یابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوكاگون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كورتیزول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آدرنالین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص آنزیم اوروپورفیرینوژن دکربوکسیالز باعث ایجاد کدام بیماری میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پورفیريای اریتروپوئيتيک مادرزادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پورفیريای پوستی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كوپروپورفیريای ارثی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پورفیريای متناوب حاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر در مورد اثر ضد میکروبی اشعه ماورای بنفش (UV) درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از طريق ديونيزه نمودن آب و توليد راديکال های آزاد باعث آسيب بهDNAميشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قدرت نفوذ بالایی در سطوح دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باعث دناتوره شدن پروتئين می گردد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باعث تشکيل دايمرهای تيمین در طول رشتهDNAمی شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ویژگی های زیردر مورد کپسول باکتری ها درست است ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماهيت آن اغلب پروتئينی است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمدتا در باكتری های گرم مثبت وجود دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سروتيپ بندی برخی باکتری ها استفاده می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به عنوان هدف آنتی بیوتیک ها استفاده می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیشترین تغییر آنتی ژنتیک در کدام یک از باکتری ها درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترپونما پاليدوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استافيلوكوكوس اورئوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بورليا ركورانتيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لپتواسپيرا اينتروگانس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از استرپتوکوک های زیر از شایعترین علل مننژیت نوزادان محسوب می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس موتانس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس آگالاكتيه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتروكوكوس فکاليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس بوويس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عوامل ضد میکروبی زیر"دزانفکتانت با سطح بالا"میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ايزوپروپانل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تريكلوزان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بنزالکونيوم كلرايد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تست (IGRAS) برای شناسایی عفونت با کدام یک از میکروارگانیسم های زیر مورد استفاده قرار میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هليکوباكتر پيلوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كورينه باكتريوم ديفتريه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مايکوباكتريوم توبر كلوزيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوكارديا آستروئيديس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از میکرو ارگانیسم های زیر علائم آپاندیسیت را در کودکان تقلید میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يرسينيا انتروكوليتيکا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اشريشيا كلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالمونلا تيفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتروباكتر كلواكه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از آنتی بیوتیک های زیر در درمان عفونت های ناشی از گونه های مایکوپلاسما موثر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالريترومایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنی سیلین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وانکومايسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باسیتراسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوندیلوماتا لاتا درکدام یک از بیماری های عفونی زیر مشاهده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لايم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيفليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرانولوما اينگوينال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از آنتی بیوتیک های زیرباریک اثر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تتراسیکلین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتاميسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مروپنم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"تهاجم، تکثیر داخل سلولی، و انتشار سلول به سلول" از ویژگی های مشترک در پاتوژنز کدام باکتری های
+زیر موثر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالمونلا–مايکوباكتريوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيگال–ليستريا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرانسيسلا–يرسينيا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لژيونلا–بروسلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از باکتری های زیر باکتریمی ایجاد نکرده و عامل اصلی بیماری زایی آن توکسین است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سودموناس آئروژينوزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموفيلوس انفلوانزه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالمیدیا پسی تاسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکسن کدام یک از باکتری های زیر از نوع کونژوگه میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میکوباكتریوم توبركلوزیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نايسريا مننژيتيديس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلستريديومتتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بوردتال پرتوسيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسمومیت غذایی ناشی از کدام یک از باکتری های زیر دوره کمون کوتاهی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالمونلا انترتيديس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلستريديوم پرفرانژنس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كمپيلوباكتر ژوژونی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از آزمایش های زیر برای شناسایی عفونت هلیکوباکتر پیلوری"غیر تهاجمی"است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاتولوژی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی ژن مدفوعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كشت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوره آز سريع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مورد تریکوموناس واژینالیس،کدام یک از موارد زیر دقیق تر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داروی انتخابی برای تريکومونيازيس،مترونيدازول است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال تريکوموناس واژيناليس از طريق كيست و در رابطه جنسی اتفاق ميافتد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روش تشخيص آزمايشگاهی تريکومونيازيس با استفاده از روشهای سرولوژيک ميباشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نيازی به درمان شريک جنسی بدون علايم نيست.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در حال حاضر روش معمول تشخیص کالازار یالیشمانیوز احشایی در ایران کدام روش است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IHAT (Indirect hemagglutination test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELISA (Enzyme-linked immunosorbent assay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAT (Direct agglutination test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFA (Immunofluorescence assay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رایج ترین ارگانیسم ایجادکننده کراتیت در استفاده کنندگان از لنز نرم کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naegleria fowleri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acanthamoeba castellanii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entamoeba moshkovskii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dientamoeba fragilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام دارو روی هیپنوزوئیت های انگل های مالاریا موثر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلروكين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آمودياكين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پريماكين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پريمتامين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شایع ترین دلیل مرگ در افراد ایدزی مبتلا به عفونت توکسوپلاسما گوندی کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندوكارديت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفادنيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مننژيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنسفاليت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قبل از پیوند عضو انجام آزمایش برای تشخیص ابتلا به کدام انگل کرمی توصیه میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنکيلوستوما دئودناله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرونژيلوئيدس استركوراليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تريکيوريس تريکيورا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسکاريس لومبريکوئيدس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در آلودگی به کدام مورد از کرم های روده ای انسان، احتمال ایجاد انسداد وجود دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيمنولپيس نانا-تريکيوريس تريکيورا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ديپليديوم كنينوم-هتروفيس هتروفيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرونژيلوئيدس استركوراليس-تريکوسترونژيلوس اورينتاليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنيا ساژيناتا-آسکاريس لومبريکوئيدس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توکسوکارا کنیس عامل کدام بیماری زیر در انسان است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارش خاک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لارو مهاجر احشايی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لارو مهاجر پوستی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارش شناگران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سگ های ولگرد در گسترش کدام یک از عفونت های انگلی زیر نقش دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنيازيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاسيوليازيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيداتيدوزيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسکاريازيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام حشره دارای شانه سر و سینه میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كتنوسفاليدس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گزنوپسیلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پولکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پديکولوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام حشره پدیکولوز تناسلی ایجاد میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پديکولوس هومانوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتیروس پوبيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيمکس لکتوالريوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنوفل استفنسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه به ترتیب درباره شایع ترین علائم بالینی کچلی های اندوتریکس و فاووس صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خال سياه-لکه خاكستری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسکوچولا-خال سياه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لکه خاكستری-اسکوچولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خال سياه-اسکوچولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گونه کاندیدا ویرولانس بیشتری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانديدا البيکنس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانديدا استالتوئيده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانديدا گيلرموندی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانديدا تروپيکاليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سو تغذیه در بروز کدام مایکوز موثر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتريت كانديدايی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موكورمايکوزيس شکمی–لگنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريپتو كوكوزيس منتشره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازوفاگوس كانديدايی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصلی ترین عوامل اتیولوژیک تینا ورسیکالر عبارتند از:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مالاسزيا ابتوزا-مالاسزيا سيمپودياليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مالاسزيا گلوبوزا-مالاسزيا ابتوزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مالاسزيا فورفور-مالاسزيا گلوبوزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مالاسزيا فورفور-مالاسزيا اسلوفيا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از دارو های زیر برای درمان میکوزهای لوله گوارش و میکوزهای سیستمیک ارجحیت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایتراکونازول؛ کلوتریمازول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گریزوفولوین؛ تربینافین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیستاتین؛ 5-فلوروسیتوزین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیستاتین؛ آمفوتریسین B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در فردی که سابقه ابتلا به عفونت هپاتیت B در گذشته را دارد و بهبودی کامل پیدا کرده است. کدام یک از مارکر های سرمی مثبت می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBcAb – HbsAg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBsAg – HbsAb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBsAb – HbcAb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBcAg – HbeAb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از تایپ های ویروس پاپیلوما عامل بیشترین موارد سرطان سرویکس محسوب می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تایپ های 16 و 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تایپ های 6 و 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تایپ های 1 و 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تایپ های 2 و 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از واکسن های ویروسی زیر به صورت ویروس زنده ضعیف شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاپیلوما ویروس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکسن خوراکی فلج اطفال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هپاتیت A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کودک 3 ماهه با عفونت تنفسی به بیمارستان ارجاع داده می شود. پزشک متخصص تشخیص برونشیولیت را در مورد وی مطرح می کند و تحت درمان با داروی ریباورین قرار می گیرد تشخیص احتمالی با کدام یک از عفونت های ویروسی زیر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رینو ویروس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آدنو ویروس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متاپنومو ویروس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویروس سینسیشیال تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عفونت های ویروسی زیر باعث ایجاد التهاب شبکیه چشم (Retinitis) در بیماران مبتال به HIV
+با سطح سلول هایCD4 T زیر 200 سلول در هر میکرولیتر میشود ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHV-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHV-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از مسیرهای عصبی زیر در بصل النخاع تقاطع میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راه ربرو-اسپاينال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راه نخاعی-بامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راه گلوبوس-امبولیفرم-روبرال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الياف دسته كونئاتوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حس لمس دقیق از طریق کدام یک از نوارهای عصبی زیر منتقل میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لمینسکوس نخاعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لمینسکوس خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لمينسکوس داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لمینسکوس تریجمینال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در لبه آزاد داس مغزی کدام سینوس وریدی قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتروزال فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساژیتال تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساژیتال فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از هسته های تالاموس اطلاعات چشایی را دریافت می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم زانوئی داخلی (MGB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شکمی قدامی (ونترالانتریور)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داخلی پشتی (مديال دورسال)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شکمی خلفی داخلی (ونترال پوستريور مديال)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از هسته های زیر در پل مغزی قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته حركتی عصب زوج 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته پاراسمپاتیک عصب زوج 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته پاراسمپاتيک عصب زوج 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته حركتی آمبيگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر در سطح داخلی نیم کره های مغزی قرار ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيار كالکارين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لامينا ترمینالیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحیه بروكا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحيه حركتی مکمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از تمام موارد زیر بر روی استخوان اسفنوئید قرار ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ بيضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ گرد يا روتندوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ ژوگولار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانال پتريگوييد يا مجرای ويدين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سونوگرافی داپلریک آقای 58ساله آنوریسم شریان کاروتید مشترک و اثر فشاری آن بر رویقوس گردنی
+دیده میشود. به نظر شما عملکرد کدام عضله کمترین اختلال را خواهد داشت؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omohyoid. M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sternothyroid. M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sternohyoid. M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geniohyoid. M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت شکستگی حفره کرانیال خلفی، کدام یک از ساختارهای زیر کمتر آسیب میبیند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertebral artery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facial nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandibular nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عناصر زیر با سطح قدامی عضله اسکالن قدامی مجاورت ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان گردنی عمقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان سوپرا كالويکولار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وريد ساب كالوين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب فرنيک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب کدام یک از عضلات زیر از تنه عصب ماندیبولار تامین نمی شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنسور ويلی پالاتينی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتريگوئيد خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنسور تمپانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتریگوئید داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به دنبال برداشتن لوزه کامی کدام یک از اعصاب زیر ممکن است آسیب ببیند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نردبان های دهلیزی و صماخی در گوش داخلی توسط کدام یک از ساختار زیر از یکدیگر جدا می شوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگامان مارپيچی (اسپیرال)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غشا وستيبولار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تيغه مارپيچی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غشا بازيلار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گانگلیون مژگانی (Cilliary Ganglion) الیاف پاراسمپاتیک عصب اوکولوموتور (زوج3) را از طریق عصب
+کدام عضله زیر دریافت میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ركتوس تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مايل تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ركتوس داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مايل فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عناصر تشریحی زیر از کانال ساب سارتوریال (اددکتور) عبور نمیکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان رانی عمقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان رانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب عضله واستوس مدياليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب صافنوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از شاخه های شریانی زیر در آناستوموز صلیبی شرکت نمیکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اولين شريان سوراخ كننده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان گلوتئال فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان سيركومفلس فمورال داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان سيركومفلس فمورال خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منیسک خارجی زانو در ارتباط با کدام یک از تاندون عضلات زیر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله بای سپس فموريس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله سمی تندينوسوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله سمی ممبرانوسوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله پوپليتوئوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عضالت زیر بیشتر در جریان راه رفتن از قوس طولی داخلی پا حمایت میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تيبياليس خلفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيبولاريس لونگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيبولاريسبرويس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكستانسور هالوسيس لونگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در شکستگی گردن استخوان تالوس نکروز آواسکولار کدام بخش از استخوان بیشتر مشاهده می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سر تالوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گردن تالوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سر و گردن تالوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنه و سطح خلفی تالوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از اعصاب جلدی زیر با نفوذ به سر خارجی عضله سه سر بازویی و فاسیای عمقی آن زیر جلدی
+میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب جلدی خلفی ساعد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب جلدی بازویی خلفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب جلدی ساعدی خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب جلدی فوقانی خارجی بازو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاندون کدام یک از عضلات زیر شاخص مهمی برای یافتن نبض شریان رادیال میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابداكتور پوليسيس لونگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پالماريس لونگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلکسور پوليسيس لونگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلکسور كارپی رادياليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عضلات زیر از عصب اولنار عصب گیری نمی شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پالماريس برويس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابداكتور ديژيتی مينيمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دومين لومبريکال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سومين اينتراوسئوس دورسال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمام ساختارهای زیر در قدام حالب راست قرار ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دئودنوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عروق ايليوكوليک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريشه مزانتر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وريد مزانتريک تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از شریانهای زیر آناستوموز شریانی را بین تنه سلیاک و مزانتریک فوقانی فراهم میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان های پانکراتيکودئودنال فوقانی و تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان های گاستريک راست و چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان های گاسترواپيپلوئيک راست و چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان های كوليک مياني و كوليک چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر در تشکیل هردو دیواره فوقانی و خلفی کانال اینگوئینال مشارکت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله عرضی شکم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله مايل داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاسيای عرضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليگامان اينگوئينال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از لیگامان های زیر در تشکیل دیواره طرفی چپ لسرساک شرکت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گاستروكوليک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرنيکوكوليک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گاستروهپاتيک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گاسترواسپلنيک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر در مورد کبد صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خلفی ترین عناصر ناف كبد شريان های كبدی هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوب های مربع و راست كبد توسط شيار ليگامان وريدی از هم جدا می شوند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناودان ازوفاگوس در سطح خلفی لوب چپ كبد قرار دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگامان های كرونری در سطح خلفی لوب چپ كبد قرار دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عناصر تشریحی زیر در خلف اولین قسمت دئودنوم قرار ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجرای كلدوک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان هپاتيک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وريد پورت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان گاسترودئودنال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لایه خلفی غلاف عضله راست شکمی در یک چهارم تحتانی شکم توسط کدام یک از عناصر زیر ساخته
+میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله مايل خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از وریدهای قلبی زیر در داخل شیار کروناری قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anterior Cardiac Vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Cardiac Vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Cardiac Vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small Cardiac Vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پریکارد فیبروزی از کدام یک از اعصاب زیر، عصب گیری حسی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercostal Nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagus Nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrenic Nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sympathetic Trunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فضاهای بین دنده ای قدامی هفتم تا نهم توسط کدام یک از شریان های زیر خون رسانی می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توراسیک داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آئورت سینهای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپی گاستريک فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موسکولوفرنیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عناصر زیر از خلف سینوس مایل پریکاردی قلب عبور میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آئورت صعودی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید آزيگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عناصر تشریحی زیر با سطح داخلی هر دو ریه مجاورت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید اجوف فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازوفاگوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آئورتای سينه ای</t>
   </si>
 </sst>
 </file>
@@ -10619,7 +11684,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10644,20 +11709,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -10783,10 +11844,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H559"/>
+  <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C551" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F560" activeCellId="0" sqref="F560"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A629" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G633" activeCellId="0" sqref="G633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24044,7 +25105,7 @@
       <c r="G510" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H510" s="0" t="n">
+      <c r="H510" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24070,7 +25131,7 @@
       <c r="G511" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H511" s="0" t="n">
+      <c r="H511" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -24096,7 +25157,7 @@
       <c r="G512" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H512" s="0" t="n">
+      <c r="H512" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -24122,7 +25183,7 @@
       <c r="G513" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H513" s="0" t="n">
+      <c r="H513" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24148,1129 +25209,2999 @@
       <c r="G514" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H514" s="0" t="n">
+      <c r="H514" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="6" t="s">
+      <c r="A515" s="5" t="s">
         <v>2470</v>
       </c>
-      <c r="B515" s="7" t="s">
+      <c r="B515" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="C515" s="7" t="s">
+      <c r="C515" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="D515" s="7" t="s">
+      <c r="D515" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="E515" s="7" t="s">
+      <c r="E515" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="F515" s="8" t="s">
+      <c r="F515" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G515" s="8" t="s">
+      <c r="G515" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H515" s="0" t="n">
+      <c r="H515" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="0" t="s">
+      <c r="A516" s="4" t="s">
         <v>2474</v>
       </c>
-      <c r="B516" s="0" t="s">
+      <c r="B516" s="4" t="s">
         <v>2475</v>
       </c>
-      <c r="C516" s="0" t="s">
+      <c r="C516" s="4" t="s">
         <v>2476</v>
       </c>
-      <c r="D516" s="0" t="s">
+      <c r="D516" s="4" t="s">
         <v>2477</v>
       </c>
-      <c r="E516" s="0" t="s">
+      <c r="E516" s="4" t="s">
         <v>2478</v>
       </c>
-      <c r="F516" s="8" t="s">
+      <c r="F516" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G516" s="8" t="s">
+      <c r="G516" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H516" s="0" t="n">
+      <c r="H516" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="0" t="s">
+      <c r="A517" s="4" t="s">
         <v>2479</v>
       </c>
-      <c r="B517" s="0" t="s">
+      <c r="B517" s="4" t="s">
         <v>2480</v>
       </c>
-      <c r="C517" s="0" t="s">
+      <c r="C517" s="4" t="s">
         <v>2481</v>
       </c>
-      <c r="D517" s="0" t="s">
+      <c r="D517" s="4" t="s">
         <v>2482</v>
       </c>
-      <c r="E517" s="0" t="s">
+      <c r="E517" s="4" t="s">
         <v>2483</v>
       </c>
-      <c r="F517" s="8" t="s">
+      <c r="F517" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G517" s="8" t="s">
+      <c r="G517" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H517" s="0" t="n">
+      <c r="H517" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
+      <c r="A518" s="4" t="s">
         <v>2484</v>
       </c>
-      <c r="B518" s="0" t="s">
+      <c r="B518" s="4" t="s">
         <v>2485</v>
       </c>
-      <c r="C518" s="0" t="s">
+      <c r="C518" s="4" t="s">
         <v>2486</v>
       </c>
-      <c r="D518" s="0" t="s">
+      <c r="D518" s="4" t="s">
         <v>2487</v>
       </c>
-      <c r="E518" s="0" t="s">
+      <c r="E518" s="4" t="s">
         <v>2488</v>
       </c>
-      <c r="F518" s="8" t="s">
+      <c r="F518" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G518" s="8" t="s">
+      <c r="G518" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H518" s="0" t="n">
+      <c r="H518" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="0" t="s">
+      <c r="A519" s="4" t="s">
         <v>2489</v>
       </c>
-      <c r="B519" s="0" t="s">
+      <c r="B519" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C519" s="0" t="s">
+      <c r="C519" s="4" t="s">
         <v>2490</v>
       </c>
-      <c r="D519" s="0" t="s">
+      <c r="D519" s="4" t="s">
         <v>2491</v>
       </c>
-      <c r="E519" s="0" t="s">
+      <c r="E519" s="4" t="s">
         <v>2492</v>
       </c>
-      <c r="F519" s="8" t="s">
+      <c r="F519" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G519" s="8" t="s">
+      <c r="G519" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H519" s="0" t="n">
+      <c r="H519" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="90.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="6" t="s">
+      <c r="A520" s="5" t="s">
         <v>2493</v>
       </c>
-      <c r="B520" s="7" t="s">
+      <c r="B520" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="C520" s="7" t="s">
+      <c r="C520" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="D520" s="7" t="s">
+      <c r="D520" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="E520" s="7" t="s">
+      <c r="E520" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="F520" s="8" t="s">
+      <c r="F520" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G520" s="8" t="s">
+      <c r="G520" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H520" s="0" t="n">
+      <c r="H520" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="0" t="s">
+      <c r="A521" s="4" t="s">
         <v>2497</v>
       </c>
-      <c r="B521" s="0" t="s">
+      <c r="B521" s="4" t="s">
         <v>2498</v>
       </c>
-      <c r="C521" s="0" t="s">
+      <c r="C521" s="4" t="s">
         <v>2499</v>
       </c>
-      <c r="D521" s="0" t="s">
+      <c r="D521" s="4" t="s">
         <v>2500</v>
       </c>
-      <c r="E521" s="0" t="s">
+      <c r="E521" s="4" t="s">
         <v>2501</v>
       </c>
-      <c r="F521" s="8" t="s">
+      <c r="F521" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G521" s="8" t="s">
+      <c r="G521" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H521" s="0" t="n">
+      <c r="H521" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="0" t="s">
+      <c r="A522" s="4" t="s">
         <v>2502</v>
       </c>
-      <c r="B522" s="0" t="s">
+      <c r="B522" s="4" t="s">
         <v>2503</v>
       </c>
-      <c r="C522" s="0" t="s">
+      <c r="C522" s="4" t="s">
         <v>2504</v>
       </c>
-      <c r="D522" s="0" t="s">
+      <c r="D522" s="4" t="s">
         <v>2505</v>
       </c>
-      <c r="E522" s="0" t="s">
+      <c r="E522" s="4" t="s">
         <v>2506</v>
       </c>
-      <c r="F522" s="8" t="s">
+      <c r="F522" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G522" s="8" t="s">
+      <c r="G522" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H522" s="0" t="n">
+      <c r="H522" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="0" t="s">
+      <c r="A523" s="4" t="s">
         <v>2507</v>
       </c>
-      <c r="B523" s="0" t="s">
+      <c r="B523" s="4" t="s">
         <v>2508</v>
       </c>
-      <c r="C523" s="0" t="s">
+      <c r="C523" s="4" t="s">
         <v>2509</v>
       </c>
-      <c r="D523" s="0" t="s">
+      <c r="D523" s="4" t="s">
         <v>2510</v>
       </c>
-      <c r="E523" s="0" t="s">
+      <c r="E523" s="4" t="s">
         <v>2511</v>
       </c>
-      <c r="F523" s="8" t="s">
+      <c r="F523" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G523" s="8" t="s">
+      <c r="G523" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H523" s="0" t="n">
+      <c r="H523" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="0" t="s">
+      <c r="A524" s="4" t="s">
         <v>2512</v>
       </c>
-      <c r="B524" s="0" t="s">
+      <c r="B524" s="4" t="s">
         <v>2513</v>
       </c>
-      <c r="C524" s="0" t="s">
+      <c r="C524" s="4" t="s">
         <v>2514</v>
       </c>
-      <c r="D524" s="0" t="s">
+      <c r="D524" s="4" t="s">
         <v>2515</v>
       </c>
-      <c r="E524" s="0" t="s">
+      <c r="E524" s="4" t="s">
         <v>2516</v>
       </c>
-      <c r="F524" s="8" t="s">
+      <c r="F524" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G524" s="8" t="s">
+      <c r="G524" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H524" s="0" t="n">
+      <c r="H524" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="90.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="6" t="s">
+      <c r="A525" s="5" t="s">
         <v>2517</v>
       </c>
-      <c r="B525" s="7" t="s">
+      <c r="B525" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="C525" s="7" t="s">
+      <c r="C525" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="D525" s="7" t="s">
+      <c r="D525" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="E525" s="7" t="s">
+      <c r="E525" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="F525" s="8" t="s">
+      <c r="F525" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G525" s="8" t="s">
+      <c r="G525" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H525" s="0" t="n">
+      <c r="H525" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="146.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="9" t="s">
+      <c r="A526" s="5" t="s">
         <v>2522</v>
       </c>
-      <c r="B526" s="9" t="s">
+      <c r="B526" s="5" t="s">
         <v>2523</v>
       </c>
-      <c r="C526" s="8" t="s">
+      <c r="C526" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="D526" s="8" t="s">
+      <c r="D526" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="E526" s="7" t="s">
+      <c r="E526" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="F526" s="8" t="s">
+      <c r="F526" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G526" s="8" t="s">
+      <c r="G526" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H526" s="0" t="n">
+      <c r="H526" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="0" t="s">
+      <c r="A527" s="4" t="s">
         <v>2527</v>
       </c>
-      <c r="B527" s="0" t="s">
+      <c r="B527" s="4" t="s">
         <v>2528</v>
       </c>
-      <c r="C527" s="0" t="s">
+      <c r="C527" s="4" t="s">
         <v>2529</v>
       </c>
-      <c r="D527" s="0" t="s">
+      <c r="D527" s="4" t="s">
         <v>2530</v>
       </c>
-      <c r="E527" s="0" t="s">
+      <c r="E527" s="4" t="s">
         <v>1921</v>
       </c>
-      <c r="F527" s="8" t="s">
+      <c r="F527" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G527" s="8" t="s">
+      <c r="G527" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H527" s="0" t="n">
+      <c r="H527" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="0" t="s">
+      <c r="A528" s="4" t="s">
         <v>2531</v>
       </c>
-      <c r="B528" s="0" t="s">
+      <c r="B528" s="4" t="s">
         <v>2532</v>
       </c>
-      <c r="C528" s="0" t="s">
+      <c r="C528" s="4" t="s">
         <v>2533</v>
       </c>
-      <c r="D528" s="0" t="s">
+      <c r="D528" s="4" t="s">
         <v>2534</v>
       </c>
-      <c r="E528" s="0" t="s">
+      <c r="E528" s="4" t="s">
         <v>2535</v>
       </c>
-      <c r="F528" s="8" t="s">
+      <c r="F528" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G528" s="8" t="s">
+      <c r="G528" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H528" s="0" t="n">
+      <c r="H528" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="0" t="s">
+      <c r="A529" s="4" t="s">
         <v>2536</v>
       </c>
-      <c r="B529" s="0" t="s">
+      <c r="B529" s="4" t="s">
         <v>2537</v>
       </c>
-      <c r="C529" s="0" t="s">
+      <c r="C529" s="4" t="s">
         <v>2538</v>
       </c>
-      <c r="D529" s="0" t="s">
+      <c r="D529" s="4" t="s">
         <v>2539</v>
       </c>
-      <c r="E529" s="0" t="s">
+      <c r="E529" s="4" t="s">
         <v>2540</v>
       </c>
-      <c r="F529" s="8" t="s">
+      <c r="F529" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G529" s="8" t="s">
+      <c r="G529" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H529" s="0" t="n">
+      <c r="H529" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="0" t="s">
+      <c r="A530" s="4" t="s">
         <v>2541</v>
       </c>
-      <c r="B530" s="0" t="s">
+      <c r="B530" s="4" t="s">
         <v>2542</v>
       </c>
-      <c r="C530" s="0" t="s">
+      <c r="C530" s="4" t="s">
         <v>2543</v>
       </c>
-      <c r="D530" s="0" t="s">
+      <c r="D530" s="4" t="s">
         <v>2544</v>
       </c>
-      <c r="E530" s="0" t="s">
+      <c r="E530" s="4" t="s">
         <v>2545</v>
       </c>
-      <c r="F530" s="8" t="s">
+      <c r="F530" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G530" s="8" t="s">
+      <c r="G530" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H530" s="0" t="n">
+      <c r="H530" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="0" t="s">
+      <c r="A531" s="4" t="s">
         <v>2546</v>
       </c>
-      <c r="B531" s="0" t="s">
+      <c r="B531" s="4" t="s">
         <v>2547</v>
       </c>
-      <c r="C531" s="0" t="s">
+      <c r="C531" s="4" t="s">
         <v>2548</v>
       </c>
-      <c r="D531" s="0" t="s">
+      <c r="D531" s="4" t="s">
         <v>2549</v>
       </c>
-      <c r="E531" s="0" t="s">
+      <c r="E531" s="4" t="s">
         <v>2550</v>
       </c>
-      <c r="F531" s="8" t="s">
+      <c r="F531" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G531" s="8" t="s">
+      <c r="G531" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H531" s="0" t="n">
+      <c r="H531" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="0" t="s">
+      <c r="A532" s="4" t="s">
         <v>2551</v>
       </c>
-      <c r="B532" s="0" t="s">
+      <c r="B532" s="4" t="s">
         <v>2552</v>
       </c>
-      <c r="C532" s="0" t="s">
+      <c r="C532" s="4" t="s">
         <v>2553</v>
       </c>
-      <c r="D532" s="0" t="s">
+      <c r="D532" s="4" t="s">
         <v>2554</v>
       </c>
-      <c r="E532" s="0" t="s">
+      <c r="E532" s="4" t="s">
         <v>2555</v>
       </c>
-      <c r="F532" s="8" t="s">
+      <c r="F532" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G532" s="8" t="s">
+      <c r="G532" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H532" s="0" t="n">
+      <c r="H532" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="8" t="s">
+      <c r="A533" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="B533" s="8" t="s">
+      <c r="B533" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="C533" s="8" t="s">
+      <c r="C533" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="D533" s="7" t="s">
+      <c r="D533" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="E533" s="7" t="s">
+      <c r="E533" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="F533" s="8" t="s">
+      <c r="F533" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G533" s="8" t="s">
+      <c r="G533" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H533" s="0" t="n">
+      <c r="H533" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="0" t="s">
+      <c r="A534" s="4" t="s">
         <v>2561</v>
       </c>
-      <c r="B534" s="0" t="s">
+      <c r="B534" s="4" t="s">
         <v>2562</v>
       </c>
-      <c r="C534" s="0" t="s">
+      <c r="C534" s="4" t="s">
         <v>2563</v>
       </c>
-      <c r="D534" s="0" t="s">
+      <c r="D534" s="4" t="s">
         <v>2564</v>
       </c>
-      <c r="E534" s="0" t="s">
+      <c r="E534" s="4" t="s">
         <v>2565</v>
       </c>
-      <c r="F534" s="8" t="s">
+      <c r="F534" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G534" s="8" t="s">
+      <c r="G534" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H534" s="0" t="n">
+      <c r="H534" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="0" t="s">
+      <c r="A535" s="4" t="s">
         <v>2566</v>
       </c>
-      <c r="B535" s="0" t="s">
+      <c r="B535" s="4" t="s">
         <v>2567</v>
       </c>
-      <c r="C535" s="0" t="s">
+      <c r="C535" s="4" t="s">
         <v>2568</v>
       </c>
-      <c r="D535" s="0" t="s">
+      <c r="D535" s="4" t="s">
         <v>2569</v>
       </c>
-      <c r="E535" s="0" t="s">
+      <c r="E535" s="4" t="s">
         <v>2570</v>
       </c>
-      <c r="F535" s="8" t="s">
+      <c r="F535" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G535" s="8" t="s">
+      <c r="G535" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H535" s="0" t="n">
+      <c r="H535" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="0" t="s">
+      <c r="A536" s="4" t="s">
         <v>2571</v>
       </c>
-      <c r="B536" s="0" t="s">
+      <c r="B536" s="4" t="s">
         <v>2572</v>
       </c>
-      <c r="C536" s="0" t="s">
+      <c r="C536" s="4" t="s">
         <v>2573</v>
       </c>
-      <c r="D536" s="0" t="s">
+      <c r="D536" s="4" t="s">
         <v>2574</v>
       </c>
-      <c r="E536" s="0" t="s">
+      <c r="E536" s="4" t="s">
         <v>2575</v>
       </c>
-      <c r="F536" s="8" t="s">
+      <c r="F536" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G536" s="8" t="s">
+      <c r="G536" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H536" s="0" t="n">
+      <c r="H536" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="0" t="s">
+      <c r="A537" s="4" t="s">
         <v>2576</v>
       </c>
-      <c r="B537" s="0" t="s">
+      <c r="B537" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="C537" s="0" t="s">
+      <c r="C537" s="4" t="s">
         <v>2578</v>
       </c>
-      <c r="D537" s="0" t="s">
+      <c r="D537" s="4" t="s">
         <v>2579</v>
       </c>
-      <c r="E537" s="0" t="s">
+      <c r="E537" s="4" t="s">
         <v>2580</v>
       </c>
-      <c r="F537" s="8" t="s">
+      <c r="F537" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G537" s="8" t="s">
+      <c r="G537" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H537" s="0" t="n">
+      <c r="H537" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="0" t="s">
+      <c r="A538" s="4" t="s">
         <v>2581</v>
       </c>
-      <c r="B538" s="0" t="s">
+      <c r="B538" s="4" t="s">
         <v>2582</v>
       </c>
-      <c r="C538" s="0" t="s">
+      <c r="C538" s="4" t="s">
         <v>2583</v>
       </c>
-      <c r="D538" s="0" t="s">
+      <c r="D538" s="4" t="s">
         <v>2584</v>
       </c>
-      <c r="E538" s="0" t="s">
+      <c r="E538" s="4" t="s">
         <v>2585</v>
       </c>
-      <c r="F538" s="8" t="s">
+      <c r="F538" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G538" s="8" t="s">
+      <c r="G538" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H538" s="0" t="n">
+      <c r="H538" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="0" t="s">
+      <c r="A539" s="4" t="s">
         <v>2586</v>
       </c>
-      <c r="B539" s="0" t="s">
+      <c r="B539" s="4" t="s">
         <v>2587</v>
       </c>
-      <c r="C539" s="0" t="s">
+      <c r="C539" s="4" t="s">
         <v>2588</v>
       </c>
-      <c r="D539" s="0" t="s">
+      <c r="D539" s="4" t="s">
         <v>2589</v>
       </c>
-      <c r="E539" s="8" t="s">
+      <c r="E539" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="F539" s="8" t="s">
+      <c r="F539" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G539" s="8" t="s">
+      <c r="G539" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H539" s="0" t="n">
+      <c r="H539" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="0" t="s">
+      <c r="A540" s="4" t="s">
         <v>2591</v>
       </c>
-      <c r="B540" s="0" t="s">
+      <c r="B540" s="4" t="s">
         <v>2592</v>
       </c>
-      <c r="C540" s="0" t="s">
+      <c r="C540" s="4" t="s">
         <v>2593</v>
       </c>
-      <c r="D540" s="0" t="s">
+      <c r="D540" s="4" t="s">
         <v>2594</v>
       </c>
-      <c r="E540" s="0" t="s">
+      <c r="E540" s="4" t="s">
         <v>2595</v>
       </c>
-      <c r="F540" s="8" t="s">
+      <c r="F540" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G540" s="8" t="s">
+      <c r="G540" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H540" s="0" t="n">
+      <c r="H540" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="0" t="s">
+      <c r="A541" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="B541" s="0" t="s">
+      <c r="B541" s="4" t="s">
         <v>2597</v>
       </c>
-      <c r="C541" s="8" t="s">
+      <c r="C541" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="D541" s="7" t="s">
+      <c r="D541" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="E541" s="7" t="s">
+      <c r="E541" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="F541" s="8" t="s">
+      <c r="F541" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G541" s="8" t="s">
+      <c r="G541" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H541" s="0" t="n">
+      <c r="H541" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="0" t="s">
+      <c r="A542" s="4" t="s">
         <v>2601</v>
       </c>
-      <c r="B542" s="0" t="s">
+      <c r="B542" s="4" t="s">
         <v>2602</v>
       </c>
-      <c r="C542" s="0" t="s">
+      <c r="C542" s="4" t="s">
         <v>2603</v>
       </c>
-      <c r="D542" s="0" t="s">
+      <c r="D542" s="4" t="s">
         <v>2604</v>
       </c>
-      <c r="E542" s="0" t="s">
+      <c r="E542" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="F542" s="8" t="s">
+      <c r="F542" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G542" s="8" t="s">
+      <c r="G542" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H542" s="0" t="n">
+      <c r="H542" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="0" t="s">
+      <c r="A543" s="4" t="s">
         <v>2606</v>
       </c>
-      <c r="B543" s="0" t="s">
+      <c r="B543" s="4" t="s">
         <v>2607</v>
       </c>
-      <c r="C543" s="0" t="s">
+      <c r="C543" s="4" t="s">
         <v>2608</v>
       </c>
-      <c r="D543" s="0" t="s">
+      <c r="D543" s="4" t="s">
         <v>2609</v>
       </c>
-      <c r="E543" s="0" t="s">
+      <c r="E543" s="4" t="s">
         <v>2610</v>
       </c>
-      <c r="F543" s="8" t="s">
+      <c r="F543" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G543" s="8" t="s">
+      <c r="G543" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H543" s="0" t="n">
+      <c r="H543" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="0" t="s">
+      <c r="A544" s="4" t="s">
         <v>2611</v>
       </c>
-      <c r="B544" s="0" t="s">
+      <c r="B544" s="4" t="s">
         <v>2612</v>
       </c>
-      <c r="C544" s="0" t="s">
+      <c r="C544" s="4" t="s">
         <v>2613</v>
       </c>
-      <c r="D544" s="0" t="s">
+      <c r="D544" s="4" t="s">
         <v>2614</v>
       </c>
-      <c r="E544" s="0" t="s">
+      <c r="E544" s="4" t="s">
         <v>2615</v>
       </c>
-      <c r="F544" s="8" t="s">
+      <c r="F544" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G544" s="8" t="s">
+      <c r="G544" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H544" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="0" t="s">
+      <c r="A545" s="4" t="s">
         <v>2616</v>
       </c>
-      <c r="B545" s="0" t="s">
+      <c r="B545" s="4" t="s">
         <v>2617</v>
       </c>
-      <c r="C545" s="0" t="s">
+      <c r="C545" s="4" t="s">
         <v>2618</v>
       </c>
-      <c r="D545" s="0" t="s">
+      <c r="D545" s="4" t="s">
         <v>2619</v>
       </c>
-      <c r="E545" s="0" t="s">
+      <c r="E545" s="4" t="s">
         <v>2620</v>
       </c>
-      <c r="F545" s="8" t="s">
+      <c r="F545" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G545" s="8" t="s">
+      <c r="G545" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H545" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="0" t="s">
+      <c r="A546" s="4" t="s">
         <v>2621</v>
       </c>
-      <c r="B546" s="0" t="s">
+      <c r="B546" s="4" t="s">
         <v>2622</v>
       </c>
-      <c r="C546" s="0" t="s">
+      <c r="C546" s="4" t="s">
         <v>2623</v>
       </c>
-      <c r="D546" s="0" t="s">
+      <c r="D546" s="4" t="s">
         <v>2624</v>
       </c>
-      <c r="E546" s="0" t="s">
+      <c r="E546" s="4" t="s">
         <v>2625</v>
       </c>
-      <c r="F546" s="8" t="s">
+      <c r="F546" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G546" s="8" t="s">
+      <c r="G546" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H546" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="0" t="s">
+      <c r="A547" s="4" t="s">
         <v>2626</v>
       </c>
-      <c r="B547" s="0" t="s">
+      <c r="B547" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C547" s="0" t="s">
+      <c r="C547" s="4" t="s">
         <v>2627</v>
       </c>
-      <c r="D547" s="0" t="s">
+      <c r="D547" s="4" t="s">
         <v>2628</v>
       </c>
-      <c r="E547" s="0" t="s">
+      <c r="E547" s="4" t="s">
         <v>2629</v>
       </c>
-      <c r="F547" s="8" t="s">
+      <c r="F547" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G547" s="8" t="s">
+      <c r="G547" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H547" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="0" t="s">
+      <c r="A548" s="4" t="s">
         <v>2630</v>
       </c>
-      <c r="B548" s="0" t="s">
+      <c r="B548" s="4" t="s">
         <v>2631</v>
       </c>
-      <c r="C548" s="0" t="s">
+      <c r="C548" s="4" t="s">
         <v>2632</v>
       </c>
-      <c r="D548" s="0" t="s">
+      <c r="D548" s="4" t="s">
         <v>2633</v>
       </c>
-      <c r="E548" s="0" t="s">
+      <c r="E548" s="4" t="s">
         <v>2634</v>
       </c>
-      <c r="F548" s="8" t="s">
+      <c r="F548" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G548" s="8" t="s">
+      <c r="G548" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H548" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="0" t="s">
+      <c r="A549" s="4" t="s">
         <v>2635</v>
       </c>
-      <c r="B549" s="0" t="s">
+      <c r="B549" s="4" t="s">
         <v>2636</v>
       </c>
-      <c r="C549" s="0" t="s">
+      <c r="C549" s="4" t="s">
         <v>2637</v>
       </c>
-      <c r="D549" s="0" t="s">
+      <c r="D549" s="4" t="s">
         <v>2638</v>
       </c>
-      <c r="E549" s="0" t="s">
+      <c r="E549" s="4" t="s">
         <v>2639</v>
       </c>
-      <c r="F549" s="8" t="s">
+      <c r="F549" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G549" s="8" t="s">
+      <c r="G549" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H549" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="0" t="s">
+      <c r="A550" s="4" t="s">
         <v>2640</v>
       </c>
-      <c r="B550" s="0" t="s">
+      <c r="B550" s="4" t="s">
         <v>2641</v>
       </c>
-      <c r="C550" s="0" t="s">
+      <c r="C550" s="4" t="s">
         <v>2642</v>
       </c>
-      <c r="D550" s="0" t="s">
+      <c r="D550" s="4" t="s">
         <v>2643</v>
       </c>
-      <c r="E550" s="0" t="s">
+      <c r="E550" s="4" t="s">
         <v>2644</v>
       </c>
-      <c r="F550" s="8" t="s">
+      <c r="F550" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G550" s="8" t="s">
+      <c r="G550" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H550" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="8" t="s">
+      <c r="A551" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="B551" s="8" t="s">
+      <c r="B551" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C551" s="7" t="s">
+      <c r="C551" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="D551" s="7" t="s">
+      <c r="D551" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="E551" s="7" t="s">
+      <c r="E551" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="F551" s="8" t="s">
+      <c r="F551" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G551" s="8" t="s">
+      <c r="G551" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H551" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="0" t="s">
+      <c r="A552" s="4" t="s">
         <v>2649</v>
       </c>
-      <c r="B552" s="0" t="s">
+      <c r="B552" s="4" t="s">
         <v>2650</v>
       </c>
-      <c r="C552" s="0" t="s">
+      <c r="C552" s="4" t="s">
         <v>2651</v>
       </c>
-      <c r="D552" s="0" t="s">
+      <c r="D552" s="4" t="s">
         <v>2652</v>
       </c>
-      <c r="E552" s="0" t="s">
+      <c r="E552" s="4" t="s">
         <v>2646</v>
       </c>
-      <c r="F552" s="8" t="s">
+      <c r="F552" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G552" s="8" t="s">
+      <c r="G552" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H552" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="0" t="s">
+      <c r="A553" s="4" t="s">
         <v>2653</v>
       </c>
-      <c r="B553" s="0" t="n">
+      <c r="B553" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C553" s="0" t="n">
+      <c r="C553" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D553" s="0" t="n">
+      <c r="D553" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="E553" s="0" t="n">
+      <c r="E553" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="F553" s="8" t="s">
+      <c r="F553" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G553" s="8" t="s">
+      <c r="G553" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H553" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="6" t="s">
+      <c r="A554" s="5" t="s">
         <v>2654</v>
       </c>
-      <c r="B554" s="7" t="s">
+      <c r="B554" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="C554" s="7" t="s">
+      <c r="C554" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="D554" s="7" t="s">
+      <c r="D554" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="E554" s="7" t="s">
+      <c r="E554" s="1" t="s">
         <v>2658</v>
       </c>
-      <c r="F554" s="8" t="s">
+      <c r="F554" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G554" s="8" t="s">
+      <c r="G554" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H554" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="0" t="s">
+      <c r="A555" s="4" t="s">
         <v>2659</v>
       </c>
-      <c r="B555" s="0" t="s">
+      <c r="B555" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C555" s="0" t="s">
+      <c r="C555" s="4" t="s">
         <v>2660</v>
       </c>
-      <c r="D555" s="0" t="s">
+      <c r="D555" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E555" s="0" t="s">
+      <c r="E555" s="4" t="s">
         <v>2661</v>
       </c>
-      <c r="F555" s="8" t="s">
+      <c r="F555" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G555" s="8" t="s">
+      <c r="G555" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H555" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="0" t="s">
+      <c r="A556" s="4" t="s">
         <v>2662</v>
       </c>
-      <c r="B556" s="0" t="s">
+      <c r="B556" s="4" t="s">
         <v>2663</v>
       </c>
-      <c r="C556" s="0" t="s">
+      <c r="C556" s="4" t="s">
         <v>2664</v>
       </c>
-      <c r="D556" s="0" t="s">
+      <c r="D556" s="4" t="s">
         <v>2665</v>
       </c>
-      <c r="E556" s="0" t="s">
+      <c r="E556" s="4" t="s">
         <v>2666</v>
       </c>
-      <c r="F556" s="8" t="s">
+      <c r="F556" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G556" s="8" t="s">
+      <c r="G556" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H556" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="0" t="s">
+      <c r="A557" s="4" t="s">
         <v>2667</v>
       </c>
-      <c r="B557" s="0" t="s">
+      <c r="B557" s="4" t="s">
         <v>2668</v>
       </c>
-      <c r="C557" s="0" t="s">
+      <c r="C557" s="4" t="s">
         <v>2669</v>
       </c>
-      <c r="D557" s="0" t="s">
+      <c r="D557" s="4" t="s">
         <v>2670</v>
       </c>
-      <c r="E557" s="0" t="s">
+      <c r="E557" s="4" t="s">
         <v>2671</v>
       </c>
-      <c r="F557" s="8" t="s">
+      <c r="F557" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G557" s="8" t="s">
+      <c r="G557" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H557" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
+      <c r="A558" s="4" t="s">
         <v>2672</v>
       </c>
-      <c r="B558" s="0" t="s">
+      <c r="B558" s="4" t="s">
         <v>2673</v>
       </c>
-      <c r="C558" s="0" t="s">
+      <c r="C558" s="4" t="s">
         <v>2674</v>
       </c>
-      <c r="D558" s="0" t="s">
+      <c r="D558" s="4" t="s">
         <v>2675</v>
       </c>
-      <c r="E558" s="0" t="s">
+      <c r="E558" s="4" t="s">
         <v>2675</v>
       </c>
-      <c r="F558" s="8" t="s">
+      <c r="F558" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G558" s="8" t="s">
+      <c r="G558" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H558" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
+      <c r="A559" s="4" t="s">
         <v>2676</v>
       </c>
-      <c r="B559" s="0" t="s">
+      <c r="B559" s="4" t="s">
         <v>2677</v>
       </c>
-      <c r="C559" s="0" t="s">
+      <c r="C559" s="4" t="s">
         <v>2678</v>
       </c>
-      <c r="D559" s="0" t="s">
+      <c r="D559" s="4" t="s">
         <v>2679</v>
       </c>
-      <c r="E559" s="0" t="s">
+      <c r="E559" s="4" t="s">
         <v>2680</v>
       </c>
-      <c r="F559" s="8" t="s">
+      <c r="F559" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G559" s="8" t="s">
+      <c r="G559" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H559" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C560" s="0" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D560" s="0" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E560" s="0" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F560" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G560" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H560" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D561" s="0" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E561" s="0" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F561" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G561" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H561" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D562" s="0" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E562" s="0" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F562" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G562" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H562" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B563" s="0" t="s">
+        <v>2696</v>
+      </c>
+      <c r="C563" s="0" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D563" s="0" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E563" s="0" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F563" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G563" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H563" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>2701</v>
+      </c>
+      <c r="C564" s="0" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D564" s="0" t="s">
+        <v>2703</v>
+      </c>
+      <c r="E564" s="0" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F564" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G564" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H564" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>2706</v>
+      </c>
+      <c r="C565" s="0" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D565" s="0" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E565" s="0" t="s">
+        <v>2709</v>
+      </c>
+      <c r="F565" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G565" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H565" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B566" s="0" t="s">
+        <v>2711</v>
+      </c>
+      <c r="C566" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D566" s="0" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E566" s="0" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F566" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G566" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H566" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>2716</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D567" s="0" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E567" s="0" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F567" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G567" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H567" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B568" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D568" s="0" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E568" s="0" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F568" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G568" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H568" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B569" s="0" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C569" s="0" t="s">
+        <v>2726</v>
+      </c>
+      <c r="D569" s="0" t="s">
+        <v>2727</v>
+      </c>
+      <c r="E569" s="0" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F569" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G569" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H569" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B570" s="0" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C570" s="0" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D570" s="0" t="s">
+        <v>2732</v>
+      </c>
+      <c r="E570" s="0" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F570" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G570" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H570" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D571" s="0" t="s">
+        <v>2737</v>
+      </c>
+      <c r="E571" s="0" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F571" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G571" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H571" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>2741</v>
+      </c>
+      <c r="D572" s="0" t="s">
+        <v>2742</v>
+      </c>
+      <c r="E572" s="0" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F572" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G572" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H572" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B573" s="0" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D573" s="0" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E573" s="0" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F573" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G573" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H573" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="90.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="7" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B574" s="8" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C574" s="8" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D574" s="8" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E574" s="8" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F574" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G574" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H574" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>2754</v>
+      </c>
+      <c r="D575" s="0" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E575" s="0" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F575" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G575" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H575" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D576" s="0" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E576" s="0" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F576" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G576" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H576" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D577" s="0" t="s">
+        <v>2764</v>
+      </c>
+      <c r="E577" s="0" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F577" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G577" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H577" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C578" s="0" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D578" s="0" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E578" s="0" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F578" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G578" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H578" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D579" s="0" t="s">
+        <v>2774</v>
+      </c>
+      <c r="E579" s="0" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F579" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="G579" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H579" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D580" s="0" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E580" s="0" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F580" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H580" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C581" s="0" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D581" s="0" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E581" s="0" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F581" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G581" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H581" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C582" s="0" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D582" s="0" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E582" s="0" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F582" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G582" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H582" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C583" s="0" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D583" s="0" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E583" s="0" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F583" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G583" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H583" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C584" s="0" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D584" s="0" t="s">
+        <v>2799</v>
+      </c>
+      <c r="E584" s="0" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F584" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G584" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H584" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C585" s="0" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D585" s="0" t="s">
+        <v>2804</v>
+      </c>
+      <c r="E585" s="0" t="s">
+        <v>2805</v>
+      </c>
+      <c r="F585" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G585" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H585" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C586" s="0" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D586" s="0" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E586" s="0" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F586" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G586" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H586" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D587" s="0" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E587" s="0" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F587" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G587" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H587" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D588" s="0" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E588" s="0" t="s">
+        <v>2820</v>
+      </c>
+      <c r="F588" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="G588" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H588" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D589" s="0" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E589" s="0" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F589" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G589" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H589" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B590" s="0" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C590" s="0" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D590" s="0" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E590" s="0" t="s">
+        <v>2830</v>
+      </c>
+      <c r="F590" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="G590" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H590" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B591" s="0" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D591" s="0" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E591" s="0" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F591" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G591" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H591" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="0" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B592" s="0" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C592" s="0" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D592" s="0" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E592" s="0" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F592" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G592" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H592" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="0" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B593" s="0" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C593" s="0" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D593" s="0" t="s">
+        <v>2844</v>
+      </c>
+      <c r="E593" s="0" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F593" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="G593" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H593" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="6" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B594" s="8" t="s">
+        <v>2847</v>
+      </c>
+      <c r="C594" s="8" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D594" s="8" t="s">
+        <v>2849</v>
+      </c>
+      <c r="E594" s="8" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F594" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G594" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H594" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="0" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B595" s="0" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D595" s="6" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E595" s="8" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F595" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G595" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H595" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="0" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B596" s="0" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C596" s="0" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D596" s="0" t="s">
+        <v>2859</v>
+      </c>
+      <c r="E596" s="0" t="s">
+        <v>2860</v>
+      </c>
+      <c r="F596" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G596" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H596" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="0" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B597" s="0" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C597" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="D597" s="0" t="s">
+        <v>2863</v>
+      </c>
+      <c r="E597" s="0" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F597" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G597" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H597" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="0" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B598" s="0" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C598" s="0" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D598" s="0" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E598" s="0" t="s">
+        <v>2869</v>
+      </c>
+      <c r="F598" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G598" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H598" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="154.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="7" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B599" s="8" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C599" s="8" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D599" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E599" s="8" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F599" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G599" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H599" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="0" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B600" s="0" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C600" s="0" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D600" s="0" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E600" s="0" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F600" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G600" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="0" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B601" s="0" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C601" s="0" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D601" s="0" t="s">
+        <v>2882</v>
+      </c>
+      <c r="E601" s="0" t="s">
+        <v>2883</v>
+      </c>
+      <c r="F601" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G601" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="6" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B602" s="6" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D602" s="8" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E602" s="8" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F602" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G602" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="0" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B603" s="0" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C603" s="0" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D603" s="0" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E603" s="0" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F603" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G603" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="0" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B604" s="0" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C604" s="0" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D604" s="0" t="s">
+        <v>2897</v>
+      </c>
+      <c r="E604" s="0" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F604" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G604" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="0" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B605" s="0" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C605" s="0" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D605" s="0" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E605" s="0" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F605" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G605" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B606" s="0" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C606" s="0" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D606" s="0" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E606" s="0" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F606" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G606" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="135.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="7" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B607" s="8" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C607" s="8" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D607" s="8" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E607" s="8" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F607" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G607" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B608" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C608" s="0" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D608" s="0" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E608" s="0" t="s">
+        <v>2917</v>
+      </c>
+      <c r="F608" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G608" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="0" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B609" s="0" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C609" s="0" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D609" s="0" t="s">
+        <v>2921</v>
+      </c>
+      <c r="E609" s="0" t="s">
+        <v>2922</v>
+      </c>
+      <c r="F609" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G609" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B610" s="0" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C610" s="0" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D610" s="0" t="s">
+        <v>2926</v>
+      </c>
+      <c r="E610" s="0" t="s">
+        <v>2927</v>
+      </c>
+      <c r="F610" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G610" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B611" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C611" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="D611" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="E611" s="0" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F611" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G611" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="0" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B612" s="0" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C612" s="0" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D612" s="0" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E612" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="F612" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G612" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="110.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="7" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B613" s="8" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C613" s="8" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D613" s="8" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E613" s="8" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F613" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G613" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="0" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B614" s="0" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C614" s="0" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D614" s="0" t="s">
+        <v>2942</v>
+      </c>
+      <c r="E614" s="0" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F614" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G614" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="0" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B615" s="0" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C615" s="0" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D615" s="0" t="s">
+        <v>2947</v>
+      </c>
+      <c r="E615" s="0" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F615" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G615" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="0" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B616" s="0" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C616" s="0" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D616" s="0" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E616" s="0" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F616" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G616" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="0" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B617" s="0" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C617" s="0" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D617" s="0" t="s">
+        <v>2957</v>
+      </c>
+      <c r="E617" s="0" t="s">
+        <v>2958</v>
+      </c>
+      <c r="F617" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G617" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="0" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B618" s="0" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C618" s="0" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D618" s="0" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E618" s="0" t="s">
+        <v>2963</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G618" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="90.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="7" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B619" s="8" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C619" s="8" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D619" s="8" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E619" s="8" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F619" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G619" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="0" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B620" s="0" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C620" s="0" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D620" s="0" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E620" s="0" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F620" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G620" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="0" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B621" s="0" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C621" s="0" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D621" s="0" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E621" s="0" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F621" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G621" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="0" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B622" s="0" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C622" s="0" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D622" s="0" t="s">
+        <v>2982</v>
+      </c>
+      <c r="E622" s="0" t="s">
+        <v>2983</v>
+      </c>
+      <c r="F622" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G622" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B623" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C623" s="0" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D623" s="0" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E623" s="0" t="s">
+        <v>2988</v>
+      </c>
+      <c r="F623" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G623" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B624" s="0" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C624" s="0" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D624" s="0" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E624" s="0" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F624" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G624" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C625" s="0" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D625" s="0" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E625" s="0" t="s">
+        <v>2998</v>
+      </c>
+      <c r="F625" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G625" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C626" s="0" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D626" s="0" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E626" s="0" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F626" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G626" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B627" s="0" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C627" s="0" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D627" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E627" s="0" t="s">
+        <v>3008</v>
+      </c>
+      <c r="F627" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G627" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="90.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="7" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B628" s="8" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C628" s="8" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D628" s="8" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E628" s="8" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F628" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G628" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C629" s="0" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D629" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E629" s="0" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F629" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G629" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D630" s="0" t="s">
+        <v>3019</v>
+      </c>
+      <c r="E630" s="0" t="s">
+        <v>3020</v>
+      </c>
+      <c r="F630" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G630" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C631" s="0" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D631" s="0" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E631" s="0" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F631" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G631" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>3029</v>
+      </c>
+      <c r="E632" s="0" t="s">
+        <v>2358</v>
+      </c>
+      <c r="F632" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G632" s="6" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B633" s="0" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C633" s="0" t="s">
+        <v>2358</v>
+      </c>
+      <c r="D633" s="0" t="s">
+        <v>3032</v>
+      </c>
+      <c r="E633" s="0" t="s">
+        <v>3033</v>
+      </c>
+      <c r="F633" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G633" s="6" t="s">
         <v>2449</v>
       </c>
     </row>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4387" uniqueCount="3034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="3330">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -1470,7 +1470,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">پلي سيتمي احتمال بروز آن را تقویت مي کند</t>
+    <t xml:space="preserve">پلی سيتمی احتمال بروز آن را تقویت می کند</t>
   </si>
   <si>
     <t xml:space="preserve">در جریان متلاطم، قلب باید کار بيشتری انجام دهد</t>
@@ -4778,7 +4778,7 @@
     <t xml:space="preserve">عوامل محيطی</t>
   </si>
   <si>
-    <t xml:space="preserve">اجرای سیاست های مصوب"مجمع جهانی سالمت"توسط کدامیک از واحدهای زیر مجموعه سازمان بهداشت جهانی
+    <t xml:space="preserve">اجرای سیاست های مصوب"مجمع جهانی سلامت"توسط کدامیک از واحدهای زیر مجموعه سازمان بهداشت جهانی
 WHOصورت می پذیرد؟</t>
   </si>
   <si>
@@ -4839,17 +4839,17 @@
     <t xml:space="preserve">کارآزمایی بالينی</t>
   </si>
   <si>
-    <t xml:space="preserve">با فرض اینکه احتمال مرگ پس از ابتالء به شوک سپتیک16درصد باشد، شانس زنده ماندن در بیمار مبتال به شوک
+    <t xml:space="preserve">با فرض اینکه احتمال مرگ پس از ابتلا به شوک سپتیک16درصد باشد، شانس زنده ماندن در بیمار مبتلا به شوک
 سپتیک چقدر است؟</t>
   </si>
   <si>
     <t xml:space="preserve">در یک بررسی آینده نگر جهت برآورد بروزبیماری کبد الکلی،26فرد الکلی به مدت1سال پیگیری شدند.از این تعداد1
 نفر به مدت2سال،8نفر به مدت1سال،سه نفر به مدت.سال و چهار نفر به مدت1سال مورد پیگیری قرار گرفتند.
-در طی مدت پیگیری در مجموع33نفر به بیماری کبد الکلی مبتال شدند.میزان بروزکبد الکلی در این مطالعه بر حسب
+در طی مدت پیگیری در مجموع33نفر به بیماری کبد الکلی مبتلا شدند.میزان بروزکبد الکلی در این مطالعه بر حسب
 شخص-سال چقدراست؟</t>
   </si>
   <si>
-    <t xml:space="preserve">در یک جامعه366هزار نفری بیماران مبتال به فشار خون بالا، در ابتدای سال،166بیمارشناخته شده سکته مغزی وجود
+    <t xml:space="preserve">در یک جامعه366هزار نفری بیماران مبتلا به فشار خون بالا، در ابتدای سال،166بیمارشناخته شده سکته مغزی وجود
 دارد.تا انتهای سال،366مورد جدیدسکته مغزی رخ می دهد.با در نظر گرفتن اینکه در طی مدت پیگیری هیچ بیماری
 فوت نکرده یا بهبود نیافته است، میزان"شیوع دوره ای"و"بروز تجمعی"سکته مغزی در این جامعه در سال مورد
 نظر بر حسب درصد چقدر است؟</t>
@@ -10532,23 +10532,7 @@
     <t xml:space="preserve">اورنیتین پرمئاز</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">اورنيتن ترانس كربامو</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئیلاز</t>
-    </r>
+    <t xml:space="preserve">اورنيتن ترانس كرباموئیلاز</t>
   </si>
   <si>
     <t xml:space="preserve">POMC پیش ساز کدام یک نمی باشد؟</t>
@@ -11104,7 +11088,7 @@
     <t xml:space="preserve">ویروس سینسیشیال تنفسی</t>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از عفونت های ویروسی زیر باعث ایجاد التهاب شبکیه چشم (Retinitis) در بیماران مبتال به HIV
+    <t xml:space="preserve">کدام یک از عفونت های ویروسی زیر باعث ایجاد التهاب شبکیه چشم (Retinitis) در بیماران مبتلا به HIV
 با سطح سلول هایCD4 T زیر 200 سلول در هر میکرولیتر میشود ؟</t>
   </si>
   <si>
@@ -11599,6 +11583,912 @@
   </si>
   <si>
     <t xml:space="preserve">آئورتای سينه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ارگان های زیر در جنس مونث دارای پوشش صفاقی میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش فوقانی سطح خلفی واژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سطح قدامی سرويکس رحم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قاعده مثانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش تحتانی سطح قدامی ركتوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیلامنت حد واسط با کدام یک از اتصالات سلولهای بافت پوششی زیر مرتبط می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كمربندی(Zonula adherens)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محکم(Tight junction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسموزوم(Desmosome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتصال منفذ دار(Gap junction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام سلول در پوست در نقش مکانورسپتور(Mechanoreceptor)عمل میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرکل(Merkel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النگرهانس(Langerhans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مالنوسیت(Melanocyte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کراتینوسیت(Keratinocyte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از غضروف های زیر از نوع هیالین نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مفصلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپيگلوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دنده ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سلولهای زیر الیه آمنیوبالست را تشکیل میدهند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپوبالست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپی بالست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيتوتروفوبالست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سن سی شيوتروفوبالست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر از ستیغ عصبی منشا نمی گیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گانگليون های خودكار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های ادنتوبالست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های شوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های كوپفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سلول های روده باریک در ایمنی ذاتی نقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های پانت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های النگرهانس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های انترواندوكرين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختار های زیر در دستگاه جنب گلومرولی شرکت میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول مزانژيال داخل گلومرولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوله خميده دور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوله خميده نزديک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قسمت نزوليقوس هنله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر در تشکیل جسم زرد شرکت میکنند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرانولوزا و تکای داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرانولوزا و تکای خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كومولوس اووفروس و تکای داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كومولوس اووفروس و تکای خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر از خصوصیات سلول اصلی در معده( Chief cell )است ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشخصه سلول مترشحه استروئيد را دارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ناحيه گردن غدد معدی به وفور يافت ميشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيتوپلاسم ان بدليل حضور تعداد فراوان ميتوكندری اسيدوفيل است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارای تعداد زيادیRERو گرانول های ترشحی راسی است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سلول های زیر در تشکیل سد خونی-مایع مغزی نخاعی شرکت میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آستروسيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپی تليال كوروئيدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راديال گليال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميکرو گليا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختار های زیر از جوانه شکمی پانکراس تکامل نمی یابند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجرای پانکراتيک فرعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش تحتانی سر پانکراس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش پروگزیمال مجرای پانکراتیک اصلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زائده چنگکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر از مشتقات بن بست چهارم حلقی میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بن بست توبوتمپانيک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاراتيروئيد تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاراتيروئيد فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوزه كامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در تشکیل قسمت میانی لب بالا (فیلتروم) کدام ساختار زیر شرکت می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زوائد طرفی بينی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زوائد داخلی بينی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زوائد پالاتين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دوره جنینی،لبه های رومبیک کدام بخش از مغز را تشکیل می دهند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بصل النخاع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مخچه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نيمکره های مخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ديانسفال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر در مورد فضای پرینه آل سطحی صحیح نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سقف آن از غشا پرينه آل تشکيل می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجسام غاری و اسفنجی جز محتويات آن هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غده كوپر در اين فضا قرار دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در پايين توسط لايه غشايی فاسيال سطحی محدود می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سلول های اپی تلیوم تنفسی به عنوان گیرنده حس شیمیایی می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استوانه ای مژه دار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرانولی كوچک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر در مورد بافت کره چشم صحیح نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غشا بومن به عنوان غشا پايه اپی تليوم قرنيه است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غشا دسمه به عنوان غشا پايه اندو تليوم قرنيه است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غشا بروک به عنوان لايه ای از جسم مژگانی می باشد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپی تليوم عدسی از يک لايه سلول مکعبی تشکيل می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک خانم48ساله درمرکز خدمات جامع سلامت درخواست آزمایش پاپ اسمیر میدهد. این اقدام در کدام
+سطح از پیشگیری تعریف میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سطح اول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سطح دوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سطح سوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سطح چهارم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام واکسن زیربایددر طبقه فوقانی یخچال نگهداری شود و به گرما حساس است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR ( Measles, Mumps,Rubella)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPT ( Diphteria, Pertusis, Tetanus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPV (Polio vaccine for Injection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدلFOCUS – PDCAیکی از مدل های معروف در چه چیزی میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آموزش سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارتقای كيفيت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارزشيابی خدمات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برنامه ريزی های بهداشتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در نظام مراقبت های اولیه سلامت یاPHCکدام مورد صحیح نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سال1978در آلماآتا قزاقستان مورد اجماع جهانی قرار گرفت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الزام دولت ها به ايجاد ساختاری براي ارايه مراقبت های سلامت ضروری و مورد نياز افراد جامعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسترسی مستمر و تامين هزينه مستمر امکان پذير نمی باشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جامع بودن مبتنی بر خانواده و جامعه از ويژگی های اصلی آن است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در گزارش های اخیر واحد بهداشت مدارس استان، افزایش موارد آلودگی به شپش سر در مدارس در اولویت
+های بهداشتی قرار گرفته است. مرکز بهداشت استان دستورالعملی مبنی بر غربالگری و معاینه اجباری تمام دانش
+آموزان توسط پرسنل آموزش دیدهدر فواصل زمانی سه ماهه را ابلاغ میکند این رویکرد ، کدام یک از رویکردهای
+ارتقای سلامت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغيير اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توانمند سازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آموزشی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغییر رفتار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر از عملکردهای نظام سلامت نمیباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تامين و تخصيص مالی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توليت و سياستگذاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خلق منابع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سودمندی،كارآيی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از شاخص های زیر مبتنی بر یک همگروه فرضی محاسبه میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life expectancy(اميد به زندگی)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternal Mortality Ratio(ميزان مرگ مادران)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5 Mortality Rate(ميزان مرگ كودكان زير5سال)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neonatal Care Coverage(پوشش مراقبت های نوزادان)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محیطی ترین واحد ارائه خدمات سلامت در مناطق شهری عبارت است از:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پايگاه اورژانس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پايگاه سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مركز خدمات جامع سالمت شهری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانه بهداشت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرض کنید که فردی سالهاست که در صورت خود خالی دارد و به آن توجهی نمیکند و از نظر اجتماعی و
+ذهنی هم دغدغه ای از این بابت ندارد اما در مراجعه به پزشک برای درمان سرماخوردگی به او پیشنهاد انجام لیزر
+و برداشتن خال می شود. به نظر شما مثال فوق کدام یک از انواع نیازها میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نياز ضروری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نياز درک شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نياز القايی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نياز بيان شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادغام مراقبت های اولیه سلامت و بیمه سالمت از طریق کدام مورد زیردر ایران قابل اجرا میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برنامه پزشک خانواده و نظام ارجاع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برنامه توسعه چهارم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طرح تحول سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصلاحات در نظام سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شایع ترین علت مرگ و میردر دنیا کدام مورد میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرطان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حوادث و سوانح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بيماری های قلبی عروقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سو تغذيه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهمترین منبع ناکارایی و بی عدالتی نظام های سلامت کدام یک از موارد زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گذارهای جمعیتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گذارهای اپیدمیولوژیکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشرفت های سريع دانش پزشکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیمارستان محوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیمار با در دست داشتن نتیجه یک تست غربالگری خون مخفی در مدفوع که نتیجه مثبت را نشان داده است،
+به پزشک مراجعه میکند.پزشک معالج اظهار میدارد:"احتمال اینکه شما به سرطان روده بزرگ مبتلا باشید،48
+درصد است"این شاخص بیانگر کدام یک از موارد زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حساسيت آزمايش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويژگی آزمايش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارزش اخباری مثبت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دوران پاندمی کووید-19،بسیاری از افراد مبتلا در طول دوره بیماری نشانه های بالینی را بروز نمی دادند.
+کدام گزینه به سیر بیماری اشاره دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم تشخیص تقدم علت/معلولی(Temporality)، از نقاط ضعف کدام نوع مطالعه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كوهورت آينده نگر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كوهورت گذشته نگر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كارآزمايی بالينی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطالعات مقطعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطالعه ای که به توصیف خصوصیات تعدادی (10نفر)از بیماران مبتلا به سندرم بهجت در یک دوره زمانی
+خاص پرداخته است در کدام گروه مطالعات قرارمیگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case-Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case-cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case-control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case-crossover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مطالعه ای ملاحظه شد که در نواحی غرب و جنوب غربی کشور با افزایش میزان ریز گردها( بر حسب PPM)
+درصد مراجعین و فوت ناشی از آسم و برونشیت افزایش یافته است.نوع مطالعه چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطالعه تجربی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطالعه اكولوژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطالعه كارآزمایی ميدانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطالعه مورد-شاهدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک منطقه با 3میلیون نفر جمعیت درسال1399، سی هزار مرگ رخ داده است. از این تعداد6 هزار مورد
+مربوط به60هزار نفر مبتلا به آنفلوآنزا بوده است.میزان کشندگی آنفلوآنزا عبارت است از:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ده درصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يک درصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يک در هزار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو درصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بخشی از شهرستان ملکان (با یک صد هزار نفر جمعیت)،50مورد جدید بیماری بروسلوز در سال 1390
+به طور غیر منتظره اتفاق افتاده است که از آنها یک نفر نیز به علت عوارض ناشی از بیماری فوت نمود. میزان بروز
+بیماری بروسلوز چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنج در ده هزار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يک در صد هزار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مطالعه ای،نوزادانی که با شکاف کام متولد شده بودند با نوزادان سالم مقایسه شدند.این مقایسه از نظر
+مواجهه با ویروس ها طی دوران بارداری مادر انجام گرفت و از مادر در مورد بیماری های ویروسی طی بارداری سوال
+شد. در نتایج مطالعه، مواجهه با بیماری های ویروسی طی دوران بارداری در مادران نوزادان با شکاف کام به طور
+معنی داری بیشتر بود. کدام سوگرایی(Bias)زیر احتمال وقوع بیشتری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survival bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confounding bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recallbias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحیه غنی از لنفوسیتTدر غدد لنفاوی چه نامیده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاراكورتکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كورتکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایمنی شناسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام کلاس از آنتی بادی ها دارای قابلیت عبور از جفت و مصونیت بخشی به جنین میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IgG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IgA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IgM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IgE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام سلول نقش اصلی را در از بین بردن سلول های آلوده به ویروس به صورت اختصاصی بر عهده دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوتروفيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول NK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول TCD8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول TCD4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگاند TLR-9 کدام مولکول زیر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CpG DNAغير متيله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سایتوکاین مهم ضد التهابی کدام گزینه زیر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNF-α</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیستم کمپلمان در عملکردهای بیولوژیک زیر دخیل میباشد بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنافيلاكسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسهيل فاگوسيتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خنثی سازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیز سلولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مکانیسم ایجاد آنرژی در تولرانس محیطی لنفوسیت هایTچیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف سلولهای T شناسایی كننده آنتی ژن های خودی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شناسايی آنتی ژن در غياب سيگنال هاي كمک تحريکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويرايش گيرنده اختصاصی آنتی ژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سركوب سلولهای T توسط سايتوكاين های تنظیمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد محدودیت پاسخ های ایمنی سلولی به مولکول هایMHCصحیح میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتيد های مشتق از آنتی ژن های خارج سلولی در كنارMHCكلاس يک به سلولهایTCD4+عرضه می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتيد های مشتق از آنتی ژن های خارج سلولی در كنارMHCكلاس يک به سلولهايTCD8+عرضه می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتيد های مشتق از آنتی ژن های سيتوزولی در كنارMHCكلاس يک به سلولهايTCD4+عرضه می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتيد های مشتق از آنتی ژن های سيتوزولی در كنارMHCكلاس يک به سلولهایTCD8+عرضه می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام پروتئين غشا موجب اتصال سلول به ماتريكس برون سلولی ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laminin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cadherin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibronectin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دندانپزشکی شهریور 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داروهايی مانند Vinblastineو Vincristineكه برای شیمی درمانی سرطان استفاده ميشوند، كدام فرآيند تقسیم
+سلولی را مختل می نمایند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همانندسازیDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رونويسیRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متراكم شدن كروموزوم ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عملکرد دوک تقسيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">درفيبروبلاست فعال،كدام اندامک سيتوپلاسمی بيشترين توسعه را دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميتوكندری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيستم اندوزومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شبكه اندوپلاسمیک خشن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام سلول بدن وظيفه توليد و ترشح آنتی بادی را برعهده دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسيتB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسيتT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلاسما سل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام فرايند زير، نقشی در تغذيه استئوسیت های بافت استخوانی ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتشار مواد غذایی از طريق فضای ﻻكوناها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال مواد غذایی از طريق اتصاﻻت روزنه دار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نفوذ مويرگها به داخل فضای كانالیكول ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حضور رگ های خونی فراوان در پريوستئوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ماتريكس كدام یک از غضروف های بدن کلاژن نوعI وجود دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ديسک بین مهره ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپیگلوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﻻله گوش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش بيش از حد هورمون رشد پس از دوران بلوغ،منجر به بروز كدام عارضه مرتبط با سيستم اسكلتی ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osteopetrosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acromegaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigantism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اولین سلول های خونی كه به منطقه بروز عفونت وارد شده و به مقابله با عامل مهاجم ميپردازند، كدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ائوزینوفیل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مونوسیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوتروفیل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام ساختار زير از اولین كمان حلقی منشا ميگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله تمپوراليس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صندوق صماخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غضروف تیروئيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيلتروم لب باﻻ از كدام یک منشا میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برجستگی های بينی خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برجستگی مندیبوﻻر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برجستگی ماگزیلاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش جنينی جفت از كدام یک منشا ميگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decidua basalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منشا اپیتلیوم صندوق صماخ كدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام هسته در ستون وابران احشایی اختصاصی قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در خارج شاخ پيشانی بطن طرفی مغز چه عنصری قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سر هسته دمدار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنه هسته دمدار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرده شفاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زانوی جسم سفيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوبول پاراسنترال توسط كدام شريان مشروب ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از هسته های زير حاوی نورون دوم حس چشایی ميباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensory nucleus of trigeminal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior salivatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiguous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solitary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در هنگام نوشتن جواب سوال امتحانی،كدام هسته مخچه به شما در نوشتن کمک ميكند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارج سر هسته دمدار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كمپلكس هسته های آمیگدال در عمق كدام ساختار زير قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isthmus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام سينوس وريدی در محل تلاقی داس مغزی و چادر مخچه قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سينوس مستقيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سينوس عرضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سينوس ساژيتال تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سینوسپتروزال تحتانی</t>
   </si>
 </sst>
 </file>
@@ -11844,10 +12734,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H633"/>
+  <dimension ref="A1:H700"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A629" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G633" activeCellId="0" sqref="G633"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A695" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F703" activeCellId="0" sqref="F703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15960,7 +16850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="113.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="112.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
         <v>784</v>
       </c>
@@ -16090,7 +16980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="299.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
         <v>805</v>
       </c>
@@ -16116,7 +17006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="310.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
         <v>806</v>
       </c>
@@ -25989,7 +26879,7 @@
       <c r="G544" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H544" s="0" t="n">
+      <c r="H544" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26015,7 +26905,7 @@
       <c r="G545" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H545" s="0" t="n">
+      <c r="H545" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -26041,7 +26931,7 @@
       <c r="G546" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H546" s="0" t="n">
+      <c r="H546" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26067,7 +26957,7 @@
       <c r="G547" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H547" s="0" t="n">
+      <c r="H547" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26093,7 +26983,7 @@
       <c r="G548" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H548" s="0" t="n">
+      <c r="H548" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26119,7 +27009,7 @@
       <c r="G549" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H549" s="0" t="n">
+      <c r="H549" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -26145,7 +27035,7 @@
       <c r="G550" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H550" s="0" t="n">
+      <c r="H550" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26171,7 +27061,7 @@
       <c r="G551" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H551" s="0" t="n">
+      <c r="H551" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26197,7 +27087,7 @@
       <c r="G552" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H552" s="0" t="n">
+      <c r="H552" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26223,7 +27113,7 @@
       <c r="G553" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H553" s="0" t="n">
+      <c r="H553" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26249,7 +27139,7 @@
       <c r="G554" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H554" s="0" t="n">
+      <c r="H554" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26275,7 +27165,7 @@
       <c r="G555" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H555" s="0" t="n">
+      <c r="H555" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -26301,7 +27191,7 @@
       <c r="G556" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H556" s="0" t="n">
+      <c r="H556" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -26327,7 +27217,7 @@
       <c r="G557" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H557" s="0" t="n">
+      <c r="H557" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26353,7 +27243,7 @@
       <c r="G558" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H558" s="0" t="n">
+      <c r="H558" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26379,1830 +27269,3611 @@
       <c r="G559" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H559" s="0" t="n">
+      <c r="H559" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="0" t="s">
+      <c r="A560" s="4" t="s">
         <v>2681</v>
       </c>
-      <c r="B560" s="0" t="s">
+      <c r="B560" s="4" t="s">
         <v>2682</v>
       </c>
-      <c r="C560" s="0" t="s">
+      <c r="C560" s="4" t="s">
         <v>2683</v>
       </c>
-      <c r="D560" s="0" t="s">
+      <c r="D560" s="4" t="s">
         <v>2684</v>
       </c>
-      <c r="E560" s="0" t="s">
+      <c r="E560" s="4" t="s">
         <v>2685</v>
       </c>
-      <c r="F560" s="6" t="s">
+      <c r="F560" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G560" s="6" t="s">
+      <c r="G560" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H560" s="0" t="n">
+      <c r="H560" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
+      <c r="A561" s="4" t="s">
         <v>2686</v>
       </c>
-      <c r="B561" s="0" t="s">
+      <c r="B561" s="4" t="s">
         <v>2687</v>
       </c>
-      <c r="C561" s="0" t="s">
+      <c r="C561" s="4" t="s">
         <v>2688</v>
       </c>
-      <c r="D561" s="0" t="s">
+      <c r="D561" s="4" t="s">
         <v>2689</v>
       </c>
-      <c r="E561" s="0" t="s">
+      <c r="E561" s="4" t="s">
         <v>2690</v>
       </c>
-      <c r="F561" s="6" t="s">
+      <c r="F561" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G561" s="6" t="s">
+      <c r="G561" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H561" s="0" t="n">
+      <c r="H561" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="0" t="s">
+      <c r="A562" s="4" t="s">
         <v>2691</v>
       </c>
-      <c r="B562" s="0" t="s">
+      <c r="B562" s="4" t="s">
         <v>1764</v>
       </c>
-      <c r="C562" s="0" t="s">
+      <c r="C562" s="4" t="s">
         <v>2692</v>
       </c>
-      <c r="D562" s="0" t="s">
+      <c r="D562" s="4" t="s">
         <v>2693</v>
       </c>
-      <c r="E562" s="0" t="s">
+      <c r="E562" s="4" t="s">
         <v>2694</v>
       </c>
-      <c r="F562" s="6" t="s">
+      <c r="F562" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G562" s="6" t="s">
+      <c r="G562" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H562" s="0" t="n">
+      <c r="H562" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="0" t="s">
+      <c r="A563" s="4" t="s">
         <v>2695</v>
       </c>
-      <c r="B563" s="0" t="s">
+      <c r="B563" s="4" t="s">
         <v>2696</v>
       </c>
-      <c r="C563" s="0" t="s">
+      <c r="C563" s="4" t="s">
         <v>2697</v>
       </c>
-      <c r="D563" s="0" t="s">
+      <c r="D563" s="4" t="s">
         <v>2698</v>
       </c>
-      <c r="E563" s="0" t="s">
+      <c r="E563" s="4" t="s">
         <v>2699</v>
       </c>
-      <c r="F563" s="6" t="s">
+      <c r="F563" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G563" s="6" t="s">
+      <c r="G563" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H563" s="0" t="n">
+      <c r="H563" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
+      <c r="A564" s="4" t="s">
         <v>2700</v>
       </c>
-      <c r="B564" s="0" t="s">
+      <c r="B564" s="4" t="s">
         <v>2701</v>
       </c>
-      <c r="C564" s="0" t="s">
+      <c r="C564" s="4" t="s">
         <v>2702</v>
       </c>
-      <c r="D564" s="0" t="s">
+      <c r="D564" s="4" t="s">
         <v>2703</v>
       </c>
-      <c r="E564" s="0" t="s">
+      <c r="E564" s="4" t="s">
         <v>2704</v>
       </c>
-      <c r="F564" s="0" t="s">
+      <c r="F564" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G564" s="6" t="s">
+      <c r="G564" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H564" s="0" t="n">
+      <c r="H564" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
+      <c r="A565" s="4" t="s">
         <v>2705</v>
       </c>
-      <c r="B565" s="0" t="s">
+      <c r="B565" s="4" t="s">
         <v>2706</v>
       </c>
-      <c r="C565" s="0" t="s">
+      <c r="C565" s="4" t="s">
         <v>2707</v>
       </c>
-      <c r="D565" s="0" t="s">
+      <c r="D565" s="4" t="s">
         <v>2708</v>
       </c>
-      <c r="E565" s="0" t="s">
+      <c r="E565" s="4" t="s">
         <v>2709</v>
       </c>
-      <c r="F565" s="6" t="s">
+      <c r="F565" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G565" s="6" t="s">
+      <c r="G565" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H565" s="0" t="n">
+      <c r="H565" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="0" t="s">
+      <c r="A566" s="4" t="s">
         <v>2710</v>
       </c>
-      <c r="B566" s="0" t="s">
+      <c r="B566" s="4" t="s">
         <v>2711</v>
       </c>
-      <c r="C566" s="0" t="s">
+      <c r="C566" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="D566" s="0" t="s">
+      <c r="D566" s="4" t="s">
         <v>2713</v>
       </c>
-      <c r="E566" s="0" t="s">
+      <c r="E566" s="4" t="s">
         <v>2714</v>
       </c>
-      <c r="F566" s="6" t="s">
+      <c r="F566" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G566" s="6" t="s">
+      <c r="G566" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H566" s="0" t="n">
+      <c r="H566" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="0" t="s">
+      <c r="A567" s="4" t="s">
         <v>2715</v>
       </c>
-      <c r="B567" s="0" t="s">
+      <c r="B567" s="4" t="s">
         <v>2716</v>
       </c>
-      <c r="C567" s="0" t="s">
+      <c r="C567" s="4" t="s">
         <v>2717</v>
       </c>
-      <c r="D567" s="0" t="s">
+      <c r="D567" s="4" t="s">
         <v>2718</v>
       </c>
-      <c r="E567" s="0" t="s">
+      <c r="E567" s="4" t="s">
         <v>2719</v>
       </c>
-      <c r="F567" s="6" t="s">
+      <c r="F567" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G567" s="6" t="s">
+      <c r="G567" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H567" s="0" t="n">
+      <c r="H567" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="0" t="s">
+      <c r="A568" s="4" t="s">
         <v>2720</v>
       </c>
-      <c r="B568" s="0" t="s">
+      <c r="B568" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="C568" s="0" t="s">
+      <c r="C568" s="4" t="s">
         <v>2721</v>
       </c>
-      <c r="D568" s="0" t="s">
+      <c r="D568" s="4" t="s">
         <v>2722</v>
       </c>
-      <c r="E568" s="0" t="s">
+      <c r="E568" s="4" t="s">
         <v>2723</v>
       </c>
-      <c r="F568" s="6" t="s">
+      <c r="F568" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G568" s="6" t="s">
+      <c r="G568" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H568" s="0" t="n">
+      <c r="H568" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="0" t="s">
+      <c r="A569" s="4" t="s">
         <v>2724</v>
       </c>
-      <c r="B569" s="0" t="s">
+      <c r="B569" s="4" t="s">
         <v>2725</v>
       </c>
-      <c r="C569" s="0" t="s">
+      <c r="C569" s="4" t="s">
         <v>2726</v>
       </c>
-      <c r="D569" s="0" t="s">
+      <c r="D569" s="4" t="s">
         <v>2727</v>
       </c>
-      <c r="E569" s="0" t="s">
+      <c r="E569" s="4" t="s">
         <v>2728</v>
       </c>
-      <c r="F569" s="6" t="s">
+      <c r="F569" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G569" s="6" t="s">
+      <c r="G569" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H569" s="0" t="n">
+      <c r="H569" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="0" t="s">
+      <c r="A570" s="4" t="s">
         <v>2729</v>
       </c>
-      <c r="B570" s="0" t="s">
+      <c r="B570" s="4" t="s">
         <v>2730</v>
       </c>
-      <c r="C570" s="0" t="s">
+      <c r="C570" s="4" t="s">
         <v>2731</v>
       </c>
-      <c r="D570" s="0" t="s">
+      <c r="D570" s="4" t="s">
         <v>2732</v>
       </c>
-      <c r="E570" s="0" t="s">
+      <c r="E570" s="4" t="s">
         <v>2733</v>
       </c>
-      <c r="F570" s="6" t="s">
+      <c r="F570" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G570" s="6" t="s">
+      <c r="G570" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H570" s="0" t="n">
+      <c r="H570" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="0" t="s">
+      <c r="A571" s="4" t="s">
         <v>2734</v>
       </c>
-      <c r="B571" s="0" t="s">
+      <c r="B571" s="4" t="s">
         <v>2735</v>
       </c>
-      <c r="C571" s="0" t="s">
+      <c r="C571" s="4" t="s">
         <v>2736</v>
       </c>
-      <c r="D571" s="0" t="s">
+      <c r="D571" s="4" t="s">
         <v>2737</v>
       </c>
-      <c r="E571" s="0" t="s">
+      <c r="E571" s="4" t="s">
         <v>2738</v>
       </c>
-      <c r="F571" s="6" t="s">
+      <c r="F571" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G571" s="6" t="s">
+      <c r="G571" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H571" s="0" t="n">
+      <c r="H571" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="0" t="s">
+      <c r="A572" s="4" t="s">
         <v>2739</v>
       </c>
-      <c r="B572" s="0" t="s">
+      <c r="B572" s="4" t="s">
         <v>2740</v>
       </c>
-      <c r="C572" s="0" t="s">
+      <c r="C572" s="4" t="s">
         <v>2741</v>
       </c>
-      <c r="D572" s="0" t="s">
+      <c r="D572" s="4" t="s">
         <v>2742</v>
       </c>
-      <c r="E572" s="0" t="s">
+      <c r="E572" s="4" t="s">
         <v>2743</v>
       </c>
-      <c r="F572" s="6" t="s">
+      <c r="F572" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G572" s="6" t="s">
+      <c r="G572" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H572" s="0" t="n">
+      <c r="H572" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="0" t="s">
+      <c r="A573" s="4" t="s">
         <v>2744</v>
       </c>
-      <c r="B573" s="0" t="s">
+      <c r="B573" s="4" t="s">
         <v>2745</v>
       </c>
-      <c r="C573" s="0" t="s">
+      <c r="C573" s="4" t="s">
         <v>2746</v>
       </c>
-      <c r="D573" s="0" t="s">
+      <c r="D573" s="4" t="s">
         <v>2747</v>
       </c>
-      <c r="E573" s="0" t="s">
+      <c r="E573" s="4" t="s">
         <v>2737</v>
       </c>
-      <c r="F573" s="6" t="s">
+      <c r="F573" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G573" s="6" t="s">
+      <c r="G573" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H573" s="0" t="n">
+      <c r="H573" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="90.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="7" t="s">
+      <c r="A574" s="5" t="s">
         <v>2748</v>
       </c>
-      <c r="B574" s="8" t="s">
+      <c r="B574" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="C574" s="8" t="s">
+      <c r="C574" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="D574" s="8" t="s">
+      <c r="D574" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="E574" s="8" t="s">
+      <c r="E574" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="F574" s="6" t="s">
+      <c r="F574" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G574" s="6" t="s">
+      <c r="G574" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H574" s="0" t="n">
+      <c r="H574" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="0" t="s">
+      <c r="A575" s="4" t="s">
         <v>2753</v>
       </c>
-      <c r="B575" s="0" t="s">
+      <c r="B575" s="4" t="s">
         <v>2726</v>
       </c>
-      <c r="C575" s="0" t="s">
+      <c r="C575" s="4" t="s">
         <v>2754</v>
       </c>
-      <c r="D575" s="0" t="s">
+      <c r="D575" s="4" t="s">
         <v>2755</v>
       </c>
-      <c r="E575" s="0" t="s">
+      <c r="E575" s="4" t="s">
         <v>2756</v>
       </c>
-      <c r="F575" s="6" t="s">
+      <c r="F575" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G575" s="6" t="s">
+      <c r="G575" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H575" s="0" t="n">
+      <c r="H575" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="0" t="s">
+      <c r="A576" s="4" t="s">
         <v>2757</v>
       </c>
-      <c r="B576" s="0" t="s">
+      <c r="B576" s="4" t="s">
         <v>2758</v>
       </c>
-      <c r="C576" s="0" t="s">
+      <c r="C576" s="4" t="s">
         <v>2759</v>
       </c>
-      <c r="D576" s="0" t="s">
+      <c r="D576" s="4" t="s">
         <v>2760</v>
       </c>
-      <c r="E576" s="0" t="s">
+      <c r="E576" s="4" t="s">
         <v>2761</v>
       </c>
-      <c r="F576" s="6" t="s">
+      <c r="F576" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G576" s="6" t="s">
+      <c r="G576" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H576" s="0" t="n">
+      <c r="H576" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="0" t="s">
+      <c r="A577" s="4" t="s">
         <v>2762</v>
       </c>
-      <c r="B577" s="0" t="s">
+      <c r="B577" s="4" t="s">
         <v>2712</v>
       </c>
-      <c r="C577" s="0" t="s">
+      <c r="C577" s="4" t="s">
         <v>2763</v>
       </c>
-      <c r="D577" s="0" t="s">
+      <c r="D577" s="4" t="s">
         <v>2764</v>
       </c>
-      <c r="E577" s="0" t="s">
+      <c r="E577" s="4" t="s">
         <v>2765</v>
       </c>
-      <c r="F577" s="6" t="s">
+      <c r="F577" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G577" s="6" t="s">
+      <c r="G577" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H577" s="0" t="n">
+      <c r="H577" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="0" t="s">
+      <c r="A578" s="4" t="s">
         <v>2766</v>
       </c>
-      <c r="B578" s="0" t="s">
+      <c r="B578" s="4" t="s">
         <v>2767</v>
       </c>
-      <c r="C578" s="0" t="s">
+      <c r="C578" s="4" t="s">
         <v>2768</v>
       </c>
-      <c r="D578" s="0" t="s">
+      <c r="D578" s="4" t="s">
         <v>2769</v>
       </c>
-      <c r="E578" s="0" t="s">
+      <c r="E578" s="4" t="s">
         <v>2770</v>
       </c>
-      <c r="F578" s="6" t="s">
+      <c r="F578" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G578" s="6" t="s">
+      <c r="G578" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H578" s="0" t="n">
+      <c r="H578" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="0" t="s">
+      <c r="A579" s="4" t="s">
         <v>2771</v>
       </c>
-      <c r="B579" s="0" t="s">
+      <c r="B579" s="4" t="s">
         <v>2772</v>
       </c>
-      <c r="C579" s="0" t="s">
+      <c r="C579" s="4" t="s">
         <v>2773</v>
       </c>
-      <c r="D579" s="0" t="s">
+      <c r="D579" s="4" t="s">
         <v>2774</v>
       </c>
-      <c r="E579" s="0" t="s">
+      <c r="E579" s="4" t="s">
         <v>2775</v>
       </c>
-      <c r="F579" s="0" t="s">
+      <c r="F579" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G579" s="6" t="s">
+      <c r="G579" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H579" s="0" t="n">
+      <c r="H579" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="0" t="s">
+      <c r="A580" s="4" t="s">
         <v>2776</v>
       </c>
-      <c r="B580" s="0" t="s">
+      <c r="B580" s="4" t="s">
         <v>2777</v>
       </c>
-      <c r="C580" s="0" t="s">
+      <c r="C580" s="4" t="s">
         <v>2778</v>
       </c>
-      <c r="D580" s="0" t="s">
+      <c r="D580" s="4" t="s">
         <v>2779</v>
       </c>
-      <c r="E580" s="0" t="s">
+      <c r="E580" s="4" t="s">
         <v>2780</v>
       </c>
-      <c r="F580" s="6" t="s">
+      <c r="F580" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G580" s="6" t="s">
+      <c r="G580" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H580" s="0" t="n">
+      <c r="H580" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="0" t="s">
+      <c r="A581" s="4" t="s">
         <v>2781</v>
       </c>
-      <c r="B581" s="0" t="s">
+      <c r="B581" s="4" t="s">
         <v>2782</v>
       </c>
-      <c r="C581" s="0" t="s">
+      <c r="C581" s="4" t="s">
         <v>2783</v>
       </c>
-      <c r="D581" s="0" t="s">
+      <c r="D581" s="4" t="s">
         <v>2784</v>
       </c>
-      <c r="E581" s="0" t="s">
+      <c r="E581" s="4" t="s">
         <v>2785</v>
       </c>
-      <c r="F581" s="6" t="s">
+      <c r="F581" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G581" s="6" t="s">
+      <c r="G581" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H581" s="0" t="n">
+      <c r="H581" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="0" t="s">
+      <c r="A582" s="4" t="s">
         <v>2786</v>
       </c>
-      <c r="B582" s="0" t="s">
+      <c r="B582" s="4" t="s">
         <v>2787</v>
       </c>
-      <c r="C582" s="0" t="s">
+      <c r="C582" s="4" t="s">
         <v>2788</v>
       </c>
-      <c r="D582" s="0" t="s">
+      <c r="D582" s="4" t="s">
         <v>2789</v>
       </c>
-      <c r="E582" s="0" t="s">
+      <c r="E582" s="4" t="s">
         <v>2790</v>
       </c>
-      <c r="F582" s="6" t="s">
+      <c r="F582" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G582" s="6" t="s">
+      <c r="G582" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H582" s="0" t="n">
+      <c r="H582" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="0" t="s">
+      <c r="A583" s="4" t="s">
         <v>2791</v>
       </c>
-      <c r="B583" s="0" t="s">
+      <c r="B583" s="4" t="s">
         <v>2792</v>
       </c>
-      <c r="C583" s="0" t="s">
+      <c r="C583" s="4" t="s">
         <v>2793</v>
       </c>
-      <c r="D583" s="0" t="s">
+      <c r="D583" s="4" t="s">
         <v>2794</v>
       </c>
-      <c r="E583" s="0" t="s">
+      <c r="E583" s="4" t="s">
         <v>2795</v>
       </c>
-      <c r="F583" s="6" t="s">
+      <c r="F583" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G583" s="6" t="s">
+      <c r="G583" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H583" s="0" t="n">
+      <c r="H583" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
+      <c r="A584" s="4" t="s">
         <v>2796</v>
       </c>
-      <c r="B584" s="0" t="s">
+      <c r="B584" s="4" t="s">
         <v>2797</v>
       </c>
-      <c r="C584" s="0" t="s">
+      <c r="C584" s="4" t="s">
         <v>2798</v>
       </c>
-      <c r="D584" s="0" t="s">
+      <c r="D584" s="4" t="s">
         <v>2799</v>
       </c>
-      <c r="E584" s="0" t="s">
+      <c r="E584" s="4" t="s">
         <v>2800</v>
       </c>
-      <c r="F584" s="6" t="s">
+      <c r="F584" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G584" s="6" t="s">
+      <c r="G584" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H584" s="0" t="n">
+      <c r="H584" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="0" t="s">
+      <c r="A585" s="4" t="s">
         <v>2801</v>
       </c>
-      <c r="B585" s="0" t="s">
+      <c r="B585" s="4" t="s">
         <v>2802</v>
       </c>
-      <c r="C585" s="0" t="s">
+      <c r="C585" s="4" t="s">
         <v>2803</v>
       </c>
-      <c r="D585" s="0" t="s">
+      <c r="D585" s="4" t="s">
         <v>2804</v>
       </c>
-      <c r="E585" s="0" t="s">
+      <c r="E585" s="4" t="s">
         <v>2805</v>
       </c>
-      <c r="F585" s="6" t="s">
+      <c r="F585" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G585" s="6" t="s">
+      <c r="G585" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H585" s="0" t="n">
+      <c r="H585" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="0" t="s">
+      <c r="A586" s="4" t="s">
         <v>2806</v>
       </c>
-      <c r="B586" s="0" t="s">
+      <c r="B586" s="4" t="s">
         <v>2807</v>
       </c>
-      <c r="C586" s="0" t="s">
+      <c r="C586" s="4" t="s">
         <v>2808</v>
       </c>
-      <c r="D586" s="0" t="s">
+      <c r="D586" s="4" t="s">
         <v>2809</v>
       </c>
-      <c r="E586" s="0" t="s">
+      <c r="E586" s="4" t="s">
         <v>2810</v>
       </c>
-      <c r="F586" s="6" t="s">
+      <c r="F586" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G586" s="6" t="s">
+      <c r="G586" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H586" s="0" t="n">
+      <c r="H586" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
+      <c r="A587" s="4" t="s">
         <v>2811</v>
       </c>
-      <c r="B587" s="0" t="s">
+      <c r="B587" s="4" t="s">
         <v>2812</v>
       </c>
-      <c r="C587" s="0" t="s">
+      <c r="C587" s="4" t="s">
         <v>2813</v>
       </c>
-      <c r="D587" s="0" t="s">
+      <c r="D587" s="4" t="s">
         <v>2814</v>
       </c>
-      <c r="E587" s="0" t="s">
+      <c r="E587" s="4" t="s">
         <v>2815</v>
       </c>
-      <c r="F587" s="6" t="s">
+      <c r="F587" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G587" s="6" t="s">
+      <c r="G587" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H587" s="0" t="n">
+      <c r="H587" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
+      <c r="A588" s="4" t="s">
         <v>2816</v>
       </c>
-      <c r="B588" s="0" t="s">
+      <c r="B588" s="4" t="s">
         <v>2817</v>
       </c>
-      <c r="C588" s="0" t="s">
+      <c r="C588" s="4" t="s">
         <v>2818</v>
       </c>
-      <c r="D588" s="0" t="s">
+      <c r="D588" s="4" t="s">
         <v>2819</v>
       </c>
-      <c r="E588" s="0" t="s">
+      <c r="E588" s="4" t="s">
         <v>2820</v>
       </c>
-      <c r="F588" s="0" t="s">
+      <c r="F588" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G588" s="6" t="s">
+      <c r="G588" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H588" s="0" t="n">
+      <c r="H588" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="0" t="s">
+      <c r="A589" s="4" t="s">
         <v>2821</v>
       </c>
-      <c r="B589" s="0" t="s">
+      <c r="B589" s="4" t="s">
         <v>2822</v>
       </c>
-      <c r="C589" s="0" t="s">
+      <c r="C589" s="4" t="s">
         <v>2823</v>
       </c>
-      <c r="D589" s="0" t="s">
+      <c r="D589" s="4" t="s">
         <v>2824</v>
       </c>
-      <c r="E589" s="0" t="s">
+      <c r="E589" s="4" t="s">
         <v>2825</v>
       </c>
-      <c r="F589" s="6" t="s">
+      <c r="F589" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G589" s="6" t="s">
+      <c r="G589" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H589" s="0" t="n">
+      <c r="H589" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="0" t="s">
+      <c r="A590" s="4" t="s">
         <v>2826</v>
       </c>
-      <c r="B590" s="0" t="s">
+      <c r="B590" s="4" t="s">
         <v>2827</v>
       </c>
-      <c r="C590" s="0" t="s">
+      <c r="C590" s="4" t="s">
         <v>2828</v>
       </c>
-      <c r="D590" s="0" t="s">
+      <c r="D590" s="4" t="s">
         <v>2829</v>
       </c>
-      <c r="E590" s="0" t="s">
+      <c r="E590" s="4" t="s">
         <v>2830</v>
       </c>
-      <c r="F590" s="0" t="s">
+      <c r="F590" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G590" s="6" t="s">
+      <c r="G590" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H590" s="0" t="n">
+      <c r="H590" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="s">
+      <c r="A591" s="4" t="s">
         <v>2831</v>
       </c>
-      <c r="B591" s="0" t="s">
+      <c r="B591" s="4" t="s">
         <v>2832</v>
       </c>
-      <c r="C591" s="0" t="s">
+      <c r="C591" s="4" t="s">
         <v>2833</v>
       </c>
-      <c r="D591" s="0" t="s">
+      <c r="D591" s="4" t="s">
         <v>2834</v>
       </c>
-      <c r="E591" s="0" t="s">
+      <c r="E591" s="4" t="s">
         <v>2835</v>
       </c>
-      <c r="F591" s="6" t="s">
+      <c r="F591" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G591" s="6" t="s">
+      <c r="G591" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H591" s="0" t="n">
+      <c r="H591" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="0" t="s">
+      <c r="A592" s="4" t="s">
         <v>2836</v>
       </c>
-      <c r="B592" s="0" t="s">
+      <c r="B592" s="4" t="s">
         <v>2837</v>
       </c>
-      <c r="C592" s="0" t="s">
+      <c r="C592" s="4" t="s">
         <v>2838</v>
       </c>
-      <c r="D592" s="0" t="s">
+      <c r="D592" s="4" t="s">
         <v>2839</v>
       </c>
-      <c r="E592" s="0" t="s">
+      <c r="E592" s="4" t="s">
         <v>2840</v>
       </c>
-      <c r="F592" s="6" t="s">
+      <c r="F592" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G592" s="6" t="s">
+      <c r="G592" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H592" s="0" t="n">
+      <c r="H592" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="0" t="s">
+      <c r="A593" s="4" t="s">
         <v>2841</v>
       </c>
-      <c r="B593" s="0" t="s">
+      <c r="B593" s="4" t="s">
         <v>2842</v>
       </c>
-      <c r="C593" s="0" t="s">
+      <c r="C593" s="4" t="s">
         <v>2843</v>
       </c>
-      <c r="D593" s="0" t="s">
+      <c r="D593" s="4" t="s">
         <v>2844</v>
       </c>
-      <c r="E593" s="0" t="s">
+      <c r="E593" s="4" t="s">
         <v>2845</v>
       </c>
-      <c r="F593" s="6" t="s">
+      <c r="F593" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G593" s="6" t="s">
+      <c r="G593" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H593" s="0" t="n">
+      <c r="H593" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="6" t="s">
+      <c r="A594" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="B594" s="8" t="s">
+      <c r="B594" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="C594" s="8" t="s">
+      <c r="C594" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="D594" s="8" t="s">
+      <c r="D594" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="E594" s="8" t="s">
+      <c r="E594" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="F594" s="8" t="s">
+      <c r="F594" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G594" s="6" t="s">
+      <c r="G594" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H594" s="0" t="n">
+      <c r="H594" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="0" t="s">
+      <c r="A595" s="4" t="s">
         <v>2851</v>
       </c>
-      <c r="B595" s="0" t="s">
+      <c r="B595" s="4" t="s">
         <v>2852</v>
       </c>
-      <c r="C595" s="6" t="s">
+      <c r="C595" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="D595" s="6" t="s">
+      <c r="D595" s="1" t="s">
         <v>2854</v>
       </c>
-      <c r="E595" s="8" t="s">
+      <c r="E595" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="F595" s="8" t="s">
+      <c r="F595" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G595" s="6" t="s">
+      <c r="G595" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H595" s="0" t="n">
+      <c r="H595" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="0" t="s">
+      <c r="A596" s="4" t="s">
         <v>2856</v>
       </c>
-      <c r="B596" s="0" t="s">
+      <c r="B596" s="4" t="s">
         <v>2857</v>
       </c>
-      <c r="C596" s="0" t="s">
+      <c r="C596" s="4" t="s">
         <v>2858</v>
       </c>
-      <c r="D596" s="0" t="s">
+      <c r="D596" s="4" t="s">
         <v>2859</v>
       </c>
-      <c r="E596" s="0" t="s">
+      <c r="E596" s="4" t="s">
         <v>2860</v>
       </c>
-      <c r="F596" s="6" t="s">
+      <c r="F596" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G596" s="6" t="s">
+      <c r="G596" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H596" s="0" t="n">
+      <c r="H596" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="0" t="s">
+      <c r="A597" s="4" t="s">
         <v>2861</v>
       </c>
-      <c r="B597" s="0" t="s">
+      <c r="B597" s="4" t="s">
         <v>2862</v>
       </c>
-      <c r="C597" s="0" t="s">
+      <c r="C597" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="D597" s="0" t="s">
+      <c r="D597" s="4" t="s">
         <v>2863</v>
       </c>
-      <c r="E597" s="0" t="s">
+      <c r="E597" s="4" t="s">
         <v>2864</v>
       </c>
-      <c r="F597" s="6" t="s">
+      <c r="F597" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G597" s="6" t="s">
+      <c r="G597" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H597" s="0" t="n">
+      <c r="H597" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="0" t="s">
+      <c r="A598" s="4" t="s">
         <v>2865</v>
       </c>
-      <c r="B598" s="0" t="s">
+      <c r="B598" s="4" t="s">
         <v>2866</v>
       </c>
-      <c r="C598" s="0" t="s">
+      <c r="C598" s="4" t="s">
         <v>2867</v>
       </c>
-      <c r="D598" s="0" t="s">
+      <c r="D598" s="4" t="s">
         <v>2868</v>
       </c>
-      <c r="E598" s="0" t="s">
+      <c r="E598" s="4" t="s">
         <v>2869</v>
       </c>
-      <c r="F598" s="6" t="s">
+      <c r="F598" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G598" s="6" t="s">
+      <c r="G598" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H598" s="0" t="n">
+      <c r="H598" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="154.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="7" t="s">
+    <row r="599" customFormat="false" ht="156.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="5" t="s">
         <v>2870</v>
       </c>
-      <c r="B599" s="8" t="s">
+      <c r="B599" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="C599" s="8" t="s">
+      <c r="C599" s="1" t="s">
         <v>2872</v>
       </c>
-      <c r="D599" s="8" t="s">
+      <c r="D599" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="E599" s="8" t="s">
+      <c r="E599" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="F599" s="6" t="s">
+      <c r="F599" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G599" s="6" t="s">
+      <c r="G599" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H599" s="0" t="n">
+      <c r="H599" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="0" t="s">
+      <c r="A600" s="4" t="s">
         <v>2874</v>
       </c>
-      <c r="B600" s="0" t="s">
+      <c r="B600" s="4" t="s">
         <v>2875</v>
       </c>
-      <c r="C600" s="0" t="s">
+      <c r="C600" s="4" t="s">
         <v>2876</v>
       </c>
-      <c r="D600" s="0" t="s">
+      <c r="D600" s="4" t="s">
         <v>2877</v>
       </c>
-      <c r="E600" s="0" t="s">
+      <c r="E600" s="4" t="s">
         <v>2878</v>
       </c>
-      <c r="F600" s="6" t="s">
+      <c r="F600" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G600" s="6" t="s">
+      <c r="G600" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H600" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="0" t="s">
+      <c r="A601" s="4" t="s">
         <v>2879</v>
       </c>
-      <c r="B601" s="0" t="s">
+      <c r="B601" s="4" t="s">
         <v>2880</v>
       </c>
-      <c r="C601" s="0" t="s">
+      <c r="C601" s="4" t="s">
         <v>2881</v>
       </c>
-      <c r="D601" s="0" t="s">
+      <c r="D601" s="4" t="s">
         <v>2882</v>
       </c>
-      <c r="E601" s="0" t="s">
+      <c r="E601" s="4" t="s">
         <v>2883</v>
       </c>
-      <c r="F601" s="6" t="s">
+      <c r="F601" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G601" s="6" t="s">
+      <c r="G601" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H601" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="6" t="s">
+      <c r="A602" s="1" t="s">
         <v>2884</v>
       </c>
-      <c r="B602" s="6" t="s">
+      <c r="B602" s="1" t="s">
         <v>2885</v>
       </c>
-      <c r="C602" s="6" t="s">
+      <c r="C602" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="D602" s="8" t="s">
+      <c r="D602" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="E602" s="8" t="s">
+      <c r="E602" s="1" t="s">
         <v>2888</v>
       </c>
-      <c r="F602" s="6" t="s">
+      <c r="F602" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G602" s="6" t="s">
+      <c r="G602" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H602" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="0" t="s">
+      <c r="A603" s="4" t="s">
         <v>2889</v>
       </c>
-      <c r="B603" s="0" t="s">
+      <c r="B603" s="4" t="s">
         <v>2890</v>
       </c>
-      <c r="C603" s="0" t="s">
+      <c r="C603" s="4" t="s">
         <v>2891</v>
       </c>
-      <c r="D603" s="0" t="s">
+      <c r="D603" s="4" t="s">
         <v>2892</v>
       </c>
-      <c r="E603" s="0" t="s">
+      <c r="E603" s="4" t="s">
         <v>2893</v>
       </c>
-      <c r="F603" s="6" t="s">
+      <c r="F603" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G603" s="6" t="s">
+      <c r="G603" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H603" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="0" t="s">
+      <c r="A604" s="4" t="s">
         <v>2894</v>
       </c>
-      <c r="B604" s="0" t="s">
+      <c r="B604" s="4" t="s">
         <v>2895</v>
       </c>
-      <c r="C604" s="0" t="s">
+      <c r="C604" s="4" t="s">
         <v>2896</v>
       </c>
-      <c r="D604" s="0" t="s">
+      <c r="D604" s="4" t="s">
         <v>2897</v>
       </c>
-      <c r="E604" s="0" t="s">
+      <c r="E604" s="4" t="s">
         <v>2898</v>
       </c>
-      <c r="F604" s="6" t="s">
+      <c r="F604" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G604" s="6" t="s">
+      <c r="G604" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H604" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="0" t="s">
+      <c r="A605" s="4" t="s">
         <v>2899</v>
       </c>
-      <c r="B605" s="0" t="s">
+      <c r="B605" s="4" t="s">
         <v>2900</v>
       </c>
-      <c r="C605" s="0" t="s">
+      <c r="C605" s="4" t="s">
         <v>2901</v>
       </c>
-      <c r="D605" s="0" t="s">
+      <c r="D605" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="E605" s="0" t="s">
+      <c r="E605" s="4" t="s">
         <v>2903</v>
       </c>
-      <c r="F605" s="6" t="s">
+      <c r="F605" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G605" s="6" t="s">
+      <c r="G605" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H605" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="0" t="s">
+      <c r="A606" s="4" t="s">
         <v>2904</v>
       </c>
-      <c r="B606" s="0" t="s">
+      <c r="B606" s="4" t="s">
         <v>2905</v>
       </c>
-      <c r="C606" s="0" t="s">
+      <c r="C606" s="4" t="s">
         <v>2906</v>
       </c>
-      <c r="D606" s="0" t="s">
+      <c r="D606" s="4" t="s">
         <v>2907</v>
       </c>
-      <c r="E606" s="0" t="s">
+      <c r="E606" s="4" t="s">
         <v>2908</v>
       </c>
-      <c r="F606" s="6" t="s">
+      <c r="F606" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G606" s="6" t="s">
+      <c r="G606" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H606" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="607" customFormat="false" ht="135.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="7" t="s">
+      <c r="A607" s="5" t="s">
         <v>2909</v>
       </c>
-      <c r="B607" s="8" t="s">
+      <c r="B607" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="C607" s="8" t="s">
+      <c r="C607" s="1" t="s">
         <v>2911</v>
       </c>
-      <c r="D607" s="8" t="s">
+      <c r="D607" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="E607" s="8" t="s">
+      <c r="E607" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="F607" s="6" t="s">
+      <c r="F607" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G607" s="6" t="s">
+      <c r="G607" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H607" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
+      <c r="A608" s="4" t="s">
         <v>2914</v>
       </c>
-      <c r="B608" s="0" t="s">
+      <c r="B608" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C608" s="0" t="s">
+      <c r="C608" s="4" t="s">
         <v>2915</v>
       </c>
-      <c r="D608" s="0" t="s">
+      <c r="D608" s="4" t="s">
         <v>2916</v>
       </c>
-      <c r="E608" s="0" t="s">
+      <c r="E608" s="4" t="s">
         <v>2917</v>
       </c>
-      <c r="F608" s="6" t="s">
+      <c r="F608" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G608" s="6" t="s">
+      <c r="G608" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H608" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="0" t="s">
+      <c r="A609" s="4" t="s">
         <v>2918</v>
       </c>
-      <c r="B609" s="0" t="s">
+      <c r="B609" s="4" t="s">
         <v>2919</v>
       </c>
-      <c r="C609" s="0" t="s">
+      <c r="C609" s="4" t="s">
         <v>2920</v>
       </c>
-      <c r="D609" s="0" t="s">
+      <c r="D609" s="4" t="s">
         <v>2921</v>
       </c>
-      <c r="E609" s="0" t="s">
+      <c r="E609" s="4" t="s">
         <v>2922</v>
       </c>
-      <c r="F609" s="6" t="s">
+      <c r="F609" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G609" s="6" t="s">
+      <c r="G609" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H609" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
+      <c r="A610" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="B610" s="0" t="s">
+      <c r="B610" s="4" t="s">
         <v>2924</v>
       </c>
-      <c r="C610" s="0" t="s">
+      <c r="C610" s="4" t="s">
         <v>2925</v>
       </c>
-      <c r="D610" s="0" t="s">
+      <c r="D610" s="4" t="s">
         <v>2926</v>
       </c>
-      <c r="E610" s="0" t="s">
+      <c r="E610" s="4" t="s">
         <v>2927</v>
       </c>
-      <c r="F610" s="6" t="s">
+      <c r="F610" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G610" s="6" t="s">
+      <c r="G610" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H610" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="0" t="s">
+      <c r="A611" s="4" t="s">
         <v>2928</v>
       </c>
-      <c r="B611" s="0" t="s">
+      <c r="B611" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C611" s="0" t="s">
+      <c r="C611" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="D611" s="0" t="s">
+      <c r="D611" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="E611" s="0" t="s">
+      <c r="E611" s="4" t="s">
         <v>2127</v>
       </c>
-      <c r="F611" s="6" t="s">
+      <c r="F611" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G611" s="6" t="s">
+      <c r="G611" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H611" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="0" t="s">
+      <c r="A612" s="4" t="s">
         <v>2929</v>
       </c>
-      <c r="B612" s="0" t="s">
+      <c r="B612" s="4" t="s">
         <v>2930</v>
       </c>
-      <c r="C612" s="0" t="s">
+      <c r="C612" s="4" t="s">
         <v>2931</v>
       </c>
-      <c r="D612" s="0" t="s">
+      <c r="D612" s="4" t="s">
         <v>2932</v>
       </c>
-      <c r="E612" s="0" t="s">
+      <c r="E612" s="4" t="s">
         <v>2933</v>
       </c>
-      <c r="F612" s="6" t="s">
+      <c r="F612" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G612" s="6" t="s">
+      <c r="G612" s="1" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="613" customFormat="false" ht="110.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="7" t="s">
+      <c r="H612" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="5" t="s">
         <v>2934</v>
       </c>
-      <c r="B613" s="8" t="s">
+      <c r="B613" s="1" t="s">
         <v>2935</v>
       </c>
-      <c r="C613" s="8" t="s">
+      <c r="C613" s="1" t="s">
         <v>2936</v>
       </c>
-      <c r="D613" s="8" t="s">
+      <c r="D613" s="1" t="s">
         <v>2937</v>
       </c>
-      <c r="E613" s="8" t="s">
+      <c r="E613" s="1" t="s">
         <v>2938</v>
       </c>
-      <c r="F613" s="6" t="s">
+      <c r="F613" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G613" s="6" t="s">
+      <c r="G613" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H613" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="0" t="s">
+      <c r="A614" s="4" t="s">
         <v>2939</v>
       </c>
-      <c r="B614" s="0" t="s">
+      <c r="B614" s="4" t="s">
         <v>2940</v>
       </c>
-      <c r="C614" s="0" t="s">
+      <c r="C614" s="4" t="s">
         <v>2941</v>
       </c>
-      <c r="D614" s="0" t="s">
+      <c r="D614" s="4" t="s">
         <v>2942</v>
       </c>
-      <c r="E614" s="0" t="s">
+      <c r="E614" s="4" t="s">
         <v>2943</v>
       </c>
-      <c r="F614" s="6" t="s">
+      <c r="F614" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G614" s="6" t="s">
+      <c r="G614" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H614" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="0" t="s">
+      <c r="A615" s="4" t="s">
         <v>2944</v>
       </c>
-      <c r="B615" s="0" t="s">
+      <c r="B615" s="4" t="s">
         <v>2945</v>
       </c>
-      <c r="C615" s="0" t="s">
+      <c r="C615" s="4" t="s">
         <v>2946</v>
       </c>
-      <c r="D615" s="0" t="s">
+      <c r="D615" s="4" t="s">
         <v>2947</v>
       </c>
-      <c r="E615" s="0" t="s">
+      <c r="E615" s="4" t="s">
         <v>2948</v>
       </c>
-      <c r="F615" s="6" t="s">
+      <c r="F615" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G615" s="6" t="s">
+      <c r="G615" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H615" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="0" t="s">
+      <c r="A616" s="4" t="s">
         <v>2949</v>
       </c>
-      <c r="B616" s="0" t="s">
+      <c r="B616" s="4" t="s">
         <v>2950</v>
       </c>
-      <c r="C616" s="0" t="s">
+      <c r="C616" s="4" t="s">
         <v>2951</v>
       </c>
-      <c r="D616" s="0" t="s">
+      <c r="D616" s="4" t="s">
         <v>2952</v>
       </c>
-      <c r="E616" s="0" t="s">
+      <c r="E616" s="4" t="s">
         <v>2953</v>
       </c>
-      <c r="F616" s="6" t="s">
+      <c r="F616" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G616" s="6" t="s">
+      <c r="G616" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H616" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="0" t="s">
+      <c r="A617" s="4" t="s">
         <v>2954</v>
       </c>
-      <c r="B617" s="0" t="s">
+      <c r="B617" s="4" t="s">
         <v>2955</v>
       </c>
-      <c r="C617" s="0" t="s">
+      <c r="C617" s="4" t="s">
         <v>2956</v>
       </c>
-      <c r="D617" s="0" t="s">
+      <c r="D617" s="4" t="s">
         <v>2957</v>
       </c>
-      <c r="E617" s="0" t="s">
+      <c r="E617" s="4" t="s">
         <v>2958</v>
       </c>
-      <c r="F617" s="6" t="s">
+      <c r="F617" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G617" s="6" t="s">
+      <c r="G617" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H617" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="0" t="s">
+      <c r="A618" s="4" t="s">
         <v>2959</v>
       </c>
-      <c r="B618" s="0" t="s">
+      <c r="B618" s="4" t="s">
         <v>2960</v>
       </c>
-      <c r="C618" s="0" t="s">
+      <c r="C618" s="4" t="s">
         <v>2961</v>
       </c>
-      <c r="D618" s="0" t="s">
+      <c r="D618" s="4" t="s">
         <v>2962</v>
       </c>
-      <c r="E618" s="0" t="s">
+      <c r="E618" s="4" t="s">
         <v>2963</v>
       </c>
-      <c r="F618" s="6" t="s">
+      <c r="F618" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G618" s="6" t="s">
+      <c r="G618" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H618" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="619" customFormat="false" ht="90.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="7" t="s">
+      <c r="A619" s="5" t="s">
         <v>2964</v>
       </c>
-      <c r="B619" s="8" t="s">
+      <c r="B619" s="1" t="s">
         <v>2965</v>
       </c>
-      <c r="C619" s="8" t="s">
+      <c r="C619" s="1" t="s">
         <v>2966</v>
       </c>
-      <c r="D619" s="8" t="s">
+      <c r="D619" s="1" t="s">
         <v>2967</v>
       </c>
-      <c r="E619" s="8" t="s">
+      <c r="E619" s="1" t="s">
         <v>2968</v>
       </c>
-      <c r="F619" s="6" t="s">
+      <c r="F619" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G619" s="6" t="s">
+      <c r="G619" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H619" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="0" t="s">
+      <c r="A620" s="4" t="s">
         <v>2969</v>
       </c>
-      <c r="B620" s="0" t="s">
+      <c r="B620" s="4" t="s">
         <v>2970</v>
       </c>
-      <c r="C620" s="0" t="s">
+      <c r="C620" s="4" t="s">
         <v>2971</v>
       </c>
-      <c r="D620" s="0" t="s">
+      <c r="D620" s="4" t="s">
         <v>2972</v>
       </c>
-      <c r="E620" s="0" t="s">
+      <c r="E620" s="4" t="s">
         <v>2973</v>
       </c>
-      <c r="F620" s="6" t="s">
+      <c r="F620" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G620" s="6" t="s">
+      <c r="G620" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H620" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="0" t="s">
+      <c r="A621" s="4" t="s">
         <v>2974</v>
       </c>
-      <c r="B621" s="0" t="s">
+      <c r="B621" s="4" t="s">
         <v>2975</v>
       </c>
-      <c r="C621" s="0" t="s">
+      <c r="C621" s="4" t="s">
         <v>2976</v>
       </c>
-      <c r="D621" s="0" t="s">
+      <c r="D621" s="4" t="s">
         <v>2977</v>
       </c>
-      <c r="E621" s="0" t="s">
+      <c r="E621" s="4" t="s">
         <v>2978</v>
       </c>
-      <c r="F621" s="6" t="s">
+      <c r="F621" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G621" s="6" t="s">
+      <c r="G621" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H621" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="0" t="s">
+      <c r="A622" s="4" t="s">
         <v>2979</v>
       </c>
-      <c r="B622" s="0" t="s">
+      <c r="B622" s="4" t="s">
         <v>2980</v>
       </c>
-      <c r="C622" s="0" t="s">
+      <c r="C622" s="4" t="s">
         <v>2981</v>
       </c>
-      <c r="D622" s="0" t="s">
+      <c r="D622" s="4" t="s">
         <v>2982</v>
       </c>
-      <c r="E622" s="0" t="s">
+      <c r="E622" s="4" t="s">
         <v>2983</v>
       </c>
-      <c r="F622" s="6" t="s">
+      <c r="F622" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G622" s="6" t="s">
+      <c r="G622" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H622" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="0" t="s">
+      <c r="A623" s="4" t="s">
         <v>2984</v>
       </c>
-      <c r="B623" s="0" t="s">
+      <c r="B623" s="4" t="s">
         <v>2985</v>
       </c>
-      <c r="C623" s="0" t="s">
+      <c r="C623" s="4" t="s">
         <v>2986</v>
       </c>
-      <c r="D623" s="0" t="s">
+      <c r="D623" s="4" t="s">
         <v>2987</v>
       </c>
-      <c r="E623" s="0" t="s">
+      <c r="E623" s="4" t="s">
         <v>2988</v>
       </c>
-      <c r="F623" s="6" t="s">
+      <c r="F623" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G623" s="6" t="s">
+      <c r="G623" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H623" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
+      <c r="A624" s="4" t="s">
         <v>2989</v>
       </c>
-      <c r="B624" s="0" t="s">
+      <c r="B624" s="4" t="s">
         <v>2990</v>
       </c>
-      <c r="C624" s="0" t="s">
+      <c r="C624" s="4" t="s">
         <v>2991</v>
       </c>
-      <c r="D624" s="0" t="s">
+      <c r="D624" s="4" t="s">
         <v>2992</v>
       </c>
-      <c r="E624" s="0" t="s">
+      <c r="E624" s="4" t="s">
         <v>2993</v>
       </c>
-      <c r="F624" s="6" t="s">
+      <c r="F624" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G624" s="6" t="s">
+      <c r="G624" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H624" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="0" t="s">
+      <c r="A625" s="4" t="s">
         <v>2994</v>
       </c>
-      <c r="B625" s="0" t="s">
+      <c r="B625" s="4" t="s">
         <v>2995</v>
       </c>
-      <c r="C625" s="0" t="s">
+      <c r="C625" s="4" t="s">
         <v>2996</v>
       </c>
-      <c r="D625" s="0" t="s">
+      <c r="D625" s="4" t="s">
         <v>2997</v>
       </c>
-      <c r="E625" s="0" t="s">
+      <c r="E625" s="4" t="s">
         <v>2998</v>
       </c>
-      <c r="F625" s="6" t="s">
+      <c r="F625" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G625" s="6" t="s">
+      <c r="G625" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H625" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="0" t="s">
+      <c r="A626" s="4" t="s">
         <v>2999</v>
       </c>
-      <c r="B626" s="0" t="s">
+      <c r="B626" s="4" t="s">
         <v>3000</v>
       </c>
-      <c r="C626" s="0" t="s">
+      <c r="C626" s="4" t="s">
         <v>3001</v>
       </c>
-      <c r="D626" s="0" t="s">
+      <c r="D626" s="4" t="s">
         <v>3002</v>
       </c>
-      <c r="E626" s="0" t="s">
+      <c r="E626" s="4" t="s">
         <v>3003</v>
       </c>
-      <c r="F626" s="6" t="s">
+      <c r="F626" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G626" s="6" t="s">
+      <c r="G626" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H626" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
+      <c r="A627" s="4" t="s">
         <v>3004</v>
       </c>
-      <c r="B627" s="0" t="s">
+      <c r="B627" s="4" t="s">
         <v>3005</v>
       </c>
-      <c r="C627" s="0" t="s">
+      <c r="C627" s="4" t="s">
         <v>3006</v>
       </c>
-      <c r="D627" s="0" t="s">
+      <c r="D627" s="4" t="s">
         <v>3007</v>
       </c>
-      <c r="E627" s="0" t="s">
+      <c r="E627" s="4" t="s">
         <v>3008</v>
       </c>
-      <c r="F627" s="6" t="s">
+      <c r="F627" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G627" s="6" t="s">
+      <c r="G627" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H627" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="628" customFormat="false" ht="90.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="7" t="s">
+      <c r="A628" s="5" t="s">
         <v>3009</v>
       </c>
-      <c r="B628" s="8" t="s">
+      <c r="B628" s="1" t="s">
         <v>2992</v>
       </c>
-      <c r="C628" s="8" t="s">
+      <c r="C628" s="1" t="s">
         <v>3010</v>
       </c>
-      <c r="D628" s="8" t="s">
+      <c r="D628" s="1" t="s">
         <v>2991</v>
       </c>
-      <c r="E628" s="8" t="s">
+      <c r="E628" s="1" t="s">
         <v>2990</v>
       </c>
-      <c r="F628" s="6" t="s">
+      <c r="F628" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G628" s="6" t="s">
+      <c r="G628" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H628" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="0" t="s">
+      <c r="A629" s="4" t="s">
         <v>3011</v>
       </c>
-      <c r="B629" s="0" t="s">
+      <c r="B629" s="4" t="s">
         <v>3012</v>
       </c>
-      <c r="C629" s="0" t="s">
+      <c r="C629" s="4" t="s">
         <v>3013</v>
       </c>
-      <c r="D629" s="0" t="s">
+      <c r="D629" s="4" t="s">
         <v>3014</v>
       </c>
-      <c r="E629" s="0" t="s">
+      <c r="E629" s="4" t="s">
         <v>3015</v>
       </c>
-      <c r="F629" s="6" t="s">
+      <c r="F629" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G629" s="6" t="s">
+      <c r="G629" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H629" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
+      <c r="A630" s="4" t="s">
         <v>3016</v>
       </c>
-      <c r="B630" s="0" t="s">
+      <c r="B630" s="4" t="s">
         <v>3017</v>
       </c>
-      <c r="C630" s="0" t="s">
+      <c r="C630" s="4" t="s">
         <v>3018</v>
       </c>
-      <c r="D630" s="0" t="s">
+      <c r="D630" s="4" t="s">
         <v>3019</v>
       </c>
-      <c r="E630" s="0" t="s">
+      <c r="E630" s="4" t="s">
         <v>3020</v>
       </c>
-      <c r="F630" s="6" t="s">
+      <c r="F630" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G630" s="6" t="s">
+      <c r="G630" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H630" s="4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
+      <c r="A631" s="4" t="s">
         <v>3021</v>
       </c>
-      <c r="B631" s="0" t="s">
+      <c r="B631" s="4" t="s">
         <v>3022</v>
       </c>
-      <c r="C631" s="0" t="s">
+      <c r="C631" s="4" t="s">
         <v>3023</v>
       </c>
-      <c r="D631" s="0" t="s">
+      <c r="D631" s="4" t="s">
         <v>3024</v>
       </c>
-      <c r="E631" s="0" t="s">
+      <c r="E631" s="4" t="s">
         <v>3025</v>
       </c>
-      <c r="F631" s="6" t="s">
+      <c r="F631" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G631" s="6" t="s">
+      <c r="G631" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H631" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="0" t="s">
+      <c r="A632" s="4" t="s">
         <v>3026</v>
       </c>
-      <c r="B632" s="0" t="s">
+      <c r="B632" s="4" t="s">
         <v>3027</v>
       </c>
-      <c r="C632" s="0" t="s">
+      <c r="C632" s="4" t="s">
         <v>3028</v>
       </c>
-      <c r="D632" s="0" t="s">
+      <c r="D632" s="4" t="s">
         <v>3029</v>
       </c>
-      <c r="E632" s="0" t="s">
+      <c r="E632" s="4" t="s">
         <v>2358</v>
       </c>
-      <c r="F632" s="6" t="s">
+      <c r="F632" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G632" s="6" t="s">
+      <c r="G632" s="1" t="s">
         <v>2449</v>
       </c>
+      <c r="H632" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="0" t="s">
+      <c r="A633" s="4" t="s">
         <v>3030</v>
       </c>
-      <c r="B633" s="0" t="s">
+      <c r="B633" s="4" t="s">
         <v>3031</v>
       </c>
-      <c r="C633" s="0" t="s">
+      <c r="C633" s="4" t="s">
         <v>2358</v>
       </c>
-      <c r="D633" s="0" t="s">
+      <c r="D633" s="4" t="s">
         <v>3032</v>
       </c>
-      <c r="E633" s="0" t="s">
+      <c r="E633" s="4" t="s">
         <v>3033</v>
       </c>
-      <c r="F633" s="6" t="s">
+      <c r="F633" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G633" s="6" t="s">
+      <c r="G633" s="1" t="s">
         <v>2449</v>
+      </c>
+      <c r="H633" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C634" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D634" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="E634" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H634" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C635" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E635" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H635" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="4" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E636" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H636" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E637" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H637" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H638" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C639" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E639" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H639" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="4" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C640" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="D640" s="4" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E640" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H640" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="C641" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H641" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C642" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E642" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H642" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="4" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C643" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D643" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H643" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="4" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="C644" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D644" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E644" s="4" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H644" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C645" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="E645" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H645" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="4" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C646" s="4" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E646" s="4" t="s">
+        <v>3097</v>
+      </c>
+      <c r="F646" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H646" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C647" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E647" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H647" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C648" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D648" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E648" s="4" t="s">
+        <v>3106</v>
+      </c>
+      <c r="F648" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H648" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="4" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C649" s="4" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E649" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H649" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="4" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F650" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H650" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="4" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C651" s="4" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E651" s="4" t="s">
+        <v>3120</v>
+      </c>
+      <c r="F651" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H651" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="100.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="5" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="F652" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H652" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C653" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E653" s="4" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F653" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H653" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H654" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C655" s="4" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E655" s="4" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H655" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H656" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B657" s="0" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C657" s="0" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D657" s="0" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E657" s="0" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F657" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G657" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H657" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="0" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C658" s="0" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D658" s="0" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E658" s="0" t="s">
+        <v>3155</v>
+      </c>
+      <c r="F658" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G658" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H658" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C659" s="0" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D659" s="0" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E659" s="0" t="s">
+        <v>3160</v>
+      </c>
+      <c r="F659" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G659" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H659" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="222.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="7" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B660" s="8" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C660" s="8" t="s">
+        <v>3163</v>
+      </c>
+      <c r="D660" s="8" t="s">
+        <v>3164</v>
+      </c>
+      <c r="E660" s="8" t="s">
+        <v>3165</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G660" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H660" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="0" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B661" s="0" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C661" s="0" t="s">
+        <v>3168</v>
+      </c>
+      <c r="D661" s="0" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E661" s="0" t="s">
+        <v>3170</v>
+      </c>
+      <c r="F661" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G661" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H661" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B662" s="0" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C662" s="0" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D662" s="0" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E662" s="0" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F662" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G662" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H662" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B663" s="0" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C663" s="0" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D663" s="0" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E663" s="0" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F663" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G663" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H663" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="213.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="7" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B664" s="8" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C664" s="8" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D664" s="8" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E664" s="8" t="s">
+        <v>2434</v>
+      </c>
+      <c r="F664" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G664" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H664" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="111.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="7" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B665" s="8" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C665" s="8" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D665" s="8" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E665" s="8" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F665" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G665" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H665" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="0" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B666" s="0" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C666" s="0" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D666" s="0" t="s">
+        <v>3193</v>
+      </c>
+      <c r="E666" s="0" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F666" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G666" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H666" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="124" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="7" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B667" s="8" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C667" s="8" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D667" s="8" t="s">
+        <v>3198</v>
+      </c>
+      <c r="E667" s="8" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F667" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G667" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H667" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="146.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="7" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B668" s="8" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C668" s="8" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D668" s="8" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E668" s="8" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F668" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G668" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H668" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="146.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="7" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B669" s="8" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C669" s="8" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D669" s="8" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E669" s="8" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F669" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G669" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H669" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="202.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="7" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B670" s="8" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C670" s="8" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D670" s="8" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E670" s="8" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F670" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G670" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H670" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="310.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="7" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B671" s="8" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C671" s="8" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D671" s="8" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E671" s="8" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F671" s="6" t="s">
+        <v>2417</v>
+      </c>
+      <c r="G671" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H671" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="0" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B672" s="0" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C672" s="0" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D672" s="0" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E672" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F672" s="0" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G672" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H672" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B673" s="0" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C673" s="0" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D673" s="0" t="s">
+        <v>3226</v>
+      </c>
+      <c r="E673" s="0" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F673" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G673" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H673" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B674" s="0" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C674" s="0" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D674" s="0" t="s">
+        <v>3231</v>
+      </c>
+      <c r="E674" s="0" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F674" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G674" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H674" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="0" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B675" s="0" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C675" s="0" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D675" s="0" t="s">
+        <v>3236</v>
+      </c>
+      <c r="E675" s="0" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F675" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G675" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H675" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="0" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B676" s="0" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C676" s="0" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D676" s="0" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E676" s="0" t="s">
+        <v>3241</v>
+      </c>
+      <c r="F676" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G676" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H676" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="0" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B677" s="0" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C677" s="0" t="s">
+        <v>3244</v>
+      </c>
+      <c r="D677" s="0" t="s">
+        <v>3245</v>
+      </c>
+      <c r="E677" s="0" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F677" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G677" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H677" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B678" s="0" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C678" s="0" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D678" s="0" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E678" s="0" t="s">
+        <v>3251</v>
+      </c>
+      <c r="F678" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G678" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H678" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B679" s="0" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C679" s="0" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D679" s="0" t="s">
+        <v>3255</v>
+      </c>
+      <c r="E679" s="0" t="s">
+        <v>3256</v>
+      </c>
+      <c r="F679" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G679" s="6" t="s">
+        <v>2449</v>
+      </c>
+      <c r="H679" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C680" s="0" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D680" s="0" t="s">
+        <v>3260</v>
+      </c>
+      <c r="E680" s="0" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F680" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="G680" s="0" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="7" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B681" s="8" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C681" s="8" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D681" s="8" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E681" s="8" t="s">
+        <v>3267</v>
+      </c>
+      <c r="F681" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G681" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D682" s="0" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E682" s="0" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F682" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G682" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D683" s="0" t="s">
+        <v>2262</v>
+      </c>
+      <c r="E683" s="0" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F683" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G683" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D684" s="0" t="s">
+        <v>3279</v>
+      </c>
+      <c r="E684" s="0" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F684" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G684" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D685" s="0" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E685" s="0" t="s">
+        <v>3285</v>
+      </c>
+      <c r="F685" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G685" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D686" s="0" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E686" s="0" t="s">
+        <v>3290</v>
+      </c>
+      <c r="F686" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G686" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D687" s="0" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E687" s="0" t="s">
+        <v>3294</v>
+      </c>
+      <c r="F687" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G687" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C688" s="0" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D688" s="0" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E688" s="0" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F688" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G688" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>3300</v>
+      </c>
+      <c r="D689" s="0" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E689" s="0" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F689" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G689" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B690" s="0" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C690" s="0" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D690" s="0" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E690" s="0" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F690" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G690" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C691" s="0" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D691" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E691" s="0" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F691" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G691" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="0" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C692" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D692" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E692" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F692" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G692" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="6" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B693" s="8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C693" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D693" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E693" s="8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F693" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G693" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="0" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B694" s="0" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C694" s="0" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D694" s="0" t="s">
+        <v>3310</v>
+      </c>
+      <c r="E694" s="0" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F694" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G694" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="0" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B695" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C695" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D695" s="0" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E695" s="0" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F695" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G695" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="0" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B696" s="0" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C696" s="0" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D696" s="0" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E696" s="0" t="s">
+        <v>3317</v>
+      </c>
+      <c r="F696" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G696" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B697" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C697" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D697" s="0" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E697" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F697" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G697" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B698" s="0" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C698" s="0" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D698" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E698" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F698" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G698" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="0" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B699" s="0" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C699" s="0" t="s">
+        <v>3322</v>
+      </c>
+      <c r="D699" s="0" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E699" s="0" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F699" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G699" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="0" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B700" s="0" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C700" s="0" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D700" s="0" t="s">
+        <v>3328</v>
+      </c>
+      <c r="E700" s="0" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F700" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G700" s="6" t="s">
+        <v>3262</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4856" uniqueCount="3330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="3444">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -12489,6 +12489,349 @@
   </si>
   <si>
     <t xml:space="preserve">سینوسپتروزال تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از فیبرهای زير از كپسول داخلی عبور ميكند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">درگانگليون های زنجیره سمپاتیک چه نوع نورونی وجود دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوقطبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چند قطبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بدون اكسون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک قطبی كاذب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glossopharyngeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب حركتی عضله ديافراگم كدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phrenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splanchnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musculocutaneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجرای صفراوی مشترک به كدام قسمت دئودنوم وارد ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در كدام ناحيه نخاع شبكه عصبی تشكيل نميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گردن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سينه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنه شريانی سيلياک به كدام اندام زير خون رسانی نمیكند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كبد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پانكراس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژئوژنوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از عضلات زير در جدار قدامی-طرفی شكم قرار ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iliopsoas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External oblique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectus abdominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transvers abdominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از عناصر تشریحی زير در مدياستينوم قدامی قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagus nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oesophagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trachea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب عضله اكستانسور زانو، كدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sciatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common peroneal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متحرک ترين مفصل بدن كدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoulder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantoaxial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از عناصر تشریحی زیر از ضخامت بال بزرگ اسفنوئيد عبور نميكند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب ماگزیلاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب منديبوﻻر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان افتالمیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شريان مننژيال ميانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از موارد زير مربوط به حفره جمجمه ای میانی نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supraorbital fissure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foramen lacerum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carotid groove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در تشكیلGreater occipital nerve، كدام ريشه نخاعی شركت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت افتادگی شدید پلک باﻻ (Petosis)، كدام یک از اعصاب زير دچار ضایعه شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophthalmic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oculomotor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انقباض كدام یک از عضلات حنجره موجب طويل شدن و كشيده شدن(Elongation)طناب های صوتی میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posterior cricoarythenoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral cricoarythenoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cricothyroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryepiglottic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پس از كشيدن و خارج كردن دندان موﻻر سوم فك پایین،ممكن است بيمار دچار كدام یک از علائم زير گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال حس چشایی دو سوم قدامی زبان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال حس عمومی دو سوم قدامی زبان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلج عضلات زبان و اختلال در حركات آن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افتادگی لب پايین وفلج عضلات آن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از اعصاب زير محتوی الياف سمپاتیک و پاراسمپاتیک ميباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buccal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chorda tympanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pterygoid canal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انقباض كدام عضله، زبان را از دهان خارج نموده و آن را به جلو ميبرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyoglossus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genioglossus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palatoglossus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Styloglossus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از سينوس های هوایی زير به مئاتوس ميانی بينی بازنميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتموئيدال قدامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسفنوئيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرونتال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصدومی دچار شكستگی در كف اوربيت شده است. كدام یک از دندانهای فک باﻻ، دچار اختلال حس نميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incisive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بيماری آلزايمر،چه شرایط نامطلوبی براي پروتئين به وجود می آید؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش دفع پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تجمع پروتئین حاصل ازFoldingنامناسب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رقابتی (Competitive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غيررقابتی (Noncompetitive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نارقابتی (Uncompetitive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دم پلیA(Poly A) به كدام نوع RNA یوكاریوتی اضافه ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام عامل زير باعث جابه جا شدن منحنی سيگموئیدی اتصال اكسيژن-هموگلوبین به سمت راست نميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هيپوكسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش٢و٣-بیس فسفوگلیسرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دركدام یک از موارد زير،داروی مهاركننده مرتبط با آنزيم هدف نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captoprilـآنزيم مبدل آنژيوتانسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digoxinـپمپ سديم / پتاسيم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebrexـ توپوايزومراز I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بررسی نسبت كدام یک از تركيبات زير در مايع آمنيوتیک، تعيين كننده تكامل ريه جنين ميباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لسيتین به فسفاتيدیل سرين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسفنگومیلین به لسیتین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسفنگوميلین به فسفاتيدیل اتانول آمین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تركیباتی مانندCO، آمیتال،٢و٤-دی نیترو فنل و آتراكتيلوزيد، به ترتیب در مهار كدام بخش از مسير زنجيره
+انتقال الكترون و روند توليد ATP تاثير دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كمپلكسIII، كمپلكسII، كمپلكسIV، جدا كردن فسفریلاسيون از اكسيداسيون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در الكتروفورز پروتئينهاي پلاسمای بیماران مبتلا به سیروز كبدی، كدام نتيجه مشاهده ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش باند گاماگلوبولین، افزايش باند آلبومین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش باند گاماگلوبولین، كاهش باند آلبومین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش باند گاماگلوبولین، كاهش باند آلبومین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش باند گاماگلوبولین، افزايش باند آلبومین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كمبود ويتامینB12سبب نقص در عملكرد كدام یک از آنزيم های زير ميشود؟</t>
   </si>
 </sst>
 </file>
@@ -12734,10 +13077,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H700"/>
+  <dimension ref="A1:H731"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A695" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F703" activeCellId="0" sqref="F703"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A727" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G734" activeCellId="0" sqref="G734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16980,7 +17323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="299.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
         <v>805</v>
       </c>
@@ -17006,7 +17349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="310.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
         <v>806</v>
       </c>
@@ -28287,7 +28630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="156.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="5" t="s">
         <v>2870</v>
       </c>
@@ -29665,7 +30008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="100.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="5" t="s">
         <v>3121</v>
       </c>
@@ -29687,7 +30030,7 @@
       <c r="G652" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H652" s="0" t="n">
+      <c r="H652" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -29713,7 +30056,7 @@
       <c r="G653" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H653" s="0" t="n">
+      <c r="H653" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -29739,7 +30082,7 @@
       <c r="G654" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H654" s="0" t="n">
+      <c r="H654" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -29765,7 +30108,7 @@
       <c r="G655" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H655" s="0" t="n">
+      <c r="H655" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -29791,1088 +30134,1927 @@
       <c r="G656" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H656" s="0" t="n">
+      <c r="H656" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="0" t="s">
+      <c r="A657" s="4" t="s">
         <v>3146</v>
       </c>
-      <c r="B657" s="0" t="s">
+      <c r="B657" s="4" t="s">
         <v>3147</v>
       </c>
-      <c r="C657" s="0" t="s">
+      <c r="C657" s="4" t="s">
         <v>3148</v>
       </c>
-      <c r="D657" s="0" t="s">
+      <c r="D657" s="4" t="s">
         <v>3149</v>
       </c>
-      <c r="E657" s="0" t="s">
+      <c r="E657" s="4" t="s">
         <v>3150</v>
       </c>
-      <c r="F657" s="6" t="s">
+      <c r="F657" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G657" s="6" t="s">
+      <c r="G657" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H657" s="0" t="n">
+      <c r="H657" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="0" t="s">
+      <c r="A658" s="4" t="s">
         <v>3151</v>
       </c>
-      <c r="B658" s="0" t="s">
+      <c r="B658" s="4" t="s">
         <v>3152</v>
       </c>
-      <c r="C658" s="0" t="s">
+      <c r="C658" s="4" t="s">
         <v>3153</v>
       </c>
-      <c r="D658" s="0" t="s">
+      <c r="D658" s="4" t="s">
         <v>3154</v>
       </c>
-      <c r="E658" s="0" t="s">
+      <c r="E658" s="4" t="s">
         <v>3155</v>
       </c>
-      <c r="F658" s="6" t="s">
+      <c r="F658" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G658" s="6" t="s">
+      <c r="G658" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H658" s="0" t="n">
+      <c r="H658" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="0" t="s">
+      <c r="A659" s="4" t="s">
         <v>3156</v>
       </c>
-      <c r="B659" s="0" t="s">
+      <c r="B659" s="4" t="s">
         <v>3157</v>
       </c>
-      <c r="C659" s="0" t="s">
+      <c r="C659" s="4" t="s">
         <v>3158</v>
       </c>
-      <c r="D659" s="0" t="s">
+      <c r="D659" s="4" t="s">
         <v>3159</v>
       </c>
-      <c r="E659" s="0" t="s">
+      <c r="E659" s="4" t="s">
         <v>3160</v>
       </c>
-      <c r="F659" s="6" t="s">
+      <c r="F659" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G659" s="6" t="s">
+      <c r="G659" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H659" s="0" t="n">
+      <c r="H659" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="222.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="7" t="s">
+    <row r="660" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="5" t="s">
         <v>3161</v>
       </c>
-      <c r="B660" s="8" t="s">
+      <c r="B660" s="1" t="s">
         <v>3162</v>
       </c>
-      <c r="C660" s="8" t="s">
+      <c r="C660" s="1" t="s">
         <v>3163</v>
       </c>
-      <c r="D660" s="8" t="s">
+      <c r="D660" s="1" t="s">
         <v>3164</v>
       </c>
-      <c r="E660" s="8" t="s">
+      <c r="E660" s="1" t="s">
         <v>3165</v>
       </c>
-      <c r="F660" s="6" t="s">
+      <c r="F660" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G660" s="6" t="s">
+      <c r="G660" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H660" s="0" t="n">
+      <c r="H660" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="0" t="s">
+      <c r="A661" s="4" t="s">
         <v>3166</v>
       </c>
-      <c r="B661" s="0" t="s">
+      <c r="B661" s="4" t="s">
         <v>3167</v>
       </c>
-      <c r="C661" s="0" t="s">
+      <c r="C661" s="4" t="s">
         <v>3168</v>
       </c>
-      <c r="D661" s="0" t="s">
+      <c r="D661" s="4" t="s">
         <v>3169</v>
       </c>
-      <c r="E661" s="0" t="s">
+      <c r="E661" s="4" t="s">
         <v>3170</v>
       </c>
-      <c r="F661" s="6" t="s">
+      <c r="F661" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G661" s="6" t="s">
+      <c r="G661" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H661" s="0" t="n">
+      <c r="H661" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="0" t="s">
+      <c r="A662" s="4" t="s">
         <v>3171</v>
       </c>
-      <c r="B662" s="0" t="s">
+      <c r="B662" s="4" t="s">
         <v>3172</v>
       </c>
-      <c r="C662" s="0" t="s">
+      <c r="C662" s="4" t="s">
         <v>3173</v>
       </c>
-      <c r="D662" s="0" t="s">
+      <c r="D662" s="4" t="s">
         <v>3174</v>
       </c>
-      <c r="E662" s="0" t="s">
+      <c r="E662" s="4" t="s">
         <v>3175</v>
       </c>
-      <c r="F662" s="6" t="s">
+      <c r="F662" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G662" s="6" t="s">
+      <c r="G662" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H662" s="0" t="n">
+      <c r="H662" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="0" t="s">
+      <c r="A663" s="4" t="s">
         <v>3176</v>
       </c>
-      <c r="B663" s="0" t="s">
+      <c r="B663" s="4" t="s">
         <v>3177</v>
       </c>
-      <c r="C663" s="0" t="s">
+      <c r="C663" s="4" t="s">
         <v>3178</v>
       </c>
-      <c r="D663" s="0" t="s">
+      <c r="D663" s="4" t="s">
         <v>3179</v>
       </c>
-      <c r="E663" s="0" t="s">
+      <c r="E663" s="4" t="s">
         <v>3180</v>
       </c>
-      <c r="F663" s="6" t="s">
+      <c r="F663" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G663" s="6" t="s">
+      <c r="G663" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H663" s="0" t="n">
+      <c r="H663" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="213.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="7" t="s">
+      <c r="A664" s="5" t="s">
         <v>3181</v>
       </c>
-      <c r="B664" s="8" t="s">
+      <c r="B664" s="1" t="s">
         <v>3182</v>
       </c>
-      <c r="C664" s="8" t="s">
+      <c r="C664" s="1" t="s">
         <v>3183</v>
       </c>
-      <c r="D664" s="8" t="s">
+      <c r="D664" s="1" t="s">
         <v>3184</v>
       </c>
-      <c r="E664" s="8" t="s">
+      <c r="E664" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="F664" s="6" t="s">
+      <c r="F664" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G664" s="6" t="s">
+      <c r="G664" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H664" s="0" t="n">
+      <c r="H664" s="4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="111.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="7" t="s">
+    <row r="665" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="5" t="s">
         <v>3185</v>
       </c>
-      <c r="B665" s="8" t="s">
+      <c r="B665" s="1" t="s">
         <v>3186</v>
       </c>
-      <c r="C665" s="8" t="s">
+      <c r="C665" s="1" t="s">
         <v>3187</v>
       </c>
-      <c r="D665" s="8" t="s">
+      <c r="D665" s="1" t="s">
         <v>3188</v>
       </c>
-      <c r="E665" s="8" t="s">
+      <c r="E665" s="1" t="s">
         <v>3189</v>
       </c>
-      <c r="F665" s="6" t="s">
+      <c r="F665" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G665" s="6" t="s">
+      <c r="G665" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H665" s="0" t="n">
+      <c r="H665" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="0" t="s">
+      <c r="A666" s="4" t="s">
         <v>3190</v>
       </c>
-      <c r="B666" s="0" t="s">
+      <c r="B666" s="4" t="s">
         <v>3191</v>
       </c>
-      <c r="C666" s="0" t="s">
+      <c r="C666" s="4" t="s">
         <v>3192</v>
       </c>
-      <c r="D666" s="0" t="s">
+      <c r="D666" s="4" t="s">
         <v>3193</v>
       </c>
-      <c r="E666" s="0" t="s">
+      <c r="E666" s="4" t="s">
         <v>3194</v>
       </c>
-      <c r="F666" s="6" t="s">
+      <c r="F666" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G666" s="6" t="s">
+      <c r="G666" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H666" s="0" t="n">
+      <c r="H666" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="124" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="7" t="s">
+      <c r="A667" s="5" t="s">
         <v>3195</v>
       </c>
-      <c r="B667" s="8" t="s">
+      <c r="B667" s="1" t="s">
         <v>3196</v>
       </c>
-      <c r="C667" s="8" t="s">
+      <c r="C667" s="1" t="s">
         <v>3197</v>
       </c>
-      <c r="D667" s="8" t="s">
+      <c r="D667" s="1" t="s">
         <v>3198</v>
       </c>
-      <c r="E667" s="8" t="s">
+      <c r="E667" s="1" t="s">
         <v>3199</v>
       </c>
-      <c r="F667" s="6" t="s">
+      <c r="F667" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G667" s="6" t="s">
+      <c r="G667" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H667" s="0" t="n">
+      <c r="H667" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="146.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="7" t="s">
+    <row r="668" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="5" t="s">
         <v>3200</v>
       </c>
-      <c r="B668" s="8" t="s">
+      <c r="B668" s="1" t="s">
         <v>3201</v>
       </c>
-      <c r="C668" s="8" t="s">
+      <c r="C668" s="1" t="s">
         <v>3202</v>
       </c>
-      <c r="D668" s="8" t="s">
+      <c r="D668" s="1" t="s">
         <v>3203</v>
       </c>
-      <c r="E668" s="8" t="s">
+      <c r="E668" s="1" t="s">
         <v>3204</v>
       </c>
-      <c r="F668" s="6" t="s">
+      <c r="F668" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G668" s="6" t="s">
+      <c r="G668" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H668" s="0" t="n">
+      <c r="H668" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="146.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="7" t="s">
+      <c r="A669" s="5" t="s">
         <v>3205</v>
       </c>
-      <c r="B669" s="8" t="s">
+      <c r="B669" s="1" t="s">
         <v>3206</v>
       </c>
-      <c r="C669" s="8" t="s">
+      <c r="C669" s="1" t="s">
         <v>3207</v>
       </c>
-      <c r="D669" s="8" t="s">
+      <c r="D669" s="1" t="s">
         <v>3208</v>
       </c>
-      <c r="E669" s="8" t="s">
+      <c r="E669" s="1" t="s">
         <v>3209</v>
       </c>
-      <c r="F669" s="6" t="s">
+      <c r="F669" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G669" s="6" t="s">
+      <c r="G669" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H669" s="0" t="n">
+      <c r="H669" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="202.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="7" t="s">
+      <c r="A670" s="5" t="s">
         <v>3210</v>
       </c>
-      <c r="B670" s="8" t="s">
+      <c r="B670" s="1" t="s">
         <v>3208</v>
       </c>
-      <c r="C670" s="8" t="s">
+      <c r="C670" s="1" t="s">
         <v>3211</v>
       </c>
-      <c r="D670" s="8" t="s">
+      <c r="D670" s="1" t="s">
         <v>3212</v>
       </c>
-      <c r="E670" s="8" t="s">
+      <c r="E670" s="1" t="s">
         <v>3206</v>
       </c>
-      <c r="F670" s="6" t="s">
+      <c r="F670" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G670" s="6" t="s">
+      <c r="G670" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H670" s="0" t="n">
+      <c r="H670" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="310.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="7" t="s">
+    <row r="671" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="5" t="s">
         <v>3213</v>
       </c>
-      <c r="B671" s="8" t="s">
+      <c r="B671" s="1" t="s">
         <v>3214</v>
       </c>
-      <c r="C671" s="8" t="s">
+      <c r="C671" s="1" t="s">
         <v>3215</v>
       </c>
-      <c r="D671" s="8" t="s">
+      <c r="D671" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="E671" s="8" t="s">
+      <c r="E671" s="1" t="s">
         <v>3217</v>
       </c>
-      <c r="F671" s="6" t="s">
+      <c r="F671" s="1" t="s">
         <v>2417</v>
       </c>
-      <c r="G671" s="6" t="s">
+      <c r="G671" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H671" s="0" t="n">
+      <c r="H671" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="0" t="s">
+      <c r="A672" s="4" t="s">
         <v>3218</v>
       </c>
-      <c r="B672" s="0" t="s">
+      <c r="B672" s="4" t="s">
         <v>3219</v>
       </c>
-      <c r="C672" s="0" t="s">
+      <c r="C672" s="4" t="s">
         <v>3220</v>
       </c>
-      <c r="D672" s="0" t="s">
+      <c r="D672" s="4" t="s">
         <v>3221</v>
       </c>
-      <c r="E672" s="0" t="s">
+      <c r="E672" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="F672" s="0" t="s">
+      <c r="F672" s="4" t="s">
         <v>3222</v>
       </c>
-      <c r="G672" s="6" t="s">
+      <c r="G672" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H672" s="0" t="n">
+      <c r="H672" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="0" t="s">
+      <c r="A673" s="4" t="s">
         <v>3223</v>
       </c>
-      <c r="B673" s="0" t="s">
+      <c r="B673" s="4" t="s">
         <v>3224</v>
       </c>
-      <c r="C673" s="0" t="s">
+      <c r="C673" s="4" t="s">
         <v>3225</v>
       </c>
-      <c r="D673" s="0" t="s">
+      <c r="D673" s="4" t="s">
         <v>3226</v>
       </c>
-      <c r="E673" s="0" t="s">
+      <c r="E673" s="4" t="s">
         <v>3227</v>
       </c>
-      <c r="F673" s="6" t="s">
+      <c r="F673" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="G673" s="6" t="s">
+      <c r="G673" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H673" s="0" t="n">
+      <c r="H673" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="0" t="s">
+      <c r="A674" s="4" t="s">
         <v>3228</v>
       </c>
-      <c r="B674" s="0" t="s">
+      <c r="B674" s="4" t="s">
         <v>3229</v>
       </c>
-      <c r="C674" s="0" t="s">
+      <c r="C674" s="4" t="s">
         <v>3230</v>
       </c>
-      <c r="D674" s="0" t="s">
+      <c r="D674" s="4" t="s">
         <v>3231</v>
       </c>
-      <c r="E674" s="0" t="s">
+      <c r="E674" s="4" t="s">
         <v>3232</v>
       </c>
-      <c r="F674" s="6" t="s">
+      <c r="F674" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="G674" s="6" t="s">
+      <c r="G674" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H674" s="0" t="n">
+      <c r="H674" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="0" t="s">
+      <c r="A675" s="4" t="s">
         <v>3233</v>
       </c>
-      <c r="B675" s="0" t="s">
+      <c r="B675" s="4" t="s">
         <v>3234</v>
       </c>
-      <c r="C675" s="0" t="s">
+      <c r="C675" s="4" t="s">
         <v>3235</v>
       </c>
-      <c r="D675" s="0" t="s">
+      <c r="D675" s="4" t="s">
         <v>3236</v>
       </c>
-      <c r="E675" s="0" t="s">
+      <c r="E675" s="4" t="s">
         <v>1926</v>
       </c>
-      <c r="F675" s="6" t="s">
+      <c r="F675" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="G675" s="6" t="s">
+      <c r="G675" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H675" s="0" t="n">
+      <c r="H675" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="0" t="s">
+      <c r="A676" s="4" t="s">
         <v>3237</v>
       </c>
-      <c r="B676" s="0" t="s">
+      <c r="B676" s="4" t="s">
         <v>3238</v>
       </c>
-      <c r="C676" s="0" t="s">
+      <c r="C676" s="4" t="s">
         <v>3239</v>
       </c>
-      <c r="D676" s="0" t="s">
+      <c r="D676" s="4" t="s">
         <v>3240</v>
       </c>
-      <c r="E676" s="0" t="s">
+      <c r="E676" s="4" t="s">
         <v>3241</v>
       </c>
-      <c r="F676" s="6" t="s">
+      <c r="F676" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="G676" s="6" t="s">
+      <c r="G676" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H676" s="0" t="n">
+      <c r="H676" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="0" t="s">
+      <c r="A677" s="4" t="s">
         <v>3242</v>
       </c>
-      <c r="B677" s="0" t="s">
+      <c r="B677" s="4" t="s">
         <v>3243</v>
       </c>
-      <c r="C677" s="0" t="s">
+      <c r="C677" s="4" t="s">
         <v>3244</v>
       </c>
-      <c r="D677" s="0" t="s">
+      <c r="D677" s="4" t="s">
         <v>3245</v>
       </c>
-      <c r="E677" s="0" t="s">
+      <c r="E677" s="4" t="s">
         <v>3246</v>
       </c>
-      <c r="F677" s="6" t="s">
+      <c r="F677" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="G677" s="6" t="s">
+      <c r="G677" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H677" s="0" t="n">
+      <c r="H677" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="0" t="s">
+      <c r="A678" s="4" t="s">
         <v>3247</v>
       </c>
-      <c r="B678" s="0" t="s">
+      <c r="B678" s="4" t="s">
         <v>3248</v>
       </c>
-      <c r="C678" s="0" t="s">
+      <c r="C678" s="4" t="s">
         <v>3249</v>
       </c>
-      <c r="D678" s="0" t="s">
+      <c r="D678" s="4" t="s">
         <v>3250</v>
       </c>
-      <c r="E678" s="0" t="s">
+      <c r="E678" s="4" t="s">
         <v>3251</v>
       </c>
-      <c r="F678" s="6" t="s">
+      <c r="F678" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="G678" s="6" t="s">
+      <c r="G678" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H678" s="0" t="n">
+      <c r="H678" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="0" t="s">
+      <c r="A679" s="4" t="s">
         <v>3252</v>
       </c>
-      <c r="B679" s="0" t="s">
+      <c r="B679" s="4" t="s">
         <v>3253</v>
       </c>
-      <c r="C679" s="0" t="s">
+      <c r="C679" s="4" t="s">
         <v>3254</v>
       </c>
-      <c r="D679" s="0" t="s">
+      <c r="D679" s="4" t="s">
         <v>3255</v>
       </c>
-      <c r="E679" s="0" t="s">
+      <c r="E679" s="4" t="s">
         <v>3256</v>
       </c>
-      <c r="F679" s="6" t="s">
+      <c r="F679" s="1" t="s">
         <v>3222</v>
       </c>
-      <c r="G679" s="6" t="s">
+      <c r="G679" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="H679" s="0" t="n">
+      <c r="H679" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="0" t="s">
+      <c r="A680" s="4" t="s">
         <v>3257</v>
       </c>
-      <c r="B680" s="0" t="s">
+      <c r="B680" s="4" t="s">
         <v>3258</v>
       </c>
-      <c r="C680" s="0" t="s">
+      <c r="C680" s="4" t="s">
         <v>3259</v>
       </c>
-      <c r="D680" s="0" t="s">
+      <c r="D680" s="4" t="s">
         <v>3260</v>
       </c>
-      <c r="E680" s="0" t="s">
+      <c r="E680" s="4" t="s">
         <v>3261</v>
       </c>
-      <c r="F680" s="0" t="s">
+      <c r="F680" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="G680" s="0" t="s">
+      <c r="G680" s="4" t="s">
         <v>3262</v>
       </c>
+      <c r="H680" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="681" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="7" t="s">
+      <c r="A681" s="5" t="s">
         <v>3263</v>
       </c>
-      <c r="B681" s="8" t="s">
+      <c r="B681" s="1" t="s">
         <v>3264</v>
       </c>
-      <c r="C681" s="8" t="s">
+      <c r="C681" s="1" t="s">
         <v>3265</v>
       </c>
-      <c r="D681" s="8" t="s">
+      <c r="D681" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="E681" s="8" t="s">
+      <c r="E681" s="1" t="s">
         <v>3267</v>
       </c>
-      <c r="F681" s="6" t="s">
+      <c r="F681" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G681" s="6" t="s">
+      <c r="G681" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H681" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="0" t="s">
+      <c r="A682" s="4" t="s">
         <v>3268</v>
       </c>
-      <c r="B682" s="0" t="s">
+      <c r="B682" s="4" t="s">
         <v>2310</v>
       </c>
-      <c r="C682" s="0" t="s">
+      <c r="C682" s="4" t="s">
         <v>3269</v>
       </c>
-      <c r="D682" s="0" t="s">
+      <c r="D682" s="4" t="s">
         <v>3270</v>
       </c>
-      <c r="E682" s="0" t="s">
+      <c r="E682" s="4" t="s">
         <v>3271</v>
       </c>
-      <c r="F682" s="6" t="s">
+      <c r="F682" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G682" s="6" t="s">
+      <c r="G682" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H682" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="0" t="s">
+      <c r="A683" s="4" t="s">
         <v>3272</v>
       </c>
-      <c r="B683" s="0" t="s">
+      <c r="B683" s="4" t="s">
         <v>3273</v>
       </c>
-      <c r="C683" s="0" t="s">
+      <c r="C683" s="4" t="s">
         <v>3274</v>
       </c>
-      <c r="D683" s="0" t="s">
+      <c r="D683" s="4" t="s">
         <v>2262</v>
       </c>
-      <c r="E683" s="0" t="s">
+      <c r="E683" s="4" t="s">
         <v>3275</v>
       </c>
-      <c r="F683" s="6" t="s">
+      <c r="F683" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G683" s="6" t="s">
+      <c r="G683" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H683" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="0" t="s">
+      <c r="A684" s="4" t="s">
         <v>3276</v>
       </c>
-      <c r="B684" s="0" t="s">
+      <c r="B684" s="4" t="s">
         <v>3277</v>
       </c>
-      <c r="C684" s="0" t="s">
+      <c r="C684" s="4" t="s">
         <v>3278</v>
       </c>
-      <c r="D684" s="0" t="s">
+      <c r="D684" s="4" t="s">
         <v>3279</v>
       </c>
-      <c r="E684" s="0" t="s">
+      <c r="E684" s="4" t="s">
         <v>3280</v>
       </c>
-      <c r="F684" s="6" t="s">
+      <c r="F684" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G684" s="6" t="s">
+      <c r="G684" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H684" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="0" t="s">
+      <c r="A685" s="4" t="s">
         <v>3281</v>
       </c>
-      <c r="B685" s="0" t="s">
+      <c r="B685" s="4" t="s">
         <v>3282</v>
       </c>
-      <c r="C685" s="0" t="s">
+      <c r="C685" s="4" t="s">
         <v>3283</v>
       </c>
-      <c r="D685" s="0" t="s">
+      <c r="D685" s="4" t="s">
         <v>3284</v>
       </c>
-      <c r="E685" s="0" t="s">
+      <c r="E685" s="4" t="s">
         <v>3285</v>
       </c>
-      <c r="F685" s="6" t="s">
+      <c r="F685" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G685" s="6" t="s">
+      <c r="G685" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H685" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="0" t="s">
+      <c r="A686" s="4" t="s">
         <v>3286</v>
       </c>
-      <c r="B686" s="0" t="s">
+      <c r="B686" s="4" t="s">
         <v>3287</v>
       </c>
-      <c r="C686" s="0" t="s">
+      <c r="C686" s="4" t="s">
         <v>3288</v>
       </c>
-      <c r="D686" s="0" t="s">
+      <c r="D686" s="4" t="s">
         <v>3289</v>
       </c>
-      <c r="E686" s="0" t="s">
+      <c r="E686" s="4" t="s">
         <v>3290</v>
       </c>
-      <c r="F686" s="6" t="s">
+      <c r="F686" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G686" s="6" t="s">
+      <c r="G686" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H686" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="0" t="s">
+      <c r="A687" s="4" t="s">
         <v>3291</v>
       </c>
-      <c r="B687" s="0" t="s">
+      <c r="B687" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="C687" s="0" t="s">
+      <c r="C687" s="4" t="s">
         <v>3292</v>
       </c>
-      <c r="D687" s="0" t="s">
+      <c r="D687" s="4" t="s">
         <v>3293</v>
       </c>
-      <c r="E687" s="0" t="s">
+      <c r="E687" s="4" t="s">
         <v>3294</v>
       </c>
-      <c r="F687" s="6" t="s">
+      <c r="F687" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G687" s="6" t="s">
+      <c r="G687" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H687" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="0" t="s">
+      <c r="A688" s="4" t="s">
         <v>3295</v>
       </c>
-      <c r="B688" s="0" t="s">
+      <c r="B688" s="4" t="s">
         <v>1700</v>
       </c>
-      <c r="C688" s="0" t="s">
+      <c r="C688" s="4" t="s">
         <v>3296</v>
       </c>
-      <c r="D688" s="0" t="s">
+      <c r="D688" s="4" t="s">
         <v>3297</v>
       </c>
-      <c r="E688" s="0" t="s">
+      <c r="E688" s="4" t="s">
         <v>3298</v>
       </c>
-      <c r="F688" s="6" t="s">
+      <c r="F688" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G688" s="6" t="s">
+      <c r="G688" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H688" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="0" t="s">
+      <c r="A689" s="4" t="s">
         <v>3299</v>
       </c>
-      <c r="B689" s="0" t="s">
+      <c r="B689" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="C689" s="0" t="s">
+      <c r="C689" s="4" t="s">
         <v>3300</v>
       </c>
-      <c r="D689" s="0" t="s">
+      <c r="D689" s="4" t="s">
         <v>3301</v>
       </c>
-      <c r="E689" s="0" t="s">
+      <c r="E689" s="4" t="s">
         <v>3302</v>
       </c>
-      <c r="F689" s="6" t="s">
+      <c r="F689" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G689" s="6" t="s">
+      <c r="G689" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H689" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="0" t="s">
+      <c r="A690" s="4" t="s">
         <v>3303</v>
       </c>
-      <c r="B690" s="0" t="s">
+      <c r="B690" s="4" t="s">
         <v>3304</v>
       </c>
-      <c r="C690" s="0" t="s">
+      <c r="C690" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="D690" s="0" t="s">
+      <c r="D690" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="E690" s="0" t="s">
+      <c r="E690" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="F690" s="6" t="s">
+      <c r="F690" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G690" s="6" t="s">
+      <c r="G690" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H690" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="0" t="s">
+      <c r="A691" s="4" t="s">
         <v>3305</v>
       </c>
-      <c r="B691" s="0" t="s">
+      <c r="B691" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="C691" s="0" t="s">
+      <c r="C691" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="D691" s="0" t="s">
+      <c r="D691" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="E691" s="0" t="s">
+      <c r="E691" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="F691" s="6" t="s">
+      <c r="F691" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G691" s="6" t="s">
+      <c r="G691" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H691" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="0" t="s">
+      <c r="A692" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="B692" s="6" t="s">
+      <c r="B692" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="C692" s="6" t="s">
+      <c r="C692" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="D692" s="6" t="s">
+      <c r="D692" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="E692" s="6" t="s">
+      <c r="E692" s="1" t="s">
         <v>1298</v>
       </c>
-      <c r="F692" s="6" t="s">
+      <c r="F692" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G692" s="6" t="s">
+      <c r="G692" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H692" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="6" t="s">
+      <c r="A693" s="1" t="s">
         <v>3306</v>
       </c>
-      <c r="B693" s="8" t="s">
+      <c r="B693" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="C693" s="8" t="s">
+      <c r="C693" s="1" t="s">
         <v>1323</v>
       </c>
-      <c r="D693" s="8" t="s">
+      <c r="D693" s="1" t="s">
         <v>1324</v>
       </c>
-      <c r="E693" s="8" t="s">
+      <c r="E693" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="F693" s="6" t="s">
+      <c r="F693" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G693" s="6" t="s">
+      <c r="G693" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H693" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="0" t="s">
+      <c r="A694" s="4" t="s">
         <v>3307</v>
       </c>
-      <c r="B694" s="0" t="s">
+      <c r="B694" s="4" t="s">
         <v>3308</v>
       </c>
-      <c r="C694" s="0" t="s">
+      <c r="C694" s="4" t="s">
         <v>3309</v>
       </c>
-      <c r="D694" s="0" t="s">
+      <c r="D694" s="4" t="s">
         <v>3310</v>
       </c>
-      <c r="E694" s="0" t="s">
+      <c r="E694" s="4" t="s">
         <v>3311</v>
       </c>
-      <c r="F694" s="6" t="s">
+      <c r="F694" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G694" s="6" t="s">
+      <c r="G694" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H694" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="0" t="s">
+      <c r="A695" s="4" t="s">
         <v>3312</v>
       </c>
-      <c r="B695" s="0" t="s">
+      <c r="B695" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="C695" s="0" t="s">
+      <c r="C695" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="D695" s="0" t="s">
+      <c r="D695" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="E695" s="0" t="s">
+      <c r="E695" s="4" t="s">
         <v>1481</v>
       </c>
-      <c r="F695" s="6" t="s">
+      <c r="F695" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G695" s="6" t="s">
+      <c r="G695" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H695" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="0" t="s">
+      <c r="A696" s="4" t="s">
         <v>3313</v>
       </c>
-      <c r="B696" s="0" t="s">
+      <c r="B696" s="4" t="s">
         <v>3314</v>
       </c>
-      <c r="C696" s="0" t="s">
+      <c r="C696" s="4" t="s">
         <v>3315</v>
       </c>
-      <c r="D696" s="0" t="s">
+      <c r="D696" s="4" t="s">
         <v>3316</v>
       </c>
-      <c r="E696" s="0" t="s">
+      <c r="E696" s="4" t="s">
         <v>3317</v>
       </c>
-      <c r="F696" s="6" t="s">
+      <c r="F696" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G696" s="6" t="s">
+      <c r="G696" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H696" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="0" t="s">
+      <c r="A697" s="4" t="s">
         <v>3318</v>
       </c>
-      <c r="B697" s="0" t="s">
+      <c r="B697" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="C697" s="0" t="s">
+      <c r="C697" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="D697" s="0" t="s">
+      <c r="D697" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="E697" s="0" t="s">
+      <c r="E697" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="F697" s="6" t="s">
+      <c r="F697" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G697" s="6" t="s">
+      <c r="G697" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H697" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="0" t="s">
+      <c r="A698" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="B698" s="0" t="s">
+      <c r="B698" s="4" t="s">
         <v>1489</v>
       </c>
-      <c r="C698" s="0" t="s">
+      <c r="C698" s="4" t="s">
         <v>3319</v>
       </c>
-      <c r="D698" s="0" t="s">
+      <c r="D698" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="E698" s="0" t="s">
+      <c r="E698" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="F698" s="6" t="s">
+      <c r="F698" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G698" s="6" t="s">
+      <c r="G698" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H698" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="0" t="s">
+      <c r="A699" s="4" t="s">
         <v>3320</v>
       </c>
-      <c r="B699" s="0" t="s">
+      <c r="B699" s="4" t="s">
         <v>3321</v>
       </c>
-      <c r="C699" s="0" t="s">
+      <c r="C699" s="4" t="s">
         <v>3322</v>
       </c>
-      <c r="D699" s="0" t="s">
+      <c r="D699" s="4" t="s">
         <v>3323</v>
       </c>
-      <c r="E699" s="0" t="s">
+      <c r="E699" s="4" t="s">
         <v>3324</v>
       </c>
-      <c r="F699" s="6" t="s">
+      <c r="F699" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G699" s="6" t="s">
+      <c r="G699" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H699" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="0" t="s">
+      <c r="A700" s="4" t="s">
         <v>3325</v>
       </c>
-      <c r="B700" s="0" t="s">
+      <c r="B700" s="4" t="s">
         <v>3326</v>
       </c>
-      <c r="C700" s="0" t="s">
+      <c r="C700" s="4" t="s">
         <v>3327</v>
       </c>
-      <c r="D700" s="0" t="s">
+      <c r="D700" s="4" t="s">
         <v>3328</v>
       </c>
-      <c r="E700" s="0" t="s">
+      <c r="E700" s="4" t="s">
         <v>3329</v>
       </c>
-      <c r="F700" s="6" t="s">
+      <c r="F700" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G700" s="6" t="s">
+      <c r="G700" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H700" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="0" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B701" s="0" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C701" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D701" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E701" s="0" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F701" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G701" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H701" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="0" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B702" s="0" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C702" s="0" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D702" s="0" t="s">
+        <v>3334</v>
+      </c>
+      <c r="E702" s="0" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F702" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G702" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H702" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B703" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C703" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D703" s="0" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E703" s="0" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F703" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G703" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H703" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="0" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B704" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C704" s="0" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D704" s="0" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E704" s="0" t="s">
+        <v>3340</v>
+      </c>
+      <c r="F704" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G704" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H704" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="0" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B705" s="0" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C705" s="0" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D705" s="0" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E705" s="0" t="s">
+        <v>3345</v>
+      </c>
+      <c r="F705" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G705" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H705" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="0" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B706" s="0" t="s">
+        <v>3347</v>
+      </c>
+      <c r="C706" s="0" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D706" s="0" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E706" s="0" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F706" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G706" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H706" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="0" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B707" s="0" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C707" s="0" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D707" s="0" t="s">
+        <v>3353</v>
+      </c>
+      <c r="E707" s="0" t="s">
+        <v>3354</v>
+      </c>
+      <c r="F707" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G707" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H707" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="0" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B708" s="0" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C708" s="0" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D708" s="0" t="s">
+        <v>3358</v>
+      </c>
+      <c r="E708" s="0" t="s">
+        <v>3359</v>
+      </c>
+      <c r="F708" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G708" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H708" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="0" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B709" s="0" t="s">
+        <v>3361</v>
+      </c>
+      <c r="C709" s="0" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D709" s="0" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E709" s="0" t="s">
+        <v>3364</v>
+      </c>
+      <c r="F709" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G709" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H709" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="0" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B710" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C710" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D710" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="E710" s="0" t="s">
+        <v>3367</v>
+      </c>
+      <c r="F710" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G710" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H710" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="0" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B711" s="0" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C711" s="0" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D711" s="0" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E711" s="0" t="s">
+        <v>3372</v>
+      </c>
+      <c r="F711" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G711" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H711" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="0" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B712" s="0" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C712" s="0" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D712" s="0" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E712" s="0" t="s">
+        <v>3377</v>
+      </c>
+      <c r="F712" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G712" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H712" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="0" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B713" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="C713" s="0" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D713" s="0" t="s">
+        <v>3380</v>
+      </c>
+      <c r="E713" s="0" t="s">
+        <v>3381</v>
+      </c>
+      <c r="F713" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G713" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H713" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="0" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B714" s="0" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C714" s="0" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D714" s="0" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E714" s="0" t="s">
+        <v>3386</v>
+      </c>
+      <c r="F714" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G714" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H714" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="0" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B715" s="0" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C715" s="0" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D715" s="0" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E715" s="0" t="s">
+        <v>3390</v>
+      </c>
+      <c r="F715" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G715" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H715" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="0" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B716" s="0" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C716" s="0" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D716" s="0" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E716" s="0" t="s">
+        <v>3395</v>
+      </c>
+      <c r="F716" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G716" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H716" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="0" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B717" s="0" t="s">
+        <v>3397</v>
+      </c>
+      <c r="C717" s="0" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D717" s="0" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E717" s="0" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F717" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G717" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H717" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="0" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B718" s="0" t="s">
+        <v>3402</v>
+      </c>
+      <c r="C718" s="0" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D718" s="0" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E718" s="0" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F718" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G718" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H718" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="0" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B719" s="0" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C719" s="0" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D719" s="0" t="s">
+        <v>3408</v>
+      </c>
+      <c r="E719" s="0" t="s">
+        <v>3409</v>
+      </c>
+      <c r="F719" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G719" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H719" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="0" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B720" s="0" t="s">
+        <v>3411</v>
+      </c>
+      <c r="C720" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D720" s="0" t="s">
+        <v>3412</v>
+      </c>
+      <c r="E720" s="0" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F720" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G720" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H720" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="0" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B721" s="0" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C721" s="0" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D721" s="0" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E721" s="0" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F721" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G721" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H721" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B722" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C722" s="0" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D722" s="0" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E722" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F722" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G722" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="0" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B723" s="0" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C723" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D723" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E723" s="0" t="s">
+        <v>3420</v>
+      </c>
+      <c r="F723" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G723" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B724" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C724" s="0" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D724" s="0" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E724" s="0" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F724" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G724" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A725" s="0" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B725" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C725" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D725" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E725" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F725" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G725" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A726" s="0" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B726" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C726" s="0" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D726" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E726" s="0" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F726" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G726" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A727" s="0" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B727" s="0" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C727" s="0" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D727" s="0" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E727" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F727" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G727" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A728" s="0" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B728" s="0" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C728" s="0" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D728" s="0" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E728" s="0" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F728" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G728" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="124.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A729" s="7" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B729" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C729" s="8" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D729" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E729" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F729" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G729" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A730" s="0" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B730" s="0" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C730" s="0" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D730" s="0" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E730" s="0" t="s">
+        <v>3442</v>
+      </c>
+      <c r="F730" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G730" s="6" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A731" s="0" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B731" s="0" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C731" s="0" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D731" s="0" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E731" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F731" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G731" s="6" t="s">
         <v>3262</v>
       </c>
     </row>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5073" uniqueCount="3444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="3490">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -12832,6 +12832,147 @@
   </si>
   <si>
     <t xml:space="preserve">كمبود ويتامینB12سبب نقص در عملكرد كدام یک از آنزيم های زير ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از اختلاﻻت زير در بيماری پنتوزوری اساسی(Essential pentosuria)مشاهده ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص در مسیر سنتز گليكوزآمينوگليكان ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تری آسیل گليسرول در جريان خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروپيونيل كوآ حاصل از بتا-اكسيداسيون اسيدهاي چرب با كربن فرد، به كدام تركيب زير تبديل ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتوپورفیرینوژن اكسيداز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هِم اكسيژناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص فعاليت كدام آنزيم،منجر به نقص ایمنی توام شديد(Severe combined immunodeficiency disease)
+ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گزانتین اكسيدوردوكتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام اسيد آمينه های زير،در شرايط نياز به انرژی و طي واكنش های ترانس آميناسيون، گروه آمین حاصل از تجزيه
+پروتئين ها را می پذيرند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آﻻنین-سيتوزين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آﻻنین-گلوتامین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوتامین-آسپاراژين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپاراژين-گلوتامات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چنانچه ساقه بین هيپوتاﻻموس و هيپوفیزقدامی دچار آسيب شود، ترشح كدام هورمون زير دچار اختلال
+نميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تستوسترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هورمون محرک تيروئيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وازوپرسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در اواسط چرخه تخمدانی، ترشح گنادوتروپین ها را تحریک ميكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اينهيبين B به عنوان حامل اصلی اين هورمون در گردش خون عمل ميكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تستوسترون از پيش سازهای آن است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام مورد زير در نوزاد مبتلا به نقص آنزيمی پیروات دهيدروژناز ديده نميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آﻻنین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیروات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش سنتز تری آسیل گليسرول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش سنتزATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از آنزیم های زير در شرايط سیری، در بافت چربی به صورت غیرفعال ديده ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیروات كيناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیروات دهيدروژناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استیل كوآ كربوكسیلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فعاليت كدام یک از مسيرهای متابولیکی زير تحت تاثيرگلوكاگن افزايش مييابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گليكوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كتوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گليكولیز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ليپوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در شرايط كمبود روی (Zinc Deficiency) كدام مورد زیر دچار اختلال نمی شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترميم زخم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حس چشایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عملكرد سيستم ایمنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حس بویایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از DNA پليمرازهای پروكاريوتها در سنتز قطعات اوكازاکی دخيل است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیماری Xeroderma pigmentosum كدام یک از سيستم های ترميم DNA دچار نقص است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleotide-excision repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base-excision repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mismatch repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription-coupled repair</t>
   </si>
 </sst>
 </file>
@@ -13077,10 +13218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H731"/>
+  <dimension ref="A1:H746"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A727" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G734" activeCellId="0" sqref="G734"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A744" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B746" activeCellId="0" sqref="B746"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30758,7 +30899,7 @@
       <c r="G680" s="4" t="s">
         <v>3262</v>
       </c>
-      <c r="H680" s="0" t="n">
+      <c r="H680" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -30784,7 +30925,7 @@
       <c r="G681" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H681" s="0" t="n">
+      <c r="H681" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30810,7 +30951,7 @@
       <c r="G682" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H682" s="0" t="n">
+      <c r="H682" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30836,7 +30977,7 @@
       <c r="G683" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H683" s="0" t="n">
+      <c r="H683" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30862,7 +31003,7 @@
       <c r="G684" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H684" s="0" t="n">
+      <c r="H684" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -30888,7 +31029,7 @@
       <c r="G685" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H685" s="0" t="n">
+      <c r="H685" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -30914,7 +31055,7 @@
       <c r="G686" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H686" s="0" t="n">
+      <c r="H686" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -30940,7 +31081,7 @@
       <c r="G687" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H687" s="0" t="n">
+      <c r="H687" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30966,7 +31107,7 @@
       <c r="G688" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H688" s="0" t="n">
+      <c r="H688" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -30992,7 +31133,7 @@
       <c r="G689" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H689" s="0" t="n">
+      <c r="H689" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31018,7 +31159,7 @@
       <c r="G690" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H690" s="0" t="n">
+      <c r="H690" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31044,7 +31185,7 @@
       <c r="G691" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H691" s="0" t="n">
+      <c r="H691" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31070,7 +31211,7 @@
       <c r="G692" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H692" s="0" t="n">
+      <c r="H692" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31096,7 +31237,7 @@
       <c r="G693" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H693" s="0" t="n">
+      <c r="H693" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -31122,7 +31263,7 @@
       <c r="G694" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H694" s="0" t="n">
+      <c r="H694" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31148,7 +31289,7 @@
       <c r="G695" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H695" s="0" t="n">
+      <c r="H695" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -31174,7 +31315,7 @@
       <c r="G696" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H696" s="0" t="n">
+      <c r="H696" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31200,7 +31341,7 @@
       <c r="G697" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H697" s="0" t="n">
+      <c r="H697" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -31226,7 +31367,7 @@
       <c r="G698" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H698" s="0" t="n">
+      <c r="H698" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31252,7 +31393,7 @@
       <c r="G699" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H699" s="0" t="n">
+      <c r="H699" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -31278,784 +31419,1204 @@
       <c r="G700" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H700" s="0" t="n">
+      <c r="H700" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="0" t="s">
+      <c r="A701" s="4" t="s">
         <v>3330</v>
       </c>
-      <c r="B701" s="0" t="s">
+      <c r="B701" s="4" t="s">
         <v>1496</v>
       </c>
-      <c r="C701" s="0" t="s">
+      <c r="C701" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="D701" s="0" t="s">
+      <c r="D701" s="4" t="s">
         <v>1494</v>
       </c>
-      <c r="E701" s="0" t="s">
+      <c r="E701" s="4" t="s">
         <v>1493</v>
       </c>
-      <c r="F701" s="6" t="s">
+      <c r="F701" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G701" s="6" t="s">
+      <c r="G701" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H701" s="0" t="n">
+      <c r="H701" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="0" t="s">
+      <c r="A702" s="4" t="s">
         <v>3331</v>
       </c>
-      <c r="B702" s="0" t="s">
+      <c r="B702" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="C702" s="0" t="s">
+      <c r="C702" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="D702" s="0" t="s">
+      <c r="D702" s="4" t="s">
         <v>3334</v>
       </c>
-      <c r="E702" s="0" t="s">
+      <c r="E702" s="4" t="s">
         <v>3335</v>
       </c>
-      <c r="F702" s="6" t="s">
+      <c r="F702" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G702" s="6" t="s">
+      <c r="G702" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H702" s="0" t="n">
+      <c r="H702" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="0" t="s">
+      <c r="A703" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="B703" s="0" t="s">
+      <c r="B703" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="C703" s="0" t="s">
+      <c r="C703" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="D703" s="0" t="s">
+      <c r="D703" s="4" t="s">
         <v>1504</v>
       </c>
-      <c r="E703" s="0" t="s">
+      <c r="E703" s="4" t="s">
         <v>3336</v>
       </c>
-      <c r="F703" s="6" t="s">
+      <c r="F703" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G703" s="6" t="s">
+      <c r="G703" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H703" s="0" t="n">
+      <c r="H703" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="0" t="s">
+      <c r="A704" s="4" t="s">
         <v>3337</v>
       </c>
-      <c r="B704" s="0" t="s">
+      <c r="B704" s="4" t="s">
         <v>1518</v>
       </c>
-      <c r="C704" s="0" t="s">
+      <c r="C704" s="4" t="s">
         <v>3338</v>
       </c>
-      <c r="D704" s="0" t="s">
+      <c r="D704" s="4" t="s">
         <v>3339</v>
       </c>
-      <c r="E704" s="0" t="s">
+      <c r="E704" s="4" t="s">
         <v>3340</v>
       </c>
-      <c r="F704" s="6" t="s">
+      <c r="F704" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G704" s="6" t="s">
+      <c r="G704" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H704" s="0" t="n">
+      <c r="H704" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="0" t="s">
+      <c r="A705" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="B705" s="0" t="s">
+      <c r="B705" s="4" t="s">
         <v>3342</v>
       </c>
-      <c r="C705" s="0" t="s">
+      <c r="C705" s="4" t="s">
         <v>3343</v>
       </c>
-      <c r="D705" s="0" t="s">
+      <c r="D705" s="4" t="s">
         <v>3344</v>
       </c>
-      <c r="E705" s="0" t="s">
+      <c r="E705" s="4" t="s">
         <v>3345</v>
       </c>
-      <c r="F705" s="6" t="s">
+      <c r="F705" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G705" s="6" t="s">
+      <c r="G705" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H705" s="0" t="n">
+      <c r="H705" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="0" t="s">
+      <c r="A706" s="4" t="s">
         <v>3346</v>
       </c>
-      <c r="B706" s="0" t="s">
+      <c r="B706" s="4" t="s">
         <v>3347</v>
       </c>
-      <c r="C706" s="0" t="s">
+      <c r="C706" s="4" t="s">
         <v>3348</v>
       </c>
-      <c r="D706" s="0" t="s">
+      <c r="D706" s="4" t="s">
         <v>3349</v>
       </c>
-      <c r="E706" s="0" t="s">
+      <c r="E706" s="4" t="s">
         <v>3350</v>
       </c>
-      <c r="F706" s="6" t="s">
+      <c r="F706" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G706" s="6" t="s">
+      <c r="G706" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H706" s="0" t="n">
+      <c r="H706" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="0" t="s">
+      <c r="A707" s="4" t="s">
         <v>3351</v>
       </c>
-      <c r="B707" s="0" t="s">
+      <c r="B707" s="4" t="s">
         <v>2356</v>
       </c>
-      <c r="C707" s="0" t="s">
+      <c r="C707" s="4" t="s">
         <v>3352</v>
       </c>
-      <c r="D707" s="0" t="s">
+      <c r="D707" s="4" t="s">
         <v>3353</v>
       </c>
-      <c r="E707" s="0" t="s">
+      <c r="E707" s="4" t="s">
         <v>3354</v>
       </c>
-      <c r="F707" s="6" t="s">
+      <c r="F707" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G707" s="6" t="s">
+      <c r="G707" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H707" s="0" t="n">
+      <c r="H707" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="0" t="s">
+      <c r="A708" s="4" t="s">
         <v>3355</v>
       </c>
-      <c r="B708" s="0" t="s">
+      <c r="B708" s="4" t="s">
         <v>3356</v>
       </c>
-      <c r="C708" s="0" t="s">
+      <c r="C708" s="4" t="s">
         <v>3357</v>
       </c>
-      <c r="D708" s="0" t="s">
+      <c r="D708" s="4" t="s">
         <v>3358</v>
       </c>
-      <c r="E708" s="0" t="s">
+      <c r="E708" s="4" t="s">
         <v>3359</v>
       </c>
-      <c r="F708" s="6" t="s">
+      <c r="F708" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G708" s="6" t="s">
+      <c r="G708" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H708" s="0" t="n">
+      <c r="H708" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="0" t="s">
+      <c r="A709" s="4" t="s">
         <v>3360</v>
       </c>
-      <c r="B709" s="0" t="s">
+      <c r="B709" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="C709" s="0" t="s">
+      <c r="C709" s="4" t="s">
         <v>3362</v>
       </c>
-      <c r="D709" s="0" t="s">
+      <c r="D709" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="E709" s="0" t="s">
+      <c r="E709" s="4" t="s">
         <v>3364</v>
       </c>
-      <c r="F709" s="6" t="s">
+      <c r="F709" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G709" s="6" t="s">
+      <c r="G709" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H709" s="0" t="n">
+      <c r="H709" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="0" t="s">
+      <c r="A710" s="4" t="s">
         <v>3365</v>
       </c>
-      <c r="B710" s="0" t="s">
+      <c r="B710" s="4" t="s">
         <v>3366</v>
       </c>
-      <c r="C710" s="0" t="s">
+      <c r="C710" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D710" s="0" t="s">
+      <c r="D710" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="E710" s="0" t="s">
+      <c r="E710" s="4" t="s">
         <v>3367</v>
       </c>
-      <c r="F710" s="6" t="s">
+      <c r="F710" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G710" s="6" t="s">
+      <c r="G710" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H710" s="0" t="n">
+      <c r="H710" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="0" t="s">
+      <c r="A711" s="4" t="s">
         <v>3368</v>
       </c>
-      <c r="B711" s="0" t="s">
+      <c r="B711" s="4" t="s">
         <v>3369</v>
       </c>
-      <c r="C711" s="0" t="s">
+      <c r="C711" s="4" t="s">
         <v>3370</v>
       </c>
-      <c r="D711" s="0" t="s">
+      <c r="D711" s="4" t="s">
         <v>3371</v>
       </c>
-      <c r="E711" s="0" t="s">
+      <c r="E711" s="4" t="s">
         <v>3372</v>
       </c>
-      <c r="F711" s="6" t="s">
+      <c r="F711" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G711" s="6" t="s">
+      <c r="G711" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H711" s="0" t="n">
+      <c r="H711" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="0" t="s">
+      <c r="A712" s="4" t="s">
         <v>3373</v>
       </c>
-      <c r="B712" s="0" t="s">
+      <c r="B712" s="4" t="s">
         <v>3374</v>
       </c>
-      <c r="C712" s="0" t="s">
+      <c r="C712" s="4" t="s">
         <v>3375</v>
       </c>
-      <c r="D712" s="0" t="s">
+      <c r="D712" s="4" t="s">
         <v>3376</v>
       </c>
-      <c r="E712" s="0" t="s">
+      <c r="E712" s="4" t="s">
         <v>3377</v>
       </c>
-      <c r="F712" s="6" t="s">
+      <c r="F712" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G712" s="6" t="s">
+      <c r="G712" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H712" s="0" t="n">
+      <c r="H712" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="0" t="s">
+      <c r="A713" s="4" t="s">
         <v>3378</v>
       </c>
-      <c r="B713" s="0" t="s">
+      <c r="B713" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="C713" s="0" t="s">
+      <c r="C713" s="4" t="s">
         <v>3379</v>
       </c>
-      <c r="D713" s="0" t="s">
+      <c r="D713" s="4" t="s">
         <v>3380</v>
       </c>
-      <c r="E713" s="0" t="s">
+      <c r="E713" s="4" t="s">
         <v>3381</v>
       </c>
-      <c r="F713" s="6" t="s">
+      <c r="F713" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G713" s="6" t="s">
+      <c r="G713" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H713" s="0" t="n">
+      <c r="H713" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="0" t="s">
+      <c r="A714" s="4" t="s">
         <v>3382</v>
       </c>
-      <c r="B714" s="0" t="s">
+      <c r="B714" s="4" t="s">
         <v>3383</v>
       </c>
-      <c r="C714" s="0" t="s">
+      <c r="C714" s="4" t="s">
         <v>3384</v>
       </c>
-      <c r="D714" s="0" t="s">
+      <c r="D714" s="4" t="s">
         <v>3385</v>
       </c>
-      <c r="E714" s="0" t="s">
+      <c r="E714" s="4" t="s">
         <v>3386</v>
       </c>
-      <c r="F714" s="6" t="s">
+      <c r="F714" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G714" s="6" t="s">
+      <c r="G714" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H714" s="0" t="n">
+      <c r="H714" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="0" t="s">
+      <c r="A715" s="4" t="s">
         <v>3387</v>
       </c>
-      <c r="B715" s="0" t="s">
+      <c r="B715" s="4" t="s">
         <v>3388</v>
       </c>
-      <c r="C715" s="0" t="s">
+      <c r="C715" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="D715" s="0" t="s">
+      <c r="D715" s="4" t="s">
         <v>3389</v>
       </c>
-      <c r="E715" s="0" t="s">
+      <c r="E715" s="4" t="s">
         <v>3390</v>
       </c>
-      <c r="F715" s="6" t="s">
+      <c r="F715" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G715" s="6" t="s">
+      <c r="G715" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H715" s="0" t="n">
+      <c r="H715" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="0" t="s">
+      <c r="A716" s="4" t="s">
         <v>3391</v>
       </c>
-      <c r="B716" s="0" t="s">
+      <c r="B716" s="4" t="s">
         <v>3392</v>
       </c>
-      <c r="C716" s="0" t="s">
+      <c r="C716" s="4" t="s">
         <v>3393</v>
       </c>
-      <c r="D716" s="0" t="s">
+      <c r="D716" s="4" t="s">
         <v>3394</v>
       </c>
-      <c r="E716" s="0" t="s">
+      <c r="E716" s="4" t="s">
         <v>3395</v>
       </c>
-      <c r="F716" s="6" t="s">
+      <c r="F716" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G716" s="6" t="s">
+      <c r="G716" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H716" s="0" t="n">
+      <c r="H716" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="0" t="s">
+      <c r="A717" s="4" t="s">
         <v>3396</v>
       </c>
-      <c r="B717" s="0" t="s">
+      <c r="B717" s="4" t="s">
         <v>3397</v>
       </c>
-      <c r="C717" s="0" t="s">
+      <c r="C717" s="4" t="s">
         <v>3398</v>
       </c>
-      <c r="D717" s="0" t="s">
+      <c r="D717" s="4" t="s">
         <v>3399</v>
       </c>
-      <c r="E717" s="0" t="s">
+      <c r="E717" s="4" t="s">
         <v>3400</v>
       </c>
-      <c r="F717" s="6" t="s">
+      <c r="F717" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G717" s="6" t="s">
+      <c r="G717" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H717" s="0" t="n">
+      <c r="H717" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="0" t="s">
+      <c r="A718" s="4" t="s">
         <v>3401</v>
       </c>
-      <c r="B718" s="0" t="s">
+      <c r="B718" s="4" t="s">
         <v>3402</v>
       </c>
-      <c r="C718" s="0" t="s">
+      <c r="C718" s="4" t="s">
         <v>2126</v>
       </c>
-      <c r="D718" s="0" t="s">
+      <c r="D718" s="4" t="s">
         <v>3403</v>
       </c>
-      <c r="E718" s="0" t="s">
+      <c r="E718" s="4" t="s">
         <v>3404</v>
       </c>
-      <c r="F718" s="6" t="s">
+      <c r="F718" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G718" s="6" t="s">
+      <c r="G718" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H718" s="0" t="n">
+      <c r="H718" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="0" t="s">
+      <c r="A719" s="4" t="s">
         <v>3405</v>
       </c>
-      <c r="B719" s="0" t="s">
+      <c r="B719" s="4" t="s">
         <v>3406</v>
       </c>
-      <c r="C719" s="0" t="s">
+      <c r="C719" s="4" t="s">
         <v>3407</v>
       </c>
-      <c r="D719" s="0" t="s">
+      <c r="D719" s="4" t="s">
         <v>3408</v>
       </c>
-      <c r="E719" s="0" t="s">
+      <c r="E719" s="4" t="s">
         <v>3409</v>
       </c>
-      <c r="F719" s="6" t="s">
+      <c r="F719" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G719" s="6" t="s">
+      <c r="G719" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H719" s="0" t="n">
+      <c r="H719" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="0" t="s">
+      <c r="A720" s="4" t="s">
         <v>3410</v>
       </c>
-      <c r="B720" s="0" t="s">
+      <c r="B720" s="4" t="s">
         <v>3411</v>
       </c>
-      <c r="C720" s="0" t="s">
+      <c r="C720" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="D720" s="0" t="s">
+      <c r="D720" s="4" t="s">
         <v>3412</v>
       </c>
-      <c r="E720" s="0" t="s">
+      <c r="E720" s="4" t="s">
         <v>3413</v>
       </c>
-      <c r="F720" s="6" t="s">
+      <c r="F720" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G720" s="6" t="s">
+      <c r="G720" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H720" s="0" t="n">
+      <c r="H720" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="0" t="s">
+      <c r="A721" s="4" t="s">
         <v>3414</v>
       </c>
-      <c r="B721" s="0" t="s">
+      <c r="B721" s="4" t="s">
         <v>3415</v>
       </c>
-      <c r="C721" s="0" t="s">
+      <c r="C721" s="4" t="s">
         <v>3415</v>
       </c>
-      <c r="D721" s="0" t="s">
+      <c r="D721" s="4" t="s">
         <v>3416</v>
       </c>
-      <c r="E721" s="0" t="s">
+      <c r="E721" s="4" t="s">
         <v>3417</v>
       </c>
-      <c r="F721" s="6" t="s">
+      <c r="F721" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G721" s="6" t="s">
+      <c r="G721" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H721" s="0" t="n">
+      <c r="H721" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
+      <c r="A722" s="4" t="s">
         <v>1007</v>
       </c>
-      <c r="B722" s="0" t="s">
+      <c r="B722" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="C722" s="0" t="s">
+      <c r="C722" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="D722" s="0" t="s">
+      <c r="D722" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="E722" s="0" t="s">
+      <c r="E722" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="F722" s="0" t="s">
+      <c r="F722" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G722" s="6" t="s">
+      <c r="G722" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H722" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="0" t="s">
+      <c r="A723" s="4" t="s">
         <v>3418</v>
       </c>
-      <c r="B723" s="0" t="s">
+      <c r="B723" s="4" t="s">
         <v>3419</v>
       </c>
-      <c r="C723" s="0" t="s">
+      <c r="C723" s="4" t="s">
         <v>1015</v>
       </c>
-      <c r="D723" s="0" t="s">
+      <c r="D723" s="4" t="s">
         <v>1016</v>
       </c>
-      <c r="E723" s="0" t="s">
+      <c r="E723" s="4" t="s">
         <v>3420</v>
       </c>
-      <c r="F723" s="6" t="s">
+      <c r="F723" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G723" s="6" t="s">
+      <c r="G723" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H723" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="0" t="s">
+      <c r="A724" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="B724" s="0" t="s">
+      <c r="B724" s="4" t="s">
         <v>1019</v>
       </c>
-      <c r="C724" s="0" t="s">
+      <c r="C724" s="4" t="s">
         <v>3421</v>
       </c>
-      <c r="D724" s="0" t="s">
+      <c r="D724" s="4" t="s">
         <v>3422</v>
       </c>
-      <c r="E724" s="0" t="s">
+      <c r="E724" s="4" t="s">
         <v>3423</v>
       </c>
-      <c r="F724" s="6" t="s">
+      <c r="F724" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G724" s="6" t="s">
+      <c r="G724" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H724" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="0" t="s">
+      <c r="A725" s="4" t="s">
         <v>3424</v>
       </c>
-      <c r="B725" s="0" t="s">
+      <c r="B725" s="4" t="s">
         <v>1024</v>
       </c>
-      <c r="C725" s="0" t="s">
+      <c r="C725" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="D725" s="0" t="s">
+      <c r="D725" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="E725" s="0" t="s">
+      <c r="E725" s="4" t="s">
         <v>1027</v>
       </c>
-      <c r="F725" s="6" t="s">
+      <c r="F725" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G725" s="6" t="s">
+      <c r="G725" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H725" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="0" t="s">
+      <c r="A726" s="4" t="s">
         <v>3425</v>
       </c>
-      <c r="B726" s="0" t="s">
+      <c r="B726" s="4" t="s">
         <v>1029</v>
       </c>
-      <c r="C726" s="0" t="s">
+      <c r="C726" s="4" t="s">
         <v>3426</v>
       </c>
-      <c r="D726" s="0" t="s">
+      <c r="D726" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="E726" s="0" t="s">
+      <c r="E726" s="4" t="s">
         <v>3427</v>
       </c>
-      <c r="F726" s="6" t="s">
+      <c r="F726" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G726" s="6" t="s">
+      <c r="G726" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H726" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="0" t="s">
+      <c r="A727" s="4" t="s">
         <v>3428</v>
       </c>
-      <c r="B727" s="0" t="s">
+      <c r="B727" s="4" t="s">
         <v>3429</v>
       </c>
-      <c r="C727" s="0" t="s">
+      <c r="C727" s="4" t="s">
         <v>3430</v>
       </c>
-      <c r="D727" s="0" t="s">
+      <c r="D727" s="4" t="s">
         <v>3431</v>
       </c>
-      <c r="E727" s="0" t="s">
+      <c r="E727" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="F727" s="6" t="s">
+      <c r="F727" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G727" s="6" t="s">
+      <c r="G727" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H727" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="0" t="s">
+      <c r="A728" s="4" t="s">
         <v>3432</v>
       </c>
-      <c r="B728" s="0" t="s">
+      <c r="B728" s="4" t="s">
         <v>3433</v>
       </c>
-      <c r="C728" s="0" t="s">
+      <c r="C728" s="4" t="s">
         <v>3434</v>
       </c>
-      <c r="D728" s="0" t="s">
+      <c r="D728" s="4" t="s">
         <v>1041</v>
       </c>
-      <c r="E728" s="0" t="s">
+      <c r="E728" s="4" t="s">
         <v>3435</v>
       </c>
-      <c r="F728" s="6" t="s">
+      <c r="F728" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G728" s="6" t="s">
+      <c r="G728" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H728" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="729" customFormat="false" ht="124.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="7" t="s">
+      <c r="A729" s="5" t="s">
         <v>3436</v>
       </c>
-      <c r="B729" s="8" t="s">
+      <c r="B729" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C729" s="8" t="s">
+      <c r="C729" s="1" t="s">
         <v>3437</v>
       </c>
-      <c r="D729" s="8" t="s">
+      <c r="D729" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="E729" s="8" t="s">
+      <c r="E729" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="F729" s="6" t="s">
+      <c r="F729" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G729" s="6" t="s">
+      <c r="G729" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H729" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="0" t="s">
+      <c r="A730" s="4" t="s">
         <v>3438</v>
       </c>
-      <c r="B730" s="0" t="s">
+      <c r="B730" s="4" t="s">
         <v>3439</v>
       </c>
-      <c r="C730" s="0" t="s">
+      <c r="C730" s="4" t="s">
         <v>3440</v>
       </c>
-      <c r="D730" s="0" t="s">
+      <c r="D730" s="4" t="s">
         <v>3441</v>
       </c>
-      <c r="E730" s="0" t="s">
+      <c r="E730" s="4" t="s">
         <v>3442</v>
       </c>
-      <c r="F730" s="6" t="s">
+      <c r="F730" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G730" s="6" t="s">
+      <c r="G730" s="1" t="s">
         <v>3262</v>
       </c>
+      <c r="H730" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="0" t="s">
+      <c r="A731" s="4" t="s">
         <v>3443</v>
       </c>
-      <c r="B731" s="0" t="s">
+      <c r="B731" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="C731" s="0" t="s">
+      <c r="C731" s="4" t="s">
         <v>1055</v>
       </c>
-      <c r="D731" s="0" t="s">
+      <c r="D731" s="4" t="s">
         <v>1056</v>
       </c>
-      <c r="E731" s="0" t="s">
+      <c r="E731" s="4" t="s">
         <v>1057</v>
       </c>
-      <c r="F731" s="6" t="s">
+      <c r="F731" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G731" s="6" t="s">
+      <c r="G731" s="1" t="s">
         <v>3262</v>
+      </c>
+      <c r="H731" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A732" s="0" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B732" s="0" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C732" s="0" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D732" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E732" s="0" t="s">
+        <v>3445</v>
+      </c>
+      <c r="F732" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G732" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H732" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A733" s="0" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B733" s="0" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C733" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D733" s="0" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E733" s="0" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F733" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G733" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H733" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A734" s="0" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B734" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C734" s="0" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D734" s="0" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E734" s="0" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F734" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G734" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H734" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B735" s="0" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C735" s="0" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D735" s="0" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E735" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F735" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G735" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H735" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="90.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="7" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B736" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C736" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D736" s="8" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E736" s="8" t="s">
+        <v>3451</v>
+      </c>
+      <c r="F736" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G736" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H736" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="7" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B737" s="8" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C737" s="8" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D737" s="8" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E737" s="8" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F737" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G737" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H737" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="87.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="7" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B738" s="8" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C738" s="8" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D738" s="8" t="s">
+        <v>2563</v>
+      </c>
+      <c r="E738" s="8" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F738" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G738" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H738" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A739" s="0" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B739" s="0" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C739" s="0" t="s">
+        <v>3461</v>
+      </c>
+      <c r="D739" s="0" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E739" s="0" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F739" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G739" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H739" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A740" s="0" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B740" s="0" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C740" s="0" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D740" s="0" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E740" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F740" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G740" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H740" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A741" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B741" s="0" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C741" s="0" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D741" s="0" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E741" s="0" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F741" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G741" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H741" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A742" s="0" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B742" s="0" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C742" s="0" t="s">
+        <v>3471</v>
+      </c>
+      <c r="D742" s="0" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E742" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F742" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G742" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H742" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A743" s="0" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B743" s="0" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C743" s="0" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D743" s="0" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E743" s="0" t="s">
+        <v>3477</v>
+      </c>
+      <c r="F743" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G743" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H743" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="0" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B744" s="0" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C744" s="0" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D744" s="0" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E744" s="0" t="s">
+        <v>3482</v>
+      </c>
+      <c r="F744" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G744" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H744" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A745" s="0" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B745" s="0" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C745" s="0" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D745" s="0" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E745" s="0" t="s">
+        <v>3484</v>
+      </c>
+      <c r="F745" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G745" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H745" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="0" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B746" s="0" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C746" s="0" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D746" s="0" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E746" s="0" t="s">
+        <v>3489</v>
+      </c>
+      <c r="F746" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G746" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H746" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5178" uniqueCount="3490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5790" uniqueCount="3815">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -12973,6 +12973,994 @@
   </si>
   <si>
     <t xml:space="preserve">Transcription-coupled repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر طول محور چشم در امتداد بعد قدامی-خلفی آن نسبت به حالت طبيعی كاهش يابد، چشم دچار چه نوع
+ناهنجاری شكستی ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نزدیک بینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوربینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آستیگماتیسم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیرچشمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیزیک پزشکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با یک سیستم فراصوتی داپلر دارای موج پيوسته، كدام یک از موارد زير را ميتوان تعيین كرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنس یک اندام/بافت منعكس كننده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرعت حركت سطح یک اندام/بافت متحرک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمق یک اندام/بافت متحرک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شدت امواج انعكاسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنگام انجام فرآيندراديوگرافی (به ويژه برای بیماران چاق)، ازكدام مورد زیر به ترتيب برای كاهش جمعیت
+فوتون های كم انرژی وهمچنین پرتوهای پراكنده میتوان استفاده كرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كوليماتور ـ شبكه (Grid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صافی افزوده(Added Filtrations)ـ كاهشkVp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كوليماتور (Collimator)ـ كاهشkVp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صافی افزوده (Added Filtrations)ـشبكه (Grid)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از ذرات زير رانميتوان برای تولید راديوداروهای معمول در دستگاه سيكلوترون موجود در بخش های
+پزشكی هسته ای به كار برد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر ٢ گری از یک پرتوی یونیزان ناشناخته، موجب ضايعه مشابهی با ۶ گری دز پرتوی ايكس استاندارد(250 kVp)
+در يك بافت شود، اثر بيولوژيكی نسبی(RBE)آن پرتو چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يك سوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويژگی اصلی اعتياد،كدام يک از موارد زير است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصرف گاه گاهی مواد مخدر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصرف مرتب مواد مثل الکل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصرف اجبارگونه و مخرب حاصل از الگوی رفتاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصرف مواد حتی به صورت امتحانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روانشناسی بالینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">براي اثبات اين ادعا كه هوش هيجانی بيشتر از هوش عمومی،پراكنش در عملكردها را پيشبينی ميكند، كدام
+شرط ضروری است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود روایی پيش بین در هوش هيجانی بيشتر از هوش شناختی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روایی همگرا برای هوش شناختی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارا بودن قدرت متمايز كردن در حد پنج عامل شخصیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داشتن حرف جديدی برای گفتن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بر اساس برآوردهای پژوهش،فشار روانی چه نقشی در بيماری و سلامت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عامل مؤثر نيست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بيش از پنجاه درصد مشکلات طبی نقش موثر دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيستم ايمنی را فعال نگه ميدارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمدتا عامل بروز تمارض ها هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقش الگوی رفتاری نوعA در كدام دسته از بيماری ها يا اختلالات پررنگتر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گوارش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قلب و عروق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سيستم ايمنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلالات خلقی شدید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحبت كردن از هيجان های منفی و مسائل مهم زندگی با افراد حمايتگر چه تاثیری بر سلامتی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اثر مثبت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فقط در حد جلب ترحم و همدلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأثیر مخرب  بيان احساسات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روشن نبودن نتایج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترس از مار، حشرات و ارتفاع،در چه صورت به عنوان اختلال قلمداد ميشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ايجاد اختلال در زندگی روزمره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناآگاهی از منشا و ناخودآگاه اين ترسها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همراه بودن با وسواس فكری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجتناب فرد از مواجهه با اين موقعيت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از ديدگاه شناختی، علت اصلی افسردگی افراد،كدام یک از موارد زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تصور مثبت از خود و منفی از ديگران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تصور منفی از فرد و مثبت از ديگران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفسیر رويدادها با بدبینی و نااميدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احساس مسئوليت افراطی و خود را مسئول مصائب دانستن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در روانشناسی اجتماعی، اگر علت پدیده هایی كه از نظر رفتاری عجيب است، مثل كشتار كودكان را به صفات يا
+منش افراد ارجاع دهيم، دچار چه نوع خطایی خواهيم شد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از ديدگاه شخصیتی، تبيین كرده ايم</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شرایط دائما متغير پیرامون را كم ارزیابی كرده ایم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعامل بين اهداف و  هويت را به خوبی در نظر نگرفته ايم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دچار خطای بنيادين اسناد شده ايم.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشخصه عشق همنشينانه عميق،كدام یک از موارد زير است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارتباط و گفتگوی دوطرفه، تقسيم منصفانه كارها و قدرت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جذابیت شديد جنسی و ارتباط عمیق عاطفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ظرفیت همدلی عمیق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پذيرش تام و تمام همسر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در چه صورتی ميتوان افكار قالبی را كه به طور خودكار فعال ميشوند، كنترل كرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفكر واگرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفكر همگرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفكر ناخودآگاه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفكر تلاشمند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سگ در انتقال كدام كرم انگلی،نقش تعیین كننده دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام تک ياخته ی زير از طريق كيست از فرد مبتلا به فرد سالم منتقل نميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مراحل لرز، تب و تعريق،به ترتيب از اختصاصات ابتلای انسان به كدام بیماری انگلی ميباشند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قرص مكيدنی كلوتريمازول در درمان ضايعات دهانی كدام بيماري قارچی زير ميتواند استفاده شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كانديديازيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپرژيلوزيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فوزاريوزيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">درماتوفيتوزيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در كدام بيماری قارچی،ضايعات محوطه دهاني میتواند به دنبال زخمهای پوستی ناشی از تيغ گياهان ايجاد گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسپوروتريكوزيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريپتوكوكوزيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از ساختارهای سلولی زير منحصرا در باكتری های گرم منفی مشاهده ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باكتری شناسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در كدام يک از روش های انتقال ژنتیکی باكتری ها،Fertility factorبه عنوان واسطه عمل مينمايد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام يک از آنتی بیوتیک های زير بر روی ديواره سلولی باكتری اثر مينمايد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از آنتی بیوتیک های زير قادر به مهار واكنشهای متابوليسمي باكتری ها نمیباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از عوامل موثر در بيماری زایی
+استافيلوكوكوس اورئوس،خاصيت اسفنگوميلينازی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همولیزين بتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندرومWaterhouse Friedrichsonمتعاقب عفونت با كدام گونه باكتريايی رخ ميدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از مايكو باكتريوم های زير در گروه غير رانيونی طبقه بندی ميگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. marinum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. avium complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. fortuitum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در روند بيماری زایی
+مايكو باكتريوم توبركولوزيس،كدام عامل بدون اثراست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ابتلا به گاستروانتریت حاصل ازكدام جنس باكتريایی، تجويز آنتی بيوتیک توصيه نميگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+سالمونلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+شيگلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عارضه Pink eye (كونژونكتیویت چركی) متعاقب آلودگی با كدام گونه هموفیلوس مشاهده ميگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واكنش متقابل آنتی ژنیک بین گونه های بروسلایی با كدام گونه باكتریایی زیر مشاهده نمیشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوتیت بدخيم گوش خارجی (گوش شناگران)، ًعمدتا متعاقب عفونت با كدام گونه باكتریایی زیر رخ میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محيط كشت TCBS جهت جداسازی كدام گونه باكتریایی ارزشمند است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام گونه باكتریایی در شرايط میكروآئروفیلیک رشد مناسبی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از روش های زیر برای تشخیص سیفلیس غیرترپونمایی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MHA-TP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FTA-ABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رنگ آمیزی انكلوزیون های سيتوپلاسمی جهت تشخيص كدام جنس باكتریایی ارزشمند است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mycoplasma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leptospira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legionella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlamydia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از مواد ضدعفونی كننده زیر به عنوان Cold Sterlizant جهت استریل نمودن وسایل جراحی و
+آندوسكوپی استفاده ميگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیماری زایی نیسریا گونوره، كدام عامل زير فاقد اهميت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئین OPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیپوالیگوساكارید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام گزينه زير نشان دهنده فعاليت بیولوژیک اندوتوكسین باكتریایی نمیباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوک هيپوولمیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تب زایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش قند خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام عبارت در مورد هرپس ويريده صحيح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژنوم ويروس، DNA دو زنجيره حلقوی است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويروس از راه اندوسيتوز وارد سلول ميشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تكثير ژنوم ويروس در هسته سلول انجام ميشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازRNAپلیمر از سلولی استفاده نمیكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از داروهای ضد ويروسی، آنالوگ نوكلئوزيد است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام گزينه در مورد فردی كه در آزمايش سرولوژی فقط دارای HBsAb است، صحيح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نشانه سابقه عفونت با هپاتيت B است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دوره انكوباسیون بیماری است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واكسن هپاتیت B زده است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارای عفونت مزمن هپاتیت B است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام عبارت زیر در مورد هاری صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احشام به هاری حساس نيستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمام واكسن های انسانی آن ويروس غیر فعال هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سروتیپ های مختف دارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از ويروس ها در انسان ميتواند باعث سرطان شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نكروز فیبرینوئید در كدام عارضه ديده ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش شديد فشار خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انفاركتوس قلبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آبسه كبدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسیب شناسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متاپلازی سنگفرشی در كدام عارضه ایجاد ميشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اعتياد مزمن به سیگار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشارخون بالا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم نفروتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجسام راسل در كدام سلول تجمع می یابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماكروفاژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هپاتوسیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام آنزيم،نقش آنتی اكسيدان دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میلوپراكسیداز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسید هیدروﻻز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپراكساید دسموتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاگوسیت اكسیداز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول اپيتليوئيد،شاخص مورفولوژیک كدام ضايعه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آبسه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرانولوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گانگرن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نكروز انعقادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های نارسایی قلب(Heart Failure cells)در كدام ارگان ديده ميشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیماری فیلاریازیس،مكانیسم اصلی ادم(Edema)كدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احتباس اوليه آب و نمک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش فشار انكوتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نارسایی قلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انسداد لنفاتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام گزينه،محرک قوی تجمع پلاكتی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروستاسیكلین(PGI2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیتریک اكسايد(NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترومبوكسانA2(TXA2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنزیم آدنوزین دی فسفاتاز(ADPase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام تومور،خوشخيم است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سمينوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيبروآدنوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملانوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابتلا به كدام ارگانيسم،ریسک سرطان معده را باﻻ میبرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هليكوباكتر پیلوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ويروس پاپیلوما انسانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویروس هپاتیتA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مایكوباكتریوم توبركلوزیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نحوه وراثت بیماری هیپركلسترولمی خانوادگی چگونه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتوزومال مغلوب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتوزومال غالب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وابسته به جنس مغلوب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وابسته به جنس غالب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص آنزیم هگزوز آمینیداز،منجر به كدام بیماری میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niemann-Pick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaucher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marfan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tay-Sachs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هپاتومگالی و كاتاراكت در كدام بیماری دیده میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ehler-Danlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galactosemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام علامت،در مسمومیت با سرب دیده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitot spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basophilic stippling of RBCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrison groove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatic adenoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كرانیوتابس علامت كمبودكدام ویتامین است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام مورد زیر درباره انتقال عصبی-عضلانی صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توسط آزاد شدن استیل كولیناز تارهای عضلانی انجام میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نفوذ پذيری صفحه انتهایی به سدیم زیاد میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توسط كورار در بيماری میاستنی گراو تسهیل ميشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منحصرا به صورت الكتروتونیک تولید و منتقل میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مقایسه انقباض عضله صاف با عضله اسكلتی، كدام گزينه زير صحیح میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرعت چرخه پل های عرضی میوزین بیشتر است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انرژی بیشتری برای تداوم انقباض نياز دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آغاز انقباض سریع تر است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیروی حداكثر انقباض بیشتر است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام مورد،تحریک پذیری نورون را كاهش میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كافئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تئوفيلین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از اعمال دستگاه گلژِی نمیباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تولید اسید هيالورونیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تولید لیزوزوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سنتز پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازسازی غشای سلول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمایل اتصال زیر واحد T مولكول تروپونین به كدام مولكول زير از همه بیشتر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تروپومیوزین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میوزین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكتین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک در خود تحریکی و رسیدن پتانسیل غشا به آستانه تحریک در فیبرهاي گره سينوسی-دهلیزی نقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جريان نشتی رو به داخل يون های سدیم و كلسیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برقراری جریان رو به خارج يون های پتاسیمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باز شدن كانال های سدیمی سریع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باز شدن كانال های پتاسيمی تاخیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در كدام مورد، انحراف محور قلب به سمت چپ مشاهده میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری فشار خون باﻻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنگی دریچه شريان ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام مورد زير از اثرات آنمی بر گردش خون ميباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش برونده قلبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش بازگشت وریدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش مقاومت عروق محيطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک در مورد حركت مولكول های مايع در زمان جريان خون با سرعت ثابت در یک رگ طويل با سطح داخلی
+هموار، مشاهده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرعت حركت آنها در تمامی ﻻيه ها يكسان است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرعت جريان مايع در مركز رگ سريعتر است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﻻيه چسبيده به ديواره به راحتی حركت ميكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در تمامی جهات در حال جا به جایی هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک در انتهای وریدی مویرگ، بيشتر از انتهای شريانی مویرگ است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نفوذ پذیری مويرگ ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جمع جبری نیروهای رو به خارج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشار هيدرواستاتیک مویرگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجم مايع عبوری از ديواره مویرگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ارتباط با قابلیت اتساع پذيری عروق، كدام یک از گزينه های زیر نادرست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باعث افزایش كامپلیانس عروقی میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميزان آن در شريان های سيستمیک و ریوی برابر است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باعث ایجاد جریان خون پيوسته به بافت ها میگردد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاثیر كاهش فشار شريانی بر فعاليت مركز تنگ كنندگی بصل النخاع و مركز پاراسمپاتیک واگ از طریق پاسخ
+رفلكسی بارورسپتورها به ترتيب كدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهاری-تحریكی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریكی-مهاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریكی-تحریكی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام مورد زير، علت اصلی كاهش اثر تحريكی دی اكسیدكربن بر مركز تنفسی در طوﻻنی مدت محسوب ميگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش بی كربنات خون به دلیل پاسخ جبرانی كلیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خستگی نورون های مركز تنفسی به دلیل تخلیه زياد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خستگی عضلات تنفسی به دلیل فعالیت زیاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش فشار اكسیژن شريانی به دلیل تهویه زیاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ميزان كدام يک در قاعده ريه نسبت به قله در فرد ايستاده كمتر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشار دی اكسیدكربن آلوئولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان تهويه آلوئولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان جریان خون آلوئولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورتی كه میزان دفع یک ماده در ادرار از بار فيلتره شده آن بيشتر باشد،كدام مورد صحيح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلیرانس آن بیشتر از اینولین است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در طول نفرون فقط بازجذب میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در طول نفرون ترشح نمیشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بخش ضخیم باﻻرولوپ هنله،چند درصد از بار فیلتراسیون سدیم، كلر و پتاسیم بازجذب میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از موارد زير، معمولیترین نوع حركت در روده بزرگ میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از عبارات زير در مورد كوله سيستوكينین (CCK) درست نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخلیه معده را مهار ميكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح انسولین را تحریک میكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح شیره پانكراس غنی ازآنزيم را تحریک ميكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از موارد زير از جمله اثرات هورمون پاراتورمون(PTH)است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش بازجذب كلیوی فسفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش دفع كلیوی كلسیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش فعالیت یک آلفا هيدروكسیلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش روده ای جذب فسفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام مورد زير از اثرات هورمون رشد میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزايش تشکیل اسيد استواستیک توسط كبد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش غلظت اسيدهای چرب در مايعات بدن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كاهش رهایش سوماتوستاتین از هیپوتاﻻموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مرحله سريع و مرحله آهسته جذب كلسیم از استخوان،به ترتیب كدام موارد زير نقش دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرم فعال ویتامینD ـ پاراتورمون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فعالیت پمپ كلسيم - فعالیت RANKL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استئوسیت ها ـ استئوبلاست ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به دنبال اثر آنتی ديورتیک هورمون(ADH)در توبول جمع كننده،آب با چه مكانيسمی جذب سلول میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از طريق منافذ آب واقع درغشای پلاسمایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازطريق قرار گرفتن منافذ آب درغشای آپیكال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به دنبال ورود سديم به سلول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سختی ناشی از بی مخی (Decerebrate rigidity)در كدام حالت زیر مشاهده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطع تنه مغزی در زیر سطح میانی مزانسفال در بالای سیستم مشبكی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطع ارتباط بین عقده های قاعده ای و قشر مغز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطع رابط پينه ای بین دو نیم كره مخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سیستم ضد درد مغز و نخاع، كدام پدیده رخ میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهار هسته سجافی بزرگ، سیگنال های درد را مهار میكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک هسته های دوربطنی هيپوتاﻻموس، درد را سركوب ميكند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از انتهای فیبرهاي هسته سجافی بزرگ، انكفالین ترشح میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نورون های ناحيه خاكستری دورقناتی مستقيما نورون های حسی درد را مهار میكنند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام گزينه عملكرد ناحيه قشری–مخچه ای را نشان میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كنترل تعادل ـ شروع حركات ـ برنامه ریزی حركات بعدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زمان بندی حركات پیچیده ـ كنترل وضعيت ـ حفظ تعادل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برنامه ریزی حركات بعدی شروع حركات ـ زمان بندی حركات پیچیده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجرای حركات پیچیده ـ كنترل وضعيت ـ حفظ تعادل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام ریتمEEG، پایین ترین فركانس و بالاترين دامنه را دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام عقده پاراسمپاتيكی حركات مردمک را كنترل ميكند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحت فكی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتریگوپاﻻتین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنظیم تانسیونیک عضله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محافظت از عضله در برابر پاره شدن به علت تانسیون باﻻ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متعادل كردن تانسيون تارهای عضلانی مختلف يك عضله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنظيم طول عضله</t>
   </si>
 </sst>
 </file>
@@ -13218,10 +14206,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H746"/>
+  <dimension ref="A1:H834"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A744" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B746" activeCellId="0" sqref="B746"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C823" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F840" activeCellId="0" sqref="F840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31991,7 +32979,7 @@
       <c r="G722" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H722" s="0" t="n">
+      <c r="H722" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32017,7 +33005,7 @@
       <c r="G723" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H723" s="0" t="n">
+      <c r="H723" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32043,7 +33031,7 @@
       <c r="G724" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H724" s="0" t="n">
+      <c r="H724" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32069,7 +33057,7 @@
       <c r="G725" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H725" s="0" t="n">
+      <c r="H725" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -32095,7 +33083,7 @@
       <c r="G726" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H726" s="0" t="n">
+      <c r="H726" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32121,7 +33109,7 @@
       <c r="G727" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H727" s="0" t="n">
+      <c r="H727" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32147,7 +33135,7 @@
       <c r="G728" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H728" s="0" t="n">
+      <c r="H728" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32173,7 +33161,7 @@
       <c r="G729" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H729" s="0" t="n">
+      <c r="H729" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -32199,7 +33187,7 @@
       <c r="G730" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H730" s="0" t="n">
+      <c r="H730" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -32225,398 +33213,2686 @@
       <c r="G731" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H731" s="0" t="n">
+      <c r="H731" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="0" t="s">
+      <c r="A732" s="4" t="s">
         <v>3444</v>
       </c>
-      <c r="B732" s="0" t="s">
+      <c r="B732" s="4" t="s">
         <v>1059</v>
       </c>
-      <c r="C732" s="0" t="s">
+      <c r="C732" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="D732" s="0" t="s">
+      <c r="D732" s="4" t="s">
         <v>1061</v>
       </c>
-      <c r="E732" s="0" t="s">
+      <c r="E732" s="4" t="s">
         <v>3445</v>
       </c>
-      <c r="F732" s="6" t="s">
+      <c r="F732" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G732" s="6" t="s">
+      <c r="G732" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H732" s="0" t="n">
+      <c r="H732" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="0" t="s">
+      <c r="A733" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="B733" s="0" t="s">
+      <c r="B733" s="4" t="s">
         <v>3446</v>
       </c>
-      <c r="C733" s="0" t="s">
+      <c r="C733" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="D733" s="0" t="s">
+      <c r="D733" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="E733" s="0" t="s">
+      <c r="E733" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="F733" s="6" t="s">
+      <c r="F733" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G733" s="6" t="s">
+      <c r="G733" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H733" s="0" t="n">
+      <c r="H733" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="0" t="s">
+      <c r="A734" s="4" t="s">
         <v>3447</v>
       </c>
-      <c r="B734" s="0" t="s">
+      <c r="B734" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="C734" s="0" t="s">
+      <c r="C734" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="D734" s="0" t="s">
+      <c r="D734" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="E734" s="0" t="s">
+      <c r="E734" s="4" t="s">
         <v>1072</v>
       </c>
-      <c r="F734" s="6" t="s">
+      <c r="F734" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G734" s="6" t="s">
+      <c r="G734" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H734" s="0" t="n">
+      <c r="H734" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="0" t="s">
+      <c r="A735" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="B735" s="0" t="s">
+      <c r="B735" s="4" t="s">
         <v>3448</v>
       </c>
-      <c r="C735" s="0" t="s">
+      <c r="C735" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="D735" s="0" t="s">
+      <c r="D735" s="4" t="s">
         <v>3449</v>
       </c>
-      <c r="E735" s="0" t="s">
+      <c r="E735" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="F735" s="6" t="s">
+      <c r="F735" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G735" s="6" t="s">
+      <c r="G735" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H735" s="0" t="n">
+      <c r="H735" s="4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="90.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="7" t="s">
+    <row r="736" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="5" t="s">
         <v>3450</v>
       </c>
-      <c r="B736" s="8" t="s">
+      <c r="B736" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="C736" s="8" t="s">
+      <c r="C736" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D736" s="8" t="s">
+      <c r="D736" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="E736" s="8" t="s">
+      <c r="E736" s="1" t="s">
         <v>3451</v>
       </c>
-      <c r="F736" s="6" t="s">
+      <c r="F736" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G736" s="6" t="s">
+      <c r="G736" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H736" s="0" t="n">
+      <c r="H736" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="101.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="7" t="s">
+    <row r="737" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="5" t="s">
         <v>3452</v>
       </c>
-      <c r="B737" s="8" t="s">
+      <c r="B737" s="1" t="s">
         <v>3453</v>
       </c>
-      <c r="C737" s="8" t="s">
+      <c r="C737" s="1" t="s">
         <v>3454</v>
       </c>
-      <c r="D737" s="8" t="s">
+      <c r="D737" s="1" t="s">
         <v>3455</v>
       </c>
-      <c r="E737" s="8" t="s">
+      <c r="E737" s="1" t="s">
         <v>3456</v>
       </c>
-      <c r="F737" s="6" t="s">
+      <c r="F737" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G737" s="6" t="s">
+      <c r="G737" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H737" s="0" t="n">
+      <c r="H737" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="87.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="7" t="s">
+    <row r="738" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="5" t="s">
         <v>3457</v>
       </c>
-      <c r="B738" s="8" t="s">
+      <c r="B738" s="1" t="s">
         <v>3458</v>
       </c>
-      <c r="C738" s="8" t="s">
+      <c r="C738" s="1" t="s">
         <v>3459</v>
       </c>
-      <c r="D738" s="8" t="s">
+      <c r="D738" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="E738" s="8" t="s">
+      <c r="E738" s="1" t="s">
         <v>3460</v>
       </c>
-      <c r="F738" s="6" t="s">
+      <c r="F738" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G738" s="6" t="s">
+      <c r="G738" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H738" s="0" t="n">
+      <c r="H738" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="0" t="s">
+      <c r="A739" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="B739" s="0" t="s">
+      <c r="B739" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="C739" s="0" t="s">
+      <c r="C739" s="4" t="s">
         <v>3461</v>
       </c>
-      <c r="D739" s="0" t="s">
+      <c r="D739" s="4" t="s">
         <v>3462</v>
       </c>
-      <c r="E739" s="0" t="s">
+      <c r="E739" s="4" t="s">
         <v>3463</v>
       </c>
-      <c r="F739" s="6" t="s">
+      <c r="F739" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G739" s="6" t="s">
+      <c r="G739" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H739" s="0" t="n">
+      <c r="H739" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="0" t="s">
+      <c r="A740" s="4" t="s">
         <v>3464</v>
       </c>
-      <c r="B740" s="0" t="s">
+      <c r="B740" s="4" t="s">
         <v>3465</v>
       </c>
-      <c r="C740" s="0" t="s">
+      <c r="C740" s="4" t="s">
         <v>1090</v>
       </c>
-      <c r="D740" s="0" t="s">
+      <c r="D740" s="4" t="s">
         <v>3466</v>
       </c>
-      <c r="E740" s="0" t="s">
+      <c r="E740" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="F740" s="6" t="s">
+      <c r="F740" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G740" s="6" t="s">
+      <c r="G740" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H740" s="0" t="n">
+      <c r="H740" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="0" t="s">
+      <c r="A741" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="B741" s="0" t="s">
+      <c r="B741" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="C741" s="0" t="s">
+      <c r="C741" s="4" t="s">
         <v>3467</v>
       </c>
-      <c r="D741" s="0" t="s">
+      <c r="D741" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="E741" s="0" t="s">
+      <c r="E741" s="4" t="s">
         <v>3468</v>
       </c>
-      <c r="F741" s="6" t="s">
+      <c r="F741" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G741" s="6" t="s">
+      <c r="G741" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H741" s="0" t="n">
+      <c r="H741" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="0" t="s">
+      <c r="A742" s="4" t="s">
         <v>3469</v>
       </c>
-      <c r="B742" s="0" t="s">
+      <c r="B742" s="4" t="s">
         <v>3470</v>
       </c>
-      <c r="C742" s="0" t="s">
+      <c r="C742" s="4" t="s">
         <v>3471</v>
       </c>
-      <c r="D742" s="0" t="s">
+      <c r="D742" s="4" t="s">
         <v>3472</v>
       </c>
-      <c r="E742" s="0" t="s">
+      <c r="E742" s="4" t="s">
         <v>1100</v>
       </c>
-      <c r="F742" s="6" t="s">
+      <c r="F742" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G742" s="6" t="s">
+      <c r="G742" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H742" s="0" t="n">
+      <c r="H742" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="0" t="s">
+      <c r="A743" s="4" t="s">
         <v>3473</v>
       </c>
-      <c r="B743" s="0" t="s">
+      <c r="B743" s="4" t="s">
         <v>3474</v>
       </c>
-      <c r="C743" s="0" t="s">
+      <c r="C743" s="4" t="s">
         <v>3475</v>
       </c>
-      <c r="D743" s="0" t="s">
+      <c r="D743" s="4" t="s">
         <v>3476</v>
       </c>
-      <c r="E743" s="0" t="s">
+      <c r="E743" s="4" t="s">
         <v>3477</v>
       </c>
-      <c r="F743" s="6" t="s">
+      <c r="F743" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G743" s="6" t="s">
+      <c r="G743" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H743" s="0" t="n">
+      <c r="H743" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="0" t="s">
+      <c r="A744" s="4" t="s">
         <v>3478</v>
       </c>
-      <c r="B744" s="0" t="s">
+      <c r="B744" s="4" t="s">
         <v>3479</v>
       </c>
-      <c r="C744" s="0" t="s">
+      <c r="C744" s="4" t="s">
         <v>3480</v>
       </c>
-      <c r="D744" s="0" t="s">
+      <c r="D744" s="4" t="s">
         <v>3481</v>
       </c>
-      <c r="E744" s="0" t="s">
+      <c r="E744" s="4" t="s">
         <v>3482</v>
       </c>
-      <c r="F744" s="6" t="s">
+      <c r="F744" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G744" s="6" t="s">
+      <c r="G744" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H744" s="0" t="n">
+      <c r="H744" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="0" t="s">
+      <c r="A745" s="4" t="s">
         <v>3483</v>
       </c>
-      <c r="B745" s="0" t="s">
+      <c r="B745" s="4" t="s">
         <v>1854</v>
       </c>
-      <c r="C745" s="0" t="s">
+      <c r="C745" s="4" t="s">
         <v>1856</v>
       </c>
-      <c r="D745" s="0" t="s">
+      <c r="D745" s="4" t="s">
         <v>1857</v>
       </c>
-      <c r="E745" s="0" t="s">
+      <c r="E745" s="4" t="s">
         <v>3484</v>
       </c>
-      <c r="F745" s="6" t="s">
+      <c r="F745" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G745" s="6" t="s">
+      <c r="G745" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H745" s="0" t="n">
+      <c r="H745" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="0" t="s">
+      <c r="A746" s="4" t="s">
         <v>3485</v>
       </c>
-      <c r="B746" s="0" t="s">
+      <c r="B746" s="4" t="s">
         <v>3486</v>
       </c>
-      <c r="C746" s="0" t="s">
+      <c r="C746" s="4" t="s">
         <v>3487</v>
       </c>
-      <c r="D746" s="0" t="s">
+      <c r="D746" s="4" t="s">
         <v>3488</v>
       </c>
-      <c r="E746" s="0" t="s">
+      <c r="E746" s="4" t="s">
         <v>3489</v>
       </c>
-      <c r="F746" s="6" t="s">
+      <c r="F746" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G746" s="6" t="s">
+      <c r="G746" s="1" t="s">
         <v>3262</v>
       </c>
-      <c r="H746" s="0" t="n">
+      <c r="H746" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A747" s="5" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G747" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H747" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A748" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C748" s="4" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E748" s="4" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F748" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G748" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H748" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="5" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E749" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F749" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G749" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H749" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A750" s="5" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G750" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H750" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="5" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E751" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F751" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="G751" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H751" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A752" s="4" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C752" s="4" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D752" s="4" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E752" s="4" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F752" s="4" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G752" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H752" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="113.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A753" s="5" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E753" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="F753" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G753" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H753" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="4" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C754" s="4" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E754" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F754" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G754" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H754" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A755" s="4" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C755" s="4" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D755" s="4" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E755" s="4" t="s">
+        <v>3535</v>
+      </c>
+      <c r="F755" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G755" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H755" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A756" s="4" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C756" s="4" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E756" s="4" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F756" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G756" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H756" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A757" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C757" s="4" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E757" s="4" t="s">
+        <v>3545</v>
+      </c>
+      <c r="F757" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G757" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H757" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A758" s="4" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C758" s="4" t="s">
+        <v>3548</v>
+      </c>
+      <c r="D758" s="4" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E758" s="4" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F758" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G758" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H758" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="124.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A759" s="5" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E759" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="F759" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G759" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H759" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A760" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F760" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G760" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H760" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A761" s="4" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C761" s="4" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E761" s="4" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F761" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="G761" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H761" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A762" s="4" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C762" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D762" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E762" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F762" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G762" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H762" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A763" s="4" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C763" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D763" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E763" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F763" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G763" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H763" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A764" s="4" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C764" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E764" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F764" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G764" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H764" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A765" s="4" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C765" s="4" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E765" s="4" t="s">
+        <v>3573</v>
+      </c>
+      <c r="F765" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G765" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H765" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A766" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C766" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E766" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F766" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G766" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H766" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A767" s="4" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C767" s="4" t="s">
+        <v>3570</v>
+      </c>
+      <c r="D767" s="4" t="s">
+        <v>3573</v>
+      </c>
+      <c r="E767" s="4" t="s">
+        <v>3576</v>
+      </c>
+      <c r="F767" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G767" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H767" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A768" s="4" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C768" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D768" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E768" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F768" s="4" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G768" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H768" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A769" s="4" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C769" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D769" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E769" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F769" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G769" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H769" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A770" s="4" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C770" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E770" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F770" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G770" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H770" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A771" s="4" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C771" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E771" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F771" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G771" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H771" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="79.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A772" s="5" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F772" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G772" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H772" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A773" s="4" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C773" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E773" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F773" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G773" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H773" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A774" s="4" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C774" s="4" t="s">
+        <v>3587</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>3588</v>
+      </c>
+      <c r="E774" s="4" t="s">
+        <v>3589</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G774" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H774" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="68.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A775" s="5" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F775" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G775" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H775" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="4" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B776" s="5" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C776" s="5" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G776" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H776" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="0" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B777" s="0" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C777" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D777" s="0" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E777" s="0" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F777" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G777" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H777" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="0" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B778" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C778" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D778" s="0" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E778" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F778" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G778" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H778" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="0" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B779" s="0" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C779" s="0" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D779" s="0" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E779" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F779" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G779" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H779" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="0" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B780" s="0" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C780" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D780" s="0" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E780" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F780" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G780" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H780" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="0" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B781" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C781" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D781" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E781" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F781" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G781" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H781" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A782" s="0" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B782" s="0" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C782" s="0" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D782" s="0" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E782" s="0" t="s">
+        <v>3603</v>
+      </c>
+      <c r="F782" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G782" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H782" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A783" s="0" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B783" s="0" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C783" s="0" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D783" s="0" t="s">
+        <v>3607</v>
+      </c>
+      <c r="E783" s="0" t="s">
+        <v>3608</v>
+      </c>
+      <c r="F783" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G783" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H783" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A784" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B784" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C784" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D784" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E784" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F784" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G784" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H784" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A785" s="0" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B785" s="0" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C785" s="0" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D785" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E785" s="0" t="s">
+        <v>3613</v>
+      </c>
+      <c r="F785" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G785" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H785" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A786" s="0" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B786" s="0" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C786" s="0" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D786" s="0" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E786" s="0" t="s">
+        <v>3617</v>
+      </c>
+      <c r="F786" s="6" t="s">
+        <v>3578</v>
+      </c>
+      <c r="G786" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H786" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="6" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B787" s="6" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C787" s="6" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D787" s="6" t="s">
+        <v>3621</v>
+      </c>
+      <c r="E787" s="8" t="s">
+        <v>3622</v>
+      </c>
+      <c r="F787" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G787" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H787" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A788" s="0" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B788" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C788" s="0" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D788" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E788" s="0" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F788" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G788" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H788" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A789" s="0" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B789" s="0" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C789" s="0" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D789" s="0" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E789" s="0" t="s">
+        <v>3628</v>
+      </c>
+      <c r="F789" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G789" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H789" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="0" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B790" s="0" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C790" s="0" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D790" s="0" t="s">
+        <v>3632</v>
+      </c>
+      <c r="E790" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F790" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G790" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H790" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A791" s="0" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B791" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C791" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D791" s="0" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E791" s="0" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F791" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="G791" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H791" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="0" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B792" s="0" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C792" s="0" t="s">
+        <v>3636</v>
+      </c>
+      <c r="D792" s="0" t="s">
+        <v>3637</v>
+      </c>
+      <c r="E792" s="0" t="s">
+        <v>3638</v>
+      </c>
+      <c r="F792" s="0" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G792" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H792" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A793" s="0" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B793" s="0" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C793" s="0" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D793" s="0" t="s">
+        <v>3643</v>
+      </c>
+      <c r="E793" s="0" t="s">
+        <v>3644</v>
+      </c>
+      <c r="F793" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G793" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H793" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A794" s="0" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B794" s="0" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C794" s="0" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D794" s="0" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E794" s="0" t="s">
+        <v>3275</v>
+      </c>
+      <c r="F794" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G794" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H794" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="0" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B795" s="0" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C795" s="0" t="s">
+        <v>3650</v>
+      </c>
+      <c r="D795" s="0" t="s">
+        <v>3651</v>
+      </c>
+      <c r="E795" s="0" t="s">
+        <v>3652</v>
+      </c>
+      <c r="F795" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G795" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H795" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A796" s="0" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B796" s="0" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C796" s="0" t="s">
+        <v>3655</v>
+      </c>
+      <c r="D796" s="0" t="s">
+        <v>3656</v>
+      </c>
+      <c r="E796" s="0" t="s">
+        <v>3657</v>
+      </c>
+      <c r="F796" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G796" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H796" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A797" s="0" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B797" s="0" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C797" s="0" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D797" s="0" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E797" s="0" t="s">
+        <v>2356</v>
+      </c>
+      <c r="F797" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G797" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H797" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A798" s="0" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B798" s="0" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C798" s="0" t="s">
+        <v>3663</v>
+      </c>
+      <c r="D798" s="0" t="s">
+        <v>3664</v>
+      </c>
+      <c r="E798" s="0" t="s">
+        <v>3665</v>
+      </c>
+      <c r="F798" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G798" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H798" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A799" s="0" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B799" s="0" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C799" s="0" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D799" s="0" t="s">
+        <v>3669</v>
+      </c>
+      <c r="E799" s="0" t="s">
+        <v>3670</v>
+      </c>
+      <c r="F799" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G799" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H799" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A800" s="0" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B800" s="0" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C800" s="0" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D800" s="0" t="s">
+        <v>3674</v>
+      </c>
+      <c r="E800" s="0" t="s">
+        <v>3675</v>
+      </c>
+      <c r="F800" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G800" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H800" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A801" s="0" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B801" s="0" t="s">
+        <v>3677</v>
+      </c>
+      <c r="C801" s="0" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D801" s="0" t="s">
+        <v>3679</v>
+      </c>
+      <c r="E801" s="0" t="s">
+        <v>3680</v>
+      </c>
+      <c r="F801" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G801" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H801" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A802" s="0" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B802" s="0" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C802" s="0" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D802" s="0" t="s">
+        <v>3684</v>
+      </c>
+      <c r="E802" s="0" t="s">
+        <v>3685</v>
+      </c>
+      <c r="F802" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G802" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H802" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A803" s="0" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B803" s="0" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C803" s="0" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D803" s="0" t="s">
+        <v>3689</v>
+      </c>
+      <c r="E803" s="0" t="s">
+        <v>3690</v>
+      </c>
+      <c r="F803" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G803" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H803" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A804" s="0" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B804" s="6" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C804" s="8" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D804" s="8" t="s">
+        <v>3693</v>
+      </c>
+      <c r="E804" s="8" t="s">
+        <v>3694</v>
+      </c>
+      <c r="F804" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G804" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H804" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A805" s="0" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B805" s="0" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C805" s="0" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D805" s="0" t="s">
+        <v>3698</v>
+      </c>
+      <c r="E805" s="0" t="s">
+        <v>3699</v>
+      </c>
+      <c r="F805" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G805" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H805" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A806" s="0" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B806" s="0" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C806" s="0" t="s">
+        <v>3701</v>
+      </c>
+      <c r="D806" s="0" t="s">
+        <v>3702</v>
+      </c>
+      <c r="E806" s="0" t="s">
+        <v>3703</v>
+      </c>
+      <c r="F806" s="6" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G806" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H806" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A807" s="0" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B807" s="0" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C807" s="0" t="s">
+        <v>3706</v>
+      </c>
+      <c r="D807" s="0" t="s">
+        <v>3707</v>
+      </c>
+      <c r="E807" s="0" t="s">
+        <v>3708</v>
+      </c>
+      <c r="F807" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G807" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H807" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="0" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B808" s="0" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C808" s="0" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D808" s="0" t="s">
+        <v>3712</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>3713</v>
+      </c>
+      <c r="F808" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G808" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H808" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="0" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B809" s="0" t="s">
+        <v>837</v>
+      </c>
+      <c r="C809" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="D809" s="0" t="s">
+        <v>3715</v>
+      </c>
+      <c r="E809" s="0" t="s">
+        <v>3716</v>
+      </c>
+      <c r="F809" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G809" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H809" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="0" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B810" s="0" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C810" s="0" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D810" s="0" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E810" s="0" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F810" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G810" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H810" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="0" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B811" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C811" s="0" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D811" s="0" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E811" s="0" t="s">
+        <v>3725</v>
+      </c>
+      <c r="F811" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G811" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H811" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="0" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B812" s="0" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C812" s="0" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D812" s="0" t="s">
+        <v>3729</v>
+      </c>
+      <c r="E812" s="0" t="s">
+        <v>3730</v>
+      </c>
+      <c r="F812" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G812" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H812" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="0" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B813" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C813" s="0" t="s">
+        <v>873</v>
+      </c>
+      <c r="D813" s="0" t="s">
+        <v>3732</v>
+      </c>
+      <c r="E813" s="0" t="s">
+        <v>3733</v>
+      </c>
+      <c r="F813" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G813" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H813" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="0" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B814" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="C814" s="0" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D814" s="0" t="s">
+        <v>3736</v>
+      </c>
+      <c r="E814" s="0" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F814" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G814" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H814" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A815" s="7" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B815" s="8" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C815" s="8" t="s">
+        <v>3740</v>
+      </c>
+      <c r="D815" s="8" t="s">
+        <v>3741</v>
+      </c>
+      <c r="E815" s="8" t="s">
+        <v>3742</v>
+      </c>
+      <c r="F815" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G815" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H815" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="0" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B816" s="0" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C816" s="0" t="s">
+        <v>3745</v>
+      </c>
+      <c r="D816" s="0" t="s">
+        <v>3746</v>
+      </c>
+      <c r="E816" s="0" t="s">
+        <v>3747</v>
+      </c>
+      <c r="F816" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G816" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H816" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A817" s="0" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B817" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="C817" s="0" t="s">
+        <v>3749</v>
+      </c>
+      <c r="D817" s="0" t="s">
+        <v>3750</v>
+      </c>
+      <c r="E817" s="0" t="s">
+        <v>3751</v>
+      </c>
+      <c r="F817" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G817" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H817" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="135.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="7" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B818" s="8" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C818" s="8" t="s">
+        <v>3754</v>
+      </c>
+      <c r="D818" s="8" t="s">
+        <v>3755</v>
+      </c>
+      <c r="E818" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="F818" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G818" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H818" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A819" s="0" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B819" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C819" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D819" s="0" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E819" s="0" t="s">
+        <v>3760</v>
+      </c>
+      <c r="F819" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G819" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H819" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A820" s="0" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B820" s="0" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C820" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="D820" s="0" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E820" s="0" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F820" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G820" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H820" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A821" s="0" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B821" s="0" t="s">
+        <v>922</v>
+      </c>
+      <c r="C821" s="0" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D821" s="0" t="s">
+        <v>3767</v>
+      </c>
+      <c r="E821" s="0" t="s">
+        <v>3768</v>
+      </c>
+      <c r="F821" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G821" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H821" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A822" s="0" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B822" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C822" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D822" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E822" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F822" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G822" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H822" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A823" s="0" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B823" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="C823" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D823" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="E823" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="F823" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G823" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H823" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="0" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B824" s="0" t="s">
+        <v>962</v>
+      </c>
+      <c r="C824" s="0" t="s">
+        <v>3772</v>
+      </c>
+      <c r="D824" s="0" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E824" s="0" t="s">
+        <v>3774</v>
+      </c>
+      <c r="F824" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G824" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H824" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A825" s="0" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B825" s="0" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C825" s="0" t="s">
+        <v>3777</v>
+      </c>
+      <c r="D825" s="0" t="s">
+        <v>3778</v>
+      </c>
+      <c r="E825" s="0" t="s">
+        <v>3779</v>
+      </c>
+      <c r="F825" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G825" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H825" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A826" s="0" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B826" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="C826" s="0" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D826" s="0" t="s">
+        <v>3782</v>
+      </c>
+      <c r="E826" s="0" t="s">
+        <v>3783</v>
+      </c>
+      <c r="F826" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G826" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H826" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="0" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B827" s="0" t="s">
+        <v>927</v>
+      </c>
+      <c r="C827" s="0" t="s">
+        <v>3785</v>
+      </c>
+      <c r="D827" s="0" t="s">
+        <v>3786</v>
+      </c>
+      <c r="E827" s="0" t="s">
+        <v>3787</v>
+      </c>
+      <c r="F827" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G827" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H827" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A828" s="0" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B828" s="0" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C828" s="0" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D828" s="0" t="s">
+        <v>3791</v>
+      </c>
+      <c r="E828" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="F828" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G828" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H828" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A829" s="0" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B829" s="0" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C829" s="0" t="s">
+        <v>3794</v>
+      </c>
+      <c r="D829" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="E829" s="0" t="s">
+        <v>3795</v>
+      </c>
+      <c r="F829" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G829" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H829" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A830" s="0" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B830" s="0" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C830" s="0" t="s">
+        <v>3798</v>
+      </c>
+      <c r="D830" s="0" t="s">
+        <v>3799</v>
+      </c>
+      <c r="E830" s="0" t="s">
+        <v>3800</v>
+      </c>
+      <c r="F830" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G830" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H830" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A831" s="0" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B831" s="0" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C831" s="0" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D831" s="0" t="s">
+        <v>3804</v>
+      </c>
+      <c r="E831" s="0" t="s">
+        <v>3805</v>
+      </c>
+      <c r="F831" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G831" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H831" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A832" s="0" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B832" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C832" s="0" t="s">
+        <v>989</v>
+      </c>
+      <c r="D832" s="0" t="s">
+        <v>990</v>
+      </c>
+      <c r="E832" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="F832" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G832" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H832" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A833" s="0" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B833" s="0" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C833" s="0" t="s">
+        <v>994</v>
+      </c>
+      <c r="D833" s="0" t="s">
+        <v>3809</v>
+      </c>
+      <c r="E833" s="0" t="s">
+        <v>3810</v>
+      </c>
+      <c r="F833" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G833" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H833" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A834" s="0" t="s">
+        <v>997</v>
+      </c>
+      <c r="B834" s="0" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C834" s="0" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D834" s="0" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E834" s="0" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F834" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G834" s="6" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H834" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6247" uniqueCount="4136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6776" uniqueCount="4472">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -492,7 +492,7 @@
     <t xml:space="preserve">ورزش</t>
   </si>
   <si>
-    <t xml:space="preserve">آنژیوتانسين دو</t>
+    <t xml:space="preserve">آنژیوتانسین دو</t>
   </si>
   <si>
     <t xml:space="preserve">الکل</t>
@@ -8237,7 +8237,7 @@
     <t xml:space="preserve">غشا سیتوپلاسمی</t>
   </si>
   <si>
-    <t xml:space="preserve">کدام یک از ترکیبات زیر به عنوان آنتی سپتیک مورد استفاده قرار می گیرد؟</t>
+    <t xml:space="preserve">کدام یک از ترکیبات زیر به عنوان آنتی سپتیک در برخی از خمیر دندان ها مورد استفاده قرار می گیرد؟</t>
   </si>
   <si>
     <t xml:space="preserve">کلرهگزیدین</t>
@@ -14875,6 +14875,379 @@
   </si>
   <si>
     <t xml:space="preserve">یک ماده رادیواکتیو در بدن دو بیمار با اکتیویته مساوی کاشته میشود اگر مدت زمانی که این ماده در بدن بیمار اول می ماند به اندازه یک نیمه عمر و در بدن دومی دو نیمه عمر باشد نسبت انرژی آزاد شده در بیمار دوم نسبت به بیمار اول چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته پایدار سدیم با عدد اتمی یازده متلاشی میشود و اتم نئون با عدد اتمی ده بدست می آید در این فرایند چه ذره ای آزاد میشود؟  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بتای منفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بتای مثبت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">درصد عبور شدت موج فراصوت از مرز مشترک بافت چربی و عضله نسبت به شدت موج فراصوت اولیه کدام است؟
+امپدانس صوتی چربی و عضله را به ترتیب 1.35 و 1.65 (rayl) در نظر بگیرید.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 درصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 درصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 درصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 درصد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک سیستم سونوگرافی دامنه امواج فراصوت برگشتی از بافت هایی که عمق بیشتری دارند میزان افت بیشتری دارند برای رفع مشکل چه راهکاری پیشنهاد میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از جبران بهره زمانی (tgc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از پدیده داپلر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش شدت پالس فراصوت ارسالی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش پهنای باند فرکانسی کریستال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دیاترمی جراحی کدام عامل زیر تاثیر چندانی در افزایش عمق برش بافت ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش فاصله تکرار پالسهای نوسانهای میرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش فاصله الکترود فعال نسبت به بافت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش اندازه الکترود خنثی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بی توجهی به تیک تاک ساعت چه نوع یادگیری محسوب می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خوگیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شرطی کلاسیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شرطی عامل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یادگیری پیچیده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام رویکرد شخصیت بر مفهوم گرایش  به خود شکوفایی تاکید دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رفتار گرایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روان کاوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انسان گرایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شناختی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آزمایش (موقعیت ناآشنا) برای مطالعه کدام یک از پدیده های روان شناختی استفاده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزاج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رشد اخلاقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رشد شناختی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دلبستگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زن جوانی با علایمی همچون تپش قلب تعریق تنگی نفس لرزش عضلانی تهوع و در نهایت ترس از مرگ به روانشناس مراجعه نموده است وی اظهار داشت برای دقایقی در طول روز دچار این حالات میشود و بعد فروکش میکند تشخیص بیماری وی چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال اضطراب فراگیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هراس اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال وحشت زدگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازدحام هراسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مادری که فرزند معلولش را دوست ندارد ولی به صورت افراطی از او مراقبت می کند. این رفتار نشان دهنده کدام یک از مکانیزم های دفاعی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جا به جا سازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرافکنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واپس رانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکنش وارانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در رشته تخصصی روان شناسی به (تفاوت های فردی انسان) بیشتر توجه میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روان شناسی رشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روان شناسی اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روان شناسی شخصیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روان شناسی تربیتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دندان پزشکی که زودتر از صحبت های بیمار به تشخیص می رسد یا کلام بعدی بیمار را پیش بینی میکند دچار چه مانع گوش دادن فعال میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تلاش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زیادی اطلاعات در صحبت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تفکر سریع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرضیات نادرست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فراخنای حافظه تقریبا چند ماده می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بین دو تا نه ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بین پنج تا نه ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بین سه تا پنج ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بین سه تا نه ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرهیز از داده های منفی حین کار جز کدام یک از عملکرد های ارتباطی موثر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آرامش بخش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نظارت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارایه دستور العمل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آموزش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از نظریه ها بر مفهوم یادگیری جانشینی(مشاهده ای) تاکید میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یادگیری اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رفتارگرایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انگل های مالاریا به روش های زیر منتقل می شوند به جز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گزش پشه آنوفل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال جفت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تماس مستقیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عامل دیسانتری در انسان کدام تک یاخته است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتامبا کلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژیاردیا لامبلیا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کریپتوسپوریدیوم هومینیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شایع ترین فرم بالینی عفونت های دهانی کاندیدا در کدام گزینه مشاهده می گردد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرلیش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتروفی حاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفک دهان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبان مودار سیاه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عفونت های فرصت طلب زیر از طریق استنشاق ذرات معلق متقل می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سپسیس مالاسزیایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازوفاژیت کانادایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاندیدیاز ریه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تظاهرات بالینی کدام عفونت دهانی به کاندیدیازیس غشای کاذب (برفک) شباهت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکتینومایکوزیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژئوتریکوزیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ترکیبات زیر به عنوان آنتی سپتیک مورد استفاده قرار می گیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ستیل پیریدینیوم کلراید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تریکلوزان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پراکسید هیدروژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرمالدئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از آنتی بیوتیک های زیر در درمان عفونت های ناشی از استافیلوکوک های مقاوم به چند دارو استرپتوکوک ها و انترکوک های مقاوم به وانکومایسین کاربرد دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داپتومایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سفپیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازیترومایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری مبتلا به کویید ۱۹ بستری در بخش مراقبت های ویژه پس از چند روز دچار عفونت باکتریایی بیمارستانی شده است. محتمل ترین عامل عفونت کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموفیلوس آنفلونزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در فرایند ایجاد پلاک دندانی کدام باکتری زیر به طور عمده پلیمرهای کربوهیدراتی گلوکان ها تولید می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس اورالیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس سانگوئیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکتینومایسس اسرائیلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از باکتری های زیر قادر به رشد در داخل ماکروفاژهای آلوئلی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس پیوژنز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">لژیونا پنوموفیلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مایکوپلاسما پنومونیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فردی پس از جراحی لثه دچار اندوکاردیت تحت حاد شده است. کدام یک از باکتری های زیر عامل احتمالی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس میتیس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس آنژینوسوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوكوكوس آگالاکتیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری پس از کشیدن دندان دچار یک آبسه شدید در ناحیه لثه شده است با توجه بوی متعفن آبسه به نظر می رسد عفونت با دخالت باکتری های بی هوازی ایجاد شده است. کدام یک از آنتی بیوتیک های زیر در درمان این عفونت کاربرد دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتامایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ونکومایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سفالکسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از انواع راه های انتقال از غشا سیتوپلاسمی باکتری ها سوبسترا در حین انتقال فسفریله میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتشار تسهیل شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال فعال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال گروهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتشار ساده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در رنگ آمیزی کشت خالص یک نمونه تنفسی کوکوس های گرم مثبت مشاهده شده است. اولین تست تشخیصی کدام یک از گزینه های زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاتالاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کواگولاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکسیداز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوره از</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مسمویت غذایی ناشی از کدام یک از باکتری های زیر کشت مدفوع در تشخیص قطعی آزمایشگاهی فاقد ارزش است؟</t>
   </si>
   <si>
     <r>
@@ -14884,7 +15257,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">هسته پایدار سدیم با عدد اتمی یازده متلاشی میشود و اتم ن</t>
+      <t xml:space="preserve">باسیلوس سر</t>
     </r>
     <r>
       <rPr>
@@ -14892,7 +15265,653 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ئون با عدد اتمی ده بدست می آید در این فرایند چه ذره ای آزاد میشود؟</t>
+      <t xml:space="preserve">ئوس</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">کلستریدیوم پرفرنجنس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری با بهداشت دهان و دندان ضعیف تحت یک روش دندانپزشکی تهاجمی قرار گرفته است وی بعد از مدتی دچار عفونت صورتی-گردنی شده است. کدام باکتری می تواند عامل سببی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موبیلونیکوس کورتیزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرووتلا دیسینس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوتی باکتریوم آکنه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علامت نیکولسکی در کدام یک از عفونت هاب استافیلوکوکی ذیل دیده می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری رایتر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زرد زخم تاولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم شوک توکسیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کربونکل</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">فعال کننده های پروت</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئاز ویروسی در درمان کدام عفونت ویروسی زیر کاربرد دارند؟</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cmv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ویروس باعث تورم غده بزاقی پاروتید می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرخچه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ویروس های زیر توانایی ایجاد سرطان اوروفارنکس را دارد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هرپس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنفلوانزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از مارکرهای سرولوژیک زیر جهت بررسی میزان عفونت زایی فرد آلوده با HBV مزمن مورد ارزیابی قرار می گیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbsag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbeag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbsab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hbeab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ویروس زیر در اثر مصرف مواد غذایی به انسان انتقال پیدا میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تب زرد</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">در محل ترمیم یک زخم پوستی ناشی از چاقو در صورت مرد سی ساله کلویید تشکیل شده است. بیش از حد بودن کدام یک از عوامل زیر منجر به ایجاد کلو</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئید شده است؟</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">آنژیوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رسوب کلاژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انقباض رحم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکنش التهابی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرد ۴۳ ساله با شکایت اصلی درد خفیف و سوزش در ناحیه جناغ سینه پس از صرف غذا تحت آندوسکوپی دستگاه گوارش فوقانی قرار می گیرد و از ناحیه اریتماتوز مخاط تحتانی مری بیوپسی گرفته می شود. مخاط ناحیه شامل پوششی اپی تلیال از سلول های استوانه ای و سلول های کابلت می باشد بروز کدام یک از تغییرات زیر در مخاط محتمل تر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متاپلازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هایپرتروفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هایپرپلازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آتروفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در جریان التهاب حاد گلبول های سفید بعد از حاشیه نشینی در عروق (margination) به صورت موقت و ضعیف به سلول های اندوتلیال متصل میشوند چه مولکول هایی در این پروسه به طور مستقیم درگیر هستند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانواده سلکتین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانواده اینتگرین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروستاگلاندین ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیستم کینین</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">کدام یک از موارد زیر در افتراق ن</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئوپلاسم های بدخیم از خوش خیم اهمیت بیشتری دارد؟</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">تمایز سلول های توموری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تهاجم موضعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متاستاز دوردست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رشد سریع تومور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از تغییرات ذکر شده به درستی پاتوفیزیولوژی دخیل در پیدایش ادم ریوی در بیماران مبتلا به نارسایی احتقانی قلب را توصیف میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش فشار انکوتیک پلاسما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسیب اندوتلیوم عروق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش نفوذ پذیری عروق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش فشار هیدرواستاتیک</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">در بررسی یک ضایعه ریوی نکروز مرکزی پنیری ارتشاح ماکروفاژ های اپی تلو</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئیدی سلول های غول آسای چند هسته ای لنفوسیت ها و پلاسماسل ها مشهود است این نمای ریخت شناسی بیانگر کدام یک از انواع التهاب می باشد؟</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">التهاب چرکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التهاب فیبرینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التهاب گرانولومایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التهاب سروزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک خانم ۸۳ ساله به دلیل انسداد ناگهانی عروق شریانی دچار سکته حاد مغزی میشود مناطق نکروز در بافت پارانشیم مغزی را کدام گزینه به بهترین شکل توصیف میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نکروز انعقادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نکروز میعانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نکروز چربی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نکروز پنیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود نقص ارثی گلیکوپروتئین فیبریلین (fibrillin) منجر به کدام یک از بیماری های زیر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم اهلرز دانلوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم مارفان</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">است</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئوژنز ایمپرفکتا</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم آلپورت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش غلظت کدام یک از موارد زیر مقاومت عروق را افزایش می دهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلسیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منیزیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از قندهای زیر با انتشار تسهیل شده در روده باریک جذب میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوکز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروکتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گالاکتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر کلیرانس کلیوی بالاتری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کراتینین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اینولین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک بر ترشح هورمون رشد اثر مهاری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آرژینین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرلین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان تخلیه معده با افزایش کدام مورد افزایش می یابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسمولالیته دوازدهه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محتویات دوازدهه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محتویات چربی دوازدهه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محتویات معده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از موارد زیر تمایل اکسیژن به هموگلوبین کاهش می یابد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش pH خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش درجه حرارت بدن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموگلوبین جنینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش 2,3 DPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک در تنظیم روزانه اسمولاریته پلاسما مهمترین نقش را دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنژیوتانسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سدیم رژیم غذایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از جملات زیر درباره هورمون های موثر بر متابولیسم کلسیم و فسفات درست نیست؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش جذب فسفات از روده توسط ویتامین d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش جذب کلسیم از توبول دیستال کلیه توسط pth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش جذب کلسیم و فسفات از استخوان توسط pth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش دفع فسفات از کلیه توسط ویتامین d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هورمون T3 کجا تولید میشود؟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">به طور برابر از غده تیرو</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئید و تبدیل محیطی از t4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">مقدار کمی از غده تیروئید و عمدتا از تبدیل محیطی t4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">مقدار کل آن از غده </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">تیروئید</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">عمدتا از غده تیروئید و مقدار کمی از تبدیل محیطی t4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مورد وضعیت دریچه های قلب در مرحله انقباض ایزوولومیک سیکل قلب کدام یک از جملات زیر صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دریچه های دهلیزی بطنی و دریچه های نیمه هلالی بسته هستند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دریچه های دهلیزی بطنی و دریچه های نیمه هلالی باز هستند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دریچه های دهلیزی بطنی بسته و دریچه های نیمه هلالی باز هستند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دریچه های دهلیزی بطنی باز و دریچه های نیمه هلالی بسته هستند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محور الکتریکی قلب فرد سالم مخالف کدام یک از اشتقاق های زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک یاخته عضله اسکلتی فاصله خط m تا صفحه z برابر است با:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طول باند a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طول باند I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجموع طول باند a و I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نصف طول سارکومر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آستانه پلاسمایی و حداکثر انتقال توبولی گلوکز به ترتیب چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 میلی گرم در دسی لیتر و 220 میلی گرم در دقیقه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 میلی گرم در دسی لیتر و 375 میلی گرم در دقیقه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 میلی گرم در دسی لیتر و 375 میلی گرم در دقیقه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220 میلی گرم در دسی لیتر و 125 میلی گرم در دقیقه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیشترین ترشح FSH در زنان در کدام مرحله از زندگی اتفاق می افتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کودکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سنین باروی</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">بعد از یا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئسگی</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر از عوامل موضعی کنترل جریان خون محسوب میشود؟  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اپی نفرین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیستامین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنژیوتانسین ii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبر های la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبر های ia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبر های آلفا موتور نورون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبر های گاما موتور نورون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مسیر نورونی از استریاتوم به گلوبوس پالیدوس چه نوروترانسمیتری ترشح میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوپامین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گایا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوتامات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استیل کولین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک کدام یک از نواحی زیر باعث هوشیاری و آگاهی میشود؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شکنج زاویه ای نیمکره غالب</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">هسته لوکوس سرل</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ئوس</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیلات مشبک پل مغزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته های رافه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با قطع عرض کامل ساقه مغز در بالای پل مغزی کدام یک از شرایط زیر اتفاق خواهد افتاد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمام حرکات تنفسی متوقف خواهد شد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رفلکس هرینگ پروتر از بین خواهد رفت.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقش گیرنده های شیمیایی مرکزی در تهویه مختل خواهد شد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کنترل ارادی تنفس از بین خواهد رفت.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش کدام یک از موارد زیر موجب کاهش جریان خون میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماتوکریت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعاع رگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشار خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیرخواری موقع گریه کردن صدای مشخص گربه مانند دارد چه تغییر ژنتیکی در کروموزوم شماره پنج وی رخ داده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف قسمتی از بازوی بلند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف قسمتی از بازوی کوتاه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف تمام بازوی کوتاه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف تمام بازوی بلند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقریبا چند درصد از ژنوم انسان کد کننده پروتئین ها هستند؟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">در کدام یک از انواع جهش ها به دلیل تشکیل کدون پایان ختم نافرجام سنتز </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">پروتئین اتفاق می افتد.</t>
     </r>
     <r>
       <rPr>
@@ -14901,60 +15920,209 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">بتای منفی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بتای مثبت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">درصد عبور شدت موج فراصوت از مرز مشترک بافت چربی و عضله نسبت به شدت موج فراصوت اولیه کدام است؟
-امپدانس صوتی چربی و عضله را به ترتیب 1.35 و 1.65 (rayl) در نظر بگیرید.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99 درصد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 درصد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 درصد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 درصد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در یک سیستم سونوگرافی دامنه امواج فراصوت برگشتی از بافت هایی که عمق بیشتری دارند میزان افت بیشتری دارند برای رفع مشکل چه راهکاری پیشنهاد میشود؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استفاده از جبران بهره زمانی (tgc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">استفاده از پدیده داپلر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">افزایش شدت پالس فراصوت ارسالی</t>
-  </si>
-  <si>
-    <t xml:space="preserve">افزایش پهنای باند فرکانسی کریستال</t>
-  </si>
-  <si>
-    <t xml:space="preserve">در دیاترمی جراحی کدام عامل زیر تاثیر چندانی در افزایش عمق برش بافت ندارد؟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کاهش فاصله تکرار پالسهای نوسانهای میرا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کاهش سرعت حرکت دست جراح</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کاهش فاصله الکترود فعال نسبت به بافت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">کاهش اندازه الکترود خنثی</t>
+    <t xml:space="preserve">nonsense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عبارت در ارتباط با پروتوانکوژن ها درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فعال شدن یک پروتوانکوژن برای ایجاد هر نوع سرطان کافی است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتوانکوژن ها در نتیجه جهش به وجود می آیند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتوانکوژن همیشه فعال هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتوانکوژن ها جز ژنوم طبیعی سلول هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گسترش تکرارهای سه نوکلئوتیدی منجر به کدام یک از بیماری های زیر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص (g6pd deficiency) g6pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبروز کیستی (cystic fibrosis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندرم x شکننده x syndrome fragile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دیستروفی میوتونیک نوع دو (myotonic dystrophy type2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم پرادرویلی در نتیجه کدام یک از پدیده های ژنتیکی زیر میتواند ایجاد شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلیوتروپی (pleiotropy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیش اندازی (anticipation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نشان گذاری (imprinting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هتروژنیتی (heterogeneity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کاریوتایپ خون محیطی نوزاد پسر مبتلا به تریزومی ۲۱ دو رده سلولی گزارش شده است. تقریبا ۳۳٪ سلول ها در زیر میکروسکوپ تریزومی ۲۱ و ۶۷٪ باقیمانده نرمال هستند. این موضوغ به علت عدم تفکیک صحیح کروموزومی در کدام یک از تقسیمات زیر ایجاد شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقسیم اول میتوزی زیگوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقسیم دوم میتوزی زیگوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقسیم اول میوزی در اووژنژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تقسیم دوم میوزی در اووژنژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در نوزادی با شکاف کام کدام بیماری کروموزومی محتمل تر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم پاتو (patau syndrome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم ادوارد (edwards syndrome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم داون (down syndrome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم ترنر (turner syndrome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ناهنجاری های منفرد همراه با خطر عود مجدد زیادی برای خواهر برادر و فرزندان می باشند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص دیواره بطنی (ventricular septal defect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در رفتگی لگن (dislocation of the hip)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دیسپلازی اکتودرمی (ectodermal dysplasia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میلومننگوسل (myelomeningocele)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیماری سلول داسی توالی CAG در موقعیت ششم زنجیره بتاگلوبین به CTG تغییر می یابد. چه نوع جهشی در این بیماری رخ داده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغییر چارچوب (frameshift)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همنام (synonymous)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بد معنی (missense)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بی معنی (nonsense)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الگوی توراث کدام یک از بیماری های زیر به صورت اتوزوم مغلوب است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آتروفی ماهیچه ای نخاعی (spinal muscular atrophy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموفیلی آ (hemophilia a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم مارفان (marfan syndrome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توبروز اسکلروزیس (tuberous sclerosis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهمترین سایتوکاین القا کننده شوک عفونی (septic shock) کدام گزینه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ifn-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tnf-a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از اجزای سیستم کمپلمان در نقش آنافیلاتوکسین ها عمل میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی بادی علیه کدام گروه خونی در ناسازگاری مادر و جنین اهمیت بالینی بیشتری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duffy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اساس تست پوستی توبرکولین (PPD) جز کدام دسته از واکنش های ازدیاد حساسیت می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوع یک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوع دو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوع سه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوع چهار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال خودایمنی سندروم لنفوپرولیفراتیو حاصل موتاسیون در کدام یک از ژن های زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">il-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foxp3</t>
   </si>
 </sst>
 </file>
@@ -15046,7 +16214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -15077,10 +16245,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -15210,10 +16374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H900"/>
+  <dimension ref="A1:H977"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A896" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C900" activeCellId="0" sqref="C900"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A972" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F980" activeCellId="0" sqref="F980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21172,7 +22336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="90.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
         <v>1126</v>
       </c>
@@ -21224,7 +22388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="68.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="4" t="s">
         <v>1136</v>
       </c>
@@ -21406,7 +22570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="101.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="5" t="s">
         <v>1169</v>
       </c>
@@ -21848,7 +23012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="5" t="s">
         <v>1250</v>
       </c>
@@ -21874,7 +23038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="101.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="4" t="s">
         <v>1255</v>
       </c>
@@ -23304,7 +24468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="113.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="5" t="s">
         <v>1515</v>
       </c>
@@ -23642,7 +24806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="5" t="s">
         <v>1579</v>
       </c>
@@ -23668,7 +24832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="146.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="5" t="s">
         <v>1584</v>
       </c>
@@ -23694,7 +24858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="124.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="5" t="s">
         <v>1589</v>
       </c>
@@ -23850,7 +25014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
         <v>1620</v>
       </c>
@@ -23876,7 +25040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="146.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="4" t="s">
         <v>1625</v>
       </c>
@@ -23954,7 +25118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="146.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="5" t="s">
         <v>1640</v>
       </c>
@@ -32451,7 +33615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="213.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="5" t="s">
         <v>3179</v>
       </c>
@@ -32477,7 +33641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4" t="s">
         <v>3184</v>
       </c>
@@ -32555,7 +33719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="5" t="s">
         <v>3199</v>
       </c>
@@ -34063,7 +35227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="5" t="s">
         <v>3435</v>
       </c>
@@ -34245,7 +35409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="4" t="s">
         <v>3466</v>
       </c>
@@ -34297,7 +35461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="5" t="s">
         <v>3476</v>
       </c>
@@ -34349,7 +35513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="4" t="s">
         <v>3485</v>
       </c>
@@ -34375,7 +35539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="5" t="s">
         <v>3491</v>
       </c>
@@ -34973,7 +36137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="4" t="s">
         <v>3561</v>
       </c>
@@ -37209,7 +38373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="4" t="s">
         <v>3914</v>
       </c>
@@ -38484,133 +39648,2117 @@
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="0" t="s">
+      <c r="A896" s="4" t="s">
         <v>4117</v>
       </c>
-      <c r="B896" s="0" t="n">
+      <c r="B896" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C896" s="0" t="n">
+      <c r="C896" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D896" s="0" t="n">
+      <c r="D896" s="4" t="n">
         <v>0.667</v>
       </c>
-      <c r="E896" s="0" t="n">
+      <c r="E896" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F896" s="0" t="s">
+      <c r="F896" s="4" t="s">
         <v>3465</v>
       </c>
-      <c r="G896" s="7" t="s">
+      <c r="G896" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H896" s="0" t="n">
+      <c r="H896" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="0" t="s">
+      <c r="A897" s="4" t="s">
         <v>4118</v>
       </c>
-      <c r="B897" s="0" t="s">
+      <c r="B897" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="C897" s="0" t="s">
+      <c r="C897" s="4" t="s">
         <v>4119</v>
       </c>
-      <c r="D897" s="0" t="s">
+      <c r="D897" s="4" t="s">
         <v>4120</v>
       </c>
-      <c r="E897" s="0" t="s">
+      <c r="E897" s="4" t="s">
         <v>3478</v>
       </c>
-      <c r="F897" s="7" t="s">
+      <c r="F897" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G897" s="7" t="s">
+      <c r="G897" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H897" s="0" t="n">
+      <c r="H897" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="135.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="8" t="s">
+      <c r="A898" s="5" t="s">
         <v>4121</v>
       </c>
-      <c r="B898" s="9" t="s">
+      <c r="B898" s="1" t="s">
         <v>4122</v>
       </c>
-      <c r="C898" s="9" t="s">
+      <c r="C898" s="1" t="s">
         <v>4123</v>
       </c>
-      <c r="D898" s="9" t="s">
+      <c r="D898" s="1" t="s">
         <v>4124</v>
       </c>
-      <c r="E898" s="9" t="s">
+      <c r="E898" s="1" t="s">
         <v>4125</v>
       </c>
-      <c r="F898" s="7" t="s">
+      <c r="F898" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G898" s="7" t="s">
+      <c r="G898" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H898" s="0" t="n">
+      <c r="H898" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="0" t="s">
+      <c r="A899" s="4" t="s">
         <v>4126</v>
       </c>
-      <c r="B899" s="0" t="s">
+      <c r="B899" s="4" t="s">
         <v>4127</v>
       </c>
-      <c r="C899" s="0" t="s">
+      <c r="C899" s="4" t="s">
         <v>4128</v>
       </c>
-      <c r="D899" s="0" t="s">
+      <c r="D899" s="4" t="s">
         <v>4129</v>
       </c>
-      <c r="E899" s="0" t="s">
+      <c r="E899" s="4" t="s">
         <v>4130</v>
       </c>
-      <c r="F899" s="7" t="s">
+      <c r="F899" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G899" s="7" t="s">
+      <c r="G899" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H899" s="0" t="n">
+      <c r="H899" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="0" t="s">
+      <c r="A900" s="4" t="s">
         <v>4131</v>
       </c>
-      <c r="B900" s="0" t="s">
+      <c r="B900" s="4" t="s">
         <v>4132</v>
       </c>
-      <c r="C900" s="0" t="s">
+      <c r="C900" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D900" s="4" t="s">
         <v>4133</v>
       </c>
-      <c r="D900" s="0" t="s">
+      <c r="E900" s="4" t="s">
         <v>4134</v>
       </c>
-      <c r="E900" s="0" t="s">
+      <c r="F900" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G900" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H900" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="4" t="s">
         <v>4135</v>
       </c>
-      <c r="F900" s="7" t="s">
-        <v>3465</v>
-      </c>
-      <c r="G900" s="7" t="s">
+      <c r="B901" s="4" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C901" s="4" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D901" s="4" t="s">
+        <v>4138</v>
+      </c>
+      <c r="E901" s="4" t="s">
+        <v>4139</v>
+      </c>
+      <c r="F901" s="4" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G901" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H900" s="0" t="n">
+      <c r="H901" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A902" s="4" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C902" s="4" t="s">
+        <v>4142</v>
+      </c>
+      <c r="D902" s="4" t="s">
+        <v>4143</v>
+      </c>
+      <c r="E902" s="4" t="s">
+        <v>4144</v>
+      </c>
+      <c r="F902" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G902" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H902" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="4" t="s">
+        <v>4145</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>4146</v>
+      </c>
+      <c r="C903" s="4" t="s">
+        <v>4147</v>
+      </c>
+      <c r="D903" s="4" t="s">
+        <v>4148</v>
+      </c>
+      <c r="E903" s="4" t="s">
+        <v>4149</v>
+      </c>
+      <c r="F903" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G903" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H903" s="4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="4" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>4151</v>
+      </c>
+      <c r="C904" s="4" t="s">
+        <v>4152</v>
+      </c>
+      <c r="D904" s="4" t="s">
+        <v>4153</v>
+      </c>
+      <c r="E904" s="4" t="s">
+        <v>4154</v>
+      </c>
+      <c r="F904" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G904" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H904" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A905" s="4" t="s">
+        <v>4155</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>4156</v>
+      </c>
+      <c r="C905" s="4" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D905" s="4" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E905" s="4" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F905" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G905" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H905" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="4" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B906" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D906" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E906" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="F906" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G906" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H906" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="4" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C907" s="4" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D907" s="4" t="s">
+        <v>4168</v>
+      </c>
+      <c r="E907" s="4" t="s">
+        <v>4169</v>
+      </c>
+      <c r="F907" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G907" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H907" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="4" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>4172</v>
+      </c>
+      <c r="D908" s="1" t="s">
+        <v>4173</v>
+      </c>
+      <c r="E908" s="1" t="s">
+        <v>4174</v>
+      </c>
+      <c r="F908" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G908" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H908" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="4" t="s">
+        <v>4175</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C909" s="4" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D909" s="4" t="s">
+        <v>4178</v>
+      </c>
+      <c r="E909" s="4" t="s">
+        <v>4179</v>
+      </c>
+      <c r="F909" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G909" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H909" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="4" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>4142</v>
+      </c>
+      <c r="C910" s="4" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D910" s="4" t="s">
+        <v>4182</v>
+      </c>
+      <c r="E910" s="4" t="s">
+        <v>4144</v>
+      </c>
+      <c r="F910" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G910" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H910" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="4" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C911" s="4" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D911" s="4" t="s">
+        <v>4186</v>
+      </c>
+      <c r="E911" s="4" t="s">
+        <v>4187</v>
+      </c>
+      <c r="F911" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G911" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H911" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="4" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C912" s="4" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D912" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E912" s="4" t="s">
+        <v>4191</v>
+      </c>
+      <c r="F912" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G912" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H912" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="4" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>4193</v>
+      </c>
+      <c r="C913" s="4" t="s">
+        <v>4194</v>
+      </c>
+      <c r="D913" s="4" t="s">
+        <v>4195</v>
+      </c>
+      <c r="E913" s="4" t="s">
+        <v>4196</v>
+      </c>
+      <c r="F913" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G913" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H913" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="4" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C914" s="4" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D914" s="4" t="s">
+        <v>4199</v>
+      </c>
+      <c r="E914" s="4" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F914" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G914" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H914" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="4" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C915" s="4" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D915" s="4" t="s">
+        <v>4202</v>
+      </c>
+      <c r="E915" s="4" t="s">
+        <v>4203</v>
+      </c>
+      <c r="F915" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G915" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H915" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="4" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C916" s="4" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D916" s="4" t="s">
+        <v>4207</v>
+      </c>
+      <c r="E916" s="4" t="s">
+        <v>4208</v>
+      </c>
+      <c r="F916" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G916" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H916" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="4" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C917" s="4" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D917" s="4" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E917" s="4" t="s">
+        <v>4212</v>
+      </c>
+      <c r="F917" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G917" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H917" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="4" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C918" s="4" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D918" s="4" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E918" s="4" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F918" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G918" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H918" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="4" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D919" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E919" s="4" t="s">
+        <v>4218</v>
+      </c>
+      <c r="F919" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G919" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H919" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="4" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C920" s="4" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D920" s="4" t="s">
+        <v>4222</v>
+      </c>
+      <c r="E920" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F920" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G920" s="4" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H920" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="0" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C921" s="7" t="s">
+        <v>4224</v>
+      </c>
+      <c r="D921" s="7" t="s">
+        <v>4225</v>
+      </c>
+      <c r="E921" s="7" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F921" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G921" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H921" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="0" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>4228</v>
+      </c>
+      <c r="C922" s="7" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D922" s="8" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E922" s="8" t="s">
+        <v>4230</v>
+      </c>
+      <c r="F922" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G922" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H922" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="0" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C923" s="0" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D923" s="0" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E923" s="0" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F923" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G923" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H923" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="0" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>4237</v>
+      </c>
+      <c r="C924" s="0" t="s">
+        <v>4238</v>
+      </c>
+      <c r="D924" s="0" t="s">
+        <v>4239</v>
+      </c>
+      <c r="E924" s="0" t="s">
+        <v>4240</v>
+      </c>
+      <c r="F924" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G924" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H924" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="0" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C925" s="0" t="s">
+        <v>4243</v>
+      </c>
+      <c r="D925" s="0" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E925" s="0" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F925" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G925" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H925" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="0" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>4245</v>
+      </c>
+      <c r="C926" s="0" t="s">
+        <v>4246</v>
+      </c>
+      <c r="D926" s="7" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E926" s="8" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F926" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G926" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H926" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="0" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>4249</v>
+      </c>
+      <c r="C927" s="0" t="s">
+        <v>4250</v>
+      </c>
+      <c r="D927" s="0" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E927" s="0" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F927" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G927" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H927" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="0" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>4254</v>
+      </c>
+      <c r="C928" s="0" t="s">
+        <v>4255</v>
+      </c>
+      <c r="D928" s="0" t="s">
+        <v>4256</v>
+      </c>
+      <c r="E928" s="0" t="s">
+        <v>4257</v>
+      </c>
+      <c r="F928" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="G928" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H928" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="0" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>4259</v>
+      </c>
+      <c r="C929" s="0" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D929" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E929" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="F929" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G929" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H929" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="0" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C930" s="0" t="s">
+        <v>4261</v>
+      </c>
+      <c r="D930" s="0" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E930" s="0" t="s">
+        <v>4262</v>
+      </c>
+      <c r="F930" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G930" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H930" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="0" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C931" s="0" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D931" s="0" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E931" s="0" t="s">
+        <v>4267</v>
+      </c>
+      <c r="F931" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G931" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H931" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="0" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C932" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D932" s="0" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E932" s="0" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F932" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G932" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H932" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="0" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C933" s="0" t="s">
+        <v>4272</v>
+      </c>
+      <c r="D933" s="0" t="s">
+        <v>4273</v>
+      </c>
+      <c r="E933" s="0" t="s">
+        <v>4274</v>
+      </c>
+      <c r="F933" s="0" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G933" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H933" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="0" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>4276</v>
+      </c>
+      <c r="C934" s="0" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D934" s="0" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E934" s="0" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F934" s="0" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G934" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H934" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="0" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>4281</v>
+      </c>
+      <c r="C935" s="0" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D935" s="0" t="s">
+        <v>4283</v>
+      </c>
+      <c r="E935" s="0" t="s">
+        <v>4284</v>
+      </c>
+      <c r="F935" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G935" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H935" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="0" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C936" s="0" t="s">
+        <v>4287</v>
+      </c>
+      <c r="D936" s="0" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E936" s="0" t="s">
+        <v>4289</v>
+      </c>
+      <c r="F936" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G936" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H936" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="0" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>4291</v>
+      </c>
+      <c r="C937" s="0" t="s">
+        <v>4292</v>
+      </c>
+      <c r="D937" s="0" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E937" s="0" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F937" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G937" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H937" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="0" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B938" s="7" t="s">
+        <v>4296</v>
+      </c>
+      <c r="C938" s="7" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D938" s="7" t="s">
+        <v>4298</v>
+      </c>
+      <c r="E938" s="8" t="s">
+        <v>4299</v>
+      </c>
+      <c r="F938" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G938" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H938" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="0" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B939" s="7" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C939" s="7" t="s">
+        <v>4302</v>
+      </c>
+      <c r="D939" s="7" t="s">
+        <v>4303</v>
+      </c>
+      <c r="E939" s="8" t="s">
+        <v>4304</v>
+      </c>
+      <c r="F939" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G939" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H939" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="0" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B940" s="7" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C940" s="7" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D940" s="8" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E940" s="8" t="s">
+        <v>4309</v>
+      </c>
+      <c r="F940" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G940" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H940" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="0" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C941" s="0" t="s">
+        <v>4312</v>
+      </c>
+      <c r="D941" s="0" t="s">
+        <v>2642</v>
+      </c>
+      <c r="E941" s="0" t="s">
+        <v>4313</v>
+      </c>
+      <c r="F941" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G941" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H941" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="0" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C942" s="0" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D942" s="0" t="s">
+        <v>4317</v>
+      </c>
+      <c r="E942" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="F942" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G942" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H942" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="0" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C943" s="0" t="s">
+        <v>4320</v>
+      </c>
+      <c r="D943" s="0" t="s">
+        <v>4321</v>
+      </c>
+      <c r="E943" s="0" t="s">
+        <v>4322</v>
+      </c>
+      <c r="F943" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G943" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H943" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="0" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C944" s="0" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D944" s="0" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E944" s="0" t="s">
+        <v>4325</v>
+      </c>
+      <c r="F944" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G944" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H944" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="0" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C945" s="7" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D945" s="7" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E945" s="8" t="s">
+        <v>4330</v>
+      </c>
+      <c r="F945" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G945" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H945" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="0" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B946" s="0" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C946" s="0" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D946" s="0" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E946" s="0" t="s">
+        <v>4335</v>
+      </c>
+      <c r="F946" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G946" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H946" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A947" s="0" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B947" s="0" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C947" s="0" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D947" s="0" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E947" s="0" t="s">
+        <v>4338</v>
+      </c>
+      <c r="F947" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G947" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H947" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A948" s="0" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B948" s="0" t="s">
+        <v>4340</v>
+      </c>
+      <c r="C948" s="0" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D948" s="0" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E948" s="0" t="s">
+        <v>4343</v>
+      </c>
+      <c r="F948" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G948" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H948" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="0" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B949" s="0" t="s">
+        <v>4345</v>
+      </c>
+      <c r="C949" s="0" t="s">
+        <v>4346</v>
+      </c>
+      <c r="D949" s="0" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E949" s="0" t="s">
+        <v>4348</v>
+      </c>
+      <c r="F949" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G949" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H949" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="0" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B950" s="0" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C950" s="7" t="s">
+        <v>4351</v>
+      </c>
+      <c r="D950" s="7" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E950" s="7" t="s">
+        <v>4353</v>
+      </c>
+      <c r="F950" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G950" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H950" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="0" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B951" s="0" t="s">
+        <v>4355</v>
+      </c>
+      <c r="C951" s="0" t="s">
+        <v>4356</v>
+      </c>
+      <c r="D951" s="0" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E951" s="0" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F951" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G951" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H951" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="0" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B952" s="0" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C952" s="7" t="s">
+        <v>4359</v>
+      </c>
+      <c r="D952" s="8" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E952" s="8" t="s">
+        <v>4361</v>
+      </c>
+      <c r="F952" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G952" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H952" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A953" s="0" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B953" s="0" t="s">
+        <v>4363</v>
+      </c>
+      <c r="C953" s="0" t="s">
+        <v>4364</v>
+      </c>
+      <c r="D953" s="0" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E953" s="0" t="s">
+        <v>4366</v>
+      </c>
+      <c r="F953" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G953" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H953" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A954" s="0" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B954" s="0" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C954" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D954" s="0" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E954" s="0" t="s">
+        <v>4370</v>
+      </c>
+      <c r="F954" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G954" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H954" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="0" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B955" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C955" s="0" t="s">
+        <v>4372</v>
+      </c>
+      <c r="D955" s="0" t="s">
+        <v>4373</v>
+      </c>
+      <c r="E955" s="0" t="s">
+        <v>4374</v>
+      </c>
+      <c r="F955" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G955" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H955" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A956" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B956" s="7" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C956" s="7" t="s">
+        <v>4376</v>
+      </c>
+      <c r="D956" s="8" t="s">
+        <v>4377</v>
+      </c>
+      <c r="E956" s="7" t="s">
+        <v>4378</v>
+      </c>
+      <c r="F956" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G956" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H956" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A957" s="0" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B957" s="0" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C957" s="0" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D957" s="0" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E957" s="0" t="s">
+        <v>4383</v>
+      </c>
+      <c r="F957" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G957" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H957" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A958" s="0" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B958" s="0" t="s">
+        <v>4385</v>
+      </c>
+      <c r="C958" s="0" t="s">
+        <v>4386</v>
+      </c>
+      <c r="D958" s="0" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E958" s="0" t="s">
+        <v>4388</v>
+      </c>
+      <c r="F958" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G958" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H958" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A959" s="0" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B959" s="0" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C959" s="0" t="s">
+        <v>4391</v>
+      </c>
+      <c r="D959" s="0" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E959" s="0" t="s">
+        <v>4393</v>
+      </c>
+      <c r="F959" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G959" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H959" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A960" s="0" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B960" s="0" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C960" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D960" s="0" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E960" s="0" t="s">
+        <v>4113</v>
+      </c>
+      <c r="F960" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G960" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H960" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A961" s="0" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B961" s="0" t="s">
+        <v>4399</v>
+      </c>
+      <c r="C961" s="0" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D961" s="0" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E961" s="0" t="s">
+        <v>4402</v>
+      </c>
+      <c r="F961" s="0" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G961" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H961" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A962" s="0" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B962" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C962" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D962" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E962" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F962" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G962" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H962" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A963" s="0" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B963" s="0" t="s">
+        <v>4405</v>
+      </c>
+      <c r="C963" s="0" t="s">
+        <v>4406</v>
+      </c>
+      <c r="D963" s="0" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E963" s="0" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F963" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G963" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H963" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A964" s="0" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B964" s="0" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C964" s="7" t="s">
+        <v>4409</v>
+      </c>
+      <c r="D964" s="7" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E964" s="7" t="s">
+        <v>4411</v>
+      </c>
+      <c r="F964" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G964" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H964" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A965" s="0" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B965" s="0" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C965" s="0" t="s">
+        <v>4414</v>
+      </c>
+      <c r="D965" s="0" t="s">
+        <v>4415</v>
+      </c>
+      <c r="E965" s="0" t="s">
+        <v>4416</v>
+      </c>
+      <c r="F965" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G965" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H965" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A966" s="0" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B966" s="0" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C966" s="0" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D966" s="0" t="s">
+        <v>4420</v>
+      </c>
+      <c r="E966" s="0" t="s">
+        <v>4421</v>
+      </c>
+      <c r="F966" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G966" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H966" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A967" s="0" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B967" s="0" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C967" s="7" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D967" s="7" t="s">
+        <v>4425</v>
+      </c>
+      <c r="E967" s="7" t="s">
+        <v>4426</v>
+      </c>
+      <c r="F967" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G967" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H967" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A968" s="0" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B968" s="0" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C968" s="0" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D968" s="0" t="s">
+        <v>4430</v>
+      </c>
+      <c r="E968" s="0" t="s">
+        <v>4431</v>
+      </c>
+      <c r="F968" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G968" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H968" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A969" s="0" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B969" s="0" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C969" s="0" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D969" s="0" t="s">
+        <v>4435</v>
+      </c>
+      <c r="E969" s="0" t="s">
+        <v>4436</v>
+      </c>
+      <c r="F969" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G969" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H969" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A970" s="0" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B970" s="0" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C970" s="0" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D970" s="0" t="s">
+        <v>4440</v>
+      </c>
+      <c r="E970" s="0" t="s">
+        <v>4441</v>
+      </c>
+      <c r="F970" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G970" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H970" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A971" s="0" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B971" s="0" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C971" s="0" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D971" s="0" t="s">
+        <v>4445</v>
+      </c>
+      <c r="E971" s="0" t="s">
+        <v>4446</v>
+      </c>
+      <c r="F971" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G971" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H971" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A972" s="0" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B972" s="0" t="s">
+        <v>4448</v>
+      </c>
+      <c r="C972" s="7" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D972" s="8" t="s">
+        <v>4450</v>
+      </c>
+      <c r="E972" s="8" t="s">
+        <v>4451</v>
+      </c>
+      <c r="F972" s="8" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G972" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H972" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A973" s="0" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B973" s="0" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C973" s="0" t="s">
+        <v>4454</v>
+      </c>
+      <c r="D973" s="0" t="s">
+        <v>4455</v>
+      </c>
+      <c r="E973" s="0" t="s">
+        <v>4456</v>
+      </c>
+      <c r="F973" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G973" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H973" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="0" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B974" s="0" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C974" s="0" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D974" s="0" t="s">
+        <v>4460</v>
+      </c>
+      <c r="E974" s="0" t="s">
+        <v>4461</v>
+      </c>
+      <c r="F974" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G974" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H974" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="0" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B975" s="0" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C975" s="7" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D975" s="7" t="s">
+        <v>4465</v>
+      </c>
+      <c r="E975" s="7" t="s">
+        <v>4466</v>
+      </c>
+      <c r="F975" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G975" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H975" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="0" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B976" s="0" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C976" s="0" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D976" s="0" t="s">
+        <v>4470</v>
+      </c>
+      <c r="E976" s="0" t="s">
+        <v>4471</v>
+      </c>
+      <c r="F976" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G976" s="7" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H976" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F977" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G977" s="7" t="s">
+        <v>3954</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6776" uniqueCount="4472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="5019">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -15250,23 +15250,7 @@
     <t xml:space="preserve">در مسمویت غذایی ناشی از کدام یک از باکتری های زیر کشت مدفوع در تشخیص قطعی آزمایشگاهی فاقد ارزش است؟</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">باسیلوس سر</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئوس</t>
-    </r>
+    <t xml:space="preserve">باسیلوس سرئوس</t>
   </si>
   <si>
     <t xml:space="preserve">کلستریدیوم پرفرنجنس</t>
@@ -15299,23 +15283,7 @@
     <t xml:space="preserve">کربونکل</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">فعال کننده های پروت</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئاز ویروسی در درمان کدام عفونت ویروسی زیر کاربرد دارند؟</t>
-    </r>
+    <t xml:space="preserve">فعال کننده های پروتئاز ویروسی در درمان کدام عفونت ویروسی زیر کاربرد دارند؟</t>
   </si>
   <si>
     <t xml:space="preserve">cmv</t>
@@ -15366,23 +15334,7 @@
     <t xml:space="preserve">تب زرد</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">در محل ترمیم یک زخم پوستی ناشی از چاقو در صورت مرد سی ساله کلویید تشکیل شده است. بیش از حد بودن کدام یک از عوامل زیر منجر به ایجاد کلو</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئید شده است؟</t>
-    </r>
+    <t xml:space="preserve">در محل ترمیم یک زخم پوستی ناشی از چاقو در صورت مرد سی ساله کلویید تشکیل شده است. بیش از حد بودن کدام یک از عوامل زیر منجر به ایجاد کلوئید شده است؟</t>
   </si>
   <si>
     <t xml:space="preserve">آنژیوژنز</t>
@@ -15427,23 +15379,7 @@
     <t xml:space="preserve">سیستم کینین</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">کدام یک از موارد زیر در افتراق ن</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئوپلاسم های بدخیم از خوش خیم اهمیت بیشتری دارد؟</t>
-    </r>
+    <t xml:space="preserve">کدام یک از موارد زیر در افتراق نئوپلاسم های بدخیم از خوش خیم اهمیت بیشتری دارد؟</t>
   </si>
   <si>
     <t xml:space="preserve">تمایز سلول های توموری</t>
@@ -15473,23 +15409,7 @@
     <t xml:space="preserve">افزایش فشار هیدرواستاتیک</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">در بررسی یک ضایعه ریوی نکروز مرکزی پنیری ارتشاح ماکروفاژ های اپی تلو</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئیدی سلول های غول آسای چند هسته ای لنفوسیت ها و پلاسماسل ها مشهود است این نمای ریخت شناسی بیانگر کدام یک از انواع التهاب می باشد؟</t>
-    </r>
+    <t xml:space="preserve">در بررسی یک ضایعه ریوی نکروز مرکزی پنیری ارتشاح ماکروفاژ های اپی تلوئیدی سلول های غول آسای چند هسته ای لنفوسیت ها و پلاسماسل ها مشهود است این نمای ریخت شناسی بیانگر کدام یک از انواع التهاب می باشد؟</t>
   </si>
   <si>
     <t xml:space="preserve">التهاب چرکی</t>
@@ -15528,23 +15448,7 @@
     <t xml:space="preserve">سندروم مارفان</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">است</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئوژنز ایمپرفکتا</t>
-    </r>
+    <t xml:space="preserve">استئوژنز ایمپرفکتا</t>
   </si>
   <si>
     <t xml:space="preserve">سندروم آلپورت</t>
@@ -15655,45 +15559,13 @@
     <t xml:space="preserve">هورمون T3 کجا تولید میشود؟</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">به طور برابر از غده تیرو</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئید و تبدیل محیطی از t4</t>
-    </r>
+    <t xml:space="preserve">به طور برابر از غده تیروئید و تبدیل محیطی از t4</t>
   </si>
   <si>
     <t xml:space="preserve">مقدار کمی از غده تیروئید و عمدتا از تبدیل محیطی t4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">مقدار کل آن از غده </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">تیروئید</t>
-    </r>
+    <t xml:space="preserve">مقدار کل آن از غده تیروئید</t>
   </si>
   <si>
     <t xml:space="preserve">عمدتا از غده تیروئید و مقدار کمی از تبدیل محیطی t4</t>
@@ -15762,23 +15634,7 @@
     <t xml:space="preserve">سنین باروی</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">بعد از یا</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئسگی</t>
-    </r>
+    <t xml:space="preserve">بعد از یائسگی</t>
   </si>
   <si>
     <t xml:space="preserve">کدام یک از موارد زیر از عوامل موضعی کنترل جریان خون محسوب میشود؟  </t>
@@ -15826,23 +15682,7 @@
     <t xml:space="preserve">شکنج زاویه ای نیمکره غالب</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">هسته لوکوس سرل</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ئوس</t>
-    </r>
+    <t xml:space="preserve">هسته لوکوس سرلئوس</t>
   </si>
   <si>
     <t xml:space="preserve">تشکیلات مشبک پل مغزی</t>
@@ -15896,32 +15736,7 @@
     <t xml:space="preserve">تقریبا چند درصد از ژنوم انسان کد کننده پروتئین ها هستند؟</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">در کدام یک از انواع جهش ها به دلیل تشکیل کدون پایان ختم نافرجام سنتز </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">پروتئین اتفاق می افتد.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">در کدام یک از انواع جهش ها به دلیل تشکیل کدون پایان ختم نافرجام سنتز پروتئین اتفاق می افتد. </t>
   </si>
   <si>
     <t xml:space="preserve">nonsense</t>
@@ -16123,6 +15938,1656 @@
   </si>
   <si>
     <t xml:space="preserve">foxp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد واکسیناسیون علیه هپاتیت B انسانی (HBV) استفاده از چه نوع واکسنی می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زنده ضعیف شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوترکیب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کونژوگه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکسن بر پایه dna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از بیماری های نقص ایمنی اولیه بد شکلی صورت (facial deformity) از علایم ظاهری بارز می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم دی جرج </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندروم بروتون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آتاکسی – تلانژکتازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چدیاک – هیگالشی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مولکول CTLA-4 به عنوان مهار کننده رقابتی کدام مولکول عمل کرده و موجب کاهش در دسترسی مولکول B7 میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد آنتی بادی کلاس IgG صحیح نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمپلمان را از مسیر کلاسیک فعال میکند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارای بیشترین غلظت سرمی است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توانایی عبور از جفت را دارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارای کمترین نیمه عمر سرمی است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد مولکول های MHC کلاس یک صحیح نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بر سطح تمامی سلول های هسته دار بیان میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در عرضه پپتید های آنتی ژنی به سلول های +t cd8 نقش دارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از دو زنجیره یکسان تشکیل شده است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در عرضه آنتی ژن های توموری نقش دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مسیر تمایز لنفوسیت B کدام سلول دارای ملکول IgD غشایی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mature B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immature B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small Pre B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larg Pre B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از بافت های لنفاوی مسئول اصلی ایجاد پاسخ علیه آنتی ژن های ورودی به گردش خون است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غدد لنفاوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلاک های پی بر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از روش های زیر بخشی از مکانیسم های فرار تومور از پاسخ های سیستم ایمنی میزبان نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القای سلول های t تنظیمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تولید سایتوکاین های ضد التهابی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">القای ماکروفاژهای التهابی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغییر آنتی ژنیک تومور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلیکوپروتئین های پوششی gp120 و p41 ویروس HIV با اتصال به کدام مولکول های سطحی سلول های ایمنی باعث آلودگی میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مولکول سطحی cd4 و پذیرنده های کموکاینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مولکول سطحی cd4 و سلکتین ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مولکول سطحی cd8 و پذیرنده های کموکاینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مولکول سطحی cd8 و اینتگرین ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیشترین احتمال بروز واکنش پیوند علیه میزبان (GVHD) در کدام یک از بافت های پیوندی زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیوند کبد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیوند پوست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیوند کلیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیوند مغز استخوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تامین بهداشت کودکان جز محتوای خدمات کدام بنیاد جهانی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unicef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان غلظت مناسب فلوراید آب آشامیدنی برای پیشگیری موثر از پوسیدگی دندانی در مناطقی با آب و هوای معتدل چند ppm است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 to 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher than 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher than 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8 to 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در شبکه مراقبت های اولیه بهداشتی ایران نیروی انسانی شاغل در روستا چه کسی است و محل کارش کجاست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهورز – خانه بهداشت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهورز – پایگاه بهداشتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهیار – خانه بهداشت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کارشناس بهداشت – پایگاه بهداشتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک دوره یک ساله چهل و پنج مورد جدید از یک بیماری به وقوع می پیوندد جمعیت در معرض خطر در این دوره ۴۵۰۰ نفر می باشد میزان بروز بیماری کدام یک از موارد زیر خواهد بود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001*1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1*1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1*1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01*1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد بیماری های غیر واگیر صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشیگیری از آن ها بر پایه مداخله ساده است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شروع و روند پیشرفت این بیماری ها معمولا سریع است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوره نهفتگی این بیماری ها معمولا طولانی است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معمولا دارای یک عامل ایجاد کننده مشخص هستند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بزرگترین تغییر در مفهوم سلامت در سالیان اخیر چه بوده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمرکز از نبود بیماری به مفهومی که ابعاد مختلفی دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از رویکرد پزشک محور به رویکرد بیمار محور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از رویکرد تغییرات جسمی به رویکرد تغییرات اجتماعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از مفهوم تغییرات علایم و نشانه ها به مفهوم عینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دندانی دارای پوسیدگی بسیار جزئی (در حد مینا) در سطح جونده می باشد دندانپزشک برای توقف این پوسیدگی پیشنهاد میکند این دندان فیشور سیلنت (شیار پوش) گردد این مداخله کدام یک از سطوح پیشگیری می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ثالثیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اولیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ثانویه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نخستین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر از اصول مراقبت های اولیه بهداشت نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فن آوری پیشرفته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توزیع عادلانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشارکت جامعه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماهنگی بخش ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام بخش از شاخص پوسیدگی دندانی در دندان های دائمی نشان دهنده دندان های پر شده به علت پوسیدگی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش d از dmft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش F از dmft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش D از dmft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش f از dmft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنس الیاف شارپی در ماتریکس استخوان چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبریلین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دندانپزشکی شهریور 402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام غده اندوکراین دارای سلول های اکسی فیل است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاراتیروئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاخه گیجگاهی عصب فاسیال به تمام گزینه ها عصب می دهد بجز :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempralis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrogator supercilliary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orbicularis occuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auricular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ساختار زیر در دستگاه تنفسی دارای غضروف در دیواره خود می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برونش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برونشیول انتهایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برانشیول تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجاری الوئولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ارگانل در سلولهای پروتئین ساز، گستردگی بیشتری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میتوکندری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلژی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیزوزوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ساختار زیر در نورون در حافظه و یادگیری نقش فعال دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داینئین(Dynein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارهای دندریتی(Dendritic spines)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجسام نیسل(Nissl bodies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تپه اکسونی(Axon hillock)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از استخوانهای زیر منشا جنینی نورال کرست ندارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethmoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عناصر زیر در سطح تحتانی زبان قرار ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingual frenulum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plica fimbrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep lingual veins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulcus terminalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عضله در بالا بردن استخوان فک پایینی در مفصل تمپورومندیبولار نقش ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medial pterygoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masseter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral pterigoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مورد زیر در ارتباط با حس درد و حرارت می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substantia gelatinosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleus proprius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleus dorsalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fasciculus cuneatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حس های درد ولمس دقیق رباط دور دندانی(Periodontal ligament)وارد کدام هسته تالاموس می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventral posterior medial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventral posterior lateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventral lateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventral anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام قسمت زیر در ارتباط با شنوایی می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medial geniculate body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lateral geniculate body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occipital lobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior colliculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام هسته زیر در رفلکس نوری(Light reflex)نقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinger-Westphal nucleus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main trigeminal nucleus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red nucleus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trochlear nucleus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پل مغزی(Pons)از کدام قسمت زیر منشا می گیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metencephalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesencephalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diencephalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telencephalon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرکز حس چشایی در کدام لوب مخ قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parietal lobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal lobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontal lobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متعاقب انسداد شریان مغزی جلویی(Anterior cerebral artery)کدام منطقه زیر آسیب می بیند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cingulate gyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wernicke's speech area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor speech area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuneus gyrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر مجاور عقبی عضله نردبانی قدامی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevertebral fascia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brachial plexus roots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugular vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عضلات زیر از قوس سوم حلقی منشا می گیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensor veli palatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posterior belly of digastric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salpingopharyngeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stylopharyngeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهایی که از داخل غده پاروتید عبور می کند عمقی تر از بقیه واقع شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External carotid artery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retromandibular vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auriculotemporal nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ماهیچه های زیر ورودی حنجره را می بندد ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thyroepiglottic muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryepiglotic muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cricothyroid muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thyroarytenoid muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام بخش از دیواره سینوس فک بالایی با حفره پتریگوپالاتین مجاورت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anterior wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posteromedial wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posterolateral wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roof or superior wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام شریان شاخه ای از شریان کاروتید خارجی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal thoracic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tyrocervical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascending pharyngeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertebral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عضله شیپوراستاش راموقع بلع باز نگه می دارد ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palatopharyngeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buccopharyngeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عقده اوتیک مجاور کدام عصب است ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cordatympany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضله خم کننده زانو در کدام ناحیه از ران قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قدامی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خلفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از به هم پیوستن لامیناهای مهره کدام ساختمان به وجود می آید؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinous process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transverse process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از پوشش های کلیه، غده فوق کلیه را نیز در بر می گیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاشیای کلیوی(Renal fascia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کپسول کلیوی(Renal capsule)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چربی پری رنال(Perirenal fat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چربی پارا رنال(Pararenal fat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام قسمت لوله رحمدارای فیمبریا(Fimbria)می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampulla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intramural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بریدگی قلبی(Cardiac notch)در کدام ساختمان دیده می شود ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایلیوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام ورید از به هم پیوستن وریدهای بازویی-سری(Brachiocephalic)راست و چپ تشكیل میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بزرگ سیاهرگ زبرین(Superior vena cava)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید ژوگولار داخلی(Internal jugular vein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید زیربغلی(Axillary vein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید زیرترقوه ای(Subclavian vein)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاکتور مهار رشد اووسیت توسط کدام سلول زیر ترشح می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های فولیکولار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اووسیت اولیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های تکای خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های نافی تخمدان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک بیشترین فعالیت خونسازی را در هفته دوم جنین بر عهده دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مغز استخوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کیسه زرده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش مادری جفت چه نام دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوریون صاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسیدوای قاعده ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسیدوای کپسولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوریونپرزدار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر مشتقات ستیغ عصبی(Neural Crest)می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameloblasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odontoblasts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrenal cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epithelial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از مویرگ های زیر غشا پایه ناپیوسته مشاهده می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیوسته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منفذ دار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منفذ دار دارای دیافراگم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سینوزوئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شکاف تصفیه ای گلومرول در کلیه توسط کدام یک از سلول های زیر ایجاد میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزانژیال داخل گلومرولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزانژیال خارج گلومرولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پودوسیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آندوتلیال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام ماهیچه زیر مکانیسم انقباض از طریق پروتئین کالمودولین انجام می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جونده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتریگوئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گیجگاهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راست کننده مو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام غده ضمیمه دستگاه گوارش دارای سلول های مرکز آسینی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاروتید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زیرزبانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانالیکولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانال بینابینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ماده زمینهای كدام یک از انواع بافت همبند زیر، هیالورونیک اسید بیشتری وجود دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت همبند موکوسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت همبند متراکم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت همبند رتیکولار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت همبند سست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پل های راسی(tip links)در کارکرد کدام سلول زیر در گوش داخلی اهمیت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های موئی(Hair cell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های انگشتی(phalangeal cells)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های ستونی(Pillar cells)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های غشا دهلیزی(cells of vestibular membrane)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ناحیه زیر در بافت طحال، حاوی سینوزوئیدها و طناب های طحالی می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پالپ قرمز بافت طحال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غلاف لنفی اطراف شریانچه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ندول لنفاوی پالپ سفید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سینوس محیطی پالپ سفید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر، دفع کلیوی فسفات وکلسیم را افزایش می دهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هورمون پاراتیروئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلسیتونین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 هیدروکسی کوله کلسیفرول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلسیتریول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلوراید مهار کننده کدام یک از آنزیم های مسیر گلیکولیز می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انولاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلدولاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فسفوفروکتوکیناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد هاپتوگلوبین صحیح نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناقل هم(Heme)در خون می باشد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یکی از پروتئین های فاز حاد است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در هنگام همولیز از آسیب کلیوی جلوگیری می کند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کم خونی همولیتیک، کاهش می یابد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر پذیرنده نهایی الکترون در زنجیره انتقال الکترون است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytochrome a-a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coenzyme Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر واسطه مسیر انتقال پیام هورمون رشد است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از هورمون های زیر، گلیکوژن فسفریلاز را در کبد مهار می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هورمون رشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از موارد زیر در مورد بیلی روبین غیر مستقیم، صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همان بیلی روبین كونژوگه است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ادرار بیماران مبتلا به یرقان انسدادی دفع می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تجمع آن در مغز منجر به کرنیکتروس می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مجرای صفراوی ترشح می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر فعال کننده آنزیم کربامیل فسفات سنتتاز5است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فومارات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استیل گلوتامات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در اثر عملکرد آنزیم آرژیناز(Arginase)، کدام اسید آمینه تولید می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیترولین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپارتیک اسید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بتا آمینوایزوبوتیریک اسید محصول نهایی تجزیه کدام باز می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تیمین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوراسیل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیتوزین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محصول عمل آدنوزین دآمیناز کدام یک از موارد زیر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اینوزین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در شرایط گرسنگی، منبع انرژی مغز کدام یک از موارد زیر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چربی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کتون بادی ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدهای آمینه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر آنزیم تعیین کننده سرعت(rate limiting)سنتز کلسترول می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoA HMGردوکتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMG CoAلیاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بتا هیدروکسی بوتیرات دهیدروژناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-آلفا هیدروکسیلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان قند خون فردی در فواصل وعده های غذایی کمتر ازحد نرمال استکه با تزریق گلوکاگون افزایش نمی یابد.در این فرد احتمال وجود
+نقص درکدام آنزیم میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوکز6فسفاتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلیکوژن فسفریالز ماهیچه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فسفوفروکتوکینازI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام پروتئین در پروکاریوتها از اتصال دو رشتهDNAدر هنگام همانندسازی پیشگیری می نماید؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام نوع ازDNAپلیمرازها در میتوکندری دارای فعالیت می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α</t>
+  </si>
+  <si>
+    <t xml:space="preserve">β</t>
+  </si>
+  <si>
+    <t xml:space="preserve">γ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ε</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از اسیدهای آمینه زیر، در قسمت داخلی یک پروتئین تا خورده(folded)درمحیط بافری آبی ، قرار میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تیروزین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیستیدین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ویتامین ها ی زیر در سنتز نوروترانسمیترGABAنقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تیامین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیاسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام دسته از آنزیم های زیر، با استفاده از انرژیATP، پیوندهای جدید را می سازند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیدرولاز ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگازها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیازها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکسیدوردوکتازها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر گلیکواسفنگولیپید نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوبوزیدها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سربروزیدها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گانگلیوزیدها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلاسمالوژن ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گلیکوزآمینوگلیکان های زیر فاقد اسید اورونیک می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسید هیالورونیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کندروایتین سولفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">درماتان سولفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کراتان سولفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از هوموپلی ساکاریدهای زیرپلی ساکارید ساختمانی در پلاک های دندانی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نشاسته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دکستران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از اثرات فیزیولوژیکی زیر می تواند به دنبال عبور جریان پر فرکانس از بدن رخ دهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک اعصاب حسی و حرکتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فقط تحریک اعصاب حسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الکترولیز خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوختگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در تصویر برداری فراصوت، بهترین تفکیک پذیری محوری برابر با چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو برابرطول پالس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو برابر طول موج فراصوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نصف اندازه طول پالس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نصف طول موج فراصوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اساس فیزیکی دستگاه داپلکس در سونوگرافی چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از آرایه های فازی و خطی به صورت هم زمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترکیب یک سیستم زمان واقعیB-modeبا آشکار ساز داپلر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از اسکنرهای مکانیکی با سرعت چرخش بسیار زیاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از لامپ اشعه کاتدی و اسکنر مکانیکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برای توموگرافی نشری پوزیترون به کدام یک نیاز اساسی وجود دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راکتور هسته ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سنتیلاتور مایع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسکنرخطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیکلوترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقدار انرژی جذب شده در واحد جرم ماده با کدام کمیت بیان می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میزان جذب ویژه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوز معادل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوز موثر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوز جذبی(جذب شده)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورتیکه در ارزیابی یک بیمار شما صرفابر اینکه او از پس زندگي روزمره اش بر مي اید بدون درنظر گرفتن اجزا مشکل تاکید داشتید؛
+چه دیدگاهی مدنظر بوده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شناخت گرایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کارکردگرایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انسانگرایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکاملی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شخصی به دنبال رهایي از آدم ربایي با همکاري اداره آگاهي حالت های روحي را نشان مي دهد که روانپزشک احتمال تشخیصPTSD(اختلال
+استرس پس از سانحه)را مطرح مي کند؛ کدامیک از علامت ها در این شخص درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال در محتوای تفکر(هذیان)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال درفرایند ادراک(توهم)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرحرفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازسازی مکرر فاجعه رویاها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استاد درس روانشناسی در آموزش تئوری شخصیت بر اساس نظریه های انسان گرایی به این موارد زیر اشاره کرده است.کدام مورد
+جایگاهی در این نظریه دارد و درست بحث شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شخصیت را نتیجه تعادل بین خود واقعی و نهاد می دانند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زیربنای نظریه راجرز؛ اصل واقعیت است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هدف روانشناسی شناخت است نه پیش بینی و کنترل مردم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعامل دو طرفه بین متغیرها، مدخل سلسله مراتب نیازهاي مازلو هست.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امین و اکرم دانشجویان دوره پزشکي عمومی هستند؛ آنها قرار است که در دوره اینترنی با مشورت خانواده ارتباط شان را رسمي کنند.در
+مشاوره پیش از ازدواج موارد زیر در خصوص شخصیت شان مطرح شده است.ویژگی هایی از قبیل برون گرایی، توافق پذیری و انعطاف
+پذیري را در ایشان سنجیده است.نامبردگان به چه آزمونی پاسخ داده اند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMPI-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رورشاخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنج عامل بزرگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک جز حافظه آشکار(خبری)محسوب می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهارت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معنایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرنخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر پیوندی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در آزمایش های کوهلر در مورد بینش که روی شامپانزه ها انجام شد، کدام یک از موارد زیر جزء وجوه اساسی عملکرد شامپانزه ها نبود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دستیابی به تقویت کننده مثبت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر منتظره و ناگهانی بودن کشف راه حل رفتاری یک معضل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قابلیت تعمیم یک راه حل از مشکلی به مشکل دیگر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دسترسی به پاسخ صحیح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری به علت همراهی و مجاورت2 پدیده ورود ماده شیمی درمانی و بوی شوینده اتاق شیمی درمانی؛ نسبت به ماده شوینده همان واکنشی
+را نشان می دهد که به ماده شیمی درمانی داده است(تهوع)از کدام روش می توان بهبودی او کمک کرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شرطی سازی کلاسیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعمیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خاموشی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمیز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر شی در وضعیتی قرارگرفته باشد که مانع دیدن شی دیگر شود ، شی اول را نزدیک تر می پنداریم.این پدیده چه نام دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پوشانندگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارتفاع نسبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندازه سنجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دورنمای خطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در غنی سازی محیط کودک؛ کدام مورد برای کودک سه ماهه مناسب است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عروسک باربی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مکعب اسفنجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماشین کنترلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گربه خاکستری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به دنبال تولد نوزاد؛ در اتاق ارزیابی نوزاد؛ کدام سنجش در صورتی که نوزاد به آن پاسخ ندهد؛ نیازمند پیگیری فوری است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سنجش بینایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سنجش لامسه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سنجش شنوایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سنجش بو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از گونه های لیشمانیا عامل ایجاد کننده لیشمانیوز جلدی-مخاطی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیشمانیا برازیلینسیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیشمانیا تروپیکا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیشمانیا اینفانتوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیشمانیا ماژور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از کرم های زیر دارای مهاجرت ریوی بوده و ممکن است لارو آنان در خلط مشاهده شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تریکوریس تریکیورا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسکاریس لومبریکوئیدس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتروبیوس ورمیکولاریس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیمنولپیس نانا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محل زندگی کدامیک از تک یاخته زیر با بقیه متفاوت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتامبا هیستولیتیکا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تریکوموناس هومینیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتامبا ژنژیوالیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بالانتیدیوم کلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از عفونت های قارچی بر اثر تلقیح جسم خارجی به زیر پوست ایجاد می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">درماتوفیتوزیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوختگی عامل مستعد کننده برای کدام عفونت قارچی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام قارچ موجب بروز استوماتیت دندان مصنوعی می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کریپتوکوکوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپرژیلوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رایزوپوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاندیدا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک در مورد عفونت های کلامیدیایی صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سویه های چشمیChlamydia trachomatisایجاد بیماری تناسلی هم می کنند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در درمان عفونت اورتریت کلامیدیایی پزشک باید درمان علیه گنوکوک را هم تجویز کند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باکتریChlamydia trachomatisماشین سنتز پروتئین را ندارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reticulate bodyتوانایی تکثیرداشته و قدرت انتقال بیماری را دارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئین کدورت یاOpaفاکتور بیماری زایی کدام باکتری زیر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptococcus pyogenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viridans streptococci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staphylococcus aureus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neisseria gonorrhoeae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام از فاکتور های بیماری زایی استرپتوکوکوس پایوژنز با ایجاد مخملک و نشانگان شوک سمی مرتبط است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythrogenic exotoxin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptolysin O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptolysin S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streptokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک در مورد سم دیفتری صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخشAسم دارای گیرنده بر روی بعضی سلول های بدن می باشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخشBبا ریبوزیله کردنEF-5مانع سنتز پروتئین می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخشAبا ریبوزیله کردنEF-5مانع سنتز پروتئین می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخشBسم باعث افزایش فعالیت آدنیالت سیکلاز می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شایع ترین نوع عفونت اکتینومایسس ها کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکتینومایکوز سر و گردنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکتینومایکوز ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکتینومایکوز شکمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکتینومایکوز سیستم عصبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری آنتریت نکروزان(Pig-bel)توسط کدام یک از گونه های کلستریدیوم ایجاد می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلستریدیوم دیفیسیل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلستریدیوم بوتولینوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گونه های باکتریایی زیر عامل التهاب حاد روده همراه با اسهال می باشد و برای رشد نیاز به اتمسفر میکروآئروفیل دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shigella sonnei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmonella enterica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سقط جنین به دنبال التهاب جفت در حیوانات عفونی با بروسال به دلیل وجود کدام فاکتور رشد بروسال در پلاسنتای حیوانات است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوربیتول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اریتریتول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لاکتیتول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زایلیتول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از فاکتورهای ویرولانس بوردتلا پرتوسیس موجب بروز لنفوسیتوز، حساسیت به هیستامین و افزایش ترشح انسولین در بدن بیماران
+می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سم آدنیالت سیکلاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سم درمونکروتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سم پرتوسیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تراکئال سیتوتوکسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در حال حاضر برای پیشگیری از بروز مننژیت در کودکان توسط هموفیلوس آنفلوانزه استفاده از کدام روش پیشنهاد می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری دارویی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکسنPRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال سرم حاوی آنتی بادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غربالگری نوزادان و درمان به موقع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود کدام ماده در دیواره سلولی عامل اصلی ویژگی اسید فاست بودن است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabinogalactan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cord factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabinomannane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long chain mycolic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ضایعه اریتم مهاجر ناشی از عفونت با کدام باکتری زیر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بورلیا رکورنتیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بورلیا بورگدورفری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترپونما پالیدوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لپتوسپیرا اینتروگانس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از پاتوژن های زیر از عوامل شایع عفونت های سوختگی می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاستورلا مالتوسیدا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سودوموناس آئروژینوزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایکینلا کورودنس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام باکتری زیرفقط در انسان بیماری زا می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالمونلا تیفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بوردتلا پاراپرتوسیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بروسلا سوئیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مکانیسم عملکرد توکسینLT-I در پاتوتیپ ETECچیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توقف سنتز پروتئین از طریق اتصال بهEF-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">توقف سنتزپروتئین از طریق اتصال به28SrRNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش سطحcAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش سطحcGMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام باکتری با تولید بیو فیلم به مینای دندان متصل و موجب تشکیل پلاک دندان می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استرپتوکوکوس موتانس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استافیلوکوکوس اپیدرمیدیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام سم استافیلوکوکوس اورئوس در ایجادسندرمSSSSدخالت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterotoxin B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSST-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta toxin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exfoliative toxins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ژن در استافیلوکوکوس ارئوس مقاوم به متی سیلین پروتئین  PBP2aبا تمایل اندک برای اتصال به پنی سیلین های مقاوم به بتالاکتاماز
+تولید می نماید؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mecA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cagA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vacA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از ساختمان های زیر از اجزا اختصاصی دیواره سلولی باکتری های گرم مثبت می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیپوپلی ساکارید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسید تیکوئیک</t>
   </si>
 </sst>
 </file>
@@ -16214,7 +17679,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -16243,11 +17708,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -16374,10 +17843,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H977"/>
+  <dimension ref="A1:H1099"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A972" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F980" activeCellId="0" sqref="F980"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1092" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1103" activeCellId="0" sqref="G1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40298,1467 +41767,4657 @@
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="0" t="s">
+      <c r="A921" s="4" t="s">
         <v>4223</v>
       </c>
-      <c r="B921" s="0" t="s">
+      <c r="B921" s="4" t="s">
         <v>4220</v>
       </c>
-      <c r="C921" s="7" t="s">
+      <c r="C921" s="1" t="s">
         <v>4224</v>
       </c>
-      <c r="D921" s="7" t="s">
+      <c r="D921" s="1" t="s">
         <v>4225</v>
       </c>
-      <c r="E921" s="7" t="s">
+      <c r="E921" s="1" t="s">
         <v>4226</v>
       </c>
-      <c r="F921" s="7" t="s">
+      <c r="F921" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G921" s="7" t="s">
+      <c r="G921" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H921" s="0" t="n">
+      <c r="H921" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="0" t="s">
+      <c r="A922" s="4" t="s">
         <v>4227</v>
       </c>
-      <c r="B922" s="0" t="s">
+      <c r="B922" s="4" t="s">
         <v>4228</v>
       </c>
-      <c r="C922" s="7" t="s">
+      <c r="C922" s="1" t="s">
         <v>4229</v>
       </c>
-      <c r="D922" s="8" t="s">
+      <c r="D922" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="E922" s="8" t="s">
+      <c r="E922" s="1" t="s">
         <v>4230</v>
       </c>
-      <c r="F922" s="7" t="s">
+      <c r="F922" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G922" s="7" t="s">
+      <c r="G922" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H922" s="0" t="n">
+      <c r="H922" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="0" t="s">
+      <c r="A923" s="4" t="s">
         <v>4231</v>
       </c>
-      <c r="B923" s="0" t="s">
+      <c r="B923" s="4" t="s">
         <v>4232</v>
       </c>
-      <c r="C923" s="0" t="s">
+      <c r="C923" s="4" t="s">
         <v>4233</v>
       </c>
-      <c r="D923" s="0" t="s">
+      <c r="D923" s="4" t="s">
         <v>4234</v>
       </c>
-      <c r="E923" s="0" t="s">
+      <c r="E923" s="4" t="s">
         <v>4235</v>
       </c>
-      <c r="F923" s="7" t="s">
+      <c r="F923" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G923" s="7" t="s">
+      <c r="G923" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H923" s="0" t="n">
+      <c r="H923" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="0" t="s">
+      <c r="A924" s="4" t="s">
         <v>4236</v>
       </c>
-      <c r="B924" s="0" t="s">
+      <c r="B924" s="4" t="s">
         <v>4237</v>
       </c>
-      <c r="C924" s="0" t="s">
+      <c r="C924" s="4" t="s">
         <v>4238</v>
       </c>
-      <c r="D924" s="0" t="s">
+      <c r="D924" s="4" t="s">
         <v>4239</v>
       </c>
-      <c r="E924" s="0" t="s">
+      <c r="E924" s="4" t="s">
         <v>4240</v>
       </c>
-      <c r="F924" s="7" t="s">
+      <c r="F924" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G924" s="7" t="s">
+      <c r="G924" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H924" s="0" t="n">
+      <c r="H924" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="0" t="s">
+      <c r="A925" s="4" t="s">
         <v>4241</v>
       </c>
-      <c r="B925" s="0" t="s">
+      <c r="B925" s="4" t="s">
         <v>4242</v>
       </c>
-      <c r="C925" s="0" t="s">
+      <c r="C925" s="4" t="s">
         <v>4243</v>
       </c>
-      <c r="D925" s="0" t="s">
+      <c r="D925" s="4" t="s">
         <v>1945</v>
       </c>
-      <c r="E925" s="0" t="s">
+      <c r="E925" s="4" t="s">
         <v>1946</v>
       </c>
-      <c r="F925" s="7" t="s">
+      <c r="F925" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G925" s="7" t="s">
+      <c r="G925" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H925" s="0" t="n">
+      <c r="H925" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="0" t="s">
+      <c r="A926" s="4" t="s">
         <v>4244</v>
       </c>
-      <c r="B926" s="0" t="s">
+      <c r="B926" s="4" t="s">
         <v>4245</v>
       </c>
-      <c r="C926" s="0" t="s">
+      <c r="C926" s="4" t="s">
         <v>4246</v>
       </c>
-      <c r="D926" s="7" t="s">
+      <c r="D926" s="1" t="s">
         <v>4218</v>
       </c>
-      <c r="E926" s="8" t="s">
+      <c r="E926" s="1" t="s">
         <v>4247</v>
       </c>
-      <c r="F926" s="7" t="s">
+      <c r="F926" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G926" s="7" t="s">
+      <c r="G926" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H926" s="0" t="n">
+      <c r="H926" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="0" t="s">
+      <c r="A927" s="4" t="s">
         <v>4248</v>
       </c>
-      <c r="B927" s="0" t="s">
+      <c r="B927" s="4" t="s">
         <v>4249</v>
       </c>
-      <c r="C927" s="0" t="s">
+      <c r="C927" s="4" t="s">
         <v>4250</v>
       </c>
-      <c r="D927" s="0" t="s">
+      <c r="D927" s="4" t="s">
         <v>4251</v>
       </c>
-      <c r="E927" s="0" t="s">
+      <c r="E927" s="4" t="s">
         <v>4252</v>
       </c>
-      <c r="F927" s="7" t="s">
+      <c r="F927" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G927" s="7" t="s">
+      <c r="G927" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H927" s="0" t="n">
+      <c r="H927" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="0" t="s">
+      <c r="A928" s="4" t="s">
         <v>4253</v>
       </c>
-      <c r="B928" s="0" t="s">
+      <c r="B928" s="4" t="s">
         <v>4254</v>
       </c>
-      <c r="C928" s="0" t="s">
+      <c r="C928" s="4" t="s">
         <v>4255</v>
       </c>
-      <c r="D928" s="0" t="s">
+      <c r="D928" s="4" t="s">
         <v>4256</v>
       </c>
-      <c r="E928" s="0" t="s">
+      <c r="E928" s="4" t="s">
         <v>4257</v>
       </c>
-      <c r="F928" s="0" t="s">
+      <c r="F928" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G928" s="7" t="s">
+      <c r="G928" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H928" s="0" t="n">
+      <c r="H928" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="0" t="s">
+      <c r="A929" s="4" t="s">
         <v>4258</v>
       </c>
-      <c r="B929" s="0" t="s">
+      <c r="B929" s="4" t="s">
         <v>4259</v>
       </c>
-      <c r="C929" s="0" t="s">
+      <c r="C929" s="4" t="s">
         <v>2084</v>
       </c>
-      <c r="D929" s="0" t="s">
+      <c r="D929" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E929" s="0" t="s">
+      <c r="E929" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="F929" s="7" t="s">
+      <c r="F929" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G929" s="7" t="s">
+      <c r="G929" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H929" s="0" t="n">
+      <c r="H929" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="0" t="s">
+      <c r="A930" s="4" t="s">
         <v>4260</v>
       </c>
-      <c r="B930" s="0" t="s">
+      <c r="B930" s="4" t="s">
         <v>2079</v>
       </c>
-      <c r="C930" s="0" t="s">
+      <c r="C930" s="4" t="s">
         <v>4261</v>
       </c>
-      <c r="D930" s="0" t="s">
+      <c r="D930" s="4" t="s">
         <v>2085</v>
       </c>
-      <c r="E930" s="0" t="s">
+      <c r="E930" s="4" t="s">
         <v>4262</v>
       </c>
-      <c r="F930" s="7" t="s">
+      <c r="F930" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G930" s="7" t="s">
+      <c r="G930" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H930" s="0" t="n">
+      <c r="H930" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="0" t="s">
+      <c r="A931" s="4" t="s">
         <v>4263</v>
       </c>
-      <c r="B931" s="0" t="s">
+      <c r="B931" s="4" t="s">
         <v>4264</v>
       </c>
-      <c r="C931" s="0" t="s">
+      <c r="C931" s="4" t="s">
         <v>4265</v>
       </c>
-      <c r="D931" s="0" t="s">
+      <c r="D931" s="4" t="s">
         <v>4266</v>
       </c>
-      <c r="E931" s="0" t="s">
+      <c r="E931" s="4" t="s">
         <v>4267</v>
       </c>
-      <c r="F931" s="7" t="s">
+      <c r="F931" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G931" s="7" t="s">
+      <c r="G931" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H931" s="0" t="n">
+      <c r="H931" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="0" t="s">
+      <c r="A932" s="4" t="s">
         <v>4268</v>
       </c>
-      <c r="B932" s="0" t="s">
+      <c r="B932" s="4" t="s">
         <v>2080</v>
       </c>
-      <c r="C932" s="0" t="s">
+      <c r="C932" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D932" s="0" t="s">
+      <c r="D932" s="4" t="s">
         <v>4269</v>
       </c>
-      <c r="E932" s="0" t="s">
+      <c r="E932" s="4" t="s">
         <v>2089</v>
       </c>
-      <c r="F932" s="7" t="s">
+      <c r="F932" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G932" s="7" t="s">
+      <c r="G932" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H932" s="0" t="n">
+      <c r="H932" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="0" t="s">
+      <c r="A933" s="4" t="s">
         <v>4270</v>
       </c>
-      <c r="B933" s="0" t="s">
+      <c r="B933" s="4" t="s">
         <v>4271</v>
       </c>
-      <c r="C933" s="0" t="s">
+      <c r="C933" s="4" t="s">
         <v>4272</v>
       </c>
-      <c r="D933" s="0" t="s">
+      <c r="D933" s="4" t="s">
         <v>4273</v>
       </c>
-      <c r="E933" s="0" t="s">
+      <c r="E933" s="4" t="s">
         <v>4274</v>
       </c>
-      <c r="F933" s="0" t="s">
+      <c r="F933" s="4" t="s">
         <v>3609</v>
       </c>
-      <c r="G933" s="7" t="s">
+      <c r="G933" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H933" s="0" t="n">
+      <c r="H933" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="0" t="s">
+      <c r="A934" s="4" t="s">
         <v>4275</v>
       </c>
-      <c r="B934" s="0" t="s">
+      <c r="B934" s="4" t="s">
         <v>4276</v>
       </c>
-      <c r="C934" s="0" t="s">
+      <c r="C934" s="4" t="s">
         <v>4277</v>
       </c>
-      <c r="D934" s="0" t="s">
+      <c r="D934" s="4" t="s">
         <v>4278</v>
       </c>
-      <c r="E934" s="0" t="s">
+      <c r="E934" s="4" t="s">
         <v>4279</v>
       </c>
-      <c r="F934" s="0" t="s">
+      <c r="F934" s="4" t="s">
         <v>3609</v>
       </c>
-      <c r="G934" s="7" t="s">
+      <c r="G934" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H934" s="0" t="n">
+      <c r="H934" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="0" t="s">
+      <c r="A935" s="4" t="s">
         <v>4280</v>
       </c>
-      <c r="B935" s="0" t="s">
+      <c r="B935" s="4" t="s">
         <v>4281</v>
       </c>
-      <c r="C935" s="0" t="s">
+      <c r="C935" s="4" t="s">
         <v>4282</v>
       </c>
-      <c r="D935" s="0" t="s">
+      <c r="D935" s="4" t="s">
         <v>4283</v>
       </c>
-      <c r="E935" s="0" t="s">
+      <c r="E935" s="4" t="s">
         <v>4284</v>
       </c>
-      <c r="F935" s="7" t="s">
+      <c r="F935" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G935" s="7" t="s">
+      <c r="G935" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H935" s="0" t="n">
+      <c r="H935" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="0" t="s">
+      <c r="A936" s="4" t="s">
         <v>4285</v>
       </c>
-      <c r="B936" s="0" t="s">
+      <c r="B936" s="4" t="s">
         <v>4286</v>
       </c>
-      <c r="C936" s="0" t="s">
+      <c r="C936" s="4" t="s">
         <v>4287</v>
       </c>
-      <c r="D936" s="0" t="s">
+      <c r="D936" s="4" t="s">
         <v>4288</v>
       </c>
-      <c r="E936" s="0" t="s">
+      <c r="E936" s="4" t="s">
         <v>4289</v>
       </c>
-      <c r="F936" s="7" t="s">
+      <c r="F936" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G936" s="7" t="s">
+      <c r="G936" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H936" s="0" t="n">
+      <c r="H936" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="0" t="s">
+      <c r="A937" s="4" t="s">
         <v>4290</v>
       </c>
-      <c r="B937" s="0" t="s">
+      <c r="B937" s="4" t="s">
         <v>4291</v>
       </c>
-      <c r="C937" s="0" t="s">
+      <c r="C937" s="4" t="s">
         <v>4292</v>
       </c>
-      <c r="D937" s="0" t="s">
+      <c r="D937" s="4" t="s">
         <v>4293</v>
       </c>
-      <c r="E937" s="0" t="s">
+      <c r="E937" s="4" t="s">
         <v>4294</v>
       </c>
-      <c r="F937" s="7" t="s">
+      <c r="F937" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G937" s="7" t="s">
+      <c r="G937" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H937" s="0" t="n">
+      <c r="H937" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="0" t="s">
+      <c r="A938" s="4" t="s">
         <v>4295</v>
       </c>
-      <c r="B938" s="7" t="s">
+      <c r="B938" s="1" t="s">
         <v>4296</v>
       </c>
-      <c r="C938" s="7" t="s">
+      <c r="C938" s="1" t="s">
         <v>4297</v>
       </c>
-      <c r="D938" s="7" t="s">
+      <c r="D938" s="1" t="s">
         <v>4298</v>
       </c>
-      <c r="E938" s="8" t="s">
+      <c r="E938" s="1" t="s">
         <v>4299</v>
       </c>
-      <c r="F938" s="7" t="s">
+      <c r="F938" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G938" s="7" t="s">
+      <c r="G938" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H938" s="0" t="n">
+      <c r="H938" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="0" t="s">
+      <c r="A939" s="4" t="s">
         <v>4300</v>
       </c>
-      <c r="B939" s="7" t="s">
+      <c r="B939" s="1" t="s">
         <v>4301</v>
       </c>
-      <c r="C939" s="7" t="s">
+      <c r="C939" s="1" t="s">
         <v>4302</v>
       </c>
-      <c r="D939" s="7" t="s">
+      <c r="D939" s="1" t="s">
         <v>4303</v>
       </c>
-      <c r="E939" s="8" t="s">
+      <c r="E939" s="1" t="s">
         <v>4304</v>
       </c>
-      <c r="F939" s="7" t="s">
+      <c r="F939" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G939" s="7" t="s">
+      <c r="G939" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H939" s="0" t="n">
+      <c r="H939" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="0" t="s">
+      <c r="A940" s="4" t="s">
         <v>4305</v>
       </c>
-      <c r="B940" s="7" t="s">
+      <c r="B940" s="1" t="s">
         <v>4306</v>
       </c>
-      <c r="C940" s="7" t="s">
+      <c r="C940" s="1" t="s">
         <v>4307</v>
       </c>
-      <c r="D940" s="8" t="s">
+      <c r="D940" s="1" t="s">
         <v>4308</v>
       </c>
-      <c r="E940" s="8" t="s">
+      <c r="E940" s="1" t="s">
         <v>4309</v>
       </c>
-      <c r="F940" s="7" t="s">
+      <c r="F940" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G940" s="7" t="s">
+      <c r="G940" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H940" s="0" t="n">
+      <c r="H940" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="0" t="s">
+      <c r="A941" s="4" t="s">
         <v>4310</v>
       </c>
-      <c r="B941" s="0" t="s">
+      <c r="B941" s="4" t="s">
         <v>4311</v>
       </c>
-      <c r="C941" s="0" t="s">
+      <c r="C941" s="4" t="s">
         <v>4312</v>
       </c>
-      <c r="D941" s="0" t="s">
+      <c r="D941" s="4" t="s">
         <v>2642</v>
       </c>
-      <c r="E941" s="0" t="s">
+      <c r="E941" s="4" t="s">
         <v>4313</v>
       </c>
-      <c r="F941" s="0" t="s">
+      <c r="F941" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G941" s="7" t="s">
+      <c r="G941" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H941" s="0" t="n">
+      <c r="H941" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="0" t="s">
+      <c r="A942" s="4" t="s">
         <v>4314</v>
       </c>
-      <c r="B942" s="0" t="s">
+      <c r="B942" s="4" t="s">
         <v>4315</v>
       </c>
-      <c r="C942" s="0" t="s">
+      <c r="C942" s="4" t="s">
         <v>4316</v>
       </c>
-      <c r="D942" s="0" t="s">
+      <c r="D942" s="4" t="s">
         <v>4317</v>
       </c>
-      <c r="E942" s="0" t="s">
+      <c r="E942" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F942" s="7" t="s">
+      <c r="F942" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G942" s="7" t="s">
+      <c r="G942" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H942" s="0" t="n">
+      <c r="H942" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="0" t="s">
+      <c r="A943" s="4" t="s">
         <v>4318</v>
       </c>
-      <c r="B943" s="0" t="s">
+      <c r="B943" s="4" t="s">
         <v>4319</v>
       </c>
-      <c r="C943" s="0" t="s">
+      <c r="C943" s="4" t="s">
         <v>4320</v>
       </c>
-      <c r="D943" s="0" t="s">
+      <c r="D943" s="4" t="s">
         <v>4321</v>
       </c>
-      <c r="E943" s="0" t="s">
+      <c r="E943" s="4" t="s">
         <v>4322</v>
       </c>
-      <c r="F943" s="7" t="s">
+      <c r="F943" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G943" s="7" t="s">
+      <c r="G943" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H943" s="0" t="n">
+      <c r="H943" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="0" t="s">
+      <c r="A944" s="4" t="s">
         <v>4323</v>
       </c>
-      <c r="B944" s="0" t="s">
+      <c r="B944" s="4" t="s">
         <v>4324</v>
       </c>
-      <c r="C944" s="0" t="s">
+      <c r="C944" s="4" t="s">
         <v>1786</v>
       </c>
-      <c r="D944" s="0" t="s">
+      <c r="D944" s="4" t="s">
         <v>1785</v>
       </c>
-      <c r="E944" s="0" t="s">
+      <c r="E944" s="4" t="s">
         <v>4325</v>
       </c>
-      <c r="F944" s="7" t="s">
+      <c r="F944" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G944" s="7" t="s">
+      <c r="G944" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H944" s="0" t="n">
+      <c r="H944" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="0" t="s">
+      <c r="A945" s="4" t="s">
         <v>4326</v>
       </c>
-      <c r="B945" s="0" t="s">
+      <c r="B945" s="4" t="s">
         <v>4327</v>
       </c>
-      <c r="C945" s="7" t="s">
+      <c r="C945" s="1" t="s">
         <v>4328</v>
       </c>
-      <c r="D945" s="7" t="s">
+      <c r="D945" s="1" t="s">
         <v>4329</v>
       </c>
-      <c r="E945" s="8" t="s">
+      <c r="E945" s="1" t="s">
         <v>4330</v>
       </c>
-      <c r="F945" s="7" t="s">
+      <c r="F945" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G945" s="7" t="s">
+      <c r="G945" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H945" s="0" t="n">
+      <c r="H945" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="0" t="s">
+      <c r="A946" s="4" t="s">
         <v>4331</v>
       </c>
-      <c r="B946" s="0" t="s">
+      <c r="B946" s="4" t="s">
         <v>4332</v>
       </c>
-      <c r="C946" s="0" t="s">
+      <c r="C946" s="4" t="s">
         <v>4333</v>
       </c>
-      <c r="D946" s="0" t="s">
+      <c r="D946" s="4" t="s">
         <v>4334</v>
       </c>
-      <c r="E946" s="0" t="s">
+      <c r="E946" s="4" t="s">
         <v>4335</v>
       </c>
-      <c r="F946" s="7" t="s">
+      <c r="F946" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G946" s="7" t="s">
+      <c r="G946" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H946" s="0" t="n">
+      <c r="H946" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="0" t="s">
+      <c r="A947" s="4" t="s">
         <v>4336</v>
       </c>
-      <c r="B947" s="0" t="s">
+      <c r="B947" s="4" t="s">
         <v>2558</v>
       </c>
-      <c r="C947" s="0" t="s">
+      <c r="C947" s="4" t="s">
         <v>3438</v>
       </c>
-      <c r="D947" s="0" t="s">
+      <c r="D947" s="4" t="s">
         <v>4337</v>
       </c>
-      <c r="E947" s="0" t="s">
+      <c r="E947" s="4" t="s">
         <v>4338</v>
       </c>
-      <c r="F947" s="7" t="s">
+      <c r="F947" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G947" s="7" t="s">
+      <c r="G947" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H947" s="0" t="n">
+      <c r="H947" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="0" t="s">
+      <c r="A948" s="4" t="s">
         <v>4339</v>
       </c>
-      <c r="B948" s="0" t="s">
+      <c r="B948" s="4" t="s">
         <v>4340</v>
       </c>
-      <c r="C948" s="0" t="s">
+      <c r="C948" s="4" t="s">
         <v>4341</v>
       </c>
-      <c r="D948" s="0" t="s">
+      <c r="D948" s="4" t="s">
         <v>4342</v>
       </c>
-      <c r="E948" s="0" t="s">
+      <c r="E948" s="4" t="s">
         <v>4343</v>
       </c>
-      <c r="F948" s="7" t="s">
+      <c r="F948" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G948" s="7" t="s">
+      <c r="G948" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H948" s="0" t="n">
+      <c r="H948" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="0" t="s">
+      <c r="A949" s="4" t="s">
         <v>4344</v>
       </c>
-      <c r="B949" s="0" t="s">
+      <c r="B949" s="4" t="s">
         <v>4345</v>
       </c>
-      <c r="C949" s="0" t="s">
+      <c r="C949" s="4" t="s">
         <v>4346</v>
       </c>
-      <c r="D949" s="0" t="s">
+      <c r="D949" s="4" t="s">
         <v>4347</v>
       </c>
-      <c r="E949" s="0" t="s">
+      <c r="E949" s="4" t="s">
         <v>4348</v>
       </c>
-      <c r="F949" s="7" t="s">
+      <c r="F949" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G949" s="7" t="s">
+      <c r="G949" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H949" s="0" t="n">
+      <c r="H949" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="0" t="s">
+      <c r="A950" s="4" t="s">
         <v>4349</v>
       </c>
-      <c r="B950" s="0" t="s">
+      <c r="B950" s="4" t="s">
         <v>4350</v>
       </c>
-      <c r="C950" s="7" t="s">
+      <c r="C950" s="1" t="s">
         <v>4351</v>
       </c>
-      <c r="D950" s="7" t="s">
+      <c r="D950" s="1" t="s">
         <v>4352</v>
       </c>
-      <c r="E950" s="7" t="s">
+      <c r="E950" s="1" t="s">
         <v>4353</v>
       </c>
-      <c r="F950" s="7" t="s">
+      <c r="F950" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G950" s="7" t="s">
+      <c r="G950" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H950" s="0" t="n">
+      <c r="H950" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="0" t="s">
+      <c r="A951" s="4" t="s">
         <v>4354</v>
       </c>
-      <c r="B951" s="0" t="s">
+      <c r="B951" s="4" t="s">
         <v>4355</v>
       </c>
-      <c r="C951" s="0" t="s">
+      <c r="C951" s="4" t="s">
         <v>4356</v>
       </c>
-      <c r="D951" s="0" t="s">
+      <c r="D951" s="4" t="s">
         <v>1850</v>
       </c>
-      <c r="E951" s="0" t="s">
+      <c r="E951" s="4" t="s">
         <v>1851</v>
       </c>
-      <c r="F951" s="7" t="s">
+      <c r="F951" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G951" s="7" t="s">
+      <c r="G951" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H951" s="0" t="n">
+      <c r="H951" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="0" t="s">
+      <c r="A952" s="4" t="s">
         <v>4357</v>
       </c>
-      <c r="B952" s="0" t="s">
+      <c r="B952" s="4" t="s">
         <v>4358</v>
       </c>
-      <c r="C952" s="7" t="s">
+      <c r="C952" s="1" t="s">
         <v>4359</v>
       </c>
-      <c r="D952" s="8" t="s">
+      <c r="D952" s="1" t="s">
         <v>4360</v>
       </c>
-      <c r="E952" s="8" t="s">
+      <c r="E952" s="1" t="s">
         <v>4361</v>
       </c>
-      <c r="F952" s="7" t="s">
+      <c r="F952" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G952" s="7" t="s">
+      <c r="G952" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H952" s="0" t="n">
+      <c r="H952" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="0" t="s">
+      <c r="A953" s="4" t="s">
         <v>4362</v>
       </c>
-      <c r="B953" s="0" t="s">
+      <c r="B953" s="4" t="s">
         <v>4363</v>
       </c>
-      <c r="C953" s="0" t="s">
+      <c r="C953" s="4" t="s">
         <v>4364</v>
       </c>
-      <c r="D953" s="0" t="s">
+      <c r="D953" s="4" t="s">
         <v>4365</v>
       </c>
-      <c r="E953" s="0" t="s">
+      <c r="E953" s="4" t="s">
         <v>4366</v>
       </c>
-      <c r="F953" s="7" t="s">
+      <c r="F953" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G953" s="7" t="s">
+      <c r="G953" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H953" s="0" t="n">
+      <c r="H953" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="0" t="s">
+      <c r="A954" s="4" t="s">
         <v>4367</v>
       </c>
-      <c r="B954" s="0" t="s">
+      <c r="B954" s="4" t="s">
         <v>4368</v>
       </c>
-      <c r="C954" s="0" t="s">
+      <c r="C954" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="D954" s="0" t="s">
+      <c r="D954" s="4" t="s">
         <v>4369</v>
       </c>
-      <c r="E954" s="0" t="s">
+      <c r="E954" s="4" t="s">
         <v>4370</v>
       </c>
-      <c r="F954" s="7" t="s">
+      <c r="F954" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G954" s="7" t="s">
+      <c r="G954" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H954" s="0" t="n">
+      <c r="H954" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="0" t="s">
+      <c r="A955" s="4" t="s">
         <v>4371</v>
       </c>
-      <c r="B955" s="0" t="s">
+      <c r="B955" s="4" t="s">
         <v>1708</v>
       </c>
-      <c r="C955" s="0" t="s">
+      <c r="C955" s="4" t="s">
         <v>4372</v>
       </c>
-      <c r="D955" s="0" t="s">
+      <c r="D955" s="4" t="s">
         <v>4373</v>
       </c>
-      <c r="E955" s="0" t="s">
+      <c r="E955" s="4" t="s">
         <v>4374</v>
       </c>
-      <c r="F955" s="7" t="s">
+      <c r="F955" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G955" s="7" t="s">
+      <c r="G955" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H955" s="0" t="n">
+      <c r="H955" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="7" t="s">
+      <c r="A956" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="B956" s="7" t="s">
+      <c r="B956" s="1" t="s">
         <v>4375</v>
       </c>
-      <c r="C956" s="7" t="s">
+      <c r="C956" s="1" t="s">
         <v>4376</v>
       </c>
-      <c r="D956" s="8" t="s">
+      <c r="D956" s="1" t="s">
         <v>4377</v>
       </c>
-      <c r="E956" s="7" t="s">
+      <c r="E956" s="1" t="s">
         <v>4378</v>
       </c>
-      <c r="F956" s="7" t="s">
+      <c r="F956" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G956" s="7" t="s">
+      <c r="G956" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H956" s="0" t="n">
+      <c r="H956" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="0" t="s">
+      <c r="A957" s="4" t="s">
         <v>4379</v>
       </c>
-      <c r="B957" s="0" t="s">
+      <c r="B957" s="4" t="s">
         <v>4380</v>
       </c>
-      <c r="C957" s="0" t="s">
+      <c r="C957" s="4" t="s">
         <v>4381</v>
       </c>
-      <c r="D957" s="0" t="s">
+      <c r="D957" s="4" t="s">
         <v>4382</v>
       </c>
-      <c r="E957" s="0" t="s">
+      <c r="E957" s="4" t="s">
         <v>4383</v>
       </c>
-      <c r="F957" s="7" t="s">
+      <c r="F957" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G957" s="7" t="s">
+      <c r="G957" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H957" s="0" t="n">
+      <c r="H957" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="0" t="s">
+      <c r="A958" s="4" t="s">
         <v>4384</v>
       </c>
-      <c r="B958" s="0" t="s">
+      <c r="B958" s="4" t="s">
         <v>4385</v>
       </c>
-      <c r="C958" s="0" t="s">
+      <c r="C958" s="4" t="s">
         <v>4386</v>
       </c>
-      <c r="D958" s="0" t="s">
+      <c r="D958" s="4" t="s">
         <v>4387</v>
       </c>
-      <c r="E958" s="0" t="s">
+      <c r="E958" s="4" t="s">
         <v>4388</v>
       </c>
-      <c r="F958" s="7" t="s">
+      <c r="F958" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G958" s="7" t="s">
+      <c r="G958" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H958" s="0" t="n">
+      <c r="H958" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="0" t="s">
+      <c r="A959" s="4" t="s">
         <v>4389</v>
       </c>
-      <c r="B959" s="0" t="s">
+      <c r="B959" s="4" t="s">
         <v>4390</v>
       </c>
-      <c r="C959" s="0" t="s">
+      <c r="C959" s="4" t="s">
         <v>4391</v>
       </c>
-      <c r="D959" s="0" t="s">
+      <c r="D959" s="4" t="s">
         <v>4392</v>
       </c>
-      <c r="E959" s="0" t="s">
+      <c r="E959" s="4" t="s">
         <v>4393</v>
       </c>
-      <c r="F959" s="7" t="s">
+      <c r="F959" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G959" s="7" t="s">
+      <c r="G959" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H959" s="0" t="n">
+      <c r="H959" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="0" t="s">
+      <c r="A960" s="4" t="s">
         <v>4394</v>
       </c>
-      <c r="B960" s="0" t="s">
+      <c r="B960" s="4" t="s">
         <v>4395</v>
       </c>
-      <c r="C960" s="0" t="s">
+      <c r="C960" s="4" t="s">
         <v>4396</v>
       </c>
-      <c r="D960" s="0" t="s">
+      <c r="D960" s="4" t="s">
         <v>4397</v>
       </c>
-      <c r="E960" s="0" t="s">
+      <c r="E960" s="4" t="s">
         <v>4113</v>
       </c>
-      <c r="F960" s="7" t="s">
+      <c r="F960" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G960" s="7" t="s">
+      <c r="G960" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H960" s="0" t="n">
+      <c r="H960" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="0" t="s">
+      <c r="A961" s="4" t="s">
         <v>4398</v>
       </c>
-      <c r="B961" s="0" t="s">
+      <c r="B961" s="4" t="s">
         <v>4399</v>
       </c>
-      <c r="C961" s="0" t="s">
+      <c r="C961" s="4" t="s">
         <v>4400</v>
       </c>
-      <c r="D961" s="0" t="s">
+      <c r="D961" s="4" t="s">
         <v>4401</v>
       </c>
-      <c r="E961" s="0" t="s">
+      <c r="E961" s="4" t="s">
         <v>4402</v>
       </c>
-      <c r="F961" s="0" t="s">
+      <c r="F961" s="4" t="s">
         <v>3790</v>
       </c>
-      <c r="G961" s="7" t="s">
+      <c r="G961" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H961" s="0" t="n">
+      <c r="H961" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="0" t="s">
+      <c r="A962" s="4" t="s">
         <v>4403</v>
       </c>
-      <c r="B962" s="0" t="n">
+      <c r="B962" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C962" s="0" t="n">
+      <c r="C962" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D962" s="0" t="n">
+      <c r="D962" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="E962" s="0" t="n">
+      <c r="E962" s="4" t="n">
         <v>98</v>
       </c>
-      <c r="F962" s="7" t="s">
+      <c r="F962" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G962" s="7" t="s">
+      <c r="G962" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H962" s="0" t="n">
+      <c r="H962" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="0" t="s">
+      <c r="A963" s="4" t="s">
         <v>4404</v>
       </c>
-      <c r="B963" s="0" t="s">
+      <c r="B963" s="4" t="s">
         <v>4405</v>
       </c>
-      <c r="C963" s="0" t="s">
+      <c r="C963" s="4" t="s">
         <v>4406</v>
       </c>
-      <c r="D963" s="0" t="s">
+      <c r="D963" s="4" t="s">
         <v>1970</v>
       </c>
-      <c r="E963" s="0" t="s">
+      <c r="E963" s="4" t="s">
         <v>1971</v>
       </c>
-      <c r="F963" s="7" t="s">
+      <c r="F963" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G963" s="7" t="s">
+      <c r="G963" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H963" s="0" t="n">
+      <c r="H963" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="0" t="s">
+      <c r="A964" s="4" t="s">
         <v>4407</v>
       </c>
-      <c r="B964" s="0" t="s">
+      <c r="B964" s="4" t="s">
         <v>4408</v>
       </c>
-      <c r="C964" s="7" t="s">
+      <c r="C964" s="1" t="s">
         <v>4409</v>
       </c>
-      <c r="D964" s="7" t="s">
+      <c r="D964" s="1" t="s">
         <v>4410</v>
       </c>
-      <c r="E964" s="7" t="s">
+      <c r="E964" s="1" t="s">
         <v>4411</v>
       </c>
-      <c r="F964" s="7" t="s">
+      <c r="F964" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G964" s="7" t="s">
+      <c r="G964" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H964" s="0" t="n">
+      <c r="H964" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="0" t="s">
+      <c r="A965" s="4" t="s">
         <v>4412</v>
       </c>
-      <c r="B965" s="0" t="s">
+      <c r="B965" s="4" t="s">
         <v>4413</v>
       </c>
-      <c r="C965" s="0" t="s">
+      <c r="C965" s="4" t="s">
         <v>4414</v>
       </c>
-      <c r="D965" s="0" t="s">
+      <c r="D965" s="4" t="s">
         <v>4415</v>
       </c>
-      <c r="E965" s="0" t="s">
+      <c r="E965" s="4" t="s">
         <v>4416</v>
       </c>
-      <c r="F965" s="7" t="s">
+      <c r="F965" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G965" s="7" t="s">
+      <c r="G965" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H965" s="0" t="n">
+      <c r="H965" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="0" t="s">
+      <c r="A966" s="4" t="s">
         <v>4417</v>
       </c>
-      <c r="B966" s="0" t="s">
+      <c r="B966" s="4" t="s">
         <v>4418</v>
       </c>
-      <c r="C966" s="0" t="s">
+      <c r="C966" s="4" t="s">
         <v>4419</v>
       </c>
-      <c r="D966" s="0" t="s">
+      <c r="D966" s="4" t="s">
         <v>4420</v>
       </c>
-      <c r="E966" s="0" t="s">
+      <c r="E966" s="4" t="s">
         <v>4421</v>
       </c>
-      <c r="F966" s="7" t="s">
+      <c r="F966" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G966" s="7" t="s">
+      <c r="G966" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H966" s="0" t="n">
+      <c r="H966" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="0" t="s">
+      <c r="A967" s="4" t="s">
         <v>4422</v>
       </c>
-      <c r="B967" s="0" t="s">
+      <c r="B967" s="4" t="s">
         <v>4423</v>
       </c>
-      <c r="C967" s="7" t="s">
+      <c r="C967" s="1" t="s">
         <v>4424</v>
       </c>
-      <c r="D967" s="7" t="s">
+      <c r="D967" s="1" t="s">
         <v>4425</v>
       </c>
-      <c r="E967" s="7" t="s">
+      <c r="E967" s="1" t="s">
         <v>4426</v>
       </c>
-      <c r="F967" s="7" t="s">
+      <c r="F967" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G967" s="7" t="s">
+      <c r="G967" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H967" s="0" t="n">
+      <c r="H967" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="0" t="s">
+      <c r="A968" s="4" t="s">
         <v>4427</v>
       </c>
-      <c r="B968" s="0" t="s">
+      <c r="B968" s="4" t="s">
         <v>4428</v>
       </c>
-      <c r="C968" s="0" t="s">
+      <c r="C968" s="4" t="s">
         <v>4429</v>
       </c>
-      <c r="D968" s="0" t="s">
+      <c r="D968" s="4" t="s">
         <v>4430</v>
       </c>
-      <c r="E968" s="0" t="s">
+      <c r="E968" s="4" t="s">
         <v>4431</v>
       </c>
-      <c r="F968" s="7" t="s">
+      <c r="F968" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G968" s="7" t="s">
+      <c r="G968" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H968" s="0" t="n">
+      <c r="H968" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="0" t="s">
+      <c r="A969" s="4" t="s">
         <v>4432</v>
       </c>
-      <c r="B969" s="0" t="s">
+      <c r="B969" s="4" t="s">
         <v>4433</v>
       </c>
-      <c r="C969" s="0" t="s">
+      <c r="C969" s="4" t="s">
         <v>4434</v>
       </c>
-      <c r="D969" s="0" t="s">
+      <c r="D969" s="4" t="s">
         <v>4435</v>
       </c>
-      <c r="E969" s="0" t="s">
+      <c r="E969" s="4" t="s">
         <v>4436</v>
       </c>
-      <c r="F969" s="7" t="s">
+      <c r="F969" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G969" s="7" t="s">
+      <c r="G969" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H969" s="0" t="n">
+      <c r="H969" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="0" t="s">
+      <c r="A970" s="4" t="s">
         <v>4437</v>
       </c>
-      <c r="B970" s="0" t="s">
+      <c r="B970" s="4" t="s">
         <v>4438</v>
       </c>
-      <c r="C970" s="0" t="s">
+      <c r="C970" s="4" t="s">
         <v>4439</v>
       </c>
-      <c r="D970" s="0" t="s">
+      <c r="D970" s="4" t="s">
         <v>4440</v>
       </c>
-      <c r="E970" s="0" t="s">
+      <c r="E970" s="4" t="s">
         <v>4441</v>
       </c>
-      <c r="F970" s="7" t="s">
+      <c r="F970" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G970" s="7" t="s">
+      <c r="G970" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H970" s="0" t="n">
+      <c r="H970" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="0" t="s">
+      <c r="A971" s="4" t="s">
         <v>4442</v>
       </c>
-      <c r="B971" s="0" t="s">
+      <c r="B971" s="4" t="s">
         <v>4443</v>
       </c>
-      <c r="C971" s="0" t="s">
+      <c r="C971" s="4" t="s">
         <v>4444</v>
       </c>
-      <c r="D971" s="0" t="s">
+      <c r="D971" s="4" t="s">
         <v>4445</v>
       </c>
-      <c r="E971" s="0" t="s">
+      <c r="E971" s="4" t="s">
         <v>4446</v>
       </c>
-      <c r="F971" s="7" t="s">
+      <c r="F971" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G971" s="7" t="s">
+      <c r="G971" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H971" s="0" t="n">
+      <c r="H971" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="0" t="s">
+      <c r="A972" s="4" t="s">
         <v>4447</v>
       </c>
-      <c r="B972" s="0" t="s">
+      <c r="B972" s="4" t="s">
         <v>4448</v>
       </c>
-      <c r="C972" s="7" t="s">
+      <c r="C972" s="1" t="s">
         <v>4449</v>
       </c>
-      <c r="D972" s="8" t="s">
+      <c r="D972" s="1" t="s">
         <v>4450</v>
       </c>
-      <c r="E972" s="8" t="s">
+      <c r="E972" s="1" t="s">
         <v>4451</v>
       </c>
-      <c r="F972" s="8" t="s">
+      <c r="F972" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G972" s="7" t="s">
+      <c r="G972" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H972" s="0" t="n">
+      <c r="H972" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="0" t="s">
+      <c r="A973" s="4" t="s">
         <v>4452</v>
       </c>
-      <c r="B973" s="0" t="s">
+      <c r="B973" s="4" t="s">
         <v>4453</v>
       </c>
-      <c r="C973" s="0" t="s">
+      <c r="C973" s="4" t="s">
         <v>4454</v>
       </c>
-      <c r="D973" s="0" t="s">
+      <c r="D973" s="4" t="s">
         <v>4455</v>
       </c>
-      <c r="E973" s="0" t="s">
+      <c r="E973" s="4" t="s">
         <v>4456</v>
       </c>
-      <c r="F973" s="7" t="s">
+      <c r="F973" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G973" s="7" t="s">
+      <c r="G973" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H973" s="0" t="n">
+      <c r="H973" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="0" t="s">
+      <c r="A974" s="4" t="s">
         <v>4457</v>
       </c>
-      <c r="B974" s="0" t="s">
+      <c r="B974" s="4" t="s">
         <v>4458</v>
       </c>
-      <c r="C974" s="0" t="s">
+      <c r="C974" s="4" t="s">
         <v>4459</v>
       </c>
-      <c r="D974" s="0" t="s">
+      <c r="D974" s="4" t="s">
         <v>4460</v>
       </c>
-      <c r="E974" s="0" t="s">
+      <c r="E974" s="4" t="s">
         <v>4461</v>
       </c>
-      <c r="F974" s="7" t="s">
+      <c r="F974" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G974" s="7" t="s">
+      <c r="G974" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H974" s="0" t="n">
+      <c r="H974" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="0" t="s">
+      <c r="A975" s="4" t="s">
         <v>4462</v>
       </c>
-      <c r="B975" s="0" t="s">
+      <c r="B975" s="4" t="s">
         <v>4463</v>
       </c>
-      <c r="C975" s="7" t="s">
+      <c r="C975" s="1" t="s">
         <v>4464</v>
       </c>
-      <c r="D975" s="7" t="s">
+      <c r="D975" s="1" t="s">
         <v>4465</v>
       </c>
-      <c r="E975" s="7" t="s">
+      <c r="E975" s="1" t="s">
         <v>4466</v>
       </c>
-      <c r="F975" s="7" t="s">
+      <c r="F975" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G975" s="7" t="s">
+      <c r="G975" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H975" s="0" t="n">
+      <c r="H975" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="0" t="s">
+      <c r="A976" s="4" t="s">
         <v>4467</v>
       </c>
-      <c r="B976" s="0" t="s">
+      <c r="B976" s="4" t="s">
         <v>4468</v>
       </c>
-      <c r="C976" s="0" t="s">
+      <c r="C976" s="4" t="s">
         <v>4469</v>
       </c>
-      <c r="D976" s="0" t="s">
+      <c r="D976" s="4" t="s">
         <v>4470</v>
       </c>
-      <c r="E976" s="0" t="s">
+      <c r="E976" s="4" t="s">
         <v>4471</v>
       </c>
-      <c r="F976" s="7" t="s">
+      <c r="F976" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G976" s="7" t="s">
+      <c r="G976" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="H976" s="0" t="n">
+      <c r="H976" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F977" s="7" t="s">
+      <c r="A977" s="4" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C977" s="4" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D977" s="4" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E977" s="4" t="s">
+        <v>4476</v>
+      </c>
+      <c r="F977" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G977" s="7" t="s">
+      <c r="G977" s="1" t="s">
         <v>3954</v>
+      </c>
+      <c r="H977" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="4" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C978" s="4" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D978" s="4" t="s">
+        <v>4480</v>
+      </c>
+      <c r="E978" s="4" t="s">
+        <v>4481</v>
+      </c>
+      <c r="F978" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G978" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H978" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="4" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C979" s="4" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D979" s="4" t="s">
+        <v>4485</v>
+      </c>
+      <c r="E979" s="4" t="s">
+        <v>4486</v>
+      </c>
+      <c r="F979" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G979" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H979" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="4" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C980" s="4" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D980" s="4" t="s">
+        <v>4490</v>
+      </c>
+      <c r="E980" s="4" t="s">
+        <v>4491</v>
+      </c>
+      <c r="F980" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G980" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H980" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="4" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C981" s="4" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D981" s="4" t="s">
+        <v>4495</v>
+      </c>
+      <c r="E981" s="4" t="s">
+        <v>4496</v>
+      </c>
+      <c r="F981" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G981" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H981" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="4" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D982" s="1" t="s">
+        <v>4500</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>4501</v>
+      </c>
+      <c r="F982" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G982" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H982" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="4" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C983" s="4" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D983" s="4" t="s">
+        <v>4504</v>
+      </c>
+      <c r="E983" s="4" t="s">
+        <v>3897</v>
+      </c>
+      <c r="F983" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G983" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H983" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="4" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C984" s="4" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D984" s="4" t="s">
+        <v>4508</v>
+      </c>
+      <c r="E984" s="4" t="s">
+        <v>4509</v>
+      </c>
+      <c r="F984" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G984" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H984" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="4" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B985" s="1" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D985" s="1" t="s">
+        <v>4513</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>4514</v>
+      </c>
+      <c r="F985" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G985" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H985" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="4" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C986" s="4" t="s">
+        <v>4517</v>
+      </c>
+      <c r="D986" s="4" t="s">
+        <v>4518</v>
+      </c>
+      <c r="E986" s="4" t="s">
+        <v>4519</v>
+      </c>
+      <c r="F986" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G986" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H986" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="4" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C987" s="4" t="s">
+        <v>4522</v>
+      </c>
+      <c r="D987" s="4" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E987" s="4" t="s">
+        <v>4524</v>
+      </c>
+      <c r="F987" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G987" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H987" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="4" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C988" s="4" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D988" s="4" t="s">
+        <v>4528</v>
+      </c>
+      <c r="E988" s="4" t="s">
+        <v>4529</v>
+      </c>
+      <c r="F988" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G988" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H988" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="4" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C989" s="4" t="s">
+        <v>4532</v>
+      </c>
+      <c r="D989" s="4" t="s">
+        <v>4533</v>
+      </c>
+      <c r="E989" s="4" t="s">
+        <v>4534</v>
+      </c>
+      <c r="F989" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G989" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H989" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="4" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B990" s="1" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>4537</v>
+      </c>
+      <c r="D990" s="1" t="s">
+        <v>4538</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>4539</v>
+      </c>
+      <c r="F990" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G990" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H990" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="4" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C991" s="4" t="s">
+        <v>4542</v>
+      </c>
+      <c r="D991" s="4" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E991" s="4" t="s">
+        <v>4544</v>
+      </c>
+      <c r="F991" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G991" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H991" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="4" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C992" s="4" t="s">
+        <v>4547</v>
+      </c>
+      <c r="D992" s="1" t="s">
+        <v>4548</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>4549</v>
+      </c>
+      <c r="F992" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G992" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H992" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A993" s="4" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C993" s="4" t="s">
+        <v>4552</v>
+      </c>
+      <c r="D993" s="4" t="s">
+        <v>4553</v>
+      </c>
+      <c r="E993" s="4" t="s">
+        <v>4554</v>
+      </c>
+      <c r="F993" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G993" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H993" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A994" s="4" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C994" s="4" t="s">
+        <v>4557</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>4558</v>
+      </c>
+      <c r="E994" s="4" t="s">
+        <v>4559</v>
+      </c>
+      <c r="F994" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G994" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H994" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A995" s="4" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>4561</v>
+      </c>
+      <c r="C995" s="4" t="s">
+        <v>4562</v>
+      </c>
+      <c r="D995" s="4" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E995" s="4" t="s">
+        <v>4564</v>
+      </c>
+      <c r="F995" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G995" s="1" t="s">
+        <v>3954</v>
+      </c>
+      <c r="H995" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A996" s="1" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B996" s="1" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>4051</v>
+      </c>
+      <c r="D996" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>4053</v>
+      </c>
+      <c r="F996" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G996" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H996" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A997" s="4" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C997" s="4" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D997" s="4" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E997" s="4" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F997" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G997" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H997" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A998" s="4" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C998" s="4" t="s">
+        <v>4572</v>
+      </c>
+      <c r="D998" s="4" t="s">
+        <v>4573</v>
+      </c>
+      <c r="E998" s="4" t="s">
+        <v>4574</v>
+      </c>
+      <c r="F998" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G998" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H998" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A999" s="4" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C999" s="4" t="s">
+        <v>4577</v>
+      </c>
+      <c r="D999" s="4" t="s">
+        <v>4578</v>
+      </c>
+      <c r="E999" s="4" t="s">
+        <v>4579</v>
+      </c>
+      <c r="F999" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G999" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H999" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1000" s="4" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C1000" s="4" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D1000" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E1000" s="4" t="s">
+        <v>4583</v>
+      </c>
+      <c r="F1000" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1000" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1000" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="4" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>4585</v>
+      </c>
+      <c r="C1001" s="4" t="s">
+        <v>4586</v>
+      </c>
+      <c r="D1001" s="4" t="s">
+        <v>4587</v>
+      </c>
+      <c r="E1001" s="4" t="s">
+        <v>4588</v>
+      </c>
+      <c r="F1001" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1001" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1001" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="4" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C1002" s="4" t="s">
+        <v>4590</v>
+      </c>
+      <c r="D1002" s="4" t="s">
+        <v>4591</v>
+      </c>
+      <c r="E1002" s="4" t="s">
+        <v>4592</v>
+      </c>
+      <c r="F1002" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1002" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1002" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="4" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>4594</v>
+      </c>
+      <c r="C1003" s="4" t="s">
+        <v>4595</v>
+      </c>
+      <c r="D1003" s="4" t="s">
+        <v>4596</v>
+      </c>
+      <c r="E1003" s="4" t="s">
+        <v>4597</v>
+      </c>
+      <c r="F1003" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1003" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1003" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="4" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>4599</v>
+      </c>
+      <c r="C1004" s="4" t="s">
+        <v>4600</v>
+      </c>
+      <c r="D1004" s="4" t="s">
+        <v>4601</v>
+      </c>
+      <c r="E1004" s="4" t="s">
+        <v>4602</v>
+      </c>
+      <c r="F1004" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1004" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1004" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1005" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1005" s="4" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>4604</v>
+      </c>
+      <c r="C1005" s="4" t="s">
+        <v>4605</v>
+      </c>
+      <c r="D1005" s="4" t="s">
+        <v>4606</v>
+      </c>
+      <c r="E1005" s="4" t="s">
+        <v>4607</v>
+      </c>
+      <c r="F1005" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1005" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1005" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1006" s="4" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C1006" s="4" t="s">
+        <v>4610</v>
+      </c>
+      <c r="D1006" s="4" t="s">
+        <v>4611</v>
+      </c>
+      <c r="E1006" s="4" t="s">
+        <v>4612</v>
+      </c>
+      <c r="F1006" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1006" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1006" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1007" s="4" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1007" s="4" t="s">
+        <v>4615</v>
+      </c>
+      <c r="D1007" s="4" t="s">
+        <v>4616</v>
+      </c>
+      <c r="E1007" s="4" t="s">
+        <v>4617</v>
+      </c>
+      <c r="F1007" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1007" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1007" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1008" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1008" s="4" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>4619</v>
+      </c>
+      <c r="C1008" s="4" t="s">
+        <v>4620</v>
+      </c>
+      <c r="D1008" s="4" t="s">
+        <v>4621</v>
+      </c>
+      <c r="E1008" s="4" t="s">
+        <v>4622</v>
+      </c>
+      <c r="F1008" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1008" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1008" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1009" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1009" s="4" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C1009" s="4" t="s">
+        <v>4625</v>
+      </c>
+      <c r="D1009" s="4" t="s">
+        <v>4626</v>
+      </c>
+      <c r="E1009" s="4" t="s">
+        <v>4627</v>
+      </c>
+      <c r="F1009" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1009" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1009" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1010" s="4" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C1010" s="4" t="s">
+        <v>4616</v>
+      </c>
+      <c r="D1010" s="4" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E1010" s="4" t="s">
+        <v>4631</v>
+      </c>
+      <c r="F1010" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1010" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1010" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1011" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1011" s="4" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>4633</v>
+      </c>
+      <c r="C1011" s="4" t="s">
+        <v>4634</v>
+      </c>
+      <c r="D1011" s="4" t="s">
+        <v>4635</v>
+      </c>
+      <c r="E1011" s="4" t="s">
+        <v>4636</v>
+      </c>
+      <c r="F1011" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1011" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1011" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1012" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1012" s="4" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C1012" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1012" s="4" t="s">
+        <v>4639</v>
+      </c>
+      <c r="E1012" s="4" t="s">
+        <v>4640</v>
+      </c>
+      <c r="F1012" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1012" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1012" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1013" s="4" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>4642</v>
+      </c>
+      <c r="C1013" s="4" t="s">
+        <v>4643</v>
+      </c>
+      <c r="D1013" s="4" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E1013" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="F1013" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1013" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1013" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1014" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1014" s="4" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B1014" s="4" t="s">
+        <v>4647</v>
+      </c>
+      <c r="C1014" s="4" t="s">
+        <v>4648</v>
+      </c>
+      <c r="D1014" s="4" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E1014" s="4" t="s">
+        <v>4649</v>
+      </c>
+      <c r="F1014" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1014" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1014" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1015" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="4" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>4651</v>
+      </c>
+      <c r="C1015" s="4" t="s">
+        <v>4652</v>
+      </c>
+      <c r="D1015" s="4" t="s">
+        <v>4653</v>
+      </c>
+      <c r="E1015" s="4" t="s">
+        <v>4654</v>
+      </c>
+      <c r="F1015" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1015" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1015" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1016" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="4" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B1016" s="4" t="s">
+        <v>4656</v>
+      </c>
+      <c r="C1016" s="4" t="s">
+        <v>4657</v>
+      </c>
+      <c r="D1016" s="4" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E1016" s="4" t="s">
+        <v>4659</v>
+      </c>
+      <c r="F1016" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1016" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1016" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1017" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="4" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B1017" s="4" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C1017" s="4" t="s">
+        <v>4662</v>
+      </c>
+      <c r="D1017" s="4" t="s">
+        <v>4663</v>
+      </c>
+      <c r="E1017" s="4" t="s">
+        <v>4664</v>
+      </c>
+      <c r="F1017" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1017" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1017" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="4" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B1018" s="4" t="s">
+        <v>4645</v>
+      </c>
+      <c r="C1018" s="4" t="s">
+        <v>4666</v>
+      </c>
+      <c r="D1018" s="4" t="s">
+        <v>4667</v>
+      </c>
+      <c r="E1018" s="4" t="s">
+        <v>4011</v>
+      </c>
+      <c r="F1018" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1018" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1018" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1019" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="4" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B1019" s="4" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C1019" s="4" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D1019" s="4" t="s">
+        <v>4669</v>
+      </c>
+      <c r="E1019" s="4" t="s">
+        <v>4670</v>
+      </c>
+      <c r="F1019" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1019" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1019" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1020" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="4" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B1020" s="4" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C1020" s="4" t="s">
+        <v>4673</v>
+      </c>
+      <c r="D1020" s="4" t="s">
+        <v>4674</v>
+      </c>
+      <c r="E1020" s="4" t="s">
+        <v>4675</v>
+      </c>
+      <c r="F1020" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1020" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1020" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1021" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="4" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C1021" s="4" t="s">
+        <v>4678</v>
+      </c>
+      <c r="D1021" s="4" t="s">
+        <v>4679</v>
+      </c>
+      <c r="E1021" s="4" t="s">
+        <v>4680</v>
+      </c>
+      <c r="F1021" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1021" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1021" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="4" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C1022" s="4" t="s">
+        <v>4683</v>
+      </c>
+      <c r="D1022" s="4" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E1022" s="4" t="s">
+        <v>4685</v>
+      </c>
+      <c r="F1022" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1022" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1022" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1023" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="4" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1023" s="4" t="s">
+        <v>4687</v>
+      </c>
+      <c r="D1023" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E1023" s="4" t="s">
+        <v>4688</v>
+      </c>
+      <c r="F1023" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1023" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1023" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="4" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B1024" s="4" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C1024" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D1024" s="4" t="s">
+        <v>4691</v>
+      </c>
+      <c r="E1024" s="4" t="s">
+        <v>3953</v>
+      </c>
+      <c r="F1024" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1024" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1024" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="4" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>4693</v>
+      </c>
+      <c r="C1025" s="4" t="s">
+        <v>4694</v>
+      </c>
+      <c r="D1025" s="4" t="s">
+        <v>4695</v>
+      </c>
+      <c r="E1025" s="4" t="s">
+        <v>4696</v>
+      </c>
+      <c r="F1025" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1025" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1025" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1026" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="4" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>4698</v>
+      </c>
+      <c r="C1026" s="4" t="s">
+        <v>4699</v>
+      </c>
+      <c r="D1026" s="4" t="s">
+        <v>4700</v>
+      </c>
+      <c r="E1026" s="4" t="s">
+        <v>4701</v>
+      </c>
+      <c r="F1026" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1026" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1026" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="4" t="s">
+        <v>4702</v>
+      </c>
+      <c r="B1027" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C1027" s="4" t="s">
+        <v>4703</v>
+      </c>
+      <c r="D1027" s="4" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E1027" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F1027" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1027" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1027" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1028" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="4" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B1028" s="4" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C1028" s="4" t="s">
+        <v>4707</v>
+      </c>
+      <c r="D1028" s="4" t="s">
+        <v>4708</v>
+      </c>
+      <c r="E1028" s="4" t="s">
+        <v>4709</v>
+      </c>
+      <c r="F1028" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1028" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1028" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1029" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="4" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B1029" s="4" t="s">
+        <v>4711</v>
+      </c>
+      <c r="C1029" s="4" t="s">
+        <v>4712</v>
+      </c>
+      <c r="D1029" s="4" t="s">
+        <v>4713</v>
+      </c>
+      <c r="E1029" s="4" t="s">
+        <v>4714</v>
+      </c>
+      <c r="F1029" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1029" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1029" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1030" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1030" s="4" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>4716</v>
+      </c>
+      <c r="C1030" s="4" t="s">
+        <v>4717</v>
+      </c>
+      <c r="D1030" s="4" t="s">
+        <v>4718</v>
+      </c>
+      <c r="E1030" s="4" t="s">
+        <v>4719</v>
+      </c>
+      <c r="F1030" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1030" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1030" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1031" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1031" s="4" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C1031" s="4" t="s">
+        <v>4722</v>
+      </c>
+      <c r="D1031" s="4" t="s">
+        <v>4723</v>
+      </c>
+      <c r="E1031" s="4" t="s">
+        <v>4724</v>
+      </c>
+      <c r="F1031" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1031" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1031" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1032" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1032" s="4" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C1032" s="4" t="s">
+        <v>4727</v>
+      </c>
+      <c r="D1032" s="4" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E1032" s="4" t="s">
+        <v>4729</v>
+      </c>
+      <c r="F1032" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1032" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1032" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1033" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1033" s="4" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B1033" s="4" t="s">
+        <v>3952</v>
+      </c>
+      <c r="C1033" s="4" t="s">
+        <v>4731</v>
+      </c>
+      <c r="D1033" s="4" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E1033" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="F1033" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1033" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1033" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1034" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1034" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1034" s="4" t="s">
+        <v>4733</v>
+      </c>
+      <c r="D1034" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1034" s="4" t="s">
+        <v>4734</v>
+      </c>
+      <c r="F1034" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1034" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1034" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1035" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1035" s="4" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B1035" s="4" t="s">
+        <v>4736</v>
+      </c>
+      <c r="C1035" s="4" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D1035" s="4" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E1035" s="4" t="s">
+        <v>4739</v>
+      </c>
+      <c r="F1035" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1035" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1035" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1036" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1036" s="4" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B1036" s="4" t="s">
+        <v>4741</v>
+      </c>
+      <c r="C1036" s="4" t="s">
+        <v>4742</v>
+      </c>
+      <c r="D1036" s="4" t="s">
+        <v>4743</v>
+      </c>
+      <c r="E1036" s="4" t="s">
+        <v>4744</v>
+      </c>
+      <c r="F1036" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1036" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1036" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1037" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1037" s="4" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B1037" s="4" t="s">
+        <v>4746</v>
+      </c>
+      <c r="C1037" s="4" t="s">
+        <v>4747</v>
+      </c>
+      <c r="D1037" s="4" t="s">
+        <v>4748</v>
+      </c>
+      <c r="E1037" s="4" t="s">
+        <v>4749</v>
+      </c>
+      <c r="F1037" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1037" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1037" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1038" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1038" s="4" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B1038" s="4" t="s">
+        <v>4751</v>
+      </c>
+      <c r="C1038" s="4" t="s">
+        <v>4752</v>
+      </c>
+      <c r="D1038" s="4" t="s">
+        <v>4753</v>
+      </c>
+      <c r="E1038" s="4" t="s">
+        <v>4754</v>
+      </c>
+      <c r="F1038" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1038" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1038" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1039" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1039" s="4" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B1039" s="4" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C1039" s="4" t="s">
+        <v>4757</v>
+      </c>
+      <c r="D1039" s="4" t="s">
+        <v>4758</v>
+      </c>
+      <c r="E1039" s="4" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F1039" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1039" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1039" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1040" s="4" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B1040" s="4" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C1040" s="4" t="s">
+        <v>4761</v>
+      </c>
+      <c r="D1040" s="4" t="s">
+        <v>4762</v>
+      </c>
+      <c r="E1040" s="4" t="s">
+        <v>4763</v>
+      </c>
+      <c r="F1040" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1040" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1040" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1041" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1041" s="1" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B1041" s="1" t="s">
+        <v>4765</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>4766</v>
+      </c>
+      <c r="D1041" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>4767</v>
+      </c>
+      <c r="F1041" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1041" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1041" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1042" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1042" s="4" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B1042" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1042" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1042" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1042" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1042" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1043" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1043" s="4" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B1043" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1043" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D1043" s="4" t="s">
+        <v>4372</v>
+      </c>
+      <c r="E1043" s="4" t="s">
+        <v>4770</v>
+      </c>
+      <c r="F1043" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1043" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1043" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1044" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1044" s="4" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B1044" s="4" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C1044" s="4" t="s">
+        <v>4773</v>
+      </c>
+      <c r="D1044" s="4" t="s">
+        <v>4774</v>
+      </c>
+      <c r="E1044" s="4" t="s">
+        <v>4775</v>
+      </c>
+      <c r="F1044" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1044" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1044" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1045" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1045" s="4" t="s">
+        <v>4776</v>
+      </c>
+      <c r="B1045" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1045" s="4" t="s">
+        <v>4777</v>
+      </c>
+      <c r="D1045" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1045" s="4" t="s">
+        <v>4778</v>
+      </c>
+      <c r="F1045" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1045" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1045" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1046" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1046" s="4" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B1046" s="4" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C1046" s="4" t="s">
+        <v>4780</v>
+      </c>
+      <c r="D1046" s="4" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E1046" s="4" t="s">
+        <v>4781</v>
+      </c>
+      <c r="F1046" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1046" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1046" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1047" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1047" s="4" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B1047" s="4" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C1047" s="4" t="s">
+        <v>4784</v>
+      </c>
+      <c r="D1047" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E1047" s="4" t="s">
+        <v>4785</v>
+      </c>
+      <c r="F1047" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1047" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1047" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1048" s="4" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B1048" s="4" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1048" s="4" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D1048" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E1048" s="4" t="s">
+        <v>4788</v>
+      </c>
+      <c r="F1048" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1048" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1048" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1049" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="4" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B1049" s="4" t="s">
+        <v>4790</v>
+      </c>
+      <c r="C1049" s="4" t="s">
+        <v>4791</v>
+      </c>
+      <c r="D1049" s="4" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E1049" s="4" t="s">
+        <v>4792</v>
+      </c>
+      <c r="F1049" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1049" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1049" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1050" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1050" s="4" t="s">
+        <v>4793</v>
+      </c>
+      <c r="B1050" s="4" t="s">
+        <v>4794</v>
+      </c>
+      <c r="C1050" s="4" t="s">
+        <v>4795</v>
+      </c>
+      <c r="D1050" s="4" t="s">
+        <v>4796</v>
+      </c>
+      <c r="E1050" s="4" t="s">
+        <v>4797</v>
+      </c>
+      <c r="F1050" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1050" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1050" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1051" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1051" s="5" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B1051" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D1051" s="1" t="s">
+        <v>4800</v>
+      </c>
+      <c r="E1051" s="1" t="s">
+        <v>4801</v>
+      </c>
+      <c r="F1051" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1051" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1051" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1052" s="4" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B1052" s="4" t="s">
+        <v>4803</v>
+      </c>
+      <c r="C1052" s="4" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D1052" s="4" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E1052" s="4" t="s">
+        <v>4806</v>
+      </c>
+      <c r="F1052" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1052" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1052" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1053" s="4" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B1053" s="4" t="s">
+        <v>4808</v>
+      </c>
+      <c r="C1053" s="4" t="s">
+        <v>4809</v>
+      </c>
+      <c r="D1053" s="4" t="s">
+        <v>4810</v>
+      </c>
+      <c r="E1053" s="4" t="s">
+        <v>4811</v>
+      </c>
+      <c r="F1053" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1053" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1053" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1054" s="4" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B1054" s="4" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C1054" s="4" t="s">
+        <v>4813</v>
+      </c>
+      <c r="D1054" s="4" t="s">
+        <v>4814</v>
+      </c>
+      <c r="E1054" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1054" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1054" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1055" s="4" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B1055" s="4" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C1055" s="4" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D1055" s="4" t="s">
+        <v>4816</v>
+      </c>
+      <c r="E1055" s="4" t="s">
+        <v>4817</v>
+      </c>
+      <c r="F1055" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1055" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1055" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1056" s="4" t="s">
+        <v>4818</v>
+      </c>
+      <c r="B1056" s="4" t="s">
+        <v>4819</v>
+      </c>
+      <c r="C1056" s="4" t="s">
+        <v>4820</v>
+      </c>
+      <c r="D1056" s="4" t="s">
+        <v>4821</v>
+      </c>
+      <c r="E1056" s="4" t="s">
+        <v>4822</v>
+      </c>
+      <c r="F1056" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1056" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1056" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1057" s="4" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B1057" s="4" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C1057" s="4" t="s">
+        <v>4825</v>
+      </c>
+      <c r="D1057" s="4" t="s">
+        <v>4826</v>
+      </c>
+      <c r="E1057" s="4" t="s">
+        <v>4827</v>
+      </c>
+      <c r="F1057" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1057" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1057" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1058" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B1058" s="4" t="s">
+        <v>4829</v>
+      </c>
+      <c r="C1058" s="4" t="s">
+        <v>4830</v>
+      </c>
+      <c r="D1058" s="4" t="s">
+        <v>4831</v>
+      </c>
+      <c r="E1058" s="4" t="s">
+        <v>4832</v>
+      </c>
+      <c r="F1058" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1058" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1058" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1059" s="4" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B1059" s="4" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C1059" s="4" t="s">
+        <v>4321</v>
+      </c>
+      <c r="D1059" s="4" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E1059" s="4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F1059" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1059" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1059" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1060" s="4" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B1060" s="4" t="s">
+        <v>4837</v>
+      </c>
+      <c r="C1060" s="4" t="s">
+        <v>4838</v>
+      </c>
+      <c r="D1060" s="4" t="s">
+        <v>4839</v>
+      </c>
+      <c r="E1060" s="4" t="s">
+        <v>4840</v>
+      </c>
+      <c r="F1060" s="4" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1060" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1060" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1061" s="4" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B1061" s="4" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C1061" s="4" t="s">
+        <v>4843</v>
+      </c>
+      <c r="D1061" s="4" t="s">
+        <v>4844</v>
+      </c>
+      <c r="E1061" s="4" t="s">
+        <v>4845</v>
+      </c>
+      <c r="F1061" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1061" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1061" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1062" s="4" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B1062" s="4" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C1062" s="4" t="s">
+        <v>4848</v>
+      </c>
+      <c r="D1062" s="4" t="s">
+        <v>4849</v>
+      </c>
+      <c r="E1062" s="4" t="s">
+        <v>4850</v>
+      </c>
+      <c r="F1062" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1062" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1062" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1063" s="4" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B1063" s="4" t="s">
+        <v>4852</v>
+      </c>
+      <c r="C1063" s="4" t="s">
+        <v>4853</v>
+      </c>
+      <c r="D1063" s="4" t="s">
+        <v>4854</v>
+      </c>
+      <c r="E1063" s="4" t="s">
+        <v>4855</v>
+      </c>
+      <c r="F1063" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1063" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1063" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1064" s="4" t="s">
+        <v>4856</v>
+      </c>
+      <c r="B1064" s="4" t="s">
+        <v>4857</v>
+      </c>
+      <c r="C1064" s="4" t="s">
+        <v>4858</v>
+      </c>
+      <c r="D1064" s="4" t="s">
+        <v>4859</v>
+      </c>
+      <c r="E1064" s="4" t="s">
+        <v>4860</v>
+      </c>
+      <c r="F1064" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1064" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1064" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1065" customFormat="false" ht="135.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1065" s="5" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B1065" s="1" t="s">
+        <v>4862</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>4863</v>
+      </c>
+      <c r="D1065" s="1" t="s">
+        <v>4864</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>4865</v>
+      </c>
+      <c r="F1065" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1065" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1065" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1066" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1066" s="5" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B1066" s="1" t="s">
+        <v>4867</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>4868</v>
+      </c>
+      <c r="D1066" s="1" t="s">
+        <v>4869</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>4870</v>
+      </c>
+      <c r="F1066" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1066" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1066" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1067" customFormat="false" ht="146.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1067" s="5" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B1067" s="1" t="s">
+        <v>4872</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>4873</v>
+      </c>
+      <c r="D1067" s="1" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>4875</v>
+      </c>
+      <c r="F1067" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1067" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1067" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068" customFormat="false" ht="258.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1068" s="5" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B1068" s="1" t="s">
+        <v>4877</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>4878</v>
+      </c>
+      <c r="D1068" s="1" t="s">
+        <v>4879</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>4880</v>
+      </c>
+      <c r="F1068" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1068" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1068" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1069" s="4" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B1069" s="4" t="s">
+        <v>4882</v>
+      </c>
+      <c r="C1069" s="4" t="s">
+        <v>4883</v>
+      </c>
+      <c r="D1069" s="4" t="s">
+        <v>4884</v>
+      </c>
+      <c r="E1069" s="4" t="s">
+        <v>4885</v>
+      </c>
+      <c r="F1069" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1069" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1069" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1070" s="4" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B1070" s="4" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C1070" s="4" t="s">
+        <v>4888</v>
+      </c>
+      <c r="D1070" s="4" t="s">
+        <v>4889</v>
+      </c>
+      <c r="E1070" s="4" t="s">
+        <v>4890</v>
+      </c>
+      <c r="F1070" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1070" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1070" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1071" s="5" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B1071" s="1" t="s">
+        <v>4892</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>4893</v>
+      </c>
+      <c r="D1071" s="1" t="s">
+        <v>4894</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>4895</v>
+      </c>
+      <c r="F1071" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1071" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1071" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1072" s="4" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B1072" s="4" t="s">
+        <v>4897</v>
+      </c>
+      <c r="C1072" s="4" t="s">
+        <v>4898</v>
+      </c>
+      <c r="D1072" s="4" t="s">
+        <v>4899</v>
+      </c>
+      <c r="E1072" s="4" t="s">
+        <v>4900</v>
+      </c>
+      <c r="F1072" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1072" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1072" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1073" s="4" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B1073" s="4" t="s">
+        <v>4902</v>
+      </c>
+      <c r="C1073" s="4" t="s">
+        <v>4903</v>
+      </c>
+      <c r="D1073" s="4" t="s">
+        <v>4904</v>
+      </c>
+      <c r="E1073" s="4" t="s">
+        <v>4905</v>
+      </c>
+      <c r="F1073" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1073" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1073" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1074" s="4" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B1074" s="4" t="s">
+        <v>4907</v>
+      </c>
+      <c r="C1074" s="4" t="s">
+        <v>4908</v>
+      </c>
+      <c r="D1074" s="4" t="s">
+        <v>4909</v>
+      </c>
+      <c r="E1074" s="4" t="s">
+        <v>4910</v>
+      </c>
+      <c r="F1074" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1074" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1074" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1075" s="1" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B1075" s="1" t="s">
+        <v>4912</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>4913</v>
+      </c>
+      <c r="D1075" s="1" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E1075" s="1" t="s">
+        <v>4915</v>
+      </c>
+      <c r="F1075" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1075" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1075" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1076" s="4" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B1076" s="4" t="s">
+        <v>4917</v>
+      </c>
+      <c r="C1076" s="4" t="s">
+        <v>4918</v>
+      </c>
+      <c r="D1076" s="4" t="s">
+        <v>4919</v>
+      </c>
+      <c r="E1076" s="4" t="s">
+        <v>4920</v>
+      </c>
+      <c r="F1076" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1076" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1076" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1077" s="4" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B1077" s="4" t="s">
+        <v>4922</v>
+      </c>
+      <c r="C1077" s="4" t="s">
+        <v>4923</v>
+      </c>
+      <c r="D1077" s="4" t="s">
+        <v>4924</v>
+      </c>
+      <c r="E1077" s="4" t="s">
+        <v>4925</v>
+      </c>
+      <c r="F1077" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1077" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1077" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1078" s="4" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B1078" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1078" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1078" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1078" s="4" t="s">
+        <v>4927</v>
+      </c>
+      <c r="F1078" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1078" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1078" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1079" s="4" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B1079" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1079" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1079" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1079" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1079" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1079" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1079" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1080" s="4" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B1080" s="4" t="s">
+        <v>4930</v>
+      </c>
+      <c r="C1080" s="4" t="s">
+        <v>4931</v>
+      </c>
+      <c r="D1080" s="4" t="s">
+        <v>4932</v>
+      </c>
+      <c r="E1080" s="4" t="s">
+        <v>4933</v>
+      </c>
+      <c r="F1080" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1080" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1080" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1081" s="4" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B1081" s="4" t="s">
+        <v>4935</v>
+      </c>
+      <c r="C1081" s="4" t="s">
+        <v>4936</v>
+      </c>
+      <c r="D1081" s="4" t="s">
+        <v>4937</v>
+      </c>
+      <c r="E1081" s="4" t="s">
+        <v>4938</v>
+      </c>
+      <c r="F1081" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1081" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1081" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1082" s="4" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B1082" s="4" t="s">
+        <v>4940</v>
+      </c>
+      <c r="C1082" s="4" t="s">
+        <v>4941</v>
+      </c>
+      <c r="D1082" s="4" t="s">
+        <v>4942</v>
+      </c>
+      <c r="E1082" s="4" t="s">
+        <v>4943</v>
+      </c>
+      <c r="F1082" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1082" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1082" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1083" s="4" t="s">
+        <v>4944</v>
+      </c>
+      <c r="B1083" s="4" t="s">
+        <v>4945</v>
+      </c>
+      <c r="C1083" s="4" t="s">
+        <v>4946</v>
+      </c>
+      <c r="D1083" s="4" t="s">
+        <v>4947</v>
+      </c>
+      <c r="E1083" s="4" t="s">
+        <v>4948</v>
+      </c>
+      <c r="F1083" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1083" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1083" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1084" s="4" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B1084" s="4" t="s">
+        <v>4950</v>
+      </c>
+      <c r="C1084" s="4" t="s">
+        <v>4951</v>
+      </c>
+      <c r="D1084" s="4" t="s">
+        <v>4952</v>
+      </c>
+      <c r="E1084" s="4" t="s">
+        <v>4953</v>
+      </c>
+      <c r="F1084" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1084" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1084" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1085" s="4" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B1085" s="4" t="s">
+        <v>4955</v>
+      </c>
+      <c r="C1085" s="4" t="s">
+        <v>4956</v>
+      </c>
+      <c r="D1085" s="4" t="s">
+        <v>4957</v>
+      </c>
+      <c r="E1085" s="4" t="s">
+        <v>4958</v>
+      </c>
+      <c r="F1085" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1085" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1085" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1086" s="4" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B1086" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1086" s="4" t="s">
+        <v>4960</v>
+      </c>
+      <c r="D1086" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1086" s="4" t="s">
+        <v>4961</v>
+      </c>
+      <c r="F1086" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1086" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1086" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1087" s="4" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B1087" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C1087" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D1087" s="4" t="s">
+        <v>4963</v>
+      </c>
+      <c r="E1087" s="4" t="s">
+        <v>4964</v>
+      </c>
+      <c r="F1087" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1087" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1087" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1088" s="4" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B1088" s="4" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C1088" s="4" t="s">
+        <v>4967</v>
+      </c>
+      <c r="D1088" s="4" t="s">
+        <v>4968</v>
+      </c>
+      <c r="E1088" s="4" t="s">
+        <v>4969</v>
+      </c>
+      <c r="F1088" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1088" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1088" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1089" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1089" s="7" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B1089" s="8" t="s">
+        <v>4971</v>
+      </c>
+      <c r="C1089" s="8" t="s">
+        <v>4972</v>
+      </c>
+      <c r="D1089" s="8" t="s">
+        <v>4973</v>
+      </c>
+      <c r="E1089" s="8" t="s">
+        <v>4974</v>
+      </c>
+      <c r="F1089" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1089" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1089" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1090" s="0" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B1090" s="0" t="s">
+        <v>4976</v>
+      </c>
+      <c r="C1090" s="0" t="s">
+        <v>4977</v>
+      </c>
+      <c r="D1090" s="0" t="s">
+        <v>4978</v>
+      </c>
+      <c r="E1090" s="0" t="s">
+        <v>4979</v>
+      </c>
+      <c r="F1090" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1090" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1090" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1091" s="0" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B1091" s="0" t="s">
+        <v>4981</v>
+      </c>
+      <c r="C1091" s="0" t="s">
+        <v>4982</v>
+      </c>
+      <c r="D1091" s="0" t="s">
+        <v>4983</v>
+      </c>
+      <c r="E1091" s="0" t="s">
+        <v>4984</v>
+      </c>
+      <c r="F1091" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1091" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1091" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1092" s="0" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B1092" s="0" t="s">
+        <v>4986</v>
+      </c>
+      <c r="C1092" s="0" t="s">
+        <v>4987</v>
+      </c>
+      <c r="D1092" s="0" t="s">
+        <v>4988</v>
+      </c>
+      <c r="E1092" s="0" t="s">
+        <v>4989</v>
+      </c>
+      <c r="F1092" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1092" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1092" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1093" s="0" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B1093" s="0" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C1093" s="0" t="s">
+        <v>4991</v>
+      </c>
+      <c r="D1093" s="0" t="s">
+        <v>4992</v>
+      </c>
+      <c r="E1093" s="0" t="s">
+        <v>4993</v>
+      </c>
+      <c r="F1093" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1093" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1093" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1094" s="0" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B1094" s="0" t="s">
+        <v>4991</v>
+      </c>
+      <c r="C1094" s="0" t="s">
+        <v>4995</v>
+      </c>
+      <c r="D1094" s="0" t="s">
+        <v>4996</v>
+      </c>
+      <c r="E1094" s="0" t="s">
+        <v>4997</v>
+      </c>
+      <c r="F1094" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1094" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1094" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1095" s="0" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B1095" s="0" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C1095" s="0" t="s">
+        <v>5000</v>
+      </c>
+      <c r="D1095" s="0" t="s">
+        <v>5001</v>
+      </c>
+      <c r="E1095" s="0" t="s">
+        <v>5002</v>
+      </c>
+      <c r="F1095" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1095" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1095" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1096" s="0" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B1096" s="0" t="s">
+        <v>5004</v>
+      </c>
+      <c r="C1096" s="0" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1096" s="0" t="s">
+        <v>4992</v>
+      </c>
+      <c r="E1096" s="0" t="s">
+        <v>5005</v>
+      </c>
+      <c r="F1096" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1096" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1096" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1097" s="0" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B1097" s="0" t="s">
+        <v>5007</v>
+      </c>
+      <c r="C1097" s="0" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D1097" s="0" t="s">
+        <v>5009</v>
+      </c>
+      <c r="E1097" s="0" t="s">
+        <v>5010</v>
+      </c>
+      <c r="F1097" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1097" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1097" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1098" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1098" s="7" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B1098" s="8" t="s">
+        <v>5012</v>
+      </c>
+      <c r="C1098" s="8" t="s">
+        <v>5013</v>
+      </c>
+      <c r="D1098" s="8" t="s">
+        <v>5014</v>
+      </c>
+      <c r="E1098" s="8" t="s">
+        <v>5015</v>
+      </c>
+      <c r="F1098" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1098" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1098" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1099" s="0" t="s">
+        <v>5016</v>
+      </c>
+      <c r="B1099" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1099" s="0" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D1099" s="0" t="s">
+        <v>5017</v>
+      </c>
+      <c r="E1099" s="0" t="s">
+        <v>5018</v>
+      </c>
+      <c r="F1099" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1099" s="9" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1099" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="5019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9002" uniqueCount="5857">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -17390,7 +17390,7 @@
     <t xml:space="preserve">بخشAبا ریبوزیله کردنEF-5مانع سنتز پروتئین می شود</t>
   </si>
   <si>
-    <t xml:space="preserve">بخشBسم باعث افزایش فعالیت آدنیالت سیکلاز می شود.</t>
+    <t xml:space="preserve">بخشBسم باعث افزایش فعالیت آدنیلات سیکلاز می شود.</t>
   </si>
   <si>
     <t xml:space="preserve">شایع ترین نوع عفونت اکتینومایسس ها کدام است؟</t>
@@ -17426,7 +17426,7 @@
     <t xml:space="preserve">Salmonella enterica</t>
   </si>
   <si>
-    <t xml:space="preserve">سقط جنین به دنبال التهاب جفت در حیوانات عفونی با بروسال به دلیل وجود کدام فاکتور رشد بروسال در پلاسنتای حیوانات است؟</t>
+    <t xml:space="preserve">سقط جنین به دنبال التهاب جفت در حیوانات عفونی با بروسلا به دلیل وجود کدام فاکتور رشد بروسال در پلاسنتای حیوانات است؟</t>
   </si>
   <si>
     <t xml:space="preserve">سوربیتول</t>
@@ -17588,6 +17588,2528 @@
   </si>
   <si>
     <t xml:space="preserve">اسید تیکوئیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عامل کندیلومای مقعدی-تناسلی کدام یک از ویروس های زیر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هرپس سیمپلکس تیپII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاروو ویروسB19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عقربک انگشت(Herpetic withlow)در ارتباط با کدام یک از ویروس های زیر می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیتومگال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هرپس سیمپلکس تیپ یک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هرپس تیپ6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژنوم کدام یک از ویروس های زیر قطعه قطعه می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادنو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هپاتیتC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهت ضد عفونی کردن پوست از کدام یک از ترکیبات زیر استفاده می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلرو هگزیدین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوکلریت سدیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فورمالدئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوتارلدئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ویروس های زیر نسبت به اتر حساس می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راینو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از تجمعات داخل سلولی زیر با بقیه متفاوت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xanthoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atherosclerosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russle bodies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steatosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش تروپونین های اختصاصی قلبی(Cardiac-Specific Troponins)در خون پس از سکته قلبی ، ناشی از کدام تغییر سلولی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آپوپتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نکروز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از علایم سندرم آمبولی چربی(Fat Ambolism syndrome)نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترمبوسیتوپنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لوکوپنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شایعترین ژن جهش یافته در سرطان های انسانی کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclin D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهمترین عامل تاخیر در فرآیند ترمیم کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وجود جسم خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاکتورهای تغذیه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصرف گلوکوکورتیکوئید ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عفونت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسمومیت با کدام گزینه می تواند علایم بالینی در بافت دندان ، استخوان و سیستم عصبی ایجاد کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپرین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوزون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استامینوفن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التهاب گرانولوماتوز درنتیجه تجمع کدام سلول ها رخ میدهد ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماکروفاژ ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسیت هایB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوتروفیل ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماکروفاژها و لنفوسیت هایT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرآیند ترمیم زخم در کدام یک از موارد با بقیه متفاوت است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت پوست پس از سوختگی درجه5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت مغز استخوان بعد از شیمی درمانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت کبد پس از پیوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافت مغز بعد از سکته مغزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش اندازه قلب در پی بیماری افزایش فشارخون ، کدام یک از انواع تغییرات سازگاری سلولی محسوب میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هایپرتروفی فیزیولوژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هایپرپلازی فیزیولوژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هایپرتروفی پاتولوژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هایپرپلازی پاتولوژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش اتوفاژی در کدامیک از فرآیندهای سازگاری سلولی اتفاق می افتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عامل میکروبی در ارتباط با ایجاد سرطان کمتر از سایرین موثر در نظر گرفته میشود ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Papilloma Virus (HPV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helicobacter pylori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hepatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herpes Simplex Virus (HSV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مورد انعقاد داخل عروقی منتشر(DIC)کدام یک از موارد زیر صحیح نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آغاز ناگهانی یا تدریجی دارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک بیماری خاص تلقی نمی شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در پی فعال سازی سیستمیک ترومبین ایجاد میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در فاز غیرقابل برگشت شوک آغاز می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از خصوصیات میکروسکوپی مختص تومورهای بدخیم نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلئومورفیسم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میتوزهای غیر طبیعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش نسبت هسته به سیتوپلاسم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام تومور زیر بدخیم است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آدنوما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کندروما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبروما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر در مورد تفاوتهای فرآیند نکروز و آپوپتوز صحیح نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امکان فیزیولوزیک بودن هر دو فرآیند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک التهاب در نکروز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش اندازه سلول در نکروز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالم بودن غشای سلول در آپوپتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در موردAttenuation reflexدر گوش میانی کدام عبارت درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">می تواند موجب کاهش انتقال شدت صوت های با فرکانس بالا گردد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سبب حفظ حلزون از آسیب ناشی از صداهای خیلی بلند می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با تاخیر زمانی خیلی کم حدود2تا2میلی ثانیه ایجاد می گردد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موجب افزایش حساسیت شنوایی به صدای خود فرد می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخریب کدام یک در مخچه باعث آتاکسی می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیمکره های جانبی مخچه.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحیه بینابینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته های عمقی دندانه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسیر مخچه ای نخاعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام فیبر حسی سیگنال های رفلکس حرکتی زانو را به نخاع منتقل می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آوران های درد از مفاصل و پوست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آوران های اولیه دوک عضلانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آوران های ثانویه دوک عضلانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آوران های اولیه و ثانویه دوک عضلانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری با آسیب وسیع درد و طرف نواحی داخلی قشر پس سری و گیجگاهی کدام علایم زیر اتفاق می افتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوتونی در سمت چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غفلت در نیمه چپ بدن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم تشخیص چهره ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مورد مسیر درد سریع کدام عبارت درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از مسیرPaleospinothalamicبه مغز می رسد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ساقه مغز ختم شده و به قشر حس سماتیک نمی رسد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترانسمیتر آزاد شده از انتهای آوران اولیه گلوتامات می باشد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نورون های درجه اول بدون میلین(C-fiber)می باشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عملکرد در سطحLower brainپردازش و کنترل می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه از اثرات فیزیولوژیک هورمون های تیروئیدی نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش مقاومت عروق محیطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش جذب کربوهیدرات از لوله گوارش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش غلظت کلسترول خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک لیپولیز و تسریع بسته شدن اپیفیز استخوان ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر در مورد متابولیسم کلسیم و فسفات صحیح می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقادیر زیاد ویتامینDسبب افزایش تخریب استخوان(Bone resorption)می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوکلسمی سبب کاهش حرکات دستگاه گوارش می گردد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیروفسفات سبب تسهیل تشکیل امالح استخوانی می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTHمستقیما سبب تحریک استئوکلاستها می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش بیش از حد هورمون رشد چه علامتی را باعث خواهد شد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقاومت به انسولین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش سنتز پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش لیپولیز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش گلوکونئوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر از اعمال کورتیزولنمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نفوذپذیری مویرگی را کاهش می دهد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئین های پلاسما و کبد را کاهش می دهد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوکونئوژنز توسط کبد را تحریک می کند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال اسیدهای آمینه به سلول های خارج کبدی را کاهش می دهد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مکانیسم اثر انسولین در کبد برای تنظیم گلوکز چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش عملکرد گلوکوکیناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش عملکرد لیپاز حساس به هورمون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش عملکرد گلوکز6فسفاتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهار آنزیم گلیکوژن سنتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپرونتیالسیون(افزایش تهویه تنفسی)باعث کدام اختلال اسید-باز زیر می شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلکالوز تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلکالوز متابولیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدوز تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر کلیرانس کلیوی ماده ای که به راحتی فیلتر می شود از کلیرانس اینولین کمتر باشد، کدامیک از موارد زیر اتفاق می افتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازجذب خالص این ماده در توبول رخ دادهاست.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح خالص این ماده در توبول رخ داده است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">این ماده نه ترشح شده و نه بازجذب شده است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح این ماده عمدتا در توبول پروکسیمال رخ داده است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام حالت زیر همGFRو هم جریان خون کلیوی افزایش می یابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زمانی که همشری آنچه آوران و هم شریانچه وابران هر دو منقبض شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زمانی که هم شریانچه آوران و هم شریانچه وابران هر دو منبسط شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زمانی که شریانچه آوران منقبض و شریانچه وابران منبسط شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فقط زمانی که شریانچه وابران منقبض شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال کدام ماده زیر در سلول های اپیتلیال روده به وسیله هم انتقالی با سدیم انجام می پذیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دی پپتید و تری پپتیدها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تری گلیسرید ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسید های آمینه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عوامل زیر مهار کننده پمپ پیلوری می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتساع دوازدهه و آزردگی مخاط آن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گاسترین وGIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتساع معده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوله سیستوکینین و گاسترین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر از اعمال کوله سیستوکینین در دستگاه گوارش نمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کیسه صفرا را منقبض می کند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انقباض معده را مهار می کند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح آنزیم هایپانکراس را تحریک می کند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشح اسید معده را تحریک می کند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدامیک از موارد زیر کمپلیانس ریوی افزایش می یابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آمفیزم ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فیبروز ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندرم نارسایی تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آدم حاد ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علت افزایش کم در فشار شریانی ریوی در زمان ورزش چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خروج مایع از مویرگ های ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش مقاومت عروقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش برون ده قلبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتساع و بسیج مویرگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماکزیمم حجم هوایی که بعد از یک دم عمیق با یک بازدم عمیق از ریه خارج می شود را چه می نامند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ظرفیت حیاتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجم ذخیره دمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ظرفیت باقیمانده عملی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجم باقیمانده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر باعث رگ زایی نمیشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاکتور رشد اندوتلیال عروق(VEGFs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاکتور القا شونده توسط هیپوکسی (HIFs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندوستاتین(Endostatin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از بسترهای عروقی زیر، افزایش حجم خون سبب افزایش فشار خون بیشتری می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شریانهای سیستمیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وریدهای سیستمیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شریانهای ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وریدهای ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از پاسخهای زیر به دنبال فعال شدن گیرنده های دهلیزی فشار-کم رخ نمی دهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش ترشح هورمون ضد ادراری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش فعالیت سمپاتیک کلیوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گشادی شریانچه آوران کلیوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر در یک قلب نرمال سبب افزایش کسر تخلیه بطنی می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش ضربان قلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش حجم پایان سیستولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش حجم پایان دیاستولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش پس بار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر بردار میانگینQRSدر زاویه15-درجه باشد و جمع ولتاژهایQRSلیدهای استاندارد4.5میلی ولت باشد، کدام یک اتفاق افتاده
+است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپرتروفی بطن راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپرتروفی بطن چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گزینه های زیر نتیجه میلینه شدن فیبرهای عصبی بزرگ می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش انرژی مورد نیاز جهت حفظ شیب غلظت یونها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش سرعت ایمپالسهای عصبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش ظرفیت خازنی غشا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش انتشار یونها از غشا آکسون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مورد اولین منبع تامین انرژی برای انقباض عضلات اسکلتی برای ساخته شدن مجددATPمی باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphocreatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycolysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxidative metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fat metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در قله پتانسیل عمل گرادیان شیمیایی و الکتریکی سدیم به ترتیب درچه جهتی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داخل-خارج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارج-داخل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خارج-خارج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داخل-داخل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از خصوصیات نواحی یوکروماتین می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف و اضافه شدن ژنوم در این نواحی اهمیت کمتری دارد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نواحی غیر کد کننده فقیر از ژن ژنوم هستند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در روشG-bandingبه رنگ روشن دیده می شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمدتا در نواحی سانترومری ژنوم دیده می شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدامیک از موارد زیر تعریف هتروزیگوت مرکب(compound heterozygous)می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو جهش یکسان در یک ژن یکسان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو جهش متفاوت در یک ژن یکسان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو جهش یکسان در دو ژن متفاوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو جهش متفاوت در دو ژن متفاوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر در مورد الگوی وراثت اتوزومال غالب درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ژن مربوطه می تواند روی کروموزومXباشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حالتی است که هتروزیگوت کاملا ها سالم به نظر می رسند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در شجره نامه حالتvertical transmissionدیده می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در شجره نامه افراد مبتلا معمولا در یک نسل دیده میشود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهش در کدام یک از انواع ژن های مادر سبب بروز بیماری در تمامی فرزندان(دختر یا پسر)وی خواهد شد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مغلوب اتوزومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غالب اتوزومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مغلوب وابسته به ایکس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میتوکندریال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ناقل های ژن درمانی زیر ضمن داشتن کارآیی پایین تر اما استفاده از آن ها ایمن تر و ساده تر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adeno Associated virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenti virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liposomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مورد خطر وقوع مجدد سندرم داون را بیشتر می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرزند قبلی با تریزومی21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پدر حامل جابجایی رابرتسونی21و14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مادر حامل جابجایی رابرتسونی55و52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پدر حامل جابجایی رابرتسونی21و21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كدام یک از ژن های زیر در ایجاد بیماري آلزایمر دخالت دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proα1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS1 and PS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محاسبه وراثت پذیری یاheritability (h2)در کدام بیماری زیر برای محققین ارزشمند است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleft lip/palate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achondroplasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marfan syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهت تشخیص یک جهشSubstitutionدر یک ژن عملکردی در سطحDNAبهترین تست درخواستی کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern blotting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA cloning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanger sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karyotyping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه زیر در مورد تقسیم میتوز صدق می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromosome segregationتفکیک کروموزومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduction divisionتقسیم کاهشی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recombinationنوترکیبی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrad formationتشکیل تتراد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسیتهایBخود واکنشگر(Auto-reactive)درکدام بافت و در چه مرحله ای از تکامل حذف می شوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-B، مغز استخوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-B، بافت های لنفاوی محیطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immature-B، مغز استخوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immature-B، بافت های لنفاوی محیطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیوند لثه جزو کدام یک از انواع پیوندهای زیراست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایزوگرافت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتوگرافت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلوگرافت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموگرافت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در ایجاد کدام یک از بیماری های زیر واکنش های فاز تاخیری آلرژی نقش بیشتری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronchial asthma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urticaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allergic Rhinitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food allergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاسخ کدام گروه ازسلول هایTدر حفره دهانی غالب است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th1 and Treg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th1 and Th17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th2 and Treg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Th2 and Th17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد آنتی ژن درست نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک آنتی ژن ممکن است دارای چندین اپی توپ باشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو آنتی ژن ممکن است دارای اپی توپهای یکسان باشن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیچیدگی شیمیایی قدرت ایمنی زایی آنتی ژن را افزایش می دهد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه آنتی ژنها از قدرت ایمنی زایی برخوردارند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در شمارش نرمال گلبول های سفید خون محیطی کدام یک از سلول های زیر کمترین تعداد را دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازوفیل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام دومین های مولکول آنتی بادی در اتصال به آنتی ژن شرکت می کند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VH &amp; CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VL &amp; VH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH2 &amp; CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH &amp; CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهم ترین سلول ایمنی اختصاصی ضد تومور کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسیتB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسیتTتنظیمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسیتTسیتوتوکسیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسیتTکمکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک ازموارد زیر به عنوان مکانیسم های فرار تومور از پاسخ های ایمنی اختصاصی محسوب نمی شود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش بیان آنتی ژنهای توموری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش بیان مولکولهای موثر در عرضه آنتی ژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش بیان مولکولB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تولید سایتوکاینTGF-β</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه در مورد سیستم ایمنی مخاطی درست نیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتیدهای ضد میکروبی توسط لنفوسیت ها تولید می شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مخاط توسط سلول های گابلت ساخته می شود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی ژن ها توسط سلول هایMانتقال می یابند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی ژن ها توسط سلول های دندریتیک عرضه می شوند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمبود کدام کلاس آنتی بادی ممکن است باعث التهاب مزمن در دستگاه گوارش و بروز اسهال گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اویدیتی کدام ایزوتیپ آنتی بادی علیه یک اپی توپ تکرار شونده بیشتر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سلول های زیر جمعیت غالب سلولی در بخش کورتکس غدد لنفاوی را تشکیل می دهند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لنفوسیت هایT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های دندریتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از مولکول های زیر در عرضه آنتی ژن توسط مولکولII-MHCنقش ندارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HLA-DM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invariant Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calreticulin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از گروه هاي جمعیتی زیر به عنوان گروه هدف در طرح ادغام بهداشت دهان و دندان در سیستم
+شبکه بهداشت و درمان ایران تعریف شده اند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالمندان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میانسالان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جوانان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جمعیت شاغل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوعی از غربالگری منحصر به افرادی است که به علت دیگری به ارائه دهندگان خدمات پزشکی و دندانپزشکی
+مراجعه می کنند.این نوع غربالگری چه نام دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">چند مرحله ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هدف دار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرصت طلبانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهترین زمان ارجاع خانم باردار برای انجام درمان های ضروری دندانپزشکی چه هنگام است ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه ماهه سوم بارداری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه ماهه دوم بارداری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه ماهه اول بارداری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در طول بارداری انجام درمان های دندانپزشكی به هیچ وجه صورت نميگیرد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مورد عوامل خطر سرطان دهان، کدام یک درست است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دو عامل خطر اصلی و ثابت شده، مصرف دخانیات و الکل است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علت25درصد از سرطان های دهان به دخانیات و الکل نسبت داده شده است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علل اصلی سرطان دهان شامل عوامل قومی، نژاد وژنتیک است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علت75درصد از سرطان های دهان مخاطرات شغلی و عوامل تغذیه ای است</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحلیل داده های مربوط به شیوع و شدت یک بیماری در جامعه معادل چه مرحله از مراحل ارائه خدمت درمانی
+در یک کلینیک است </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشخیص بیماری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معاینه بیمار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعیین طرح درمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارائه خدمات پاراکلینیکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلامت(Health)مفهومی است....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایستا و عینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایستا و ذهنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پویا و ذهنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پویا و عینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه هدفی واقع بینانه در جهت پیشگیري از بیماری های پریودنتال در سطح جامعه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کنترل پیشرفت بیماری مخرب و پیشگیری از وجود هرگونه پلاک روی دندان ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کنترل پیشرفت بیماری مخرب برای پیشگیری از دست رفتن عملکرد دندان ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلامت ایده آل لثه با برداشتن کامل پلاک و جرم های دندان ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">از بین بردن التهاب لثه ها و پاکت پریودنتال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فلوریداسیون آب آشامیدنی مثالی از کدام رویکرد جلوگیری از پوسیدگی دندانی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد متمرکز بر جمعیت هدف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد متمرکز بر جمعیت در معرض خطر باال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد متمرکز بر کل جمعیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد متمرکز بر عامل خطر مشترک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مراحل معاینه و تعیین طرح درمان در کار کلینیکی به ترتیب معادل چه مراحلی در زمینه سلامت جامعه است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارزیابی نیاز، طراحی برنامه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحلیل داده ها، طراحی برنامه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارزیابی نیاز، اجرای برنامه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحلیل داده ها، اجرای برنامه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از خصوصیات زیر مربوط به مهره های گردنی میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ مهره ای گرد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ عرضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زوائد مامیالری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویه مفصلی بر روی زوائد عرضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دندانپزشکی اسفند 402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر بیشترین بخش سطح جلویی قلب را تشکیل می دهند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عضلات زیر ازسطح قدامی اسکاپولا مبدا میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teres Major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pectoralis Major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عناصر زیر در تحتانی ترین بخش ناف ریه دیده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برونکوس اصلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شریان برونشیال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شریان ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مری ( ازوفاگوس) در سطح کدامیک از مهره های زیر به معده متصل میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه موارد زیر با سطح تحتانی کبد مجاورت دارند بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلیه راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کیسه صفرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عضلات زیر با حالب مجاورت مستقیم دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پسواس ماژور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مربع کمری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایلیاکوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عرضی شکم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمامی عناصر تشریحی زیر از مدیاستینوم خلفی عبور می کنند بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آئورتای توراسیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام شاخه عصب صورتی(Facial) سبب ترشح غده اشکی میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater petrosal nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacrimal nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesser petrosal nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسیب به ریشه حرکتی بخش مندیبولار عصب سه قلو(CN V3)منجر به فلج همه عضلات زیر میشود بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anterior belly of the digastric muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geniohyoid muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mylohyoid muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensor tympani muscle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در جراحی حفره پتریگوپالاتین، احتمال آسیب بیشتر به کدام یک از شریان های زیر وجود دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sphenopalatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle meningeal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری با شکایت بی حسی در مثلث قدامی گردن به پزشک مراجعه میکند. کدامیک از اعصاب زیر احتمالا آسیب دیده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transverse cervical nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greater auricular nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supraclavicular nerve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش ترشح بزاق از غده ساب ماندیبولار در اثر اختلال کدام یک از اعصاب زیر رخ می دهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior cervical ganglion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عضلات حلق به غضروف کریکوئید حنجره اتصال دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنگ کننده تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنگ کننده میانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استیلوفارنژیوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سالپینگوفارنژیوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه موارد زیردر سطح داخلی استخوان مندیبل دیده میشوند،بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حفره ساب ماندیبولار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شیار میلوهیوئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ منتال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوراخ مندیبل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از اعصاب زیر به هر دو گروه عضلات سوپراهیوئید و اینفراهیوئید عصب می دهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوس گردنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اولین عصب گردنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب زبانی-حلقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب اکسسوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیماری که دچار صدمه مغزی شده، ممکن است غذا بین گونه و دندان های وی جمع شود این امر به دلیل فلج چه عضله ای میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بوکسیناتور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوربیکولاریس اوریس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رزریوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمام شاخه های زیر از شریان ماگزیالری میباشند بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمپورال عمقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اینفرااوربیتال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حلقی صعودی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آلوئولار تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حس جلدی ناحیه پاروتید توسط کدامیک از اعصاب زیر تامین میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شاخه تمپورال عصب فاسیال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بوکال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لسر اکسی پیتال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اوریکولوتمپورال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر در بصل النخاع قرار دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راه دنتوتالامیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته کونئاتوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم ذوزنقه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم زانویی داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در جریان برداشتن توموری در بصل النخاع لمنیسکوس داخلی در سمت راست آسیب دیده است انتقال چه حس هایی مختل میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لمس دقیق در سمت راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عمقی ناخودآگاه در سمت چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمایز دو نقطه جدا از هم در سمت چپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عضلانی-مفصلی خودآگاه در سمت راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه هسته های نخاعی زیر در سگمانC4دیده میشوند بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته پشتی(کلارک)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماده ژلاتینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرنیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از راه های زیر در مغز میانی تقاطع برقرار میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راه کورتیکواسپینال خارجی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راه مغزی-پل مغزی-مخچه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راه گلوبوس-امبولیفرم–روبرال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنکوس (قالب) بخشی از کدام جیروس زیر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاراهیپوکامپ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پره سنترال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دندانه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سینگولیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام قسمت از کورپوس کالوزوم لوبهای اکسی پیتال دو طرف را به هم ارتباط میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فورسپس مینور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فورسپس ماژور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زانو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از عضلات کره چشم علاوه بر اعصاب کرانیالاز رشته های سمپاتیک نیز عصب میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مایل فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مایل تحتانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رکتوس فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بالا برنده پلک فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از اعصاب کرانیال زیر حسی-حرکتی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب زیرزبانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب آکسسوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب شنوایی-تعادلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب سه قلو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمامی ساختارهای زیر در دیواره داخلی گوش میانی دیده میشوند بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرومنتوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانال عضله تنسور تمپانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برآمدگی مجاری نیم دایره ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنجره بیضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمامی ساختار های زیر در رفلکس نوری مردمک نقش دارند بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته های پره تکتال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رابط خلفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته پاراسمپاتیک ادینگر وستفال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کالیکولوس فوقانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیل لاکونا با تکامل کدام یک از ساختارهای زیر در دوران جنینی هم زمان است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیل لایه سیتوتروفوبلاست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیل کیسه زرده اولیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیل حفره آمنیون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیل پرزهای اولیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف پوشش گلیکوپروتئینی ناحیه سر اسپرم در کدام مرحله رخ میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ظرفیت گیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشردگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکنش آکروزومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکنش ناحیه شفاف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در طی گاسترولاسیون، سلول هایی که از دمی ترین بخش شیار اولیه مهاجرت می کنند در تشکیل کدام
+مورد نقش دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزودرم بینابینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مزودرم مجاور محوری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمام قسمت های زیر مشتقات قطعه بین ماگزیلاری هستند،بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بخش پایینی سپتوم بینی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماگزیلا مربوط به دندانهای پیشین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آملوبلاست ها در کدام مرحله از چرخه زندگی خود زائده تومز دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شکل گیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمایز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشحی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مخاط جسم زبان از کدام قوس حلقی منشا میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوس حلقی اول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوس حلقی دوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوس حلقی سوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوس حلقی چهارم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ساختارهای زیر از تلانسفالون مشتق میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم زانوئی داخلی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غده پینه آل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم پستانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اجسام قاعده ای مغز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سلول های بافت همبند زیر خاصیت متاکرومازی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلول های چربی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کپسول دور ارگان های بدن از کدام یک از کلاژن های زیر تشکیل میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوعI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوعII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوعIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوعIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از نواحی استخوانی شدن غضروف مفصلی، کندروسیت ها دچار آپپتوز میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحیه استراحت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحیه هیپرتروفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحیه کلسیفیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناحیه تکثیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئین بازی اصلی (Major Basic Proteins) در کدام یک از سلولهای خونی زیر دیده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واحد عملکردی مخچه کدامیک از سلول های زیر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گرانولار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پورکنژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ستاره ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لایه هسته دار خارجی در شبکیه شامل کدام یک از ساختارهای زیر میباشد؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم سلولی سلولهای دو قطبی و آماکرین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم سلولی سلولهای گانگلیونی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمپلکس اتصالی سلول مولر با سلولهای مخروطی و استوانه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جسم سلولی سلول های مخروطی و استوانه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگر غلظت بی کربنات خون22میلی مولار و غلظتCO2آن1/1میلی مولار باشدpHخون چقدر خواهد شد؟(pK=6.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری کشان(Keshan)ناشی از کمبود کدام عنصر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلنیوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام اسید آمینه پیش سازDOPAمیباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترئونین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به ترتیب کدام یک پایدارترین و منظم ترین ساختمان پروتئین ها میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مارپیچ آلفا، مارپیچ آلفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برگشت ها، مارپیچ آلفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-استیل نورامینیک اسید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-داکسی-L-گالاکتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-فوکوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-داکسی-L-مانوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش تعداد اریتروسیت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش غلظت هموگلوبین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش سنتز2،3-بیس فسفوگلیسرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش تمایل هموگلوبین بهO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام گزینه صحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموگلوبین دارای ساختمان چهام و یک زنجیره گلوبین و یک گروه هم میباشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموگلوبین دارای ساختمان چهام و چهار زنجیره گلوبین و چهار گروه هم میباشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموگلوبین دارای ساختمان سوم و یک زنجیره گلوبین و یک گروه هم میباشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموگلوبین دارای ساختمان سوم و چهار زنجیره گلوبین و چهار گروه هم میباشد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوکز-6-فسفات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یدواستامید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپیرین به عنوان یک داروی ضد التهابی غیر استروئیدی مهار کننده فعالیت چه آنزیمی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیپاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کیناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سیکلواکسیژناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ویتامین به عنوان کوآنزیم آنزیم های کربوکسیلاز است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biotin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ترکیب با مسدود کردن انتقال پروتون ها از طریقATPسنتاز باعث مهار فسفریالسیون اکسیداتیو میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی مایسینA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آتراکتیلوزید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دی مرکاپرول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیروات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محصول نهایی گلیکولیز در شرایط هیپوکسی در انسان کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دی اکسید کربن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لاکتات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در دیابت کنترل نشده کدام یک از مسیرهای متابولیک بیش از حد فعال میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلیکولیز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوکونئوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کتوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلیکوژنز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیلان انرژی گلیکولیز در گلبولهای قرمز بالغ چند مولکولATPمیباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمامی مسیرهای زیر وابسته بهNADPHبجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساخت اسیدهای چرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساخت گلیکوژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساخت استروئیدها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">احیای گلوتاتیون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از انواع بیماری های ذخیره گلیکوژن باعث ضعف و درد عضلانی و در نهایت مرگ ناشی از نارسایی قلبی در کودکان میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ون ژیرکه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در سندرم زلوگر کاتابولیسم کدام نوع از اسیدهای چرب مختل شده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدهای چرب کوتاه زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدهای چرب متوسط زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدهای چرب بسیار بلند زنجیر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسیدهای چرب شاخه دار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از لیپو پروتئین های زیر در متابولیسم سایر لیپو پروتئین ها دخالت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمبود آنزیم زانتین اکسیداز (Xanthine oxidase) باعث کدام وضعیت میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیبواوریسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیبراوریسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیبرآنومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیبوآنومی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرم1و25دی هیدروکسی کلسیفرول در کدام بافت تولید میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پوست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخوان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">در فرآیند تصویر برداری توموگرافی تک فوتون (SPECT)ماده رادیواکتیو معمول به کار رفته و محصول واپاشی کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDG–الکترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکنسیم-پوزیترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلوکز نشاندار-پوزیترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکنسیم-گاما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در انتقال ایزومریک مواد رادیواکتیو کدام یک منتشر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پوزیترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الکترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گاما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در تصویر برداری فراصوتی کدام یک از موارد زیر بیشترین امپدانس فراصوتی را دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استخوان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هوا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرعت فراصوت در محیط با میزان تراکم پذیری ماده، چه رابطه ای دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با جذر آن رابطه مستقیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با جذر آن رابطه معکوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با مجذور آن رابطه مستقیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با مجذور آن رابطه معکوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ضخامت کریستال پیزوالکتریک برای ایجاد فرکانس تشدید1.5مگاهرتز چند میلیمتر است؟ سرعت فراصوت در کریستال پیزوالکتریک را4000متر بر ثانیه در نظر بگیرید.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روپوش سفید دندانپزشک برای یک کودک5ساله احساس ترس شدیدی ایجاد میکند. طبق تئوری شرطی سازی کلاسیک روپوش دندانپزشک کدام یک از موارد زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دندانپزشکی به مادر یک کودک آموزش میدهد که اگر خود کودک5شب متوالیمسواک زد، یک جایزه به او بدهید. دندانپزشک از کدام یک از برنامه های تقویتی استفاده کرده است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">متوالیCR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسبتی ثابتFR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زمانی ثابتFI5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسبتی متغیرVR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موادی که از راه کند کردن فعالیت دستگاه عصبی مرکزی سبب میشوند احساسات بدنی و توان پاسخ دادن به محرک ها کاهش یابد چه نامیده میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روانگردانPsychoactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آرام بخشSedative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خواب آوارHypnotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مواد افیونیOpiates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حداکثر گنجایش حافظه فعال در اغلب بزرگسالان چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12ماده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کسانی که به شدت به لذت هایی از قبیل خوردن، نوشیدن ،آدامس جویدن و کشیدن سیگار روی می آورند در دیدگاه روانکاوی در کدامیک از مراحل رشد روانی جنسی تثبیت شده اند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرحله کامجویی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرحله دریافت و درونسازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرحله دهانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرحله لذت گرایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خانمی بعد از نشستن روی صندلی دندانپزشکی تپش قلب بالا، نفس تنگی، تعریق و لرزش را تجربه میکند.او فکر میکند چیز هولناکی روی میدهد و ممکن است بمیرد و تقاضا میکندکه اورژانس را صدا بزنید. کدام اختلال برای او بیشتر محتمل است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال اضطراب منتشرGAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال وحشت زدگیPanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال استرس پس از سانحهPTSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال هراسPhobia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جوان24ساله ای با آثارخودزنی و خالکوبی روی بازوها بخاطر مشکلات دندان مراجعه میکند. دندانپزشک در شرح حال متوجه استفاده وی از مواد مخدرمیشود که به دندان های او آسیب زده است. او تا کنون
+درگیری قانونی با کسی نداشته است. برای وی کدام اختلال شخصیت مطرح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال شخصیت جامعه ستیز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال شخصیت نمایشی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال شخصیت انفجاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلال شخصیت مرزی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشکل عمده در حافظه فعال کدام یک از موارد زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اندوزش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدگذاری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازیابی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معنی دهی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسکیزوفرنیا با کدام یک از انتقال دهنده های عصبی زیر مرتبط است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گابا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سروتونین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زمانی که ما بیدارهستیم فعالیت مغزی ما به واسطه حضور چه امواجی شناخته میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امواج آلفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امواج بتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امواج تتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تورم غدد لنفاوی در ناحیه سر و گردن، از علایم شایع کدام یک از بیماری های زیر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visceral Leishmaniasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxoplasmosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amoebiasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مردی40ساله با عفونت دندان و ضایعات پیوره به کلینیک مراجعه کرده است. بررسی میکروسکوپی نمونه ها وجود یک تک یاخته را نشان داد که اجساد و بقایای گلبولهای سفید را در سیتوپلاسم خود نشان میدهد.کدام یک از تک یاخته های زیر میتواند به طور بالقوه انگل جدا شده باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trichomonas hominis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entamoeba gingivalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال کدام عفونت انگلی از طریق تماس مستقیم با فرد آلوده می تواند اتفاق بیافتد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاسیولا هپاتیکا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسکاریس لامبریکوییدس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنیا ساژیناتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عفونت غالبا در فک تحتانی با ایجاد سینوس های ترشحی حاوی دانه های گوگردی مشاهده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاندیدیازیس دهانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوکاردیوزیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جئوتریکوزیس دهانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاندیدا البیکنس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاندیدا استلاتوئیده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاندیدا گیلرموندی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاندیدا تروپیکالیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عامل اتیولوژیک اصلی اتومایکوزیس کدام قارچ است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپرژیلوس نیدولانس و آسپرژیلوس روبرا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپرژیلوس نیجرو آسپرژیلوس فومیگاتوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپرژیلوس فومیگاتوس و آسپرژیلوس آلبیدوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسپرژیلوس روبرا و آسپرژیلوس فلاووس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از روش های تشخیص آزمایشگاهی عفونت های مایکو پلاسما هادر دسترس، ارزان و سریع است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رنگ آمیزی گرم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روش های مولکولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنی سیلین به عنوان آنتی بیوتیک انتخابی در درمان عفونت های ناشی از کدام یک از ارگانیسم های زیر
+استفاده میشود؟ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">استافیلوکوک اورئوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتروکوک فکالیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نایسریا گنوره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همگی باکتری های بی هوازی زیر،جزو میکروبیوم حفره دهانی میباشد بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فوزوباکتریوم نوکلئاتوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویلونلا پارولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مکانیزم اثر ضدمیکروبی اشعه ماورا بنفش(UV) بر باکتری ها چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دناتوره کردن پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نابودی مستقیم غشا سیتوپلاسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اثربرDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهار ساخت دیواره سلولی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیمار75ساله ای به دلیل تب و لرز و افت فشار خون و کاهش هوشیاری در بیمارستان بستری میشود. در خون بیمار کوکسی گرم مثبت، بی هوازی و بدون اسپور رشد می نماید. کدام یک از باکتری های ذیل میتواند عامل بیماری باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مننگوکوک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتواسترپتوکوک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از جملات زیرصحیح است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استافیلوکوک اپیدرمیدیس سبب مننژیت کشنده در تمام گروه های سنی میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موراکسلا کاتارالیس عامل شایع اسهال در دنیا است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هلیکوباکتر پیلوری عامل اصلی التهاب لثه به شمار می رود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمپیلوباکتر فتوس باعث بیماری سپتی سمی در نوزادان میگردد.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از مواد ضدعفونی کننده زیر از ترکیبات آمونیوم چهار ظرفیتی محسوب میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیدروژن پراکسید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بتادین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوکلریت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ستیل پیریدینیوم کلرید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایمنی سلولی در ایجاد علایم بالینی کدام بیماری عفونی زیر نقش محوری دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوزاک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کزاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شانکروئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از فاکتورهای زیر باعث چسبیدن استرپتوکوکوس موتانس به سطح دندان میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسلایم لایر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دی آمینو پیملیک اسید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروتئینM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک ازآنتی بیوتیک های زیر اغلب بر استافیلوکوکوس اورئوس مقاوم به متی سلین(MRSA)موثر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سفالوسپورین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگزاسیلین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وانکومایسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پدیده دیسبیوزیس(Dysbiosis) بیشتر در کدام یک ازبیماری های زیر نقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فارنژیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واژینیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مخملک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سندرم شوک سمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگره گیتی باکتر اکتینومایستم کومیتانس عامل کدام یک از موارد زیر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پریودنتیت تهاجمی موضعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عفونت لثه نکروز دهنده حاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیل بیوفیلم و پلاک های دندانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پوسیدگی پیشرفته دندان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مترونیدازول به طور اولیه در درمان کدام یک از عفونت های زیر استفاده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مایکوباکتریایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مایکو پلاسمایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتروباکتریال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بی هوازی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلاولانیک اسید با چه هدفی به همراه بتالاکتام ها در درمان عفونت های باکتریایی استفاده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایجاد اثر سینرژیستی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش قدرت نفوذ آنتیبیوتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش عوارض دارویی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهار آنزیم های بتالاکتاماز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ویژگی های زیر در همه پلاسمید ها مشترک است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انتقال خودبخودی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحاق در کروموزوم باکتری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همانند سازی خودبخودی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایجاد مقاومت آنتی بیوتیکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در تست توبرکولین از کدام ترکیب شیمیایی مایکوباکتریوم توبرکلوزیس استفاده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسید نوکلئیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کربوهیدرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ضایعات زیر در مرحله سوم سیفیلیس ظاهر میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کوندیلوماتا لاتا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شانکر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سپتی سمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">راش پوستی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سودموناس ائروژینوزا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هموفیلوس انفلوانزه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلامیدیا پسی تاسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میکوباکتریوم توبرکلوزیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نایسریا مننژیتیدیس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عقربک هرپسی (Herpetic Whitlow)توسط کدام یک از ویروس های زیر ایجاد میشود ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ویروس های زیر به اتر حساس است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هرپس ویروس ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پاپیلوما ویروس ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پولیوما ویروس ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادنوویروس ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویروس هایHAVوHEVاز چه راهی منتقل میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خونی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دهانی مدفوعی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقاربتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکسن کدام یک از ویروسهای زیر از نوع ویروس کشته شده (غیر فعال) است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دانه های کوپلیک (Koplic spots) در دهان وجه افتراق کدام یک از عفونت های ویروسی است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری پنجم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آبله مرغان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری ششم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقش اختصاصی پری اکسی زوم چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخریب اسید چرب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخریب پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخریب اسید امینه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تخریب گلیکو پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلسیفیکاسیون دیستروفیک در کدام یک از حالات زیر دیده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نارسایی کلیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسمومیت با ویتامینD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلسیفیکاسیون دریچه آئورت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش ترشح هورمون پاراتیروئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر پس از شروع آسیب سلولی سریع تر تحت تاثیر قرار میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شکل سلول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عملکرد سلول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غشای سلول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هسته سلول</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سلول های زیر در واکنش ایمنی در رابطه باIgEو عفونت های انگلی فعال میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutrophil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eosinophil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lymphocyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از مدیاتورهای زیر باعث مهار کموتاکسی و اتصال نوتروفیل ها به اندوتلیوم میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروستاگلندین ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آمین های وازواکتیو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیپوکسین ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لکوترین ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موارد زیر در واکنش های عروقی التهاب حاد دیده میشوند،بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهاجرت لوکوسیت ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش نفوذ پذیری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اگزوداسیون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انقباض عروقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بررسی ماکروسکوپی بافت کولون، خونریزی های نوک سوزنی متعدد بر روی سطح مخاطی کولون مشاهده
+میشوند، این خونریزی ها چه نام دارند و علت ایجاد آنها چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پورپورا، التهاب عروقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هماتوم، ترومبوسیتوپنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پورپورا، شکنندگی عروقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتشی،ترومبوسیتوپنی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیمار مبتلا به شوک سپتیک چه اختلال متابولیکی ایجاد می گردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیبرگلیسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیبوگلیسمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش لاکتات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش لاکتات</t>
   </si>
 </sst>
 </file>
@@ -17708,16 +20230,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -17843,10 +20365,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1099"/>
+  <dimension ref="A1:H1296"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1092" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1103" activeCellId="0" sqref="G1103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1296" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1298" activeCellId="0" sqref="G1298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45792,7 +48314,7 @@
       <c r="G1075" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1075" s="0" t="n">
+      <c r="H1075" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45818,7 +48340,7 @@
       <c r="G1076" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1076" s="0" t="n">
+      <c r="H1076" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -45844,7 +48366,7 @@
       <c r="G1077" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1077" s="0" t="n">
+      <c r="H1077" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -45870,7 +48392,7 @@
       <c r="G1078" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1078" s="0" t="n">
+      <c r="H1078" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -45896,7 +48418,7 @@
       <c r="G1079" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1079" s="0" t="n">
+      <c r="H1079" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -45922,7 +48444,7 @@
       <c r="G1080" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1080" s="0" t="n">
+      <c r="H1080" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45948,7 +48470,7 @@
       <c r="G1081" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1081" s="0" t="n">
+      <c r="H1081" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -45974,7 +48496,7 @@
       <c r="G1082" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1082" s="0" t="n">
+      <c r="H1082" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46000,7 +48522,7 @@
       <c r="G1083" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1083" s="0" t="n">
+      <c r="H1083" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46026,7 +48548,7 @@
       <c r="G1084" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1084" s="0" t="n">
+      <c r="H1084" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -46052,7 +48574,7 @@
       <c r="G1085" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1085" s="0" t="n">
+      <c r="H1085" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46078,7 +48600,7 @@
       <c r="G1086" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1086" s="0" t="n">
+      <c r="H1086" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -46104,7 +48626,7 @@
       <c r="G1087" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1087" s="0" t="n">
+      <c r="H1087" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -46130,294 +48652,5416 @@
       <c r="G1088" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1088" s="0" t="n">
+      <c r="H1088" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1089" s="7" t="s">
+      <c r="A1089" s="5" t="s">
         <v>4970</v>
       </c>
-      <c r="B1089" s="8" t="s">
+      <c r="B1089" s="1" t="s">
         <v>4971</v>
       </c>
-      <c r="C1089" s="8" t="s">
+      <c r="C1089" s="1" t="s">
         <v>4972</v>
       </c>
-      <c r="D1089" s="8" t="s">
+      <c r="D1089" s="1" t="s">
         <v>4973</v>
       </c>
-      <c r="E1089" s="8" t="s">
+      <c r="E1089" s="1" t="s">
         <v>4974</v>
       </c>
-      <c r="F1089" s="9" t="s">
+      <c r="F1089" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1089" s="9" t="s">
+      <c r="G1089" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1089" s="0" t="n">
+      <c r="H1089" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1090" s="0" t="s">
+      <c r="A1090" s="4" t="s">
         <v>4975</v>
       </c>
-      <c r="B1090" s="0" t="s">
+      <c r="B1090" s="4" t="s">
         <v>4976</v>
       </c>
-      <c r="C1090" s="0" t="s">
+      <c r="C1090" s="4" t="s">
         <v>4977</v>
       </c>
-      <c r="D1090" s="0" t="s">
+      <c r="D1090" s="4" t="s">
         <v>4978</v>
       </c>
-      <c r="E1090" s="0" t="s">
+      <c r="E1090" s="4" t="s">
         <v>4979</v>
       </c>
-      <c r="F1090" s="9" t="s">
+      <c r="F1090" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1090" s="9" t="s">
+      <c r="G1090" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1090" s="0" t="n">
+      <c r="H1090" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1091" s="0" t="s">
+      <c r="A1091" s="4" t="s">
         <v>4980</v>
       </c>
-      <c r="B1091" s="0" t="s">
+      <c r="B1091" s="4" t="s">
         <v>4981</v>
       </c>
-      <c r="C1091" s="0" t="s">
+      <c r="C1091" s="4" t="s">
         <v>4982</v>
       </c>
-      <c r="D1091" s="0" t="s">
+      <c r="D1091" s="4" t="s">
         <v>4983</v>
       </c>
-      <c r="E1091" s="0" t="s">
+      <c r="E1091" s="4" t="s">
         <v>4984</v>
       </c>
-      <c r="F1091" s="9" t="s">
+      <c r="F1091" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1091" s="9" t="s">
+      <c r="G1091" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1091" s="0" t="n">
+      <c r="H1091" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1092" s="0" t="s">
+      <c r="A1092" s="4" t="s">
         <v>4985</v>
       </c>
-      <c r="B1092" s="0" t="s">
+      <c r="B1092" s="4" t="s">
         <v>4986</v>
       </c>
-      <c r="C1092" s="0" t="s">
+      <c r="C1092" s="4" t="s">
         <v>4987</v>
       </c>
-      <c r="D1092" s="0" t="s">
+      <c r="D1092" s="4" t="s">
         <v>4988</v>
       </c>
-      <c r="E1092" s="0" t="s">
+      <c r="E1092" s="4" t="s">
         <v>4989</v>
       </c>
-      <c r="F1092" s="9" t="s">
+      <c r="F1092" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1092" s="9" t="s">
+      <c r="G1092" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1092" s="0" t="n">
+      <c r="H1092" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1093" s="0" t="s">
+      <c r="A1093" s="4" t="s">
         <v>4990</v>
       </c>
-      <c r="B1093" s="0" t="s">
+      <c r="B1093" s="4" t="s">
         <v>1940</v>
       </c>
-      <c r="C1093" s="0" t="s">
+      <c r="C1093" s="4" t="s">
         <v>4991</v>
       </c>
-      <c r="D1093" s="0" t="s">
+      <c r="D1093" s="4" t="s">
         <v>4992</v>
       </c>
-      <c r="E1093" s="0" t="s">
+      <c r="E1093" s="4" t="s">
         <v>4993</v>
       </c>
-      <c r="F1093" s="9" t="s">
+      <c r="F1093" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1093" s="9" t="s">
+      <c r="G1093" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1093" s="0" t="n">
+      <c r="H1093" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1094" s="0" t="s">
+      <c r="A1094" s="4" t="s">
         <v>4994</v>
       </c>
-      <c r="B1094" s="0" t="s">
+      <c r="B1094" s="4" t="s">
         <v>4991</v>
       </c>
-      <c r="C1094" s="0" t="s">
+      <c r="C1094" s="4" t="s">
         <v>4995</v>
       </c>
-      <c r="D1094" s="0" t="s">
+      <c r="D1094" s="4" t="s">
         <v>4996</v>
       </c>
-      <c r="E1094" s="0" t="s">
+      <c r="E1094" s="4" t="s">
         <v>4997</v>
       </c>
-      <c r="F1094" s="9" t="s">
+      <c r="F1094" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1094" s="9" t="s">
+      <c r="G1094" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1094" s="0" t="n">
+      <c r="H1094" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1095" s="0" t="s">
+      <c r="A1095" s="4" t="s">
         <v>4998</v>
       </c>
-      <c r="B1095" s="0" t="s">
+      <c r="B1095" s="4" t="s">
         <v>4999</v>
       </c>
-      <c r="C1095" s="0" t="s">
+      <c r="C1095" s="4" t="s">
         <v>5000</v>
       </c>
-      <c r="D1095" s="0" t="s">
+      <c r="D1095" s="4" t="s">
         <v>5001</v>
       </c>
-      <c r="E1095" s="0" t="s">
+      <c r="E1095" s="4" t="s">
         <v>5002</v>
       </c>
-      <c r="F1095" s="9" t="s">
+      <c r="F1095" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1095" s="9" t="s">
+      <c r="G1095" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1095" s="0" t="n">
+      <c r="H1095" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1096" s="0" t="s">
+      <c r="A1096" s="4" t="s">
         <v>5003</v>
       </c>
-      <c r="B1096" s="0" t="s">
+      <c r="B1096" s="4" t="s">
         <v>5004</v>
       </c>
-      <c r="C1096" s="0" t="s">
+      <c r="C1096" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="D1096" s="0" t="s">
+      <c r="D1096" s="4" t="s">
         <v>4992</v>
       </c>
-      <c r="E1096" s="0" t="s">
+      <c r="E1096" s="4" t="s">
         <v>5005</v>
       </c>
-      <c r="F1096" s="9" t="s">
+      <c r="F1096" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1096" s="9" t="s">
+      <c r="G1096" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1096" s="0" t="n">
+      <c r="H1096" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1097" s="0" t="s">
+      <c r="A1097" s="4" t="s">
         <v>5006</v>
       </c>
-      <c r="B1097" s="0" t="s">
+      <c r="B1097" s="4" t="s">
         <v>5007</v>
       </c>
-      <c r="C1097" s="0" t="s">
+      <c r="C1097" s="4" t="s">
         <v>5008</v>
       </c>
-      <c r="D1097" s="0" t="s">
+      <c r="D1097" s="4" t="s">
         <v>5009</v>
       </c>
-      <c r="E1097" s="0" t="s">
+      <c r="E1097" s="4" t="s">
         <v>5010</v>
       </c>
-      <c r="F1097" s="9" t="s">
+      <c r="F1097" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1097" s="9" t="s">
+      <c r="G1097" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1097" s="0" t="n">
+      <c r="H1097" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1098" s="7" t="s">
+      <c r="A1098" s="5" t="s">
         <v>5011</v>
       </c>
-      <c r="B1098" s="8" t="s">
+      <c r="B1098" s="1" t="s">
         <v>5012</v>
       </c>
-      <c r="C1098" s="8" t="s">
+      <c r="C1098" s="1" t="s">
         <v>5013</v>
       </c>
-      <c r="D1098" s="8" t="s">
+      <c r="D1098" s="1" t="s">
         <v>5014</v>
       </c>
-      <c r="E1098" s="8" t="s">
+      <c r="E1098" s="1" t="s">
         <v>5015</v>
       </c>
-      <c r="F1098" s="9" t="s">
+      <c r="F1098" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1098" s="9" t="s">
+      <c r="G1098" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1098" s="0" t="n">
+      <c r="H1098" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1099" s="0" t="s">
+      <c r="A1099" s="4" t="s">
         <v>5016</v>
       </c>
-      <c r="B1099" s="0" t="s">
+      <c r="B1099" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C1099" s="0" t="s">
+      <c r="C1099" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="D1099" s="0" t="s">
+      <c r="D1099" s="4" t="s">
         <v>5017</v>
       </c>
-      <c r="E1099" s="0" t="s">
+      <c r="E1099" s="4" t="s">
         <v>5018</v>
       </c>
-      <c r="F1099" s="9" t="s">
+      <c r="F1099" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1099" s="9" t="s">
+      <c r="G1099" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="H1099" s="0" t="n">
+      <c r="H1099" s="4" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="1100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1100" s="4" t="s">
+        <v>5019</v>
+      </c>
+      <c r="B1100" s="4" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C1100" s="4" t="s">
+        <v>5020</v>
+      </c>
+      <c r="D1100" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1100" s="4" t="s">
+        <v>5021</v>
+      </c>
+      <c r="F1100" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1100" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1100" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1101" s="4" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B1101" s="4" t="s">
+        <v>5023</v>
+      </c>
+      <c r="C1101" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1101" s="4" t="s">
+        <v>5024</v>
+      </c>
+      <c r="E1101" s="4" t="s">
+        <v>5025</v>
+      </c>
+      <c r="F1101" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1101" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1101" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1102" s="4" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B1102" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1102" s="4" t="s">
+        <v>5027</v>
+      </c>
+      <c r="D1102" s="4" t="s">
+        <v>5028</v>
+      </c>
+      <c r="E1102" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F1102" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1102" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1102" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1103" s="4" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B1103" s="4" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C1103" s="4" t="s">
+        <v>5031</v>
+      </c>
+      <c r="D1103" s="4" t="s">
+        <v>5032</v>
+      </c>
+      <c r="E1103" s="4" t="s">
+        <v>5033</v>
+      </c>
+      <c r="F1103" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1103" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1103" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1104" s="4" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B1104" s="4" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C1104" s="4" t="s">
+        <v>5035</v>
+      </c>
+      <c r="D1104" s="4" t="s">
+        <v>5028</v>
+      </c>
+      <c r="E1104" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F1104" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1104" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1104" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1105" s="4" t="s">
+        <v>5036</v>
+      </c>
+      <c r="B1105" s="4" t="s">
+        <v>5037</v>
+      </c>
+      <c r="C1105" s="4" t="s">
+        <v>5038</v>
+      </c>
+      <c r="D1105" s="4" t="s">
+        <v>5039</v>
+      </c>
+      <c r="E1105" s="4" t="s">
+        <v>5040</v>
+      </c>
+      <c r="F1105" s="4" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1105" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1105" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1106" s="4" t="s">
+        <v>5041</v>
+      </c>
+      <c r="B1106" s="4" t="s">
+        <v>5042</v>
+      </c>
+      <c r="C1106" s="4" t="s">
+        <v>5043</v>
+      </c>
+      <c r="D1106" s="4" t="s">
+        <v>4279</v>
+      </c>
+      <c r="E1106" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="F1106" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1106" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1106" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1107" s="4" t="s">
+        <v>5044</v>
+      </c>
+      <c r="B1107" s="4" t="s">
+        <v>5045</v>
+      </c>
+      <c r="C1107" s="4" t="s">
+        <v>5046</v>
+      </c>
+      <c r="D1107" s="4" t="s">
+        <v>5047</v>
+      </c>
+      <c r="E1107" s="4" t="s">
+        <v>5048</v>
+      </c>
+      <c r="F1107" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1107" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1107" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1108" s="4" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B1108" s="4" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C1108" s="4" t="s">
+        <v>5051</v>
+      </c>
+      <c r="D1108" s="4" t="s">
+        <v>5052</v>
+      </c>
+      <c r="E1108" s="4" t="s">
+        <v>5053</v>
+      </c>
+      <c r="F1108" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1108" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1108" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1109" s="4" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B1109" s="4" t="s">
+        <v>5055</v>
+      </c>
+      <c r="C1109" s="4" t="s">
+        <v>5056</v>
+      </c>
+      <c r="D1109" s="4" t="s">
+        <v>5057</v>
+      </c>
+      <c r="E1109" s="4" t="s">
+        <v>5058</v>
+      </c>
+      <c r="F1109" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1109" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1109" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1110" s="4" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B1110" s="4" t="s">
+        <v>5060</v>
+      </c>
+      <c r="C1110" s="4" t="s">
+        <v>5061</v>
+      </c>
+      <c r="D1110" s="4" t="s">
+        <v>5062</v>
+      </c>
+      <c r="E1110" s="4" t="s">
+        <v>5063</v>
+      </c>
+      <c r="F1110" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1110" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1110" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1111" s="4" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B1111" s="4" t="s">
+        <v>5065</v>
+      </c>
+      <c r="C1111" s="4" t="s">
+        <v>5066</v>
+      </c>
+      <c r="D1111" s="4" t="s">
+        <v>5067</v>
+      </c>
+      <c r="E1111" s="4" t="s">
+        <v>5068</v>
+      </c>
+      <c r="F1111" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1111" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1111" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1112" s="4" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B1112" s="4" t="s">
+        <v>5070</v>
+      </c>
+      <c r="C1112" s="4" t="s">
+        <v>5071</v>
+      </c>
+      <c r="D1112" s="4" t="s">
+        <v>5072</v>
+      </c>
+      <c r="E1112" s="4" t="s">
+        <v>5073</v>
+      </c>
+      <c r="F1112" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1112" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1112" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1113" s="4" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B1113" s="4" t="s">
+        <v>5075</v>
+      </c>
+      <c r="C1113" s="4" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D1113" s="4" t="s">
+        <v>5077</v>
+      </c>
+      <c r="E1113" s="4" t="s">
+        <v>5078</v>
+      </c>
+      <c r="F1113" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1113" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1113" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1114" s="4" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B1114" s="4" t="s">
+        <v>4279</v>
+      </c>
+      <c r="C1114" s="4" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D1114" s="4" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E1114" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="F1114" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1114" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1114" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1115" s="4" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B1115" s="4" t="s">
+        <v>5081</v>
+      </c>
+      <c r="C1115" s="4" t="s">
+        <v>5082</v>
+      </c>
+      <c r="D1115" s="4" t="s">
+        <v>5083</v>
+      </c>
+      <c r="E1115" s="4" t="s">
+        <v>5084</v>
+      </c>
+      <c r="F1115" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1115" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1115" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1116" s="4" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B1116" s="4" t="s">
+        <v>5086</v>
+      </c>
+      <c r="C1116" s="4" t="s">
+        <v>5087</v>
+      </c>
+      <c r="D1116" s="4" t="s">
+        <v>5088</v>
+      </c>
+      <c r="E1116" s="4" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F1116" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1116" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1116" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1117" s="4" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>5091</v>
+      </c>
+      <c r="C1117" s="4" t="s">
+        <v>5092</v>
+      </c>
+      <c r="D1117" s="4" t="s">
+        <v>5093</v>
+      </c>
+      <c r="E1117" s="4" t="s">
+        <v>4278</v>
+      </c>
+      <c r="F1117" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1117" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1117" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1118" s="4" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B1118" s="4" t="s">
+        <v>5095</v>
+      </c>
+      <c r="C1118" s="4" t="s">
+        <v>5096</v>
+      </c>
+      <c r="D1118" s="4" t="s">
+        <v>5097</v>
+      </c>
+      <c r="E1118" s="4" t="s">
+        <v>5098</v>
+      </c>
+      <c r="F1118" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1118" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1118" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1119" s="4" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B1119" s="4" t="s">
+        <v>5100</v>
+      </c>
+      <c r="C1119" s="4" t="s">
+        <v>5101</v>
+      </c>
+      <c r="D1119" s="4" t="s">
+        <v>5102</v>
+      </c>
+      <c r="E1119" s="4" t="s">
+        <v>5103</v>
+      </c>
+      <c r="F1119" s="1" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1119" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1119" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="4" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B1120" s="4" t="s">
+        <v>5105</v>
+      </c>
+      <c r="C1120" s="4" t="s">
+        <v>5106</v>
+      </c>
+      <c r="D1120" s="4" t="s">
+        <v>5107</v>
+      </c>
+      <c r="E1120" s="4" t="s">
+        <v>5108</v>
+      </c>
+      <c r="F1120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1120" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1120" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1121" s="4" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B1121" s="4" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C1121" s="4" t="s">
+        <v>5111</v>
+      </c>
+      <c r="D1121" s="4" t="s">
+        <v>5112</v>
+      </c>
+      <c r="E1121" s="4" t="s">
+        <v>5113</v>
+      </c>
+      <c r="F1121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1121" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1121" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1122" s="4" t="s">
+        <v>5114</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>5115</v>
+      </c>
+      <c r="C1122" s="4" t="s">
+        <v>5116</v>
+      </c>
+      <c r="D1122" s="4" t="s">
+        <v>5117</v>
+      </c>
+      <c r="E1122" s="4" t="s">
+        <v>5118</v>
+      </c>
+      <c r="F1122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1122" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1122" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1123" s="4" t="s">
+        <v>5119</v>
+      </c>
+      <c r="B1123" s="4" t="s">
+        <v>5120</v>
+      </c>
+      <c r="C1123" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1123" s="4" t="s">
+        <v>5121</v>
+      </c>
+      <c r="E1123" s="4" t="s">
+        <v>5122</v>
+      </c>
+      <c r="F1123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1123" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1123" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1124" s="4" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B1124" s="4" t="s">
+        <v>5124</v>
+      </c>
+      <c r="C1124" s="4" t="s">
+        <v>5125</v>
+      </c>
+      <c r="D1124" s="4" t="s">
+        <v>5126</v>
+      </c>
+      <c r="E1124" s="4" t="s">
+        <v>5127</v>
+      </c>
+      <c r="F1124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1124" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1124" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1125" s="4" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1125" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1125" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1125" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1125" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1125" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1126" s="4" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B1126" s="4" t="s">
+        <v>5130</v>
+      </c>
+      <c r="C1126" s="4" t="s">
+        <v>5131</v>
+      </c>
+      <c r="D1126" s="4" t="s">
+        <v>5132</v>
+      </c>
+      <c r="E1126" s="4" t="s">
+        <v>5133</v>
+      </c>
+      <c r="F1126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1126" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1126" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1127" s="4" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>5135</v>
+      </c>
+      <c r="C1127" s="4" t="s">
+        <v>5136</v>
+      </c>
+      <c r="D1127" s="4" t="s">
+        <v>5137</v>
+      </c>
+      <c r="E1127" s="4" t="s">
+        <v>5138</v>
+      </c>
+      <c r="F1127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1127" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1127" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1128" s="4" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B1128" s="4" t="s">
+        <v>5140</v>
+      </c>
+      <c r="C1128" s="4" t="s">
+        <v>5141</v>
+      </c>
+      <c r="D1128" s="4" t="s">
+        <v>5142</v>
+      </c>
+      <c r="E1128" s="4" t="s">
+        <v>5143</v>
+      </c>
+      <c r="F1128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1128" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1128" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1129" s="4" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>5145</v>
+      </c>
+      <c r="C1129" s="4" t="s">
+        <v>5146</v>
+      </c>
+      <c r="D1129" s="4" t="s">
+        <v>5147</v>
+      </c>
+      <c r="E1129" s="4" t="s">
+        <v>5148</v>
+      </c>
+      <c r="F1129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1129" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1129" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1130" s="4" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C1130" s="4" t="s">
+        <v>5151</v>
+      </c>
+      <c r="D1130" s="4" t="s">
+        <v>5152</v>
+      </c>
+      <c r="E1130" s="4" t="s">
+        <v>5153</v>
+      </c>
+      <c r="F1130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1130" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1130" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1131" s="4" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C1131" s="4" t="s">
+        <v>5156</v>
+      </c>
+      <c r="D1131" s="4" t="s">
+        <v>5157</v>
+      </c>
+      <c r="E1131" s="4" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F1131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1131" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1131" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1132" s="4" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B1132" s="4" t="s">
+        <v>5159</v>
+      </c>
+      <c r="C1132" s="4" t="s">
+        <v>5160</v>
+      </c>
+      <c r="D1132" s="4" t="s">
+        <v>5161</v>
+      </c>
+      <c r="E1132" s="4" t="s">
+        <v>5162</v>
+      </c>
+      <c r="F1132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1132" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1132" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1133" s="4" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B1133" s="4" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C1133" s="4" t="s">
+        <v>5165</v>
+      </c>
+      <c r="D1133" s="4" t="s">
+        <v>5166</v>
+      </c>
+      <c r="E1133" s="4" t="s">
+        <v>5167</v>
+      </c>
+      <c r="F1133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1133" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1133" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1134" s="4" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B1134" s="4" t="s">
+        <v>5169</v>
+      </c>
+      <c r="C1134" s="4" t="s">
+        <v>5170</v>
+      </c>
+      <c r="D1134" s="4" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E1134" s="4" t="s">
+        <v>5171</v>
+      </c>
+      <c r="F1134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1134" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1134" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1135" s="4" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B1135" s="4" t="s">
+        <v>5173</v>
+      </c>
+      <c r="C1135" s="4" t="s">
+        <v>5174</v>
+      </c>
+      <c r="D1135" s="4" t="s">
+        <v>5175</v>
+      </c>
+      <c r="E1135" s="4" t="s">
+        <v>5176</v>
+      </c>
+      <c r="F1135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1135" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1135" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1136" s="4" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B1136" s="4" t="s">
+        <v>5178</v>
+      </c>
+      <c r="C1136" s="4" t="s">
+        <v>5179</v>
+      </c>
+      <c r="D1136" s="4" t="s">
+        <v>5180</v>
+      </c>
+      <c r="E1136" s="4" t="s">
+        <v>5181</v>
+      </c>
+      <c r="F1136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1136" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1136" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1137" s="4" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>5183</v>
+      </c>
+      <c r="C1137" s="4" t="s">
+        <v>5184</v>
+      </c>
+      <c r="D1137" s="4" t="s">
+        <v>5185</v>
+      </c>
+      <c r="E1137" s="4" t="s">
+        <v>5186</v>
+      </c>
+      <c r="F1137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1137" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1137" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1138" s="4" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B1138" s="4" t="s">
+        <v>5188</v>
+      </c>
+      <c r="C1138" s="4" t="s">
+        <v>5189</v>
+      </c>
+      <c r="D1138" s="4" t="s">
+        <v>5190</v>
+      </c>
+      <c r="E1138" s="4" t="s">
+        <v>5191</v>
+      </c>
+      <c r="F1138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1138" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1138" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1139" s="4" t="s">
+        <v>5192</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>5193</v>
+      </c>
+      <c r="C1139" s="4" t="s">
+        <v>5194</v>
+      </c>
+      <c r="D1139" s="4" t="s">
+        <v>5195</v>
+      </c>
+      <c r="E1139" s="4" t="s">
+        <v>5196</v>
+      </c>
+      <c r="F1139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1139" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1139" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1140" s="4" t="s">
+        <v>5197</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>5198</v>
+      </c>
+      <c r="C1140" s="4" t="s">
+        <v>5199</v>
+      </c>
+      <c r="D1140" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1140" s="4" t="s">
+        <v>5200</v>
+      </c>
+      <c r="F1140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1140" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1140" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1141" s="4" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>5202</v>
+      </c>
+      <c r="C1141" s="4" t="s">
+        <v>5203</v>
+      </c>
+      <c r="D1141" s="4" t="s">
+        <v>5204</v>
+      </c>
+      <c r="E1141" s="4" t="s">
+        <v>5205</v>
+      </c>
+      <c r="F1141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1141" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1141" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1142" s="4" t="s">
+        <v>5206</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>5207</v>
+      </c>
+      <c r="C1142" s="4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D1142" s="4" t="s">
+        <v>5208</v>
+      </c>
+      <c r="E1142" s="4" t="s">
+        <v>5209</v>
+      </c>
+      <c r="F1142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1142" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1142" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1143" s="4" t="s">
+        <v>5210</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>5211</v>
+      </c>
+      <c r="C1143" s="4" t="s">
+        <v>5212</v>
+      </c>
+      <c r="D1143" s="4" t="s">
+        <v>5213</v>
+      </c>
+      <c r="E1143" s="4" t="s">
+        <v>5214</v>
+      </c>
+      <c r="F1143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1143" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1143" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1144" s="5" t="s">
+        <v>5215</v>
+      </c>
+      <c r="B1144" s="1" t="s">
+        <v>5216</v>
+      </c>
+      <c r="C1144" s="1" t="s">
+        <v>5217</v>
+      </c>
+      <c r="D1144" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1144" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1144" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1145" s="4" t="s">
+        <v>5218</v>
+      </c>
+      <c r="B1145" s="4" t="s">
+        <v>5219</v>
+      </c>
+      <c r="C1145" s="4" t="s">
+        <v>5220</v>
+      </c>
+      <c r="D1145" s="4" t="s">
+        <v>5221</v>
+      </c>
+      <c r="E1145" s="4" t="s">
+        <v>5222</v>
+      </c>
+      <c r="F1145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1145" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1145" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1146" s="4" t="s">
+        <v>5223</v>
+      </c>
+      <c r="B1146" s="4" t="s">
+        <v>5224</v>
+      </c>
+      <c r="C1146" s="4" t="s">
+        <v>5225</v>
+      </c>
+      <c r="D1146" s="4" t="s">
+        <v>5226</v>
+      </c>
+      <c r="E1146" s="4" t="s">
+        <v>5227</v>
+      </c>
+      <c r="F1146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1146" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1146" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1147" s="4" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B1147" s="4" t="s">
+        <v>5229</v>
+      </c>
+      <c r="C1147" s="4" t="s">
+        <v>5230</v>
+      </c>
+      <c r="D1147" s="4" t="s">
+        <v>5231</v>
+      </c>
+      <c r="E1147" s="4" t="s">
+        <v>5232</v>
+      </c>
+      <c r="F1147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1147" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1147" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1148" s="4" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B1148" s="4" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C1148" s="4" t="s">
+        <v>5235</v>
+      </c>
+      <c r="D1148" s="4" t="s">
+        <v>5236</v>
+      </c>
+      <c r="E1148" s="4" t="s">
+        <v>5237</v>
+      </c>
+      <c r="F1148" s="4" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1148" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1148" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1149" s="4" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B1149" s="4" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C1149" s="4" t="s">
+        <v>5240</v>
+      </c>
+      <c r="D1149" s="4" t="s">
+        <v>5241</v>
+      </c>
+      <c r="E1149" s="4" t="s">
+        <v>5242</v>
+      </c>
+      <c r="F1149" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1149" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1149" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1150" s="4" t="s">
+        <v>5243</v>
+      </c>
+      <c r="B1150" s="4" t="s">
+        <v>5244</v>
+      </c>
+      <c r="C1150" s="4" t="s">
+        <v>5245</v>
+      </c>
+      <c r="D1150" s="4" t="s">
+        <v>5246</v>
+      </c>
+      <c r="E1150" s="4" t="s">
+        <v>5247</v>
+      </c>
+      <c r="F1150" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1150" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1150" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1151" s="4" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B1151" s="4" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C1151" s="4" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D1151" s="4" t="s">
+        <v>5251</v>
+      </c>
+      <c r="E1151" s="4" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F1151" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1151" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1151" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1152" s="4" t="s">
+        <v>5253</v>
+      </c>
+      <c r="B1152" s="4" t="s">
+        <v>5254</v>
+      </c>
+      <c r="C1152" s="4" t="s">
+        <v>5255</v>
+      </c>
+      <c r="D1152" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1152" s="4" t="s">
+        <v>5256</v>
+      </c>
+      <c r="F1152" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1152" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1152" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1153" s="4" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B1153" s="4" t="s">
+        <v>5258</v>
+      </c>
+      <c r="C1153" s="4" t="s">
+        <v>5259</v>
+      </c>
+      <c r="D1153" s="4" t="s">
+        <v>5260</v>
+      </c>
+      <c r="E1153" s="1" t="s">
+        <v>5261</v>
+      </c>
+      <c r="F1153" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1153" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1153" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1154" s="4" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B1154" s="4" t="s">
+        <v>5263</v>
+      </c>
+      <c r="C1154" s="4" t="s">
+        <v>5264</v>
+      </c>
+      <c r="D1154" s="4" t="s">
+        <v>5265</v>
+      </c>
+      <c r="E1154" s="4" t="s">
+        <v>5266</v>
+      </c>
+      <c r="F1154" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1154" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1154" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1155" s="4" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B1155" s="4" t="s">
+        <v>5268</v>
+      </c>
+      <c r="C1155" s="4" t="s">
+        <v>5269</v>
+      </c>
+      <c r="D1155" s="4" t="s">
+        <v>5270</v>
+      </c>
+      <c r="E1155" s="4" t="s">
+        <v>5271</v>
+      </c>
+      <c r="F1155" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1155" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1155" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1156" s="4" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B1156" s="4" t="s">
+        <v>5273</v>
+      </c>
+      <c r="C1156" s="4" t="s">
+        <v>5274</v>
+      </c>
+      <c r="D1156" s="4" t="s">
+        <v>5275</v>
+      </c>
+      <c r="E1156" s="4" t="s">
+        <v>5276</v>
+      </c>
+      <c r="F1156" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1156" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1156" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1157" s="4" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B1157" s="4" t="s">
+        <v>5278</v>
+      </c>
+      <c r="C1157" s="4" t="s">
+        <v>5279</v>
+      </c>
+      <c r="D1157" s="4" t="s">
+        <v>5280</v>
+      </c>
+      <c r="E1157" s="4" t="s">
+        <v>5281</v>
+      </c>
+      <c r="F1157" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1157" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1157" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1158" s="4" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B1158" s="4" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C1158" s="4" t="s">
+        <v>5284</v>
+      </c>
+      <c r="D1158" s="4" t="s">
+        <v>5285</v>
+      </c>
+      <c r="E1158" s="4" t="s">
+        <v>5286</v>
+      </c>
+      <c r="F1158" s="4" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1158" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1158" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1159" s="4" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B1159" s="4" t="s">
+        <v>5288</v>
+      </c>
+      <c r="C1159" s="4" t="s">
+        <v>5289</v>
+      </c>
+      <c r="D1159" s="4" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E1159" s="4" t="s">
+        <v>5291</v>
+      </c>
+      <c r="F1159" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1159" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1159" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1160" s="4" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B1160" s="4" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C1160" s="4" t="s">
+        <v>5294</v>
+      </c>
+      <c r="D1160" s="4" t="s">
+        <v>5295</v>
+      </c>
+      <c r="E1160" s="4" t="s">
+        <v>5296</v>
+      </c>
+      <c r="F1160" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1160" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1160" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1161" s="4" t="s">
+        <v>5297</v>
+      </c>
+      <c r="B1161" s="4" t="s">
+        <v>5298</v>
+      </c>
+      <c r="C1161" s="4" t="s">
+        <v>5299</v>
+      </c>
+      <c r="D1161" s="4" t="s">
+        <v>5300</v>
+      </c>
+      <c r="E1161" s="4" t="s">
+        <v>5301</v>
+      </c>
+      <c r="F1161" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1161" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1161" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1162" s="1" t="s">
+        <v>5302</v>
+      </c>
+      <c r="B1162" s="1" t="s">
+        <v>5303</v>
+      </c>
+      <c r="C1162" s="1" t="s">
+        <v>5304</v>
+      </c>
+      <c r="D1162" s="1" t="s">
+        <v>5305</v>
+      </c>
+      <c r="E1162" s="1" t="s">
+        <v>5306</v>
+      </c>
+      <c r="F1162" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1162" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1162" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1163" s="4" t="s">
+        <v>5307</v>
+      </c>
+      <c r="B1163" s="4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1163" s="4" t="s">
+        <v>5308</v>
+      </c>
+      <c r="D1163" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E1163" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F1163" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1163" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1163" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1164" s="4" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B1164" s="4" t="s">
+        <v>5310</v>
+      </c>
+      <c r="C1164" s="4" t="s">
+        <v>5311</v>
+      </c>
+      <c r="D1164" s="1" t="s">
+        <v>5312</v>
+      </c>
+      <c r="E1164" s="1" t="s">
+        <v>5313</v>
+      </c>
+      <c r="F1164" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1164" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1164" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1165" s="4" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B1165" s="4" t="s">
+        <v>5315</v>
+      </c>
+      <c r="C1165" s="4" t="s">
+        <v>5316</v>
+      </c>
+      <c r="D1165" s="4" t="s">
+        <v>5317</v>
+      </c>
+      <c r="E1165" s="4" t="s">
+        <v>5318</v>
+      </c>
+      <c r="F1165" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1165" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1165" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1166" s="4" t="s">
+        <v>5319</v>
+      </c>
+      <c r="B1166" s="4" t="s">
+        <v>5320</v>
+      </c>
+      <c r="C1166" s="4" t="s">
+        <v>5321</v>
+      </c>
+      <c r="D1166" s="4" t="s">
+        <v>5322</v>
+      </c>
+      <c r="E1166" s="1" t="s">
+        <v>5323</v>
+      </c>
+      <c r="F1166" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1166" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1166" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1167" s="4" t="s">
+        <v>5324</v>
+      </c>
+      <c r="B1167" s="4" t="s">
+        <v>5325</v>
+      </c>
+      <c r="C1167" s="4" t="s">
+        <v>5326</v>
+      </c>
+      <c r="D1167" s="4" t="s">
+        <v>5327</v>
+      </c>
+      <c r="E1167" s="4" t="s">
+        <v>5328</v>
+      </c>
+      <c r="F1167" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1167" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1167" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1168" s="4" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B1168" s="4" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1168" s="4" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D1168" s="4" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E1168" s="4" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F1168" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1168" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1168" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1169" s="4" t="s">
+        <v>5330</v>
+      </c>
+      <c r="B1169" s="4" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C1169" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D1169" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E1169" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F1169" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1169" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1169" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1170" s="4" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B1170" s="4" t="s">
+        <v>5332</v>
+      </c>
+      <c r="C1170" s="4" t="s">
+        <v>5066</v>
+      </c>
+      <c r="D1170" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1170" s="4" t="s">
+        <v>5333</v>
+      </c>
+      <c r="F1170" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1170" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1170" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1171" s="4" t="s">
+        <v>5334</v>
+      </c>
+      <c r="B1171" s="4" t="s">
+        <v>5335</v>
+      </c>
+      <c r="C1171" s="4" t="s">
+        <v>5336</v>
+      </c>
+      <c r="D1171" s="4" t="s">
+        <v>5337</v>
+      </c>
+      <c r="E1171" s="4" t="s">
+        <v>5338</v>
+      </c>
+      <c r="F1171" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1171" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1171" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1172" customFormat="false" ht="113" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1172" s="5" t="s">
+        <v>5339</v>
+      </c>
+      <c r="B1172" s="1" t="s">
+        <v>5340</v>
+      </c>
+      <c r="C1172" s="1" t="s">
+        <v>5341</v>
+      </c>
+      <c r="D1172" s="1" t="s">
+        <v>5342</v>
+      </c>
+      <c r="E1172" s="1" t="s">
+        <v>5343</v>
+      </c>
+      <c r="F1172" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1172" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1172" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1173" customFormat="false" ht="135.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1173" s="5" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B1173" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="C1173" s="1" t="s">
+        <v>5346</v>
+      </c>
+      <c r="D1173" s="1" t="s">
+        <v>5347</v>
+      </c>
+      <c r="E1173" s="1" t="s">
+        <v>5348</v>
+      </c>
+      <c r="F1173" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1173" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1173" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1174" s="4" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B1174" s="4" t="s">
+        <v>5350</v>
+      </c>
+      <c r="C1174" s="4" t="s">
+        <v>5351</v>
+      </c>
+      <c r="D1174" s="4" t="s">
+        <v>5352</v>
+      </c>
+      <c r="E1174" s="4" t="s">
+        <v>5353</v>
+      </c>
+      <c r="F1174" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1174" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1174" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1175" s="4" t="s">
+        <v>5354</v>
+      </c>
+      <c r="B1175" s="4" t="s">
+        <v>5355</v>
+      </c>
+      <c r="C1175" s="4" t="s">
+        <v>5356</v>
+      </c>
+      <c r="D1175" s="4" t="s">
+        <v>5357</v>
+      </c>
+      <c r="E1175" s="4" t="s">
+        <v>5358</v>
+      </c>
+      <c r="F1175" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1175" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1175" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1176" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1176" s="5" t="s">
+        <v>5359</v>
+      </c>
+      <c r="B1176" s="1" t="s">
+        <v>5360</v>
+      </c>
+      <c r="C1176" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="D1176" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="E1176" s="1" t="s">
+        <v>5363</v>
+      </c>
+      <c r="F1176" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1176" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1176" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1177" s="4" t="s">
+        <v>5364</v>
+      </c>
+      <c r="B1177" s="4" t="s">
+        <v>5365</v>
+      </c>
+      <c r="C1177" s="4" t="s">
+        <v>5366</v>
+      </c>
+      <c r="D1177" s="4" t="s">
+        <v>5367</v>
+      </c>
+      <c r="E1177" s="4" t="s">
+        <v>5368</v>
+      </c>
+      <c r="F1177" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1177" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1177" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1178" s="4" t="s">
+        <v>5369</v>
+      </c>
+      <c r="B1178" s="4" t="s">
+        <v>5370</v>
+      </c>
+      <c r="C1178" s="4" t="s">
+        <v>5371</v>
+      </c>
+      <c r="D1178" s="4" t="s">
+        <v>5372</v>
+      </c>
+      <c r="E1178" s="4" t="s">
+        <v>5373</v>
+      </c>
+      <c r="F1178" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1178" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1178" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1179" s="4" t="s">
+        <v>5374</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>5375</v>
+      </c>
+      <c r="C1179" s="4" t="s">
+        <v>5376</v>
+      </c>
+      <c r="D1179" s="4" t="s">
+        <v>5377</v>
+      </c>
+      <c r="E1179" s="4" t="s">
+        <v>5378</v>
+      </c>
+      <c r="F1179" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1179" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1179" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1180" s="4" t="s">
+        <v>5379</v>
+      </c>
+      <c r="B1180" s="4" t="s">
+        <v>5380</v>
+      </c>
+      <c r="C1180" s="4" t="s">
+        <v>5381</v>
+      </c>
+      <c r="D1180" s="4" t="s">
+        <v>5382</v>
+      </c>
+      <c r="E1180" s="4" t="s">
+        <v>5383</v>
+      </c>
+      <c r="F1180" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1180" s="1" t="s">
+        <v>4567</v>
+      </c>
+      <c r="H1180" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1181" s="4" t="s">
+        <v>5384</v>
+      </c>
+      <c r="B1181" s="4" t="s">
+        <v>5385</v>
+      </c>
+      <c r="C1181" s="4" t="s">
+        <v>5386</v>
+      </c>
+      <c r="D1181" s="4" t="s">
+        <v>5387</v>
+      </c>
+      <c r="E1181" s="4" t="s">
+        <v>5388</v>
+      </c>
+      <c r="F1181" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1181" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1181" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1182" s="4" t="s">
+        <v>5390</v>
+      </c>
+      <c r="B1182" s="4" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C1182" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D1182" s="4" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E1182" s="4" t="s">
+        <v>3961</v>
+      </c>
+      <c r="F1182" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1182" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1182" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1183" s="4" t="s">
+        <v>5391</v>
+      </c>
+      <c r="B1183" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C1183" s="4" t="s">
+        <v>5392</v>
+      </c>
+      <c r="D1183" s="4" t="s">
+        <v>5393</v>
+      </c>
+      <c r="E1183" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F1183" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1183" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1183" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1184" s="4" t="s">
+        <v>5394</v>
+      </c>
+      <c r="B1184" s="4" t="s">
+        <v>5395</v>
+      </c>
+      <c r="C1184" s="4" t="s">
+        <v>5396</v>
+      </c>
+      <c r="D1184" s="4" t="s">
+        <v>5397</v>
+      </c>
+      <c r="E1184" s="4" t="s">
+        <v>5398</v>
+      </c>
+      <c r="F1184" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1184" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1184" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1185" s="4" t="s">
+        <v>5399</v>
+      </c>
+      <c r="B1185" s="4" t="s">
+        <v>5400</v>
+      </c>
+      <c r="C1185" s="4" t="s">
+        <v>5401</v>
+      </c>
+      <c r="D1185" s="4" t="s">
+        <v>5402</v>
+      </c>
+      <c r="E1185" s="4" t="s">
+        <v>5403</v>
+      </c>
+      <c r="F1185" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1185" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1185" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1186" s="4" t="s">
+        <v>5404</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>5405</v>
+      </c>
+      <c r="C1186" s="4" t="s">
+        <v>5406</v>
+      </c>
+      <c r="D1186" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="E1186" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F1186" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1186" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1186" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1187" s="4" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>5408</v>
+      </c>
+      <c r="C1187" s="4" t="s">
+        <v>5409</v>
+      </c>
+      <c r="D1187" s="4" t="s">
+        <v>5410</v>
+      </c>
+      <c r="E1187" s="4" t="s">
+        <v>5411</v>
+      </c>
+      <c r="F1187" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1187" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1187" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1188" s="4" t="s">
+        <v>5412</v>
+      </c>
+      <c r="B1188" s="4" t="s">
+        <v>5413</v>
+      </c>
+      <c r="C1188" s="4" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D1188" s="4" t="s">
+        <v>3966</v>
+      </c>
+      <c r="E1188" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F1188" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1188" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1188" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1189" s="4" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B1189" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C1189" s="4" t="s">
+        <v>5415</v>
+      </c>
+      <c r="D1189" s="4" t="s">
+        <v>5416</v>
+      </c>
+      <c r="E1189" s="4" t="s">
+        <v>5417</v>
+      </c>
+      <c r="F1189" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1189" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1189" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1190" s="4" t="s">
+        <v>5418</v>
+      </c>
+      <c r="B1190" s="4" t="s">
+        <v>5419</v>
+      </c>
+      <c r="C1190" s="4" t="s">
+        <v>5420</v>
+      </c>
+      <c r="D1190" s="4" t="s">
+        <v>5421</v>
+      </c>
+      <c r="E1190" s="4" t="s">
+        <v>5422</v>
+      </c>
+      <c r="F1190" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1190" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1190" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1191" s="4" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B1191" s="4" t="s">
+        <v>5424</v>
+      </c>
+      <c r="C1191" s="4" t="s">
+        <v>5425</v>
+      </c>
+      <c r="D1191" s="4" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E1191" s="4" t="s">
+        <v>5426</v>
+      </c>
+      <c r="F1191" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1191" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1191" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1192" s="4" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B1192" s="4" t="s">
+        <v>5428</v>
+      </c>
+      <c r="C1192" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1192" s="4" t="s">
+        <v>5429</v>
+      </c>
+      <c r="E1192" s="4" t="s">
+        <v>5430</v>
+      </c>
+      <c r="F1192" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1192" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1192" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1193" s="4" t="s">
+        <v>5431</v>
+      </c>
+      <c r="B1193" s="4" t="s">
+        <v>5417</v>
+      </c>
+      <c r="C1193" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1193" s="4" t="s">
+        <v>5432</v>
+      </c>
+      <c r="E1193" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F1193" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1193" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1193" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1194" s="4" t="s">
+        <v>5433</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>5434</v>
+      </c>
+      <c r="C1194" s="4" t="s">
+        <v>5435</v>
+      </c>
+      <c r="D1194" s="4" t="s">
+        <v>5436</v>
+      </c>
+      <c r="E1194" s="4" t="s">
+        <v>5437</v>
+      </c>
+      <c r="F1194" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1194" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1194" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1195" s="4" t="s">
+        <v>5438</v>
+      </c>
+      <c r="B1195" s="4" t="s">
+        <v>5439</v>
+      </c>
+      <c r="C1195" s="4" t="s">
+        <v>5440</v>
+      </c>
+      <c r="D1195" s="4" t="s">
+        <v>5441</v>
+      </c>
+      <c r="E1195" s="4" t="s">
+        <v>5442</v>
+      </c>
+      <c r="F1195" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1195" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1195" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1196" s="4" t="s">
+        <v>5443</v>
+      </c>
+      <c r="B1196" s="4" t="s">
+        <v>5444</v>
+      </c>
+      <c r="C1196" s="4" t="s">
+        <v>5445</v>
+      </c>
+      <c r="D1196" s="4" t="s">
+        <v>5446</v>
+      </c>
+      <c r="E1196" s="4" t="s">
+        <v>5447</v>
+      </c>
+      <c r="F1196" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1196" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1196" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1197" s="1" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B1197" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>5449</v>
+      </c>
+      <c r="D1197" s="1" t="s">
+        <v>5450</v>
+      </c>
+      <c r="E1197" s="1" t="s">
+        <v>5451</v>
+      </c>
+      <c r="F1197" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1197" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1197" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1198" s="4" t="s">
+        <v>5452</v>
+      </c>
+      <c r="B1198" s="4" t="s">
+        <v>5453</v>
+      </c>
+      <c r="C1198" s="4" t="s">
+        <v>5454</v>
+      </c>
+      <c r="D1198" s="4" t="s">
+        <v>5455</v>
+      </c>
+      <c r="E1198" s="4" t="s">
+        <v>5456</v>
+      </c>
+      <c r="F1198" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1198" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1198" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1199" s="4" t="s">
+        <v>5457</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>5458</v>
+      </c>
+      <c r="C1199" s="4" t="s">
+        <v>5459</v>
+      </c>
+      <c r="D1199" s="4" t="s">
+        <v>5460</v>
+      </c>
+      <c r="E1199" s="4" t="s">
+        <v>5461</v>
+      </c>
+      <c r="F1199" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1199" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1199" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1200" s="4" t="s">
+        <v>5462</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>5463</v>
+      </c>
+      <c r="C1200" s="4" t="s">
+        <v>5464</v>
+      </c>
+      <c r="D1200" s="4" t="s">
+        <v>5465</v>
+      </c>
+      <c r="E1200" s="4" t="s">
+        <v>5466</v>
+      </c>
+      <c r="F1200" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1200" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1200" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1201" s="4" t="s">
+        <v>5467</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>5468</v>
+      </c>
+      <c r="C1201" s="4" t="s">
+        <v>5469</v>
+      </c>
+      <c r="D1201" s="4" t="s">
+        <v>5470</v>
+      </c>
+      <c r="E1201" s="4" t="s">
+        <v>5471</v>
+      </c>
+      <c r="F1201" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1201" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1201" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1202" s="4" t="s">
+        <v>5472</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>5473</v>
+      </c>
+      <c r="C1202" s="4" t="s">
+        <v>5474</v>
+      </c>
+      <c r="D1202" s="4" t="s">
+        <v>5475</v>
+      </c>
+      <c r="E1202" s="4" t="s">
+        <v>5476</v>
+      </c>
+      <c r="F1202" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1202" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1202" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1203" s="4" t="s">
+        <v>5477</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>5478</v>
+      </c>
+      <c r="C1203" s="4" t="s">
+        <v>5479</v>
+      </c>
+      <c r="D1203" s="4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E1203" s="4" t="s">
+        <v>5480</v>
+      </c>
+      <c r="F1203" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1203" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1203" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1204" s="4" t="s">
+        <v>5481</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>5482</v>
+      </c>
+      <c r="C1204" s="4" t="s">
+        <v>5483</v>
+      </c>
+      <c r="D1204" s="4" t="s">
+        <v>5484</v>
+      </c>
+      <c r="E1204" s="4" t="s">
+        <v>5485</v>
+      </c>
+      <c r="F1204" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1204" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1204" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1205" s="4" t="s">
+        <v>5486</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>5487</v>
+      </c>
+      <c r="C1205" s="4" t="s">
+        <v>5488</v>
+      </c>
+      <c r="D1205" s="4" t="s">
+        <v>5489</v>
+      </c>
+      <c r="E1205" s="4" t="s">
+        <v>5490</v>
+      </c>
+      <c r="F1205" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1205" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1205" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1206" s="4" t="s">
+        <v>5491</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>5492</v>
+      </c>
+      <c r="C1206" s="4" t="s">
+        <v>5493</v>
+      </c>
+      <c r="D1206" s="4" t="s">
+        <v>5494</v>
+      </c>
+      <c r="E1206" s="4" t="s">
+        <v>5495</v>
+      </c>
+      <c r="F1206" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1206" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1206" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1207" s="4" t="s">
+        <v>5496</v>
+      </c>
+      <c r="B1207" s="4" t="s">
+        <v>5497</v>
+      </c>
+      <c r="C1207" s="4" t="s">
+        <v>5498</v>
+      </c>
+      <c r="D1207" s="4" t="s">
+        <v>5499</v>
+      </c>
+      <c r="E1207" s="4" t="s">
+        <v>5500</v>
+      </c>
+      <c r="F1207" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1207" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1207" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1208" s="4" t="s">
+        <v>5501</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>5502</v>
+      </c>
+      <c r="C1208" s="4" t="s">
+        <v>5503</v>
+      </c>
+      <c r="D1208" s="4" t="s">
+        <v>5504</v>
+      </c>
+      <c r="E1208" s="4" t="s">
+        <v>5505</v>
+      </c>
+      <c r="F1208" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1208" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1208" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1209" s="4" t="s">
+        <v>5506</v>
+      </c>
+      <c r="B1209" s="4" t="s">
+        <v>5507</v>
+      </c>
+      <c r="C1209" s="4" t="s">
+        <v>5508</v>
+      </c>
+      <c r="D1209" s="4" t="s">
+        <v>5509</v>
+      </c>
+      <c r="E1209" s="4" t="s">
+        <v>5510</v>
+      </c>
+      <c r="F1209" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1209" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1209" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1210" s="4" t="s">
+        <v>5511</v>
+      </c>
+      <c r="B1210" s="4" t="s">
+        <v>5512</v>
+      </c>
+      <c r="C1210" s="4" t="s">
+        <v>5513</v>
+      </c>
+      <c r="D1210" s="4" t="s">
+        <v>5514</v>
+      </c>
+      <c r="E1210" s="4" t="s">
+        <v>5515</v>
+      </c>
+      <c r="F1210" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1210" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1210" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1211" s="4" t="s">
+        <v>5516</v>
+      </c>
+      <c r="B1211" s="4" t="s">
+        <v>5517</v>
+      </c>
+      <c r="C1211" s="4" t="s">
+        <v>5518</v>
+      </c>
+      <c r="D1211" s="4" t="s">
+        <v>5519</v>
+      </c>
+      <c r="E1211" s="4" t="s">
+        <v>5520</v>
+      </c>
+      <c r="F1211" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1211" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1211" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" customFormat="false" ht="90.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1212" s="5" t="s">
+        <v>5521</v>
+      </c>
+      <c r="B1212" s="1" t="s">
+        <v>5522</v>
+      </c>
+      <c r="C1212" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D1212" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E1212" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="F1212" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1212" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1212" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1213" s="4" t="s">
+        <v>5524</v>
+      </c>
+      <c r="B1213" s="4" t="s">
+        <v>5525</v>
+      </c>
+      <c r="C1213" s="4" t="s">
+        <v>4029</v>
+      </c>
+      <c r="D1213" s="4" t="s">
+        <v>4028</v>
+      </c>
+      <c r="E1213" s="4" t="s">
+        <v>5526</v>
+      </c>
+      <c r="F1213" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1213" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1213" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1214" s="4" t="s">
+        <v>5527</v>
+      </c>
+      <c r="B1214" s="4" t="s">
+        <v>5528</v>
+      </c>
+      <c r="C1214" s="4" t="s">
+        <v>5529</v>
+      </c>
+      <c r="D1214" s="4" t="s">
+        <v>5530</v>
+      </c>
+      <c r="E1214" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F1214" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1214" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1214" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1215" s="4" t="s">
+        <v>5531</v>
+      </c>
+      <c r="B1215" s="4" t="s">
+        <v>5532</v>
+      </c>
+      <c r="C1215" s="4" t="s">
+        <v>5533</v>
+      </c>
+      <c r="D1215" s="4" t="s">
+        <v>5534</v>
+      </c>
+      <c r="E1215" s="4" t="s">
+        <v>5535</v>
+      </c>
+      <c r="F1215" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1215" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1215" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1216" s="4" t="s">
+        <v>5536</v>
+      </c>
+      <c r="B1216" s="4" t="s">
+        <v>5537</v>
+      </c>
+      <c r="C1216" s="4" t="s">
+        <v>5538</v>
+      </c>
+      <c r="D1216" s="4" t="s">
+        <v>5539</v>
+      </c>
+      <c r="E1216" s="4" t="s">
+        <v>5540</v>
+      </c>
+      <c r="F1216" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1216" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1216" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1217" s="4" t="s">
+        <v>5541</v>
+      </c>
+      <c r="B1217" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C1217" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D1217" s="4" t="s">
+        <v>5542</v>
+      </c>
+      <c r="E1217" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="F1217" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1217" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1217" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1218" s="4" t="s">
+        <v>5543</v>
+      </c>
+      <c r="B1218" s="4" t="s">
+        <v>5544</v>
+      </c>
+      <c r="C1218" s="4" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D1218" s="4" t="s">
+        <v>5546</v>
+      </c>
+      <c r="E1218" s="4" t="s">
+        <v>5547</v>
+      </c>
+      <c r="F1218" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1218" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1218" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1219" s="4" t="s">
+        <v>5548</v>
+      </c>
+      <c r="B1219" s="4" t="s">
+        <v>5549</v>
+      </c>
+      <c r="C1219" s="4" t="s">
+        <v>5550</v>
+      </c>
+      <c r="D1219" s="4" t="s">
+        <v>5551</v>
+      </c>
+      <c r="E1219" s="4" t="s">
+        <v>5552</v>
+      </c>
+      <c r="F1219" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1219" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1219" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1220" s="4" t="s">
+        <v>5553</v>
+      </c>
+      <c r="B1220" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C1220" s="4" t="s">
+        <v>5308</v>
+      </c>
+      <c r="D1220" s="4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E1220" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F1220" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1220" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1220" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1221" s="4" t="s">
+        <v>5554</v>
+      </c>
+      <c r="B1221" s="4" t="s">
+        <v>5555</v>
+      </c>
+      <c r="C1221" s="4" t="s">
+        <v>4582</v>
+      </c>
+      <c r="D1221" s="4" t="s">
+        <v>5556</v>
+      </c>
+      <c r="E1221" s="4" t="s">
+        <v>5557</v>
+      </c>
+      <c r="F1221" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1221" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1221" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1222" s="4" t="s">
+        <v>5558</v>
+      </c>
+      <c r="B1222" s="4" t="s">
+        <v>5559</v>
+      </c>
+      <c r="C1222" s="4" t="s">
+        <v>5560</v>
+      </c>
+      <c r="D1222" s="4" t="s">
+        <v>5561</v>
+      </c>
+      <c r="E1222" s="4" t="s">
+        <v>5562</v>
+      </c>
+      <c r="F1222" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1222" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1222" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1223" s="4" t="s">
+        <v>5563</v>
+      </c>
+      <c r="B1223" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1223" s="4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D1223" s="1" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E1223" s="1" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F1223" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1223" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1223" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1224" s="4" t="s">
+        <v>5564</v>
+      </c>
+      <c r="B1224" s="4" t="s">
+        <v>5565</v>
+      </c>
+      <c r="C1224" s="4" t="s">
+        <v>5566</v>
+      </c>
+      <c r="D1224" s="4" t="s">
+        <v>5567</v>
+      </c>
+      <c r="E1224" s="4" t="s">
+        <v>4311</v>
+      </c>
+      <c r="F1224" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1224" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1224" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1225" s="4" t="s">
+        <v>5568</v>
+      </c>
+      <c r="B1225" s="4" t="s">
+        <v>5569</v>
+      </c>
+      <c r="C1225" s="4" t="s">
+        <v>4813</v>
+      </c>
+      <c r="D1225" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1225" s="4" t="s">
+        <v>4324</v>
+      </c>
+      <c r="F1225" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1225" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1225" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1226" s="4" t="s">
+        <v>5570</v>
+      </c>
+      <c r="B1226" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C1226" s="4" t="s">
+        <v>5571</v>
+      </c>
+      <c r="D1226" s="4" t="s">
+        <v>2613</v>
+      </c>
+      <c r="E1226" s="4" t="s">
+        <v>5572</v>
+      </c>
+      <c r="F1226" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1226" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1226" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1227" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B1227" s="4" t="s">
+        <v>5573</v>
+      </c>
+      <c r="C1227" s="4" t="s">
+        <v>5574</v>
+      </c>
+      <c r="D1227" s="4" t="s">
+        <v>5575</v>
+      </c>
+      <c r="E1227" s="4" t="s">
+        <v>5576</v>
+      </c>
+      <c r="F1227" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1227" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1227" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1228" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C1228" s="4" t="s">
+        <v>5578</v>
+      </c>
+      <c r="D1228" s="4" t="s">
+        <v>5579</v>
+      </c>
+      <c r="E1228" s="4" t="s">
+        <v>5580</v>
+      </c>
+      <c r="F1228" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1228" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1228" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1229" s="1" t="s">
+        <v>5581</v>
+      </c>
+      <c r="B1229" s="1" t="s">
+        <v>5582</v>
+      </c>
+      <c r="C1229" s="1" t="s">
+        <v>5583</v>
+      </c>
+      <c r="D1229" s="1" t="s">
+        <v>5584</v>
+      </c>
+      <c r="E1229" s="1" t="s">
+        <v>5585</v>
+      </c>
+      <c r="F1229" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1229" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1229" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1230" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B1230" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1230" s="1" t="s">
+        <v>5586</v>
+      </c>
+      <c r="D1230" s="1" t="s">
+        <v>5587</v>
+      </c>
+      <c r="E1230" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="F1230" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1230" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1230" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1231" s="1" t="s">
+        <v>5588</v>
+      </c>
+      <c r="B1231" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1231" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D1231" s="1" t="s">
+        <v>5590</v>
+      </c>
+      <c r="E1231" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="F1231" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1231" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1231" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1232" s="0" t="s">
+        <v>5592</v>
+      </c>
+      <c r="B1232" s="0" t="s">
+        <v>5593</v>
+      </c>
+      <c r="C1232" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1232" s="0" t="s">
+        <v>5594</v>
+      </c>
+      <c r="E1232" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1232" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1232" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1232" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1233" s="0" t="s">
+        <v>5595</v>
+      </c>
+      <c r="B1233" s="0" t="s">
+        <v>5596</v>
+      </c>
+      <c r="C1233" s="0" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D1233" s="0" t="s">
+        <v>5597</v>
+      </c>
+      <c r="E1233" s="0" t="s">
+        <v>5598</v>
+      </c>
+      <c r="F1233" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1233" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1233" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1234" s="0" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B1234" s="0" t="s">
+        <v>5599</v>
+      </c>
+      <c r="C1234" s="0" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D1234" s="0" t="s">
+        <v>2646</v>
+      </c>
+      <c r="E1234" s="0" t="s">
+        <v>5586</v>
+      </c>
+      <c r="F1234" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1234" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1234" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1235" s="0" t="s">
+        <v>5600</v>
+      </c>
+      <c r="B1235" s="0" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1235" s="0" t="s">
+        <v>5599</v>
+      </c>
+      <c r="D1235" s="0" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E1235" s="0" t="s">
+        <v>5602</v>
+      </c>
+      <c r="F1235" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1235" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1235" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1236" s="0" t="s">
+        <v>5603</v>
+      </c>
+      <c r="B1236" s="0" t="s">
+        <v>5604</v>
+      </c>
+      <c r="C1236" s="0" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D1236" s="0" t="s">
+        <v>5606</v>
+      </c>
+      <c r="E1236" s="0" t="s">
+        <v>5607</v>
+      </c>
+      <c r="F1236" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1236" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1236" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1237" s="0" t="s">
+        <v>5608</v>
+      </c>
+      <c r="B1237" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1237" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1237" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="E1237" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F1237" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1237" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1237" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1238" s="0" t="s">
+        <v>5609</v>
+      </c>
+      <c r="B1238" s="0" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C1238" s="0" t="s">
+        <v>5611</v>
+      </c>
+      <c r="D1238" s="0" t="s">
+        <v>5612</v>
+      </c>
+      <c r="E1238" s="0" t="s">
+        <v>5613</v>
+      </c>
+      <c r="F1238" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1238" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1238" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1239" s="0" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B1239" s="0" t="s">
+        <v>2649</v>
+      </c>
+      <c r="C1239" s="0" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D1239" s="0" t="s">
+        <v>5615</v>
+      </c>
+      <c r="E1239" s="0" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F1239" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1239" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1239" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1240" s="0" t="s">
+        <v>5616</v>
+      </c>
+      <c r="B1240" s="0" t="s">
+        <v>5617</v>
+      </c>
+      <c r="C1240" s="0" t="s">
+        <v>5618</v>
+      </c>
+      <c r="D1240" s="0" t="s">
+        <v>5619</v>
+      </c>
+      <c r="E1240" s="0" t="s">
+        <v>5620</v>
+      </c>
+      <c r="F1240" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1240" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1240" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1241" s="0" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B1241" s="0" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C1241" s="0" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1241" s="0" t="s">
+        <v>2665</v>
+      </c>
+      <c r="E1241" s="0" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F1241" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1241" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1241" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1242" s="0" t="s">
+        <v>5622</v>
+      </c>
+      <c r="B1242" s="0" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C1242" s="7" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D1242" s="8" t="s">
+        <v>5625</v>
+      </c>
+      <c r="E1242" s="7" t="s">
+        <v>5626</v>
+      </c>
+      <c r="F1242" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1242" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1242" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1243" s="0" t="s">
+        <v>5627</v>
+      </c>
+      <c r="B1243" s="0" t="s">
+        <v>5628</v>
+      </c>
+      <c r="C1243" s="0" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D1243" s="0" t="s">
+        <v>4116</v>
+      </c>
+      <c r="E1243" s="0" t="s">
+        <v>5629</v>
+      </c>
+      <c r="F1243" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1243" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1243" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1244" s="7" t="s">
+        <v>5630</v>
+      </c>
+      <c r="B1244" s="7" t="s">
+        <v>5631</v>
+      </c>
+      <c r="C1244" s="7" t="s">
+        <v>5632</v>
+      </c>
+      <c r="D1244" s="8" t="s">
+        <v>5633</v>
+      </c>
+      <c r="E1244" s="8" t="s">
+        <v>5634</v>
+      </c>
+      <c r="F1244" s="8" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1244" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1244" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1245" s="0" t="s">
+        <v>5635</v>
+      </c>
+      <c r="B1245" s="0" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C1245" s="0" t="s">
+        <v>5637</v>
+      </c>
+      <c r="D1245" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="E1245" s="0" t="s">
+        <v>5638</v>
+      </c>
+      <c r="F1245" s="7" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1245" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1245" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1246" s="0" t="s">
+        <v>5639</v>
+      </c>
+      <c r="B1246" s="0" t="s">
+        <v>5640</v>
+      </c>
+      <c r="C1246" s="0" t="s">
+        <v>4790</v>
+      </c>
+      <c r="D1246" s="0" t="s">
+        <v>5641</v>
+      </c>
+      <c r="E1246" s="0" t="s">
+        <v>5642</v>
+      </c>
+      <c r="F1246" s="7" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1246" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1246" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1247" s="0" t="s">
+        <v>5643</v>
+      </c>
+      <c r="B1247" s="0" t="s">
+        <v>5644</v>
+      </c>
+      <c r="C1247" s="0" t="s">
+        <v>5645</v>
+      </c>
+      <c r="D1247" s="0" t="s">
+        <v>5646</v>
+      </c>
+      <c r="E1247" s="0" t="s">
+        <v>5647</v>
+      </c>
+      <c r="F1247" s="7" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1247" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1247" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1248" s="0" t="s">
+        <v>5648</v>
+      </c>
+      <c r="B1248" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C1248" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D1248" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E1248" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1248" s="7" t="s">
+        <v>3465</v>
+      </c>
+      <c r="G1248" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1248" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1249" s="0" t="s">
+        <v>5649</v>
+      </c>
+      <c r="B1249" s="0" t="s">
+        <v>5650</v>
+      </c>
+      <c r="C1249" s="0" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D1249" s="0" t="s">
+        <v>5652</v>
+      </c>
+      <c r="E1249" s="0" t="s">
+        <v>5653</v>
+      </c>
+      <c r="F1249" s="0" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1249" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1249" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1250" s="0" t="s">
+        <v>5654</v>
+      </c>
+      <c r="B1250" s="0" t="s">
+        <v>5655</v>
+      </c>
+      <c r="C1250" s="0" t="s">
+        <v>5656</v>
+      </c>
+      <c r="D1250" s="0" t="s">
+        <v>5657</v>
+      </c>
+      <c r="E1250" s="0" t="s">
+        <v>5658</v>
+      </c>
+      <c r="F1250" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1250" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1250" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1251" s="0" t="s">
+        <v>5659</v>
+      </c>
+      <c r="B1251" s="0" t="s">
+        <v>5660</v>
+      </c>
+      <c r="C1251" s="0" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D1251" s="0" t="s">
+        <v>5662</v>
+      </c>
+      <c r="E1251" s="0" t="s">
+        <v>5663</v>
+      </c>
+      <c r="F1251" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1251" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1251" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1252" s="0" t="s">
+        <v>5664</v>
+      </c>
+      <c r="B1252" s="0" t="s">
+        <v>5665</v>
+      </c>
+      <c r="C1252" s="0" t="s">
+        <v>5666</v>
+      </c>
+      <c r="D1252" s="0" t="s">
+        <v>5667</v>
+      </c>
+      <c r="E1252" s="0" t="s">
+        <v>5668</v>
+      </c>
+      <c r="F1252" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1252" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1252" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1253" s="0" t="s">
+        <v>5669</v>
+      </c>
+      <c r="B1253" s="0" t="s">
+        <v>5670</v>
+      </c>
+      <c r="C1253" s="0" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D1253" s="0" t="s">
+        <v>5672</v>
+      </c>
+      <c r="E1253" s="0" t="s">
+        <v>5673</v>
+      </c>
+      <c r="F1253" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1253" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1253" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1254" s="0" t="s">
+        <v>5674</v>
+      </c>
+      <c r="B1254" s="0" t="s">
+        <v>5675</v>
+      </c>
+      <c r="C1254" s="0" t="s">
+        <v>5676</v>
+      </c>
+      <c r="D1254" s="0" t="s">
+        <v>5677</v>
+      </c>
+      <c r="E1254" s="0" t="s">
+        <v>5678</v>
+      </c>
+      <c r="F1254" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1254" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1254" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1255" customFormat="false" ht="206.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1255" s="9" t="s">
+        <v>5679</v>
+      </c>
+      <c r="B1255" s="8" t="s">
+        <v>5680</v>
+      </c>
+      <c r="C1255" s="8" t="s">
+        <v>5681</v>
+      </c>
+      <c r="D1255" s="8" t="s">
+        <v>5682</v>
+      </c>
+      <c r="E1255" s="8" t="s">
+        <v>5683</v>
+      </c>
+      <c r="F1255" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1255" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1255" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1256" s="0" t="s">
+        <v>5684</v>
+      </c>
+      <c r="B1256" s="0" t="s">
+        <v>5685</v>
+      </c>
+      <c r="C1256" s="0" t="s">
+        <v>5686</v>
+      </c>
+      <c r="D1256" s="0" t="s">
+        <v>5687</v>
+      </c>
+      <c r="E1256" s="0" t="s">
+        <v>5688</v>
+      </c>
+      <c r="F1256" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1256" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1256" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1257" s="0" t="s">
+        <v>5689</v>
+      </c>
+      <c r="B1257" s="0" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C1257" s="0" t="s">
+        <v>5690</v>
+      </c>
+      <c r="D1257" s="0" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E1257" s="0" t="s">
+        <v>5691</v>
+      </c>
+      <c r="F1257" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1257" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1257" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1258" s="0" t="s">
+        <v>5692</v>
+      </c>
+      <c r="B1258" s="0" t="s">
+        <v>5693</v>
+      </c>
+      <c r="C1258" s="0" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D1258" s="0" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E1258" s="0" t="s">
+        <v>5695</v>
+      </c>
+      <c r="F1258" s="7" t="s">
+        <v>3490</v>
+      </c>
+      <c r="G1258" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1258" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1259" s="0" t="s">
+        <v>5696</v>
+      </c>
+      <c r="B1259" s="0" t="s">
+        <v>5697</v>
+      </c>
+      <c r="C1259" s="0" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D1259" s="0" t="s">
+        <v>5699</v>
+      </c>
+      <c r="E1259" s="0" t="s">
+        <v>5700</v>
+      </c>
+      <c r="F1259" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1259" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1259" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1260" s="0" t="s">
+        <v>5701</v>
+      </c>
+      <c r="B1260" s="0" t="s">
+        <v>5702</v>
+      </c>
+      <c r="C1260" s="0" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D1260" s="0" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E1260" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F1260" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1260" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1260" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1261" s="0" t="s">
+        <v>5704</v>
+      </c>
+      <c r="B1261" s="0" t="s">
+        <v>4919</v>
+      </c>
+      <c r="C1261" s="0" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D1261" s="0" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E1261" s="0" t="s">
+        <v>5707</v>
+      </c>
+      <c r="F1261" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1261" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1261" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1262" s="0" t="s">
+        <v>5708</v>
+      </c>
+      <c r="B1262" s="0" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C1262" s="0" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D1262" s="0" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E1262" s="0" t="s">
+        <v>5711</v>
+      </c>
+      <c r="F1262" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1262" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1262" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1263" s="0" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B1263" s="0" t="s">
+        <v>5712</v>
+      </c>
+      <c r="C1263" s="0" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D1263" s="0" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E1263" s="0" t="s">
+        <v>5715</v>
+      </c>
+      <c r="F1263" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1263" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1263" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1264" s="0" t="s">
+        <v>5716</v>
+      </c>
+      <c r="B1264" s="0" t="s">
+        <v>5717</v>
+      </c>
+      <c r="C1264" s="0" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D1264" s="0" t="s">
+        <v>5719</v>
+      </c>
+      <c r="E1264" s="0" t="s">
+        <v>5720</v>
+      </c>
+      <c r="F1264" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1264" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1264" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1265" s="0" t="s">
+        <v>5721</v>
+      </c>
+      <c r="B1265" s="0" t="s">
+        <v>5722</v>
+      </c>
+      <c r="C1265" s="0" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1265" s="0" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E1265" s="0" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F1265" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1265" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1265" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1266" customFormat="false" ht="90.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1266" s="9" t="s">
+        <v>5724</v>
+      </c>
+      <c r="B1266" s="8" t="s">
+        <v>5725</v>
+      </c>
+      <c r="C1266" s="8" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D1266" s="8" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E1266" s="8" t="s">
+        <v>5727</v>
+      </c>
+      <c r="F1266" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1266" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1266" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1267" s="0" t="s">
+        <v>5728</v>
+      </c>
+      <c r="B1267" s="0" t="s">
+        <v>4218</v>
+      </c>
+      <c r="C1267" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1267" s="0" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E1267" s="0" t="s">
+        <v>5730</v>
+      </c>
+      <c r="F1267" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1267" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1267" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1268" s="7" t="s">
+        <v>5731</v>
+      </c>
+      <c r="B1268" s="7" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C1268" s="7" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D1268" s="7" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E1268" s="8" t="s">
+        <v>5735</v>
+      </c>
+      <c r="F1268" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1268" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1268" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1269" s="0" t="s">
+        <v>5736</v>
+      </c>
+      <c r="B1269" s="0" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C1269" s="0" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D1269" s="0" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E1269" s="0" t="s">
+        <v>5725</v>
+      </c>
+      <c r="F1269" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1269" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1269" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1270" s="0" t="s">
+        <v>5739</v>
+      </c>
+      <c r="B1270" s="0" t="s">
+        <v>5740</v>
+      </c>
+      <c r="C1270" s="0" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D1270" s="0" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E1270" s="0" t="s">
+        <v>5743</v>
+      </c>
+      <c r="F1270" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1270" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1270" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1271" s="0" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B1271" s="0" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C1271" s="0" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D1271" s="0" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E1271" s="0" t="s">
+        <v>5748</v>
+      </c>
+      <c r="F1271" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1271" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1271" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1272" s="0" t="s">
+        <v>5749</v>
+      </c>
+      <c r="B1272" s="0" t="s">
+        <v>5750</v>
+      </c>
+      <c r="C1272" s="0" t="s">
+        <v>3605</v>
+      </c>
+      <c r="D1272" s="0" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E1272" s="0" t="s">
+        <v>5752</v>
+      </c>
+      <c r="F1272" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1272" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1272" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1273" s="0" t="s">
+        <v>5753</v>
+      </c>
+      <c r="B1273" s="0" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C1273" s="0" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D1273" s="0" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E1273" s="0" t="s">
+        <v>5756</v>
+      </c>
+      <c r="F1273" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1273" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1273" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1274" s="0" t="s">
+        <v>5757</v>
+      </c>
+      <c r="B1274" s="0" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C1274" s="0" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D1274" s="0" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E1274" s="0" t="s">
+        <v>5760</v>
+      </c>
+      <c r="F1274" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1274" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1274" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1275" s="0" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B1275" s="0" t="s">
+        <v>5762</v>
+      </c>
+      <c r="C1275" s="0" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D1275" s="0" t="s">
+        <v>5764</v>
+      </c>
+      <c r="E1275" s="0" t="s">
+        <v>5765</v>
+      </c>
+      <c r="F1275" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1275" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1275" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1276" s="0" t="s">
+        <v>5766</v>
+      </c>
+      <c r="B1276" s="0" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C1276" s="0" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D1276" s="0" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E1276" s="0" t="s">
+        <v>5770</v>
+      </c>
+      <c r="F1276" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1276" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1276" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1277" s="0" t="s">
+        <v>5771</v>
+      </c>
+      <c r="B1277" s="0" t="s">
+        <v>5772</v>
+      </c>
+      <c r="C1277" s="0" t="s">
+        <v>5773</v>
+      </c>
+      <c r="D1277" s="0" t="s">
+        <v>5774</v>
+      </c>
+      <c r="E1277" s="0" t="s">
+        <v>5775</v>
+      </c>
+      <c r="F1277" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1277" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1277" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1278" s="0" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B1278" s="0" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C1278" s="0" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D1278" s="0" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E1278" s="0" t="s">
+        <v>5780</v>
+      </c>
+      <c r="F1278" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1278" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1278" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1279" s="0" t="s">
+        <v>5781</v>
+      </c>
+      <c r="B1279" s="0" t="s">
+        <v>5782</v>
+      </c>
+      <c r="C1279" s="0" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D1279" s="0" t="s">
+        <v>5784</v>
+      </c>
+      <c r="E1279" s="0" t="s">
+        <v>5785</v>
+      </c>
+      <c r="F1279" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1279" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1279" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1280" s="0" t="s">
+        <v>5786</v>
+      </c>
+      <c r="B1280" s="0" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C1280" s="0" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D1280" s="0" t="s">
+        <v>4790</v>
+      </c>
+      <c r="E1280" s="0" t="s">
+        <v>4322</v>
+      </c>
+      <c r="F1280" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1280" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1280" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1281" s="0" t="s">
+        <v>5789</v>
+      </c>
+      <c r="B1281" s="0" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C1281" s="0" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D1281" s="0" t="s">
+        <v>5792</v>
+      </c>
+      <c r="E1281" s="0" t="s">
+        <v>5793</v>
+      </c>
+      <c r="F1281" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1281" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1281" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1282" s="0" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B1282" s="0" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1282" s="0" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D1282" s="0" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E1282" s="0" t="s">
+        <v>5796</v>
+      </c>
+      <c r="F1282" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1282" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1282" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1283" s="0" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B1283" s="0" t="s">
+        <v>5797</v>
+      </c>
+      <c r="C1283" s="0" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D1283" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1283" s="0" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F1283" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G1283" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1283" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1284" s="0" t="s">
+        <v>5799</v>
+      </c>
+      <c r="B1284" s="0" t="s">
+        <v>5800</v>
+      </c>
+      <c r="C1284" s="0" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1284" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1284" s="0" t="s">
+        <v>5801</v>
+      </c>
+      <c r="F1284" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1284" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1284" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1285" s="0" t="s">
+        <v>5802</v>
+      </c>
+      <c r="B1285" s="0" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C1285" s="0" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D1285" s="0" t="s">
+        <v>5805</v>
+      </c>
+      <c r="E1285" s="0" t="s">
+        <v>5806</v>
+      </c>
+      <c r="F1285" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1285" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1285" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1286" s="0" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B1286" s="0" t="s">
+        <v>5808</v>
+      </c>
+      <c r="C1286" s="0" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D1286" s="0" t="s">
+        <v>5810</v>
+      </c>
+      <c r="E1286" s="0" t="s">
+        <v>5811</v>
+      </c>
+      <c r="F1286" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1286" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1286" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1287" s="0" t="s">
+        <v>5812</v>
+      </c>
+      <c r="B1287" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="C1287" s="0" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D1287" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1287" s="0" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F1287" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1287" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1287" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1288" s="0" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B1288" s="0" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C1288" s="0" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D1288" s="0" t="s">
+        <v>5816</v>
+      </c>
+      <c r="E1288" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1288" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1288" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1288" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1289" s="0" t="s">
+        <v>5817</v>
+      </c>
+      <c r="B1289" s="0" t="s">
+        <v>5818</v>
+      </c>
+      <c r="C1289" s="0" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D1289" s="0" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E1289" s="0" t="s">
+        <v>5821</v>
+      </c>
+      <c r="F1289" s="0" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1289" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1289" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1290" s="0" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B1290" s="0" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C1290" s="0" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D1290" s="0" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E1290" s="0" t="s">
+        <v>5826</v>
+      </c>
+      <c r="F1290" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1290" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1290" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1291" s="0" t="s">
+        <v>5827</v>
+      </c>
+      <c r="B1291" s="0" t="s">
+        <v>5828</v>
+      </c>
+      <c r="C1291" s="0" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D1291" s="0" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E1291" s="0" t="s">
+        <v>5831</v>
+      </c>
+      <c r="F1291" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1291" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1291" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1292" s="0" t="s">
+        <v>5832</v>
+      </c>
+      <c r="B1292" s="0" t="s">
+        <v>5833</v>
+      </c>
+      <c r="C1292" s="0" t="s">
+        <v>5834</v>
+      </c>
+      <c r="D1292" s="0" t="s">
+        <v>5835</v>
+      </c>
+      <c r="E1292" s="0" t="s">
+        <v>5836</v>
+      </c>
+      <c r="F1292" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1292" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1292" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1293" s="0" t="s">
+        <v>5837</v>
+      </c>
+      <c r="B1293" s="0" t="s">
+        <v>5838</v>
+      </c>
+      <c r="C1293" s="0" t="s">
+        <v>5839</v>
+      </c>
+      <c r="D1293" s="0" t="s">
+        <v>5840</v>
+      </c>
+      <c r="E1293" s="0" t="s">
+        <v>5841</v>
+      </c>
+      <c r="F1293" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1293" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1293" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1294" s="0" t="s">
+        <v>5842</v>
+      </c>
+      <c r="B1294" s="0" t="s">
+        <v>5843</v>
+      </c>
+      <c r="C1294" s="0" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D1294" s="0" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E1294" s="0" t="s">
+        <v>5846</v>
+      </c>
+      <c r="F1294" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1294" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1294" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1295" customFormat="false" ht="130.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1295" s="9" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B1295" s="8" t="s">
+        <v>5848</v>
+      </c>
+      <c r="C1295" s="8" t="s">
+        <v>5849</v>
+      </c>
+      <c r="D1295" s="8" t="s">
+        <v>5850</v>
+      </c>
+      <c r="E1295" s="8" t="s">
+        <v>5851</v>
+      </c>
+      <c r="F1295" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1295" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1295" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1296" s="0" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B1296" s="0" t="s">
+        <v>5853</v>
+      </c>
+      <c r="C1296" s="0" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D1296" s="0" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E1296" s="0" t="s">
+        <v>5856</v>
+      </c>
+      <c r="F1296" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1296" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1296" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9002" uniqueCount="5857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9436" uniqueCount="6118">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -17680,7 +17680,7 @@
     <t xml:space="preserve">لوکوپنی</t>
   </si>
   <si>
-    <t xml:space="preserve">شایعترین ژن جهش یافته در سرطان های انسانی کدام است؟</t>
+    <t xml:space="preserve">شایع ترین ژن جهش یافته در سرطان های انسانی کدام است؟</t>
   </si>
   <si>
     <t xml:space="preserve">TP53</t>
@@ -20110,6 +20110,794 @@
   </si>
   <si>
     <t xml:space="preserve">کاهش لاکتات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام ویروس انکوژن بر روی ژن های سرکوبگر تومور اثر مستقیم دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTLV1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استئوپروز و استئوماالسی از عوارض مسمومیت با کدام یک ازفلزات زیر است ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جیوه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آرسنیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کادمیوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمبود کدام ویتامین باعث جایگزینی مخاط مترشحه موکوس با مخاط کراتینیزه میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویتامینC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویتامینA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویتامینD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویتامینB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتصال کلسیم به تروپونینCدرعضله اسکلتی موجب کدام مورد زیر میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خم شدن سرپل های عرضی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تجزیهATPبهADPوانرژی آزاد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آشکار شدن محل های فعال اکتین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تشکیل مجددATPازADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام کانال زیر در ایجاد فاز دپلاریزاسیون پتانسیل عمل در عضله اسکلتی دخالت دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانال سدیمی وابسته به لیگاند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانال کلسیمی وابسته به لیگاند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانال سدیمی وابسته به ولتاژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانال پتاسیمی وابسته به ولتاژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک غشا دولایه فسفولیپیدی خالص به کدامیک از موارد زیر کمترین نفوذ پذیری را دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اکسیژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سدیم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در مرحله انقباض با حجم ثابت (Isovolumic contraction) در دوره قلبی، دریچه آئورتی و میترال در چه وضعیتی قرار دارند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باز-باز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">باز-بسته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بسته-بسته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بسته-باز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اصطلاح پیش بار(Preload)در قلب را کدام گزینه زیر بهتر توجیه میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجم پایان سیستولی بطن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجم پایان دیاستولی بطن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشار سیستولی آئورت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشار دیاستولی آئورت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از شرایط زیر، فشار نبض نسبت به شرایط نرمال افزایش مییابد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنگی شریان ریوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش حجم ضربه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش کمپلیانس شریانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنگی آئورت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام عامل بیشترین تاثیر در میزان جریان خون بافت را دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طول رگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختلاف فشار دو سوی رگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویسکوزیته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر سبب ادم بافتی میشوند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری کبدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارتفاعات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرکاری تیروئید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از تغییرات زیرمیزان بازگشت وریدی خون به قلب را افزایش میدهد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش فشار دهلیز راست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش فشار پرشدگی سیستمیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش حجم خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهار سیستم عصبی سمپاتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر به ترتیب دارای کمترین میزان سرعت جریان خون و بیشترین میزان افت فشار است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آئورت، ورید اجوف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شریانچه، آئورت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مویرگ، شریانچه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آئورت،مویرگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت بروز اثر بور قدرت اتصال هموگلوبین به اکسیژن و میزان درصد اشباع هموگلوبین در یک فشار اکسیژن معین به ترتیب چه تغییری میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش-افزایش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش-کاهش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش–کاهش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش–افزایش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در انتهای دم که فشار فضای جنب برابر منفی7.5سانتی متر آب است فشار داخل حبابچه ای چقدر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-سانتی متر آب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/5-سانتی متر آب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/5-سانتی متر آب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسبت تهویه به جریان خون (V/Q)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جریان خون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تهویه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کمپلیانس ریه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در بیماری بدنبال تصادف قسمت اعظم ایلئوم برداشته شده است، جذب کدامیک از موارد زیر مختل خواهد شد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویتامینCو اسید فولیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کلسیم و آهن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویتامینB12و نمکهای صفراوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویتامین های محلول در چربی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عملکرد کدام پروتئاز پانکراسی در فرایند هضم پروتئین ها منجر به تولیداسیدهای آمینه میگردد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کربوکسی پلی پپتیداز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تریپسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کیموتریپسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">امواج آهسته در سلول های عضالت صاف روده باریک به کدام یک از موارد زیر اشاره دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتانسیل عمل نیزه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انقباضات ریتمیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انقباضات تونیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پتانسیل زیر آستانه ای</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از سیستم های تنظیم کنندهpH، به ترتیب سریع ترین و قویترین هستند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافرهای شیمیایی-کلیوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بافرهای شیمیایی-تنفسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنفسی–کلیوی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تنفسی–بافرهای شیمیایی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک متوسط سیستم سمپاتیک به ترتیب چه اثری برحجم ادرار و میزان فیلتراسیون گلومرولی دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش-افزایش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش-کاهش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام مورد توان غلیظ سازی ادرار توسط کلیه را کم میکند؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش جریان خون بخش مرکزی کلیه ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">داشتن رژیم غذایی پر پروتئین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بدام انداختن اوره در میان بافت مرکزی کلیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از دیورتیک فورسماید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش ترشح کدام یک از هورمونهای زیر باعث بروز مقاومت به انسولین میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تیروکسین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقاومت عروق محیطی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فشار شریانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاز فولیکولی چرخه تخمدان همزمان با کدام فاز اندومتر رحم بوده و همراه با افزایش شدید کدام هورمون
+میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکثیری-استروژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکثیری-پروژسترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشحی-استروژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترشحی-پروژسترون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انسولین موجب کدام یک از اعمال زیر در کبد میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تحریک تبدیل اسیدهای آمینه به گلوکز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش فعالیت آنزیم فسفریلاز کبدی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهار آنزیم گلوکوکیناز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فعال کردن آنزیم گلیکوژن سنتاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گیرنده های نیکوتینی استیل کولین در کدام یک از نواحی زیر وجود ندارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گانگلیون های پاراسمپاتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گانگلیون های سمپاتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غشای عضله اسکلتی در محل اتصال عصب و عضله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلولهای هدف سیستم پاراسمپاتیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ناتوانی در به خاطر آوردن خاطرات گذشته در حافظه دراز مدت(Retrogerade amnesia)،عمدتا در اثر
+صدمه وارده به کدام نواحی مغز ممکن است به وجود آید؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوتالاموس و تالاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوکامپ و تالاموس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تالاموسو آمیگدال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هیپوکمپ و پره فرونتال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر یک هیپرالژزی اولیه محسوب میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زونا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تیک دردناک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آفتاب سوختگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مننژیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویژگی گیرنده های حسی فازیک در سیستم عصبی کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به تغییرات شدت محرک بهترین پاسخ را می دهند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اطلاعات مربوط به درد را انتقال می دهند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به تحریکات با شدت ثابت به طور مداوم پاسخ میدهند.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تابع قانون همه یا هیچ هستند</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در صورت آسیب مخچه کدام یک از علائم زیر دیده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حرکات پرتابه ای ناگهانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیامد عمومی یک جهش بی معنی(Nonsense)چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترجمه اسید های آمینه نادرست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عدم تغییر در پروتئین بیان شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پلی پپتید کوتاه تر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغییر چارچوب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در آزمایش کاریوتایپ کودکی،یک حذف در انتهای بازویpکروموزم4مشاهده شده است. این کودک به
+چه بیماری مبتلا است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cri-du-chat syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di George Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith-Magenis Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf-Hirschhorn Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسبت ژن های مشترک در زوجینی با نسبت دختر عمو و پسر عمو(First cousins)و خطر بروز ناهنجاری
+در فرزندان آنها به ترتیب از راست به چپ چقدر است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک چهارم–5تا10%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک هشتم-3تا5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک شانزدهم-2تا3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">یک سی و دوم-1تا2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هرگاه در یک بیمار با الگوی توارث اتوزومال غالب شدت بیماری از یک نسل به نسل دیگر افزایش می یابد این پدیده چه نامیده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticipation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pleiotropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heterogeneity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heterozygosity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از ژن های زیر بهترین کاندیدا برای آنالیز جهش در بیماران مبتلا به سرطان پستان است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRCA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دیس ژنزی یا نقص تخمدان در کدام یک از اختلالات کروموزومی زیر مشاهده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Female Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turner Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelman Syndrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در کدام یک از افراد زیر ریسک ابتلا به انسداد پیلور مادرزادی بیشترین خواهد بود (ریسک پیلور در آقایان پنج برابر شایع تر از بانوان است)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک نوزاد دختر با یک برادر مبتلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک نوزاد پسر با یک برادر مبتلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک نوزاد دختر بدون هیچ گونه تاریخچه خانوداگی قبلی از بیماری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در یک نوزاد پسر با یک خواهر مبتلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محل اصلی شروع پاسخ های ایمنی اختصاصی علیه آنتی ژن های موجود در خون کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهمترین مکانیسم ایمنی اختصاصی در مقابل اگزوتوکسین باکتریایی چیست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلولNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی بادی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماکروفاژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام سلول به صورت اختصاصی نقش اصلی را در از بین بردن سلول های آلوده به ویروس بر عهده دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلولTCD8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلولTCD4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لیگاندTLR-4کدام مولکول زیر میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CpG DNAغیر متیله</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنافیلاکسی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسهیل فاگوسیتوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حذف سلول هایTشناسایی کننده آنتی ژن های خودی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شناسایی آنتی ژن در غیاب سیگنال های کمک تحریکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ویرایش گیرنده اختصاصی آنتی ژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرکوب سلول هایTتوسط سایتوکاین های تنظیمی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتید های مشتق از آنتی ژن های خارج سلولی در کنارMHCکالس یک به سلولهایTCD8+عرضه میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتید های مشتق از آنتی ژن های سیتوزولی در کنارMHCکالس یک به سلولهایTCD4+عرضه میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پپتید های مشتق از آنتی ژن های سیتوزولی در کنارMHCکالس یک به سلولهایTCD8+عرضه میشود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فردی متعاقب گلو درد استرپتوکوکی دچار تب رماتیسمی و مشکلات دریچه قلبی میشود. اساس این بیماری کدام نوع ازدیاد حساسیت می باشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازدیاد حساسیت نوع یک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازدیاد حساسیت نوع دو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازدیاد حساسیت نوع سه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازدیاد حساسیت نوع چهار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موتاسیون در ژنFOXP3موجب ایجاد کدام بیماری میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ازBCGبرای ایمونوتراپی کدام یک از سرطان های زیر استفاده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرطان کبد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرطان پروستات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرطان پوست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرطان مثانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهش در ژن کد کننده اکسیداز فاگوسیتی(Phox-91)باعث کدام نقص ایمنی اولیه میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری بروتون(XLA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیماری گرانولوماتوز مزمن(CGD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص ایمنی مرکب شدید(SCID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص ایمنی مختلط شایع(CVID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">در درمان بیماری آسم از کدام دسته های دارویی زیر استفاده نمیشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتاگونیست های لکوترین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتی هیستامین ها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آنتاگونیست های گیرنده بتا آدرنرژیک</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کورتیکو استروئیدها</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکسن هموفیلوس آنفلوانزا از کدام نوع میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واکسنDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گیرنده کمکیHIVبرای آلوده کردن سلولهایTCD4+کدام است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FasL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر برای بیان همه گیری های محدود در مقابل همه گیری های گسترده مورد استفاده
+قرار میگیرد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تک گیر (sporadic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه گیری (epidemic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طغیان (outbreak)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهانگیر (pandemic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استفاده از فلوراید برای متوقف کردن یک ضایعه پوسیدگی اولیه مربوط به کدام سطح پیشگیری است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری ثانویه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری اولیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری ثالثیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پیشگیری مقدماتی </t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه گزینه ها بر کاهش شیوع بیماری در جامعه موثراست بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوره کوتاه تر بیماری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کشندگی بالاتر بیماری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">افزایش طول عمر بدون بهبود بیماری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کاهش موارد جدید بیماری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه گزینه ها از عوامل خطر بیماری های غیر واگیر هستند بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصرف دخانیات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغذیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فعالیت فیزیکی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطالعه ایکه در آن شیوع پوسیدگی در کودکان3تا10سال در یک شهر بررسی میشود چه نوع مطالعه ای است.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقطعی توصیفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همگروهی(کوهورت)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کارآزمایی بالینی تصادفی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایمنی در اثر عبور پادتن های مادری از راه جفت یا شیر مادر چه نام دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایمنی سلولی(Cellular immunity)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایمنی گروهی(Group safety)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایمنی انفعالی(Passive safety)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ایمنی فعال(Active safety)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کدام یک از موارد زیر از اصول"مراقبت های اولیه بهداشتی"در بیانیه آلماآتا میباشد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمرکز بر درمان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تکنولوژی پیشرفته</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رویکرد تک بخشی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه گزینه ها در مورد وظایف پایگاه بهداشت شهری صحیح است بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آموزش بهداشت دهان و دندان به زنان باردار و دانش آموزان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نسخه نویسی برای بیمار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مراقبت از بهداشت کارگران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ارجاع بیماران به مراکز بهداشتی درمانی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غیر بهداشتی ترین روش دفع زباله کدامست؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تلنبارکردن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دفن کردن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تهیه کود</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوزاندن</t>
   </si>
 </sst>
 </file>
@@ -20234,12 +21022,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -20365,10 +21153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1296"/>
+  <dimension ref="A1:H1358"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1296" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1298" activeCellId="0" sqref="G1298"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1353" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1363" activeCellId="0" sqref="G1363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51070,7 +51858,7 @@
       <c r="G1181" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1181" s="0" t="n">
+      <c r="H1181" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51096,7 +51884,7 @@
       <c r="G1182" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1182" s="0" t="n">
+      <c r="H1182" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51122,7 +51910,7 @@
       <c r="G1183" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1183" s="0" t="n">
+      <c r="H1183" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51148,7 +51936,7 @@
       <c r="G1184" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1184" s="0" t="n">
+      <c r="H1184" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51174,7 +51962,7 @@
       <c r="G1185" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1185" s="0" t="n">
+      <c r="H1185" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51200,7 +51988,7 @@
       <c r="G1186" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1186" s="0" t="n">
+      <c r="H1186" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51226,7 +52014,7 @@
       <c r="G1187" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1187" s="0" t="n">
+      <c r="H1187" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51252,7 +52040,7 @@
       <c r="G1188" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1188" s="0" t="n">
+      <c r="H1188" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51278,7 +52066,7 @@
       <c r="G1189" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1189" s="0" t="n">
+      <c r="H1189" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51304,7 +52092,7 @@
       <c r="G1190" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1190" s="0" t="n">
+      <c r="H1190" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51330,7 +52118,7 @@
       <c r="G1191" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1191" s="0" t="n">
+      <c r="H1191" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51356,7 +52144,7 @@
       <c r="G1192" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1192" s="0" t="n">
+      <c r="H1192" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51382,7 +52170,7 @@
       <c r="G1193" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1193" s="0" t="n">
+      <c r="H1193" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51408,7 +52196,7 @@
       <c r="G1194" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1194" s="0" t="n">
+      <c r="H1194" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51434,7 +52222,7 @@
       <c r="G1195" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1195" s="0" t="n">
+      <c r="H1195" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51460,7 +52248,7 @@
       <c r="G1196" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1196" s="0" t="n">
+      <c r="H1196" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51486,7 +52274,7 @@
       <c r="G1197" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1197" s="0" t="n">
+      <c r="H1197" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51512,7 +52300,7 @@
       <c r="G1198" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1198" s="0" t="n">
+      <c r="H1198" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51538,7 +52326,7 @@
       <c r="G1199" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1199" s="0" t="n">
+      <c r="H1199" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51564,7 +52352,7 @@
       <c r="G1200" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1200" s="0" t="n">
+      <c r="H1200" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51590,7 +52378,7 @@
       <c r="G1201" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1201" s="0" t="n">
+      <c r="H1201" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51616,7 +52404,7 @@
       <c r="G1202" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1202" s="0" t="n">
+      <c r="H1202" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51642,7 +52430,7 @@
       <c r="G1203" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1203" s="0" t="n">
+      <c r="H1203" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51668,7 +52456,7 @@
       <c r="G1204" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1204" s="0" t="n">
+      <c r="H1204" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51694,7 +52482,7 @@
       <c r="G1205" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1205" s="0" t="n">
+      <c r="H1205" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51720,7 +52508,7 @@
       <c r="G1206" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1206" s="0" t="n">
+      <c r="H1206" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51746,7 +52534,7 @@
       <c r="G1207" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1207" s="0" t="n">
+      <c r="H1207" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51772,7 +52560,7 @@
       <c r="G1208" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1208" s="0" t="n">
+      <c r="H1208" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51798,7 +52586,7 @@
       <c r="G1209" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1209" s="0" t="n">
+      <c r="H1209" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -51824,7 +52612,7 @@
       <c r="G1210" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1210" s="0" t="n">
+      <c r="H1210" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -51850,7 +52638,7 @@
       <c r="G1211" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1211" s="0" t="n">
+      <c r="H1211" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51876,7 +52664,7 @@
       <c r="G1212" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1212" s="0" t="n">
+      <c r="H1212" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51902,7 +52690,7 @@
       <c r="G1213" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1213" s="0" t="n">
+      <c r="H1213" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51928,7 +52716,7 @@
       <c r="G1214" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1214" s="0" t="n">
+      <c r="H1214" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -51954,7 +52742,7 @@
       <c r="G1215" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1215" s="0" t="n">
+      <c r="H1215" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -51980,7 +52768,7 @@
       <c r="G1216" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1216" s="0" t="n">
+      <c r="H1216" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52006,7 +52794,7 @@
       <c r="G1217" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1217" s="0" t="n">
+      <c r="H1217" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52032,7 +52820,7 @@
       <c r="G1218" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1218" s="0" t="n">
+      <c r="H1218" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52058,7 +52846,7 @@
       <c r="G1219" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1219" s="0" t="n">
+      <c r="H1219" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -52084,7 +52872,7 @@
       <c r="G1220" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1220" s="0" t="n">
+      <c r="H1220" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52110,7 +52898,7 @@
       <c r="G1221" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1221" s="0" t="n">
+      <c r="H1221" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -52136,7 +52924,7 @@
       <c r="G1222" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1222" s="0" t="n">
+      <c r="H1222" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52162,7 +52950,7 @@
       <c r="G1223" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1223" s="0" t="n">
+      <c r="H1223" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -52188,7 +52976,7 @@
       <c r="G1224" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1224" s="0" t="n">
+      <c r="H1224" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52214,7 +53002,7 @@
       <c r="G1225" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1225" s="0" t="n">
+      <c r="H1225" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52240,7 +53028,7 @@
       <c r="G1226" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1226" s="0" t="n">
+      <c r="H1226" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52266,7 +53054,7 @@
       <c r="G1227" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1227" s="0" t="n">
+      <c r="H1227" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52292,7 +53080,7 @@
       <c r="G1228" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1228" s="0" t="n">
+      <c r="H1228" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52318,7 +53106,7 @@
       <c r="G1229" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1229" s="0" t="n">
+      <c r="H1229" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -52344,7 +53132,7 @@
       <c r="G1230" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1230" s="0" t="n">
+      <c r="H1230" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -52370,1697 +53158,3309 @@
       <c r="G1231" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1231" s="0" t="n">
+      <c r="H1231" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1232" s="0" t="s">
+      <c r="A1232" s="4" t="s">
         <v>5592</v>
       </c>
-      <c r="B1232" s="0" t="s">
+      <c r="B1232" s="4" t="s">
         <v>5593</v>
       </c>
-      <c r="C1232" s="0" t="s">
+      <c r="C1232" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D1232" s="0" t="s">
+      <c r="D1232" s="4" t="s">
         <v>5594</v>
       </c>
-      <c r="E1232" s="0" t="s">
+      <c r="E1232" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F1232" s="7" t="s">
+      <c r="F1232" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1232" s="7" t="s">
+      <c r="G1232" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1232" s="0" t="n">
+      <c r="H1232" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1233" s="0" t="s">
+      <c r="A1233" s="4" t="s">
         <v>5595</v>
       </c>
-      <c r="B1233" s="0" t="s">
+      <c r="B1233" s="4" t="s">
         <v>5596</v>
       </c>
-      <c r="C1233" s="0" t="s">
+      <c r="C1233" s="4" t="s">
         <v>2631</v>
       </c>
-      <c r="D1233" s="0" t="s">
+      <c r="D1233" s="4" t="s">
         <v>5597</v>
       </c>
-      <c r="E1233" s="0" t="s">
+      <c r="E1233" s="4" t="s">
         <v>5598</v>
       </c>
-      <c r="F1233" s="7" t="s">
+      <c r="F1233" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1233" s="7" t="s">
+      <c r="G1233" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1233" s="0" t="n">
+      <c r="H1233" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1234" s="0" t="s">
+      <c r="A1234" s="4" t="s">
         <v>2643</v>
       </c>
-      <c r="B1234" s="0" t="s">
+      <c r="B1234" s="4" t="s">
         <v>5599</v>
       </c>
-      <c r="C1234" s="0" t="s">
+      <c r="C1234" s="4" t="s">
         <v>2645</v>
       </c>
-      <c r="D1234" s="0" t="s">
+      <c r="D1234" s="4" t="s">
         <v>2646</v>
       </c>
-      <c r="E1234" s="0" t="s">
+      <c r="E1234" s="4" t="s">
         <v>5586</v>
       </c>
-      <c r="F1234" s="7" t="s">
+      <c r="F1234" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1234" s="7" t="s">
+      <c r="G1234" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1234" s="0" t="n">
+      <c r="H1234" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1235" s="0" t="s">
+      <c r="A1235" s="4" t="s">
         <v>5600</v>
       </c>
-      <c r="B1235" s="0" t="s">
+      <c r="B1235" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="C1235" s="0" t="s">
+      <c r="C1235" s="4" t="s">
         <v>5599</v>
       </c>
-      <c r="D1235" s="0" t="s">
+      <c r="D1235" s="4" t="s">
         <v>5601</v>
       </c>
-      <c r="E1235" s="0" t="s">
+      <c r="E1235" s="4" t="s">
         <v>5602</v>
       </c>
-      <c r="F1235" s="7" t="s">
+      <c r="F1235" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1235" s="7" t="s">
+      <c r="G1235" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1235" s="0" t="n">
+      <c r="H1235" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1236" s="0" t="s">
+      <c r="A1236" s="4" t="s">
         <v>5603</v>
       </c>
-      <c r="B1236" s="0" t="s">
+      <c r="B1236" s="4" t="s">
         <v>5604</v>
       </c>
-      <c r="C1236" s="0" t="s">
+      <c r="C1236" s="4" t="s">
         <v>5605</v>
       </c>
-      <c r="D1236" s="0" t="s">
+      <c r="D1236" s="4" t="s">
         <v>5606</v>
       </c>
-      <c r="E1236" s="0" t="s">
+      <c r="E1236" s="4" t="s">
         <v>5607</v>
       </c>
-      <c r="F1236" s="7" t="s">
+      <c r="F1236" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1236" s="7" t="s">
+      <c r="G1236" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1236" s="0" t="n">
+      <c r="H1236" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1237" s="0" t="s">
+      <c r="A1237" s="4" t="s">
         <v>5608</v>
       </c>
-      <c r="B1237" s="0" t="n">
+      <c r="B1237" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C1237" s="0" t="n">
+      <c r="C1237" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D1237" s="0" t="n">
+      <c r="D1237" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="E1237" s="0" t="n">
+      <c r="E1237" s="4" t="n">
         <v>38</v>
       </c>
-      <c r="F1237" s="7" t="s">
+      <c r="F1237" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1237" s="7" t="s">
+      <c r="G1237" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1237" s="0" t="n">
+      <c r="H1237" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1238" s="0" t="s">
+      <c r="A1238" s="4" t="s">
         <v>5609</v>
       </c>
-      <c r="B1238" s="0" t="s">
+      <c r="B1238" s="4" t="s">
         <v>5610</v>
       </c>
-      <c r="C1238" s="0" t="s">
+      <c r="C1238" s="4" t="s">
         <v>5611</v>
       </c>
-      <c r="D1238" s="0" t="s">
+      <c r="D1238" s="4" t="s">
         <v>5612</v>
       </c>
-      <c r="E1238" s="0" t="s">
+      <c r="E1238" s="4" t="s">
         <v>5613</v>
       </c>
-      <c r="F1238" s="7" t="s">
+      <c r="F1238" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1238" s="7" t="s">
+      <c r="G1238" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1238" s="0" t="n">
+      <c r="H1238" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1239" s="0" t="s">
+      <c r="A1239" s="4" t="s">
         <v>5614</v>
       </c>
-      <c r="B1239" s="0" t="s">
+      <c r="B1239" s="4" t="s">
         <v>2649</v>
       </c>
-      <c r="C1239" s="0" t="s">
+      <c r="C1239" s="4" t="s">
         <v>2650</v>
       </c>
-      <c r="D1239" s="0" t="s">
+      <c r="D1239" s="4" t="s">
         <v>5615</v>
       </c>
-      <c r="E1239" s="0" t="s">
+      <c r="E1239" s="4" t="s">
         <v>2652</v>
       </c>
-      <c r="F1239" s="7" t="s">
+      <c r="F1239" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1239" s="7" t="s">
+      <c r="G1239" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1239" s="0" t="n">
+      <c r="H1239" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1240" s="0" t="s">
+      <c r="A1240" s="4" t="s">
         <v>5616</v>
       </c>
-      <c r="B1240" s="0" t="s">
+      <c r="B1240" s="4" t="s">
         <v>5617</v>
       </c>
-      <c r="C1240" s="0" t="s">
+      <c r="C1240" s="4" t="s">
         <v>5618</v>
       </c>
-      <c r="D1240" s="0" t="s">
+      <c r="D1240" s="4" t="s">
         <v>5619</v>
       </c>
-      <c r="E1240" s="0" t="s">
+      <c r="E1240" s="4" t="s">
         <v>5620</v>
       </c>
-      <c r="F1240" s="7" t="s">
+      <c r="F1240" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1240" s="7" t="s">
+      <c r="G1240" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1240" s="0" t="n">
+      <c r="H1240" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1241" s="0" t="s">
+      <c r="A1241" s="4" t="s">
         <v>5621</v>
       </c>
-      <c r="B1241" s="0" t="s">
+      <c r="B1241" s="4" t="s">
         <v>2662</v>
       </c>
-      <c r="C1241" s="0" t="s">
+      <c r="C1241" s="4" t="s">
         <v>2664</v>
       </c>
-      <c r="D1241" s="0" t="s">
+      <c r="D1241" s="4" t="s">
         <v>2665</v>
       </c>
-      <c r="E1241" s="0" t="s">
+      <c r="E1241" s="4" t="s">
         <v>2663</v>
       </c>
-      <c r="F1241" s="7" t="s">
+      <c r="F1241" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1241" s="7" t="s">
+      <c r="G1241" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1241" s="0" t="n">
+      <c r="H1241" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1242" s="0" t="s">
+      <c r="A1242" s="4" t="s">
         <v>5622</v>
       </c>
-      <c r="B1242" s="0" t="s">
+      <c r="B1242" s="4" t="s">
         <v>5623</v>
       </c>
-      <c r="C1242" s="7" t="s">
+      <c r="C1242" s="1" t="s">
         <v>5624</v>
       </c>
-      <c r="D1242" s="8" t="s">
+      <c r="D1242" s="1" t="s">
         <v>5625</v>
       </c>
-      <c r="E1242" s="7" t="s">
+      <c r="E1242" s="1" t="s">
         <v>5626</v>
       </c>
-      <c r="F1242" s="7" t="s">
+      <c r="F1242" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1242" s="7" t="s">
+      <c r="G1242" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1242" s="0" t="n">
+      <c r="H1242" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1243" s="0" t="s">
+      <c r="A1243" s="4" t="s">
         <v>5627</v>
       </c>
-      <c r="B1243" s="0" t="s">
+      <c r="B1243" s="4" t="s">
         <v>5628</v>
       </c>
-      <c r="C1243" s="0" t="s">
+      <c r="C1243" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="D1243" s="0" t="s">
+      <c r="D1243" s="4" t="s">
         <v>4116</v>
       </c>
-      <c r="E1243" s="0" t="s">
+      <c r="E1243" s="4" t="s">
         <v>5629</v>
       </c>
-      <c r="F1243" s="7" t="s">
+      <c r="F1243" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1243" s="7" t="s">
+      <c r="G1243" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1243" s="0" t="n">
+      <c r="H1243" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1244" s="7" t="s">
+      <c r="A1244" s="1" t="s">
         <v>5630</v>
       </c>
-      <c r="B1244" s="7" t="s">
+      <c r="B1244" s="1" t="s">
         <v>5631</v>
       </c>
-      <c r="C1244" s="7" t="s">
+      <c r="C1244" s="1" t="s">
         <v>5632</v>
       </c>
-      <c r="D1244" s="8" t="s">
+      <c r="D1244" s="1" t="s">
         <v>5633</v>
       </c>
-      <c r="E1244" s="8" t="s">
+      <c r="E1244" s="1" t="s">
         <v>5634</v>
       </c>
-      <c r="F1244" s="8" t="s">
+      <c r="F1244" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G1244" s="7" t="s">
+      <c r="G1244" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1244" s="0" t="n">
+      <c r="H1244" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1245" s="0" t="s">
+      <c r="A1245" s="4" t="s">
         <v>5635</v>
       </c>
-      <c r="B1245" s="0" t="s">
+      <c r="B1245" s="4" t="s">
         <v>5636</v>
       </c>
-      <c r="C1245" s="0" t="s">
+      <c r="C1245" s="4" t="s">
         <v>5637</v>
       </c>
-      <c r="D1245" s="0" t="s">
+      <c r="D1245" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="E1245" s="0" t="s">
+      <c r="E1245" s="4" t="s">
         <v>5638</v>
       </c>
-      <c r="F1245" s="7" t="s">
+      <c r="F1245" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G1245" s="7" t="s">
+      <c r="G1245" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1245" s="0" t="n">
+      <c r="H1245" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1246" s="0" t="s">
+      <c r="A1246" s="4" t="s">
         <v>5639</v>
       </c>
-      <c r="B1246" s="0" t="s">
+      <c r="B1246" s="4" t="s">
         <v>5640</v>
       </c>
-      <c r="C1246" s="0" t="s">
+      <c r="C1246" s="4" t="s">
         <v>4790</v>
       </c>
-      <c r="D1246" s="0" t="s">
+      <c r="D1246" s="4" t="s">
         <v>5641</v>
       </c>
-      <c r="E1246" s="0" t="s">
+      <c r="E1246" s="4" t="s">
         <v>5642</v>
       </c>
-      <c r="F1246" s="7" t="s">
+      <c r="F1246" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G1246" s="7" t="s">
+      <c r="G1246" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1246" s="0" t="n">
+      <c r="H1246" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1247" s="0" t="s">
+      <c r="A1247" s="4" t="s">
         <v>5643</v>
       </c>
-      <c r="B1247" s="0" t="s">
+      <c r="B1247" s="4" t="s">
         <v>5644</v>
       </c>
-      <c r="C1247" s="0" t="s">
+      <c r="C1247" s="4" t="s">
         <v>5645</v>
       </c>
-      <c r="D1247" s="0" t="s">
+      <c r="D1247" s="4" t="s">
         <v>5646</v>
       </c>
-      <c r="E1247" s="0" t="s">
+      <c r="E1247" s="4" t="s">
         <v>5647</v>
       </c>
-      <c r="F1247" s="7" t="s">
+      <c r="F1247" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G1247" s="7" t="s">
+      <c r="G1247" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1247" s="0" t="n">
+      <c r="H1247" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1248" s="0" t="s">
+      <c r="A1248" s="4" t="s">
         <v>5648</v>
       </c>
-      <c r="B1248" s="0" t="n">
+      <c r="B1248" s="4" t="n">
         <v>2.7</v>
       </c>
-      <c r="C1248" s="0" t="n">
+      <c r="C1248" s="4" t="n">
         <v>1.35</v>
       </c>
-      <c r="D1248" s="0" t="n">
+      <c r="D1248" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="E1248" s="0" t="n">
+      <c r="E1248" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="F1248" s="7" t="s">
+      <c r="F1248" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="G1248" s="7" t="s">
+      <c r="G1248" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1248" s="0" t="n">
+      <c r="H1248" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1249" s="0" t="s">
+      <c r="A1249" s="4" t="s">
         <v>5649</v>
       </c>
-      <c r="B1249" s="0" t="s">
+      <c r="B1249" s="4" t="s">
         <v>5650</v>
       </c>
-      <c r="C1249" s="0" t="s">
+      <c r="C1249" s="4" t="s">
         <v>5651</v>
       </c>
-      <c r="D1249" s="0" t="s">
+      <c r="D1249" s="4" t="s">
         <v>5652</v>
       </c>
-      <c r="E1249" s="0" t="s">
+      <c r="E1249" s="4" t="s">
         <v>5653</v>
       </c>
-      <c r="F1249" s="0" t="s">
+      <c r="F1249" s="4" t="s">
         <v>3490</v>
       </c>
-      <c r="G1249" s="7" t="s">
+      <c r="G1249" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1249" s="0" t="n">
+      <c r="H1249" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1250" s="0" t="s">
+      <c r="A1250" s="4" t="s">
         <v>5654</v>
       </c>
-      <c r="B1250" s="0" t="s">
+      <c r="B1250" s="4" t="s">
         <v>5655</v>
       </c>
-      <c r="C1250" s="0" t="s">
+      <c r="C1250" s="4" t="s">
         <v>5656</v>
       </c>
-      <c r="D1250" s="0" t="s">
+      <c r="D1250" s="4" t="s">
         <v>5657</v>
       </c>
-      <c r="E1250" s="0" t="s">
+      <c r="E1250" s="4" t="s">
         <v>5658</v>
       </c>
-      <c r="F1250" s="7" t="s">
+      <c r="F1250" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1250" s="7" t="s">
+      <c r="G1250" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1250" s="0" t="n">
+      <c r="H1250" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1251" s="0" t="s">
+      <c r="A1251" s="4" t="s">
         <v>5659</v>
       </c>
-      <c r="B1251" s="0" t="s">
+      <c r="B1251" s="4" t="s">
         <v>5660</v>
       </c>
-      <c r="C1251" s="0" t="s">
+      <c r="C1251" s="4" t="s">
         <v>5661</v>
       </c>
-      <c r="D1251" s="0" t="s">
+      <c r="D1251" s="4" t="s">
         <v>5662</v>
       </c>
-      <c r="E1251" s="0" t="s">
+      <c r="E1251" s="4" t="s">
         <v>5663</v>
       </c>
-      <c r="F1251" s="7" t="s">
+      <c r="F1251" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1251" s="7" t="s">
+      <c r="G1251" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1251" s="0" t="n">
+      <c r="H1251" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1252" s="0" t="s">
+      <c r="A1252" s="4" t="s">
         <v>5664</v>
       </c>
-      <c r="B1252" s="0" t="s">
+      <c r="B1252" s="4" t="s">
         <v>5665</v>
       </c>
-      <c r="C1252" s="0" t="s">
+      <c r="C1252" s="4" t="s">
         <v>5666</v>
       </c>
-      <c r="D1252" s="0" t="s">
+      <c r="D1252" s="4" t="s">
         <v>5667</v>
       </c>
-      <c r="E1252" s="0" t="s">
+      <c r="E1252" s="4" t="s">
         <v>5668</v>
       </c>
-      <c r="F1252" s="7" t="s">
+      <c r="F1252" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1252" s="7" t="s">
+      <c r="G1252" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1252" s="0" t="n">
+      <c r="H1252" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1253" s="0" t="s">
+      <c r="A1253" s="4" t="s">
         <v>5669</v>
       </c>
-      <c r="B1253" s="0" t="s">
+      <c r="B1253" s="4" t="s">
         <v>5670</v>
       </c>
-      <c r="C1253" s="0" t="s">
+      <c r="C1253" s="4" t="s">
         <v>5671</v>
       </c>
-      <c r="D1253" s="0" t="s">
+      <c r="D1253" s="4" t="s">
         <v>5672</v>
       </c>
-      <c r="E1253" s="0" t="s">
+      <c r="E1253" s="4" t="s">
         <v>5673</v>
       </c>
-      <c r="F1253" s="7" t="s">
+      <c r="F1253" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1253" s="7" t="s">
+      <c r="G1253" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1253" s="0" t="n">
+      <c r="H1253" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1254" s="0" t="s">
+      <c r="A1254" s="4" t="s">
         <v>5674</v>
       </c>
-      <c r="B1254" s="0" t="s">
+      <c r="B1254" s="4" t="s">
         <v>5675</v>
       </c>
-      <c r="C1254" s="0" t="s">
+      <c r="C1254" s="4" t="s">
         <v>5676</v>
       </c>
-      <c r="D1254" s="0" t="s">
+      <c r="D1254" s="4" t="s">
         <v>5677</v>
       </c>
-      <c r="E1254" s="0" t="s">
+      <c r="E1254" s="4" t="s">
         <v>5678</v>
       </c>
-      <c r="F1254" s="7" t="s">
+      <c r="F1254" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1254" s="7" t="s">
+      <c r="G1254" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1254" s="0" t="n">
+      <c r="H1254" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="1255" customFormat="false" ht="206.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1255" s="9" t="s">
+    <row r="1255" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1255" s="5" t="s">
         <v>5679</v>
       </c>
-      <c r="B1255" s="8" t="s">
+      <c r="B1255" s="1" t="s">
         <v>5680</v>
       </c>
-      <c r="C1255" s="8" t="s">
+      <c r="C1255" s="1" t="s">
         <v>5681</v>
       </c>
-      <c r="D1255" s="8" t="s">
+      <c r="D1255" s="1" t="s">
         <v>5682</v>
       </c>
-      <c r="E1255" s="8" t="s">
+      <c r="E1255" s="1" t="s">
         <v>5683</v>
       </c>
-      <c r="F1255" s="7" t="s">
+      <c r="F1255" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1255" s="7" t="s">
+      <c r="G1255" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1255" s="0" t="n">
+      <c r="H1255" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1256" s="0" t="s">
+      <c r="A1256" s="4" t="s">
         <v>5684</v>
       </c>
-      <c r="B1256" s="0" t="s">
+      <c r="B1256" s="4" t="s">
         <v>5685</v>
       </c>
-      <c r="C1256" s="0" t="s">
+      <c r="C1256" s="4" t="s">
         <v>5686</v>
       </c>
-      <c r="D1256" s="0" t="s">
+      <c r="D1256" s="4" t="s">
         <v>5687</v>
       </c>
-      <c r="E1256" s="0" t="s">
+      <c r="E1256" s="4" t="s">
         <v>5688</v>
       </c>
-      <c r="F1256" s="7" t="s">
+      <c r="F1256" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1256" s="7" t="s">
+      <c r="G1256" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1256" s="0" t="n">
+      <c r="H1256" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1257" s="0" t="s">
+      <c r="A1257" s="4" t="s">
         <v>5689</v>
       </c>
-      <c r="B1257" s="0" t="s">
+      <c r="B1257" s="4" t="s">
         <v>4383</v>
       </c>
-      <c r="C1257" s="0" t="s">
+      <c r="C1257" s="4" t="s">
         <v>5690</v>
       </c>
-      <c r="D1257" s="0" t="s">
+      <c r="D1257" s="4" t="s">
         <v>4380</v>
       </c>
-      <c r="E1257" s="0" t="s">
+      <c r="E1257" s="4" t="s">
         <v>5691</v>
       </c>
-      <c r="F1257" s="7" t="s">
+      <c r="F1257" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1257" s="7" t="s">
+      <c r="G1257" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1257" s="0" t="n">
+      <c r="H1257" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1258" s="0" t="s">
+      <c r="A1258" s="4" t="s">
         <v>5692</v>
       </c>
-      <c r="B1258" s="0" t="s">
+      <c r="B1258" s="4" t="s">
         <v>5693</v>
       </c>
-      <c r="C1258" s="0" t="s">
+      <c r="C1258" s="4" t="s">
         <v>5694</v>
       </c>
-      <c r="D1258" s="0" t="s">
+      <c r="D1258" s="4" t="s">
         <v>5695</v>
       </c>
-      <c r="E1258" s="0" t="s">
+      <c r="E1258" s="4" t="s">
         <v>5695</v>
       </c>
-      <c r="F1258" s="7" t="s">
+      <c r="F1258" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="G1258" s="7" t="s">
+      <c r="G1258" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1258" s="0" t="n">
+      <c r="H1258" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1259" s="0" t="s">
+      <c r="A1259" s="4" t="s">
         <v>5696</v>
       </c>
-      <c r="B1259" s="0" t="s">
+      <c r="B1259" s="4" t="s">
         <v>5697</v>
       </c>
-      <c r="C1259" s="0" t="s">
+      <c r="C1259" s="4" t="s">
         <v>5698</v>
       </c>
-      <c r="D1259" s="0" t="s">
+      <c r="D1259" s="4" t="s">
         <v>5699</v>
       </c>
-      <c r="E1259" s="0" t="s">
+      <c r="E1259" s="4" t="s">
         <v>5700</v>
       </c>
-      <c r="F1259" s="0" t="s">
+      <c r="F1259" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G1259" s="7" t="s">
+      <c r="G1259" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1259" s="0" t="n">
+      <c r="H1259" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1260" s="0" t="s">
+      <c r="A1260" s="4" t="s">
         <v>5701</v>
       </c>
-      <c r="B1260" s="0" t="s">
+      <c r="B1260" s="4" t="s">
         <v>5702</v>
       </c>
-      <c r="C1260" s="0" t="s">
+      <c r="C1260" s="4" t="s">
         <v>5703</v>
       </c>
-      <c r="D1260" s="0" t="s">
+      <c r="D1260" s="4" t="s">
         <v>2029</v>
       </c>
-      <c r="E1260" s="0" t="s">
+      <c r="E1260" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="F1260" s="7" t="s">
+      <c r="F1260" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1260" s="7" t="s">
+      <c r="G1260" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1260" s="0" t="n">
+      <c r="H1260" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1261" s="0" t="s">
+      <c r="A1261" s="4" t="s">
         <v>5704</v>
       </c>
-      <c r="B1261" s="0" t="s">
+      <c r="B1261" s="4" t="s">
         <v>4919</v>
       </c>
-      <c r="C1261" s="0" t="s">
+      <c r="C1261" s="4" t="s">
         <v>5705</v>
       </c>
-      <c r="D1261" s="0" t="s">
+      <c r="D1261" s="4" t="s">
         <v>5706</v>
       </c>
-      <c r="E1261" s="0" t="s">
+      <c r="E1261" s="4" t="s">
         <v>5707</v>
       </c>
-      <c r="F1261" s="7" t="s">
+      <c r="F1261" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1261" s="7" t="s">
+      <c r="G1261" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1261" s="0" t="n">
+      <c r="H1261" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1262" s="0" t="s">
+      <c r="A1262" s="4" t="s">
         <v>5708</v>
       </c>
-      <c r="B1262" s="0" t="s">
+      <c r="B1262" s="4" t="s">
         <v>4202</v>
       </c>
-      <c r="C1262" s="0" t="s">
+      <c r="C1262" s="4" t="s">
         <v>5709</v>
       </c>
-      <c r="D1262" s="0" t="s">
+      <c r="D1262" s="4" t="s">
         <v>5710</v>
       </c>
-      <c r="E1262" s="0" t="s">
+      <c r="E1262" s="4" t="s">
         <v>5711</v>
       </c>
-      <c r="F1262" s="0" t="s">
+      <c r="F1262" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G1262" s="7" t="s">
+      <c r="G1262" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1262" s="0" t="n">
+      <c r="H1262" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1263" s="0" t="s">
+      <c r="A1263" s="4" t="s">
         <v>2825</v>
       </c>
-      <c r="B1263" s="0" t="s">
+      <c r="B1263" s="4" t="s">
         <v>5712</v>
       </c>
-      <c r="C1263" s="0" t="s">
+      <c r="C1263" s="4" t="s">
         <v>5713</v>
       </c>
-      <c r="D1263" s="0" t="s">
+      <c r="D1263" s="4" t="s">
         <v>5714</v>
       </c>
-      <c r="E1263" s="0" t="s">
+      <c r="E1263" s="4" t="s">
         <v>5715</v>
       </c>
-      <c r="F1263" s="7" t="s">
+      <c r="F1263" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G1263" s="7" t="s">
+      <c r="G1263" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1263" s="0" t="n">
+      <c r="H1263" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1264" s="0" t="s">
+      <c r="A1264" s="4" t="s">
         <v>5716</v>
       </c>
-      <c r="B1264" s="0" t="s">
+      <c r="B1264" s="4" t="s">
         <v>5717</v>
       </c>
-      <c r="C1264" s="0" t="s">
+      <c r="C1264" s="4" t="s">
         <v>5718</v>
       </c>
-      <c r="D1264" s="0" t="s">
+      <c r="D1264" s="4" t="s">
         <v>5719</v>
       </c>
-      <c r="E1264" s="0" t="s">
+      <c r="E1264" s="4" t="s">
         <v>5720</v>
       </c>
-      <c r="F1264" s="7" t="s">
+      <c r="F1264" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G1264" s="7" t="s">
+      <c r="G1264" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1264" s="0" t="n">
+      <c r="H1264" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1265" s="0" t="s">
+      <c r="A1265" s="4" t="s">
         <v>5721</v>
       </c>
-      <c r="B1265" s="0" t="s">
+      <c r="B1265" s="4" t="s">
         <v>5722</v>
       </c>
-      <c r="C1265" s="0" t="s">
+      <c r="C1265" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="D1265" s="0" t="s">
+      <c r="D1265" s="4" t="s">
         <v>5723</v>
       </c>
-      <c r="E1265" s="0" t="s">
+      <c r="E1265" s="4" t="s">
         <v>2032</v>
       </c>
-      <c r="F1265" s="0" t="s">
+      <c r="F1265" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G1265" s="7" t="s">
+      <c r="G1265" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1265" s="0" t="n">
+      <c r="H1265" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="90.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1266" s="9" t="s">
+      <c r="A1266" s="5" t="s">
         <v>5724</v>
       </c>
-      <c r="B1266" s="8" t="s">
+      <c r="B1266" s="1" t="s">
         <v>5725</v>
       </c>
-      <c r="C1266" s="8" t="s">
+      <c r="C1266" s="1" t="s">
         <v>5726</v>
       </c>
-      <c r="D1266" s="8" t="s">
+      <c r="D1266" s="1" t="s">
         <v>5726</v>
       </c>
-      <c r="E1266" s="8" t="s">
+      <c r="E1266" s="1" t="s">
         <v>5727</v>
       </c>
-      <c r="F1266" s="7" t="s">
+      <c r="F1266" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1266" s="7" t="s">
+      <c r="G1266" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1266" s="0" t="n">
+      <c r="H1266" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1267" s="0" t="s">
+      <c r="A1267" s="4" t="s">
         <v>5728</v>
       </c>
-      <c r="B1267" s="0" t="s">
+      <c r="B1267" s="4" t="s">
         <v>4218</v>
       </c>
-      <c r="C1267" s="0" t="s">
+      <c r="C1267" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D1267" s="0" t="s">
+      <c r="D1267" s="4" t="s">
         <v>5729</v>
       </c>
-      <c r="E1267" s="0" t="s">
+      <c r="E1267" s="4" t="s">
         <v>5730</v>
       </c>
-      <c r="F1267" s="7" t="s">
+      <c r="F1267" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1267" s="7" t="s">
+      <c r="G1267" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1267" s="0" t="n">
+      <c r="H1267" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1268" s="7" t="s">
+      <c r="A1268" s="1" t="s">
         <v>5731</v>
       </c>
-      <c r="B1268" s="7" t="s">
+      <c r="B1268" s="1" t="s">
         <v>5732</v>
       </c>
-      <c r="C1268" s="7" t="s">
+      <c r="C1268" s="1" t="s">
         <v>5733</v>
       </c>
-      <c r="D1268" s="7" t="s">
+      <c r="D1268" s="1" t="s">
         <v>5734</v>
       </c>
-      <c r="E1268" s="8" t="s">
+      <c r="E1268" s="1" t="s">
         <v>5735</v>
       </c>
-      <c r="F1268" s="7" t="s">
+      <c r="F1268" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1268" s="7" t="s">
+      <c r="G1268" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1268" s="0" t="n">
+      <c r="H1268" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1269" s="0" t="s">
+      <c r="A1269" s="4" t="s">
         <v>5736</v>
       </c>
-      <c r="B1269" s="0" t="s">
+      <c r="B1269" s="4" t="s">
         <v>5737</v>
       </c>
-      <c r="C1269" s="0" t="s">
+      <c r="C1269" s="4" t="s">
         <v>5738</v>
       </c>
-      <c r="D1269" s="0" t="s">
+      <c r="D1269" s="4" t="s">
         <v>5726</v>
       </c>
-      <c r="E1269" s="0" t="s">
+      <c r="E1269" s="4" t="s">
         <v>5725</v>
       </c>
-      <c r="F1269" s="7" t="s">
+      <c r="F1269" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1269" s="7" t="s">
+      <c r="G1269" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1269" s="0" t="n">
+      <c r="H1269" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1270" s="0" t="s">
+      <c r="A1270" s="4" t="s">
         <v>5739</v>
       </c>
-      <c r="B1270" s="0" t="s">
+      <c r="B1270" s="4" t="s">
         <v>5740</v>
       </c>
-      <c r="C1270" s="0" t="s">
+      <c r="C1270" s="4" t="s">
         <v>5741</v>
       </c>
-      <c r="D1270" s="0" t="s">
+      <c r="D1270" s="4" t="s">
         <v>5742</v>
       </c>
-      <c r="E1270" s="0" t="s">
+      <c r="E1270" s="4" t="s">
         <v>5743</v>
       </c>
-      <c r="F1270" s="7" t="s">
+      <c r="F1270" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1270" s="7" t="s">
+      <c r="G1270" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1270" s="0" t="n">
+      <c r="H1270" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1271" s="0" t="s">
+      <c r="A1271" s="4" t="s">
         <v>5744</v>
       </c>
-      <c r="B1271" s="0" t="s">
+      <c r="B1271" s="4" t="s">
         <v>5745</v>
       </c>
-      <c r="C1271" s="0" t="s">
+      <c r="C1271" s="4" t="s">
         <v>5746</v>
       </c>
-      <c r="D1271" s="0" t="s">
+      <c r="D1271" s="4" t="s">
         <v>5747</v>
       </c>
-      <c r="E1271" s="0" t="s">
+      <c r="E1271" s="4" t="s">
         <v>5748</v>
       </c>
-      <c r="F1271" s="7" t="s">
+      <c r="F1271" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1271" s="7" t="s">
+      <c r="G1271" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1271" s="0" t="n">
+      <c r="H1271" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1272" s="0" t="s">
+      <c r="A1272" s="4" t="s">
         <v>5749</v>
       </c>
-      <c r="B1272" s="0" t="s">
+      <c r="B1272" s="4" t="s">
         <v>5750</v>
       </c>
-      <c r="C1272" s="0" t="s">
+      <c r="C1272" s="4" t="s">
         <v>3605</v>
       </c>
-      <c r="D1272" s="0" t="s">
+      <c r="D1272" s="4" t="s">
         <v>5751</v>
       </c>
-      <c r="E1272" s="0" t="s">
+      <c r="E1272" s="4" t="s">
         <v>5752</v>
       </c>
-      <c r="F1272" s="7" t="s">
+      <c r="F1272" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1272" s="7" t="s">
+      <c r="G1272" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1272" s="0" t="n">
+      <c r="H1272" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1273" s="0" t="s">
+      <c r="A1273" s="4" t="s">
         <v>5753</v>
       </c>
-      <c r="B1273" s="0" t="s">
+      <c r="B1273" s="4" t="s">
         <v>3581</v>
       </c>
-      <c r="C1273" s="0" t="s">
+      <c r="C1273" s="4" t="s">
         <v>5754</v>
       </c>
-      <c r="D1273" s="0" t="s">
+      <c r="D1273" s="4" t="s">
         <v>5755</v>
       </c>
-      <c r="E1273" s="0" t="s">
+      <c r="E1273" s="4" t="s">
         <v>5756</v>
       </c>
-      <c r="F1273" s="7" t="s">
+      <c r="F1273" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1273" s="7" t="s">
+      <c r="G1273" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1273" s="0" t="n">
+      <c r="H1273" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1274" s="0" t="s">
+      <c r="A1274" s="4" t="s">
         <v>5757</v>
       </c>
-      <c r="B1274" s="0" t="s">
+      <c r="B1274" s="4" t="s">
         <v>2730</v>
       </c>
-      <c r="C1274" s="0" t="s">
+      <c r="C1274" s="4" t="s">
         <v>5758</v>
       </c>
-      <c r="D1274" s="0" t="s">
+      <c r="D1274" s="4" t="s">
         <v>5759</v>
       </c>
-      <c r="E1274" s="0" t="s">
+      <c r="E1274" s="4" t="s">
         <v>5760</v>
       </c>
-      <c r="F1274" s="7" t="s">
+      <c r="F1274" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1274" s="7" t="s">
+      <c r="G1274" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1274" s="0" t="n">
+      <c r="H1274" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1275" s="0" t="s">
+      <c r="A1275" s="4" t="s">
         <v>5761</v>
       </c>
-      <c r="B1275" s="0" t="s">
+      <c r="B1275" s="4" t="s">
         <v>5762</v>
       </c>
-      <c r="C1275" s="0" t="s">
+      <c r="C1275" s="4" t="s">
         <v>5763</v>
       </c>
-      <c r="D1275" s="0" t="s">
+      <c r="D1275" s="4" t="s">
         <v>5764</v>
       </c>
-      <c r="E1275" s="0" t="s">
+      <c r="E1275" s="4" t="s">
         <v>5765</v>
       </c>
-      <c r="F1275" s="7" t="s">
+      <c r="F1275" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1275" s="7" t="s">
+      <c r="G1275" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1275" s="0" t="n">
+      <c r="H1275" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1276" s="0" t="s">
+      <c r="A1276" s="4" t="s">
         <v>5766</v>
       </c>
-      <c r="B1276" s="0" t="s">
+      <c r="B1276" s="4" t="s">
         <v>5767</v>
       </c>
-      <c r="C1276" s="0" t="s">
+      <c r="C1276" s="4" t="s">
         <v>5768</v>
       </c>
-      <c r="D1276" s="0" t="s">
+      <c r="D1276" s="4" t="s">
         <v>5769</v>
       </c>
-      <c r="E1276" s="0" t="s">
+      <c r="E1276" s="4" t="s">
         <v>5770</v>
       </c>
-      <c r="F1276" s="7" t="s">
+      <c r="F1276" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1276" s="7" t="s">
+      <c r="G1276" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1276" s="0" t="n">
+      <c r="H1276" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1277" s="0" t="s">
+      <c r="A1277" s="4" t="s">
         <v>5771</v>
       </c>
-      <c r="B1277" s="0" t="s">
+      <c r="B1277" s="4" t="s">
         <v>5772</v>
       </c>
-      <c r="C1277" s="0" t="s">
+      <c r="C1277" s="4" t="s">
         <v>5773</v>
       </c>
-      <c r="D1277" s="0" t="s">
+      <c r="D1277" s="4" t="s">
         <v>5774</v>
       </c>
-      <c r="E1277" s="0" t="s">
+      <c r="E1277" s="4" t="s">
         <v>5775</v>
       </c>
-      <c r="F1277" s="7" t="s">
+      <c r="F1277" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1277" s="7" t="s">
+      <c r="G1277" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1277" s="0" t="n">
+      <c r="H1277" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1278" s="0" t="s">
+      <c r="A1278" s="4" t="s">
         <v>5776</v>
       </c>
-      <c r="B1278" s="0" t="s">
+      <c r="B1278" s="4" t="s">
         <v>5777</v>
       </c>
-      <c r="C1278" s="0" t="s">
+      <c r="C1278" s="4" t="s">
         <v>5778</v>
       </c>
-      <c r="D1278" s="0" t="s">
+      <c r="D1278" s="4" t="s">
         <v>5779</v>
       </c>
-      <c r="E1278" s="0" t="s">
+      <c r="E1278" s="4" t="s">
         <v>5780</v>
       </c>
-      <c r="F1278" s="7" t="s">
+      <c r="F1278" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1278" s="7" t="s">
+      <c r="G1278" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1278" s="0" t="n">
+      <c r="H1278" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1279" s="0" t="s">
+      <c r="A1279" s="4" t="s">
         <v>5781</v>
       </c>
-      <c r="B1279" s="0" t="s">
+      <c r="B1279" s="4" t="s">
         <v>5782</v>
       </c>
-      <c r="C1279" s="0" t="s">
+      <c r="C1279" s="4" t="s">
         <v>5783</v>
       </c>
-      <c r="D1279" s="0" t="s">
+      <c r="D1279" s="4" t="s">
         <v>5784</v>
       </c>
-      <c r="E1279" s="0" t="s">
+      <c r="E1279" s="4" t="s">
         <v>5785</v>
       </c>
-      <c r="F1279" s="7" t="s">
+      <c r="F1279" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1279" s="7" t="s">
+      <c r="G1279" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1279" s="0" t="n">
+      <c r="H1279" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1280" s="0" t="s">
+      <c r="A1280" s="4" t="s">
         <v>5786</v>
       </c>
-      <c r="B1280" s="0" t="s">
+      <c r="B1280" s="4" t="s">
         <v>5787</v>
       </c>
-      <c r="C1280" s="0" t="s">
+      <c r="C1280" s="4" t="s">
         <v>5788</v>
       </c>
-      <c r="D1280" s="0" t="s">
+      <c r="D1280" s="4" t="s">
         <v>4790</v>
       </c>
-      <c r="E1280" s="0" t="s">
+      <c r="E1280" s="4" t="s">
         <v>4322</v>
       </c>
-      <c r="F1280" s="7" t="s">
+      <c r="F1280" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1280" s="7" t="s">
+      <c r="G1280" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1280" s="0" t="n">
+      <c r="H1280" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1281" s="0" t="s">
+      <c r="A1281" s="4" t="s">
         <v>5789</v>
       </c>
-      <c r="B1281" s="0" t="s">
+      <c r="B1281" s="4" t="s">
         <v>5790</v>
       </c>
-      <c r="C1281" s="0" t="s">
+      <c r="C1281" s="4" t="s">
         <v>5791</v>
       </c>
-      <c r="D1281" s="0" t="s">
+      <c r="D1281" s="4" t="s">
         <v>5792</v>
       </c>
-      <c r="E1281" s="0" t="s">
+      <c r="E1281" s="4" t="s">
         <v>5793</v>
       </c>
-      <c r="F1281" s="7" t="s">
+      <c r="F1281" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1281" s="7" t="s">
+      <c r="G1281" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1281" s="0" t="n">
+      <c r="H1281" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1282" s="0" t="s">
+      <c r="A1282" s="4" t="s">
         <v>2747</v>
       </c>
-      <c r="B1282" s="0" t="s">
+      <c r="B1282" s="4" t="s">
         <v>1933</v>
       </c>
-      <c r="C1282" s="0" t="s">
+      <c r="C1282" s="4" t="s">
         <v>5794</v>
       </c>
-      <c r="D1282" s="0" t="s">
+      <c r="D1282" s="4" t="s">
         <v>5795</v>
       </c>
-      <c r="E1282" s="0" t="s">
+      <c r="E1282" s="4" t="s">
         <v>5796</v>
       </c>
-      <c r="F1282" s="7" t="s">
+      <c r="F1282" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1282" s="7" t="s">
+      <c r="G1282" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1282" s="0" t="n">
+      <c r="H1282" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1283" s="0" t="s">
+      <c r="A1283" s="4" t="s">
         <v>2751</v>
       </c>
-      <c r="B1283" s="0" t="s">
+      <c r="B1283" s="4" t="s">
         <v>5797</v>
       </c>
-      <c r="C1283" s="0" t="s">
+      <c r="C1283" s="4" t="s">
         <v>5798</v>
       </c>
-      <c r="D1283" s="0" t="s">
+      <c r="D1283" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E1283" s="0" t="s">
+      <c r="E1283" s="4" t="s">
         <v>1935</v>
       </c>
-      <c r="F1283" s="7" t="s">
+      <c r="F1283" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G1283" s="7" t="s">
+      <c r="G1283" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1283" s="0" t="n">
+      <c r="H1283" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1284" s="0" t="s">
+      <c r="A1284" s="4" t="s">
         <v>5799</v>
       </c>
-      <c r="B1284" s="0" t="s">
+      <c r="B1284" s="4" t="s">
         <v>5800</v>
       </c>
-      <c r="C1284" s="0" t="s">
+      <c r="C1284" s="4" t="s">
         <v>2866</v>
       </c>
-      <c r="D1284" s="0" t="s">
+      <c r="D1284" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="E1284" s="0" t="s">
+      <c r="E1284" s="4" t="s">
         <v>5801</v>
       </c>
-      <c r="F1284" s="7" t="s">
+      <c r="F1284" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G1284" s="7" t="s">
+      <c r="G1284" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1284" s="0" t="n">
+      <c r="H1284" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1285" s="0" t="s">
+      <c r="A1285" s="4" t="s">
         <v>5802</v>
       </c>
-      <c r="B1285" s="0" t="s">
+      <c r="B1285" s="4" t="s">
         <v>5803</v>
       </c>
-      <c r="C1285" s="0" t="s">
+      <c r="C1285" s="4" t="s">
         <v>5804</v>
       </c>
-      <c r="D1285" s="0" t="s">
+      <c r="D1285" s="4" t="s">
         <v>5805</v>
       </c>
-      <c r="E1285" s="0" t="s">
+      <c r="E1285" s="4" t="s">
         <v>5806</v>
       </c>
-      <c r="F1285" s="0" t="s">
+      <c r="F1285" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G1285" s="7" t="s">
+      <c r="G1285" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1285" s="0" t="n">
+      <c r="H1285" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1286" s="0" t="s">
+      <c r="A1286" s="4" t="s">
         <v>5807</v>
       </c>
-      <c r="B1286" s="0" t="s">
+      <c r="B1286" s="4" t="s">
         <v>5808</v>
       </c>
-      <c r="C1286" s="0" t="s">
+      <c r="C1286" s="4" t="s">
         <v>5809</v>
       </c>
-      <c r="D1286" s="0" t="s">
+      <c r="D1286" s="4" t="s">
         <v>5810</v>
       </c>
-      <c r="E1286" s="0" t="s">
+      <c r="E1286" s="4" t="s">
         <v>5811</v>
       </c>
-      <c r="F1286" s="0" t="s">
+      <c r="F1286" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G1286" s="7" t="s">
+      <c r="G1286" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1286" s="0" t="n">
+      <c r="H1286" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1287" s="0" t="s">
+      <c r="A1287" s="4" t="s">
         <v>5812</v>
       </c>
-      <c r="B1287" s="0" t="s">
+      <c r="B1287" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C1287" s="0" t="s">
+      <c r="C1287" s="4" t="s">
         <v>4259</v>
       </c>
-      <c r="D1287" s="0" t="s">
+      <c r="D1287" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E1287" s="0" t="s">
+      <c r="E1287" s="4" t="s">
         <v>2085</v>
       </c>
-      <c r="F1287" s="0" t="s">
+      <c r="F1287" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G1287" s="7" t="s">
+      <c r="G1287" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1287" s="0" t="n">
+      <c r="H1287" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1288" s="0" t="s">
+      <c r="A1288" s="4" t="s">
         <v>5813</v>
       </c>
-      <c r="B1288" s="0" t="s">
+      <c r="B1288" s="4" t="s">
         <v>5814</v>
       </c>
-      <c r="C1288" s="0" t="s">
+      <c r="C1288" s="4" t="s">
         <v>5815</v>
       </c>
-      <c r="D1288" s="0" t="s">
+      <c r="D1288" s="4" t="s">
         <v>5816</v>
       </c>
-      <c r="E1288" s="0" t="s">
+      <c r="E1288" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="F1288" s="0" t="s">
+      <c r="F1288" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G1288" s="7" t="s">
+      <c r="G1288" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1288" s="0" t="n">
+      <c r="H1288" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1289" s="0" t="s">
+      <c r="A1289" s="4" t="s">
         <v>5817</v>
       </c>
-      <c r="B1289" s="0" t="s">
+      <c r="B1289" s="4" t="s">
         <v>5818</v>
       </c>
-      <c r="C1289" s="0" t="s">
+      <c r="C1289" s="4" t="s">
         <v>5819</v>
       </c>
-      <c r="D1289" s="0" t="s">
+      <c r="D1289" s="4" t="s">
         <v>5820</v>
       </c>
-      <c r="E1289" s="0" t="s">
+      <c r="E1289" s="4" t="s">
         <v>5821</v>
       </c>
-      <c r="F1289" s="0" t="s">
+      <c r="F1289" s="4" t="s">
         <v>3609</v>
       </c>
-      <c r="G1289" s="7" t="s">
+      <c r="G1289" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1289" s="0" t="n">
+      <c r="H1289" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1290" s="0" t="s">
+      <c r="A1290" s="4" t="s">
         <v>5822</v>
       </c>
-      <c r="B1290" s="0" t="s">
+      <c r="B1290" s="4" t="s">
         <v>5823</v>
       </c>
-      <c r="C1290" s="0" t="s">
+      <c r="C1290" s="4" t="s">
         <v>5824</v>
       </c>
-      <c r="D1290" s="0" t="s">
+      <c r="D1290" s="4" t="s">
         <v>5825</v>
       </c>
-      <c r="E1290" s="0" t="s">
+      <c r="E1290" s="4" t="s">
         <v>5826</v>
       </c>
-      <c r="F1290" s="7" t="s">
+      <c r="F1290" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1290" s="7" t="s">
+      <c r="G1290" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1290" s="0" t="n">
+      <c r="H1290" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1291" s="0" t="s">
+      <c r="A1291" s="4" t="s">
         <v>5827</v>
       </c>
-      <c r="B1291" s="0" t="s">
+      <c r="B1291" s="4" t="s">
         <v>5828</v>
       </c>
-      <c r="C1291" s="0" t="s">
+      <c r="C1291" s="4" t="s">
         <v>5829</v>
       </c>
-      <c r="D1291" s="0" t="s">
+      <c r="D1291" s="4" t="s">
         <v>5830</v>
       </c>
-      <c r="E1291" s="0" t="s">
+      <c r="E1291" s="4" t="s">
         <v>5831</v>
       </c>
-      <c r="F1291" s="7" t="s">
+      <c r="F1291" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1291" s="7" t="s">
+      <c r="G1291" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1291" s="0" t="n">
+      <c r="H1291" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1292" s="0" t="s">
+      <c r="A1292" s="4" t="s">
         <v>5832</v>
       </c>
-      <c r="B1292" s="0" t="s">
+      <c r="B1292" s="4" t="s">
         <v>5833</v>
       </c>
-      <c r="C1292" s="0" t="s">
+      <c r="C1292" s="4" t="s">
         <v>5834</v>
       </c>
-      <c r="D1292" s="0" t="s">
+      <c r="D1292" s="4" t="s">
         <v>5835</v>
       </c>
-      <c r="E1292" s="0" t="s">
+      <c r="E1292" s="4" t="s">
         <v>5836</v>
       </c>
-      <c r="F1292" s="7" t="s">
+      <c r="F1292" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1292" s="7" t="s">
+      <c r="G1292" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1292" s="0" t="n">
+      <c r="H1292" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1293" s="0" t="s">
+      <c r="A1293" s="4" t="s">
         <v>5837</v>
       </c>
-      <c r="B1293" s="0" t="s">
+      <c r="B1293" s="4" t="s">
         <v>5838</v>
       </c>
-      <c r="C1293" s="0" t="s">
+      <c r="C1293" s="4" t="s">
         <v>5839</v>
       </c>
-      <c r="D1293" s="0" t="s">
+      <c r="D1293" s="4" t="s">
         <v>5840</v>
       </c>
-      <c r="E1293" s="0" t="s">
+      <c r="E1293" s="4" t="s">
         <v>5841</v>
       </c>
-      <c r="F1293" s="7" t="s">
+      <c r="F1293" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1293" s="7" t="s">
+      <c r="G1293" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1293" s="0" t="n">
+      <c r="H1293" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1294" s="0" t="s">
+      <c r="A1294" s="4" t="s">
         <v>5842</v>
       </c>
-      <c r="B1294" s="0" t="s">
+      <c r="B1294" s="4" t="s">
         <v>5843</v>
       </c>
-      <c r="C1294" s="0" t="s">
+      <c r="C1294" s="4" t="s">
         <v>5844</v>
       </c>
-      <c r="D1294" s="0" t="s">
+      <c r="D1294" s="4" t="s">
         <v>5845</v>
       </c>
-      <c r="E1294" s="0" t="s">
+      <c r="E1294" s="4" t="s">
         <v>5846</v>
       </c>
-      <c r="F1294" s="7" t="s">
+      <c r="F1294" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1294" s="7" t="s">
+      <c r="G1294" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1294" s="0" t="n">
+      <c r="H1294" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="1295" customFormat="false" ht="130.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1295" s="9" t="s">
+    <row r="1295" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1295" s="5" t="s">
         <v>5847</v>
       </c>
-      <c r="B1295" s="8" t="s">
+      <c r="B1295" s="1" t="s">
         <v>5848</v>
       </c>
-      <c r="C1295" s="8" t="s">
+      <c r="C1295" s="1" t="s">
         <v>5849</v>
       </c>
-      <c r="D1295" s="8" t="s">
+      <c r="D1295" s="1" t="s">
         <v>5850</v>
       </c>
-      <c r="E1295" s="8" t="s">
+      <c r="E1295" s="1" t="s">
         <v>5851</v>
       </c>
-      <c r="F1295" s="7" t="s">
+      <c r="F1295" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1295" s="7" t="s">
+      <c r="G1295" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1295" s="0" t="n">
+      <c r="H1295" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1296" s="0" t="s">
+      <c r="A1296" s="4" t="s">
         <v>5852</v>
       </c>
-      <c r="B1296" s="0" t="s">
+      <c r="B1296" s="4" t="s">
         <v>5853</v>
       </c>
-      <c r="C1296" s="0" t="s">
+      <c r="C1296" s="4" t="s">
         <v>5854</v>
       </c>
-      <c r="D1296" s="0" t="s">
+      <c r="D1296" s="4" t="s">
         <v>5855</v>
       </c>
-      <c r="E1296" s="0" t="s">
+      <c r="E1296" s="4" t="s">
         <v>5856</v>
       </c>
-      <c r="F1296" s="7" t="s">
+      <c r="F1296" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1296" s="7" t="s">
+      <c r="G1296" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1296" s="0" t="n">
+      <c r="H1296" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1297" s="0" t="s">
+        <v>5857</v>
+      </c>
+      <c r="B1297" s="0" t="s">
+        <v>5858</v>
+      </c>
+      <c r="C1297" s="0" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D1297" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E1297" s="0" t="s">
+        <v>5860</v>
+      </c>
+      <c r="F1297" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1297" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1297" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1298" s="0" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B1298" s="0" t="s">
+        <v>5862</v>
+      </c>
+      <c r="C1298" s="0" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D1298" s="0" t="s">
+        <v>5062</v>
+      </c>
+      <c r="E1298" s="0" t="s">
+        <v>5864</v>
+      </c>
+      <c r="F1298" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1298" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1298" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1299" s="0" t="s">
+        <v>5865</v>
+      </c>
+      <c r="B1299" s="0" t="s">
+        <v>5866</v>
+      </c>
+      <c r="C1299" s="0" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D1299" s="0" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E1299" s="0" t="s">
+        <v>5869</v>
+      </c>
+      <c r="F1299" s="7" t="s">
+        <v>3609</v>
+      </c>
+      <c r="G1299" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1299" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1300" s="0" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B1300" s="0" t="s">
+        <v>5871</v>
+      </c>
+      <c r="C1300" s="0" t="s">
+        <v>5872</v>
+      </c>
+      <c r="D1300" s="0" t="s">
+        <v>5873</v>
+      </c>
+      <c r="E1300" s="0" t="s">
+        <v>5874</v>
+      </c>
+      <c r="F1300" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1300" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1300" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1301" s="0" t="s">
+        <v>5875</v>
+      </c>
+      <c r="B1301" s="0" t="s">
+        <v>5876</v>
+      </c>
+      <c r="C1301" s="0" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D1301" s="0" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E1301" s="0" t="s">
+        <v>5879</v>
+      </c>
+      <c r="F1301" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1301" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1301" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1302" s="0" t="s">
+        <v>5880</v>
+      </c>
+      <c r="B1302" s="0" t="s">
+        <v>5881</v>
+      </c>
+      <c r="C1302" s="0" t="s">
+        <v>5882</v>
+      </c>
+      <c r="D1302" s="0" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E1302" s="0" t="s">
+        <v>5642</v>
+      </c>
+      <c r="F1302" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1302" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1302" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1303" s="0" t="s">
+        <v>5883</v>
+      </c>
+      <c r="B1303" s="0" t="s">
+        <v>5884</v>
+      </c>
+      <c r="C1303" s="0" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D1303" s="0" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E1303" s="0" t="s">
+        <v>5887</v>
+      </c>
+      <c r="F1303" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1303" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1303" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1304" s="0" t="s">
+        <v>5888</v>
+      </c>
+      <c r="B1304" s="0" t="s">
+        <v>5889</v>
+      </c>
+      <c r="C1304" s="0" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D1304" s="0" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E1304" s="0" t="s">
+        <v>5892</v>
+      </c>
+      <c r="F1304" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1304" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1304" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1305" s="0" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B1305" s="0" t="s">
+        <v>5894</v>
+      </c>
+      <c r="C1305" s="0" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D1305" s="0" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E1305" s="0" t="s">
+        <v>5897</v>
+      </c>
+      <c r="F1305" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1305" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1305" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1306" s="0" t="s">
+        <v>5898</v>
+      </c>
+      <c r="B1306" s="0" t="s">
+        <v>5899</v>
+      </c>
+      <c r="C1306" s="0" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D1306" s="0" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E1306" s="0" t="s">
+        <v>5901</v>
+      </c>
+      <c r="F1306" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1306" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1306" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1307" s="0" t="s">
+        <v>5902</v>
+      </c>
+      <c r="B1307" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1307" s="0" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D1307" s="0" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E1307" s="0" t="s">
+        <v>5905</v>
+      </c>
+      <c r="F1307" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1307" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1307" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1308" s="0" t="s">
+        <v>5906</v>
+      </c>
+      <c r="B1308" s="0" t="s">
+        <v>5907</v>
+      </c>
+      <c r="C1308" s="0" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D1308" s="0" t="s">
+        <v>5909</v>
+      </c>
+      <c r="E1308" s="0" t="s">
+        <v>5910</v>
+      </c>
+      <c r="F1308" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1308" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1308" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1309" s="0" t="s">
+        <v>5911</v>
+      </c>
+      <c r="B1309" s="0" t="s">
+        <v>5912</v>
+      </c>
+      <c r="C1309" s="0" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D1309" s="0" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E1309" s="0" t="s">
+        <v>5915</v>
+      </c>
+      <c r="F1309" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1309" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1309" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1310" s="0" t="s">
+        <v>5916</v>
+      </c>
+      <c r="B1310" s="0" t="s">
+        <v>5917</v>
+      </c>
+      <c r="C1310" s="0" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D1310" s="0" t="s">
+        <v>5919</v>
+      </c>
+      <c r="E1310" s="0" t="s">
+        <v>5920</v>
+      </c>
+      <c r="F1310" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1310" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1310" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1311" s="0" t="s">
+        <v>5921</v>
+      </c>
+      <c r="B1311" s="0" t="s">
+        <v>5922</v>
+      </c>
+      <c r="C1311" s="0" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D1311" s="0" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E1311" s="0" t="s">
+        <v>5925</v>
+      </c>
+      <c r="F1311" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1311" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1311" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1312" s="0" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B1312" s="0" t="s">
+        <v>5926</v>
+      </c>
+      <c r="C1312" s="0" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D1312" s="0" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E1312" s="0" t="s">
+        <v>5929</v>
+      </c>
+      <c r="F1312" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1312" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1312" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1313" s="0" t="s">
+        <v>5930</v>
+      </c>
+      <c r="B1313" s="0" t="s">
+        <v>5931</v>
+      </c>
+      <c r="C1313" s="0" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D1313" s="0" t="s">
+        <v>5933</v>
+      </c>
+      <c r="E1313" s="0" t="s">
+        <v>5934</v>
+      </c>
+      <c r="F1313" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1313" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1313" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1314" s="0" t="s">
+        <v>5935</v>
+      </c>
+      <c r="B1314" s="0" t="s">
+        <v>5936</v>
+      </c>
+      <c r="C1314" s="0" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D1314" s="0" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E1314" s="0" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F1314" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1314" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1314" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1315" s="0" t="s">
+        <v>5939</v>
+      </c>
+      <c r="B1315" s="0" t="s">
+        <v>5940</v>
+      </c>
+      <c r="C1315" s="0" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D1315" s="0" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E1315" s="0" t="s">
+        <v>5943</v>
+      </c>
+      <c r="F1315" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1315" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1315" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1316" s="0" t="s">
+        <v>5944</v>
+      </c>
+      <c r="B1316" s="0" t="s">
+        <v>5945</v>
+      </c>
+      <c r="C1316" s="0" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D1316" s="0" t="s">
+        <v>5947</v>
+      </c>
+      <c r="E1316" s="0" t="s">
+        <v>5948</v>
+      </c>
+      <c r="F1316" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1316" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1316" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1317" s="0" t="s">
+        <v>5949</v>
+      </c>
+      <c r="B1317" s="0" t="s">
+        <v>5917</v>
+      </c>
+      <c r="C1317" s="0" t="s">
+        <v>5950</v>
+      </c>
+      <c r="D1317" s="0" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E1317" s="0" t="s">
+        <v>5951</v>
+      </c>
+      <c r="F1317" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1317" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1317" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1318" s="0" t="s">
+        <v>5952</v>
+      </c>
+      <c r="B1318" s="0" t="s">
+        <v>5953</v>
+      </c>
+      <c r="C1318" s="0" t="s">
+        <v>5954</v>
+      </c>
+      <c r="D1318" s="0" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E1318" s="0" t="s">
+        <v>5956</v>
+      </c>
+      <c r="F1318" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1318" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1318" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1319" s="0" t="s">
+        <v>5957</v>
+      </c>
+      <c r="B1319" s="0" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1319" s="0" t="s">
+        <v>5958</v>
+      </c>
+      <c r="D1319" s="0" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E1319" s="0" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F1319" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1319" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1319" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1320" s="0" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B1320" s="0" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C1320" s="0" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D1320" s="0" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E1320" s="0" t="s">
+        <v>2564</v>
+      </c>
+      <c r="F1320" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1320" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1320" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1321" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1321" s="8" t="s">
+        <v>5961</v>
+      </c>
+      <c r="B1321" s="9" t="s">
+        <v>5962</v>
+      </c>
+      <c r="C1321" s="9" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D1321" s="9" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E1321" s="9" t="s">
+        <v>5965</v>
+      </c>
+      <c r="F1321" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1321" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1321" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1322" s="0" t="s">
+        <v>5966</v>
+      </c>
+      <c r="B1322" s="0" t="s">
+        <v>5967</v>
+      </c>
+      <c r="C1322" s="0" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D1322" s="0" t="s">
+        <v>5969</v>
+      </c>
+      <c r="E1322" s="0" t="s">
+        <v>5970</v>
+      </c>
+      <c r="F1322" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1322" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1322" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1323" s="0" t="s">
+        <v>5971</v>
+      </c>
+      <c r="B1323" s="0" t="s">
+        <v>5972</v>
+      </c>
+      <c r="C1323" s="0" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D1323" s="0" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E1323" s="0" t="s">
+        <v>5975</v>
+      </c>
+      <c r="F1323" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1323" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1323" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1324" customFormat="false" ht="135.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1324" s="8" t="s">
+        <v>5976</v>
+      </c>
+      <c r="B1324" s="9" t="s">
+        <v>5977</v>
+      </c>
+      <c r="C1324" s="9" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D1324" s="9" t="s">
+        <v>5979</v>
+      </c>
+      <c r="E1324" s="9" t="s">
+        <v>5980</v>
+      </c>
+      <c r="F1324" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1324" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1324" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1325" s="0" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B1325" s="0" t="s">
+        <v>5982</v>
+      </c>
+      <c r="C1325" s="0" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D1325" s="0" t="s">
+        <v>5984</v>
+      </c>
+      <c r="E1325" s="0" t="s">
+        <v>5985</v>
+      </c>
+      <c r="F1325" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1325" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1325" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1326" s="0" t="s">
+        <v>5986</v>
+      </c>
+      <c r="B1326" s="0" t="s">
+        <v>5987</v>
+      </c>
+      <c r="C1326" s="0" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D1326" s="0" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E1326" s="0" t="s">
+        <v>5990</v>
+      </c>
+      <c r="F1326" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1326" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1326" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1327" s="0" t="s">
+        <v>5991</v>
+      </c>
+      <c r="B1327" s="0" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C1327" s="0" t="s">
+        <v>5992</v>
+      </c>
+      <c r="D1327" s="0" t="s">
+        <v>2588</v>
+      </c>
+      <c r="E1327" s="0" t="s">
+        <v>2589</v>
+      </c>
+      <c r="F1327" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1327" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1327" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1328" s="0" t="s">
+        <v>5993</v>
+      </c>
+      <c r="B1328" s="0" t="s">
+        <v>5994</v>
+      </c>
+      <c r="C1328" s="0" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D1328" s="0" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E1328" s="0" t="s">
+        <v>5997</v>
+      </c>
+      <c r="F1328" s="0" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1328" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1328" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1329" customFormat="false" ht="101.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1329" s="8" t="s">
+        <v>5998</v>
+      </c>
+      <c r="B1329" s="9" t="s">
+        <v>5999</v>
+      </c>
+      <c r="C1329" s="9" t="s">
+        <v>6000</v>
+      </c>
+      <c r="D1329" s="9" t="s">
+        <v>6001</v>
+      </c>
+      <c r="E1329" s="9" t="s">
+        <v>6002</v>
+      </c>
+      <c r="F1329" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1329" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1329" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1330" customFormat="false" ht="119.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1330" s="8" t="s">
+        <v>6003</v>
+      </c>
+      <c r="B1330" s="9" t="s">
+        <v>6004</v>
+      </c>
+      <c r="C1330" s="9" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D1330" s="9" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E1330" s="9" t="s">
+        <v>6007</v>
+      </c>
+      <c r="F1330" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1330" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1330" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1331" s="0" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B1331" s="0" t="s">
+        <v>6009</v>
+      </c>
+      <c r="C1331" s="0" t="s">
+        <v>6010</v>
+      </c>
+      <c r="D1331" s="0" t="s">
+        <v>6011</v>
+      </c>
+      <c r="E1331" s="0" t="s">
+        <v>6012</v>
+      </c>
+      <c r="F1331" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1331" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1331" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1332" s="0" t="s">
+        <v>6013</v>
+      </c>
+      <c r="B1332" s="0" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C1332" s="0" t="s">
+        <v>6014</v>
+      </c>
+      <c r="D1332" s="0" t="s">
+        <v>6015</v>
+      </c>
+      <c r="E1332" s="0" t="s">
+        <v>6016</v>
+      </c>
+      <c r="F1332" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1332" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1332" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1333" s="0" t="s">
+        <v>6017</v>
+      </c>
+      <c r="B1333" s="0" t="s">
+        <v>5268</v>
+      </c>
+      <c r="C1333" s="0" t="s">
+        <v>6018</v>
+      </c>
+      <c r="D1333" s="0" t="s">
+        <v>6019</v>
+      </c>
+      <c r="E1333" s="0" t="s">
+        <v>6020</v>
+      </c>
+      <c r="F1333" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1333" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1333" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1334" s="0" t="s">
+        <v>6021</v>
+      </c>
+      <c r="B1334" s="0" t="s">
+        <v>6022</v>
+      </c>
+      <c r="C1334" s="7" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D1334" s="9" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E1334" s="9" t="s">
+        <v>6025</v>
+      </c>
+      <c r="F1334" s="7" t="s">
+        <v>3790</v>
+      </c>
+      <c r="G1334" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1334" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1335" s="0" t="s">
+        <v>6026</v>
+      </c>
+      <c r="B1335" s="0" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C1335" s="0" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D1335" s="0" t="s">
+        <v>2350</v>
+      </c>
+      <c r="E1335" s="0" t="s">
+        <v>4703</v>
+      </c>
+      <c r="F1335" s="0" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1335" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1335" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1336" s="0" t="s">
+        <v>6027</v>
+      </c>
+      <c r="B1336" s="0" t="s">
+        <v>6028</v>
+      </c>
+      <c r="C1336" s="0" t="s">
+        <v>6029</v>
+      </c>
+      <c r="D1336" s="0" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E1336" s="0" t="s">
+        <v>6030</v>
+      </c>
+      <c r="F1336" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1336" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1336" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1337" s="0" t="s">
+        <v>6031</v>
+      </c>
+      <c r="B1337" s="0" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C1337" s="0" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D1337" s="0" t="s">
+        <v>6032</v>
+      </c>
+      <c r="E1337" s="0" t="s">
+        <v>6033</v>
+      </c>
+      <c r="F1337" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1337" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1337" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1338" s="0" t="s">
+        <v>6034</v>
+      </c>
+      <c r="B1338" s="0" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C1338" s="0" t="s">
+        <v>6035</v>
+      </c>
+      <c r="D1338" s="0" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E1338" s="0" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F1338" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1338" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1338" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1339" s="0" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B1339" s="0" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C1339" s="0" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D1339" s="0" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E1339" s="0" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F1339" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1339" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1339" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1340" s="0" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B1340" s="0" t="s">
+        <v>6036</v>
+      </c>
+      <c r="C1340" s="0" t="s">
+        <v>6037</v>
+      </c>
+      <c r="D1340" s="0" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E1340" s="0" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F1340" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1340" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1340" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1341" s="0" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B1341" s="0" t="s">
+        <v>6038</v>
+      </c>
+      <c r="C1341" s="0" t="s">
+        <v>6039</v>
+      </c>
+      <c r="D1341" s="0" t="s">
+        <v>6040</v>
+      </c>
+      <c r="E1341" s="0" t="s">
+        <v>6041</v>
+      </c>
+      <c r="F1341" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1341" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1341" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1342" s="0" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B1342" s="0" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C1342" s="0" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D1342" s="0" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E1342" s="0" t="s">
+        <v>6044</v>
+      </c>
+      <c r="F1342" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1342" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1342" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1343" s="0" t="s">
+        <v>6045</v>
+      </c>
+      <c r="B1343" s="0" t="s">
+        <v>6046</v>
+      </c>
+      <c r="C1343" s="0" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D1343" s="0" t="s">
+        <v>6048</v>
+      </c>
+      <c r="E1343" s="0" t="s">
+        <v>6049</v>
+      </c>
+      <c r="F1343" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1343" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1343" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1344" s="0" t="s">
+        <v>6050</v>
+      </c>
+      <c r="B1344" s="0" t="s">
+        <v>6051</v>
+      </c>
+      <c r="C1344" s="0" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D1344" s="0" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E1344" s="0" t="s">
+        <v>6054</v>
+      </c>
+      <c r="F1344" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1344" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1344" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1345" s="0" t="s">
+        <v>6055</v>
+      </c>
+      <c r="B1345" s="0" t="s">
+        <v>6056</v>
+      </c>
+      <c r="C1345" s="0" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D1345" s="0" t="s">
+        <v>6058</v>
+      </c>
+      <c r="E1345" s="0" t="s">
+        <v>6059</v>
+      </c>
+      <c r="F1345" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1345" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1345" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1346" s="0" t="s">
+        <v>6060</v>
+      </c>
+      <c r="B1346" s="0" t="s">
+        <v>6061</v>
+      </c>
+      <c r="C1346" s="0" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D1346" s="0" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E1346" s="0" t="s">
+        <v>6064</v>
+      </c>
+      <c r="F1346" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1346" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1346" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1347" s="0" t="s">
+        <v>6065</v>
+      </c>
+      <c r="B1347" s="0" t="s">
+        <v>6066</v>
+      </c>
+      <c r="C1347" s="0" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D1347" s="0" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E1347" s="0" t="s">
+        <v>6069</v>
+      </c>
+      <c r="F1347" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1347" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1347" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1348" s="0" t="s">
+        <v>6070</v>
+      </c>
+      <c r="B1348" s="0" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C1348" s="0" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D1348" s="7" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E1348" s="9" t="s">
+        <v>6071</v>
+      </c>
+      <c r="F1348" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1348" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1348" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1349" s="0" t="s">
+        <v>6072</v>
+      </c>
+      <c r="B1349" s="0" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C1349" s="0" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D1349" s="0" t="s">
+        <v>6074</v>
+      </c>
+      <c r="E1349" s="0" t="s">
+        <v>6075</v>
+      </c>
+      <c r="F1349" s="7" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G1349" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1349" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1350" customFormat="false" ht="79.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1350" s="8" t="s">
+        <v>6076</v>
+      </c>
+      <c r="B1350" s="9" t="s">
+        <v>6077</v>
+      </c>
+      <c r="C1350" s="9" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D1350" s="9" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E1350" s="9" t="s">
+        <v>6080</v>
+      </c>
+      <c r="F1350" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1350" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1350" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1351" s="0" t="s">
+        <v>6081</v>
+      </c>
+      <c r="B1351" s="0" t="s">
+        <v>6082</v>
+      </c>
+      <c r="C1351" s="0" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D1351" s="0" t="s">
+        <v>6084</v>
+      </c>
+      <c r="E1351" s="0" t="s">
+        <v>6085</v>
+      </c>
+      <c r="F1351" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1351" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1351" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1352" s="0" t="s">
+        <v>6086</v>
+      </c>
+      <c r="B1352" s="0" t="s">
+        <v>6087</v>
+      </c>
+      <c r="C1352" s="0" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D1352" s="0" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E1352" s="0" t="s">
+        <v>6090</v>
+      </c>
+      <c r="F1352" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1352" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1352" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1353" s="0" t="s">
+        <v>6091</v>
+      </c>
+      <c r="B1353" s="0" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C1353" s="0" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D1353" s="0" t="s">
+        <v>6094</v>
+      </c>
+      <c r="E1353" s="0" t="s">
+        <v>4261</v>
+      </c>
+      <c r="F1353" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1353" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1353" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="0" t="s">
+        <v>6095</v>
+      </c>
+      <c r="B1354" s="0" t="s">
+        <v>6096</v>
+      </c>
+      <c r="C1354" s="0" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D1354" s="0" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E1354" s="0" t="s">
+        <v>6098</v>
+      </c>
+      <c r="F1354" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1354" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1354" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="0" t="s">
+        <v>6099</v>
+      </c>
+      <c r="B1355" s="0" t="s">
+        <v>6100</v>
+      </c>
+      <c r="C1355" s="0" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D1355" s="0" t="s">
+        <v>6102</v>
+      </c>
+      <c r="E1355" s="0" t="s">
+        <v>6103</v>
+      </c>
+      <c r="F1355" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1355" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1355" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1356" s="0" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B1356" s="0" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C1356" s="0" t="s">
+        <v>6105</v>
+      </c>
+      <c r="D1356" s="0" t="s">
+        <v>6106</v>
+      </c>
+      <c r="E1356" s="0" t="s">
+        <v>6107</v>
+      </c>
+      <c r="F1356" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1356" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1356" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="0" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B1357" s="0" t="s">
+        <v>6109</v>
+      </c>
+      <c r="C1357" s="0" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D1357" s="0" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E1357" s="0" t="s">
+        <v>6112</v>
+      </c>
+      <c r="F1357" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1357" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1357" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="0" t="s">
+        <v>6113</v>
+      </c>
+      <c r="B1358" s="0" t="s">
+        <v>6114</v>
+      </c>
+      <c r="C1358" s="0" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D1358" s="0" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E1358" s="0" t="s">
+        <v>6117</v>
+      </c>
+      <c r="F1358" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1358" s="7" t="s">
+        <v>5389</v>
+      </c>
+      <c r="H1358" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9436" uniqueCount="6118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9835" uniqueCount="6399">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -20899,6 +20899,853 @@
   <si>
     <t xml:space="preserve">سوزاندن</t>
   </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫میاستنی‬ ‫گراویس‪،‬‬ ‫اختلال‬ ‫در‬ ‫‪....‬‬ ‫وجود‬ ‫دارد‬ ‫و‬ ‫عضلات‬ ‫‪.....‬‬ ‫تحت‬ ‫تاثیر‬ ‫قرار‬ ‫می‬ ‫گیرند‬‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غالف‬ ‫میلین‬ ‫‪-‬‬‫اسکلتی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گیرنده‬‫ های‬ ‫موسکارینی‬ ‫استیل‬ ‫کولین‬ ‫‪-‬‬‫صاف‬ ‫احشایی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گیرنده‬‫ های‬ ‫نیکوتینی‬ ‫استیل‬ ‫کولین‬ ‫‪-‬‬‫اسکلتی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غلاف‬‫ میلین‬ ‫‪-‬‬‫صاف‬ ‫احشایی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فیزیولوژی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پزشکی شهریور 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬‫ گزینه‬ ‫در‬ ‫مورد‬ ‫تفاوت‬ ‫فیبرهای‬ ‫عضلانی‬ ‫سریع‬ ‫و‬ ‫آهسته‬ ‫صحیح‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فیبرهای‬ ‫آهسته‬ ‫مقادیر‬ ‫زیادتری‬ ‫آنزیم‬ ‫گلیکولیتیک‬ ‫دارند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فیبرهای‬‫ سریع‬ ‫شبکه‬ ‫عروقی‬ ‫وسیع‬ ‫تری‬ ‫دارند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فیبرهای‬‫ سریع‬ ‫به‬ ‫وسیله‬ ‫فیبرهای‬ ‫عصبی‬ ‫با‬ ‫قطر‬ ‫کمتر‬ ‫عصب‬ ‫دهی‬ ‫می‬ ‫شوند‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فیبرهای‬‫ سریع‬ ‫دارای‬ ‫شبکه‬ ‫سارکوپلاسمیک‬ ‫گسترده‬ ‫تر‬ ‫هستند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫نورونی‬ ‫که‬ ‫پتانسیل‬ ‫تعادلی‬ ‫نرنست‬ ‫پتاسیم‬ ‫و‬ ‫پتانسیل‬ ‫استراحت‬ ‫غشا‪،‬‬ ‫هر دو‬ شصت و پنج ‬‬‫میلی‬ ‫ولت‬ ‫است‪،‬‬ ‫بازشدن‬ ‫کانال های‬ ‫پتاسیمی ‬‫موجب‬ ‫بروز‬ ‫کدام‬ ‫مورد‬ ‫زیر‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پتانسیل‬ ‫عمل‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیپرپلاریزاسیون ‬‫غشا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دپولاریزاسیون ‬‫غشا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عدم‬‫ تغییر‬ ‫پتانسیل‬ ‫غشا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫باز‬‫شدن‬ ‫دریچه‬ ‫میترال‬ ‫با‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫همزمان‬ ‫نمی‬ ‫باشد‬؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫موج‬ ‫‪P‬‬ ‫نوار‬ ‫قلب‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫موج‬‫‪v‬‬ ‫فشار‬ ‫دهلیزی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دندانه‬‫ موج‬ ‫آئورت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫صدای‬‫ دوم‬ ‫قلبی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫طولانی‬‫ ترین‬ ‫زمان‬ ‫در‬ ‫فرد‬ ‫سالم‬ ‫با‬ ‫ضربان‬ ‫قلب‬ ‫‪هفتاد‬‬ ‫ضربان‬ ‫در‬ ‫دقیقه‪،‬‬ ‫کدامیک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فاصله‬ ‫‪P-R‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫زمان‬‫ کمپلکس‬ ‫‪QRS‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫زمان‬‫ موج‬ ‫‪T‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫زمان‬‫ فاصله‬ ‫‪Q-T‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فشار‬‫فضای‬ ‫جنب‬ ‫در‬ ‫کدام‬ ‫مرحله‬ ‫به‬ ‫صفر‬ ‫نزدیک‬ ‫تر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫انتهای‬ ‫دم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اواسط‬‫ دم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫انتهای‬‫ بازدم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اواسط‬‫ بازدم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فشار‬‫کدام‬ ‫یک‬ ‫از‬ ‫گازهای‬ ‫زیر‬ ‫در‬ ‫هوای‬ ‫بازدمی‬ ‫برابر‬ ‫هوای‬ ‫حبابچه‬ ‫ای‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کربن دی اکسید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نیتروژن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬‫ از‬ ‫موارد‬ ‫زیر‬ ‫مهم‬ ‫ترین‬ ‫نقش‬ ‫را‬ ‫برای‬ ‫جبران‬ ‫کاهش‬ ‫فشار‬ ‫خون‪،‬‬ ‫‪20‬‬ ‫دقیقه‬ ‫بعد‬ ‫از‬ ‫خونریزی‬ ‫دارد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تحریک‬ ‫سیستم‬ ‫بارورسپتوری‬ ‫شریانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تنگ‬‫ کننده‬ ‫رگی‬ ‫وازوپرسین‬ ‫(‬‫‪AVP‬‬‫)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تنگ‬‫ کننده‬ ‫رگی‬ ‫آنژیوتانسین‬ ‫‪II‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫احتباس‬‫ کلیوی‬ ‫آب‬ ‫و‬ ‫سدیم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬ ‫‪2‬‬ ‫برابری‬ ‫قطر‬ ‫رگ‬ ‫و‬ ‫افزایش‬ ‫‪2‬‬ ‫برابری‬ ‫طول‬ ‫رگ‪،‬‬ ‫میزان‬ ‫جریان‬ ‫خون‬ ‫را‬ ‫‪....‬‬ ‫می‬ ‫دهد‬‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هشت‬ ‫برابر‬ ‫افزایش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سی‬‫ و‬ ‫دو‬ ‫برابر‬ ‫افزایش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هشت‬‫ برابرکاهش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سی‬‫ و‬ ‫دو‬ ‫برابرکاهش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تحریک‬ ‫سمپاتیک‬ ‫آرتریول‬ ‫سبب‬ ‫‪......‬‬ ‫مقاومت‬ ‫و‬ ‫‪..... ‫جریان‬ ‫خون‬ ‫بافت‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاهش‫‪-‬‬‫افزایش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاهش‬‫‪-‬‬‫کاهش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫‪-‬‬‫کاهش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫‪-‬‬‫افزایش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫یک‬ ‫بیمار‬ ‫مبتلا ‫به‬ ‫کم‬ ‫خونی‪،‬‬ ‫کدام یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫صحیح‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مقاومت‬ ‫جریان‬ ‫خون‬ ‫افزایش‬ ‫می‬ ‫یابد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫میزان‬‫ جریان‬ ‫خون‬ ‫بافتی‬ ‫افزایش‬ ‫می‬ ‫یابد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫احتمال‬‫ جریان‬ ‫گردابی‬ ‫کمتر‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ویسکوزیته‬‫ تغییری‬ ‫نمی‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫به‬ ‫نظر‬ ‫شما‬ ‫از‬ ‫دست‬ ‫دادن‬ ‫‪100‬‬ ‫میلی‬ ‫لیتر‬ ‫خون‬ ‫از‬ ‫کدامیک‬ ‫از‬ ‫سیستم‬ ‫های‬ ‫شریانی‬ ‫یا‬ ‫وریدی‬ ‫سبب‬ ‫کاهش‬ ‫بیشتری‬ ‫در‬ ‫فشار‬ ‫خون‬‫ می‬ ‫شود؟‬ ‫چرا؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫وریدی‬ ‫‪-‬‬‫کمپلیانس‬ ‫وریدی‬ ‫زیادتر‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریانی‬‫‪-‬‬‫حجم‬ ‫خون‬ ‫شریانی‬ ‫کم‬ ‫تر‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫وریدی‬‫‪-‬‬‫حجم‬ ‫خون‬ ‫وریدی‬ ‫زیادتر‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریانی‬‫‪-‬‬‫کمپلیانس‬ ‫شریانی‬ ‫کم‬ ‫تر‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫به‬ ‫دنبال‬ ‫تغییر‬ ‫پوزیشن‬ ‫از‬ ‫وضعیت‬ ‫خوابیده‬ ‫به‬ ‫ایستاده‪،‬‬ ‫تحریک‬ ‫بارورسپتورهای‬ ‫کاروتید‬ ‫و‬ ‫ضربان‬ ‫قلب‬ ‫به‬ ‫ترتیب‬ ‫چه‬ ‫تغییری‬ ‫می‬‫کند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاهش‬ ‫‪-‬‬‫افزایش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاهش‬‫‪-‬‬ ‫کاهش‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بدنبال‬ ‫قطع‬ ‫اعصاب‬ ‫اتونوم‪،‬‬ ‫اثر‬ ‫رفلکس‪............‬‬ ‫بر‬ ‫حرکات‬ ‫توده‬ ‫ای‬ ‫روده‬ ‫بزرگ‬ ‫تضعیف‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫معده‬ ‫ای‬ ‫‪-‬‬‫روده‬ ‫ای‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫معده‬‫ ای‬ ‫‪-‬‬‫کولونی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫روده‬‫ ای‬ ‫‪-‬‬‫معده‬ ‫ای‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫موضعی‬‫ روده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫موارد‬ ‫زیر‬ ‫جز‬ ‫عوامل‬ ‫اصلی‬ ‫تحریک‬ ‫کننده‬ ‫ترشحات‬ ‫معده‬ ‫می‬ ‫باش‬‫ند‬‫ بجز‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیستامین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استیل‬‫ کولین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بومبزین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گاسترین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اولین‬ ‫مرحله‬ ‫هضم‬ ‫چربی‬ ‫ها‬ ‫در‬ ‫کدام‬ ‫قسمت‬ ‫دستگاه‬ ‫گوارش‬ ‫صورت‬ ‫می‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دهان‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫معده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دوازدهه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ژژنوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫جملات‬ ‫صحیح‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کورتیزول‬ ‫مصرف‬ ‫سلولی‬ ‫گلوکز‬ ‫را‬ ‫افزایش‬ ‫می‬ ‫دهد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کورتیزول‬‫ سبب‬ ‫کاهش‬ ‫انتقال‬ ‫اسیدهای‬ ‫آمینه‬ ‫به‬ ‫درون‬ ‫سلول های‬ ‫کبدی‬ ‫می‬ ‫شود‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کورتیزول‬‫ سبب‬ ‫افزایش‬ ‫آزاد‬ ‫شدن‬ ‫اینترلوکین‬ ‫‪-‬‬‫‪۱‬‬‫و‬ ‫کاهش‬ ‫تب‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کورتیزول‬‫ پروتئین های‬ ‫پلاسما‬ ‫را‬ ‫افزایش‬ ‫می‬ ‫دهد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬‫ گزینه‬ ‫در‬ ‫مورد‬ ‫‪PTH‬‬ ‫و‬ ‫عملکرد‬ ‫آن‬ ‫صحیح‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫توسط‬ ‫سلول‬ ‫های ‬‫اکسی‬ ‫فیل‬‫ غده‬ ‫تیروئید‬ ‫ترشح‬ ‫می‬ ‫شود‬‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اثر‬‫ آن‬ ‫بر‬ ‫استخوان‪،‬‬ ‫مشابه‬ ‫اثر‬ ‫کلسی‬ ‫تونین‬‫ است‬‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫برای‬‫ فعال‬ ‫شدن‬ ‫ویتامین‬ ‫دی‬ ‫(‬‫‬‬‫‪Vit D‬‬‫)‬‫ضرروی‬ ‫است‬ ‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عملکرد ‬‫آن‬ ‫در‬ ‫فرد‬ ‫بالغ‪،‬‬ ‫اهمیت‬ ‫کمتری‬ ‫از‬ ‫کلسی‬ ‫تونین‬‫ دارد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خانمی‬ ‫‪۵۵‬‬ ‫ساله‬ ‫با‬ ‫شکایت‬ ‫از‬ ‫افزایش‬ ‫وزن‬ ‫پیش‬ ‫رونده‬ ‫در‬ ‫سال‬ ‫گذشته‪،‬‬ ‫خستگی‪،‬‬ ‫از‬ ‫دست‬ ‫دادن‬ ‫حافظه‪،‬‬ ‫خشکی‬ ‫پوست‬ ‫و‬ ‫عدم‬ ‫تحمل‬‫ سرما‬ ‫به‬ ‫کلینیک‬ ‫مراجعه‬ ‫می‬ ‫کند‪.‬‬‫در‬ ‫معاینه‬ ‫فیزیکی‬ ‫عالئم‬ ‫حیاتی‬ ‫بیمار‬ ‫نرمال‬ ‫و‬ ‫در‬ ‫صورت‬ ‫بیمار‪،‬‬ ‫ادم‬ ‫و‬ ‫اضافه‬ ‫وزن‬ ‫جزئی‬ ‫مشهود ‬‫است‪.‬‬ ‫بیمار‬ ‫به‬ ‫آرامی‬ ‫صحبت‬ ‫می‬ ‫کند‬‫‪.‬‬ ‫رفلکس‬ ‫های‬ ‫تاندون‬ ‫عمقی‬ ‫بیمار‬ ‫کاهش‬ ‫یافته‬ ‫است‪.‬‬ ‫چه‬ ‫اختلال‬ ‫تیروئیدی‬ ‫در‬ ‫این‬ ‫فرد ‬‫می‬ ‫تواند‬ ‫وجود‬ ‫داشته‬ ‫باشد‬ ‫و‬ ‫کدام‬ ‫یک‬ ‫در‬ ‫این‬ ‫بیمار‬ ‫قابل‬ ‫انتظار‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیپرتیروئیدی‬ ‫–‬ ‫سطح‬ ‫‪TSH‬‬ ‫پایین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیپوتیروئیدی‬‫–‬ ‫سطح‬ ‫کلسترول‬ ‫بالای‬ ‫پلاسما‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیپرتیروئیدی‬‫–‬ ‫فشار‬ ‫خون‬ ‫سیستولیک‬ ‫بالا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیپوتیروئیدی‬‫–‬ ‫فشار‬ ‫خون‬ ‫سیستولیک‬ ‫بالا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫هورمون‬ ‫ها‬ ‫نیمه‬ ‫عمر‬ ‫بالاتری‬ ‫دارند‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیروکسین‪،‬‬ ‫کورتیزول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪IGF-I‬‬‫‪ ‬‬‫ ,هورمون‬ ‫رشد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کورتیزول , ‫‪ACTH‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیروکسین‬ , ‫‪‫‪TSH‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫انسولین‬ ‫موجب‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫اعمال‬ ‫زیر‬ ‫در‬ ‫کبد‬ ‫می‬ ‫شود‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تحریک‬ ‫تبدیل‬ ‫اسیدهای‬ ‫آمینه‬ ‫به‬ ‫گلوکز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫ فعالیت‬ ‫آنزیم‬ ‫فسفریلاز‬ ‫کبدی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مهار‬‫آنزیم‬ ‫گلوکوکیناز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فعال‬‫ کردن‬ ‫آنزیم‬ ‫گلیکوژن‬ ‫سنتاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هورمون‬ ‫رشد‬ ‫در‬ ‫فرد‬ ‫بالغ‬ ‫تمام‬ ‫کارهای‬ ‫زیر‬ ‫را‬ ‫انجام‬ ‫می‬ ‫دهد‬ ‫به‬‫ جز‬‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬ ‫ورود‬ ‫اسیدهای‬ ‫آمینه‬ ‫به‬ ‫داخل‬ ‫سلول‬ ‫های‬ ‫عضلانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاهش‬‫ مصرف‬ ‫گلوکز‬ ‫در‬ ‫سلول‬ ‫ها‬ ‫برای‬ ‫تامین‬ ‫انرژی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫ ساخت‬ ‫پروتئین‬ ‫در‬ ‫سلول‬ ‫های‬ ‫عضلانی‬ ‫و‬ ‫استخوان‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫ تعداد‬ ‫سلول‬ ‫های‬ ‫عضلانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اگر‬ ‫غلظت‬ ‫بیکربنات‬ ‫و‬ ‫فشار‬ ‫دی‬ ‫اکسید‬ ‫کربن‬ ‫در‬ ‫خون‬ ‫شریانی‬ ‫بیشتر‬ ‫از‬ ‫مقادیر‬ ‫طبیعی‬ ‫باشد‪،‬‬ ‫فرد‬ ‫می‬ ‫تواند‬ ‫به‬ ‫کدام یک‬ ‫از‬ ‫اختلالات ‬‫زیر‬ ‫مبتلا‬ ‫شده‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسیدوز‬ ‫متابولیک‬ ‫حاد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسیدوز‬‫ تنفسی‬ ‫جبران‬ ‫شده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسیدوز‬‫ متابولیک‬ ‫جبران‬ ‫شده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلکالوز‬‫ تنفسی‬ ‫جبران‬ ‫شده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬ ‫کسر‬ ‫فیلتراسیون‬ (filtration fraction) ‫گلومرولی‪،‬‬ ‫سبب‬ ‫چه‬ ‫تغییری‬ ‫در‬ ‫میزان‬ ‫فیلتراسیون‬ ‫گلومرولی‬ (GFR) ‫کلیه ‬‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫میزان‬ ‫فیلتراسیون‬ ‫گلومرولی‬ ‫را‬ ‫افزایش‬ ‫می‬ ‫دهد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تاثیر‬‫چندانی‬ ‫بر‬ ‫تنظیم‬ ‫میزان‬ ‫فیلتراسیون‬ ‫گلومرولی‬ ‫ندارد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫شرایط‬ ‫مختلف‪،‬‬ ‫میزان‬ ‫فیلتراسیون‬ ‫گلومرولی‬ ‫در‬ ‫فرد‬ ‫سالم‬ ‫تغییر‬ ‫نمی‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫میزان‬‫ فیلتراسیون‬ ‫گلومرولی‬ ‫را‬ ‫کاهش‬ ‫می‬ ‫دهد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫مورد‬ ‫اثر‬ ‫آنژیوتانسین‬ ‫دو‬ (‪(Angiotensin II‬‬ ‫بر‬ ‫سیستم‬ ‫توبولی‬ ‫کلیه‬ ‫انسان‪،‬‬ ‫عبارت‬ ‫صحیح‬ ‫را‬ ‫انتخاب‬ ‫کنید‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آنژیوتانسین‬ ‫دو‬ ‫با‬ ‫اثر‬ ‫بر‬ ‫توبول‬ ‫های‬ ‫کلیوی‪،‬‬ ‫باعث‬ ‫افزایش‬ ‫بازجذب‬ ‫سدیم‬ ‫و‬ ‫ترشح‬ ‫اسید‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آنژیوتانسین‬‫ دو‬ ‫عمدتا‬ ‫با‬ ‫اثر‬ ‫بر‬ ‫سلول‬ ‫های‬ ‫ابتدای‬ ‫لوله‬ ‫دیستال‪،‬‬ ‫بازجذب‬ ‫پتاسیم‬ ‫را‬ ‫زیاد‬ ‫می‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شاخه‬‫ نازک‬ ‫نزولی‬ ‫قوس‬ ‫هنله‬ ‫تحت‬ ‫تاثیر‬ ‫آنژیوتانسین‬ ‫دو‬ ‫بازجذب‬ ‫آب‬ ‫را‬ ‫افزایش‬ ‫می‬ ‫دهد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آنژیوتانسین‬‫ دو‬ ‫با‬ ‫افزایش‬ ‫جریان‬ ‫خون‬ ‫مدوالی‬ ‫کلیه‪،‬‬ ‫سبب‬ ‫تحریک‬ ‫بازجذب‬ ‫نمک‬ ‫و‬ ‫آب‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫عامل‬ ‫زیر‬ ‫در‬ ‫جلوگیری‬ ‫از‬ ‫انعقاد‬ ‫خون‬ ‫در‬ ‫عروق‬ ‫طبیعی‬ ‫نقش‬ ‫ندارد‬‫؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فاکتورهای‬ ‫سطح‬ ‫اندوتلیال‬ ‫عروق‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ترومبومودولین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آنتی‬‫ ترومبین‬ ‫‪III‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پلاسمینوژن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آسیب‬ ‫ناحیه ...‬ ‫‪ ‫باعث‬ ‫آپراکسی‬ ‫حرکتی‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بروکا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ورنیکه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حرکات‬‫ ماهرانه‬ ‫دست‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شکنج‬‫ زاویه‬ ‫ای‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کمبود‬ ‫کدام‬ ‫اسید‬ ‫آمینه‪،‬‬ ‫می‬ ‫تواند‬ ‫سبب‬ ‫اختلال‬ ‫خواب‬ ‫گردد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تریپتوفان‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لوسین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلانین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیروزین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دانشجویی‬ ‫با‬ ‫اینکه‬ ‫سر‬ ‫کلاس‬ ‫نشسته‬ ‫است‬ ‫و‬ ‫به‬ ‫استاد‬ ‫نگاه‬ ‫می‬ ‫کند‬ ‫ولی‬ ‫به فکر‬ ‫برنامه‬ ‫ریزی‬ ‫برای‬ ‫قبول‬ ‫شدن‬ ‫در‬ ‫آزمون‬ ‫المپیاد‬ ‫است‪.‬‬‫در‬ ‫این‬ ‫حالت‬ ‫امواج‬ ‫مغزی‬ ‫فرد‬ ‫از‬ ‫نوع‬ ‫‪...‬‬ ‫خواهد‬ ‫بود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلفا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بتا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گاما‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دلتا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پتانسیل‬ ‫گیرنده‬ ‫در‬ ‫سیستم‬ ‫شنوایی‬ ‫از‬ ‫نوع‬ ‫‪....‬‬ ‫است‬ ‫و‬ ‫به‬ ‫دلیل‬ ‫‪....‬‬ ‫ایجاد‬ ‫می‬ ‫گردد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دپولاریزه‬ ‫‪-‬‬ ‫کاهش‬ ‫خروج‬ ‫پتاسیم‬ ‫از‬ ‫سلول‬ ‫مویی‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیپرپولاریزه‬‫‪-‬‬ ‫کاهش‬ ‫ورود‬ ‫سدیم‬ ‫به‬ ‫داخل‬ ‫سلول‬ ‫مویی‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیپرپلاریزه‬‫‪-‬‬ ‫افزایش‬ ‫خروج‬ ‫سدیم‬ ‫از‬ ‫سلول‬ ‫مویی‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دپولاریزه‬‫‪-‬‬ ‫افزایش‬ ‫ورود‬ ‫پتاسیم‬ ‫به‬ ‫داخل‬ ‫سلول‬ ‫مویی‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫از‬ ‫گیرنده‬ ‫های‬ ‫زیر‬ ‫به‬ ‫ترتیب‬ ‫مسئول‬ ‫حس‬ ‫ارتعاش‬ ‫با‬ ‫فرکانس های‬ ‫پایین‬ ‫و‬ ‫بالا‬ ‫می‬ ‫باشند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پایانه‬ ‫های‬ ‫رافینی‬ ‫‪-‬‬‫اجسام‬ ‫مایسنر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اجسام‬‫ مایسنر‬ ‫‪-‬‬ ‫اجسام‬ ‫پاچینی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اجسام‬‫ پاچینی‬ ‫‪-‬‬‫اجسام‬ ‫مایسنر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دیسکهای‬‫ مرکل‬ ‫–‬ ‫اجسام‬ ‫پاچینی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫مورد‬ ‫پتانسیل‬ ‫پس‬ ‫سیناپسی‬ ‫تحریکی‬ ‫(‫‪EPSP‬‬‫)‬‫ کدام‬ ‫درست‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫طی‬ ‫گسترش‬ ‫در‬ ‫غشا ‫سلول‬ ‫تضعیف‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فقط‬‫ در‬ ‫روی‬ ‫دندریتها‬ ‫به وجود‬ ‫می‬ ‫آید‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫گره‬ ‫های‬ ‫رانویه‬ ‫هم‬ ‫دیده‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قابلیت‬‫ جمع‬ ‫پذیری‬ ‫(‬‫‪Summation‬‬‫) ‬‫ندارد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫مورد‬ ‫یک‬ ‫قطعه‬ ‫نخاعی‬ ‫کدام‬ ‫گزینه‬ ‫درست‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تعداد‬ ‫نورون های‬ ‫واسطه‬ ‫ای‬ ‫کمتر‬ ‫از‬ ‫نورون های‬ ‫حرکتی‬ ‫قدامی‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نورونهای‬‫ حرکتی‬ ‫گاما‬ ‫کوچکتر‪،‬‬ ‫اما‬ ‫بیشتر‬ ‫از‬ ‫نورونهای‬ ‫حرکتی‬ ‫آلفا‬ ‫هستند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تعداد‬‫ اندکی‬ ‫از‬ ‫نورونهای‬ ‫ورودی‬ ‫به‬ ‫نخاع‬ ‫به‬ ‫طور‬ ‫مستقیم‬ ‫بر‬ ‫روی‬ ‫نورون های‬ ‫حرکتی‬ ‫قدامی‬ ‫ختم‬ ‫می‬ ‫شوند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول های ‬‫رنشاو‬ ‫(‬‫‪cells‬‬‫‪Renshaw‬‬)‬‫ نورونهای‬ ‫واسطه‬ ‫ای‬ ‫تحریکی‬ ‫هستند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫مهار‬ ‫کننده‬ ‫های‬ ‫زیر‬ ‫بر‬ ‫شاخص‬ ‫‪Km‬‬ ‫آنزیم‬ ‫بی‬ ‫تاثیر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رقابتی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غیر‬‫رقابتی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نا‬‫رقابتی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مخلوط‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫داروهای‬ ‫خانواده‬ ‫استاتین‬ ‫سبب‬ ‫کاهش‬ ‫تولید‬ ‫کدام یک‬ ‫از‬ ‫محصولات‬ ‫زیر‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کلسترول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تری‬‫ گلیسیرید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گلوکز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسید‬‫ اوریک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هورمون‬ ‫انسولین‬ ‫می‬ ‫تواند‬ ‫تمام‬ ‫مسیرهای‬ ‫متابولیک‬ ‫زیر‬ ‫را‬ ‫فعال تر‬ کند‬ ‫به‬‫ جز‬؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لیپولیز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سنتز‬‫ پروتئین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گلیکوژنز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سنتز‬‫کلسترول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫لیپوپروتئین‬ ‫های‬ ‫زیر‬ ‫در‬ ‫متابولیسیم‬ ‫سایر‬ ‫لیپوپروتئین‬ ‫ها‬ ‫نقش‬ ‫مهمتری‬ ‫دارد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪HDL‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪VLDL‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪LDL‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪IDL‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تمام‬ ‫حالات‬ ‫زیر‬ ‫باعث‬ ‫هیپر‬ ‫اوریسیمی‬ ‫می‬ ‫شود‬ ‫ب‬ه‬‫ جز‬‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلبومین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کراتین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کلاژن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫الاستین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫گزینه‬ ‫های‬ ‫زیر‪،‬‬ ‫نوکلئوزید‬ ‫و‬ ‫باز‬ ‫آلی‬ ‫مرتبط‬ ‫با‬ ‫آن‬ ‫صحیح‬ ‫نوشته‬ ‫شده‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اینوزین‬ ‫‪-‬‬ ‫هیپوگزانتین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ادنین‬‫‪-‬‬‫آدنیلیک‬ ‫اسید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سیتوزین‬‫‪-‬‬ ‫سیتیدین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اوراسیل‬‫–‬ ‫دزاکسی‬ ‫یوریدین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مشتق‬ ‫آدنوزینی‬ ‫کدام‬ ‫اسید‬ ‫آمینه‬ ‫در‬ ‫انتقال‬ ‫ریشه‬ ‫متیل‬ ‫(‪(CH3‬‬ ‫دخالت‬ ‫دارد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سرین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ترئونین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫متیونین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سیستئین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫فرمول‬ ‫مخفف‪،‬‬ ‫یک‬ ‫اسیدچرب‬ ‫از‬ ‫خانواده‬ ‫امگا‬ ‫‪6‬‬ ‫را‬ ‫نشان‬ ‫می‬ ‫دهد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22: 5‫;
+7,10,13,16,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22: 6‫;
+4,7,10,13,16,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20: 5‫;
+5,8,11,14,17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20: 4‫;
+5,8,11,14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیروزین‬ ‫پیش‬ ‫ساز‬ ‫سنتز‬ ‫تمام‬ ‫ترکیبات‬ ‫زیر‬ ‫هست‬ ‫به‬ ‫جز‬‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیروکسین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪GABA‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ملانین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اپی‬‫ نفرین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرحله‬ ‫اصلی‬ ‫تنظیمی‬ ‫در‬ ‫مسیر‬ ‫گلیکولیز‬ ‫را‬ ‫آنزیم‬ ‫‪....‬‬ ‫کاتالیز‬ ‫می‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فسفوفروکتوکیناز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫انولاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پیروات‬‫ کیناز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلدولاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫محصول‬ ‫در‬ ‫مسیر‬ ‫پنتوز‬ ‫فسفات‬ ‫تولید‬ ‫نمی‬ ‫شود‬؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گزیلولوز‬ ‫‬‬ ‫‪ -۵‬‬‫فسفات‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪ATP‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪NADPH‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ریبولوز‬ ‫‬‬‫‪ -۵‬‬‫فسفات‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سرب‬ ‫می‬ ‫تواند‬ ‫فعالیت‬ ‫آنزیم ...‬‬‬ ‫را‬ ‫در‬ ‫مسیر‬ ‫بیوسنتز‬ ‫ملکول‬ ‫‪Heme‬‬ ‫مختل‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فروچلاتاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪ALA‬‬‫ سنتاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پروتوپورفیرینوژن‬‫ اکسیداز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پروتوپورفیرینوژن‬‫ ‫دکربوکسیلاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آنزیم‬ ‫لیپاز‬ ‫در‬ ‫کدام‬ ‫طبقه‬ ‫آنزیمی‬ ‫قرار‬ ‫می‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیدرولازها‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ترانسفرازها‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لیازها‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اکسیدو ‬‫ردوکتاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬ ‫بیلی‬ ‫روبین‬ ‫کونژوگه‬ ‫با‬ ‫کدام یک‬ ‫از‬ ‫اختلالات‬ ‫زیر‬ ‫ارتباط‬ ‫دارد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫یرقان‬ ‫انسدادی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫یرقان‬‫ فیزیولوژیک‬ ‫نوزادان‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سندرم‬‫ کریکلر‬ ‫‪-‬‬‫نجار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فاویسیم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاتابولیسم‬ ‫کدام‬ ‫ترکیب‬ ‫زیر‬ ‫در‬ ‫بدن‬ ‫منجر‬ ‫به‬ ‫تولید‬ ‫مولکول های‬ ‫‪ATP‬‬ ‫بیشتری‬ ‫می‬شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسید‬‫بوتیریک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسید‬‫پالمیتیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫از‬ ‫آروماتیزه‬ ‫شدن‬ ‫تستوسترون‬ ‫در‬ ‫بافت‬ ‫های‬ ‫محیطی‬ ‫(به ویژه‬ ‫بافت‬ ‫چربی)‬ ‫کدام‬ ‫هورمون‬ ‫زیر‬ ‫تولید‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آندرستن‬ ‫دیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪۱۷‬‬‫ بتا‬ ‫استرادیول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دی‬‫ هیدرواپی‬ ‫آندرستن‬ ‫دیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دی‬‫ هیدروتستوسترون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رسپتور کدام‬ ‫یک‬ ‫از‬ ‫هورمون‬ ‫های‬ ‫زیر‬ ‫در‬ ‫غشا‬ ‫سلول‬ ‫هدف‬ ‫قرار‬ ‫گرفته‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪TSH‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسید‬‫رتینوئیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استروژن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫وجود‬ ‫کدام‬ ‫ترکیب‬ ‫زیر‬ ‫در‬ ‫ادرار‬ ‫غیر‬ ‫طبیعی‬ ‫محسوب‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بیلی‬ ‫روبین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کراتینین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسیداوریک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اوره‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ویتامین‬ ‫‪....‬‬ ‫در‬ ‫کاتالیز‬ ‫واکنش‬ ‫‪....‬‬ ‫مسیر‬ ‫متابولیسیم‬ ‫اسید‬ ‫های‬ ‫آمینه‬ ‫مشارکت‬ ‫دارد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪B6‬‬ -‬‬ ‫ترانس‬ ‫آمیناسیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪B1‬‬ -‬‬ ‫دکربوکسیلاسیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪C‬‬ -‬‬ ‫‫هیدروکسیلاسیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪D‬‬ -‬‬ ‫‫‫کربوکسیلاسیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫عامل‬ ‫ضد‬ ‫میکروبی‬ ‫ذیل‪،‬‬ ‫یک‬ ‫"‬‫آنتیسپتیک‬‫" ‬‫است؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فنل‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گلوتارآلدئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫یدوفور‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کلر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫باکتری‬‫ شناسی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرد شصت و سه ساله ای‬ ‫‪ ‫ساله‬ ‫ای از‬ ‫حدود‬ سه ‫ماه‬ ‫پیش‬ ‫دارای‬ ‫علائم‬ ‫کاهش‬ ‫وزن ‬‫‪هفت کیلوگرمی ‫تب‬ ‫شبانه‬ ‫و‬ ‫بویژه‬ ‫سرفه‬ ‫های‬‫ مزمن‬ ‫همراه‬ ‫با‬ ‫خلط‬ ‫خونی ‬‫بوده‬ ‫است‪.‬‬ ‫در‬ ‫اسمیر‬ ‫خلط‬ ‫بیمار‬ ‫تعدادی‬ ‫باکتری‬ ‫اسید‬ ‫فاست‬ ‫مشاهده‬ ‫شده‬ ‫است‪.‬‬ ‫کشت‬ ‫خلط‬ ‫از‬ ‫نظر‬ ‫مایکوباکتریوم‬ ‫توبرکلوزیس‬‫مثبت‬ ‫است‪.‬‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫رژیم‬ ‫های‬ ‫درمانی‬ ‫زیر‬ ‫برای‬ ‫درمان‬ ‫خط‬ ‫اول‬ ‫مناسب‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ریفامپین‪،‬‬ ‫کلیندامایسین‬ ‫و‬ ‫سیکلوسرین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ایزونیازید‪،‬‬‫ریفامپین‪،‬‬ ‫پیرازینامید‬ ‫و‬ ‫اتامبوتول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ایزونیازید‪،‬‬‫جنتامایسین‬ ‫و‬ ‫اتامبوتول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ایزونیازید‪،‬‬‫پنی‬ ‫سیلین‪،‬‬ ‫جنتامایسین‬ ‫و‬ ‫پیرازینامید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫از‬ ‫کشت‬ ‫خون‬ ‫و‬ ‫مغز‬ ‫استخوان‬   ‫چوپانی‬ ‫بعد‬ ‫از ‫‪دو هفته‬ ‫کوکوباسیل‬ ‫گرم‬ ‫منفی‬ ‫هوازی‬ ‫اجباری‬ ‫جدا‬ ‫شده‬ ‫است‪.‬‬ ‫وی‬ ‫دارای‬ ‫علائم‬ ‫دردهای‬‫ عضلانی‬ ‫و‬ ‫استخوانی‬ ‫همراه‬ ‫با‬ ‫تب‬ ‫مواج‪،‬‬ ‫لرز‬ ‫و‬ ‫تعریق‬ ‫شبانه‬ ‫بوده‬ ‫است‪.‬‬ ‫بیمار‬ ‫سابقه‬ ‫مصرف‬ ‫شیر‬ ‫و‬ ‫پنیر‬ ‫غیر‬ ‫پاستوریزه‬ ‫دارد‪.‬‬‫با‬ ‫توجه‬ ‫به‬ ‫شرح‬ ‫حال‬ ‫گزارش‬ ‫شده‬ ‫کدام یک‬ ‫صحیح‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫درمان‬ ‫بیماری‬ ‫کوتاه‬ ‫مدت‬ ‫و‬ ‫حتی‬ ‫با‬ ‫یک‬ ‫دوز‬ ‫آنتی‬ ‫بیوتیک‬ ‫میسر‬ ‫است‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫با‬‫توجه‬ ‫به‬ ‫مسری‬ ‫بودن‬ ‫و‬ ‫انتقال‬ ‫فرد‬ ‫به‬ ‫فرد‬ ‫بهتر‬ ‫است‬ ‫از‬ ‫واکسیناسیون‬ ‫برای‬ ‫افراد‬ ‫در‬ ‫معرض‬ ‫خطر‬ ‫استفاده‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫داکسی‬‫سایکلین‬ ‫همراه‬ ‫با‬ ‫ریفامپین‬ ‫درمان‬ ‫انتخابی‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫می‬‫توان‬ ‫از‬ ‫تست‬ ‫های‬ ‫سرولوژی‬ ‫‪Widal‬‬ ‫و‬‫‪FTA-ABS‬‬ ‫جهت‬ ‫تشخیص‬ ‫استفاده‬ ‫کرد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫م‬‫رد‬‫‪‬‬ پنجاه ساله ای ‫در‬ ‫جریان‬ ‫شیمی‬ ‫درمانی‬ ‫و‬ ‫جهت‬ ‫پیشگیری‬ ‫از‬ ‫عفونت‪،‬‬‫مورد‬ ‫تجویز‬ ‫طوالنی‬ ‫مدت‬ ‫کلیندامایسین‬ ‫داخل‬ ‫وریدی‬ ‫و‬‫آمپی‬ ‫سیلین‬ ‫قرار‬ ‫گرفته‬ ‫است‪.‬‬ ‫ده‬ ‫روز‬ ‫بعد‬ ‫بیمار‬ ‫دچار‬ ‫دردهای‬ ‫شکمی‬ ‫و‬ ‫اسهال‬ ‫نامنظم‬ ‫گردید‬ ‫در‬ ‫مدفوع‬ ‫وی‬ ‫فقط‬ ‫باسیل‬ ‫های‬ ‫گرم‬ ‫مثبت ‬‫اسپوردار‬ RBC ‫و‬ ‫سلولهای‬ ‫پلی‬ ‫مور‬ ‫فونوکلئر‬ ‫دیده‬ ‫شد‬ ‫در‬ ‫حالی‬ ‫که‬ ‫کشت‬ ‫مدفوع‬ ‫در‬ ‫شرایط‬ ‫هوازی‬ ‫منفی‬ ‫بوده‬ ‫است‪.‬‬ ‫برای‬ ‫بهبود‬‫ بیمار‬ ‫کدام یک‬ ‫از‬ ‫اقدامات‬ ‫زیر‬ ‫مناسب‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تجویز‬ ‫کانامایسین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫ دوز‬ ‫آنتی‬ ‫بیوتیک‬ ‫ها‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قطع‬‫ آنتی‬ ‫بیوتیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تجویز‬‫ استرپتومایسین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تمام‬ ‫ویژگی های‬ ‫زیر‬ ‫مربوط‬ ‫به‬ ‫مکانیسم های‬ ‫فرار‬ ‫باکتری ها‬ ‫از‬ ‫سیستم‬ ‫ایمنی‬ ‫است‬ ‫به‬ ‫جز‬‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تشکیل‬ ‫بیوفیلم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تغییرات‬‫ آنتی‬ ‫ژنیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رشد‬‫ داخل‬ ‫سلولی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تولید‬‫ اگزوتوکسین‬</t>
+  </si>
 </sst>
 </file>
 
@@ -20989,7 +21836,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -21022,12 +21869,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -21153,10 +22008,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1358"/>
+  <dimension ref="A1:H1415"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1353" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1363" activeCellId="0" sqref="G1363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1411" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1416" activeCellId="0" sqref="D1416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -54853,1615 +55708,2926 @@
       </c>
     </row>
     <row r="1297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1297" s="0" t="s">
+      <c r="A1297" s="4" t="s">
         <v>5857</v>
       </c>
-      <c r="B1297" s="0" t="s">
+      <c r="B1297" s="4" t="s">
         <v>5858</v>
       </c>
-      <c r="C1297" s="0" t="s">
+      <c r="C1297" s="4" t="s">
         <v>5859</v>
       </c>
-      <c r="D1297" s="0" t="s">
+      <c r="D1297" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="E1297" s="0" t="s">
+      <c r="E1297" s="4" t="s">
         <v>5860</v>
       </c>
-      <c r="F1297" s="7" t="s">
+      <c r="F1297" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1297" s="7" t="s">
+      <c r="G1297" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1297" s="0" t="n">
+      <c r="H1297" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1298" s="0" t="s">
+      <c r="A1298" s="4" t="s">
         <v>5861</v>
       </c>
-      <c r="B1298" s="0" t="s">
+      <c r="B1298" s="4" t="s">
         <v>5862</v>
       </c>
-      <c r="C1298" s="0" t="s">
+      <c r="C1298" s="4" t="s">
         <v>5863</v>
       </c>
-      <c r="D1298" s="0" t="s">
+      <c r="D1298" s="4" t="s">
         <v>5062</v>
       </c>
-      <c r="E1298" s="0" t="s">
+      <c r="E1298" s="4" t="s">
         <v>5864</v>
       </c>
-      <c r="F1298" s="7" t="s">
+      <c r="F1298" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1298" s="7" t="s">
+      <c r="G1298" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1298" s="0" t="n">
+      <c r="H1298" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1299" s="0" t="s">
+      <c r="A1299" s="4" t="s">
         <v>5865</v>
       </c>
-      <c r="B1299" s="0" t="s">
+      <c r="B1299" s="4" t="s">
         <v>5866</v>
       </c>
-      <c r="C1299" s="0" t="s">
+      <c r="C1299" s="4" t="s">
         <v>5867</v>
       </c>
-      <c r="D1299" s="0" t="s">
+      <c r="D1299" s="4" t="s">
         <v>5868</v>
       </c>
-      <c r="E1299" s="0" t="s">
+      <c r="E1299" s="4" t="s">
         <v>5869</v>
       </c>
-      <c r="F1299" s="7" t="s">
+      <c r="F1299" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="G1299" s="7" t="s">
+      <c r="G1299" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1299" s="0" t="n">
+      <c r="H1299" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1300" s="0" t="s">
+      <c r="A1300" s="4" t="s">
         <v>5870</v>
       </c>
-      <c r="B1300" s="0" t="s">
+      <c r="B1300" s="4" t="s">
         <v>5871</v>
       </c>
-      <c r="C1300" s="0" t="s">
+      <c r="C1300" s="4" t="s">
         <v>5872</v>
       </c>
-      <c r="D1300" s="0" t="s">
+      <c r="D1300" s="4" t="s">
         <v>5873</v>
       </c>
-      <c r="E1300" s="0" t="s">
+      <c r="E1300" s="4" t="s">
         <v>5874</v>
       </c>
-      <c r="F1300" s="0" t="s">
+      <c r="F1300" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1300" s="7" t="s">
+      <c r="G1300" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1300" s="0" t="n">
+      <c r="H1300" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1301" s="0" t="s">
+      <c r="A1301" s="4" t="s">
         <v>5875</v>
       </c>
-      <c r="B1301" s="0" t="s">
+      <c r="B1301" s="4" t="s">
         <v>5876</v>
       </c>
-      <c r="C1301" s="0" t="s">
+      <c r="C1301" s="4" t="s">
         <v>5877</v>
       </c>
-      <c r="D1301" s="0" t="s">
+      <c r="D1301" s="4" t="s">
         <v>5878</v>
       </c>
-      <c r="E1301" s="0" t="s">
+      <c r="E1301" s="4" t="s">
         <v>5879</v>
       </c>
-      <c r="F1301" s="7" t="s">
+      <c r="F1301" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1301" s="7" t="s">
+      <c r="G1301" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1301" s="0" t="n">
+      <c r="H1301" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1302" s="0" t="s">
+      <c r="A1302" s="4" t="s">
         <v>5880</v>
       </c>
-      <c r="B1302" s="0" t="s">
+      <c r="B1302" s="4" t="s">
         <v>5881</v>
       </c>
-      <c r="C1302" s="0" t="s">
+      <c r="C1302" s="4" t="s">
         <v>5882</v>
       </c>
-      <c r="D1302" s="0" t="s">
+      <c r="D1302" s="4" t="s">
         <v>5601</v>
       </c>
-      <c r="E1302" s="0" t="s">
+      <c r="E1302" s="4" t="s">
         <v>5642</v>
       </c>
-      <c r="F1302" s="7" t="s">
+      <c r="F1302" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1302" s="7" t="s">
+      <c r="G1302" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1302" s="0" t="n">
+      <c r="H1302" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1303" s="0" t="s">
+      <c r="A1303" s="4" t="s">
         <v>5883</v>
       </c>
-      <c r="B1303" s="0" t="s">
+      <c r="B1303" s="4" t="s">
         <v>5884</v>
       </c>
-      <c r="C1303" s="0" t="s">
+      <c r="C1303" s="4" t="s">
         <v>5885</v>
       </c>
-      <c r="D1303" s="0" t="s">
+      <c r="D1303" s="4" t="s">
         <v>5886</v>
       </c>
-      <c r="E1303" s="0" t="s">
+      <c r="E1303" s="4" t="s">
         <v>5887</v>
       </c>
-      <c r="F1303" s="7" t="s">
+      <c r="F1303" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1303" s="7" t="s">
+      <c r="G1303" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1303" s="0" t="n">
+      <c r="H1303" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1304" s="0" t="s">
+      <c r="A1304" s="4" t="s">
         <v>5888</v>
       </c>
-      <c r="B1304" s="0" t="s">
+      <c r="B1304" s="4" t="s">
         <v>5889</v>
       </c>
-      <c r="C1304" s="0" t="s">
+      <c r="C1304" s="4" t="s">
         <v>5890</v>
       </c>
-      <c r="D1304" s="0" t="s">
+      <c r="D1304" s="4" t="s">
         <v>5891</v>
       </c>
-      <c r="E1304" s="0" t="s">
+      <c r="E1304" s="4" t="s">
         <v>5892</v>
       </c>
-      <c r="F1304" s="7" t="s">
+      <c r="F1304" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1304" s="7" t="s">
+      <c r="G1304" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1304" s="0" t="n">
+      <c r="H1304" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1305" s="0" t="s">
+      <c r="A1305" s="4" t="s">
         <v>5893</v>
       </c>
-      <c r="B1305" s="0" t="s">
+      <c r="B1305" s="4" t="s">
         <v>5894</v>
       </c>
-      <c r="C1305" s="0" t="s">
+      <c r="C1305" s="4" t="s">
         <v>5895</v>
       </c>
-      <c r="D1305" s="0" t="s">
+      <c r="D1305" s="4" t="s">
         <v>5896</v>
       </c>
-      <c r="E1305" s="0" t="s">
+      <c r="E1305" s="4" t="s">
         <v>5897</v>
       </c>
-      <c r="F1305" s="7" t="s">
+      <c r="F1305" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1305" s="7" t="s">
+      <c r="G1305" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1305" s="0" t="n">
+      <c r="H1305" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1306" s="0" t="s">
+      <c r="A1306" s="4" t="s">
         <v>5898</v>
       </c>
-      <c r="B1306" s="0" t="s">
+      <c r="B1306" s="4" t="s">
         <v>5899</v>
       </c>
-      <c r="C1306" s="0" t="s">
+      <c r="C1306" s="4" t="s">
         <v>4396</v>
       </c>
-      <c r="D1306" s="0" t="s">
+      <c r="D1306" s="4" t="s">
         <v>5900</v>
       </c>
-      <c r="E1306" s="0" t="s">
+      <c r="E1306" s="4" t="s">
         <v>5901</v>
       </c>
-      <c r="F1306" s="7" t="s">
+      <c r="F1306" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1306" s="7" t="s">
+      <c r="G1306" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1306" s="0" t="n">
+      <c r="H1306" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1307" s="0" t="s">
+      <c r="A1307" s="4" t="s">
         <v>5902</v>
       </c>
-      <c r="B1307" s="0" t="s">
+      <c r="B1307" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C1307" s="0" t="s">
+      <c r="C1307" s="4" t="s">
         <v>5903</v>
       </c>
-      <c r="D1307" s="0" t="s">
+      <c r="D1307" s="4" t="s">
         <v>5904</v>
       </c>
-      <c r="E1307" s="0" t="s">
+      <c r="E1307" s="4" t="s">
         <v>5905</v>
       </c>
-      <c r="F1307" s="7" t="s">
+      <c r="F1307" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1307" s="7" t="s">
+      <c r="G1307" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1307" s="0" t="n">
+      <c r="H1307" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1308" s="0" t="s">
+      <c r="A1308" s="4" t="s">
         <v>5906</v>
       </c>
-      <c r="B1308" s="0" t="s">
+      <c r="B1308" s="4" t="s">
         <v>5907</v>
       </c>
-      <c r="C1308" s="0" t="s">
+      <c r="C1308" s="4" t="s">
         <v>5908</v>
       </c>
-      <c r="D1308" s="0" t="s">
+      <c r="D1308" s="4" t="s">
         <v>5909</v>
       </c>
-      <c r="E1308" s="0" t="s">
+      <c r="E1308" s="4" t="s">
         <v>5910</v>
       </c>
-      <c r="F1308" s="7" t="s">
+      <c r="F1308" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1308" s="7" t="s">
+      <c r="G1308" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1308" s="0" t="n">
+      <c r="H1308" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1309" s="0" t="s">
+      <c r="A1309" s="4" t="s">
         <v>5911</v>
       </c>
-      <c r="B1309" s="0" t="s">
+      <c r="B1309" s="4" t="s">
         <v>5912</v>
       </c>
-      <c r="C1309" s="0" t="s">
+      <c r="C1309" s="4" t="s">
         <v>5913</v>
       </c>
-      <c r="D1309" s="0" t="s">
+      <c r="D1309" s="4" t="s">
         <v>5914</v>
       </c>
-      <c r="E1309" s="0" t="s">
+      <c r="E1309" s="4" t="s">
         <v>5915</v>
       </c>
-      <c r="F1309" s="7" t="s">
+      <c r="F1309" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1309" s="7" t="s">
+      <c r="G1309" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1309" s="0" t="n">
+      <c r="H1309" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1310" s="0" t="s">
+      <c r="A1310" s="4" t="s">
         <v>5916</v>
       </c>
-      <c r="B1310" s="0" t="s">
+      <c r="B1310" s="4" t="s">
         <v>5917</v>
       </c>
-      <c r="C1310" s="0" t="s">
+      <c r="C1310" s="4" t="s">
         <v>5918</v>
       </c>
-      <c r="D1310" s="0" t="s">
+      <c r="D1310" s="4" t="s">
         <v>5919</v>
       </c>
-      <c r="E1310" s="0" t="s">
+      <c r="E1310" s="4" t="s">
         <v>5920</v>
       </c>
-      <c r="F1310" s="7" t="s">
+      <c r="F1310" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1310" s="7" t="s">
+      <c r="G1310" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1310" s="0" t="n">
+      <c r="H1310" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1311" s="0" t="s">
+      <c r="A1311" s="4" t="s">
         <v>5921</v>
       </c>
-      <c r="B1311" s="0" t="s">
+      <c r="B1311" s="4" t="s">
         <v>5922</v>
       </c>
-      <c r="C1311" s="0" t="s">
+      <c r="C1311" s="4" t="s">
         <v>5923</v>
       </c>
-      <c r="D1311" s="0" t="s">
+      <c r="D1311" s="4" t="s">
         <v>5924</v>
       </c>
-      <c r="E1311" s="0" t="s">
+      <c r="E1311" s="4" t="s">
         <v>5925</v>
       </c>
-      <c r="F1311" s="7" t="s">
+      <c r="F1311" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1311" s="7" t="s">
+      <c r="G1311" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1311" s="0" t="n">
+      <c r="H1311" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1312" s="0" t="s">
+      <c r="A1312" s="4" t="s">
         <v>2506</v>
       </c>
-      <c r="B1312" s="0" t="s">
+      <c r="B1312" s="4" t="s">
         <v>5926</v>
       </c>
-      <c r="C1312" s="0" t="s">
+      <c r="C1312" s="4" t="s">
         <v>5927</v>
       </c>
-      <c r="D1312" s="0" t="s">
+      <c r="D1312" s="4" t="s">
         <v>5928</v>
       </c>
-      <c r="E1312" s="0" t="s">
+      <c r="E1312" s="4" t="s">
         <v>5929</v>
       </c>
-      <c r="F1312" s="7" t="s">
+      <c r="F1312" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1312" s="7" t="s">
+      <c r="G1312" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1312" s="0" t="n">
+      <c r="H1312" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1313" s="0" t="s">
+      <c r="A1313" s="4" t="s">
         <v>5930</v>
       </c>
-      <c r="B1313" s="0" t="s">
+      <c r="B1313" s="4" t="s">
         <v>5931</v>
       </c>
-      <c r="C1313" s="0" t="s">
+      <c r="C1313" s="4" t="s">
         <v>5932</v>
       </c>
-      <c r="D1313" s="0" t="s">
+      <c r="D1313" s="4" t="s">
         <v>5933</v>
       </c>
-      <c r="E1313" s="0" t="s">
+      <c r="E1313" s="4" t="s">
         <v>5934</v>
       </c>
-      <c r="F1313" s="7" t="s">
+      <c r="F1313" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1313" s="7" t="s">
+      <c r="G1313" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1313" s="0" t="n">
+      <c r="H1313" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1314" s="0" t="s">
+      <c r="A1314" s="4" t="s">
         <v>5935</v>
       </c>
-      <c r="B1314" s="0" t="s">
+      <c r="B1314" s="4" t="s">
         <v>5936</v>
       </c>
-      <c r="C1314" s="0" t="s">
+      <c r="C1314" s="4" t="s">
         <v>5937</v>
       </c>
-      <c r="D1314" s="0" t="s">
+      <c r="D1314" s="4" t="s">
         <v>5938</v>
       </c>
-      <c r="E1314" s="0" t="s">
+      <c r="E1314" s="4" t="s">
         <v>1915</v>
       </c>
-      <c r="F1314" s="7" t="s">
+      <c r="F1314" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1314" s="7" t="s">
+      <c r="G1314" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1314" s="0" t="n">
+      <c r="H1314" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1315" s="0" t="s">
+      <c r="A1315" s="4" t="s">
         <v>5939</v>
       </c>
-      <c r="B1315" s="0" t="s">
+      <c r="B1315" s="4" t="s">
         <v>5940</v>
       </c>
-      <c r="C1315" s="0" t="s">
+      <c r="C1315" s="4" t="s">
         <v>5941</v>
       </c>
-      <c r="D1315" s="0" t="s">
+      <c r="D1315" s="4" t="s">
         <v>5942</v>
       </c>
-      <c r="E1315" s="0" t="s">
+      <c r="E1315" s="4" t="s">
         <v>5943</v>
       </c>
-      <c r="F1315" s="7" t="s">
+      <c r="F1315" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1315" s="7" t="s">
+      <c r="G1315" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1315" s="0" t="n">
+      <c r="H1315" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1316" s="0" t="s">
+      <c r="A1316" s="4" t="s">
         <v>5944</v>
       </c>
-      <c r="B1316" s="0" t="s">
+      <c r="B1316" s="4" t="s">
         <v>5945</v>
       </c>
-      <c r="C1316" s="0" t="s">
+      <c r="C1316" s="4" t="s">
         <v>5946</v>
       </c>
-      <c r="D1316" s="0" t="s">
+      <c r="D1316" s="4" t="s">
         <v>5947</v>
       </c>
-      <c r="E1316" s="0" t="s">
+      <c r="E1316" s="4" t="s">
         <v>5948</v>
       </c>
-      <c r="F1316" s="7" t="s">
+      <c r="F1316" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1316" s="7" t="s">
+      <c r="G1316" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1316" s="0" t="n">
+      <c r="H1316" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1317" s="0" t="s">
+      <c r="A1317" s="4" t="s">
         <v>5949</v>
       </c>
-      <c r="B1317" s="0" t="s">
+      <c r="B1317" s="4" t="s">
         <v>5917</v>
       </c>
-      <c r="C1317" s="0" t="s">
+      <c r="C1317" s="4" t="s">
         <v>5950</v>
       </c>
-      <c r="D1317" s="0" t="s">
+      <c r="D1317" s="4" t="s">
         <v>5918</v>
       </c>
-      <c r="E1317" s="0" t="s">
+      <c r="E1317" s="4" t="s">
         <v>5951</v>
       </c>
-      <c r="F1317" s="7" t="s">
+      <c r="F1317" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1317" s="7" t="s">
+      <c r="G1317" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1317" s="0" t="n">
+      <c r="H1317" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1318" s="0" t="s">
+      <c r="A1318" s="4" t="s">
         <v>5952</v>
       </c>
-      <c r="B1318" s="0" t="s">
+      <c r="B1318" s="4" t="s">
         <v>5953</v>
       </c>
-      <c r="C1318" s="0" t="s">
+      <c r="C1318" s="4" t="s">
         <v>5954</v>
       </c>
-      <c r="D1318" s="0" t="s">
+      <c r="D1318" s="4" t="s">
         <v>5955</v>
       </c>
-      <c r="E1318" s="0" t="s">
+      <c r="E1318" s="4" t="s">
         <v>5956</v>
       </c>
-      <c r="F1318" s="7" t="s">
+      <c r="F1318" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1318" s="7" t="s">
+      <c r="G1318" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1318" s="0" t="n">
+      <c r="H1318" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1319" s="0" t="s">
+      <c r="A1319" s="4" t="s">
         <v>5957</v>
       </c>
-      <c r="B1319" s="0" t="s">
+      <c r="B1319" s="4" t="s">
         <v>2556</v>
       </c>
-      <c r="C1319" s="0" t="s">
+      <c r="C1319" s="4" t="s">
         <v>5958</v>
       </c>
-      <c r="D1319" s="0" t="s">
+      <c r="D1319" s="4" t="s">
         <v>2558</v>
       </c>
-      <c r="E1319" s="0" t="s">
+      <c r="E1319" s="4" t="s">
         <v>2559</v>
       </c>
-      <c r="F1319" s="7" t="s">
+      <c r="F1319" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1319" s="7" t="s">
+      <c r="G1319" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1319" s="0" t="n">
+      <c r="H1319" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1320" s="0" t="s">
+      <c r="A1320" s="4" t="s">
         <v>2560</v>
       </c>
-      <c r="B1320" s="0" t="s">
+      <c r="B1320" s="4" t="s">
         <v>2561</v>
       </c>
-      <c r="C1320" s="0" t="s">
+      <c r="C1320" s="4" t="s">
         <v>5959</v>
       </c>
-      <c r="D1320" s="0" t="s">
+      <c r="D1320" s="4" t="s">
         <v>5960</v>
       </c>
-      <c r="E1320" s="0" t="s">
+      <c r="E1320" s="4" t="s">
         <v>2564</v>
       </c>
-      <c r="F1320" s="7" t="s">
+      <c r="F1320" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1320" s="7" t="s">
+      <c r="G1320" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1320" s="0" t="n">
+      <c r="H1320" s="4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="1321" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1321" s="8" t="s">
+    <row r="1321" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1321" s="5" t="s">
         <v>5961</v>
       </c>
-      <c r="B1321" s="9" t="s">
+      <c r="B1321" s="1" t="s">
         <v>5962</v>
       </c>
-      <c r="C1321" s="9" t="s">
+      <c r="C1321" s="1" t="s">
         <v>5963</v>
       </c>
-      <c r="D1321" s="9" t="s">
+      <c r="D1321" s="1" t="s">
         <v>5964</v>
       </c>
-      <c r="E1321" s="9" t="s">
+      <c r="E1321" s="1" t="s">
         <v>5965</v>
       </c>
-      <c r="F1321" s="7" t="s">
+      <c r="F1321" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1321" s="7" t="s">
+      <c r="G1321" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1321" s="0" t="n">
+      <c r="H1321" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1322" s="0" t="s">
+      <c r="A1322" s="4" t="s">
         <v>5966</v>
       </c>
-      <c r="B1322" s="0" t="s">
+      <c r="B1322" s="4" t="s">
         <v>5967</v>
       </c>
-      <c r="C1322" s="0" t="s">
+      <c r="C1322" s="4" t="s">
         <v>5968</v>
       </c>
-      <c r="D1322" s="0" t="s">
+      <c r="D1322" s="4" t="s">
         <v>5969</v>
       </c>
-      <c r="E1322" s="0" t="s">
+      <c r="E1322" s="4" t="s">
         <v>5970</v>
       </c>
-      <c r="F1322" s="7" t="s">
+      <c r="F1322" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1322" s="7" t="s">
+      <c r="G1322" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1322" s="0" t="n">
+      <c r="H1322" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1323" s="0" t="s">
+      <c r="A1323" s="4" t="s">
         <v>5971</v>
       </c>
-      <c r="B1323" s="0" t="s">
+      <c r="B1323" s="4" t="s">
         <v>5972</v>
       </c>
-      <c r="C1323" s="0" t="s">
+      <c r="C1323" s="4" t="s">
         <v>5973</v>
       </c>
-      <c r="D1323" s="0" t="s">
+      <c r="D1323" s="4" t="s">
         <v>5974</v>
       </c>
-      <c r="E1323" s="0" t="s">
+      <c r="E1323" s="4" t="s">
         <v>5975</v>
       </c>
-      <c r="F1323" s="7" t="s">
+      <c r="F1323" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1323" s="7" t="s">
+      <c r="G1323" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1323" s="0" t="n">
+      <c r="H1323" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1324" customFormat="false" ht="135.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1324" s="8" t="s">
+      <c r="A1324" s="5" t="s">
         <v>5976</v>
       </c>
-      <c r="B1324" s="9" t="s">
+      <c r="B1324" s="1" t="s">
         <v>5977</v>
       </c>
-      <c r="C1324" s="9" t="s">
+      <c r="C1324" s="1" t="s">
         <v>5978</v>
       </c>
-      <c r="D1324" s="9" t="s">
+      <c r="D1324" s="1" t="s">
         <v>5979</v>
       </c>
-      <c r="E1324" s="9" t="s">
+      <c r="E1324" s="1" t="s">
         <v>5980</v>
       </c>
-      <c r="F1324" s="7" t="s">
+      <c r="F1324" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1324" s="7" t="s">
+      <c r="G1324" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1324" s="0" t="n">
+      <c r="H1324" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1325" s="0" t="s">
+      <c r="A1325" s="4" t="s">
         <v>5981</v>
       </c>
-      <c r="B1325" s="0" t="s">
+      <c r="B1325" s="4" t="s">
         <v>5982</v>
       </c>
-      <c r="C1325" s="0" t="s">
+      <c r="C1325" s="4" t="s">
         <v>5983</v>
       </c>
-      <c r="D1325" s="0" t="s">
+      <c r="D1325" s="4" t="s">
         <v>5984</v>
       </c>
-      <c r="E1325" s="0" t="s">
+      <c r="E1325" s="4" t="s">
         <v>5985</v>
       </c>
-      <c r="F1325" s="7" t="s">
+      <c r="F1325" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1325" s="7" t="s">
+      <c r="G1325" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1325" s="0" t="n">
+      <c r="H1325" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1326" s="0" t="s">
+      <c r="A1326" s="4" t="s">
         <v>5986</v>
       </c>
-      <c r="B1326" s="0" t="s">
+      <c r="B1326" s="4" t="s">
         <v>5987</v>
       </c>
-      <c r="C1326" s="0" t="s">
+      <c r="C1326" s="4" t="s">
         <v>5988</v>
       </c>
-      <c r="D1326" s="0" t="s">
+      <c r="D1326" s="4" t="s">
         <v>5989</v>
       </c>
-      <c r="E1326" s="0" t="s">
+      <c r="E1326" s="4" t="s">
         <v>5990</v>
       </c>
-      <c r="F1326" s="7" t="s">
+      <c r="F1326" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1326" s="7" t="s">
+      <c r="G1326" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1326" s="0" t="n">
+      <c r="H1326" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1327" s="0" t="s">
+      <c r="A1327" s="4" t="s">
         <v>5991</v>
       </c>
-      <c r="B1327" s="0" t="s">
+      <c r="B1327" s="4" t="s">
         <v>2586</v>
       </c>
-      <c r="C1327" s="0" t="s">
+      <c r="C1327" s="4" t="s">
         <v>5992</v>
       </c>
-      <c r="D1327" s="0" t="s">
+      <c r="D1327" s="4" t="s">
         <v>2588</v>
       </c>
-      <c r="E1327" s="0" t="s">
+      <c r="E1327" s="4" t="s">
         <v>2589</v>
       </c>
-      <c r="F1327" s="7" t="s">
+      <c r="F1327" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1327" s="7" t="s">
+      <c r="G1327" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1327" s="0" t="n">
+      <c r="H1327" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1328" s="0" t="s">
+      <c r="A1328" s="4" t="s">
         <v>5993</v>
       </c>
-      <c r="B1328" s="0" t="s">
+      <c r="B1328" s="4" t="s">
         <v>5994</v>
       </c>
-      <c r="C1328" s="0" t="s">
+      <c r="C1328" s="4" t="s">
         <v>5995</v>
       </c>
-      <c r="D1328" s="0" t="s">
+      <c r="D1328" s="4" t="s">
         <v>5996</v>
       </c>
-      <c r="E1328" s="0" t="s">
+      <c r="E1328" s="4" t="s">
         <v>5997</v>
       </c>
-      <c r="F1328" s="0" t="s">
+      <c r="F1328" s="4" t="s">
         <v>3790</v>
       </c>
-      <c r="G1328" s="7" t="s">
+      <c r="G1328" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1328" s="0" t="n">
+      <c r="H1328" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1329" customFormat="false" ht="101.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1329" s="8" t="s">
+      <c r="A1329" s="5" t="s">
         <v>5998</v>
       </c>
-      <c r="B1329" s="9" t="s">
+      <c r="B1329" s="1" t="s">
         <v>5999</v>
       </c>
-      <c r="C1329" s="9" t="s">
+      <c r="C1329" s="1" t="s">
         <v>6000</v>
       </c>
-      <c r="D1329" s="9" t="s">
+      <c r="D1329" s="1" t="s">
         <v>6001</v>
       </c>
-      <c r="E1329" s="9" t="s">
+      <c r="E1329" s="1" t="s">
         <v>6002</v>
       </c>
-      <c r="F1329" s="7" t="s">
+      <c r="F1329" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G1329" s="7" t="s">
+      <c r="G1329" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1329" s="0" t="n">
+      <c r="H1329" s="4" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="1330" customFormat="false" ht="119.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1330" s="8" t="s">
+    <row r="1330" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1330" s="5" t="s">
         <v>6003</v>
       </c>
-      <c r="B1330" s="9" t="s">
+      <c r="B1330" s="1" t="s">
         <v>6004</v>
       </c>
-      <c r="C1330" s="9" t="s">
+      <c r="C1330" s="1" t="s">
         <v>6005</v>
       </c>
-      <c r="D1330" s="9" t="s">
+      <c r="D1330" s="1" t="s">
         <v>6006</v>
       </c>
-      <c r="E1330" s="9" t="s">
+      <c r="E1330" s="1" t="s">
         <v>6007</v>
       </c>
-      <c r="F1330" s="7" t="s">
+      <c r="F1330" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G1330" s="7" t="s">
+      <c r="G1330" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1330" s="0" t="n">
+      <c r="H1330" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1331" s="0" t="s">
+      <c r="A1331" s="4" t="s">
         <v>6008</v>
       </c>
-      <c r="B1331" s="0" t="s">
+      <c r="B1331" s="4" t="s">
         <v>6009</v>
       </c>
-      <c r="C1331" s="0" t="s">
+      <c r="C1331" s="4" t="s">
         <v>6010</v>
       </c>
-      <c r="D1331" s="0" t="s">
+      <c r="D1331" s="4" t="s">
         <v>6011</v>
       </c>
-      <c r="E1331" s="0" t="s">
+      <c r="E1331" s="4" t="s">
         <v>6012</v>
       </c>
-      <c r="F1331" s="7" t="s">
+      <c r="F1331" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G1331" s="7" t="s">
+      <c r="G1331" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1331" s="0" t="n">
+      <c r="H1331" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1332" s="0" t="s">
+      <c r="A1332" s="4" t="s">
         <v>6013</v>
       </c>
-      <c r="B1332" s="0" t="s">
+      <c r="B1332" s="4" t="s">
         <v>5050</v>
       </c>
-      <c r="C1332" s="0" t="s">
+      <c r="C1332" s="4" t="s">
         <v>6014</v>
       </c>
-      <c r="D1332" s="0" t="s">
+      <c r="D1332" s="4" t="s">
         <v>6015</v>
       </c>
-      <c r="E1332" s="0" t="s">
+      <c r="E1332" s="4" t="s">
         <v>6016</v>
       </c>
-      <c r="F1332" s="7" t="s">
+      <c r="F1332" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G1332" s="7" t="s">
+      <c r="G1332" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1332" s="0" t="n">
+      <c r="H1332" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1333" s="0" t="s">
+      <c r="A1333" s="4" t="s">
         <v>6017</v>
       </c>
-      <c r="B1333" s="0" t="s">
+      <c r="B1333" s="4" t="s">
         <v>5268</v>
       </c>
-      <c r="C1333" s="0" t="s">
+      <c r="C1333" s="4" t="s">
         <v>6018</v>
       </c>
-      <c r="D1333" s="0" t="s">
+      <c r="D1333" s="4" t="s">
         <v>6019</v>
       </c>
-      <c r="E1333" s="0" t="s">
+      <c r="E1333" s="4" t="s">
         <v>6020</v>
       </c>
-      <c r="F1333" s="7" t="s">
+      <c r="F1333" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G1333" s="7" t="s">
+      <c r="G1333" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1333" s="0" t="n">
+      <c r="H1333" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1334" s="0" t="s">
+      <c r="A1334" s="4" t="s">
         <v>6021</v>
       </c>
-      <c r="B1334" s="0" t="s">
+      <c r="B1334" s="4" t="s">
         <v>6022</v>
       </c>
-      <c r="C1334" s="7" t="s">
+      <c r="C1334" s="1" t="s">
         <v>6023</v>
       </c>
-      <c r="D1334" s="9" t="s">
+      <c r="D1334" s="1" t="s">
         <v>6024</v>
       </c>
-      <c r="E1334" s="9" t="s">
+      <c r="E1334" s="1" t="s">
         <v>6025</v>
       </c>
-      <c r="F1334" s="7" t="s">
+      <c r="F1334" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="G1334" s="7" t="s">
+      <c r="G1334" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1334" s="0" t="n">
+      <c r="H1334" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1335" s="0" t="s">
+      <c r="A1335" s="4" t="s">
         <v>6026</v>
       </c>
-      <c r="B1335" s="0" t="s">
+      <c r="B1335" s="4" t="s">
         <v>4503</v>
       </c>
-      <c r="C1335" s="0" t="s">
+      <c r="C1335" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="D1335" s="0" t="s">
+      <c r="D1335" s="4" t="s">
         <v>2350</v>
       </c>
-      <c r="E1335" s="0" t="s">
+      <c r="E1335" s="4" t="s">
         <v>4703</v>
       </c>
-      <c r="F1335" s="0" t="s">
+      <c r="F1335" s="4" t="s">
         <v>3216</v>
       </c>
-      <c r="G1335" s="7" t="s">
+      <c r="G1335" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1335" s="0" t="n">
+      <c r="H1335" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1336" s="0" t="s">
+      <c r="A1336" s="4" t="s">
         <v>6027</v>
       </c>
-      <c r="B1336" s="0" t="s">
+      <c r="B1336" s="4" t="s">
         <v>6028</v>
       </c>
-      <c r="C1336" s="0" t="s">
+      <c r="C1336" s="4" t="s">
         <v>6029</v>
       </c>
-      <c r="D1336" s="0" t="s">
+      <c r="D1336" s="4" t="s">
         <v>3234</v>
       </c>
-      <c r="E1336" s="0" t="s">
+      <c r="E1336" s="4" t="s">
         <v>6030</v>
       </c>
-      <c r="F1336" s="7" t="s">
+      <c r="F1336" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1336" s="7" t="s">
+      <c r="G1336" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1336" s="0" t="n">
+      <c r="H1336" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1337" s="0" t="s">
+      <c r="A1337" s="4" t="s">
         <v>6031</v>
       </c>
-      <c r="B1337" s="0" t="s">
+      <c r="B1337" s="4" t="s">
         <v>3288</v>
       </c>
-      <c r="C1337" s="0" t="s">
+      <c r="C1337" s="4" t="s">
         <v>6028</v>
       </c>
-      <c r="D1337" s="0" t="s">
+      <c r="D1337" s="4" t="s">
         <v>6032</v>
       </c>
-      <c r="E1337" s="0" t="s">
+      <c r="E1337" s="4" t="s">
         <v>6033</v>
       </c>
-      <c r="F1337" s="7" t="s">
+      <c r="F1337" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1337" s="7" t="s">
+      <c r="G1337" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1337" s="0" t="n">
+      <c r="H1337" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1338" s="0" t="s">
+      <c r="A1338" s="4" t="s">
         <v>6034</v>
       </c>
-      <c r="B1338" s="0" t="s">
+      <c r="B1338" s="4" t="s">
         <v>3228</v>
       </c>
-      <c r="C1338" s="0" t="s">
+      <c r="C1338" s="4" t="s">
         <v>6035</v>
       </c>
-      <c r="D1338" s="0" t="s">
+      <c r="D1338" s="4" t="s">
         <v>3230</v>
       </c>
-      <c r="E1338" s="0" t="s">
+      <c r="E1338" s="4" t="s">
         <v>1920</v>
       </c>
-      <c r="F1338" s="7" t="s">
+      <c r="F1338" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1338" s="7" t="s">
+      <c r="G1338" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1338" s="0" t="n">
+      <c r="H1338" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1339" s="0" t="s">
+      <c r="A1339" s="4" t="s">
         <v>3231</v>
       </c>
-      <c r="B1339" s="0" t="s">
+      <c r="B1339" s="4" t="s">
         <v>3232</v>
       </c>
-      <c r="C1339" s="0" t="s">
+      <c r="C1339" s="4" t="s">
         <v>3233</v>
       </c>
-      <c r="D1339" s="0" t="s">
+      <c r="D1339" s="4" t="s">
         <v>3234</v>
       </c>
-      <c r="E1339" s="0" t="s">
+      <c r="E1339" s="4" t="s">
         <v>3235</v>
       </c>
-      <c r="F1339" s="7" t="s">
+      <c r="F1339" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1339" s="7" t="s">
+      <c r="G1339" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1339" s="0" t="n">
+      <c r="H1339" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1340" s="0" t="s">
+      <c r="A1340" s="4" t="s">
         <v>3236</v>
       </c>
-      <c r="B1340" s="0" t="s">
+      <c r="B1340" s="4" t="s">
         <v>6036</v>
       </c>
-      <c r="C1340" s="0" t="s">
+      <c r="C1340" s="4" t="s">
         <v>6037</v>
       </c>
-      <c r="D1340" s="0" t="s">
+      <c r="D1340" s="4" t="s">
         <v>3239</v>
       </c>
-      <c r="E1340" s="0" t="s">
+      <c r="E1340" s="4" t="s">
         <v>3240</v>
       </c>
-      <c r="F1340" s="7" t="s">
+      <c r="F1340" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1340" s="7" t="s">
+      <c r="G1340" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1340" s="0" t="n">
+      <c r="H1340" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1341" s="0" t="s">
+      <c r="A1341" s="4" t="s">
         <v>3241</v>
       </c>
-      <c r="B1341" s="0" t="s">
+      <c r="B1341" s="4" t="s">
         <v>6038</v>
       </c>
-      <c r="C1341" s="0" t="s">
+      <c r="C1341" s="4" t="s">
         <v>6039</v>
       </c>
-      <c r="D1341" s="0" t="s">
+      <c r="D1341" s="4" t="s">
         <v>6040</v>
       </c>
-      <c r="E1341" s="0" t="s">
+      <c r="E1341" s="4" t="s">
         <v>6041</v>
       </c>
-      <c r="F1341" s="7" t="s">
+      <c r="F1341" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1341" s="7" t="s">
+      <c r="G1341" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1341" s="0" t="n">
+      <c r="H1341" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1342" s="0" t="s">
+      <c r="A1342" s="4" t="s">
         <v>3246</v>
       </c>
-      <c r="B1342" s="0" t="s">
+      <c r="B1342" s="4" t="s">
         <v>3246</v>
       </c>
-      <c r="C1342" s="0" t="s">
+      <c r="C1342" s="4" t="s">
         <v>6042</v>
       </c>
-      <c r="D1342" s="0" t="s">
+      <c r="D1342" s="4" t="s">
         <v>6043</v>
       </c>
-      <c r="E1342" s="0" t="s">
+      <c r="E1342" s="4" t="s">
         <v>6044</v>
       </c>
-      <c r="F1342" s="7" t="s">
+      <c r="F1342" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1342" s="7" t="s">
+      <c r="G1342" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1342" s="0" t="n">
+      <c r="H1342" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1343" s="0" t="s">
+      <c r="A1343" s="4" t="s">
         <v>6045</v>
       </c>
-      <c r="B1343" s="0" t="s">
+      <c r="B1343" s="4" t="s">
         <v>6046</v>
       </c>
-      <c r="C1343" s="0" t="s">
+      <c r="C1343" s="4" t="s">
         <v>6047</v>
       </c>
-      <c r="D1343" s="0" t="s">
+      <c r="D1343" s="4" t="s">
         <v>6048</v>
       </c>
-      <c r="E1343" s="0" t="s">
+      <c r="E1343" s="4" t="s">
         <v>6049</v>
       </c>
-      <c r="F1343" s="7" t="s">
+      <c r="F1343" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1343" s="7" t="s">
+      <c r="G1343" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1343" s="0" t="n">
+      <c r="H1343" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1344" s="0" t="s">
+      <c r="A1344" s="4" t="s">
         <v>6050</v>
       </c>
-      <c r="B1344" s="0" t="s">
+      <c r="B1344" s="4" t="s">
         <v>6051</v>
       </c>
-      <c r="C1344" s="0" t="s">
+      <c r="C1344" s="4" t="s">
         <v>6052</v>
       </c>
-      <c r="D1344" s="0" t="s">
+      <c r="D1344" s="4" t="s">
         <v>6053</v>
       </c>
-      <c r="E1344" s="0" t="s">
+      <c r="E1344" s="4" t="s">
         <v>6054</v>
       </c>
-      <c r="F1344" s="7" t="s">
+      <c r="F1344" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1344" s="7" t="s">
+      <c r="G1344" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1344" s="0" t="n">
+      <c r="H1344" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1345" s="0" t="s">
+      <c r="A1345" s="4" t="s">
         <v>6055</v>
       </c>
-      <c r="B1345" s="0" t="s">
+      <c r="B1345" s="4" t="s">
         <v>6056</v>
       </c>
-      <c r="C1345" s="0" t="s">
+      <c r="C1345" s="4" t="s">
         <v>6057</v>
       </c>
-      <c r="D1345" s="0" t="s">
+      <c r="D1345" s="4" t="s">
         <v>6058</v>
       </c>
-      <c r="E1345" s="0" t="s">
+      <c r="E1345" s="4" t="s">
         <v>6059</v>
       </c>
-      <c r="F1345" s="7" t="s">
+      <c r="F1345" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1345" s="7" t="s">
+      <c r="G1345" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1345" s="0" t="n">
+      <c r="H1345" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1346" s="0" t="s">
+      <c r="A1346" s="4" t="s">
         <v>6060</v>
       </c>
-      <c r="B1346" s="0" t="s">
+      <c r="B1346" s="4" t="s">
         <v>6061</v>
       </c>
-      <c r="C1346" s="0" t="s">
+      <c r="C1346" s="4" t="s">
         <v>6062</v>
       </c>
-      <c r="D1346" s="0" t="s">
+      <c r="D1346" s="4" t="s">
         <v>6063</v>
       </c>
-      <c r="E1346" s="0" t="s">
+      <c r="E1346" s="4" t="s">
         <v>6064</v>
       </c>
-      <c r="F1346" s="7" t="s">
+      <c r="F1346" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1346" s="7" t="s">
+      <c r="G1346" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1346" s="0" t="n">
+      <c r="H1346" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1347" s="0" t="s">
+      <c r="A1347" s="4" t="s">
         <v>6065</v>
       </c>
-      <c r="B1347" s="0" t="s">
+      <c r="B1347" s="4" t="s">
         <v>6066</v>
       </c>
-      <c r="C1347" s="0" t="s">
+      <c r="C1347" s="4" t="s">
         <v>6067</v>
       </c>
-      <c r="D1347" s="0" t="s">
+      <c r="D1347" s="4" t="s">
         <v>6068</v>
       </c>
-      <c r="E1347" s="0" t="s">
+      <c r="E1347" s="4" t="s">
         <v>6069</v>
       </c>
-      <c r="F1347" s="7" t="s">
+      <c r="F1347" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1347" s="7" t="s">
+      <c r="G1347" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1347" s="0" t="n">
+      <c r="H1347" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1348" s="0" t="s">
+      <c r="A1348" s="4" t="s">
         <v>6070</v>
       </c>
-      <c r="B1348" s="0" t="s">
+      <c r="B1348" s="4" t="s">
         <v>4473</v>
       </c>
-      <c r="C1348" s="0" t="s">
+      <c r="C1348" s="4" t="s">
         <v>4474</v>
       </c>
-      <c r="D1348" s="7" t="s">
+      <c r="D1348" s="1" t="s">
         <v>4475</v>
       </c>
-      <c r="E1348" s="9" t="s">
+      <c r="E1348" s="1" t="s">
         <v>6071</v>
       </c>
-      <c r="F1348" s="7" t="s">
+      <c r="F1348" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1348" s="7" t="s">
+      <c r="G1348" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1348" s="0" t="n">
+      <c r="H1348" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1349" s="0" t="s">
+      <c r="A1349" s="4" t="s">
         <v>6072</v>
       </c>
-      <c r="B1349" s="0" t="s">
+      <c r="B1349" s="4" t="s">
         <v>3867</v>
       </c>
-      <c r="C1349" s="0" t="s">
+      <c r="C1349" s="4" t="s">
         <v>6073</v>
       </c>
-      <c r="D1349" s="0" t="s">
+      <c r="D1349" s="4" t="s">
         <v>6074</v>
       </c>
-      <c r="E1349" s="0" t="s">
+      <c r="E1349" s="4" t="s">
         <v>6075</v>
       </c>
-      <c r="F1349" s="7" t="s">
+      <c r="F1349" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="G1349" s="7" t="s">
+      <c r="G1349" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1349" s="0" t="n">
+      <c r="H1349" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1350" customFormat="false" ht="79.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1350" s="8" t="s">
+      <c r="A1350" s="5" t="s">
         <v>6076</v>
       </c>
-      <c r="B1350" s="9" t="s">
+      <c r="B1350" s="1" t="s">
         <v>6077</v>
       </c>
-      <c r="C1350" s="9" t="s">
+      <c r="C1350" s="1" t="s">
         <v>6078</v>
       </c>
-      <c r="D1350" s="9" t="s">
+      <c r="D1350" s="1" t="s">
         <v>6079</v>
       </c>
-      <c r="E1350" s="9" t="s">
+      <c r="E1350" s="1" t="s">
         <v>6080</v>
       </c>
-      <c r="F1350" s="9" t="s">
+      <c r="F1350" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1350" s="7" t="s">
+      <c r="G1350" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1350" s="0" t="n">
+      <c r="H1350" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1351" s="0" t="s">
+      <c r="A1351" s="4" t="s">
         <v>6081</v>
       </c>
-      <c r="B1351" s="0" t="s">
+      <c r="B1351" s="4" t="s">
         <v>6082</v>
       </c>
-      <c r="C1351" s="0" t="s">
+      <c r="C1351" s="4" t="s">
         <v>6083</v>
       </c>
-      <c r="D1351" s="0" t="s">
+      <c r="D1351" s="4" t="s">
         <v>6084</v>
       </c>
-      <c r="E1351" s="0" t="s">
+      <c r="E1351" s="4" t="s">
         <v>6085</v>
       </c>
-      <c r="F1351" s="7" t="s">
+      <c r="F1351" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1351" s="7" t="s">
+      <c r="G1351" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1351" s="0" t="n">
+      <c r="H1351" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1352" s="0" t="s">
+      <c r="A1352" s="4" t="s">
         <v>6086</v>
       </c>
-      <c r="B1352" s="0" t="s">
+      <c r="B1352" s="4" t="s">
         <v>6087</v>
       </c>
-      <c r="C1352" s="0" t="s">
+      <c r="C1352" s="4" t="s">
         <v>6088</v>
       </c>
-      <c r="D1352" s="0" t="s">
+      <c r="D1352" s="4" t="s">
         <v>6089</v>
       </c>
-      <c r="E1352" s="0" t="s">
+      <c r="E1352" s="4" t="s">
         <v>6090</v>
       </c>
-      <c r="F1352" s="7" t="s">
+      <c r="F1352" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1352" s="7" t="s">
+      <c r="G1352" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1352" s="0" t="n">
+      <c r="H1352" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1353" s="0" t="s">
+      <c r="A1353" s="4" t="s">
         <v>6091</v>
       </c>
-      <c r="B1353" s="0" t="s">
+      <c r="B1353" s="4" t="s">
         <v>6092</v>
       </c>
-      <c r="C1353" s="0" t="s">
+      <c r="C1353" s="4" t="s">
         <v>6093</v>
       </c>
-      <c r="D1353" s="0" t="s">
+      <c r="D1353" s="4" t="s">
         <v>6094</v>
       </c>
-      <c r="E1353" s="0" t="s">
+      <c r="E1353" s="4" t="s">
         <v>4261</v>
       </c>
-      <c r="F1353" s="7" t="s">
+      <c r="F1353" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1353" s="7" t="s">
+      <c r="G1353" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1353" s="0" t="n">
+      <c r="H1353" s="4" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="1354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1354" s="0" t="s">
+      <c r="A1354" s="4" t="s">
         <v>6095</v>
       </c>
-      <c r="B1354" s="0" t="s">
+      <c r="B1354" s="4" t="s">
         <v>6096</v>
       </c>
-      <c r="C1354" s="0" t="s">
+      <c r="C1354" s="4" t="s">
         <v>2424</v>
       </c>
-      <c r="D1354" s="0" t="s">
+      <c r="D1354" s="4" t="s">
         <v>6097</v>
       </c>
-      <c r="E1354" s="0" t="s">
+      <c r="E1354" s="4" t="s">
         <v>6098</v>
       </c>
-      <c r="F1354" s="7" t="s">
+      <c r="F1354" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1354" s="7" t="s">
+      <c r="G1354" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1354" s="0" t="n">
+      <c r="H1354" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1355" s="0" t="s">
+      <c r="A1355" s="4" t="s">
         <v>6099</v>
       </c>
-      <c r="B1355" s="0" t="s">
+      <c r="B1355" s="4" t="s">
         <v>6100</v>
       </c>
-      <c r="C1355" s="0" t="s">
+      <c r="C1355" s="4" t="s">
         <v>6101</v>
       </c>
-      <c r="D1355" s="0" t="s">
+      <c r="D1355" s="4" t="s">
         <v>6102</v>
       </c>
-      <c r="E1355" s="0" t="s">
+      <c r="E1355" s="4" t="s">
         <v>6103</v>
       </c>
-      <c r="F1355" s="7" t="s">
+      <c r="F1355" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1355" s="7" t="s">
+      <c r="G1355" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1355" s="0" t="n">
+      <c r="H1355" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="1356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1356" s="0" t="s">
+      <c r="A1356" s="4" t="s">
         <v>6104</v>
       </c>
-      <c r="B1356" s="0" t="s">
+      <c r="B1356" s="4" t="s">
         <v>4557</v>
       </c>
-      <c r="C1356" s="0" t="s">
+      <c r="C1356" s="4" t="s">
         <v>6105</v>
       </c>
-      <c r="D1356" s="0" t="s">
+      <c r="D1356" s="4" t="s">
         <v>6106</v>
       </c>
-      <c r="E1356" s="0" t="s">
+      <c r="E1356" s="4" t="s">
         <v>6107</v>
       </c>
-      <c r="F1356" s="7" t="s">
+      <c r="F1356" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1356" s="7" t="s">
+      <c r="G1356" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1356" s="0" t="n">
+      <c r="H1356" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="1357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1357" s="0" t="s">
+      <c r="A1357" s="4" t="s">
         <v>6108</v>
       </c>
-      <c r="B1357" s="0" t="s">
+      <c r="B1357" s="4" t="s">
         <v>6109</v>
       </c>
-      <c r="C1357" s="0" t="s">
+      <c r="C1357" s="4" t="s">
         <v>6110</v>
       </c>
-      <c r="D1357" s="0" t="s">
+      <c r="D1357" s="4" t="s">
         <v>6111</v>
       </c>
-      <c r="E1357" s="0" t="s">
+      <c r="E1357" s="4" t="s">
         <v>6112</v>
       </c>
-      <c r="F1357" s="7" t="s">
+      <c r="F1357" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1357" s="7" t="s">
+      <c r="G1357" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1357" s="0" t="n">
+      <c r="H1357" s="4" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="1358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1358" s="0" t="s">
+      <c r="A1358" s="4" t="s">
         <v>6113</v>
       </c>
-      <c r="B1358" s="0" t="s">
+      <c r="B1358" s="4" t="s">
         <v>6114</v>
       </c>
-      <c r="C1358" s="0" t="s">
+      <c r="C1358" s="4" t="s">
         <v>6115</v>
       </c>
-      <c r="D1358" s="0" t="s">
+      <c r="D1358" s="4" t="s">
         <v>6116</v>
       </c>
-      <c r="E1358" s="0" t="s">
+      <c r="E1358" s="4" t="s">
         <v>6117</v>
       </c>
-      <c r="F1358" s="7" t="s">
+      <c r="F1358" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1358" s="7" t="s">
+      <c r="G1358" s="1" t="s">
         <v>5389</v>
       </c>
-      <c r="H1358" s="0" t="n">
+      <c r="H1358" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="0" t="s">
+        <v>6118</v>
+      </c>
+      <c r="B1359" s="0" t="s">
+        <v>6119</v>
+      </c>
+      <c r="C1359" s="0" t="s">
+        <v>6120</v>
+      </c>
+      <c r="D1359" s="0" t="s">
+        <v>6121</v>
+      </c>
+      <c r="E1359" s="0" t="s">
+        <v>6122</v>
+      </c>
+      <c r="F1359" s="0" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1359" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1360" s="0" t="s">
+        <v>6125</v>
+      </c>
+      <c r="B1360" s="0" t="s">
+        <v>6126</v>
+      </c>
+      <c r="C1360" s="0" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D1360" s="0" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E1360" s="0" t="s">
+        <v>6129</v>
+      </c>
+      <c r="F1360" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1360" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="0" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B1361" s="0" t="s">
+        <v>6131</v>
+      </c>
+      <c r="C1361" s="0" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D1361" s="0" t="s">
+        <v>6133</v>
+      </c>
+      <c r="E1361" s="0" t="s">
+        <v>6134</v>
+      </c>
+      <c r="F1361" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1361" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="7" t="s">
+        <v>6135</v>
+      </c>
+      <c r="B1362" s="8" t="s">
+        <v>6136</v>
+      </c>
+      <c r="C1362" s="8" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D1362" s="8" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E1362" s="8" t="s">
+        <v>6139</v>
+      </c>
+      <c r="F1362" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1362" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="0" t="s">
+        <v>6140</v>
+      </c>
+      <c r="B1363" s="0" t="s">
+        <v>6141</v>
+      </c>
+      <c r="C1363" s="0" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D1363" s="0" t="s">
+        <v>6143</v>
+      </c>
+      <c r="E1363" s="0" t="s">
+        <v>6144</v>
+      </c>
+      <c r="F1363" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1363" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="0" t="s">
+        <v>6145</v>
+      </c>
+      <c r="B1364" s="0" t="s">
+        <v>6146</v>
+      </c>
+      <c r="C1364" s="0" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D1364" s="0" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E1364" s="0" t="s">
+        <v>6149</v>
+      </c>
+      <c r="F1364" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1364" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="0" t="s">
+        <v>6150</v>
+      </c>
+      <c r="B1365" s="0" t="s">
+        <v>5881</v>
+      </c>
+      <c r="C1365" s="0" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D1365" s="0" t="s">
+        <v>5642</v>
+      </c>
+      <c r="E1365" s="0" t="s">
+        <v>6152</v>
+      </c>
+      <c r="F1365" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1365" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1366" s="0" t="s">
+        <v>6153</v>
+      </c>
+      <c r="B1366" s="0" t="s">
+        <v>6154</v>
+      </c>
+      <c r="C1366" s="0" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D1366" s="0" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E1366" s="0" t="s">
+        <v>6157</v>
+      </c>
+      <c r="F1366" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1366" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="9" t="s">
+        <v>6158</v>
+      </c>
+      <c r="B1367" s="8" t="s">
+        <v>6159</v>
+      </c>
+      <c r="C1367" s="8" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D1367" s="8" t="s">
+        <v>6161</v>
+      </c>
+      <c r="E1367" s="8" t="s">
+        <v>6162</v>
+      </c>
+      <c r="F1367" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1367" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="9" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B1368" s="8" t="s">
+        <v>6164</v>
+      </c>
+      <c r="C1368" s="8" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D1368" s="8" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E1368" s="8" t="s">
+        <v>6167</v>
+      </c>
+      <c r="F1368" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1368" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="0" t="s">
+        <v>6168</v>
+      </c>
+      <c r="B1369" s="0" t="s">
+        <v>6169</v>
+      </c>
+      <c r="C1369" s="0" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D1369" s="0" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E1369" s="0" t="s">
+        <v>6172</v>
+      </c>
+      <c r="F1369" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1369" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="0" t="s">
+        <v>6173</v>
+      </c>
+      <c r="B1370" s="0" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C1370" s="0" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D1370" s="0" t="s">
+        <v>6176</v>
+      </c>
+      <c r="E1370" s="0" t="s">
+        <v>6177</v>
+      </c>
+      <c r="F1370" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1370" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="9" t="s">
+        <v>6178</v>
+      </c>
+      <c r="B1371" s="8" t="s">
+        <v>6179</v>
+      </c>
+      <c r="C1371" s="8" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D1371" s="8" t="s">
+        <v>6167</v>
+      </c>
+      <c r="E1371" s="8" t="s">
+        <v>6180</v>
+      </c>
+      <c r="F1371" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1371" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="9" t="s">
+        <v>6181</v>
+      </c>
+      <c r="B1372" s="8" t="s">
+        <v>6182</v>
+      </c>
+      <c r="C1372" s="8" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D1372" s="8" t="s">
+        <v>6184</v>
+      </c>
+      <c r="E1372" s="8" t="s">
+        <v>6185</v>
+      </c>
+      <c r="F1372" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1372" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="9" t="s">
+        <v>6186</v>
+      </c>
+      <c r="B1373" s="8" t="s">
+        <v>6187</v>
+      </c>
+      <c r="C1373" s="8" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D1373" s="8" t="s">
+        <v>6189</v>
+      </c>
+      <c r="E1373" s="8" t="s">
+        <v>6190</v>
+      </c>
+      <c r="F1373" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1373" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="0" t="s">
+        <v>6191</v>
+      </c>
+      <c r="B1374" s="0" t="s">
+        <v>6192</v>
+      </c>
+      <c r="C1374" s="0" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D1374" s="0" t="s">
+        <v>6194</v>
+      </c>
+      <c r="E1374" s="0" t="s">
+        <v>6195</v>
+      </c>
+      <c r="F1374" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1374" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="0" t="s">
+        <v>6196</v>
+      </c>
+      <c r="B1375" s="0" t="s">
+        <v>6197</v>
+      </c>
+      <c r="C1375" s="0" t="s">
+        <v>6198</v>
+      </c>
+      <c r="D1375" s="0" t="s">
+        <v>6199</v>
+      </c>
+      <c r="E1375" s="0" t="s">
+        <v>6200</v>
+      </c>
+      <c r="F1375" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1375" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="0" t="s">
+        <v>6201</v>
+      </c>
+      <c r="B1376" s="0" t="s">
+        <v>6202</v>
+      </c>
+      <c r="C1376" s="0" t="s">
+        <v>6203</v>
+      </c>
+      <c r="D1376" s="0" t="s">
+        <v>6204</v>
+      </c>
+      <c r="E1376" s="0" t="s">
+        <v>6205</v>
+      </c>
+      <c r="F1376" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1376" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="0" t="s">
+        <v>6206</v>
+      </c>
+      <c r="B1377" s="0" t="s">
+        <v>6207</v>
+      </c>
+      <c r="C1377" s="0" t="s">
+        <v>6208</v>
+      </c>
+      <c r="D1377" s="0" t="s">
+        <v>6209</v>
+      </c>
+      <c r="E1377" s="0" t="s">
+        <v>6210</v>
+      </c>
+      <c r="F1377" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1377" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="0" t="s">
+        <v>6211</v>
+      </c>
+      <c r="B1378" s="0" t="s">
+        <v>6212</v>
+      </c>
+      <c r="C1378" s="0" t="s">
+        <v>6213</v>
+      </c>
+      <c r="D1378" s="0" t="s">
+        <v>6214</v>
+      </c>
+      <c r="E1378" s="0" t="s">
+        <v>6215</v>
+      </c>
+      <c r="F1378" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1378" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="0" t="s">
+        <v>6216</v>
+      </c>
+      <c r="B1379" s="0" t="s">
+        <v>6217</v>
+      </c>
+      <c r="C1379" s="0" t="s">
+        <v>6218</v>
+      </c>
+      <c r="D1379" s="0" t="s">
+        <v>6219</v>
+      </c>
+      <c r="E1379" s="0" t="s">
+        <v>6220</v>
+      </c>
+      <c r="F1379" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1379" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="9" t="s">
+        <v>6221</v>
+      </c>
+      <c r="B1380" s="8" t="s">
+        <v>6222</v>
+      </c>
+      <c r="C1380" s="8" t="s">
+        <v>6223</v>
+      </c>
+      <c r="D1380" s="8" t="s">
+        <v>6224</v>
+      </c>
+      <c r="E1380" s="8" t="s">
+        <v>6225</v>
+      </c>
+      <c r="F1380" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1380" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="0" t="s">
+        <v>6226</v>
+      </c>
+      <c r="B1381" s="0" t="s">
+        <v>6227</v>
+      </c>
+      <c r="C1381" s="0" t="s">
+        <v>6228</v>
+      </c>
+      <c r="D1381" s="0" t="s">
+        <v>6229</v>
+      </c>
+      <c r="E1381" s="0" t="s">
+        <v>6230</v>
+      </c>
+      <c r="F1381" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1381" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="0" t="s">
+        <v>6231</v>
+      </c>
+      <c r="B1382" s="0" t="s">
+        <v>6232</v>
+      </c>
+      <c r="C1382" s="0" t="s">
+        <v>6233</v>
+      </c>
+      <c r="D1382" s="0" t="s">
+        <v>6234</v>
+      </c>
+      <c r="E1382" s="0" t="s">
+        <v>6235</v>
+      </c>
+      <c r="F1382" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1382" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="0" t="s">
+        <v>6236</v>
+      </c>
+      <c r="B1383" s="0" t="s">
+        <v>6237</v>
+      </c>
+      <c r="C1383" s="0" t="s">
+        <v>6238</v>
+      </c>
+      <c r="D1383" s="0" t="s">
+        <v>6239</v>
+      </c>
+      <c r="E1383" s="0" t="s">
+        <v>6240</v>
+      </c>
+      <c r="F1383" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1383" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="0" t="s">
+        <v>6241</v>
+      </c>
+      <c r="B1384" s="0" t="s">
+        <v>6242</v>
+      </c>
+      <c r="C1384" s="0" t="s">
+        <v>6243</v>
+      </c>
+      <c r="D1384" s="0" t="s">
+        <v>6244</v>
+      </c>
+      <c r="E1384" s="0" t="s">
+        <v>6245</v>
+      </c>
+      <c r="F1384" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1384" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="0" t="s">
+        <v>6246</v>
+      </c>
+      <c r="B1385" s="0" t="s">
+        <v>6247</v>
+      </c>
+      <c r="C1385" s="0" t="s">
+        <v>6248</v>
+      </c>
+      <c r="D1385" s="0" t="s">
+        <v>6249</v>
+      </c>
+      <c r="E1385" s="0" t="s">
+        <v>6250</v>
+      </c>
+      <c r="F1385" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1385" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="0" t="s">
+        <v>6251</v>
+      </c>
+      <c r="B1386" s="0" t="s">
+        <v>6252</v>
+      </c>
+      <c r="C1386" s="0" t="s">
+        <v>6253</v>
+      </c>
+      <c r="D1386" s="0" t="s">
+        <v>6254</v>
+      </c>
+      <c r="E1386" s="0" t="s">
+        <v>6255</v>
+      </c>
+      <c r="F1386" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1386" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="0" t="s">
+        <v>6256</v>
+      </c>
+      <c r="B1387" s="0" t="s">
+        <v>6257</v>
+      </c>
+      <c r="C1387" s="0" t="s">
+        <v>6258</v>
+      </c>
+      <c r="D1387" s="0" t="s">
+        <v>6259</v>
+      </c>
+      <c r="E1387" s="0" t="s">
+        <v>6260</v>
+      </c>
+      <c r="F1387" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1387" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="0" t="s">
+        <v>6261</v>
+      </c>
+      <c r="B1388" s="0" t="s">
+        <v>6262</v>
+      </c>
+      <c r="C1388" s="0" t="s">
+        <v>6263</v>
+      </c>
+      <c r="D1388" s="0" t="s">
+        <v>6264</v>
+      </c>
+      <c r="E1388" s="0" t="s">
+        <v>6265</v>
+      </c>
+      <c r="F1388" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1388" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="0" t="s">
+        <v>6266</v>
+      </c>
+      <c r="B1389" s="0" t="s">
+        <v>6267</v>
+      </c>
+      <c r="C1389" s="0" t="s">
+        <v>6268</v>
+      </c>
+      <c r="D1389" s="0" t="s">
+        <v>6269</v>
+      </c>
+      <c r="E1389" s="0" t="s">
+        <v>6270</v>
+      </c>
+      <c r="F1389" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1389" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="7" t="s">
+        <v>6271</v>
+      </c>
+      <c r="B1390" s="7" t="s">
+        <v>6272</v>
+      </c>
+      <c r="C1390" s="7" t="s">
+        <v>6273</v>
+      </c>
+      <c r="D1390" s="7" t="s">
+        <v>6274</v>
+      </c>
+      <c r="E1390" s="8" t="s">
+        <v>6275</v>
+      </c>
+      <c r="F1390" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1390" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="0" t="s">
+        <v>6276</v>
+      </c>
+      <c r="B1391" s="0" t="s">
+        <v>6277</v>
+      </c>
+      <c r="C1391" s="0" t="s">
+        <v>6278</v>
+      </c>
+      <c r="D1391" s="0" t="s">
+        <v>6279</v>
+      </c>
+      <c r="E1391" s="0" t="s">
+        <v>6280</v>
+      </c>
+      <c r="F1391" s="7" t="s">
+        <v>6123</v>
+      </c>
+      <c r="G1391" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="0" t="s">
+        <v>6281</v>
+      </c>
+      <c r="B1392" s="0" t="s">
+        <v>6282</v>
+      </c>
+      <c r="C1392" s="0" t="s">
+        <v>6283</v>
+      </c>
+      <c r="D1392" s="0" t="s">
+        <v>6284</v>
+      </c>
+      <c r="E1392" s="0" t="s">
+        <v>6285</v>
+      </c>
+      <c r="F1392" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1392" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="0" t="s">
+        <v>6286</v>
+      </c>
+      <c r="B1393" s="0" t="s">
+        <v>6287</v>
+      </c>
+      <c r="C1393" s="0" t="s">
+        <v>6288</v>
+      </c>
+      <c r="D1393" s="0" t="s">
+        <v>6289</v>
+      </c>
+      <c r="E1393" s="0" t="s">
+        <v>6290</v>
+      </c>
+      <c r="F1393" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1393" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="10" t="s">
+        <v>6291</v>
+      </c>
+      <c r="B1394" s="7" t="s">
+        <v>6292</v>
+      </c>
+      <c r="C1394" s="7" t="s">
+        <v>6293</v>
+      </c>
+      <c r="D1394" s="7" t="s">
+        <v>6294</v>
+      </c>
+      <c r="E1394" s="8" t="s">
+        <v>6295</v>
+      </c>
+      <c r="F1394" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1394" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="0" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B1395" s="0" t="s">
+        <v>6297</v>
+      </c>
+      <c r="C1395" s="0" t="s">
+        <v>6298</v>
+      </c>
+      <c r="D1395" s="0" t="s">
+        <v>6299</v>
+      </c>
+      <c r="E1395" s="0" t="s">
+        <v>6300</v>
+      </c>
+      <c r="F1395" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1395" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="9" t="s">
+        <v>6301</v>
+      </c>
+      <c r="B1396" s="8" t="s">
+        <v>6302</v>
+      </c>
+      <c r="C1396" s="8" t="s">
+        <v>6303</v>
+      </c>
+      <c r="D1396" s="8" t="s">
+        <v>6304</v>
+      </c>
+      <c r="E1396" s="8" t="s">
+        <v>6305</v>
+      </c>
+      <c r="F1396" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1396" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="0" t="s">
+        <v>6306</v>
+      </c>
+      <c r="B1397" s="0" t="s">
+        <v>6307</v>
+      </c>
+      <c r="C1397" s="0" t="s">
+        <v>6308</v>
+      </c>
+      <c r="D1397" s="0" t="s">
+        <v>6309</v>
+      </c>
+      <c r="E1397" s="0" t="s">
+        <v>6310</v>
+      </c>
+      <c r="F1397" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1397" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="0" t="s">
+        <v>6311</v>
+      </c>
+      <c r="B1398" s="0" t="s">
+        <v>6312</v>
+      </c>
+      <c r="C1398" s="0" t="s">
+        <v>6313</v>
+      </c>
+      <c r="D1398" s="0" t="s">
+        <v>6314</v>
+      </c>
+      <c r="E1398" s="0" t="s">
+        <v>6315</v>
+      </c>
+      <c r="F1398" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1398" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="0" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B1399" s="11" t="s">
+        <v>6317</v>
+      </c>
+      <c r="C1399" s="11" t="s">
+        <v>6318</v>
+      </c>
+      <c r="D1399" s="11" t="s">
+        <v>6319</v>
+      </c>
+      <c r="E1399" s="11" t="s">
+        <v>6320</v>
+      </c>
+      <c r="F1399" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1399" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="0" t="s">
+        <v>6321</v>
+      </c>
+      <c r="B1400" s="0" t="s">
+        <v>6322</v>
+      </c>
+      <c r="C1400" s="0" t="s">
+        <v>6323</v>
+      </c>
+      <c r="D1400" s="0" t="s">
+        <v>6324</v>
+      </c>
+      <c r="E1400" s="0" t="s">
+        <v>6325</v>
+      </c>
+      <c r="F1400" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1400" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="9" t="s">
+        <v>6326</v>
+      </c>
+      <c r="B1401" s="8" t="s">
+        <v>6327</v>
+      </c>
+      <c r="C1401" s="8" t="s">
+        <v>6328</v>
+      </c>
+      <c r="D1401" s="8" t="s">
+        <v>6329</v>
+      </c>
+      <c r="E1401" s="8" t="s">
+        <v>6330</v>
+      </c>
+      <c r="F1401" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1401" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="9" t="s">
+        <v>6331</v>
+      </c>
+      <c r="B1402" s="8" t="s">
+        <v>6332</v>
+      </c>
+      <c r="C1402" s="8" t="s">
+        <v>6333</v>
+      </c>
+      <c r="D1402" s="8" t="s">
+        <v>6334</v>
+      </c>
+      <c r="E1402" s="8" t="s">
+        <v>6335</v>
+      </c>
+      <c r="F1402" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1402" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="9" t="s">
+        <v>6336</v>
+      </c>
+      <c r="B1403" s="8" t="s">
+        <v>6337</v>
+      </c>
+      <c r="C1403" s="8" t="s">
+        <v>6338</v>
+      </c>
+      <c r="D1403" s="8" t="s">
+        <v>6339</v>
+      </c>
+      <c r="E1403" s="8" t="s">
+        <v>6340</v>
+      </c>
+      <c r="F1403" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1403" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="0" t="s">
+        <v>6341</v>
+      </c>
+      <c r="B1404" s="0" t="s">
+        <v>6342</v>
+      </c>
+      <c r="C1404" s="0" t="s">
+        <v>6343</v>
+      </c>
+      <c r="D1404" s="0" t="s">
+        <v>6344</v>
+      </c>
+      <c r="E1404" s="0" t="s">
+        <v>6345</v>
+      </c>
+      <c r="F1404" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1404" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1405" s="0" t="s">
+        <v>6346</v>
+      </c>
+      <c r="B1405" s="0" t="s">
+        <v>6347</v>
+      </c>
+      <c r="C1405" s="0" t="s">
+        <v>6348</v>
+      </c>
+      <c r="D1405" s="0" t="s">
+        <v>6349</v>
+      </c>
+      <c r="E1405" s="0" t="s">
+        <v>6350</v>
+      </c>
+      <c r="F1405" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1405" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1406" s="9" t="s">
+        <v>6351</v>
+      </c>
+      <c r="B1406" s="8" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C1406" s="8" t="s">
+        <v>6352</v>
+      </c>
+      <c r="D1406" s="8" t="s">
+        <v>6353</v>
+      </c>
+      <c r="E1406" s="8" t="s">
+        <v>6254</v>
+      </c>
+      <c r="F1406" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1406" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1407" s="0" t="s">
+        <v>6354</v>
+      </c>
+      <c r="B1407" s="0" t="s">
+        <v>6355</v>
+      </c>
+      <c r="C1407" s="0" t="s">
+        <v>6356</v>
+      </c>
+      <c r="D1407" s="0" t="s">
+        <v>6357</v>
+      </c>
+      <c r="E1407" s="0" t="s">
+        <v>6358</v>
+      </c>
+      <c r="F1407" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1407" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1408" s="0" t="s">
+        <v>6359</v>
+      </c>
+      <c r="B1408" s="0" t="s">
+        <v>6360</v>
+      </c>
+      <c r="C1408" s="0" t="s">
+        <v>6361</v>
+      </c>
+      <c r="D1408" s="0" t="s">
+        <v>6362</v>
+      </c>
+      <c r="E1408" s="0" t="s">
+        <v>6322</v>
+      </c>
+      <c r="F1408" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1408" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1409" s="0" t="s">
+        <v>6363</v>
+      </c>
+      <c r="B1409" s="0" t="s">
+        <v>6364</v>
+      </c>
+      <c r="C1409" s="0" t="s">
+        <v>6365</v>
+      </c>
+      <c r="D1409" s="0" t="s">
+        <v>6366</v>
+      </c>
+      <c r="E1409" s="0" t="s">
+        <v>6367</v>
+      </c>
+      <c r="F1409" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1409" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1410" s="9" t="s">
+        <v>6368</v>
+      </c>
+      <c r="B1410" s="8" t="s">
+        <v>6369</v>
+      </c>
+      <c r="C1410" s="8" t="s">
+        <v>6370</v>
+      </c>
+      <c r="D1410" s="8" t="s">
+        <v>6371</v>
+      </c>
+      <c r="E1410" s="8" t="s">
+        <v>6372</v>
+      </c>
+      <c r="F1410" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1410" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1411" s="9" t="s">
+        <v>6373</v>
+      </c>
+      <c r="B1411" s="8" t="s">
+        <v>6374</v>
+      </c>
+      <c r="C1411" s="8" t="s">
+        <v>6375</v>
+      </c>
+      <c r="D1411" s="8" t="s">
+        <v>6376</v>
+      </c>
+      <c r="E1411" s="8" t="s">
+        <v>6377</v>
+      </c>
+      <c r="F1411" s="8" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1411" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1412" s="9" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B1412" s="8" t="s">
+        <v>6380</v>
+      </c>
+      <c r="C1412" s="8" t="s">
+        <v>6381</v>
+      </c>
+      <c r="D1412" s="8" t="s">
+        <v>6382</v>
+      </c>
+      <c r="E1412" s="8" t="s">
+        <v>6383</v>
+      </c>
+      <c r="F1412" s="7" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1412" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1413" s="9" t="s">
+        <v>6384</v>
+      </c>
+      <c r="B1413" s="8" t="s">
+        <v>6385</v>
+      </c>
+      <c r="C1413" s="8" t="s">
+        <v>6386</v>
+      </c>
+      <c r="D1413" s="8" t="s">
+        <v>6387</v>
+      </c>
+      <c r="E1413" s="9" t="s">
+        <v>6388</v>
+      </c>
+      <c r="F1413" s="7" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1413" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1414" s="9" t="s">
+        <v>6389</v>
+      </c>
+      <c r="B1414" s="8" t="s">
+        <v>6390</v>
+      </c>
+      <c r="C1414" s="8" t="s">
+        <v>6391</v>
+      </c>
+      <c r="D1414" s="8" t="s">
+        <v>6392</v>
+      </c>
+      <c r="E1414" s="8" t="s">
+        <v>6393</v>
+      </c>
+      <c r="F1414" s="7" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1414" s="7" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1415" s="9" t="s">
+        <v>6394</v>
+      </c>
+      <c r="B1415" s="8" t="s">
+        <v>6395</v>
+      </c>
+      <c r="C1415" s="8" t="s">
+        <v>6396</v>
+      </c>
+      <c r="D1415" s="8" t="s">
+        <v>6397</v>
+      </c>
+      <c r="E1415" s="8" t="s">
+        <v>6398</v>
+      </c>
+      <c r="F1415" s="7" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1415" s="7" t="s">
+        <v>6124</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9835" uniqueCount="6399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10597" uniqueCount="6940">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -21746,6 +21746,1658 @@
   <si>
     <t xml:space="preserve">‫تولید‬‫ اگزوتوکسین‬</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">‫کدام‬ ‫آنتی‬ ‫بیوتیک‬ ‫در‬ ‫درمان‬ ‫عفونت‬ ‫ناشی‬ ‫از‬ ‫استافیلوکوک‬ ‫اورئوس‬ ‫مقاوم‬ ‫به‬ ‫متی‬ ‫سیلین‬  ‫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(‪(MRSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">‬‬ ‫موثر است؟‬</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پنی‬ ‫سیلین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫وانکومایسین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سفتریاکسون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مروپنم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تمام‬ ‫باکتری‬ ‫های‬ ‫ذیل‬ ‫قادر‬ ‫به‬ ‫ایجاد‬ ‫مسمومیت‬ ‫غذایی‬
+(‬‫‪intoxication‬‬‫‪ food‬‬)‬‫ هستند‪،‬‬ ‫به‬ ‫جز‬ ‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫باسیلوس‬ ‫سرئوس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آنتروکوکوس‬‫ فکالیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استافیلوکوکوس‬‫ اورئوس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کلستریدیوم‬‫ پرفرینژنس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫" ‫سمیت‬‫ کلیوی‬ ‫‪nephrotoxicity‬‬‫‬‫"‬‫ از‬ ‫عوارض‬ ‫مصرف‬ ‫کدام‬ ‫آنتی‬ ‫بیوتیک‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سفوکسیتین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کلیندامایسین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کولیستین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افتراق‬ ‫سویه‬ ‫های‬ ‫یک‬ ‫گونه‬ ‫باکتری‬ ‫بر‬ ‫اساس‬ ‫خصوصیات‬ ‫آنتی‬ ‫ژنیک‪،‬‬ ‫به‬ ‫کدام‬ ‫روش‬ ‫ذیل‬ ‫انجام‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سروتایپینگ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بیوتایپینگ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ژنوتایپینگ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ریبوتایپینگ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سروتایپ ‫‪b‬‬ ‫هموفیلوس‬ ‫انفلوانزا‬ (‫‪(Hib‬‬‫ قادر‬ ‫به‬ ‫ایجاد‬ ‫تمام‬ ‫بیماری‬ ‫های‬ ‫ذیل‬ ‫است‪،‬‬ ‫به‬ ‫جز‬:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لارنژیت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فارنژیت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آرتریت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مننژیت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫بیماری‬ ‫های‬ ‫عفونی‬ ‫ذکر‬ ‫شده‬ ‫توسط‬ ‫باکتری‬ ‫پسودوموناس‬ ‫آئروژینوزا‬ ‫ایجاد‬ ‫می‬ ‫شوند‪ ،به‬ ‫جز‪:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اسهال‬ ‫خونی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اکتیماگانگرونوزوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عفونت‬‫ بدخیم‬ ‫گوش‬ ‫خارجی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عفونت‬‫ زخم‬ ‫سوختگی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫افراد‬ ‫زیر‬ ‫مستعد‬ ‫ابتلا‬ ‫به‬ ‫عفونت‬ ‫استرپتوکوکوس‬ ‫پنومونیه‬ ‫بوده‬ ‫و‬ ‫کاندید‬ ‫واکسیناسیون‬ هستند‪ ‫ به‬ ‫جز‪:‬‬ ‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افراد‬ ‫طحال‬ ‫برداری‬ ‫شده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افراد‬‫ مسن‬ ‫بالای‬ شصت و پنج ‫سال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کودکان زیر دو سال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خانم‬‫ های‬ ‫باردار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫راه‬ ‫انتقال‬ ‫بیماری‬ ‫لپتوسپیروز‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫گزینه‬ ‫های‬ ‫زیر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خوردن‬ ‫آب‬ ‫آلوده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قطرات‬‫ تنفسی‬ ‫آلوده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تماس‬‫ جنسی‬ ‫با‬ ‫فرد‬ ‫آلوده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گزش‬‫ بند‬ ‫پایان‬ ‫آلوده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬‫ گزینه‬ ‫صحیح‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بیماری‬ ‫طاعون‬ ‫از‬ ‫طریق‬ ‫گزش‬ ‫کنه‬ آلوده‬ ‫منتقل‬ ‫می‬ ‫شود‬ ‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیفوئید‬‫ به‬ ‫دنبال‬ ‫مصرف‬ ‫تخم‬ ‫مرغ‬ ‫آلوده‬ ‫منتقل‬ ‫می‬ ‫شود‬‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪ETEC‬‬‫ از‬ ‫طریق‬ ‫آب‬ ‫و‬ ‫غذای‬ ‫آلوده‬ ‫منتقل‬ ‫می‬ ‫شود‬‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شیگلوز‬‫از‬ ‫طریق‬ ‫گزش‬ ‫پشه‬ ‫نیز‬ ‫منتقل‬ ‫می‬ ‫شود‬ ‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫باکتری‬ ‫های‬ ‫زیر‬ ‫از‬ ‫طریق‬ ‫تماس‬ ‫با‬ ‫آب‬ ‫آلوده‬ ‫باعث‬ ‫ایجاد‬ ‫عفونت‬ ‫جلدی‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ویبریو‬ ‫ولنفیکوس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پلزیوموناس‬‫ شیگلوئیدس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بورلیا‬‫ بورگدورفری‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کالمیدیا‬‫ پسیتاسی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لارو‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫کرم‬ ‫های‬ ‫زیر‬ ‫می‬ ‫تواند‬ ‫عارضه‬ ‫چشمی‬ ‫ایجاد‬ ‫کند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دیکروسیلیوم‬ ‫دندریتیکوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫توکسوکارا‬‫ کنیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آسکاریس‬‫ لومبریکویدس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نکاتور‬‫ امریکانوس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقص سیستم ایمنی در تشدید عفونت کدام یک از بیماری های کرمی زیر نقش دارد؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استرونژیلویدیازیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آسکاریازیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هیداتیدوزیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فاسیولیازیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫سیر‬ ‫تکاملی‬ ‫کدام یک‬ ‫از‬ ‫ترماتودهای‬ ‫زیر‪،‬‬ ‫یک‬ ‫حشره‬ ‫نقش‬ ‫دارد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فاسیولا ‫هپاتیکا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فاسیولوپسیس‬‫ بوسکی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دیکروسیلیوم‬‫ دندریتیکوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کلونورکیس‬‫ سیننسیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫انسان‬ ‫به‬ ‫عنوان‬ ‫میزبان‬ ‫واسط‬ ‫و‬ ‫نهایی‬ ‫کدام‬ ‫سستود‬ ‫زیر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اکینوکوکوس‬ ‫گرانولوزوس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دیفیلوبوتریوم‬‫ لاتوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دیپلیدیوم‬‫ کانینوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هایمنولپیس‬‫ نانا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدامیک‬ ‫از‬ ‫انگل‬ ‫های‬ ‫زیر‬ ‫به‬ ‫علت‬ ‫استفاده‬ ‫از‬ ‫لنزهای‬ ‫تماسی‬ ‫ایجاد‬ ‫کراتیت‬ ‫می‬ ‫نماید؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acanthamoeba‬‬ ‫‪castellanii‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪Toxoplasma gondii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entamoeba‬‬ ‫‪hartmani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxocara canis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">گلبول های قرمز بزرگ دارای انگل در آلودگی به کدام گونه از پلاسمودیوم های شایع در ایران مشاهده میشود؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ویواکس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مالاریه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اواله‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فالسی‬‫ پاروم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫الکتروفورز‬ سرم بیمار مبتلا به کالاآزار مقدار آلبومین و گاما گلوبولین:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هر‬ ‫دو‬ ‫افزایش‬ ‫پیدا‬ ‫می‬ ‫کند‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هر‬‫دو‬ ‫کاهش‬ ‫پیدا‬ ‫می‬ ‫کند‬ ‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلبومین‬‫ افزایش‬ ‫و‬ ‫گاما‬ ‫گلوبولین‬ ‫کاهش‬ ‫پیدا‬ ‫می‬ ‫کند‬ ‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلبومین‬‫ کاهش‬ ‫و‬ ‫گاما‬ ‫گلوبولین‬ ‫افزایش‬ ‫پیدا‬ ‫می‬ ‫کند‬ ‫‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خطر‬ ‫انتقال‬ ‫و‬ ‫خطر‬ ‫سقط‬ ‫جنین‬ ‫در‬ ‫توکسوپالسموزیس‬ ‫به‬ ‫ترتیب‪،‬ ‫در‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫ترم‬ ‫های‬ ‫بارداری‬ ‫بیشتر‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سه‬ ‫ماهه‬ ‫اول‬ ‫‪-‬‬‫سه‬ ‫ماهه‬ ‫دوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سه‬‫ ماهه‬ ‫دوم‬ ‫‪-‬‬‫سه‬ ‫ماهه‬ ‫سوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سه‬‫ ماهه‬ ‫اول‬ ‫‪-‬‬‫سه‬ ‫ماهه‬ ‫سوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سه‬‫ ماهه‬ ‫سوم‬ ‫‪-‬‬‫سه‬ ‫ماهه‬ ‫اول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدامیک‬ ‫از‬ ‫حشرات‬ ‫زیر‪،‬‬ ‫در‬ ‫انتقال‬ ‫بیماری‬ ‫عفونی‬ ‫به‬ ‫انسان‬ ‫نقشی‬ ‫ندارد‬ ‫؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ساس‬ ‫تریاتوما‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شپش‬‫ بدن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ساس‬‫ تختخواب‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کنه‬‫ سخت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ضایعات‬ ‫پوستی‬ ‫بیماری‬ ‫گال‬ ‫در‬ ‫بزرگسالان‪،‬‬ ‫در‬ ‫کدام‬ ‫نقاط‬ ‫بدن‬ ‫شایع‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تنه‬ ‫و‬ ‫گردن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لای‬‫ انگشتان‬ ‫دست‬ ‫و‬ ‫ناحیه‬ ‫ژنیتال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫انگشتان‬‫ و‬ ‫مچ‬ ‫پا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫زانو‬‫ و‬ ‫ساق‬ ‫پا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫گزینه‬ ‫در‬ ‫مورد‬ ‫اسپوروتریکوزیس‬ ‫صحیح‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دارای تورم فیستول و درد شدید</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همراه با سینوس های متعدد گرانول و ترشحات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همراه‬‫ با‬ ‫ندول های‬ ‫متعدد‬ ‫در‬ ‫مسیر‬ ‫مجاری‬ ‫لنفاوی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تشکیل‬‫ اجسام‬ ‫اسکلروتیک‬ ‫در‬ ‫بافت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫آزمایش‬ ‫مستقیم‬ ‫از‬ ‫ضایعات‬ ‫اونیکومایکوزیس‬ ‫کاندیدایی‬ ‫کدامیک‬ ‫از‬ ‫عناصر‬ ‫قارچی‬ ‫زیر‬ ‫مشاهده‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سودومیسلیوم میسلیوم ماکروکونیدیا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سودومیسلیوم میسلیوم بلاستوکونیدیا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سودومیسلیوم آرتروکونیدیا بلاستوکونیدیا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">میسلیوم کلامیدوکونیدیا بلاستوکونیدیا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫گزینه‬ ‫های‬ ‫زیربه‬ ‫ترتیب‬ ‫درباره‬ ‫شایعترین‬ ‫عالیم‬ ‫بالینی‬ ‫کچلی‬ ‫های‬ ‫اکتوتریکس‬ ‫و‬ ‫فاووس‬ ‫صحیح‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقطه سیاه-اسکوچولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسکوچولا-نقطه سیاه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نقطه سیاه-لکه خاکستری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لکه خاکستری-اسکوچولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫آزمایش‬ ‫مستقیم‬ ‫از‬ ‫لکه‬ ‫های‬ ‫رنگی‬ ‫تنه‬ ‫بیماری‪،‬‬ ‫تجمعات‬ ‫خوشه‬ ‫ای‬ ‫از‬ ‫سلولهای‬ ‫مخمری‬ ‫کروی‬ ‫(‬ ‫بالستوکونیدیا)‬ ‫همراه‬ ‫با‬
+‫هایفهای‬‫ کوتاه‬ ‫و‬ ‫خمیده‬ ‫مشاهده‬ ‫شده‬ ‫است‪،‬‬ ‫کدام‬ ‫گزینه‬ ‫در‬ ‫مورد‬ ‫بیماری‬ ‫و‬ ‫عامل‬ ‫آن‬ ‫صحیح‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تینه‬ ‫آ‬ ‫ورسیکالر-‪ ‫مالاسزیا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تینه‬ ‫آ‬ ‫‫نیگرا‬-‪ ‫مالاسزیا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کچلی بدن-درماتوفیت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اریتراسما-کورینه باکتریوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گریزئوفولوین‬ ‫در‬ ‫درمان‬ ‫کدام‬ ‫بیماری‬ ‫زیر‬ ‫مورد‬ ‫استفاده‬ ‫قرار‬ ‫می‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تینه‬ ‫آ‬ ‫ورسیکالر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کچلی‬‫ سیاه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کچلی‬‫ سر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ترایکومایکوزیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫از‬ ‫شاخصه‬ ‫های‬ ‫سرولوژی‬ ‫هپاتیت‬ ‫‪ب  ‫ریسک‬ ‫انتقال‬ ‫را‬ ‫افزایش‬ ‫می‬ ‫دهد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪HbcAg‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪HbeAg‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪HbsAg‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪HbcAb‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فرایند‬ ‫اتصال‬ ‫ویروس HIV ‫‬‬‬‬‫بر‬ ‫اثر‬ ‫برهم‬ ‫کنش‬ ‫کدامیک‬ ‫از‬ ‫پروتئین‬ ‫های‬ ‫زیر‬ ‫اتفاق‬ ‫می‬ ‫افتد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gp4-CD21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gp41-CD155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gp120-CD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gp120-CD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شایع‬ ‫ترین‬ ‫تایپ‬ ‫های‬ ‫ویروس‬ ‫پاپیلوما‬ ‫مرتبط‬ ‫با‬ ‫خطر‬ ‫باالی‬ ‫سرطان‬ ‫سرویکس‬ ‫کدام‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫در‬ ‫گروه‬ ‫آربوویروس‬ ‫ها‬ ‫قرار‬ ‫نمی‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫روتاویروس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تب‬‫ دنگ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ویروس‬‫ نیل‬ ‫غربی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCHF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مکانیسم‬ ‫عملکرد‬ ‫داوری‬ ‫اسلتامیویر‬ ‫(‫‪Oseltamivir‬‬‫)‬‫ کدام‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مهار‬ ‫پروتئین‬ ‫‪M2‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مهار‬‫ پلیمراز‬ ‫ویروس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مهار‬‫آنزیم‬ ‫نورآمینیداز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مهار‬‫پروتئین‬ ‫سازی‬ ‫ویروس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫اپیتلیوم‬ ‫های‬ ‫زیر‬ ‫در‬ ‫نقاطی‬ ‫از‬ ‫بدن‬ ‫که‬ ‫در‬ ‫معرض‬ ‫سایش‬ ‫است‪،‬‬ ‫یافت‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪Stratified‬‬ ‫‪Squamous‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪Pseudostratified‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪Stratified‬‬ ‫‪‫‪Columnar‬‬‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪Transitional‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫سلول‬ ‫های‬ ‫اپیدرمی‬ ‫در‬ ‫سنتز‬ ‫مالنین‬ ‫نقش‬ ‫دارند‬؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کراتینوسیت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرکل‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ملانوسیت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لانگرهانس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حلقه‬ ‫فیبروزی‬ ‫(‬‫‪Fibrosus‬‬‫‪Annulus‬‬)‬‫ در‬ ‫دیسک‬ ‫بین‬ ‫مهره‬ ‫ای‬ ‫دارای‬ ‫چه‬ ‫نوع‬ ‫بافتی‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بافت‬ ‫همبند‬ ‫موکوسی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غضروف‬‫ شفاف‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بافت‬‫ همبند‬ ‫رشته‬ ‫ای‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غضروف‬‫ رشته‬ ‫ای‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫در‬ ‫کانالیکول‬ ‫های‬ ‫بافت‬ ‫استخوانی‬ ‫یافت‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫زوائد‬ ‫استئوبلاست‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫زوائد‬‫ استئوسیت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رشته‬‫ عصبی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مویرگی‬‫ خونی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫ناحیه‬ ‫از‬ ‫یک‬ ‫سارکومر‬ ‫در‬ ‫سلول‬ ‫های‬ ‫عضلانی‬ ‫فقط‬ ‫از‬ ‫فیلامنت‬ ‫های‬ ‫اکتین‬ ‫تشکیل‬ ‫شده‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫باند‬ ‫‪H‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫باند ‬‫‪A‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫باند ‬‫‪I‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خط ‬‫‪Z‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بلاستوسیت‬ ‫در‬ ‫کدام‬ ‫روز‬ ‫شروع‬ ‫به‬ ‫نفوذ‬ ‫به‬ ‫داخل‬ ‫اندومتر‬ ‫می‬ ‫کند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫حاوی‬ ‫رسپتور‬ ‫اختصاصی‬ ‫برای‬ ‫اسپرم‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫طبقه‬ ‫شفاف‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کومولوس‬‫ اووفروس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬‫ های‬ ‫تاج‬ ‫شعاعی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬‫ های‬ ‫گرانولوزا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫در‬ ‫روز‬ ‫هشتم‬ ‫تکوین‬ ‫رویان‬ ‫تشکیل‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پرزهای‬ ‫ثانویه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حفره‬‫ کوریون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کیسه‬‫ زرده‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حفره‬‫ آمنیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تشکیل‬ ‫کدام‬ ‫ساختمان‬ ‫زیر‬ ‫اولین‬ ‫عالمت‬ ‫شروع‬ ‫گاسترولاسیون‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خط‬ ‫اولیه‬ ‫(‫‪streak‬‬‫‪Primitive‬‬‫)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نوتوکورد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آلانتوئیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مزودرم‬‫ خارج‬ ‫رویانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫کدام‬ ‫ماه‬ ‫بارداری‬ ‫حرکات‬ ‫جنین‬ ‫توسط‬ ‫مادر‬ ‫احساس‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫چهارم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پنجم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ششم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کتف‬ ‫بال‬ ‫دار‬ ‫(‫‪scapula‬‬‫‪winging‬‬‫)‬‫ به‬ ‫علت‬ ‫آسیب‬ ‫کدام‬ ‫عصب‬ ‫و‬ ‫فلج‬ ‫کدام‬ ‫عضله‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorsal scapular nerve – Rhomboid major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dorsal scapular nerve – Teres major</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long thoracic nerve -Latissimus dorsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long thoracic nerve -Serratus anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫بیمار‬ ‫مبتلا ‫به‬‬‬ ‫‪Carpal tunnel syndrome‬‬ ‫کدام‬ ‫وضعیت‬ ‫رویت‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫از‬ ‫بین‬ ‫رفتن‬ ‫برجستگی‬ ‫تنار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فقدان‬‫ حس‬ ‫پوست‬ ‫‪۱.۵‬‬ ‫انگشت‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آتروفی‬‫ عضله‬ ‫اداکتور‬ ‫پولیسیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آتروفی‬‫ عضله‬ ‫آپوننس‬ ‫دیجیتی‬ ‫مینیمی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬ ‫دهی‬ ‫یک‬ ‫و‬ ‫نیم‬ ‫انگشت‬ ‫داخلی‬ ‫دست‬ ‫توسط‬ ‫کدام‬ ‫عصب‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬ ‫مدین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ بین‬ ‫استخوانی‬ ‫قدامی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ رادیال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ اولنار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بیماری‬ ‫توانایی‬ ‫شروع‬ ‫ابداکشن‬ ‫بازو‬ ‫را‬ ‫از‬ ‫دست‬ ‫داده‬ ‫است؛‬ ‫آسیب‬ ‫مربوط‬ ‫به‬ ‫کدام‬ ‫عضله‬ ‫و‬ ‫عصب‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ترس‬ ‫ماژور‬ ‫–‬ ‫عصب‬ ‫ساب‬ ‫اسکاپولار‬ ‫تحتانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سوپرااسپیناتوس‬‫–‬ ‫عصب‬ ‫سوپرااسکاپولار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ترس‬‫ مینور‬ ‫–‬ ‫عصب‬ ‫آگزیلاری‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پکتورالیس‬‫ ماژور‬ ‫–‬ ‫عصب‬ ‫پکتورال‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عدم‬ ‫توانایی‬ ‫در‬ ‫سوپیناسیون‬ ‫ساعد‪‫ نتیجه‬ ‫آسیب‬ ‫کدام‬ ‫اعصاب‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آگزیلاری‬ ‫و‬ ‫رادیال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سوپرااسکاپولار‬‫ و‬ ‫آگزیلاری‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫موسکولوکوتانئوس‬‫ و‬ ‫مدین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رادیال‬‫ و‬ ‫موسکولوکوتانئوس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ترتیب‬ ‫قرار‬ ‫گرفتن‬ ‫عناصری‬ ‫که‬ ‫از‬ ‫زیر‬ ‫رباط‬ ‫اینگوئینال‬ ‫می‬ ‫گذرند‪،‬‬‫ از‬ ‫داخل‬ ‫به‬ ‫خارج‬ ‫کدام‬ ‫است‬ ‫؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان ‬- ورید ‪-‬‬ ‫عصب‬ ‫فمورال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید - شریان - ‫عصب‬ ‫فمورال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شریان - عصب - ورید فمورال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب - ورید - شریان فمورال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫شاخه‬ ‫های‬ ‫زیر‬ ‫جز‬ ‫انشعابات‬ ‫شریان‬ ‫پوپلیتئال‬ ‫است‬ ‫به‬ ‫جز‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬ ‫سورال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ ژنیکولار‬ ‫فوقانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ ژنیکولار‬ ‫میانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ فیبولار‬ ‫سطحی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدامیک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫از‬ ‫شکاف‬ ‫اداکتور‬ ‫(Adductor hiatus) ‪ ‫عبور‬ ‫می‬ ‫کند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عروق‬ ‫فمورال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصب سافنوس + عروق فمورال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ورید سافن بزرگ و عصب سافنوس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ پوپلیتئال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آسیب‬ ‫کدام یک‬ ‫از‬ ‫اعصاب‬ ‫موجب‬ ‫از‬ ‫بین‬ ‫رفتن‬ ‫دورسی‬ ‫فلکشن‬ ‫پا‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سورال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فیبولار‬‫ سطحی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فیبولار‬‫ عمقی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیبیال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫درد‬ ‫ناشی‬ ‫از‬ ‫آپاندیسیت‬ ‫توسط‬ ‫کدام‬ ‫سگمان‬ ‫نخاعی‬ ‫به‬ ‫سطح‬ ‫بدن‬ ‫ارجاع‬ ‫می‬ ‫گردد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪T10‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪T11‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪T9‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪T12‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ‫آناستوموز‬ ‫پورت‬ ‫‪-‬‬‫ کاوا‬‫در‬ ‫همه‬ ‫نواحی‬ ‫زیر‬ ‫دیده‬ ‫می‬ ‫شود‬ ‫به ‬‫جز‬ ‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫اطراف‬ ‫رکتوم‬ ‫و‬ ‫کانال‬ ‫آنال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫اطراف‬ ‫عروق‬ ‫خلفی‬ ‫لگن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫اطراف‬ ‫ناف‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫اطراف‬ ‫مری‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫پورتا‬ ‫هپاتیس‬ ‫موقعیت‬ ‫مجرای‬ ‫مشترک‬ ‫صفراوی‬ ‫نسبت‬ ‫به‬ ‫ورید‬ ‫پورت‬ ‫چگونه‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫عقب‬ ‫و‬ ‫چپ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫جلو‬ ‫و‬ ‫چپ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫جلو‬ ‫و‬ ‫راست‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫عقب‬ ‫و‬ ‫راست‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫منشا  ‫سلول‬ ‫های‬ ‫ادونتوبلاستی‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اکتودرم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اندودرم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مزودرم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نورال‬‫ کرست‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫در‬ ‫کبد ‪ ‫از‬ ‫مزودرم‬ ‫دیواره‬ ‫عرضی‬ ‫منشا‬ ‫می‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬ ‫های‬ ‫هماتوپویتیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پوشش‬‫ مجاری‬ ‫صفراوی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مجرای‬‫ سیستیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پارانشیم‬‫ کبد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫جدار‬ ‫قدامی‬ ‫و‬ ‫خلفی‬ ‫کانال‬ ‫اینگوینال‬ ‫به‬ ‫ترتیب‬ ‫توسط‬ ‫کدام یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫تقویت‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آپونوروز‬ ‫عضله‬ ‫مایل‬ ‫خارجی‬ ‫‪-‬‬‫عضله‬ ‫مایل‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عضله‬‫ مایل‬ ‫داخلی‬ ‫‪-‬‬‫تاندون‬ ‫مختلط‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عضله‬‫ مایل‬ ‫داخلی‬ ‫‪-‬‬‫فاسیای‬ ‫عرضی‬ ‫شکم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آپونوروز‬‫عضله‬ ‫مایل‬ ‫خارجی‬ ‫‪-‬‬‫تاندون‬ ‫مختلط‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫بخش‬ ‫دئودنوم‬ ‫بین‬ ‫عروق‬ ‫مزانتریک‬ ‫فوقانی‬ ‫و‬ ‫آئورت‬ ‫قرار‬ ‫می‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬ ‫اول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬‫ دوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬‫ سوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬‫ چهارم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫مردان‬ ‫اسفنکتر‬ ‫خارجی‬ ‫کدام‬ ‫بخش‬ ‫از‬ ‫پیشابراه‬ ‫را‬ ‫در‬ ‫برمی‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬ ‫پروگزیمال‬ ‫قسمت‬ ‫اسفنجی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬‫ پره‬ ‫پروستاتیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬‫ غشایی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بخش‬‫ دیستال‬ ‫قسمت‬ ‫اسفنجی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لمس‬ ‫کدام‬ ‫عنصر‬ ‫تشریحی‬ ‫زیر‬ ‫به‬ ‫عنوان‬ ‫نشانه‬ ‫ای‬ ‫جهت‬ ‫بالک‬ ‫عصب‬ ‫پودندال‬ ‫در‬ ‫خانم‬ ‫ها‬ ‫استفاده‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خار‬ ‫خاصره‬ ‫قدامی‬ ‫فوقانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خار‬‫خاصره‬ ‫قدامی‬ ‫تحتانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تکمه‬‫ پوبیس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خار‬‫ ایسکیال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫مورد‬ ‫پرینه‬ ‫کدام‬ ‫گزینه‬ ‫زیر‬ ‫در‬ ‫هر‬ ‫دو‬ ‫جنس‬ ‫یکسان‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫موقعیت‬ ‫قرارگیری‬ ‫غدد‬ ‫کوپر‬ ‫و‬ ‫بارتولن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تعداد‬‫ عضلات‬ ‫موجود‬ ‫در‬ ‫این‬ ‫فضا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نمای‬‫ عضله‬ ‫بولبواسپونژیوزوس‬ ‫در‬ ‫هر‬ ‫دو‬ ‫جنس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عناصر‬‫ عبوری‬ ‫از‬ ‫فضاهای‬ ‫پرینه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تمام‬ ‫ساختمان‬ ‫های‬ ‫زیر‬ ‫منشا‬ ‫اندودرمی‬ ‫دارند‬ ‫به‬‫ جز‬ ‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پروستات‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غدد‬‫ بولبواورترال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سینوس‬‫ اروژنیتال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کیسه‬‫ منی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫احتمال‬ ‫گیر‬ ‫کردن‬ ‫سنگ‬ ‫حالب‬ ‫در‬ ‫کدام‬ ‫محل‬ ‫کمتر‬ ‫از‬ ‫سایر‬ ‫موارد‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫محل‬ ‫اتصال‬ ‫لگنچه‬ ‫به‬ ‫حالب‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لبه‬‫ لگن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مجاورت‬‫ خار‬ ‫ایسکیال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫محل‬‫ ورود‬ ‫به‬ ‫مثانه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫هورمون‬ ‫زیر‬ ‫توسط‬ ‫سلول‬ ‫های‬ ‫اسیدوفیل‬ ‫هیپوفیز‬ ‫ترشح‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هورمون‬ ‫پرولاکتین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هورمون‬‫ کورتیکوتروپین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هورمون‬‫ محرک‬ ‫فولیکولی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫هورمون‬‫ تیروئیدی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫موارد‬ ‫زیر‬ ‫از‬ ‫شریان‬ ‫ماگزیلاری‬ ‫منشا‬ ‫می‬ ‫گیرند‬ ‫به‬ ‫جز‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬ ‫گوشی‬ ‫عمقی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ مننژیال‬ ‫میانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ کامی‬ ‫صعودی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ آلوئولار‬ ‫تحتانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫عضلات‬ ‫زیر‬ ‫از‬ ‫قوس‬ ‫گردنی‬ ‫(‬‫‪cervical‬‬‫‪Ansa‬‬‫)‬‫ عصب‬ ‫دهی‬ ‫می‬ ‫شوندب‬ه‬‫ جز‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اوموهایوئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استرنوتیروئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استیلوهایوئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استرنوهایوئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫موارد‬ ‫زیر‬ ‫از‬ ‫اولین‬ ‫قوس‬ ‫حلقی‬ ‫منشا‬ ‫می‬ ‫گیرند‬  ب‬ه‬‫ جز‬ ‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عضله‬ ‫تنسورویلی‬ ‫پالاتین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عضله‬‫ استیلوفارنژیوس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عضله‬‫ ماستریک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عضله‬‫ مایلوهایوئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ورید‬ ‫ژوگولار‬ ‫خارجی‬ ‫از‬ ‫الحاق‬ ‫کدام‬ ‫وریدها‬ ‫شکل‬ ‫می‬ ‫گیرد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post. Auricular Vein &amp; Retromandibular Vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occipital Vein &amp; ant jugular vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retromandibular Vein &amp; facial vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ant. jugular vein &amp; facial vein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تمام‬ ‫موارد‬ ‫زیر‬ ‫بر‬ ‫روی‬ ‫استخوان‬ ‫اسفنوئید‬ ‫قرار‬ ‫دارد‬ ‫ب‬جز‬ ‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سوراخ‬ ‫اوال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سوراخ‬‫ روتندوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سوراخ‬‫ ژوگولار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کانال‬‫ پتریگویید‬ ‫یا‬ ‫ویدین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حس‬ ‫لب‬ ‫تحتانی‬ ‫توسط‬ ‫کدام‬ ‫عصب‬ ‫تامین‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شاخه‬ ‫بوکال‬ ‫زوج‬ هفت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شاخه‬ ‫بوکال‬ ‫زوج‬ پنج </t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ منتال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ ماژینال‬ ‫مندیبولار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آسیب‬ ‫همه‬ ‫اعصاب‬ ‫زیر‬ ‫منجر‬ ‫به‬ ‫دوبینی‬ ‫می‬ ‫شود‬ ‫به‬ ‫جز‬‫‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬ ‫افتالمیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ اوکولوموتور‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ تروکله‬ ‫آ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عصب‬‫ ابدوسنت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تنظیم‬ ‫غلظت‬ ‫یونی‬ ‫خارج‬ ‫سلولی‬ ‫در‬ ‫اطراف‬ ‫نورون‬ ‫ها ‪  ‫از‬ ‫عملکرد های‬ ‫کدام‬ ‫نوروگلیاها‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آستروسیت‬ ‫ها‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬‫ های‬ ‫اقماری‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫الیگودندروسیت‬‫ ها‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬‫ های‬ ‫اپاندیمال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آنکوس‬ ‫(قالب)‬ ‫بخشی‬ ‫از‬ ‫کدام‬ ‫ژیروس‬ ‫در‬ ‫نیمکره‬ ‫مخ‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سینگولیت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پره‬‫ سنترال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پاراهیپوکمپ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ژیروس‬‫ دندانه‬ ‫ای‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫هسته‬ ‫ی‬ ‫تالاموس‬ ‫اطلاعات‬ ‫چشایی‬ ‫دریافت‬ ‫می‬ ‫کند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫جسم‬ ‫زانوئی‬ ‫داخلی‬ ‫(‫‪MGB‬‬‫)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شکمی‬‫‪-‬‬‫قدامی‬ ‫(ونترال‬ ‫انتریور)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫داخلی‬‫‪-‬‬‫پشتی‬‫(مدیال‬ ‫دورسال)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شکم‬‫ی‬‫‪-‬‬‫خلف‬‫ی‬‫‪-‬‬‫داخلی‬‫(ونترال‬ ‫پوستریور‬ ‫مدیال)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اختلال‬ ‫در‬ ‫بلع‬ ‫و‬ ‫تکلم‪،‬‬ ‫از‬ ‫دست‬ ‫دادن‬ ‫حس‬ ‫نیمه‬ ‫صورت‬ ‫در‬ ‫همان‬ ‫سمت‪،‬‬ ‫و‬ ‫عدم‬ ‫تعادل‬ ‫در‬ ‫حین‬ ‫راه‬ ‫رفتن‬ ‫از‬ ‫علایم‬ ‫کدام‬ ‫سندرم‬
+‫می‬‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سندرم‬ ‫وبر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سندرم‬‫ والنبرگ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سندرم‬‫ بصل‬ ‫النخاعی‬ ‫داخلی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سندرم‬‫ بندیکت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آسیب‬ ‫کدام یک‬ ‫از‬ ‫مسیرهای‬ ‫زیر‬ ‫منجر‬ ‫به‬ ‫از‬ ‫دست‬ ‫دادن‬ ‫حس‬ ‫لمس‬ ‫دقیق‬ ‫و‬ ‫ارتعاش‬ ‫خواهد‬ ‫شد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ونترال‬ ‫اسپاینوتالامیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لترال‬‫ اسپاینوتالامیک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مدیال‬‫ لمنیسکوس‬ ‫(ریل‬ ‫داخلی)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫لترال‬‫ لمنیسکوس‬ ‫(ریل‬ ‫خارجی)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫از‬ ‫عضلات‬ ‫زیر‪ ‫ کره‬ ‫چشم‬ ‫را‬ ‫به‬ ‫طرف‬ ‫بالا‬ ‫و‬ ‫خارج‬ ‫حرکت‬ ‫می‬ ‫دهد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رکتوس‬ ‫فوقانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رکتوس‬‫ تحتانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مایل‬‫ تحتانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫از‬ ‫گزینه‬ ‫های‬ ‫زیر‬ ‫جز ‫لایه‬ ‫های‬ ‫قرنیه‬ ‫نیست؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غشای‬ ‫بروخ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غشای‬‫ بومن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غشای‬‫ دسمه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اندوتلیوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫از‬ ‫گزینه‬ ‫های‬ ‫زیر‬ ‫نادرست‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫درد‬ ‫راجعه‬ ‫انفارکتوس‬ ‫قلبی‬ ‫می‬ ‫تواند‬ ‫در‬ ‫فک‬ ‫نیز‬ ‫احساس‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫صدای‬‫ دریچه‬ ‫پولمونری‬ ‫در‬ ‫بخش‬ ‫مدیال‬ ‫دومین‬ ‫فضای‬ ‫بین‬ ‫دنده‬ ‫ای‬ ‫راست‬ ‫شنیده‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کریستا‬‫ ترمینالیس‬ ‫داخل‬ ‫دهلیز‬ ‫راست‬ ‫واقع‬ ‫شده‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مخروط‬‫ شریانی‬‫(‬‫‪arteriosus‬‬‫‪conus‬‬)بخشی‬ ‫از‬ ‫بطن‬ ‫راست‬ ‫می‬ ‫باشد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫جسمک‬ ‫های‬ ‫هاسال‬ ‫در‬ ‫کدام‬ ‫ارگان‬ ‫لنفی‬ ‫واقع‬ ‫شده‬ ‫اند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کورتکس‬ ‫گره‬ ‫لنفی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پاراکورتکس‬‫ گره‬ ‫لنفی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مدولای‬‫ تیموس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پالپ‬‫ سفید‬ ‫طحال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left anterior decending(LAD) ‪‫به‬ ‫کدام‬ ‫شریان‬ ‫گفته‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬ ‫اینترنال‬ ‫توراسیک‬ ‫چپ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ مارژینال‬ ‫چپ‬ ‫در‬ ‫قلب‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ سیرکمفلکس‬ ‫قلب‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬‫ بین‬ ‫بطنی‬ ‫قدامی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شریان‬ ‫های‬ ‫کاروتید‬ ‫مشترک‬ ‫از‬ ‫کدام‬ ‫قوس‬ ‫آئورتیک‬ ‫منشا ‫می‬ ‫گیرند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قوس‬ ‫آئورتیک‬ ‫اول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قوس‬‫ آئورتیک‬ ‫دوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قوس‬‫ آئورتیک‬ ‫سوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قوس‬‫ آئورتیک‬ ‫چهارم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫همه‬ ‫گزینه‬ ‫های‬ ‫زیر‬ ‫درست‬ ‫است‬ ‫بجز‬:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫نیدل‬ ‫توراکوستومی‪‬‬ ‫معمولا ‫نیدل‬ ‫از‬ ‫چهارمین‬ ‫فضای‬ ‫بین‬ ‫دنده‬ ‫ای‬ ‫وارد‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حس‬‫ مخاط‬ ‫نازوفارنکس‬ ‫با‬ ‫عصب‬ ‫ماگزیلاری‬ ‫تامین‬ ‫می‬ ‫شود‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عضله ‬‫کریکوآریتنوئید‬ ‫خلفی‪ ‫ ابداکتور‬ ‫اصلی‬ ‫چین‬ ‫های‬ ‫صوتی‬ ‫است‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫با ‬‫آسیب‬ ‫عصب‬ ‫ریکارنت‬ ‫لارنژیال‪  ‫ تمام‬ ‫عضلات‬ ‫اینترینسیک‬ ‫حنجره‬ ‫فلج‬ ‫می‬ ‫شوند ‪ ‫به‬ ‫جز‬ ‫کریکوتیروئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪Kulchitsky‬‬ ‫اسم‬ ‫دیگر‬ ‫کدام یک‬ ‫از‬ ‫سلول‬ ‫های‬ ‫زیر‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬ ‫های‬ ‫گابلت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬‫ های‬ ‫مسواکی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬‫ های‬ ‫بویایی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلول‬‫ های‬ ‫گرانولار‬ ‫کوچک‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫جزو‬ ‫تعریف‬ ‫شاخص‬ ‫توسعه‬ ‫انسانی(‫‪HDI‬‬‫)‬‫ نیست‬؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫امید‬ ‫به‬ ‫زندگی‬ ‫بدو‬ ‫تولد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫متوسط‬‫ درآمد‬ ‫خانوار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫متوسط‬‫ سال‬ ‫های‬ ‫تحصیل‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سرانه‬‫ درآمد‬ ‫ناخالص‬ ‫ملی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بالاترین‬ ‫بار‬ ‫بیماری‬ ‫طبق‬ ‫رتبه‬ ‫بندی‬ ‫بار‬ ‫بیماری ها‬ ‫در‬ ‫جهان‬ ‫و‬ ‫ایران‬ ‫به‬ ‫ترتیب‬ ‫کدام‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فشارخون‬ ‫بالا ‫‪-‬‬‫ قندخون‬ ‫بالا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫فشارخون‬ ‫بالا ‫‪-‬‬‫ سرطان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بیماری های‬‫ قلبی‬ ‫عروقی‬ ‫‪-‬‬‫بیماری های‬ ‫قلبی‬ ‫عروقی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سرطان‬‫‪-‬‬‫فشارخون‬ ‫بالا‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫گزینه‬ ‫تعریف‬ ‫صحیح‬ ‫تری‬ ‫از‬ ‫اقتصاد‬ ‫سلامت‬ ‫ارائه‬ ‫می‬ ‫دهد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رسیدن‬ ‫به‬ ‫بهترین‬ ‫پیامدهای‬ ‫سلامت‬ ‫با‬ ‫استفاده‬ ‫از‬ ‫منابع‬ ‫محدود‬ ‫بخش‬ ‫سلامت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رسیدن‬‫ به‬ ‫بهترین‬ ‫و‬ ‫بیشترین‬ ‫پیامدهای‬ ‫سلامت‬ ‫با‬ ‫استفاده‬ ‫از‬ ‫حداکثر‬ ‫ظرفیت‬ ‫و‬ ‫منابع‬ ‫بخش‬ ‫سلامت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫استفاده‬‫ حداقلی‬ ‫از‬ ‫منابع‬ ‫بخش‬ ‫سلامت‬ ‫جهت‬ ‫دستیابی‬ ‫به‬ ‫حد‬ ‫قابل‬ ‫قبولی‬ ‫از‬ ‫پیامد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫رسیدن‬‫ به‬ ‫بهترین‬ ‫و‬ ‫بیشترین‬ ‫پیامدهای‬ ‫سلامت‬ ‫با‬ ‫استفاده‬ ‫از‬ ‫حجم‬ ‫مشخصی‬ ‫از‬ ‫منابع‬ ‫موجود‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫وجود‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫بیماری‬ ‫های‬ ‫زیر‬ ‫در‬ ‫معدن‬ ‫کاران‬ ‫کاملا ‫بیماری‬ ‫شغلی‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آسم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پنوموکونیوز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪COPD‬‬‫ (‫بیماری‬ ‫مزمن‬ ‫انسدادی‬ ‫ریه)‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مزوتلیوما‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫معاینات‬ ‫و‬ ‫چکاپ‬ ‫های‬ ‫دوره‬ ‫ای‬ ‫کارکنان‬ ‫جزو‬ ‫کدام‬ ‫یک‬ ‫ازسطوح‬ ‫پیشگیری‬ ‫بیماری‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پیشگیری‬ ‫سطح‬ ‫اول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پیشگیری‬‫ سطح‬ ‫سوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پیشگیری‬‫ سطح‬ ‫دوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پیشگیری‬ ‫سطح‬ ‫اول‬ ‫و‬ ‫دوم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫رابطه‬ ‫با‬ ‫سازمان های‬ ‫مرتبط‬ ‫با‬ ‫سلامت‬ ‫کدام‬ ‫مورد‬ ‫از‬ ‫اولویت های‬ ‫صندوق‬ ‫جمعیت‬ ‫ملل‬ ‫متحد‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حمایت‬ ‫از‬ ‫حق‬ ‫تحصیل‬ ‫کودکان‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سلامت‬‫ باروری‬ ‫برای‬ ‫زنان‬ ‫و‬ ‫دختران‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اطمینان‬‫ از‬ ‫دسترسی‬ ‫همگانی‬ ‫به‬ ‫غذای‬ ‫سالم‬ ‫و‬ ‫کافی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫حمایت‬‫ از‬ ‫آوارگان‬ ‫ناشی‬ ‫از‬ ‫جنگ‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫مدیریت‬ ‫خدمات‬ ‫سلامت‬ ‫جهت‬ ‫تعیین‬ ‫اهداف‬ ‫اختصاصی‬ ‫بر‬ ‫اساس‬ ‫روش‬ ‫اسمارت‬ ‫(‬‫‪SMART‬‬‫)‬‫ کدام‬ ‫گزینه‬ ‫صحیح‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫جامع‬ ‫بودن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫غیر‬‫اختصاصی‬ ‫بودن‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عدم‬‫ وابستگی‬ ‫به‬ ‫زمان‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قابلیت‬‫ اندازه‬ ‫گیری‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫از‬ ‫موارد‬ ‫زیر‬ ‫مصداق‬ ‫ایمنی‬ ‫فعال‬ ‫اکتسابی‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تولید‬ ‫آنتی‬ ‫بادی‬ ‫به‬ ‫دنبال‬ ‫واکسیناسیون‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تزریق‬‫ ایمونوگلوبولین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫انتقال‬‫ آنتی‬ ‫بادی‬ ‫از‬ ‫طریق‬ ‫جفت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تولید‬‫ آنتی‬ ‫بادی‬ ‫به‬ ‫دنبال‬ ‫ابتلا ‫بالینی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫آقای‬ ‫‪بیست و پنج ‫ساله‬ ‫سیگاری‬ ‫به‬ ‫مرکز‬ ‫جامع‬ ‫سلامت‬ ‫مراجعه‬ ‫کرده‬ ‫است‪‬‬ ‫در‬ ‫ارزیابی‬ ‫به‬ ‫دلیل‬ ‫نگرانی‬ ‫از‬ ‫عوارض‬ ‫سیگار‬ ‫بر‬ ‫سالمتی‬ ‫خود‬ ‫سابقه ‬‫‪سه‬‬ ‫بار‬ ‫اقدام‬ ‫به‬ ‫ترک‬ ‫ناموفق‬ ‫داشته‬ ‫است‪.‬‬ ‫بیمار‬ ‫در‬ ‫کدام‬ ‫مرحله‬ ‫از‬ ‫مدل‬ ‫مراحل‬ ‫تغییر‬ رفتار
+‫بیمار‬ ‫در‬ ‫کدام‬ ‫مرحله‬ ‫از‬ ‫مدل‬ ‫مراحل‬ ‫تغییر‬ ‫رفتار‬ (‬‫‪model‬‬‫‪Transteoretical‬‬‫‬) ‫دسته ‬‫بندی‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرحله‬ ‫پیش‬ ‫تفکر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرحله‬‫ تفکر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرحله‬‫ آمادگی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرحله‬‫ عمل‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نظام‬ ‫پرداخت‬ ‫کارانه‬ ‫ای(‫‪‬‬‫‫Fee for service) ‬‫شکل‬ ‫ارایه‬ ‫خدمات‬ ‫را‬ ‫در‬ ‫نظام‬ ‫سلامت‬ ‫به‬ ‫کدام‬ ‫سمت‬ ‫سوق‬ ‫می‬ ‫دهد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خدمات‬ ‫درمانی‬ ‫تخصصی‬ ‫و‬ ‫فوق‬ ‫تخصصی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خدمات‬‫ پیشگیری‬ ‫سطح‬ ‫اول‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خدمات‬‫ پیشگیری‬ ‫ابتدایی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫خدمات‬‫ غربالگری‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫در‬ ‫مورد‬ ‫گذار‬ ‫اپیدمیولوژیک‬ ‫صحیح‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تغییر‬ ‫در‬ ‫نظام‬ ‫و‬ ‫ساختار‬ ‫سیاسی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تغییرات‬‫ اقتصادی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تغییرات‬‫ اجتماعی‬ ‫و‬ ‫فرهنگی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تغییرات‬‫ الگوی‬ ‫بیماریها‬ ‫و‬ ‫مشکلات‬ ‫سلامت‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫رویکرد‬ ‫برقراری‬ ‫نظام‬ ‫مراقبت های‬ ‫اولیه‬ ‫سلامت (‫‪PHC‬‬‫)‬‫ توجه‬ ‫به‬ ‫کدام‬ ‫مورد‬ ‫ضروری‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اولویت‬ ‫دهی‬ ‫به‬ ‫خدمات‬ ‫تخصصی‬ ‫و‬ ‫فوق‬ ‫تخصصی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ایجاد‬‫ ساختاری‬ ‫برای‬ ‫ارایه‬ ‫مراقبت های‬ ‫سلامت‬ ‫به‬ ‫تمام‬ ‫اقشار‬ ‫جامعه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫ تعداد‬ ‫تخت های‬ ‫بیمارستانی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تامین‬‫ هزینه‬ ‫های‬ ‫خدمات‬ ‫سلامت‬ ‫توسط‬ ‫بیمار‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عبارت‬ ‫"‬‫افرادی‬‫ که‬ ‫بیماری‬ ‫در‬ ‫آنها‬ ‫برای‬ ‫اولین‬ ‫بار‬ ‫ایجاد‬ ‫می‬ ‫شود‬"‬‫ مربوط‬ ‫به‬ ‫صورت‬ ‫کسر‬ ‫کدام‬ ‫شاخص‬ ‫زیر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫شیوع‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بروز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫میزان‬‫ کشندگی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نسبت‬‫ شانس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫یک‬ ‫جامعه‬ ‫‪120‬‬ ‫هزار‬ ‫نفری‬ ‫در‬ ‫طول‬ ‫یکسال‪،‬‬ ‫‪42‬‬ ‫هزار‬‫نفر‬ ‫دچار‬ ‫انواع‬ ‫مختلف‬ ‫سوانح‬ ‫شده‬ ‫اند‪،‬‬ ‫از‬ ‫این‬ ‫تعداد‬ ‫‪300‬‬ ‫نفر‬ ‫فوت‬ ‫کرده‬ ‫اند  میزان‬ ‫میرایی‬ ‫ناشی‬ ‫از‬ ‫سوانح‬ ‫در‬ ‫این‬ ‫جامعه‬ ‫چقدر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هفتاد در هزار نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هفتاد در ده هزار نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیست و پنج در هزار نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بیست و پنج در ده هزار نفر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام یک‬ ‫از‬ ‫عبارات‬ ‫زیر‬ ‫از‬ ‫نقاط‬ ‫قوت‬ ‫مطالعات‬ ‫همگروهی(کوهورت)‬ ‫می‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ارزان‬ ‫و‬ ‫آسان‬ ‫بودن‬ ‫انجام‬ ‫مطالعه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ضرورت‬‫ داشتن‬ ‫پیگیری‬ ‫کامل‬ ‫افراد‬ ‫تا‬ ‫پایان‬ ‫مطالعه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مناسب‬‫ بودن‬ ‫برای‬ ‫بررسی‬ ‫بیماری‬ ‫های‬ ‫نادر‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مشخص‬‫ بودن‬ ‫تقدم‬ ‫و‬ ‫تاخر‬ ‫زمانی‬ ‫مواجهه‬ ‫و‬ ‫پیامد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫گزینه‬ ‫توصیف‬ ‫وضعیت‬ ‫یک‬ ‫رادیولوژیست‬ ‫است‬ ‫هنگامی‬ ‫که‬ ‫تفسیر‬ ‫او‬ ‫از‬ ‫یک‬ ‫کلیشه‬ ‫رادیوگرافی‬ ‫در‬ ‫دو‬ ‫زمان‬ ‫مختلف‬ ‫با‬ ‫یکدیگر‬‫ متفاوت‬ ‫باشد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-subject variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intra-subject variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-observer variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intra-observer variation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اگر‬ ‫در‬ ‫یک‬ ‫بیماری‬ ‫مقدار‬ ‫بروز‬ ‫و‬ ‫شیوع‬ ‫تقریبا‬ ‫برابر‬ ‫باشد ‪ ‫کدام‬ ‫گزینه‬ ‫در‬ ‫مورد‬ ‫آن‬ ‫بیماری‬ ‫محتمل‬ ‫نیست؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫بهبودی‬ ‫سریع‬ ‫دارد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سیر‬‫مزمن‬ ‫شونده‬ ‫دارد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سریعا‬‫ کشنده‬ ‫است‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫دوره‬‫ کوتاهی‬ ‫دارد‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫مطالعه‬ ‫ای‬ ‫که‬ ‫دو‬ ‫سال‬ ‫به‬ ‫طول‬ ‫انجامیده‬ ‫است‪،‬‬ ‫مشاهده‬ ‫شد‬ ‫که‬ ‫از‬ ‫بین‬ ‫‪1440‬‬ ‫نفر‬ ‫دارای‬ ‫مواجهه‪،‬‬ ‫تعداد‬ ‫‪36‬‬ ‫نفر‬ ‫و‬ ‫از‬ ‫بین‬ ‫‪1920‬‬‫نفر ‬‫فاقد‬ ‫مواجهه‪،‬‬ ‫تعداد‬ ‫‪12‬‬ ‫نفر‬ ‫بیمار‬ ‫شدند‪.‬‬ ‫خطر‬ ‫نسبی‬ ‫بیماری‬ ‫چقدر‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫معیار‬ ‫برای‬ ‫قضاوت‬ ‫در‬ ‫باره‬ ‫علیتی‬ ‫بودن‬ ‫یک‬ ‫رابطه‬‬ ‫ضعیف‬ ‫تر‬ ‫از‬ ‫بقیه‬ ‫است؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫قدرت‬ ‫رابطه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ثبات‬‫ رابطه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫اختصاصی‬‫ بودن‬ ‫رابطه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫توالی‬‫ زمانی‬ ‫رابطه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬ ‫یک‬ ‫مطالعه‬ ‫مورد‫‪-‬‬‫شاهد ‬‫با‬ ‫هدف‬ ‫تعیین‬ ‫ارتباط‬ ‫بین‬ ‫مصرف‬ ‫داروی‬ ‫‪NSAIDs‬‬ ‫حین‬ ‫بارداری‬ ‫مادر‬ ‫و‬ ‫ناهنجاری‬ ‫مادرزادی‬ ‫کودک ‪ گروه‬ ‫شاهد‬ ‫را‬ ‫از‬ ‫بین‬ ‫چه‬ ‫افرادی‬ ‫انتخاب‬ ‫می‬ ‫کنید؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مادرانی‬ ‫که‬ ‫کودک‬ ‫سالم‬ ‫به‬ ‫دنیا‬ ‫آورده‬ ‫اند‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مادرانی ‬‫که‬ ‫کودک‬ ‫سالم‬ ‫به‬ ‫دنیا‬ ‫آورده‬ ‫اند‬ ‫و‬ ‫در‬ ‫طول‬ ‫بارداری‬ ‫داروی‬ ‫‪NSAIDs‬‬ ‫مصرف‬ ‫نکرده‬ ‫اند‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مادرانی‬‫که‬ ‫کودک‬ ‫سالم‬ ‫به‬ ‫دنیا‬ ‫آورده‬ ‫اند‬ ‫اما‬ ‫در‬ ‫طول‬ ‫بارداری‬ ‫داروی‬ ‫‪NSAIDs‬‬ ‫مصرف‬ ‫کرده‬ ‫اند‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مادرانی‬‫که‬ ‫کودک‬ ‫مبتال‬ ‫به‬ ‫ناهنجاری‬ ‫به‬ ‫دنیا‬ ‫آورده‬ ‫اند‬ ‫اما‬ ‫در‬ ‫طول‬ ‫بارداری‬ ‫داروی‬ ‫‪NSAIDs‬‬ ‫مصرف‬ ‫نکرده‬ ‫اند‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫مولکول‬ ‫در‬ ‫سلول‬ ‫های‬ ‫‪T‬‬ ‫سایتوتوکسیک‬ ‫به‬ ‫عنوان‬ ‫یک‬ ‫مولکول‬ ‫نفوذ‬ ‫کننده‬ ‫به‬ ‫غشا‬ ‫عمل‬ ‫می‬ ‫کند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫پرفورین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گرانزیم‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاسپاز‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫سرگالیسین‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ایمنی‬‫ شناسی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدامیک‬ ‫از‬ ‫‪TLR‬‬ ‫های‬ ‫زیر‬ ‫‪RNA‬‬ ‫دو‬ ‫رشته‬ ‫ای‬ ‫مربوط‬ ‫به‬ ‫ویروس‬ ‫ها‬ ‫را‬ ‫شناسایی‬ ‫می‬ ‫کنند؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫ارگان‬ ‫لنفاوی‪‬‬ ‫وظیفه‬ ‫پاسخ‬ ‫به‬ ‫آنتی‬ ‫ژن‬ ‫های‬ ‫موجود‬ ‫در‬ ‫خون‬ ‫را‬ ‫برعهده‬ ‫دارد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مغز‬ ‫استخوان‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تیموس‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫طحال‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫گره‬‫ لنفی‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫مرگ‬ ‫سلولی‬ ‫ناشی‬ ‫از‬ ‫فعال‬ ‫شدن‬‬ ‫سبب‬ ‫کدام‬ ‫یک‬ ‫از‬ ‫انواع‬ ‫تولرانس‬ ‫ایمونولوژیک‬ ‫می‬ ‫شود؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تولرانس‬ ‫مرکزی‬ ‫لنفوسیت‬ ‫های‬ ‫‪B‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تولرانس‬ ‫مرکزی‬ ‫لنفوسیت‬ ‫های‬ ‫‪T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تولرانس ‬‫محیطی‬ ‫لنفوسیت‬ ‫های‬ ‫‪B‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تولرانس ‬‫محیطی‬ ‫لنفوسیت‬ ‫های‬ ‫‪T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کدام‬ ‫گیرنده‬ ‫کمپلمان‬ ‫در‬ ‫فعال‬ ‫شدن‬ ‫لنفوسیت‬ ‫های‬ ‫‪B‬‬ ‫نقش‬ ‫دارد؟‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪CR1‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪CR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪CR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫‪CR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تمامی‬ ‫موارد‬ ‫زیر‬ ‫از‬ ‫خصوصیات‬ ‫پاسخ‬ ‫های‬ ‫ایمنی‬ ‫هومورال‬ ‫در‬ ‫مقابل‬ ‫آنتی‬ ‫ژن‬ ‫های‬ ‫پروتئینی‬ ‫می‬ ‫باشد‪‬‬ ‫ب‫جز‬:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫کاهش‬ ‫بیان‬ ‫‪CCR7‬‬ ‫در‬ ‫سطح‬ ‫سلول‬ ‫‪B‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫وقوع‬‫ در‬ ‫مراکز‬ ‫زایای‬ ‫فولیکول‬ ‫های‬ ‫ثانویه‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫افزایش‬‫ بیان‬ ‫‪CXCR5‬‬ ‫در‬ ‫سطح‬ ‫سلول‬ ‫‪T‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫برهمکنش‬‫‪CD40‬‬ ‫در‬ ‫سطح‬ ‫سلول‬ ‫‪B‬‬ ‫با‬ ‫‪CD40L‬‬ ‫در‬ ‫سطح‬ ‫سلول‬ ‫‪T‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫تمامی‬ ‫گزاره‬ ‫های‬ ‫زیر‬ ‫در‬ ‫رابطه‬ ‫با‬ ‫پدیده‬ ‫تغییر‬ ‫کالس‬ ‫آنتی‬ ‫بادی‬ ‫ها‬ ‫صحیح‬ ‫می‬ ‫باشد ‫به‬ ‫جز‪:‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫نواحی‬ ‫ثابت‬ ‫زنجیره‬ ‫سنگین‬ ‫آنتی‬ ‫بادی‬ ‫تغییر‬ ‫می‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫ویژگی‬‫ آنتی‬ ‫بادی‬ ‫تولید‬ ‫شده‬ ‫تغییر‬ ‫می‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫در‬‫پاسخ‬ ‫به‬ ‫شناسایی‬ ‫آنتی‬ ‫ژن‬ ‫ها‬ ‫اتفاق‬ ‫می‬ ‫افتد‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‫عملکرد‬‫ بیولوژیکی‬ ‫آنتی‬ ‫بادی‬ ‫تولید‬ ‫شده‬ ‫تغییر‬ ‫می‬ ‫کند‪.‬‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">همه موارد زیر از کاربردهای آنتی بادی منوکلونال در ایمنوتراپی می باشد بجز:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رد پیوند کلیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آرتریت‬ ‫روماتوئید‬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرطان پستان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوک سپتیک</t>
+  </si>
 </sst>
 </file>
 
@@ -21836,7 +23488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -21865,23 +23517,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22008,10 +23676,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1415"/>
+  <dimension ref="A1:H1525"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1411" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1416" activeCellId="0" sqref="D1416"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1523" colorId="64" zoomScale="157" zoomScaleNormal="157" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1528" activeCellId="0" sqref="G1528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52042,7 +53710,7 @@
       </c>
     </row>
     <row r="1156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1156" s="4" t="s">
+      <c r="A1156" s="7" t="s">
         <v>5272</v>
       </c>
       <c r="B1156" s="4" t="s">
@@ -52094,7 +53762,7 @@
       </c>
     </row>
     <row r="1158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1158" s="4" t="s">
+      <c r="A1158" s="7" t="s">
         <v>5282</v>
       </c>
       <c r="B1158" s="4" t="s">
@@ -57320,1313 +58988,3843 @@
       </c>
     </row>
     <row r="1359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1359" s="0" t="s">
+      <c r="A1359" s="4" t="s">
         <v>6118</v>
       </c>
-      <c r="B1359" s="0" t="s">
+      <c r="B1359" s="4" t="s">
         <v>6119</v>
       </c>
-      <c r="C1359" s="0" t="s">
+      <c r="C1359" s="4" t="s">
         <v>6120</v>
       </c>
-      <c r="D1359" s="0" t="s">
+      <c r="D1359" s="4" t="s">
         <v>6121</v>
       </c>
-      <c r="E1359" s="0" t="s">
+      <c r="E1359" s="4" t="s">
         <v>6122</v>
       </c>
-      <c r="F1359" s="0" t="s">
+      <c r="F1359" s="4" t="s">
         <v>6123</v>
       </c>
-      <c r="G1359" s="7" t="s">
+      <c r="G1359" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1360" s="0" t="s">
+      <c r="A1360" s="4" t="s">
         <v>6125</v>
       </c>
-      <c r="B1360" s="0" t="s">
+      <c r="B1360" s="4" t="s">
         <v>6126</v>
       </c>
-      <c r="C1360" s="0" t="s">
+      <c r="C1360" s="4" t="s">
         <v>6127</v>
       </c>
-      <c r="D1360" s="0" t="s">
+      <c r="D1360" s="4" t="s">
         <v>6128</v>
       </c>
-      <c r="E1360" s="0" t="s">
+      <c r="E1360" s="4" t="s">
         <v>6129</v>
       </c>
-      <c r="F1360" s="7" t="s">
+      <c r="F1360" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1360" s="7" t="s">
+      <c r="G1360" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1361" s="0" t="s">
+      <c r="A1361" s="4" t="s">
         <v>6130</v>
       </c>
-      <c r="B1361" s="0" t="s">
+      <c r="B1361" s="4" t="s">
         <v>6131</v>
       </c>
-      <c r="C1361" s="0" t="s">
+      <c r="C1361" s="4" t="s">
         <v>6132</v>
       </c>
-      <c r="D1361" s="0" t="s">
+      <c r="D1361" s="4" t="s">
         <v>6133</v>
       </c>
-      <c r="E1361" s="0" t="s">
+      <c r="E1361" s="4" t="s">
         <v>6134</v>
       </c>
-      <c r="F1361" s="7" t="s">
+      <c r="F1361" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1361" s="7" t="s">
+      <c r="G1361" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1362" s="7" t="s">
+      <c r="A1362" s="1" t="s">
         <v>6135</v>
       </c>
-      <c r="B1362" s="8" t="s">
+      <c r="B1362" s="1" t="s">
         <v>6136</v>
       </c>
-      <c r="C1362" s="8" t="s">
+      <c r="C1362" s="1" t="s">
         <v>6137</v>
       </c>
-      <c r="D1362" s="8" t="s">
+      <c r="D1362" s="1" t="s">
         <v>6138</v>
       </c>
-      <c r="E1362" s="8" t="s">
+      <c r="E1362" s="1" t="s">
         <v>6139</v>
       </c>
-      <c r="F1362" s="7" t="s">
+      <c r="F1362" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1362" s="7" t="s">
+      <c r="G1362" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1363" s="0" t="s">
+      <c r="A1363" s="4" t="s">
         <v>6140</v>
       </c>
-      <c r="B1363" s="0" t="s">
+      <c r="B1363" s="4" t="s">
         <v>6141</v>
       </c>
-      <c r="C1363" s="0" t="s">
+      <c r="C1363" s="4" t="s">
         <v>6142</v>
       </c>
-      <c r="D1363" s="0" t="s">
+      <c r="D1363" s="4" t="s">
         <v>6143</v>
       </c>
-      <c r="E1363" s="0" t="s">
+      <c r="E1363" s="4" t="s">
         <v>6144</v>
       </c>
-      <c r="F1363" s="7" t="s">
+      <c r="F1363" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1363" s="7" t="s">
+      <c r="G1363" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1364" s="0" t="s">
+      <c r="A1364" s="4" t="s">
         <v>6145</v>
       </c>
-      <c r="B1364" s="0" t="s">
+      <c r="B1364" s="4" t="s">
         <v>6146</v>
       </c>
-      <c r="C1364" s="0" t="s">
+      <c r="C1364" s="4" t="s">
         <v>6147</v>
       </c>
-      <c r="D1364" s="0" t="s">
+      <c r="D1364" s="4" t="s">
         <v>6148</v>
       </c>
-      <c r="E1364" s="0" t="s">
+      <c r="E1364" s="4" t="s">
         <v>6149</v>
       </c>
-      <c r="F1364" s="7" t="s">
+      <c r="F1364" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1364" s="7" t="s">
+      <c r="G1364" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1365" s="0" t="s">
+      <c r="A1365" s="4" t="s">
         <v>6150</v>
       </c>
-      <c r="B1365" s="0" t="s">
+      <c r="B1365" s="4" t="s">
         <v>5881</v>
       </c>
-      <c r="C1365" s="0" t="s">
+      <c r="C1365" s="4" t="s">
         <v>6151</v>
       </c>
-      <c r="D1365" s="0" t="s">
+      <c r="D1365" s="4" t="s">
         <v>5642</v>
       </c>
-      <c r="E1365" s="0" t="s">
+      <c r="E1365" s="4" t="s">
         <v>6152</v>
       </c>
-      <c r="F1365" s="7" t="s">
+      <c r="F1365" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1365" s="7" t="s">
+      <c r="G1365" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1366" s="0" t="s">
+      <c r="A1366" s="4" t="s">
         <v>6153</v>
       </c>
-      <c r="B1366" s="0" t="s">
+      <c r="B1366" s="4" t="s">
         <v>6154</v>
       </c>
-      <c r="C1366" s="0" t="s">
+      <c r="C1366" s="4" t="s">
         <v>6155</v>
       </c>
-      <c r="D1366" s="0" t="s">
+      <c r="D1366" s="4" t="s">
         <v>6156</v>
       </c>
-      <c r="E1366" s="0" t="s">
+      <c r="E1366" s="4" t="s">
         <v>6157</v>
       </c>
-      <c r="F1366" s="7" t="s">
+      <c r="F1366" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1366" s="7" t="s">
+      <c r="G1366" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1367" s="9" t="s">
+      <c r="A1367" s="7" t="s">
         <v>6158</v>
       </c>
-      <c r="B1367" s="8" t="s">
+      <c r="B1367" s="1" t="s">
         <v>6159</v>
       </c>
-      <c r="C1367" s="8" t="s">
+      <c r="C1367" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D1367" s="8" t="s">
+      <c r="D1367" s="1" t="s">
         <v>6161</v>
       </c>
-      <c r="E1367" s="8" t="s">
+      <c r="E1367" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="F1367" s="7" t="s">
+      <c r="F1367" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1367" s="7" t="s">
+      <c r="G1367" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1368" s="9" t="s">
+      <c r="A1368" s="7" t="s">
         <v>6163</v>
       </c>
-      <c r="B1368" s="8" t="s">
+      <c r="B1368" s="1" t="s">
         <v>6164</v>
       </c>
-      <c r="C1368" s="8" t="s">
+      <c r="C1368" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="D1368" s="8" t="s">
+      <c r="D1368" s="1" t="s">
         <v>6166</v>
       </c>
-      <c r="E1368" s="8" t="s">
+      <c r="E1368" s="1" t="s">
         <v>6167</v>
       </c>
-      <c r="F1368" s="7" t="s">
+      <c r="F1368" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1368" s="7" t="s">
+      <c r="G1368" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1369" s="0" t="s">
+      <c r="A1369" s="4" t="s">
         <v>6168</v>
       </c>
-      <c r="B1369" s="0" t="s">
+      <c r="B1369" s="4" t="s">
         <v>6169</v>
       </c>
-      <c r="C1369" s="0" t="s">
+      <c r="C1369" s="4" t="s">
         <v>6170</v>
       </c>
-      <c r="D1369" s="0" t="s">
+      <c r="D1369" s="4" t="s">
         <v>6171</v>
       </c>
-      <c r="E1369" s="0" t="s">
+      <c r="E1369" s="4" t="s">
         <v>6172</v>
       </c>
-      <c r="F1369" s="7" t="s">
+      <c r="F1369" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1369" s="7" t="s">
+      <c r="G1369" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1370" s="0" t="s">
+      <c r="A1370" s="4" t="s">
         <v>6173</v>
       </c>
-      <c r="B1370" s="0" t="s">
+      <c r="B1370" s="4" t="s">
         <v>6174</v>
       </c>
-      <c r="C1370" s="0" t="s">
+      <c r="C1370" s="4" t="s">
         <v>6175</v>
       </c>
-      <c r="D1370" s="0" t="s">
+      <c r="D1370" s="4" t="s">
         <v>6176</v>
       </c>
-      <c r="E1370" s="0" t="s">
+      <c r="E1370" s="4" t="s">
         <v>6177</v>
       </c>
-      <c r="F1370" s="7" t="s">
+      <c r="F1370" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1370" s="7" t="s">
+      <c r="G1370" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1371" s="9" t="s">
+      <c r="A1371" s="7" t="s">
         <v>6178</v>
       </c>
-      <c r="B1371" s="8" t="s">
+      <c r="B1371" s="1" t="s">
         <v>6179</v>
       </c>
-      <c r="C1371" s="8" t="s">
+      <c r="C1371" s="1" t="s">
         <v>6166</v>
       </c>
-      <c r="D1371" s="8" t="s">
+      <c r="D1371" s="1" t="s">
         <v>6167</v>
       </c>
-      <c r="E1371" s="8" t="s">
+      <c r="E1371" s="1" t="s">
         <v>6180</v>
       </c>
-      <c r="F1371" s="7" t="s">
+      <c r="F1371" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1371" s="7" t="s">
+      <c r="G1371" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1372" s="9" t="s">
+      <c r="A1372" s="7" t="s">
         <v>6181</v>
       </c>
-      <c r="B1372" s="8" t="s">
+      <c r="B1372" s="1" t="s">
         <v>6182</v>
       </c>
-      <c r="C1372" s="8" t="s">
+      <c r="C1372" s="1" t="s">
         <v>6183</v>
       </c>
-      <c r="D1372" s="8" t="s">
+      <c r="D1372" s="1" t="s">
         <v>6184</v>
       </c>
-      <c r="E1372" s="8" t="s">
+      <c r="E1372" s="1" t="s">
         <v>6185</v>
       </c>
-      <c r="F1372" s="7" t="s">
+      <c r="F1372" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1372" s="7" t="s">
+      <c r="G1372" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1373" s="9" t="s">
+      <c r="A1373" s="7" t="s">
         <v>6186</v>
       </c>
-      <c r="B1373" s="8" t="s">
+      <c r="B1373" s="1" t="s">
         <v>6187</v>
       </c>
-      <c r="C1373" s="8" t="s">
+      <c r="C1373" s="1" t="s">
         <v>6188</v>
       </c>
-      <c r="D1373" s="8" t="s">
+      <c r="D1373" s="1" t="s">
         <v>6189</v>
       </c>
-      <c r="E1373" s="8" t="s">
+      <c r="E1373" s="1" t="s">
         <v>6190</v>
       </c>
-      <c r="F1373" s="7" t="s">
+      <c r="F1373" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1373" s="7" t="s">
+      <c r="G1373" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1374" s="0" t="s">
+      <c r="A1374" s="4" t="s">
         <v>6191</v>
       </c>
-      <c r="B1374" s="0" t="s">
+      <c r="B1374" s="4" t="s">
         <v>6192</v>
       </c>
-      <c r="C1374" s="0" t="s">
+      <c r="C1374" s="4" t="s">
         <v>6193</v>
       </c>
-      <c r="D1374" s="0" t="s">
+      <c r="D1374" s="4" t="s">
         <v>6194</v>
       </c>
-      <c r="E1374" s="0" t="s">
+      <c r="E1374" s="4" t="s">
         <v>6195</v>
       </c>
-      <c r="F1374" s="7" t="s">
+      <c r="F1374" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1374" s="7" t="s">
+      <c r="G1374" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1375" s="0" t="s">
+      <c r="A1375" s="4" t="s">
         <v>6196</v>
       </c>
-      <c r="B1375" s="0" t="s">
+      <c r="B1375" s="4" t="s">
         <v>6197</v>
       </c>
-      <c r="C1375" s="0" t="s">
+      <c r="C1375" s="4" t="s">
         <v>6198</v>
       </c>
-      <c r="D1375" s="0" t="s">
+      <c r="D1375" s="4" t="s">
         <v>6199</v>
       </c>
-      <c r="E1375" s="0" t="s">
+      <c r="E1375" s="4" t="s">
         <v>6200</v>
       </c>
-      <c r="F1375" s="7" t="s">
+      <c r="F1375" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1375" s="7" t="s">
+      <c r="G1375" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1376" s="0" t="s">
+      <c r="A1376" s="4" t="s">
         <v>6201</v>
       </c>
-      <c r="B1376" s="0" t="s">
+      <c r="B1376" s="4" t="s">
         <v>6202</v>
       </c>
-      <c r="C1376" s="0" t="s">
+      <c r="C1376" s="4" t="s">
         <v>6203</v>
       </c>
-      <c r="D1376" s="0" t="s">
+      <c r="D1376" s="4" t="s">
         <v>6204</v>
       </c>
-      <c r="E1376" s="0" t="s">
+      <c r="E1376" s="4" t="s">
         <v>6205</v>
       </c>
-      <c r="F1376" s="7" t="s">
+      <c r="F1376" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1376" s="7" t="s">
+      <c r="G1376" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1377" s="0" t="s">
+      <c r="A1377" s="4" t="s">
         <v>6206</v>
       </c>
-      <c r="B1377" s="0" t="s">
+      <c r="B1377" s="4" t="s">
         <v>6207</v>
       </c>
-      <c r="C1377" s="0" t="s">
+      <c r="C1377" s="4" t="s">
         <v>6208</v>
       </c>
-      <c r="D1377" s="0" t="s">
+      <c r="D1377" s="4" t="s">
         <v>6209</v>
       </c>
-      <c r="E1377" s="0" t="s">
+      <c r="E1377" s="4" t="s">
         <v>6210</v>
       </c>
-      <c r="F1377" s="7" t="s">
+      <c r="F1377" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1377" s="7" t="s">
+      <c r="G1377" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1378" s="0" t="s">
+      <c r="A1378" s="4" t="s">
         <v>6211</v>
       </c>
-      <c r="B1378" s="0" t="s">
+      <c r="B1378" s="4" t="s">
         <v>6212</v>
       </c>
-      <c r="C1378" s="0" t="s">
+      <c r="C1378" s="4" t="s">
         <v>6213</v>
       </c>
-      <c r="D1378" s="0" t="s">
+      <c r="D1378" s="4" t="s">
         <v>6214</v>
       </c>
-      <c r="E1378" s="0" t="s">
+      <c r="E1378" s="4" t="s">
         <v>6215</v>
       </c>
-      <c r="F1378" s="7" t="s">
+      <c r="F1378" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1378" s="7" t="s">
+      <c r="G1378" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1379" s="0" t="s">
+      <c r="A1379" s="4" t="s">
         <v>6216</v>
       </c>
-      <c r="B1379" s="0" t="s">
+      <c r="B1379" s="4" t="s">
         <v>6217</v>
       </c>
-      <c r="C1379" s="0" t="s">
+      <c r="C1379" s="4" t="s">
         <v>6218</v>
       </c>
-      <c r="D1379" s="0" t="s">
+      <c r="D1379" s="4" t="s">
         <v>6219</v>
       </c>
-      <c r="E1379" s="0" t="s">
+      <c r="E1379" s="4" t="s">
         <v>6220</v>
       </c>
-      <c r="F1379" s="7" t="s">
+      <c r="F1379" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1379" s="7" t="s">
+      <c r="G1379" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1380" s="9" t="s">
+      <c r="A1380" s="7" t="s">
         <v>6221</v>
       </c>
-      <c r="B1380" s="8" t="s">
+      <c r="B1380" s="1" t="s">
         <v>6222</v>
       </c>
-      <c r="C1380" s="8" t="s">
+      <c r="C1380" s="1" t="s">
         <v>6223</v>
       </c>
-      <c r="D1380" s="8" t="s">
+      <c r="D1380" s="1" t="s">
         <v>6224</v>
       </c>
-      <c r="E1380" s="8" t="s">
+      <c r="E1380" s="1" t="s">
         <v>6225</v>
       </c>
-      <c r="F1380" s="7" t="s">
+      <c r="F1380" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1380" s="7" t="s">
+      <c r="G1380" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1381" s="0" t="s">
+      <c r="A1381" s="4" t="s">
         <v>6226</v>
       </c>
-      <c r="B1381" s="0" t="s">
+      <c r="B1381" s="4" t="s">
         <v>6227</v>
       </c>
-      <c r="C1381" s="0" t="s">
+      <c r="C1381" s="4" t="s">
         <v>6228</v>
       </c>
-      <c r="D1381" s="0" t="s">
+      <c r="D1381" s="4" t="s">
         <v>6229</v>
       </c>
-      <c r="E1381" s="0" t="s">
+      <c r="E1381" s="4" t="s">
         <v>6230</v>
       </c>
-      <c r="F1381" s="7" t="s">
+      <c r="F1381" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1381" s="7" t="s">
+      <c r="G1381" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1382" s="0" t="s">
+      <c r="A1382" s="4" t="s">
         <v>6231</v>
       </c>
-      <c r="B1382" s="0" t="s">
+      <c r="B1382" s="4" t="s">
         <v>6232</v>
       </c>
-      <c r="C1382" s="0" t="s">
+      <c r="C1382" s="4" t="s">
         <v>6233</v>
       </c>
-      <c r="D1382" s="0" t="s">
+      <c r="D1382" s="4" t="s">
         <v>6234</v>
       </c>
-      <c r="E1382" s="0" t="s">
+      <c r="E1382" s="4" t="s">
         <v>6235</v>
       </c>
-      <c r="F1382" s="7" t="s">
+      <c r="F1382" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1382" s="7" t="s">
+      <c r="G1382" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1383" s="0" t="s">
+      <c r="A1383" s="4" t="s">
         <v>6236</v>
       </c>
-      <c r="B1383" s="0" t="s">
+      <c r="B1383" s="4" t="s">
         <v>6237</v>
       </c>
-      <c r="C1383" s="0" t="s">
+      <c r="C1383" s="4" t="s">
         <v>6238</v>
       </c>
-      <c r="D1383" s="0" t="s">
+      <c r="D1383" s="4" t="s">
         <v>6239</v>
       </c>
-      <c r="E1383" s="0" t="s">
+      <c r="E1383" s="4" t="s">
         <v>6240</v>
       </c>
-      <c r="F1383" s="7" t="s">
+      <c r="F1383" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1383" s="7" t="s">
+      <c r="G1383" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1384" s="0" t="s">
+      <c r="A1384" s="4" t="s">
         <v>6241</v>
       </c>
-      <c r="B1384" s="0" t="s">
+      <c r="B1384" s="4" t="s">
         <v>6242</v>
       </c>
-      <c r="C1384" s="0" t="s">
+      <c r="C1384" s="4" t="s">
         <v>6243</v>
       </c>
-      <c r="D1384" s="0" t="s">
+      <c r="D1384" s="4" t="s">
         <v>6244</v>
       </c>
-      <c r="E1384" s="0" t="s">
+      <c r="E1384" s="4" t="s">
         <v>6245</v>
       </c>
-      <c r="F1384" s="7" t="s">
+      <c r="F1384" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1384" s="7" t="s">
+      <c r="G1384" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1385" s="0" t="s">
+      <c r="A1385" s="4" t="s">
         <v>6246</v>
       </c>
-      <c r="B1385" s="0" t="s">
+      <c r="B1385" s="4" t="s">
         <v>6247</v>
       </c>
-      <c r="C1385" s="0" t="s">
+      <c r="C1385" s="4" t="s">
         <v>6248</v>
       </c>
-      <c r="D1385" s="0" t="s">
+      <c r="D1385" s="4" t="s">
         <v>6249</v>
       </c>
-      <c r="E1385" s="0" t="s">
+      <c r="E1385" s="4" t="s">
         <v>6250</v>
       </c>
-      <c r="F1385" s="7" t="s">
+      <c r="F1385" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1385" s="7" t="s">
+      <c r="G1385" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1386" s="0" t="s">
+      <c r="A1386" s="4" t="s">
         <v>6251</v>
       </c>
-      <c r="B1386" s="0" t="s">
+      <c r="B1386" s="4" t="s">
         <v>6252</v>
       </c>
-      <c r="C1386" s="0" t="s">
+      <c r="C1386" s="4" t="s">
         <v>6253</v>
       </c>
-      <c r="D1386" s="0" t="s">
+      <c r="D1386" s="4" t="s">
         <v>6254</v>
       </c>
-      <c r="E1386" s="0" t="s">
+      <c r="E1386" s="4" t="s">
         <v>6255</v>
       </c>
-      <c r="F1386" s="7" t="s">
+      <c r="F1386" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1386" s="7" t="s">
+      <c r="G1386" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1387" s="0" t="s">
+      <c r="A1387" s="4" t="s">
         <v>6256</v>
       </c>
-      <c r="B1387" s="0" t="s">
+      <c r="B1387" s="4" t="s">
         <v>6257</v>
       </c>
-      <c r="C1387" s="0" t="s">
+      <c r="C1387" s="4" t="s">
         <v>6258</v>
       </c>
-      <c r="D1387" s="0" t="s">
+      <c r="D1387" s="4" t="s">
         <v>6259</v>
       </c>
-      <c r="E1387" s="0" t="s">
+      <c r="E1387" s="4" t="s">
         <v>6260</v>
       </c>
-      <c r="F1387" s="7" t="s">
+      <c r="F1387" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1387" s="7" t="s">
+      <c r="G1387" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1388" s="0" t="s">
+      <c r="A1388" s="4" t="s">
         <v>6261</v>
       </c>
-      <c r="B1388" s="0" t="s">
+      <c r="B1388" s="4" t="s">
         <v>6262</v>
       </c>
-      <c r="C1388" s="0" t="s">
+      <c r="C1388" s="4" t="s">
         <v>6263</v>
       </c>
-      <c r="D1388" s="0" t="s">
+      <c r="D1388" s="4" t="s">
         <v>6264</v>
       </c>
-      <c r="E1388" s="0" t="s">
+      <c r="E1388" s="4" t="s">
         <v>6265</v>
       </c>
-      <c r="F1388" s="7" t="s">
+      <c r="F1388" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1388" s="7" t="s">
+      <c r="G1388" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1389" s="0" t="s">
+      <c r="A1389" s="4" t="s">
         <v>6266</v>
       </c>
-      <c r="B1389" s="0" t="s">
+      <c r="B1389" s="4" t="s">
         <v>6267</v>
       </c>
-      <c r="C1389" s="0" t="s">
+      <c r="C1389" s="4" t="s">
         <v>6268</v>
       </c>
-      <c r="D1389" s="0" t="s">
+      <c r="D1389" s="4" t="s">
         <v>6269</v>
       </c>
-      <c r="E1389" s="0" t="s">
+      <c r="E1389" s="4" t="s">
         <v>6270</v>
       </c>
-      <c r="F1389" s="7" t="s">
+      <c r="F1389" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1389" s="7" t="s">
+      <c r="G1389" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1390" s="7" t="s">
+      <c r="A1390" s="1" t="s">
         <v>6271</v>
       </c>
-      <c r="B1390" s="7" t="s">
+      <c r="B1390" s="1" t="s">
         <v>6272</v>
       </c>
-      <c r="C1390" s="7" t="s">
+      <c r="C1390" s="1" t="s">
         <v>6273</v>
       </c>
-      <c r="D1390" s="7" t="s">
+      <c r="D1390" s="1" t="s">
         <v>6274</v>
       </c>
-      <c r="E1390" s="8" t="s">
+      <c r="E1390" s="1" t="s">
         <v>6275</v>
       </c>
-      <c r="F1390" s="7" t="s">
+      <c r="F1390" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1390" s="7" t="s">
+      <c r="G1390" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1391" s="0" t="s">
+      <c r="A1391" s="4" t="s">
         <v>6276</v>
       </c>
-      <c r="B1391" s="0" t="s">
+      <c r="B1391" s="4" t="s">
         <v>6277</v>
       </c>
-      <c r="C1391" s="0" t="s">
+      <c r="C1391" s="4" t="s">
         <v>6278</v>
       </c>
-      <c r="D1391" s="0" t="s">
+      <c r="D1391" s="4" t="s">
         <v>6279</v>
       </c>
-      <c r="E1391" s="0" t="s">
+      <c r="E1391" s="4" t="s">
         <v>6280</v>
       </c>
-      <c r="F1391" s="7" t="s">
+      <c r="F1391" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="G1391" s="7" t="s">
+      <c r="G1391" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1392" s="0" t="s">
+      <c r="A1392" s="4" t="s">
         <v>6281</v>
       </c>
-      <c r="B1392" s="0" t="s">
+      <c r="B1392" s="4" t="s">
         <v>6282</v>
       </c>
-      <c r="C1392" s="0" t="s">
+      <c r="C1392" s="4" t="s">
         <v>6283</v>
       </c>
-      <c r="D1392" s="0" t="s">
+      <c r="D1392" s="4" t="s">
         <v>6284</v>
       </c>
-      <c r="E1392" s="0" t="s">
+      <c r="E1392" s="4" t="s">
         <v>6285</v>
       </c>
-      <c r="F1392" s="7" t="s">
+      <c r="F1392" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1392" s="7" t="s">
+      <c r="G1392" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1393" s="0" t="s">
+      <c r="A1393" s="4" t="s">
         <v>6286</v>
       </c>
-      <c r="B1393" s="0" t="s">
+      <c r="B1393" s="4" t="s">
         <v>6287</v>
       </c>
-      <c r="C1393" s="0" t="s">
+      <c r="C1393" s="4" t="s">
         <v>6288</v>
       </c>
-      <c r="D1393" s="0" t="s">
+      <c r="D1393" s="4" t="s">
         <v>6289</v>
       </c>
-      <c r="E1393" s="0" t="s">
+      <c r="E1393" s="4" t="s">
         <v>6290</v>
       </c>
-      <c r="F1393" s="7" t="s">
+      <c r="F1393" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1393" s="7" t="s">
+      <c r="G1393" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1394" s="10" t="s">
+      <c r="A1394" s="7" t="s">
         <v>6291</v>
       </c>
-      <c r="B1394" s="7" t="s">
+      <c r="B1394" s="1" t="s">
         <v>6292</v>
       </c>
-      <c r="C1394" s="7" t="s">
+      <c r="C1394" s="1" t="s">
         <v>6293</v>
       </c>
-      <c r="D1394" s="7" t="s">
+      <c r="D1394" s="1" t="s">
         <v>6294</v>
       </c>
-      <c r="E1394" s="8" t="s">
+      <c r="E1394" s="1" t="s">
         <v>6295</v>
       </c>
-      <c r="F1394" s="7" t="s">
+      <c r="F1394" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1394" s="7" t="s">
+      <c r="G1394" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1395" s="0" t="s">
+      <c r="A1395" s="4" t="s">
         <v>6296</v>
       </c>
-      <c r="B1395" s="0" t="s">
+      <c r="B1395" s="4" t="s">
         <v>6297</v>
       </c>
-      <c r="C1395" s="0" t="s">
+      <c r="C1395" s="4" t="s">
         <v>6298</v>
       </c>
-      <c r="D1395" s="0" t="s">
+      <c r="D1395" s="4" t="s">
         <v>6299</v>
       </c>
-      <c r="E1395" s="0" t="s">
+      <c r="E1395" s="4" t="s">
         <v>6300</v>
       </c>
-      <c r="F1395" s="7" t="s">
+      <c r="F1395" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1395" s="7" t="s">
+      <c r="G1395" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1396" s="9" t="s">
+      <c r="A1396" s="7" t="s">
         <v>6301</v>
       </c>
-      <c r="B1396" s="8" t="s">
+      <c r="B1396" s="1" t="s">
         <v>6302</v>
       </c>
-      <c r="C1396" s="8" t="s">
+      <c r="C1396" s="1" t="s">
         <v>6303</v>
       </c>
-      <c r="D1396" s="8" t="s">
+      <c r="D1396" s="1" t="s">
         <v>6304</v>
       </c>
-      <c r="E1396" s="8" t="s">
+      <c r="E1396" s="1" t="s">
         <v>6305</v>
       </c>
-      <c r="F1396" s="7" t="s">
+      <c r="F1396" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1396" s="7" t="s">
+      <c r="G1396" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1397" s="0" t="s">
+      <c r="A1397" s="4" t="s">
         <v>6306</v>
       </c>
-      <c r="B1397" s="0" t="s">
+      <c r="B1397" s="4" t="s">
         <v>6307</v>
       </c>
-      <c r="C1397" s="0" t="s">
+      <c r="C1397" s="4" t="s">
         <v>6308</v>
       </c>
-      <c r="D1397" s="0" t="s">
+      <c r="D1397" s="4" t="s">
         <v>6309</v>
       </c>
-      <c r="E1397" s="0" t="s">
+      <c r="E1397" s="4" t="s">
         <v>6310</v>
       </c>
-      <c r="F1397" s="7" t="s">
+      <c r="F1397" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1397" s="7" t="s">
+      <c r="G1397" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1398" s="0" t="s">
+      <c r="A1398" s="4" t="s">
         <v>6311</v>
       </c>
-      <c r="B1398" s="0" t="s">
+      <c r="B1398" s="4" t="s">
         <v>6312</v>
       </c>
-      <c r="C1398" s="0" t="s">
+      <c r="C1398" s="4" t="s">
         <v>6313</v>
       </c>
-      <c r="D1398" s="0" t="s">
+      <c r="D1398" s="4" t="s">
         <v>6314</v>
       </c>
-      <c r="E1398" s="0" t="s">
+      <c r="E1398" s="4" t="s">
         <v>6315</v>
       </c>
-      <c r="F1398" s="7" t="s">
+      <c r="F1398" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1398" s="7" t="s">
+      <c r="G1398" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
-    <row r="1399" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1399" s="0" t="s">
+    <row r="1399" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="4" t="s">
         <v>6316</v>
       </c>
-      <c r="B1399" s="11" t="s">
+      <c r="B1399" s="5" t="s">
         <v>6317</v>
       </c>
-      <c r="C1399" s="11" t="s">
+      <c r="C1399" s="5" t="s">
         <v>6318</v>
       </c>
-      <c r="D1399" s="11" t="s">
+      <c r="D1399" s="5" t="s">
         <v>6319</v>
       </c>
-      <c r="E1399" s="11" t="s">
+      <c r="E1399" s="5" t="s">
         <v>6320</v>
       </c>
-      <c r="F1399" s="7" t="s">
+      <c r="F1399" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1399" s="7" t="s">
+      <c r="G1399" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1400" s="0" t="s">
+      <c r="A1400" s="4" t="s">
         <v>6321</v>
       </c>
-      <c r="B1400" s="0" t="s">
+      <c r="B1400" s="4" t="s">
         <v>6322</v>
       </c>
-      <c r="C1400" s="0" t="s">
+      <c r="C1400" s="4" t="s">
         <v>6323</v>
       </c>
-      <c r="D1400" s="0" t="s">
+      <c r="D1400" s="4" t="s">
         <v>6324</v>
       </c>
-      <c r="E1400" s="0" t="s">
+      <c r="E1400" s="4" t="s">
         <v>6325</v>
       </c>
-      <c r="F1400" s="7" t="s">
+      <c r="F1400" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1400" s="7" t="s">
+      <c r="G1400" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1401" s="9" t="s">
+      <c r="A1401" s="7" t="s">
         <v>6326</v>
       </c>
-      <c r="B1401" s="8" t="s">
+      <c r="B1401" s="1" t="s">
         <v>6327</v>
       </c>
-      <c r="C1401" s="8" t="s">
+      <c r="C1401" s="1" t="s">
         <v>6328</v>
       </c>
-      <c r="D1401" s="8" t="s">
+      <c r="D1401" s="1" t="s">
         <v>6329</v>
       </c>
-      <c r="E1401" s="8" t="s">
+      <c r="E1401" s="1" t="s">
         <v>6330</v>
       </c>
-      <c r="F1401" s="7" t="s">
+      <c r="F1401" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1401" s="7" t="s">
+      <c r="G1401" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1402" s="9" t="s">
+      <c r="A1402" s="7" t="s">
         <v>6331</v>
       </c>
-      <c r="B1402" s="8" t="s">
+      <c r="B1402" s="1" t="s">
         <v>6332</v>
       </c>
-      <c r="C1402" s="8" t="s">
+      <c r="C1402" s="1" t="s">
         <v>6333</v>
       </c>
-      <c r="D1402" s="8" t="s">
+      <c r="D1402" s="1" t="s">
         <v>6334</v>
       </c>
-      <c r="E1402" s="8" t="s">
+      <c r="E1402" s="1" t="s">
         <v>6335</v>
       </c>
-      <c r="F1402" s="7" t="s">
+      <c r="F1402" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1402" s="7" t="s">
+      <c r="G1402" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1403" s="9" t="s">
+      <c r="A1403" s="7" t="s">
         <v>6336</v>
       </c>
-      <c r="B1403" s="8" t="s">
+      <c r="B1403" s="1" t="s">
         <v>6337</v>
       </c>
-      <c r="C1403" s="8" t="s">
+      <c r="C1403" s="1" t="s">
         <v>6338</v>
       </c>
-      <c r="D1403" s="8" t="s">
+      <c r="D1403" s="1" t="s">
         <v>6339</v>
       </c>
-      <c r="E1403" s="8" t="s">
+      <c r="E1403" s="1" t="s">
         <v>6340</v>
       </c>
-      <c r="F1403" s="7" t="s">
+      <c r="F1403" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1403" s="7" t="s">
+      <c r="G1403" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1404" s="0" t="s">
+      <c r="A1404" s="4" t="s">
         <v>6341</v>
       </c>
-      <c r="B1404" s="0" t="s">
+      <c r="B1404" s="4" t="s">
         <v>6342</v>
       </c>
-      <c r="C1404" s="0" t="s">
+      <c r="C1404" s="4" t="s">
         <v>6343</v>
       </c>
-      <c r="D1404" s="0" t="s">
+      <c r="D1404" s="4" t="s">
         <v>6344</v>
       </c>
-      <c r="E1404" s="0" t="s">
+      <c r="E1404" s="4" t="s">
         <v>6345</v>
       </c>
-      <c r="F1404" s="7" t="s">
+      <c r="F1404" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1404" s="7" t="s">
+      <c r="G1404" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1405" s="0" t="s">
+      <c r="A1405" s="4" t="s">
         <v>6346</v>
       </c>
-      <c r="B1405" s="0" t="s">
+      <c r="B1405" s="4" t="s">
         <v>6347</v>
       </c>
-      <c r="C1405" s="0" t="s">
+      <c r="C1405" s="4" t="s">
         <v>6348</v>
       </c>
-      <c r="D1405" s="0" t="s">
+      <c r="D1405" s="4" t="s">
         <v>6349</v>
       </c>
-      <c r="E1405" s="0" t="s">
+      <c r="E1405" s="4" t="s">
         <v>6350</v>
       </c>
-      <c r="F1405" s="7" t="s">
+      <c r="F1405" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1405" s="7" t="s">
+      <c r="G1405" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1406" s="9" t="s">
+      <c r="A1406" s="7" t="s">
         <v>6351</v>
       </c>
-      <c r="B1406" s="8" t="s">
+      <c r="B1406" s="1" t="s">
         <v>6289</v>
       </c>
-      <c r="C1406" s="8" t="s">
+      <c r="C1406" s="1" t="s">
         <v>6352</v>
       </c>
-      <c r="D1406" s="8" t="s">
+      <c r="D1406" s="1" t="s">
         <v>6353</v>
       </c>
-      <c r="E1406" s="8" t="s">
+      <c r="E1406" s="1" t="s">
         <v>6254</v>
       </c>
-      <c r="F1406" s="7" t="s">
+      <c r="F1406" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1406" s="7" t="s">
+      <c r="G1406" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1407" s="0" t="s">
+      <c r="A1407" s="4" t="s">
         <v>6354</v>
       </c>
-      <c r="B1407" s="0" t="s">
+      <c r="B1407" s="4" t="s">
         <v>6355</v>
       </c>
-      <c r="C1407" s="0" t="s">
+      <c r="C1407" s="4" t="s">
         <v>6356</v>
       </c>
-      <c r="D1407" s="0" t="s">
+      <c r="D1407" s="4" t="s">
         <v>6357</v>
       </c>
-      <c r="E1407" s="0" t="s">
+      <c r="E1407" s="4" t="s">
         <v>6358</v>
       </c>
-      <c r="F1407" s="7" t="s">
+      <c r="F1407" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1407" s="7" t="s">
+      <c r="G1407" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1408" s="0" t="s">
+      <c r="A1408" s="4" t="s">
         <v>6359</v>
       </c>
-      <c r="B1408" s="0" t="s">
+      <c r="B1408" s="4" t="s">
         <v>6360</v>
       </c>
-      <c r="C1408" s="0" t="s">
+      <c r="C1408" s="4" t="s">
         <v>6361</v>
       </c>
-      <c r="D1408" s="0" t="s">
+      <c r="D1408" s="4" t="s">
         <v>6362</v>
       </c>
-      <c r="E1408" s="0" t="s">
+      <c r="E1408" s="4" t="s">
         <v>6322</v>
       </c>
-      <c r="F1408" s="7" t="s">
+      <c r="F1408" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1408" s="7" t="s">
+      <c r="G1408" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1409" s="0" t="s">
+      <c r="A1409" s="4" t="s">
         <v>6363</v>
       </c>
-      <c r="B1409" s="0" t="s">
+      <c r="B1409" s="4" t="s">
         <v>6364</v>
       </c>
-      <c r="C1409" s="0" t="s">
+      <c r="C1409" s="4" t="s">
         <v>6365</v>
       </c>
-      <c r="D1409" s="0" t="s">
+      <c r="D1409" s="4" t="s">
         <v>6366</v>
       </c>
-      <c r="E1409" s="0" t="s">
+      <c r="E1409" s="4" t="s">
         <v>6367</v>
       </c>
-      <c r="F1409" s="7" t="s">
+      <c r="F1409" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1409" s="7" t="s">
+      <c r="G1409" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1410" s="9" t="s">
+      <c r="A1410" s="7" t="s">
         <v>6368</v>
       </c>
-      <c r="B1410" s="8" t="s">
+      <c r="B1410" s="1" t="s">
         <v>6369</v>
       </c>
-      <c r="C1410" s="8" t="s">
+      <c r="C1410" s="1" t="s">
         <v>6370</v>
       </c>
-      <c r="D1410" s="8" t="s">
+      <c r="D1410" s="1" t="s">
         <v>6371</v>
       </c>
-      <c r="E1410" s="8" t="s">
+      <c r="E1410" s="1" t="s">
         <v>6372</v>
       </c>
-      <c r="F1410" s="7" t="s">
+      <c r="F1410" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1410" s="7" t="s">
+      <c r="G1410" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1411" s="9" t="s">
+      <c r="A1411" s="7" t="s">
         <v>6373</v>
       </c>
-      <c r="B1411" s="8" t="s">
+      <c r="B1411" s="1" t="s">
         <v>6374</v>
       </c>
-      <c r="C1411" s="8" t="s">
+      <c r="C1411" s="1" t="s">
         <v>6375</v>
       </c>
-      <c r="D1411" s="8" t="s">
+      <c r="D1411" s="1" t="s">
         <v>6376</v>
       </c>
-      <c r="E1411" s="8" t="s">
+      <c r="E1411" s="1" t="s">
         <v>6377</v>
       </c>
-      <c r="F1411" s="8" t="s">
+      <c r="F1411" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1411" s="7" t="s">
+      <c r="G1411" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
-    <row r="1412" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1412" s="9" t="s">
+    <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1412" s="7" t="s">
         <v>6379</v>
       </c>
-      <c r="B1412" s="8" t="s">
+      <c r="B1412" s="1" t="s">
         <v>6380</v>
       </c>
-      <c r="C1412" s="8" t="s">
+      <c r="C1412" s="1" t="s">
         <v>6381</v>
       </c>
-      <c r="D1412" s="8" t="s">
+      <c r="D1412" s="1" t="s">
         <v>6382</v>
       </c>
-      <c r="E1412" s="8" t="s">
+      <c r="E1412" s="1" t="s">
         <v>6383</v>
       </c>
-      <c r="F1412" s="7" t="s">
+      <c r="F1412" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1412" s="7" t="s">
+      <c r="G1412" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1413" s="9" t="s">
+      <c r="A1413" s="7" t="s">
         <v>6384</v>
       </c>
-      <c r="B1413" s="8" t="s">
+      <c r="B1413" s="1" t="s">
         <v>6385</v>
       </c>
-      <c r="C1413" s="8" t="s">
+      <c r="C1413" s="1" t="s">
         <v>6386</v>
       </c>
-      <c r="D1413" s="8" t="s">
+      <c r="D1413" s="1" t="s">
         <v>6387</v>
       </c>
-      <c r="E1413" s="9" t="s">
+      <c r="E1413" s="7" t="s">
         <v>6388</v>
       </c>
-      <c r="F1413" s="7" t="s">
+      <c r="F1413" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1413" s="7" t="s">
+      <c r="G1413" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1414" s="9" t="s">
+      <c r="A1414" s="7" t="s">
         <v>6389</v>
       </c>
-      <c r="B1414" s="8" t="s">
+      <c r="B1414" s="1" t="s">
         <v>6390</v>
       </c>
-      <c r="C1414" s="8" t="s">
+      <c r="C1414" s="1" t="s">
         <v>6391</v>
       </c>
-      <c r="D1414" s="8" t="s">
+      <c r="D1414" s="1" t="s">
         <v>6392</v>
       </c>
-      <c r="E1414" s="8" t="s">
+      <c r="E1414" s="1" t="s">
         <v>6393</v>
       </c>
-      <c r="F1414" s="7" t="s">
+      <c r="F1414" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1414" s="7" t="s">
+      <c r="G1414" s="1" t="s">
         <v>6124</v>
       </c>
     </row>
     <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1415" s="9" t="s">
+      <c r="A1415" s="7" t="s">
         <v>6394</v>
       </c>
-      <c r="B1415" s="8" t="s">
+      <c r="B1415" s="1" t="s">
         <v>6395</v>
       </c>
-      <c r="C1415" s="8" t="s">
+      <c r="C1415" s="1" t="s">
         <v>6396</v>
       </c>
-      <c r="D1415" s="8" t="s">
+      <c r="D1415" s="1" t="s">
         <v>6397</v>
       </c>
-      <c r="E1415" s="8" t="s">
+      <c r="E1415" s="1" t="s">
         <v>6398</v>
       </c>
-      <c r="F1415" s="7" t="s">
+      <c r="F1415" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1415" s="7" t="s">
+      <c r="G1415" s="1" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1416" s="8" t="s">
+        <v>6399</v>
+      </c>
+      <c r="B1416" s="9" t="s">
+        <v>6400</v>
+      </c>
+      <c r="C1416" s="9" t="s">
+        <v>6401</v>
+      </c>
+      <c r="D1416" s="9" t="s">
+        <v>6402</v>
+      </c>
+      <c r="E1416" s="9" t="s">
+        <v>6403</v>
+      </c>
+      <c r="F1416" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1416" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="11" t="s">
+        <v>6404</v>
+      </c>
+      <c r="B1417" s="9" t="s">
+        <v>6405</v>
+      </c>
+      <c r="C1417" s="9" t="s">
+        <v>6406</v>
+      </c>
+      <c r="D1417" s="9" t="s">
+        <v>6407</v>
+      </c>
+      <c r="E1417" s="9" t="s">
+        <v>6408</v>
+      </c>
+      <c r="F1417" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1417" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1418" s="12" t="s">
+        <v>6409</v>
+      </c>
+      <c r="B1418" s="9" t="s">
+        <v>6401</v>
+      </c>
+      <c r="C1418" s="9" t="s">
+        <v>6410</v>
+      </c>
+      <c r="D1418" s="9" t="s">
+        <v>6411</v>
+      </c>
+      <c r="E1418" s="9" t="s">
+        <v>6412</v>
+      </c>
+      <c r="F1418" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1418" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1419" s="8" t="s">
+        <v>6413</v>
+      </c>
+      <c r="B1419" s="9" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C1419" s="9" t="s">
+        <v>6415</v>
+      </c>
+      <c r="D1419" s="9" t="s">
+        <v>6416</v>
+      </c>
+      <c r="E1419" s="9" t="s">
+        <v>6417</v>
+      </c>
+      <c r="F1419" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1419" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1420" s="8" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B1420" s="9" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C1420" s="9" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D1420" s="9" t="s">
+        <v>6421</v>
+      </c>
+      <c r="E1420" s="9" t="s">
+        <v>6422</v>
+      </c>
+      <c r="F1420" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1420" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1421" s="8" t="s">
+        <v>6423</v>
+      </c>
+      <c r="B1421" s="9" t="s">
+        <v>6424</v>
+      </c>
+      <c r="C1421" s="9" t="s">
+        <v>6425</v>
+      </c>
+      <c r="D1421" s="9" t="s">
+        <v>6426</v>
+      </c>
+      <c r="E1421" s="9" t="s">
+        <v>6427</v>
+      </c>
+      <c r="F1421" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1421" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="8" t="s">
+        <v>6428</v>
+      </c>
+      <c r="B1422" s="9" t="s">
+        <v>6429</v>
+      </c>
+      <c r="C1422" s="8" t="s">
+        <v>6430</v>
+      </c>
+      <c r="D1422" s="8" t="s">
+        <v>6431</v>
+      </c>
+      <c r="E1422" s="9" t="s">
+        <v>6432</v>
+      </c>
+      <c r="F1422" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1422" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="0" t="s">
+        <v>6433</v>
+      </c>
+      <c r="B1423" s="0" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C1423" s="0" t="s">
+        <v>6435</v>
+      </c>
+      <c r="D1423" s="0" t="s">
+        <v>6436</v>
+      </c>
+      <c r="E1423" s="0" t="s">
+        <v>6437</v>
+      </c>
+      <c r="F1423" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1423" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="0" t="s">
+        <v>6438</v>
+      </c>
+      <c r="B1424" s="8" t="s">
+        <v>6439</v>
+      </c>
+      <c r="C1424" s="8" t="s">
+        <v>6440</v>
+      </c>
+      <c r="D1424" s="12" t="s">
+        <v>6441</v>
+      </c>
+      <c r="E1424" s="9" t="s">
+        <v>6442</v>
+      </c>
+      <c r="F1424" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1424" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="0" t="s">
+        <v>6443</v>
+      </c>
+      <c r="B1425" s="0" t="s">
+        <v>6444</v>
+      </c>
+      <c r="C1425" s="0" t="s">
+        <v>6445</v>
+      </c>
+      <c r="D1425" s="0" t="s">
+        <v>6446</v>
+      </c>
+      <c r="E1425" s="0" t="s">
+        <v>6447</v>
+      </c>
+      <c r="F1425" s="10" t="s">
+        <v>6378</v>
+      </c>
+      <c r="G1425" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="0" t="s">
+        <v>6448</v>
+      </c>
+      <c r="B1426" s="0" t="s">
+        <v>6449</v>
+      </c>
+      <c r="C1426" s="0" t="s">
+        <v>6450</v>
+      </c>
+      <c r="D1426" s="0" t="s">
+        <v>6451</v>
+      </c>
+      <c r="E1426" s="0" t="s">
+        <v>6452</v>
+      </c>
+      <c r="F1426" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1426" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="8" t="s">
+        <v>6453</v>
+      </c>
+      <c r="B1427" s="9" t="s">
+        <v>6454</v>
+      </c>
+      <c r="C1427" s="9" t="s">
+        <v>6455</v>
+      </c>
+      <c r="D1427" s="9" t="s">
+        <v>6456</v>
+      </c>
+      <c r="E1427" s="9" t="s">
+        <v>6457</v>
+      </c>
+      <c r="F1427" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1427" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="8" t="s">
+        <v>6458</v>
+      </c>
+      <c r="B1428" s="9" t="s">
+        <v>6459</v>
+      </c>
+      <c r="C1428" s="9" t="s">
+        <v>6460</v>
+      </c>
+      <c r="D1428" s="9" t="s">
+        <v>6461</v>
+      </c>
+      <c r="E1428" s="9" t="s">
+        <v>6462</v>
+      </c>
+      <c r="F1428" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1428" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="0" t="s">
+        <v>6463</v>
+      </c>
+      <c r="B1429" s="0" t="s">
+        <v>6464</v>
+      </c>
+      <c r="C1429" s="0" t="s">
+        <v>6465</v>
+      </c>
+      <c r="D1429" s="0" t="s">
+        <v>6466</v>
+      </c>
+      <c r="E1429" s="0" t="s">
+        <v>6467</v>
+      </c>
+      <c r="F1429" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1429" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="8" t="s">
+        <v>6468</v>
+      </c>
+      <c r="B1430" s="9" t="s">
+        <v>6469</v>
+      </c>
+      <c r="C1430" s="9" t="s">
+        <v>6470</v>
+      </c>
+      <c r="D1430" s="9" t="s">
+        <v>6471</v>
+      </c>
+      <c r="E1430" s="9" t="s">
+        <v>6472</v>
+      </c>
+      <c r="F1430" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1430" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1431" s="8" t="s">
+        <v>6473</v>
+      </c>
+      <c r="B1431" s="9" t="s">
+        <v>6474</v>
+      </c>
+      <c r="C1431" s="9" t="s">
+        <v>6475</v>
+      </c>
+      <c r="D1431" s="9" t="s">
+        <v>6476</v>
+      </c>
+      <c r="E1431" s="9" t="s">
+        <v>6477</v>
+      </c>
+      <c r="F1431" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1431" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="12" t="s">
+        <v>6478</v>
+      </c>
+      <c r="B1432" s="10" t="s">
+        <v>6479</v>
+      </c>
+      <c r="C1432" s="9" t="s">
+        <v>6480</v>
+      </c>
+      <c r="D1432" s="9" t="s">
+        <v>6481</v>
+      </c>
+      <c r="E1432" s="9" t="s">
+        <v>6482</v>
+      </c>
+      <c r="F1432" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1432" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="8" t="s">
+        <v>6483</v>
+      </c>
+      <c r="B1433" s="8" t="s">
+        <v>6484</v>
+      </c>
+      <c r="C1433" s="8" t="s">
+        <v>6485</v>
+      </c>
+      <c r="D1433" s="9" t="s">
+        <v>6486</v>
+      </c>
+      <c r="E1433" s="9" t="s">
+        <v>6487</v>
+      </c>
+      <c r="F1433" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1433" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="8" t="s">
+        <v>6488</v>
+      </c>
+      <c r="B1434" s="9" t="s">
+        <v>6489</v>
+      </c>
+      <c r="C1434" s="9" t="s">
+        <v>6490</v>
+      </c>
+      <c r="D1434" s="9" t="s">
+        <v>6491</v>
+      </c>
+      <c r="E1434" s="9" t="s">
+        <v>6492</v>
+      </c>
+      <c r="F1434" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1434" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="13" t="s">
+        <v>6493</v>
+      </c>
+      <c r="B1435" s="9" t="s">
+        <v>6494</v>
+      </c>
+      <c r="C1435" s="9" t="s">
+        <v>6495</v>
+      </c>
+      <c r="D1435" s="9" t="s">
+        <v>6496</v>
+      </c>
+      <c r="E1435" s="9" t="s">
+        <v>6497</v>
+      </c>
+      <c r="F1435" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1435" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="10" t="s">
+        <v>6498</v>
+      </c>
+      <c r="B1436" s="12" t="s">
+        <v>6499</v>
+      </c>
+      <c r="C1436" s="9" t="s">
+        <v>6500</v>
+      </c>
+      <c r="D1436" s="9" t="s">
+        <v>6501</v>
+      </c>
+      <c r="E1436" s="9" t="s">
+        <v>6502</v>
+      </c>
+      <c r="F1436" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1436" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="0" t="s">
+        <v>6503</v>
+      </c>
+      <c r="B1437" s="14" t="s">
+        <v>6504</v>
+      </c>
+      <c r="C1437" s="10" t="s">
+        <v>6505</v>
+      </c>
+      <c r="D1437" s="10" t="s">
+        <v>6506</v>
+      </c>
+      <c r="E1437" s="9" t="s">
+        <v>6507</v>
+      </c>
+      <c r="F1437" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1437" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="8" t="s">
+        <v>6508</v>
+      </c>
+      <c r="B1438" s="8" t="s">
+        <v>6509</v>
+      </c>
+      <c r="C1438" s="9" t="s">
+        <v>6510</v>
+      </c>
+      <c r="D1438" s="9" t="s">
+        <v>6511</v>
+      </c>
+      <c r="E1438" s="9" t="s">
+        <v>6512</v>
+      </c>
+      <c r="F1438" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1438" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="15" t="s">
+        <v>6513</v>
+      </c>
+      <c r="B1439" s="13" t="s">
+        <v>6514</v>
+      </c>
+      <c r="C1439" s="10" t="s">
+        <v>6515</v>
+      </c>
+      <c r="D1439" s="13" t="s">
+        <v>6516</v>
+      </c>
+      <c r="E1439" s="13" t="s">
+        <v>6517</v>
+      </c>
+      <c r="F1439" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1439" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="0" t="s">
+        <v>6518</v>
+      </c>
+      <c r="B1440" s="0" t="s">
+        <v>6519</v>
+      </c>
+      <c r="C1440" s="0" t="s">
+        <v>6520</v>
+      </c>
+      <c r="D1440" s="0" t="s">
+        <v>6521</v>
+      </c>
+      <c r="E1440" s="0" t="s">
+        <v>6522</v>
+      </c>
+      <c r="F1440" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1440" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="8" t="s">
+        <v>6523</v>
+      </c>
+      <c r="B1441" s="9" t="s">
+        <v>6524</v>
+      </c>
+      <c r="C1441" s="9" t="s">
+        <v>6525</v>
+      </c>
+      <c r="D1441" s="9" t="s">
+        <v>6526</v>
+      </c>
+      <c r="E1441" s="9" t="s">
+        <v>6527</v>
+      </c>
+      <c r="F1441" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1441" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1442" s="8" t="s">
+        <v>6528</v>
+      </c>
+      <c r="B1442" s="9" t="s">
+        <v>6529</v>
+      </c>
+      <c r="C1442" s="10" t="s">
+        <v>6530</v>
+      </c>
+      <c r="D1442" s="10" t="s">
+        <v>6531</v>
+      </c>
+      <c r="E1442" s="10" t="s">
+        <v>6532</v>
+      </c>
+      <c r="F1442" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1442" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1443" s="0" t="s">
+        <v>6533</v>
+      </c>
+      <c r="B1443" s="0" t="s">
+        <v>6534</v>
+      </c>
+      <c r="C1443" s="0" t="s">
+        <v>6535</v>
+      </c>
+      <c r="D1443" s="0" t="s">
+        <v>6536</v>
+      </c>
+      <c r="E1443" s="0" t="s">
+        <v>6537</v>
+      </c>
+      <c r="F1443" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1443" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1444" s="0" t="s">
+        <v>6538</v>
+      </c>
+      <c r="B1444" s="0" t="s">
+        <v>6539</v>
+      </c>
+      <c r="C1444" s="0" t="s">
+        <v>6540</v>
+      </c>
+      <c r="D1444" s="0" t="s">
+        <v>6541</v>
+      </c>
+      <c r="E1444" s="0" t="s">
+        <v>6542</v>
+      </c>
+      <c r="F1444" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1444" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="8" t="s">
+        <v>6543</v>
+      </c>
+      <c r="B1445" s="8" t="s">
+        <v>6544</v>
+      </c>
+      <c r="C1445" s="9" t="s">
+        <v>6545</v>
+      </c>
+      <c r="D1445" s="9" t="s">
+        <v>6546</v>
+      </c>
+      <c r="E1445" s="9" t="s">
+        <v>6547</v>
+      </c>
+      <c r="F1445" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1445" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="13" t="s">
+        <v>6548</v>
+      </c>
+      <c r="B1446" s="13" t="s">
+        <v>6549</v>
+      </c>
+      <c r="C1446" s="10" t="s">
+        <v>6550</v>
+      </c>
+      <c r="D1446" s="9" t="s">
+        <v>6551</v>
+      </c>
+      <c r="E1446" s="9" t="s">
+        <v>6552</v>
+      </c>
+      <c r="F1446" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1446" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="0" t="s">
+        <v>6553</v>
+      </c>
+      <c r="B1447" s="0" t="s">
+        <v>6554</v>
+      </c>
+      <c r="C1447" s="0" t="s">
+        <v>6555</v>
+      </c>
+      <c r="D1447" s="0" t="s">
+        <v>6556</v>
+      </c>
+      <c r="E1447" s="0" t="s">
+        <v>6557</v>
+      </c>
+      <c r="F1447" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1447" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="8" t="s">
+        <v>6558</v>
+      </c>
+      <c r="B1448" s="9" t="s">
+        <v>6559</v>
+      </c>
+      <c r="C1448" s="9" t="s">
+        <v>6560</v>
+      </c>
+      <c r="D1448" s="9" t="s">
+        <v>6561</v>
+      </c>
+      <c r="E1448" s="9" t="s">
+        <v>6562</v>
+      </c>
+      <c r="F1448" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1448" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1449" s="0" t="s">
+        <v>6563</v>
+      </c>
+      <c r="B1449" s="0" t="s">
+        <v>6564</v>
+      </c>
+      <c r="C1449" s="0" t="s">
+        <v>6565</v>
+      </c>
+      <c r="D1449" s="0" t="s">
+        <v>6566</v>
+      </c>
+      <c r="E1449" s="0" t="s">
+        <v>6567</v>
+      </c>
+      <c r="F1449" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1449" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1450" s="0" t="s">
+        <v>6568</v>
+      </c>
+      <c r="B1450" s="0" t="s">
+        <v>6569</v>
+      </c>
+      <c r="C1450" s="0" t="s">
+        <v>6570</v>
+      </c>
+      <c r="D1450" s="0" t="s">
+        <v>6571</v>
+      </c>
+      <c r="E1450" s="0" t="s">
+        <v>6572</v>
+      </c>
+      <c r="F1450" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1450" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1451" s="0" t="s">
+        <v>6573</v>
+      </c>
+      <c r="B1451" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1451" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1451" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1451" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1451" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1451" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="0" t="s">
+        <v>6574</v>
+      </c>
+      <c r="B1452" s="0" t="s">
+        <v>6575</v>
+      </c>
+      <c r="C1452" s="0" t="s">
+        <v>6576</v>
+      </c>
+      <c r="D1452" s="0" t="s">
+        <v>6577</v>
+      </c>
+      <c r="E1452" s="0" t="s">
+        <v>6578</v>
+      </c>
+      <c r="F1452" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1452" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1453" s="0" t="s">
+        <v>6579</v>
+      </c>
+      <c r="B1453" s="0" t="s">
+        <v>6580</v>
+      </c>
+      <c r="C1453" s="0" t="s">
+        <v>6581</v>
+      </c>
+      <c r="D1453" s="0" t="s">
+        <v>6582</v>
+      </c>
+      <c r="E1453" s="0" t="s">
+        <v>6583</v>
+      </c>
+      <c r="F1453" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1453" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1454" s="0" t="s">
+        <v>6584</v>
+      </c>
+      <c r="B1454" s="8" t="s">
+        <v>6585</v>
+      </c>
+      <c r="C1454" s="9" t="s">
+        <v>6586</v>
+      </c>
+      <c r="D1454" s="9" t="s">
+        <v>6587</v>
+      </c>
+      <c r="E1454" s="9" t="s">
+        <v>6588</v>
+      </c>
+      <c r="F1454" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1454" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1455" s="0" t="s">
+        <v>6589</v>
+      </c>
+      <c r="B1455" s="0" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C1455" s="0" t="s">
+        <v>6591</v>
+      </c>
+      <c r="D1455" s="0" t="s">
+        <v>6592</v>
+      </c>
+      <c r="E1455" s="0" t="s">
+        <v>6593</v>
+      </c>
+      <c r="F1455" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1455" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="0" t="s">
+        <v>6594</v>
+      </c>
+      <c r="B1456" s="0" t="s">
+        <v>6595</v>
+      </c>
+      <c r="C1456" s="10" t="s">
+        <v>6596</v>
+      </c>
+      <c r="D1456" s="9" t="s">
+        <v>6597</v>
+      </c>
+      <c r="E1456" s="10" t="s">
+        <v>6598</v>
+      </c>
+      <c r="F1456" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1456" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="8" t="s">
+        <v>6599</v>
+      </c>
+      <c r="B1457" s="9" t="s">
+        <v>6600</v>
+      </c>
+      <c r="C1457" s="9" t="s">
+        <v>6601</v>
+      </c>
+      <c r="D1457" s="9" t="s">
+        <v>6602</v>
+      </c>
+      <c r="E1457" s="9" t="s">
+        <v>6603</v>
+      </c>
+      <c r="F1457" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1457" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="0" t="s">
+        <v>6604</v>
+      </c>
+      <c r="B1458" s="0" t="s">
+        <v>6605</v>
+      </c>
+      <c r="C1458" s="0" t="s">
+        <v>6606</v>
+      </c>
+      <c r="D1458" s="0" t="s">
+        <v>6607</v>
+      </c>
+      <c r="E1458" s="0" t="s">
+        <v>6608</v>
+      </c>
+      <c r="F1458" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1458" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="0" t="s">
+        <v>6609</v>
+      </c>
+      <c r="B1459" s="0" t="s">
+        <v>6610</v>
+      </c>
+      <c r="C1459" s="0" t="s">
+        <v>6611</v>
+      </c>
+      <c r="D1459" s="0" t="s">
+        <v>6612</v>
+      </c>
+      <c r="E1459" s="0" t="s">
+        <v>6613</v>
+      </c>
+      <c r="F1459" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1459" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="0" t="s">
+        <v>6614</v>
+      </c>
+      <c r="B1460" s="0" t="s">
+        <v>6615</v>
+      </c>
+      <c r="C1460" s="0" t="s">
+        <v>6616</v>
+      </c>
+      <c r="D1460" s="0" t="s">
+        <v>6617</v>
+      </c>
+      <c r="E1460" s="0" t="s">
+        <v>6618</v>
+      </c>
+      <c r="F1460" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1460" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="8" t="s">
+        <v>6619</v>
+      </c>
+      <c r="B1461" s="9" t="s">
+        <v>6620</v>
+      </c>
+      <c r="C1461" s="9" t="s">
+        <v>6621</v>
+      </c>
+      <c r="D1461" s="9" t="s">
+        <v>6622</v>
+      </c>
+      <c r="E1461" s="9" t="s">
+        <v>6623</v>
+      </c>
+      <c r="F1461" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1461" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="0" t="s">
+        <v>6624</v>
+      </c>
+      <c r="B1462" s="0" t="s">
+        <v>6625</v>
+      </c>
+      <c r="C1462" s="0" t="s">
+        <v>6626</v>
+      </c>
+      <c r="D1462" s="0" t="s">
+        <v>6627</v>
+      </c>
+      <c r="E1462" s="0" t="s">
+        <v>6628</v>
+      </c>
+      <c r="F1462" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1462" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="0" t="s">
+        <v>6629</v>
+      </c>
+      <c r="B1463" s="0" t="s">
+        <v>6630</v>
+      </c>
+      <c r="C1463" s="0" t="s">
+        <v>6631</v>
+      </c>
+      <c r="D1463" s="0" t="s">
+        <v>6632</v>
+      </c>
+      <c r="E1463" s="0" t="s">
+        <v>6633</v>
+      </c>
+      <c r="F1463" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1463" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="0" t="s">
+        <v>6634</v>
+      </c>
+      <c r="B1464" s="0" t="s">
+        <v>6635</v>
+      </c>
+      <c r="C1464" s="0" t="s">
+        <v>6636</v>
+      </c>
+      <c r="D1464" s="0" t="s">
+        <v>6637</v>
+      </c>
+      <c r="E1464" s="0" t="s">
+        <v>6638</v>
+      </c>
+      <c r="F1464" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1464" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="0" t="s">
+        <v>6639</v>
+      </c>
+      <c r="B1465" s="0" t="s">
+        <v>6640</v>
+      </c>
+      <c r="C1465" s="0" t="s">
+        <v>6641</v>
+      </c>
+      <c r="D1465" s="0" t="s">
+        <v>6642</v>
+      </c>
+      <c r="E1465" s="0" t="s">
+        <v>6643</v>
+      </c>
+      <c r="F1465" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1465" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="8" t="s">
+        <v>6644</v>
+      </c>
+      <c r="B1466" s="9" t="s">
+        <v>6645</v>
+      </c>
+      <c r="C1466" s="9" t="s">
+        <v>6646</v>
+      </c>
+      <c r="D1466" s="9" t="s">
+        <v>6647</v>
+      </c>
+      <c r="E1466" s="9" t="s">
+        <v>6648</v>
+      </c>
+      <c r="F1466" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1466" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="0" t="s">
+        <v>6649</v>
+      </c>
+      <c r="B1467" s="0" t="s">
+        <v>6650</v>
+      </c>
+      <c r="C1467" s="0" t="s">
+        <v>6651</v>
+      </c>
+      <c r="D1467" s="0" t="s">
+        <v>6652</v>
+      </c>
+      <c r="E1467" s="0" t="s">
+        <v>6653</v>
+      </c>
+      <c r="F1467" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1467" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1468" s="0" t="s">
+        <v>6654</v>
+      </c>
+      <c r="B1468" s="0" t="s">
+        <v>6655</v>
+      </c>
+      <c r="C1468" s="0" t="s">
+        <v>6656</v>
+      </c>
+      <c r="D1468" s="0" t="s">
+        <v>6657</v>
+      </c>
+      <c r="E1468" s="0" t="s">
+        <v>6658</v>
+      </c>
+      <c r="F1468" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1468" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="0" t="s">
+        <v>6659</v>
+      </c>
+      <c r="B1469" s="0" t="s">
+        <v>6660</v>
+      </c>
+      <c r="C1469" s="0" t="s">
+        <v>6661</v>
+      </c>
+      <c r="D1469" s="0" t="s">
+        <v>6662</v>
+      </c>
+      <c r="E1469" s="0" t="s">
+        <v>6663</v>
+      </c>
+      <c r="F1469" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1469" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="0" t="s">
+        <v>6664</v>
+      </c>
+      <c r="B1470" s="8" t="s">
+        <v>6665</v>
+      </c>
+      <c r="C1470" s="9" t="s">
+        <v>6666</v>
+      </c>
+      <c r="D1470" s="9" t="s">
+        <v>6667</v>
+      </c>
+      <c r="E1470" s="9" t="s">
+        <v>6668</v>
+      </c>
+      <c r="F1470" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1470" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="0" t="s">
+        <v>6669</v>
+      </c>
+      <c r="B1471" s="0" t="s">
+        <v>6670</v>
+      </c>
+      <c r="C1471" s="0" t="s">
+        <v>6671</v>
+      </c>
+      <c r="D1471" s="0" t="s">
+        <v>6672</v>
+      </c>
+      <c r="E1471" s="0" t="s">
+        <v>6673</v>
+      </c>
+      <c r="F1471" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1471" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="0" t="s">
+        <v>6674</v>
+      </c>
+      <c r="B1472" s="0" t="s">
+        <v>6675</v>
+      </c>
+      <c r="C1472" s="0" t="s">
+        <v>6676</v>
+      </c>
+      <c r="D1472" s="0" t="s">
+        <v>6677</v>
+      </c>
+      <c r="E1472" s="0" t="s">
+        <v>6678</v>
+      </c>
+      <c r="F1472" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1472" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="0" t="s">
+        <v>6679</v>
+      </c>
+      <c r="B1473" s="0" t="s">
+        <v>6680</v>
+      </c>
+      <c r="C1473" s="0" t="s">
+        <v>6681</v>
+      </c>
+      <c r="D1473" s="0" t="s">
+        <v>6682</v>
+      </c>
+      <c r="E1473" s="0" t="s">
+        <v>6683</v>
+      </c>
+      <c r="F1473" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1473" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="0" t="s">
+        <v>6684</v>
+      </c>
+      <c r="B1474" s="0" t="s">
+        <v>6685</v>
+      </c>
+      <c r="C1474" s="0" t="s">
+        <v>6686</v>
+      </c>
+      <c r="D1474" s="0" t="s">
+        <v>6687</v>
+      </c>
+      <c r="E1474" s="0" t="s">
+        <v>6688</v>
+      </c>
+      <c r="F1474" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1474" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="0" t="s">
+        <v>6689</v>
+      </c>
+      <c r="B1475" s="0" t="s">
+        <v>6690</v>
+      </c>
+      <c r="C1475" s="0" t="s">
+        <v>6691</v>
+      </c>
+      <c r="D1475" s="0" t="s">
+        <v>6692</v>
+      </c>
+      <c r="E1475" s="0" t="s">
+        <v>6693</v>
+      </c>
+      <c r="F1475" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1475" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="0" t="s">
+        <v>6694</v>
+      </c>
+      <c r="B1476" s="0" t="s">
+        <v>6695</v>
+      </c>
+      <c r="C1476" s="0" t="s">
+        <v>6696</v>
+      </c>
+      <c r="D1476" s="0" t="s">
+        <v>6697</v>
+      </c>
+      <c r="E1476" s="0" t="s">
+        <v>6698</v>
+      </c>
+      <c r="F1476" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1476" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="0" t="s">
+        <v>6699</v>
+      </c>
+      <c r="B1477" s="0" t="s">
+        <v>6700</v>
+      </c>
+      <c r="C1477" s="0" t="s">
+        <v>6701</v>
+      </c>
+      <c r="D1477" s="0" t="s">
+        <v>6702</v>
+      </c>
+      <c r="E1477" s="0" t="s">
+        <v>6703</v>
+      </c>
+      <c r="F1477" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1477" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="0" t="s">
+        <v>6704</v>
+      </c>
+      <c r="B1478" s="0" t="s">
+        <v>6705</v>
+      </c>
+      <c r="C1478" s="0" t="s">
+        <v>6706</v>
+      </c>
+      <c r="D1478" s="0" t="s">
+        <v>6707</v>
+      </c>
+      <c r="E1478" s="0" t="s">
+        <v>6708</v>
+      </c>
+      <c r="F1478" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1478" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="8" t="s">
+        <v>6709</v>
+      </c>
+      <c r="B1479" s="9" t="s">
+        <v>6710</v>
+      </c>
+      <c r="C1479" s="9" t="s">
+        <v>6711</v>
+      </c>
+      <c r="D1479" s="9" t="s">
+        <v>6712</v>
+      </c>
+      <c r="E1479" s="9" t="s">
+        <v>6713</v>
+      </c>
+      <c r="F1479" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1479" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="8" t="s">
+        <v>6714</v>
+      </c>
+      <c r="B1480" s="9" t="s">
+        <v>6715</v>
+      </c>
+      <c r="C1480" s="9" t="s">
+        <v>6716</v>
+      </c>
+      <c r="D1480" s="9" t="s">
+        <v>6717</v>
+      </c>
+      <c r="E1480" s="9" t="s">
+        <v>6718</v>
+      </c>
+      <c r="F1480" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1480" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="0" t="s">
+        <v>6719</v>
+      </c>
+      <c r="B1481" s="0" t="s">
+        <v>6720</v>
+      </c>
+      <c r="C1481" s="0" t="s">
+        <v>6721</v>
+      </c>
+      <c r="D1481" s="0" t="s">
+        <v>6722</v>
+      </c>
+      <c r="E1481" s="0" t="s">
+        <v>6723</v>
+      </c>
+      <c r="F1481" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1481" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="0" t="s">
+        <v>6724</v>
+      </c>
+      <c r="B1482" s="0" t="s">
+        <v>6725</v>
+      </c>
+      <c r="C1482" s="0" t="s">
+        <v>6726</v>
+      </c>
+      <c r="D1482" s="0" t="s">
+        <v>6727</v>
+      </c>
+      <c r="E1482" s="0" t="s">
+        <v>6728</v>
+      </c>
+      <c r="F1482" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1482" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="0" t="s">
+        <v>6729</v>
+      </c>
+      <c r="B1483" s="12" t="s">
+        <v>6730</v>
+      </c>
+      <c r="C1483" s="9" t="s">
+        <v>6731</v>
+      </c>
+      <c r="D1483" s="9" t="s">
+        <v>6732</v>
+      </c>
+      <c r="E1483" s="9" t="s">
+        <v>6733</v>
+      </c>
+      <c r="F1483" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1483" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="0" t="s">
+        <v>6734</v>
+      </c>
+      <c r="B1484" s="0" t="s">
+        <v>6735</v>
+      </c>
+      <c r="C1484" s="0" t="s">
+        <v>6736</v>
+      </c>
+      <c r="D1484" s="0" t="s">
+        <v>6737</v>
+      </c>
+      <c r="E1484" s="0" t="s">
+        <v>6738</v>
+      </c>
+      <c r="F1484" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1484" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="0" t="s">
+        <v>6739</v>
+      </c>
+      <c r="B1485" s="0" t="s">
+        <v>6740</v>
+      </c>
+      <c r="C1485" s="0" t="s">
+        <v>6741</v>
+      </c>
+      <c r="D1485" s="0" t="s">
+        <v>6742</v>
+      </c>
+      <c r="E1485" s="0" t="s">
+        <v>6743</v>
+      </c>
+      <c r="F1485" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1485" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="0" t="s">
+        <v>6744</v>
+      </c>
+      <c r="B1486" s="0" t="s">
+        <v>6745</v>
+      </c>
+      <c r="C1486" s="0" t="s">
+        <v>6746</v>
+      </c>
+      <c r="D1486" s="0" t="s">
+        <v>6747</v>
+      </c>
+      <c r="E1486" s="0" t="s">
+        <v>6748</v>
+      </c>
+      <c r="F1486" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1486" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="10" t="s">
+        <v>6749</v>
+      </c>
+      <c r="B1487" s="10" t="s">
+        <v>6750</v>
+      </c>
+      <c r="C1487" s="10" t="s">
+        <v>6751</v>
+      </c>
+      <c r="D1487" s="10" t="s">
+        <v>6752</v>
+      </c>
+      <c r="E1487" s="9" t="s">
+        <v>6753</v>
+      </c>
+      <c r="F1487" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1487" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="11" t="s">
+        <v>6754</v>
+      </c>
+      <c r="B1488" s="9" t="s">
+        <v>6755</v>
+      </c>
+      <c r="C1488" s="9" t="s">
+        <v>6756</v>
+      </c>
+      <c r="D1488" s="9" t="s">
+        <v>6757</v>
+      </c>
+      <c r="E1488" s="9" t="s">
+        <v>6758</v>
+      </c>
+      <c r="F1488" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1488" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="0" t="s">
+        <v>6759</v>
+      </c>
+      <c r="B1489" s="0" t="s">
+        <v>6760</v>
+      </c>
+      <c r="C1489" s="0" t="s">
+        <v>6761</v>
+      </c>
+      <c r="D1489" s="0" t="s">
+        <v>6762</v>
+      </c>
+      <c r="E1489" s="0" t="s">
+        <v>6763</v>
+      </c>
+      <c r="F1489" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1489" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="0" t="s">
+        <v>6764</v>
+      </c>
+      <c r="B1490" s="0" t="s">
+        <v>6765</v>
+      </c>
+      <c r="C1490" s="0" t="s">
+        <v>6765</v>
+      </c>
+      <c r="D1490" s="0" t="s">
+        <v>6766</v>
+      </c>
+      <c r="E1490" s="0" t="s">
+        <v>6767</v>
+      </c>
+      <c r="F1490" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1490" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="0" t="s">
+        <v>6768</v>
+      </c>
+      <c r="B1491" s="0" t="s">
+        <v>6769</v>
+      </c>
+      <c r="C1491" s="0" t="s">
+        <v>6770</v>
+      </c>
+      <c r="D1491" s="0" t="s">
+        <v>6771</v>
+      </c>
+      <c r="E1491" s="0" t="s">
+        <v>6772</v>
+      </c>
+      <c r="F1491" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1491" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="0" t="s">
+        <v>6773</v>
+      </c>
+      <c r="B1492" s="0" t="s">
+        <v>6774</v>
+      </c>
+      <c r="C1492" s="0" t="s">
+        <v>6775</v>
+      </c>
+      <c r="D1492" s="0" t="s">
+        <v>6776</v>
+      </c>
+      <c r="E1492" s="8" t="s">
+        <v>6777</v>
+      </c>
+      <c r="F1492" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1492" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="10" t="s">
+        <v>6778</v>
+      </c>
+      <c r="B1493" s="10" t="s">
+        <v>6779</v>
+      </c>
+      <c r="C1493" s="10" t="s">
+        <v>6780</v>
+      </c>
+      <c r="D1493" s="10" t="s">
+        <v>6781</v>
+      </c>
+      <c r="E1493" s="9" t="s">
+        <v>6782</v>
+      </c>
+      <c r="F1493" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1493" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1494" s="12" t="s">
+        <v>6783</v>
+      </c>
+      <c r="B1494" s="9" t="s">
+        <v>6784</v>
+      </c>
+      <c r="C1494" s="9" t="s">
+        <v>6785</v>
+      </c>
+      <c r="D1494" s="9" t="s">
+        <v>6786</v>
+      </c>
+      <c r="E1494" s="9" t="s">
+        <v>6787</v>
+      </c>
+      <c r="F1494" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1494" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1495" s="0" t="s">
+        <v>6788</v>
+      </c>
+      <c r="B1495" s="0" t="s">
+        <v>6789</v>
+      </c>
+      <c r="C1495" s="0" t="s">
+        <v>6790</v>
+      </c>
+      <c r="D1495" s="0" t="s">
+        <v>6791</v>
+      </c>
+      <c r="E1495" s="0" t="s">
+        <v>6792</v>
+      </c>
+      <c r="F1495" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1495" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1496" s="0" t="s">
+        <v>6793</v>
+      </c>
+      <c r="B1496" s="0" t="s">
+        <v>6794</v>
+      </c>
+      <c r="C1496" s="0" t="s">
+        <v>6795</v>
+      </c>
+      <c r="D1496" s="10" t="s">
+        <v>6796</v>
+      </c>
+      <c r="E1496" s="8" t="s">
+        <v>6797</v>
+      </c>
+      <c r="F1496" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1496" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1497" s="0" t="s">
+        <v>6798</v>
+      </c>
+      <c r="B1497" s="0" t="s">
+        <v>6799</v>
+      </c>
+      <c r="C1497" s="0" t="s">
+        <v>6800</v>
+      </c>
+      <c r="D1497" s="0" t="s">
+        <v>6801</v>
+      </c>
+      <c r="E1497" s="0" t="s">
+        <v>6802</v>
+      </c>
+      <c r="F1497" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1497" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1498" s="0" t="s">
+        <v>6803</v>
+      </c>
+      <c r="B1498" s="0" t="s">
+        <v>6804</v>
+      </c>
+      <c r="C1498" s="0" t="s">
+        <v>6805</v>
+      </c>
+      <c r="D1498" s="0" t="s">
+        <v>6806</v>
+      </c>
+      <c r="E1498" s="0" t="s">
+        <v>6807</v>
+      </c>
+      <c r="F1498" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1498" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1499" s="0" t="s">
+        <v>6808</v>
+      </c>
+      <c r="B1499" s="0" t="s">
+        <v>6809</v>
+      </c>
+      <c r="C1499" s="0" t="s">
+        <v>6810</v>
+      </c>
+      <c r="D1499" s="0" t="s">
+        <v>6811</v>
+      </c>
+      <c r="E1499" s="0" t="s">
+        <v>6812</v>
+      </c>
+      <c r="F1499" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1499" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1500" s="0" t="s">
+        <v>6813</v>
+      </c>
+      <c r="B1500" s="0" t="s">
+        <v>6814</v>
+      </c>
+      <c r="C1500" s="0" t="s">
+        <v>6815</v>
+      </c>
+      <c r="D1500" s="0" t="s">
+        <v>6816</v>
+      </c>
+      <c r="E1500" s="0" t="s">
+        <v>6817</v>
+      </c>
+      <c r="F1500" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1500" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1501" s="0" t="s">
+        <v>6818</v>
+      </c>
+      <c r="B1501" s="0" t="s">
+        <v>6819</v>
+      </c>
+      <c r="C1501" s="0" t="s">
+        <v>6820</v>
+      </c>
+      <c r="D1501" s="0" t="s">
+        <v>6821</v>
+      </c>
+      <c r="E1501" s="0" t="s">
+        <v>6822</v>
+      </c>
+      <c r="F1501" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1501" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1502" s="0" t="s">
+        <v>6823</v>
+      </c>
+      <c r="B1502" s="0" t="s">
+        <v>6824</v>
+      </c>
+      <c r="C1502" s="0" t="s">
+        <v>6825</v>
+      </c>
+      <c r="D1502" s="0" t="s">
+        <v>6826</v>
+      </c>
+      <c r="E1502" s="0" t="s">
+        <v>6827</v>
+      </c>
+      <c r="F1502" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1502" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="0" t="s">
+        <v>6828</v>
+      </c>
+      <c r="B1503" s="0" t="s">
+        <v>6829</v>
+      </c>
+      <c r="C1503" s="0" t="s">
+        <v>6830</v>
+      </c>
+      <c r="D1503" s="0" t="s">
+        <v>6831</v>
+      </c>
+      <c r="E1503" s="0" t="s">
+        <v>6832</v>
+      </c>
+      <c r="F1503" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1503" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="8" t="s">
+        <v>6833</v>
+      </c>
+      <c r="B1504" s="9" t="s">
+        <v>6834</v>
+      </c>
+      <c r="C1504" s="9" t="s">
+        <v>6835</v>
+      </c>
+      <c r="D1504" s="9" t="s">
+        <v>6836</v>
+      </c>
+      <c r="E1504" s="9" t="s">
+        <v>6837</v>
+      </c>
+      <c r="F1504" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1504" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="0" t="s">
+        <v>6838</v>
+      </c>
+      <c r="B1505" s="0" t="s">
+        <v>6839</v>
+      </c>
+      <c r="C1505" s="0" t="s">
+        <v>6840</v>
+      </c>
+      <c r="D1505" s="0" t="s">
+        <v>6841</v>
+      </c>
+      <c r="E1505" s="0" t="s">
+        <v>6842</v>
+      </c>
+      <c r="F1505" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1505" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="11" t="s">
+        <v>6843</v>
+      </c>
+      <c r="B1506" s="9" t="s">
+        <v>6844</v>
+      </c>
+      <c r="C1506" s="9" t="s">
+        <v>6845</v>
+      </c>
+      <c r="D1506" s="9" t="s">
+        <v>6846</v>
+      </c>
+      <c r="E1506" s="9" t="s">
+        <v>6847</v>
+      </c>
+      <c r="F1506" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1506" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="8" t="s">
+        <v>6848</v>
+      </c>
+      <c r="B1507" s="9" t="s">
+        <v>6849</v>
+      </c>
+      <c r="C1507" s="9" t="s">
+        <v>6850</v>
+      </c>
+      <c r="D1507" s="9" t="s">
+        <v>6851</v>
+      </c>
+      <c r="E1507" s="9" t="s">
+        <v>6852</v>
+      </c>
+      <c r="F1507" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1507" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="0" t="s">
+        <v>6853</v>
+      </c>
+      <c r="B1508" s="0" t="s">
+        <v>6854</v>
+      </c>
+      <c r="C1508" s="0" t="s">
+        <v>6855</v>
+      </c>
+      <c r="D1508" s="0" t="s">
+        <v>6856</v>
+      </c>
+      <c r="E1508" s="0" t="s">
+        <v>6857</v>
+      </c>
+      <c r="F1508" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1508" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1509" s="0" t="s">
+        <v>6858</v>
+      </c>
+      <c r="B1509" s="0" t="s">
+        <v>6859</v>
+      </c>
+      <c r="C1509" s="0" t="s">
+        <v>6860</v>
+      </c>
+      <c r="D1509" s="0" t="s">
+        <v>6861</v>
+      </c>
+      <c r="E1509" s="0" t="s">
+        <v>6862</v>
+      </c>
+      <c r="F1509" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G1509" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1510" s="0" t="s">
+        <v>6863</v>
+      </c>
+      <c r="B1510" s="0" t="s">
+        <v>6864</v>
+      </c>
+      <c r="C1510" s="0" t="s">
+        <v>6865</v>
+      </c>
+      <c r="D1510" s="0" t="s">
+        <v>6866</v>
+      </c>
+      <c r="E1510" s="0" t="s">
+        <v>6867</v>
+      </c>
+      <c r="F1510" s="0" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1510" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1511" s="8" t="s">
+        <v>6868</v>
+      </c>
+      <c r="B1511" s="9" t="s">
+        <v>6869</v>
+      </c>
+      <c r="C1511" s="9" t="s">
+        <v>6870</v>
+      </c>
+      <c r="D1511" s="9" t="s">
+        <v>6871</v>
+      </c>
+      <c r="E1511" s="9" t="s">
+        <v>6872</v>
+      </c>
+      <c r="F1511" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1511" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1512" s="0" t="s">
+        <v>6873</v>
+      </c>
+      <c r="B1512" s="0" t="s">
+        <v>6874</v>
+      </c>
+      <c r="C1512" s="0" t="s">
+        <v>6875</v>
+      </c>
+      <c r="D1512" s="0" t="s">
+        <v>6876</v>
+      </c>
+      <c r="E1512" s="0" t="s">
+        <v>6877</v>
+      </c>
+      <c r="F1512" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1512" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1513" s="0" t="s">
+        <v>6878</v>
+      </c>
+      <c r="B1513" s="0" t="s">
+        <v>6879</v>
+      </c>
+      <c r="C1513" s="10" t="s">
+        <v>6880</v>
+      </c>
+      <c r="D1513" s="10" t="s">
+        <v>6881</v>
+      </c>
+      <c r="E1513" s="10" t="s">
+        <v>6882</v>
+      </c>
+      <c r="F1513" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1513" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1514" s="0" t="s">
+        <v>6883</v>
+      </c>
+      <c r="B1514" s="0" t="s">
+        <v>6884</v>
+      </c>
+      <c r="C1514" s="0" t="s">
+        <v>6885</v>
+      </c>
+      <c r="D1514" s="10" t="s">
+        <v>6886</v>
+      </c>
+      <c r="E1514" s="9" t="s">
+        <v>6887</v>
+      </c>
+      <c r="F1514" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1514" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1515" s="8" t="s">
+        <v>6888</v>
+      </c>
+      <c r="B1515" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1515" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D1515" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E1515" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1515" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1515" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1516" s="0" t="s">
+        <v>6889</v>
+      </c>
+      <c r="B1516" s="0" t="s">
+        <v>6890</v>
+      </c>
+      <c r="C1516" s="0" t="s">
+        <v>6891</v>
+      </c>
+      <c r="D1516" s="0" t="s">
+        <v>6892</v>
+      </c>
+      <c r="E1516" s="0" t="s">
+        <v>6893</v>
+      </c>
+      <c r="F1516" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1516" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1517" s="8" t="s">
+        <v>6894</v>
+      </c>
+      <c r="B1517" s="9" t="s">
+        <v>6895</v>
+      </c>
+      <c r="C1517" s="9" t="s">
+        <v>6896</v>
+      </c>
+      <c r="D1517" s="8" t="s">
+        <v>6897</v>
+      </c>
+      <c r="E1517" s="8" t="s">
+        <v>6898</v>
+      </c>
+      <c r="F1517" s="10" t="s">
+        <v>2411</v>
+      </c>
+      <c r="G1517" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1518" s="0" t="s">
+        <v>6899</v>
+      </c>
+      <c r="B1518" s="0" t="s">
+        <v>6900</v>
+      </c>
+      <c r="C1518" s="0" t="s">
+        <v>6901</v>
+      </c>
+      <c r="D1518" s="0" t="s">
+        <v>6902</v>
+      </c>
+      <c r="E1518" s="0" t="s">
+        <v>6903</v>
+      </c>
+      <c r="F1518" s="0" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1518" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1519" s="8" t="s">
+        <v>6905</v>
+      </c>
+      <c r="B1519" s="9" t="s">
+        <v>6906</v>
+      </c>
+      <c r="C1519" s="10" t="s">
+        <v>6907</v>
+      </c>
+      <c r="D1519" s="10" t="s">
+        <v>6908</v>
+      </c>
+      <c r="E1519" s="10" t="s">
+        <v>6909</v>
+      </c>
+      <c r="F1519" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1519" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1520" s="0" t="s">
+        <v>6910</v>
+      </c>
+      <c r="B1520" s="0" t="s">
+        <v>6911</v>
+      </c>
+      <c r="C1520" s="0" t="s">
+        <v>6912</v>
+      </c>
+      <c r="D1520" s="0" t="s">
+        <v>6913</v>
+      </c>
+      <c r="E1520" s="0" t="s">
+        <v>6914</v>
+      </c>
+      <c r="F1520" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1520" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1521" s="0" t="s">
+        <v>6915</v>
+      </c>
+      <c r="B1521" s="0" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C1521" s="0" t="s">
+        <v>6917</v>
+      </c>
+      <c r="D1521" s="0" t="s">
+        <v>6918</v>
+      </c>
+      <c r="E1521" s="0" t="s">
+        <v>6919</v>
+      </c>
+      <c r="F1521" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1521" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1522" s="0" t="s">
+        <v>6920</v>
+      </c>
+      <c r="B1522" s="0" t="s">
+        <v>6921</v>
+      </c>
+      <c r="C1522" s="0" t="s">
+        <v>6922</v>
+      </c>
+      <c r="D1522" s="0" t="s">
+        <v>6923</v>
+      </c>
+      <c r="E1522" s="0" t="s">
+        <v>6924</v>
+      </c>
+      <c r="F1522" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1522" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1523" s="0" t="s">
+        <v>6925</v>
+      </c>
+      <c r="B1523" s="0" t="s">
+        <v>6926</v>
+      </c>
+      <c r="C1523" s="0" t="s">
+        <v>6927</v>
+      </c>
+      <c r="D1523" s="0" t="s">
+        <v>6928</v>
+      </c>
+      <c r="E1523" s="0" t="s">
+        <v>6929</v>
+      </c>
+      <c r="F1523" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1523" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1524" s="0" t="s">
+        <v>6930</v>
+      </c>
+      <c r="B1524" s="0" t="s">
+        <v>6931</v>
+      </c>
+      <c r="C1524" s="0" t="s">
+        <v>6932</v>
+      </c>
+      <c r="D1524" s="0" t="s">
+        <v>6933</v>
+      </c>
+      <c r="E1524" s="0" t="s">
+        <v>6934</v>
+      </c>
+      <c r="F1524" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1524" s="10" t="s">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1525" s="0" t="s">
+        <v>6935</v>
+      </c>
+      <c r="B1525" s="0" t="s">
+        <v>6936</v>
+      </c>
+      <c r="C1525" s="0" t="s">
+        <v>6937</v>
+      </c>
+      <c r="D1525" s="0" t="s">
+        <v>6938</v>
+      </c>
+      <c r="E1525" s="0" t="s">
+        <v>6939</v>
+      </c>
+      <c r="F1525" s="10" t="s">
+        <v>6904</v>
+      </c>
+      <c r="G1525" s="10" t="s">
         <v>6124</v>
       </c>
     </row>

--- a/Dataset/KOPP/kopp.xlsx
+++ b/Dataset/KOPP/kopp.xlsx
@@ -21747,32 +21747,7 @@
     <t xml:space="preserve">‫تولید‬‫ اگزوتوکسین‬</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">‫کدام‬ ‫آنتی‬ ‫بیوتیک‬ ‫در‬ ‫درمان‬ ‫عفونت‬ ‫ناشی‬ ‫از‬ ‫استافیلوکوک‬ ‫اورئوس‬ ‫مقاوم‬ ‫به‬ ‫متی‬ ‫سیلین‬  ‫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(‪(MRSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">‬‬ ‫موثر است؟‬</t>
-    </r>
+    <t xml:space="preserve">‫کدام‬ ‫آنتی‬ ‫بیوتیک‬ ‫در‬ ‫درمان‬ ‫عفونت‬ ‫ناشی‬ ‫از‬ ‫استافیلوکوک‬ ‫اورئوس‬ ‫مقاوم‬ ‫به‬ ‫متی‬ ‫سیلین‬  ‫(‪(MRSA‬‬ ‫موثر است؟‬</t>
   </si>
   <si>
     <t xml:space="preserve">‫پنی‬ ‫سیلین‬</t>
@@ -22218,7 +22193,7 @@
     <t xml:space="preserve">‫مهار‬‫آنزیم‬ ‫نورآمینیداز‬</t>
   </si>
   <si>
-    <t xml:space="preserve">‫مهار‬‫پروتئین‬ ‫سازی‬ ‫ویروس‬</t>
+    <t xml:space="preserve">‫مهار‬‫ پروتئین‬ ‫سازی‬ ‫ویروس‬</t>
   </si>
   <si>
     <t xml:space="preserve">‫کدام‬ ‫یک‬ ‫از‬ ‫اپیتلیوم‬ ‫های‬ ‫زیر‬ ‫در‬ ‫نقاطی‬ ‫از‬ ‫بدن‬ ‫که‬ ‫در‬ ‫معرض‬ ‫سایش‬ ‫است‪،‬‬ ‫یافت‬ ‫می‬ ‫شود؟‬</t>
@@ -23488,7 +23463,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -23521,36 +23496,16 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -23678,8 +23633,8 @@
   </sheetPr>
   <dimension ref="A1:H1525"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1523" colorId="64" zoomScale="157" zoomScaleNormal="157" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1528" activeCellId="0" sqref="G1528"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1510" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1525" activeCellId="0" sqref="H1525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59009,6 +58964,9 @@
       <c r="G1359" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1359" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1360" s="4" t="s">
@@ -59032,6 +58990,9 @@
       <c r="G1360" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1360" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1361" s="4" t="s">
@@ -59055,6 +59016,9 @@
       <c r="G1361" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1361" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="1" t="s">
@@ -59078,6 +59042,9 @@
       <c r="G1362" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1362" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1363" s="4" t="s">
@@ -59101,6 +59068,9 @@
       <c r="G1363" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1363" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1364" s="4" t="s">
@@ -59124,6 +59094,9 @@
       <c r="G1364" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1364" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1365" s="4" t="s">
@@ -59147,6 +59120,9 @@
       <c r="G1365" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1365" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1366" s="4" t="s">
@@ -59170,6 +59146,9 @@
       <c r="G1366" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1366" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1367" s="7" t="s">
@@ -59193,6 +59172,9 @@
       <c r="G1367" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1367" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1368" s="7" t="s">
@@ -59216,6 +59198,9 @@
       <c r="G1368" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1368" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1369" s="4" t="s">
@@ -59239,6 +59224,9 @@
       <c r="G1369" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1369" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1370" s="4" t="s">
@@ -59262,6 +59250,9 @@
       <c r="G1370" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1370" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1371" s="7" t="s">
@@ -59285,6 +59276,9 @@
       <c r="G1371" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1371" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1372" s="7" t="s">
@@ -59308,6 +59302,9 @@
       <c r="G1372" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1372" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1373" s="7" t="s">
@@ -59331,6 +59328,9 @@
       <c r="G1373" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1373" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1374" s="4" t="s">
@@ -59354,6 +59354,9 @@
       <c r="G1374" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1374" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1375" s="4" t="s">
@@ -59377,6 +59380,9 @@
       <c r="G1375" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1375" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1376" s="4" t="s">
@@ -59400,6 +59406,9 @@
       <c r="G1376" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1376" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1377" s="4" t="s">
@@ -59423,6 +59432,9 @@
       <c r="G1377" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1377" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1378" s="4" t="s">
@@ -59446,6 +59458,9 @@
       <c r="G1378" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1378" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1379" s="4" t="s">
@@ -59469,6 +59484,9 @@
       <c r="G1379" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1379" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1380" s="7" t="s">
@@ -59492,6 +59510,9 @@
       <c r="G1380" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1380" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1381" s="4" t="s">
@@ -59515,6 +59536,9 @@
       <c r="G1381" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1381" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1382" s="4" t="s">
@@ -59538,6 +59562,9 @@
       <c r="G1382" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1382" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1383" s="4" t="s">
@@ -59561,6 +59588,9 @@
       <c r="G1383" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1383" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1384" s="4" t="s">
@@ -59584,6 +59614,9 @@
       <c r="G1384" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1384" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1385" s="4" t="s">
@@ -59607,6 +59640,9 @@
       <c r="G1385" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1385" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1386" s="4" t="s">
@@ -59630,6 +59666,9 @@
       <c r="G1386" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1386" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1387" s="4" t="s">
@@ -59653,6 +59692,9 @@
       <c r="G1387" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1387" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1388" s="4" t="s">
@@ -59676,6 +59718,9 @@
       <c r="G1388" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1388" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1389" s="4" t="s">
@@ -59699,6 +59744,9 @@
       <c r="G1389" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1389" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1390" s="1" t="s">
@@ -59722,6 +59770,9 @@
       <c r="G1390" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1390" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1391" s="4" t="s">
@@ -59745,6 +59796,9 @@
       <c r="G1391" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1391" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1392" s="4" t="s">
@@ -59768,6 +59822,9 @@
       <c r="G1392" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1392" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1393" s="4" t="s">
@@ -59791,6 +59848,9 @@
       <c r="G1393" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1393" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1394" s="7" t="s">
@@ -59814,6 +59874,9 @@
       <c r="G1394" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1394" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1395" s="4" t="s">
@@ -59837,6 +59900,9 @@
       <c r="G1395" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1395" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1396" s="7" t="s">
@@ -59860,6 +59926,9 @@
       <c r="G1396" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1396" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1397" s="4" t="s">
@@ -59883,6 +59952,9 @@
       <c r="G1397" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1397" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1398" s="4" t="s">
@@ -59906,6 +59978,9 @@
       <c r="G1398" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1398" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1399" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1399" s="4" t="s">
@@ -59929,6 +60004,9 @@
       <c r="G1399" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1399" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1400" s="4" t="s">
@@ -59952,6 +60030,9 @@
       <c r="G1400" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1400" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1401" s="7" t="s">
@@ -59975,6 +60056,9 @@
       <c r="G1401" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1401" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1402" s="7" t="s">
@@ -59998,6 +60082,9 @@
       <c r="G1402" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1402" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1403" s="7" t="s">
@@ -60021,6 +60108,9 @@
       <c r="G1403" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1403" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1404" s="4" t="s">
@@ -60044,6 +60134,9 @@
       <c r="G1404" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1404" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1405" s="4" t="s">
@@ -60067,6 +60160,9 @@
       <c r="G1405" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1405" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1406" s="7" t="s">
@@ -60090,6 +60186,9 @@
       <c r="G1406" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1406" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1407" s="4" t="s">
@@ -60113,6 +60212,9 @@
       <c r="G1407" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1407" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1408" s="4" t="s">
@@ -60136,6 +60238,9 @@
       <c r="G1408" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1408" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1409" s="4" t="s">
@@ -60159,6 +60264,9 @@
       <c r="G1409" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1409" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1410" s="7" t="s">
@@ -60182,6 +60290,9 @@
       <c r="G1410" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1410" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1411" s="7" t="s">
@@ -60205,6 +60316,9 @@
       <c r="G1411" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1411" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1412" s="7" t="s">
@@ -60228,6 +60342,9 @@
       <c r="G1412" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1412" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1413" s="7" t="s">
@@ -60251,6 +60368,9 @@
       <c r="G1413" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1413" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1414" s="7" t="s">
@@ -60274,6 +60394,9 @@
       <c r="G1414" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1414" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1415" s="7" t="s">
@@ -60297,2535 +60420,2868 @@
       <c r="G1415" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1415" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1416" s="8" t="s">
+      <c r="A1416" s="7" t="s">
         <v>6399</v>
       </c>
-      <c r="B1416" s="9" t="s">
+      <c r="B1416" s="1" t="s">
         <v>6400</v>
       </c>
-      <c r="C1416" s="9" t="s">
+      <c r="C1416" s="1" t="s">
         <v>6401</v>
       </c>
-      <c r="D1416" s="9" t="s">
+      <c r="D1416" s="1" t="s">
         <v>6402</v>
       </c>
-      <c r="E1416" s="9" t="s">
+      <c r="E1416" s="1" t="s">
         <v>6403</v>
       </c>
-      <c r="F1416" s="10" t="s">
+      <c r="F1416" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1416" s="10" t="s">
+      <c r="G1416" s="1" t="s">
         <v>6124</v>
       </c>
-    </row>
-    <row r="1417" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1417" s="11" t="s">
+      <c r="H1416" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="9" t="s">
         <v>6404</v>
       </c>
-      <c r="B1417" s="9" t="s">
+      <c r="B1417" s="1" t="s">
         <v>6405</v>
       </c>
-      <c r="C1417" s="9" t="s">
+      <c r="C1417" s="1" t="s">
         <v>6406</v>
       </c>
-      <c r="D1417" s="9" t="s">
+      <c r="D1417" s="1" t="s">
         <v>6407</v>
       </c>
-      <c r="E1417" s="9" t="s">
+      <c r="E1417" s="1" t="s">
         <v>6408</v>
       </c>
-      <c r="F1417" s="10" t="s">
+      <c r="F1417" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1417" s="10" t="s">
+      <c r="G1417" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1417" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1418" s="12" t="s">
+      <c r="A1418" s="1" t="s">
         <v>6409</v>
       </c>
-      <c r="B1418" s="9" t="s">
+      <c r="B1418" s="1" t="s">
         <v>6401</v>
       </c>
-      <c r="C1418" s="9" t="s">
+      <c r="C1418" s="1" t="s">
         <v>6410</v>
       </c>
-      <c r="D1418" s="9" t="s">
+      <c r="D1418" s="1" t="s">
         <v>6411</v>
       </c>
-      <c r="E1418" s="9" t="s">
+      <c r="E1418" s="1" t="s">
         <v>6412</v>
       </c>
-      <c r="F1418" s="10" t="s">
+      <c r="F1418" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1418" s="10" t="s">
+      <c r="G1418" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1418" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1419" s="8" t="s">
+      <c r="A1419" s="7" t="s">
         <v>6413</v>
       </c>
-      <c r="B1419" s="9" t="s">
+      <c r="B1419" s="1" t="s">
         <v>6414</v>
       </c>
-      <c r="C1419" s="9" t="s">
+      <c r="C1419" s="1" t="s">
         <v>6415</v>
       </c>
-      <c r="D1419" s="9" t="s">
+      <c r="D1419" s="1" t="s">
         <v>6416</v>
       </c>
-      <c r="E1419" s="9" t="s">
+      <c r="E1419" s="1" t="s">
         <v>6417</v>
       </c>
-      <c r="F1419" s="10" t="s">
+      <c r="F1419" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1419" s="10" t="s">
+      <c r="G1419" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1419" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1420" s="8" t="s">
+      <c r="A1420" s="7" t="s">
         <v>6418</v>
       </c>
-      <c r="B1420" s="9" t="s">
+      <c r="B1420" s="1" t="s">
         <v>6419</v>
       </c>
-      <c r="C1420" s="9" t="s">
+      <c r="C1420" s="1" t="s">
         <v>6420</v>
       </c>
-      <c r="D1420" s="9" t="s">
+      <c r="D1420" s="1" t="s">
         <v>6421</v>
       </c>
-      <c r="E1420" s="9" t="s">
+      <c r="E1420" s="1" t="s">
         <v>6422</v>
       </c>
-      <c r="F1420" s="10" t="s">
+      <c r="F1420" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1420" s="10" t="s">
+      <c r="G1420" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1420" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1421" s="8" t="s">
+      <c r="A1421" s="7" t="s">
         <v>6423</v>
       </c>
-      <c r="B1421" s="9" t="s">
+      <c r="B1421" s="1" t="s">
         <v>6424</v>
       </c>
-      <c r="C1421" s="9" t="s">
+      <c r="C1421" s="1" t="s">
         <v>6425</v>
       </c>
-      <c r="D1421" s="9" t="s">
+      <c r="D1421" s="1" t="s">
         <v>6426</v>
       </c>
-      <c r="E1421" s="9" t="s">
+      <c r="E1421" s="1" t="s">
         <v>6427</v>
       </c>
-      <c r="F1421" s="10" t="s">
+      <c r="F1421" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1421" s="10" t="s">
+      <c r="G1421" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1421" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1422" s="8" t="s">
+      <c r="A1422" s="7" t="s">
         <v>6428</v>
       </c>
-      <c r="B1422" s="9" t="s">
+      <c r="B1422" s="1" t="s">
         <v>6429</v>
       </c>
-      <c r="C1422" s="8" t="s">
+      <c r="C1422" s="7" t="s">
         <v>6430</v>
       </c>
-      <c r="D1422" s="8" t="s">
+      <c r="D1422" s="7" t="s">
         <v>6431</v>
       </c>
-      <c r="E1422" s="9" t="s">
+      <c r="E1422" s="1" t="s">
         <v>6432</v>
       </c>
-      <c r="F1422" s="10" t="s">
+      <c r="F1422" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1422" s="10" t="s">
+      <c r="G1422" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1422" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1423" s="0" t="s">
+      <c r="A1423" s="4" t="s">
         <v>6433</v>
       </c>
-      <c r="B1423" s="0" t="s">
+      <c r="B1423" s="4" t="s">
         <v>6434</v>
       </c>
-      <c r="C1423" s="0" t="s">
+      <c r="C1423" s="4" t="s">
         <v>6435</v>
       </c>
-      <c r="D1423" s="0" t="s">
+      <c r="D1423" s="4" t="s">
         <v>6436</v>
       </c>
-      <c r="E1423" s="0" t="s">
+      <c r="E1423" s="4" t="s">
         <v>6437</v>
       </c>
-      <c r="F1423" s="10" t="s">
+      <c r="F1423" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1423" s="10" t="s">
+      <c r="G1423" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1423" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1424" s="0" t="s">
+      <c r="A1424" s="4" t="s">
         <v>6438</v>
       </c>
-      <c r="B1424" s="8" t="s">
+      <c r="B1424" s="7" t="s">
         <v>6439</v>
       </c>
-      <c r="C1424" s="8" t="s">
+      <c r="C1424" s="7" t="s">
         <v>6440</v>
       </c>
-      <c r="D1424" s="12" t="s">
+      <c r="D1424" s="1" t="s">
         <v>6441</v>
       </c>
-      <c r="E1424" s="9" t="s">
+      <c r="E1424" s="1" t="s">
         <v>6442</v>
       </c>
-      <c r="F1424" s="10" t="s">
+      <c r="F1424" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1424" s="10" t="s">
+      <c r="G1424" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1424" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1425" s="0" t="s">
+      <c r="A1425" s="4" t="s">
         <v>6443</v>
       </c>
-      <c r="B1425" s="0" t="s">
+      <c r="B1425" s="4" t="s">
         <v>6444</v>
       </c>
-      <c r="C1425" s="0" t="s">
+      <c r="C1425" s="4" t="s">
         <v>6445</v>
       </c>
-      <c r="D1425" s="0" t="s">
+      <c r="D1425" s="4" t="s">
         <v>6446</v>
       </c>
-      <c r="E1425" s="0" t="s">
+      <c r="E1425" s="4" t="s">
         <v>6447</v>
       </c>
-      <c r="F1425" s="10" t="s">
+      <c r="F1425" s="1" t="s">
         <v>6378</v>
       </c>
-      <c r="G1425" s="10" t="s">
+      <c r="G1425" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1425" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1426" s="0" t="s">
+      <c r="A1426" s="4" t="s">
         <v>6448</v>
       </c>
-      <c r="B1426" s="0" t="s">
+      <c r="B1426" s="4" t="s">
         <v>6449</v>
       </c>
-      <c r="C1426" s="0" t="s">
+      <c r="C1426" s="4" t="s">
         <v>6450</v>
       </c>
-      <c r="D1426" s="0" t="s">
+      <c r="D1426" s="4" t="s">
         <v>6451</v>
       </c>
-      <c r="E1426" s="0" t="s">
+      <c r="E1426" s="4" t="s">
         <v>6452</v>
       </c>
-      <c r="F1426" s="0" t="s">
+      <c r="F1426" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G1426" s="10" t="s">
+      <c r="G1426" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1426" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1427" s="8" t="s">
+      <c r="A1427" s="7" t="s">
         <v>6453</v>
       </c>
-      <c r="B1427" s="9" t="s">
+      <c r="B1427" s="1" t="s">
         <v>6454</v>
       </c>
-      <c r="C1427" s="9" t="s">
+      <c r="C1427" s="1" t="s">
         <v>6455</v>
       </c>
-      <c r="D1427" s="9" t="s">
+      <c r="D1427" s="1" t="s">
         <v>6456</v>
       </c>
-      <c r="E1427" s="9" t="s">
+      <c r="E1427" s="1" t="s">
         <v>6457</v>
       </c>
-      <c r="F1427" s="10" t="s">
+      <c r="F1427" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1427" s="10" t="s">
+      <c r="G1427" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1427" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1428" s="8" t="s">
+      <c r="A1428" s="7" t="s">
         <v>6458</v>
       </c>
-      <c r="B1428" s="9" t="s">
+      <c r="B1428" s="1" t="s">
         <v>6459</v>
       </c>
-      <c r="C1428" s="9" t="s">
+      <c r="C1428" s="1" t="s">
         <v>6460</v>
       </c>
-      <c r="D1428" s="9" t="s">
+      <c r="D1428" s="1" t="s">
         <v>6461</v>
       </c>
-      <c r="E1428" s="9" t="s">
+      <c r="E1428" s="1" t="s">
         <v>6462</v>
       </c>
-      <c r="F1428" s="10" t="s">
+      <c r="F1428" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1428" s="10" t="s">
+      <c r="G1428" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1428" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1429" s="0" t="s">
+      <c r="A1429" s="4" t="s">
         <v>6463</v>
       </c>
-      <c r="B1429" s="0" t="s">
+      <c r="B1429" s="4" t="s">
         <v>6464</v>
       </c>
-      <c r="C1429" s="0" t="s">
+      <c r="C1429" s="4" t="s">
         <v>6465</v>
       </c>
-      <c r="D1429" s="0" t="s">
+      <c r="D1429" s="4" t="s">
         <v>6466</v>
       </c>
-      <c r="E1429" s="0" t="s">
+      <c r="E1429" s="4" t="s">
         <v>6467</v>
       </c>
-      <c r="F1429" s="10" t="s">
+      <c r="F1429" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1429" s="10" t="s">
+      <c r="G1429" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1429" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1430" s="8" t="s">
+      <c r="A1430" s="7" t="s">
         <v>6468</v>
       </c>
-      <c r="B1430" s="9" t="s">
+      <c r="B1430" s="1" t="s">
         <v>6469</v>
       </c>
-      <c r="C1430" s="9" t="s">
+      <c r="C1430" s="1" t="s">
         <v>6470</v>
       </c>
-      <c r="D1430" s="9" t="s">
+      <c r="D1430" s="1" t="s">
         <v>6471</v>
       </c>
-      <c r="E1430" s="9" t="s">
+      <c r="E1430" s="1" t="s">
         <v>6472</v>
       </c>
-      <c r="F1430" s="10" t="s">
+      <c r="F1430" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1430" s="10" t="s">
+      <c r="G1430" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1430" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1431" s="8" t="s">
+      <c r="A1431" s="7" t="s">
         <v>6473</v>
       </c>
-      <c r="B1431" s="9" t="s">
+      <c r="B1431" s="1" t="s">
         <v>6474</v>
       </c>
-      <c r="C1431" s="9" t="s">
+      <c r="C1431" s="1" t="s">
         <v>6475</v>
       </c>
-      <c r="D1431" s="9" t="s">
+      <c r="D1431" s="1" t="s">
         <v>6476</v>
       </c>
-      <c r="E1431" s="9" t="s">
+      <c r="E1431" s="1" t="s">
         <v>6477</v>
       </c>
-      <c r="F1431" s="10" t="s">
+      <c r="F1431" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1431" s="10" t="s">
+      <c r="G1431" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1431" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1432" s="12" t="s">
+      <c r="A1432" s="1" t="s">
         <v>6478</v>
       </c>
-      <c r="B1432" s="10" t="s">
+      <c r="B1432" s="1" t="s">
         <v>6479</v>
       </c>
-      <c r="C1432" s="9" t="s">
+      <c r="C1432" s="1" t="s">
         <v>6480</v>
       </c>
-      <c r="D1432" s="9" t="s">
+      <c r="D1432" s="1" t="s">
         <v>6481</v>
       </c>
-      <c r="E1432" s="9" t="s">
+      <c r="E1432" s="1" t="s">
         <v>6482</v>
       </c>
-      <c r="F1432" s="10" t="s">
+      <c r="F1432" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1432" s="10" t="s">
+      <c r="G1432" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1432" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1433" s="8" t="s">
+      <c r="A1433" s="7" t="s">
         <v>6483</v>
       </c>
-      <c r="B1433" s="8" t="s">
+      <c r="B1433" s="7" t="s">
         <v>6484</v>
       </c>
-      <c r="C1433" s="8" t="s">
+      <c r="C1433" s="7" t="s">
         <v>6485</v>
       </c>
-      <c r="D1433" s="9" t="s">
+      <c r="D1433" s="1" t="s">
         <v>6486</v>
       </c>
-      <c r="E1433" s="9" t="s">
+      <c r="E1433" s="1" t="s">
         <v>6487</v>
       </c>
-      <c r="F1433" s="10" t="s">
+      <c r="F1433" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G1433" s="10" t="s">
+      <c r="G1433" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1433" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1434" s="8" t="s">
+      <c r="A1434" s="7" t="s">
         <v>6488</v>
       </c>
-      <c r="B1434" s="9" t="s">
+      <c r="B1434" s="1" t="s">
         <v>6489</v>
       </c>
-      <c r="C1434" s="9" t="s">
+      <c r="C1434" s="1" t="s">
         <v>6490</v>
       </c>
-      <c r="D1434" s="9" t="s">
+      <c r="D1434" s="1" t="s">
         <v>6491</v>
       </c>
-      <c r="E1434" s="9" t="s">
+      <c r="E1434" s="1" t="s">
         <v>6492</v>
       </c>
-      <c r="F1434" s="9" t="s">
+      <c r="F1434" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G1434" s="10" t="s">
+      <c r="G1434" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1434" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1435" s="13" t="s">
+      <c r="A1435" s="7" t="s">
         <v>6493</v>
       </c>
-      <c r="B1435" s="9" t="s">
+      <c r="B1435" s="1" t="s">
         <v>6494</v>
       </c>
-      <c r="C1435" s="9" t="s">
+      <c r="C1435" s="1" t="s">
         <v>6495</v>
       </c>
-      <c r="D1435" s="9" t="s">
+      <c r="D1435" s="1" t="s">
         <v>6496</v>
       </c>
-      <c r="E1435" s="9" t="s">
+      <c r="E1435" s="1" t="s">
         <v>6497</v>
       </c>
-      <c r="F1435" s="10" t="s">
+      <c r="F1435" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="G1435" s="10" t="s">
+      <c r="G1435" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1435" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1436" s="10" t="s">
+      <c r="A1436" s="1" t="s">
         <v>6498</v>
       </c>
-      <c r="B1436" s="12" t="s">
+      <c r="B1436" s="1" t="s">
         <v>6499</v>
       </c>
-      <c r="C1436" s="9" t="s">
+      <c r="C1436" s="1" t="s">
         <v>6500</v>
       </c>
-      <c r="D1436" s="9" t="s">
+      <c r="D1436" s="1" t="s">
         <v>6501</v>
       </c>
-      <c r="E1436" s="9" t="s">
+      <c r="E1436" s="1" t="s">
         <v>6502</v>
       </c>
-      <c r="F1436" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1436" s="10" t="s">
+      <c r="F1436" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1436" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1436" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1437" s="0" t="s">
+      <c r="A1437" s="4" t="s">
         <v>6503</v>
       </c>
-      <c r="B1437" s="14" t="s">
+      <c r="B1437" s="1" t="s">
         <v>6504</v>
       </c>
-      <c r="C1437" s="10" t="s">
+      <c r="C1437" s="1" t="s">
         <v>6505</v>
       </c>
-      <c r="D1437" s="10" t="s">
+      <c r="D1437" s="1" t="s">
         <v>6506</v>
       </c>
-      <c r="E1437" s="9" t="s">
+      <c r="E1437" s="1" t="s">
         <v>6507</v>
       </c>
       <c r="F1437" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1437" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1437" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1437" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1438" s="8" t="s">
+      <c r="A1438" s="7" t="s">
         <v>6508</v>
       </c>
-      <c r="B1438" s="8" t="s">
+      <c r="B1438" s="7" t="s">
         <v>6509</v>
       </c>
-      <c r="C1438" s="9" t="s">
+      <c r="C1438" s="1" t="s">
         <v>6510</v>
       </c>
-      <c r="D1438" s="9" t="s">
+      <c r="D1438" s="1" t="s">
         <v>6511</v>
       </c>
-      <c r="E1438" s="9" t="s">
+      <c r="E1438" s="1" t="s">
         <v>6512</v>
       </c>
       <c r="F1438" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1438" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1438" s="1" t="s">
         <v>6124</v>
       </c>
-    </row>
-    <row r="1439" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1439" s="15" t="s">
+      <c r="H1438" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="180.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="5" t="s">
         <v>6513</v>
       </c>
-      <c r="B1439" s="13" t="s">
+      <c r="B1439" s="7" t="s">
         <v>6514</v>
       </c>
-      <c r="C1439" s="10" t="s">
+      <c r="C1439" s="1" t="s">
         <v>6515</v>
       </c>
-      <c r="D1439" s="13" t="s">
+      <c r="D1439" s="7" t="s">
         <v>6516</v>
       </c>
-      <c r="E1439" s="13" t="s">
+      <c r="E1439" s="7" t="s">
         <v>6517</v>
       </c>
       <c r="F1439" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1439" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1439" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1439" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1440" s="0" t="s">
+      <c r="A1440" s="4" t="s">
         <v>6518</v>
       </c>
-      <c r="B1440" s="0" t="s">
+      <c r="B1440" s="4" t="s">
         <v>6519</v>
       </c>
-      <c r="C1440" s="0" t="s">
+      <c r="C1440" s="4" t="s">
         <v>6520</v>
       </c>
-      <c r="D1440" s="0" t="s">
+      <c r="D1440" s="4" t="s">
         <v>6521</v>
       </c>
-      <c r="E1440" s="0" t="s">
+      <c r="E1440" s="4" t="s">
         <v>6522</v>
       </c>
       <c r="F1440" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1440" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1440" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1440" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1441" s="8" t="s">
+      <c r="A1441" s="7" t="s">
         <v>6523</v>
       </c>
-      <c r="B1441" s="9" t="s">
+      <c r="B1441" s="1" t="s">
         <v>6524</v>
       </c>
-      <c r="C1441" s="9" t="s">
+      <c r="C1441" s="1" t="s">
         <v>6525</v>
       </c>
-      <c r="D1441" s="9" t="s">
+      <c r="D1441" s="1" t="s">
         <v>6526</v>
       </c>
-      <c r="E1441" s="9" t="s">
+      <c r="E1441" s="1" t="s">
         <v>6527</v>
       </c>
-      <c r="F1441" s="9" t="s">
+      <c r="F1441" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G1441" s="10" t="s">
+      <c r="G1441" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1441" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1442" s="8" t="s">
+      <c r="A1442" s="7" t="s">
         <v>6528</v>
       </c>
-      <c r="B1442" s="9" t="s">
+      <c r="B1442" s="1" t="s">
         <v>6529</v>
       </c>
-      <c r="C1442" s="10" t="s">
+      <c r="C1442" s="1" t="s">
         <v>6530</v>
       </c>
-      <c r="D1442" s="10" t="s">
+      <c r="D1442" s="1" t="s">
         <v>6531</v>
       </c>
-      <c r="E1442" s="10" t="s">
+      <c r="E1442" s="1" t="s">
         <v>6532</v>
       </c>
-      <c r="F1442" s="10" t="s">
+      <c r="F1442" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G1442" s="10" t="s">
+      <c r="G1442" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1442" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1443" s="0" t="s">
+      <c r="A1443" s="4" t="s">
         <v>6533</v>
       </c>
-      <c r="B1443" s="0" t="s">
+      <c r="B1443" s="4" t="s">
         <v>6534</v>
       </c>
-      <c r="C1443" s="0" t="s">
+      <c r="C1443" s="4" t="s">
         <v>6535</v>
       </c>
-      <c r="D1443" s="0" t="s">
+      <c r="D1443" s="4" t="s">
         <v>6536</v>
       </c>
-      <c r="E1443" s="0" t="s">
+      <c r="E1443" s="4" t="s">
         <v>6537</v>
       </c>
-      <c r="F1443" s="10" t="s">
+      <c r="F1443" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G1443" s="10" t="s">
+      <c r="G1443" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1443" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1444" s="0" t="s">
+      <c r="A1444" s="4" t="s">
         <v>6538</v>
       </c>
-      <c r="B1444" s="0" t="s">
+      <c r="B1444" s="4" t="s">
         <v>6539</v>
       </c>
-      <c r="C1444" s="0" t="s">
+      <c r="C1444" s="4" t="s">
         <v>6540</v>
       </c>
-      <c r="D1444" s="0" t="s">
+      <c r="D1444" s="4" t="s">
         <v>6541</v>
       </c>
-      <c r="E1444" s="0" t="s">
+      <c r="E1444" s="4" t="s">
         <v>6542</v>
       </c>
-      <c r="F1444" s="10" t="s">
+      <c r="F1444" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G1444" s="10" t="s">
+      <c r="G1444" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1444" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1445" s="8" t="s">
+      <c r="A1445" s="7" t="s">
         <v>6543</v>
       </c>
-      <c r="B1445" s="8" t="s">
+      <c r="B1445" s="7" t="s">
         <v>6544</v>
       </c>
-      <c r="C1445" s="9" t="s">
+      <c r="C1445" s="1" t="s">
         <v>6545</v>
       </c>
-      <c r="D1445" s="9" t="s">
+      <c r="D1445" s="1" t="s">
         <v>6546</v>
       </c>
-      <c r="E1445" s="9" t="s">
+      <c r="E1445" s="1" t="s">
         <v>6547</v>
       </c>
-      <c r="F1445" s="10" t="s">
+      <c r="F1445" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="G1445" s="10" t="s">
+      <c r="G1445" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1445" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1446" s="13" t="s">
+      <c r="A1446" s="7" t="s">
         <v>6548</v>
       </c>
-      <c r="B1446" s="13" t="s">
+      <c r="B1446" s="7" t="s">
         <v>6549</v>
       </c>
-      <c r="C1446" s="10" t="s">
+      <c r="C1446" s="1" t="s">
         <v>6550</v>
       </c>
-      <c r="D1446" s="9" t="s">
+      <c r="D1446" s="1" t="s">
         <v>6551</v>
       </c>
-      <c r="E1446" s="9" t="s">
+      <c r="E1446" s="1" t="s">
         <v>6552</v>
       </c>
-      <c r="F1446" s="9" t="s">
+      <c r="F1446" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1446" s="10" t="s">
+      <c r="G1446" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1446" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1447" s="0" t="s">
+      <c r="A1447" s="4" t="s">
         <v>6553</v>
       </c>
-      <c r="B1447" s="0" t="s">
+      <c r="B1447" s="4" t="s">
         <v>6554</v>
       </c>
-      <c r="C1447" s="0" t="s">
+      <c r="C1447" s="4" t="s">
         <v>6555</v>
       </c>
-      <c r="D1447" s="0" t="s">
+      <c r="D1447" s="4" t="s">
         <v>6556</v>
       </c>
-      <c r="E1447" s="0" t="s">
+      <c r="E1447" s="4" t="s">
         <v>6557</v>
       </c>
-      <c r="F1447" s="10" t="s">
+      <c r="F1447" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1447" s="10" t="s">
+      <c r="G1447" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1447" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1448" s="8" t="s">
+      <c r="A1448" s="7" t="s">
         <v>6558</v>
       </c>
-      <c r="B1448" s="9" t="s">
+      <c r="B1448" s="1" t="s">
         <v>6559</v>
       </c>
-      <c r="C1448" s="9" t="s">
+      <c r="C1448" s="1" t="s">
         <v>6560</v>
       </c>
-      <c r="D1448" s="9" t="s">
+      <c r="D1448" s="1" t="s">
         <v>6561</v>
       </c>
-      <c r="E1448" s="9" t="s">
+      <c r="E1448" s="1" t="s">
         <v>6562</v>
       </c>
-      <c r="F1448" s="10" t="s">
+      <c r="F1448" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1448" s="10" t="s">
+      <c r="G1448" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1448" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1449" s="0" t="s">
+      <c r="A1449" s="4" t="s">
         <v>6563</v>
       </c>
-      <c r="B1449" s="0" t="s">
+      <c r="B1449" s="4" t="s">
         <v>6564</v>
       </c>
-      <c r="C1449" s="0" t="s">
+      <c r="C1449" s="4" t="s">
         <v>6565</v>
       </c>
-      <c r="D1449" s="0" t="s">
+      <c r="D1449" s="4" t="s">
         <v>6566</v>
       </c>
-      <c r="E1449" s="0" t="s">
+      <c r="E1449" s="4" t="s">
         <v>6567</v>
       </c>
-      <c r="F1449" s="10" t="s">
+      <c r="F1449" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1449" s="10" t="s">
+      <c r="G1449" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1449" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1450" s="0" t="s">
+      <c r="A1450" s="4" t="s">
         <v>6568</v>
       </c>
-      <c r="B1450" s="0" t="s">
+      <c r="B1450" s="4" t="s">
         <v>6569</v>
       </c>
-      <c r="C1450" s="0" t="s">
+      <c r="C1450" s="4" t="s">
         <v>6570</v>
       </c>
-      <c r="D1450" s="0" t="s">
+      <c r="D1450" s="4" t="s">
         <v>6571</v>
       </c>
-      <c r="E1450" s="0" t="s">
+      <c r="E1450" s="4" t="s">
         <v>6572</v>
       </c>
-      <c r="F1450" s="10" t="s">
+      <c r="F1450" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1450" s="10" t="s">
+      <c r="G1450" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1450" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1451" s="0" t="s">
+      <c r="A1451" s="4" t="s">
         <v>6573</v>
       </c>
-      <c r="B1451" s="0" t="n">
+      <c r="B1451" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C1451" s="0" t="n">
+      <c r="C1451" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D1451" s="0" t="n">
+      <c r="D1451" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E1451" s="0" t="n">
+      <c r="E1451" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F1451" s="10" t="s">
+      <c r="F1451" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1451" s="10" t="s">
+      <c r="G1451" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1451" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1452" s="0" t="s">
+      <c r="A1452" s="4" t="s">
         <v>6574</v>
       </c>
-      <c r="B1452" s="0" t="s">
+      <c r="B1452" s="4" t="s">
         <v>6575</v>
       </c>
-      <c r="C1452" s="0" t="s">
+      <c r="C1452" s="4" t="s">
         <v>6576</v>
       </c>
-      <c r="D1452" s="0" t="s">
+      <c r="D1452" s="4" t="s">
         <v>6577</v>
       </c>
-      <c r="E1452" s="0" t="s">
+      <c r="E1452" s="4" t="s">
         <v>6578</v>
       </c>
-      <c r="F1452" s="10" t="s">
+      <c r="F1452" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1452" s="10" t="s">
+      <c r="G1452" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1452" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1453" s="0" t="s">
+      <c r="A1453" s="4" t="s">
         <v>6579</v>
       </c>
-      <c r="B1453" s="0" t="s">
+      <c r="B1453" s="4" t="s">
         <v>6580</v>
       </c>
-      <c r="C1453" s="0" t="s">
+      <c r="C1453" s="4" t="s">
         <v>6581</v>
       </c>
-      <c r="D1453" s="0" t="s">
+      <c r="D1453" s="4" t="s">
         <v>6582</v>
       </c>
-      <c r="E1453" s="0" t="s">
+      <c r="E1453" s="4" t="s">
         <v>6583</v>
       </c>
-      <c r="F1453" s="10" t="s">
+      <c r="F1453" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1453" s="10" t="s">
+      <c r="G1453" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1453" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1454" s="0" t="s">
+      <c r="A1454" s="4" t="s">
         <v>6584</v>
       </c>
-      <c r="B1454" s="8" t="s">
+      <c r="B1454" s="7" t="s">
         <v>6585</v>
       </c>
-      <c r="C1454" s="9" t="s">
+      <c r="C1454" s="1" t="s">
         <v>6586</v>
       </c>
-      <c r="D1454" s="9" t="s">
+      <c r="D1454" s="1" t="s">
         <v>6587</v>
       </c>
-      <c r="E1454" s="9" t="s">
+      <c r="E1454" s="1" t="s">
         <v>6588</v>
       </c>
-      <c r="F1454" s="10" t="s">
+      <c r="F1454" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1454" s="10" t="s">
+      <c r="G1454" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1454" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1455" s="0" t="s">
+      <c r="A1455" s="4" t="s">
         <v>6589</v>
       </c>
-      <c r="B1455" s="0" t="s">
+      <c r="B1455" s="4" t="s">
         <v>6590</v>
       </c>
-      <c r="C1455" s="0" t="s">
+      <c r="C1455" s="4" t="s">
         <v>6591</v>
       </c>
-      <c r="D1455" s="0" t="s">
+      <c r="D1455" s="4" t="s">
         <v>6592</v>
       </c>
-      <c r="E1455" s="0" t="s">
+      <c r="E1455" s="4" t="s">
         <v>6593</v>
       </c>
-      <c r="F1455" s="10" t="s">
+      <c r="F1455" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1455" s="10" t="s">
+      <c r="G1455" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1455" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1456" s="0" t="s">
+      <c r="A1456" s="4" t="s">
         <v>6594</v>
       </c>
-      <c r="B1456" s="0" t="s">
+      <c r="B1456" s="4" t="s">
         <v>6595</v>
       </c>
-      <c r="C1456" s="10" t="s">
+      <c r="C1456" s="1" t="s">
         <v>6596</v>
       </c>
-      <c r="D1456" s="9" t="s">
+      <c r="D1456" s="1" t="s">
         <v>6597</v>
       </c>
-      <c r="E1456" s="10" t="s">
+      <c r="E1456" s="1" t="s">
         <v>6598</v>
       </c>
-      <c r="F1456" s="10" t="s">
+      <c r="F1456" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1456" s="10" t="s">
+      <c r="G1456" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1456" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1457" s="8" t="s">
+      <c r="A1457" s="7" t="s">
         <v>6599</v>
       </c>
-      <c r="B1457" s="9" t="s">
+      <c r="B1457" s="1" t="s">
         <v>6600</v>
       </c>
-      <c r="C1457" s="9" t="s">
+      <c r="C1457" s="1" t="s">
         <v>6601</v>
       </c>
-      <c r="D1457" s="9" t="s">
+      <c r="D1457" s="1" t="s">
         <v>6602</v>
       </c>
-      <c r="E1457" s="9" t="s">
+      <c r="E1457" s="1" t="s">
         <v>6603</v>
       </c>
-      <c r="F1457" s="10" t="s">
+      <c r="F1457" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1457" s="10" t="s">
+      <c r="G1457" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1457" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1458" s="0" t="s">
+      <c r="A1458" s="4" t="s">
         <v>6604</v>
       </c>
-      <c r="B1458" s="0" t="s">
+      <c r="B1458" s="4" t="s">
         <v>6605</v>
       </c>
-      <c r="C1458" s="0" t="s">
+      <c r="C1458" s="4" t="s">
         <v>6606</v>
       </c>
-      <c r="D1458" s="0" t="s">
+      <c r="D1458" s="4" t="s">
         <v>6607</v>
       </c>
-      <c r="E1458" s="0" t="s">
+      <c r="E1458" s="4" t="s">
         <v>6608</v>
       </c>
-      <c r="F1458" s="10" t="s">
+      <c r="F1458" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1458" s="10" t="s">
+      <c r="G1458" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1458" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1459" s="0" t="s">
+      <c r="A1459" s="4" t="s">
         <v>6609</v>
       </c>
-      <c r="B1459" s="0" t="s">
+      <c r="B1459" s="4" t="s">
         <v>6610</v>
       </c>
-      <c r="C1459" s="0" t="s">
+      <c r="C1459" s="4" t="s">
         <v>6611</v>
       </c>
-      <c r="D1459" s="0" t="s">
+      <c r="D1459" s="4" t="s">
         <v>6612</v>
       </c>
-      <c r="E1459" s="0" t="s">
+      <c r="E1459" s="4" t="s">
         <v>6613</v>
       </c>
-      <c r="F1459" s="10" t="s">
+      <c r="F1459" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1459" s="10" t="s">
+      <c r="G1459" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1459" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1460" s="0" t="s">
+      <c r="A1460" s="4" t="s">
         <v>6614</v>
       </c>
-      <c r="B1460" s="0" t="s">
+      <c r="B1460" s="4" t="s">
         <v>6615</v>
       </c>
-      <c r="C1460" s="0" t="s">
+      <c r="C1460" s="4" t="s">
         <v>6616</v>
       </c>
-      <c r="D1460" s="0" t="s">
+      <c r="D1460" s="4" t="s">
         <v>6617</v>
       </c>
-      <c r="E1460" s="0" t="s">
+      <c r="E1460" s="4" t="s">
         <v>6618</v>
       </c>
-      <c r="F1460" s="10" t="s">
+      <c r="F1460" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1460" s="10" t="s">
+      <c r="G1460" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1460" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1461" s="8" t="s">
+      <c r="A1461" s="7" t="s">
         <v>6619</v>
       </c>
-      <c r="B1461" s="9" t="s">
+      <c r="B1461" s="1" t="s">
         <v>6620</v>
       </c>
-      <c r="C1461" s="9" t="s">
+      <c r="C1461" s="1" t="s">
         <v>6621</v>
       </c>
-      <c r="D1461" s="9" t="s">
+      <c r="D1461" s="1" t="s">
         <v>6622</v>
       </c>
-      <c r="E1461" s="9" t="s">
+      <c r="E1461" s="1" t="s">
         <v>6623</v>
       </c>
-      <c r="F1461" s="10" t="s">
+      <c r="F1461" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1461" s="10" t="s">
+      <c r="G1461" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1461" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1462" s="0" t="s">
+      <c r="A1462" s="4" t="s">
         <v>6624</v>
       </c>
-      <c r="B1462" s="0" t="s">
+      <c r="B1462" s="4" t="s">
         <v>6625</v>
       </c>
-      <c r="C1462" s="0" t="s">
+      <c r="C1462" s="4" t="s">
         <v>6626</v>
       </c>
-      <c r="D1462" s="0" t="s">
+      <c r="D1462" s="4" t="s">
         <v>6627</v>
       </c>
-      <c r="E1462" s="0" t="s">
+      <c r="E1462" s="4" t="s">
         <v>6628</v>
       </c>
-      <c r="F1462" s="10" t="s">
+      <c r="F1462" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1462" s="10" t="s">
+      <c r="G1462" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1462" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1463" s="0" t="s">
+      <c r="A1463" s="4" t="s">
         <v>6629</v>
       </c>
-      <c r="B1463" s="0" t="s">
+      <c r="B1463" s="4" t="s">
         <v>6630</v>
       </c>
-      <c r="C1463" s="0" t="s">
+      <c r="C1463" s="4" t="s">
         <v>6631</v>
       </c>
-      <c r="D1463" s="0" t="s">
+      <c r="D1463" s="4" t="s">
         <v>6632</v>
       </c>
-      <c r="E1463" s="0" t="s">
+      <c r="E1463" s="4" t="s">
         <v>6633</v>
       </c>
-      <c r="F1463" s="10" t="s">
+      <c r="F1463" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1463" s="10" t="s">
+      <c r="G1463" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1463" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1464" s="0" t="s">
+      <c r="A1464" s="4" t="s">
         <v>6634</v>
       </c>
-      <c r="B1464" s="0" t="s">
+      <c r="B1464" s="4" t="s">
         <v>6635</v>
       </c>
-      <c r="C1464" s="0" t="s">
+      <c r="C1464" s="4" t="s">
         <v>6636</v>
       </c>
-      <c r="D1464" s="0" t="s">
+      <c r="D1464" s="4" t="s">
         <v>6637</v>
       </c>
-      <c r="E1464" s="0" t="s">
+      <c r="E1464" s="4" t="s">
         <v>6638</v>
       </c>
-      <c r="F1464" s="10" t="s">
+      <c r="F1464" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1464" s="10" t="s">
+      <c r="G1464" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1464" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1465" s="0" t="s">
+      <c r="A1465" s="4" t="s">
         <v>6639</v>
       </c>
-      <c r="B1465" s="0" t="s">
+      <c r="B1465" s="4" t="s">
         <v>6640</v>
       </c>
-      <c r="C1465" s="0" t="s">
+      <c r="C1465" s="4" t="s">
         <v>6641</v>
       </c>
-      <c r="D1465" s="0" t="s">
+      <c r="D1465" s="4" t="s">
         <v>6642</v>
       </c>
-      <c r="E1465" s="0" t="s">
+      <c r="E1465" s="4" t="s">
         <v>6643</v>
       </c>
-      <c r="F1465" s="10" t="s">
+      <c r="F1465" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1465" s="10" t="s">
+      <c r="G1465" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1465" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1466" s="8" t="s">
+      <c r="A1466" s="7" t="s">
         <v>6644</v>
       </c>
-      <c r="B1466" s="9" t="s">
+      <c r="B1466" s="1" t="s">
         <v>6645</v>
       </c>
-      <c r="C1466" s="9" t="s">
+      <c r="C1466" s="1" t="s">
         <v>6646</v>
       </c>
-      <c r="D1466" s="9" t="s">
+      <c r="D1466" s="1" t="s">
         <v>6647</v>
       </c>
-      <c r="E1466" s="9" t="s">
+      <c r="E1466" s="1" t="s">
         <v>6648</v>
       </c>
-      <c r="F1466" s="10" t="s">
+      <c r="F1466" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1466" s="10" t="s">
+      <c r="G1466" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1466" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1467" s="0" t="s">
+      <c r="A1467" s="4" t="s">
         <v>6649</v>
       </c>
-      <c r="B1467" s="0" t="s">
+      <c r="B1467" s="4" t="s">
         <v>6650</v>
       </c>
-      <c r="C1467" s="0" t="s">
+      <c r="C1467" s="4" t="s">
         <v>6651</v>
       </c>
-      <c r="D1467" s="0" t="s">
+      <c r="D1467" s="4" t="s">
         <v>6652</v>
       </c>
-      <c r="E1467" s="0" t="s">
+      <c r="E1467" s="4" t="s">
         <v>6653</v>
       </c>
-      <c r="F1467" s="10" t="s">
+      <c r="F1467" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1467" s="10" t="s">
+      <c r="G1467" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1467" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1468" s="0" t="s">
+      <c r="A1468" s="4" t="s">
         <v>6654</v>
       </c>
-      <c r="B1468" s="0" t="s">
+      <c r="B1468" s="4" t="s">
         <v>6655</v>
       </c>
-      <c r="C1468" s="0" t="s">
+      <c r="C1468" s="4" t="s">
         <v>6656</v>
       </c>
-      <c r="D1468" s="0" t="s">
+      <c r="D1468" s="4" t="s">
         <v>6657</v>
       </c>
-      <c r="E1468" s="0" t="s">
+      <c r="E1468" s="4" t="s">
         <v>6658</v>
       </c>
-      <c r="F1468" s="10" t="s">
+      <c r="F1468" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1468" s="10" t="s">
+      <c r="G1468" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1468" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1469" s="0" t="s">
+      <c r="A1469" s="4" t="s">
         <v>6659</v>
       </c>
-      <c r="B1469" s="0" t="s">
+      <c r="B1469" s="4" t="s">
         <v>6660</v>
       </c>
-      <c r="C1469" s="0" t="s">
+      <c r="C1469" s="4" t="s">
         <v>6661</v>
       </c>
-      <c r="D1469" s="0" t="s">
+      <c r="D1469" s="4" t="s">
         <v>6662</v>
       </c>
-      <c r="E1469" s="0" t="s">
+      <c r="E1469" s="4" t="s">
         <v>6663</v>
       </c>
-      <c r="F1469" s="10" t="s">
+      <c r="F1469" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1469" s="10" t="s">
+      <c r="G1469" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1469" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1470" s="0" t="s">
+      <c r="A1470" s="4" t="s">
         <v>6664</v>
       </c>
-      <c r="B1470" s="8" t="s">
+      <c r="B1470" s="7" t="s">
         <v>6665</v>
       </c>
-      <c r="C1470" s="9" t="s">
+      <c r="C1470" s="1" t="s">
         <v>6666</v>
       </c>
-      <c r="D1470" s="9" t="s">
+      <c r="D1470" s="1" t="s">
         <v>6667</v>
       </c>
-      <c r="E1470" s="9" t="s">
+      <c r="E1470" s="1" t="s">
         <v>6668</v>
       </c>
-      <c r="F1470" s="10" t="s">
+      <c r="F1470" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1470" s="10" t="s">
+      <c r="G1470" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1470" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1471" s="0" t="s">
+      <c r="A1471" s="4" t="s">
         <v>6669</v>
       </c>
-      <c r="B1471" s="0" t="s">
+      <c r="B1471" s="4" t="s">
         <v>6670</v>
       </c>
-      <c r="C1471" s="0" t="s">
+      <c r="C1471" s="4" t="s">
         <v>6671</v>
       </c>
-      <c r="D1471" s="0" t="s">
+      <c r="D1471" s="4" t="s">
         <v>6672</v>
       </c>
-      <c r="E1471" s="0" t="s">
+      <c r="E1471" s="4" t="s">
         <v>6673</v>
       </c>
-      <c r="F1471" s="10" t="s">
+      <c r="F1471" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1471" s="10" t="s">
+      <c r="G1471" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1471" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1472" s="0" t="s">
+      <c r="A1472" s="4" t="s">
         <v>6674</v>
       </c>
-      <c r="B1472" s="0" t="s">
+      <c r="B1472" s="4" t="s">
         <v>6675</v>
       </c>
-      <c r="C1472" s="0" t="s">
+      <c r="C1472" s="4" t="s">
         <v>6676</v>
       </c>
-      <c r="D1472" s="0" t="s">
+      <c r="D1472" s="4" t="s">
         <v>6677</v>
       </c>
-      <c r="E1472" s="0" t="s">
+      <c r="E1472" s="4" t="s">
         <v>6678</v>
       </c>
-      <c r="F1472" s="10" t="s">
+      <c r="F1472" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1472" s="10" t="s">
+      <c r="G1472" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1472" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1473" s="0" t="s">
+      <c r="A1473" s="4" t="s">
         <v>6679</v>
       </c>
-      <c r="B1473" s="0" t="s">
+      <c r="B1473" s="4" t="s">
         <v>6680</v>
       </c>
-      <c r="C1473" s="0" t="s">
+      <c r="C1473" s="4" t="s">
         <v>6681</v>
       </c>
-      <c r="D1473" s="0" t="s">
+      <c r="D1473" s="4" t="s">
         <v>6682</v>
       </c>
-      <c r="E1473" s="0" t="s">
+      <c r="E1473" s="4" t="s">
         <v>6683</v>
       </c>
-      <c r="F1473" s="10" t="s">
+      <c r="F1473" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1473" s="10" t="s">
+      <c r="G1473" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1473" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1474" s="0" t="s">
+      <c r="A1474" s="4" t="s">
         <v>6684</v>
       </c>
-      <c r="B1474" s="0" t="s">
+      <c r="B1474" s="4" t="s">
         <v>6685</v>
       </c>
-      <c r="C1474" s="0" t="s">
+      <c r="C1474" s="4" t="s">
         <v>6686</v>
       </c>
-      <c r="D1474" s="0" t="s">
+      <c r="D1474" s="4" t="s">
         <v>6687</v>
       </c>
-      <c r="E1474" s="0" t="s">
+      <c r="E1474" s="4" t="s">
         <v>6688</v>
       </c>
-      <c r="F1474" s="10" t="s">
+      <c r="F1474" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1474" s="10" t="s">
+      <c r="G1474" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1474" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1475" s="0" t="s">
+      <c r="A1475" s="4" t="s">
         <v>6689</v>
       </c>
-      <c r="B1475" s="0" t="s">
+      <c r="B1475" s="4" t="s">
         <v>6690</v>
       </c>
-      <c r="C1475" s="0" t="s">
+      <c r="C1475" s="4" t="s">
         <v>6691</v>
       </c>
-      <c r="D1475" s="0" t="s">
+      <c r="D1475" s="4" t="s">
         <v>6692</v>
       </c>
-      <c r="E1475" s="0" t="s">
+      <c r="E1475" s="4" t="s">
         <v>6693</v>
       </c>
-      <c r="F1475" s="10" t="s">
+      <c r="F1475" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1475" s="10" t="s">
+      <c r="G1475" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1475" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1476" s="0" t="s">
+      <c r="A1476" s="4" t="s">
         <v>6694</v>
       </c>
-      <c r="B1476" s="0" t="s">
+      <c r="B1476" s="4" t="s">
         <v>6695</v>
       </c>
-      <c r="C1476" s="0" t="s">
+      <c r="C1476" s="4" t="s">
         <v>6696</v>
       </c>
-      <c r="D1476" s="0" t="s">
+      <c r="D1476" s="4" t="s">
         <v>6697</v>
       </c>
-      <c r="E1476" s="0" t="s">
+      <c r="E1476" s="4" t="s">
         <v>6698</v>
       </c>
-      <c r="F1476" s="10" t="s">
+      <c r="F1476" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1476" s="10" t="s">
+      <c r="G1476" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1476" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1477" s="0" t="s">
+      <c r="A1477" s="4" t="s">
         <v>6699</v>
       </c>
-      <c r="B1477" s="0" t="s">
+      <c r="B1477" s="4" t="s">
         <v>6700</v>
       </c>
-      <c r="C1477" s="0" t="s">
+      <c r="C1477" s="4" t="s">
         <v>6701</v>
       </c>
-      <c r="D1477" s="0" t="s">
+      <c r="D1477" s="4" t="s">
         <v>6702</v>
       </c>
-      <c r="E1477" s="0" t="s">
+      <c r="E1477" s="4" t="s">
         <v>6703</v>
       </c>
-      <c r="F1477" s="10" t="s">
+      <c r="F1477" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1477" s="10" t="s">
+      <c r="G1477" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1477" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1478" s="0" t="s">
+      <c r="A1478" s="4" t="s">
         <v>6704</v>
       </c>
-      <c r="B1478" s="0" t="s">
+      <c r="B1478" s="4" t="s">
         <v>6705</v>
       </c>
-      <c r="C1478" s="0" t="s">
+      <c r="C1478" s="4" t="s">
         <v>6706</v>
       </c>
-      <c r="D1478" s="0" t="s">
+      <c r="D1478" s="4" t="s">
         <v>6707</v>
       </c>
-      <c r="E1478" s="0" t="s">
+      <c r="E1478" s="4" t="s">
         <v>6708</v>
       </c>
-      <c r="F1478" s="10" t="s">
+      <c r="F1478" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1478" s="10" t="s">
+      <c r="G1478" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1478" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1479" s="8" t="s">
+      <c r="A1479" s="7" t="s">
         <v>6709</v>
       </c>
-      <c r="B1479" s="9" t="s">
+      <c r="B1479" s="1" t="s">
         <v>6710</v>
       </c>
-      <c r="C1479" s="9" t="s">
+      <c r="C1479" s="1" t="s">
         <v>6711</v>
       </c>
-      <c r="D1479" s="9" t="s">
+      <c r="D1479" s="1" t="s">
         <v>6712</v>
       </c>
-      <c r="E1479" s="9" t="s">
+      <c r="E1479" s="1" t="s">
         <v>6713</v>
       </c>
-      <c r="F1479" s="10" t="s">
+      <c r="F1479" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1479" s="10" t="s">
+      <c r="G1479" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1479" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1480" s="8" t="s">
+      <c r="A1480" s="7" t="s">
         <v>6714</v>
       </c>
-      <c r="B1480" s="9" t="s">
+      <c r="B1480" s="1" t="s">
         <v>6715</v>
       </c>
-      <c r="C1480" s="9" t="s">
+      <c r="C1480" s="1" t="s">
         <v>6716</v>
       </c>
-      <c r="D1480" s="9" t="s">
+      <c r="D1480" s="1" t="s">
         <v>6717</v>
       </c>
-      <c r="E1480" s="9" t="s">
+      <c r="E1480" s="1" t="s">
         <v>6718</v>
       </c>
-      <c r="F1480" s="10" t="s">
+      <c r="F1480" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1480" s="10" t="s">
+      <c r="G1480" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1480" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1481" s="0" t="s">
+      <c r="A1481" s="4" t="s">
         <v>6719</v>
       </c>
-      <c r="B1481" s="0" t="s">
+      <c r="B1481" s="4" t="s">
         <v>6720</v>
       </c>
-      <c r="C1481" s="0" t="s">
+      <c r="C1481" s="4" t="s">
         <v>6721</v>
       </c>
-      <c r="D1481" s="0" t="s">
+      <c r="D1481" s="4" t="s">
         <v>6722</v>
       </c>
-      <c r="E1481" s="0" t="s">
+      <c r="E1481" s="4" t="s">
         <v>6723</v>
       </c>
-      <c r="F1481" s="10" t="s">
+      <c r="F1481" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1481" s="10" t="s">
+      <c r="G1481" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1481" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1482" s="0" t="s">
+      <c r="A1482" s="4" t="s">
         <v>6724</v>
       </c>
-      <c r="B1482" s="0" t="s">
+      <c r="B1482" s="4" t="s">
         <v>6725</v>
       </c>
-      <c r="C1482" s="0" t="s">
+      <c r="C1482" s="4" t="s">
         <v>6726</v>
       </c>
-      <c r="D1482" s="0" t="s">
+      <c r="D1482" s="4" t="s">
         <v>6727</v>
       </c>
-      <c r="E1482" s="0" t="s">
+      <c r="E1482" s="4" t="s">
         <v>6728</v>
       </c>
-      <c r="F1482" s="10" t="s">
+      <c r="F1482" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1482" s="10" t="s">
+      <c r="G1482" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1482" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1483" s="0" t="s">
+      <c r="A1483" s="4" t="s">
         <v>6729</v>
       </c>
-      <c r="B1483" s="12" t="s">
+      <c r="B1483" s="1" t="s">
         <v>6730</v>
       </c>
-      <c r="C1483" s="9" t="s">
+      <c r="C1483" s="1" t="s">
         <v>6731</v>
       </c>
-      <c r="D1483" s="9" t="s">
+      <c r="D1483" s="1" t="s">
         <v>6732</v>
       </c>
-      <c r="E1483" s="9" t="s">
+      <c r="E1483" s="1" t="s">
         <v>6733</v>
       </c>
-      <c r="F1483" s="10" t="s">
+      <c r="F1483" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1483" s="10" t="s">
+      <c r="G1483" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1483" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1484" s="0" t="s">
+      <c r="A1484" s="4" t="s">
         <v>6734</v>
       </c>
-      <c r="B1484" s="0" t="s">
+      <c r="B1484" s="4" t="s">
         <v>6735</v>
       </c>
-      <c r="C1484" s="0" t="s">
+      <c r="C1484" s="4" t="s">
         <v>6736</v>
       </c>
-      <c r="D1484" s="0" t="s">
+      <c r="D1484" s="4" t="s">
         <v>6737</v>
       </c>
-      <c r="E1484" s="0" t="s">
+      <c r="E1484" s="4" t="s">
         <v>6738</v>
       </c>
-      <c r="F1484" s="10" t="s">
+      <c r="F1484" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1484" s="10" t="s">
+      <c r="G1484" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1484" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1485" s="0" t="s">
+      <c r="A1485" s="4" t="s">
         <v>6739</v>
       </c>
-      <c r="B1485" s="0" t="s">
+      <c r="B1485" s="4" t="s">
         <v>6740</v>
       </c>
-      <c r="C1485" s="0" t="s">
+      <c r="C1485" s="4" t="s">
         <v>6741</v>
       </c>
-      <c r="D1485" s="0" t="s">
+      <c r="D1485" s="4" t="s">
         <v>6742</v>
       </c>
-      <c r="E1485" s="0" t="s">
+      <c r="E1485" s="4" t="s">
         <v>6743</v>
       </c>
-      <c r="F1485" s="10" t="s">
+      <c r="F1485" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1485" s="10" t="s">
+      <c r="G1485" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1485" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1486" s="0" t="s">
+      <c r="A1486" s="4" t="s">
         <v>6744</v>
       </c>
-      <c r="B1486" s="0" t="s">
+      <c r="B1486" s="4" t="s">
         <v>6745</v>
       </c>
-      <c r="C1486" s="0" t="s">
+      <c r="C1486" s="4" t="s">
         <v>6746</v>
       </c>
-      <c r="D1486" s="0" t="s">
+      <c r="D1486" s="4" t="s">
         <v>6747</v>
       </c>
-      <c r="E1486" s="0" t="s">
+      <c r="E1486" s="4" t="s">
         <v>6748</v>
       </c>
-      <c r="F1486" s="10" t="s">
+      <c r="F1486" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1486" s="10" t="s">
+      <c r="G1486" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1486" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1487" s="10" t="s">
+      <c r="A1487" s="1" t="s">
         <v>6749</v>
       </c>
-      <c r="B1487" s="10" t="s">
+      <c r="B1487" s="1" t="s">
         <v>6750</v>
       </c>
-      <c r="C1487" s="10" t="s">
+      <c r="C1487" s="1" t="s">
         <v>6751</v>
       </c>
-      <c r="D1487" s="10" t="s">
+      <c r="D1487" s="1" t="s">
         <v>6752</v>
       </c>
-      <c r="E1487" s="9" t="s">
+      <c r="E1487" s="1" t="s">
         <v>6753</v>
       </c>
-      <c r="F1487" s="10" t="s">
+      <c r="F1487" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1487" s="10" t="s">
+      <c r="G1487" s="1" t="s">
         <v>6124</v>
       </c>
-    </row>
-    <row r="1488" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1488" s="11" t="s">
+      <c r="H1487" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="9" t="s">
         <v>6754</v>
       </c>
-      <c r="B1488" s="9" t="s">
+      <c r="B1488" s="1" t="s">
         <v>6755</v>
       </c>
-      <c r="C1488" s="9" t="s">
+      <c r="C1488" s="1" t="s">
         <v>6756</v>
       </c>
-      <c r="D1488" s="9" t="s">
+      <c r="D1488" s="1" t="s">
         <v>6757</v>
       </c>
-      <c r="E1488" s="9" t="s">
+      <c r="E1488" s="1" t="s">
         <v>6758</v>
       </c>
-      <c r="F1488" s="10" t="s">
+      <c r="F1488" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1488" s="10" t="s">
+      <c r="G1488" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1488" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1489" s="0" t="s">
+      <c r="A1489" s="4" t="s">
         <v>6759</v>
       </c>
-      <c r="B1489" s="0" t="s">
+      <c r="B1489" s="4" t="s">
         <v>6760</v>
       </c>
-      <c r="C1489" s="0" t="s">
+      <c r="C1489" s="4" t="s">
         <v>6761</v>
       </c>
-      <c r="D1489" s="0" t="s">
+      <c r="D1489" s="4" t="s">
         <v>6762</v>
       </c>
-      <c r="E1489" s="0" t="s">
+      <c r="E1489" s="4" t="s">
         <v>6763</v>
       </c>
-      <c r="F1489" s="10" t="s">
+      <c r="F1489" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1489" s="10" t="s">
+      <c r="G1489" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1489" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1490" s="0" t="s">
+      <c r="A1490" s="4" t="s">
         <v>6764</v>
       </c>
-      <c r="B1490" s="0" t="s">
+      <c r="B1490" s="4" t="s">
         <v>6765</v>
       </c>
-      <c r="C1490" s="0" t="s">
+      <c r="C1490" s="4" t="s">
         <v>6765</v>
       </c>
-      <c r="D1490" s="0" t="s">
+      <c r="D1490" s="4" t="s">
         <v>6766</v>
       </c>
-      <c r="E1490" s="0" t="s">
+      <c r="E1490" s="4" t="s">
         <v>6767</v>
       </c>
-      <c r="F1490" s="10" t="s">
+      <c r="F1490" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1490" s="10" t="s">
+      <c r="G1490" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1490" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1491" s="0" t="s">
+      <c r="A1491" s="4" t="s">
         <v>6768</v>
       </c>
-      <c r="B1491" s="0" t="s">
+      <c r="B1491" s="4" t="s">
         <v>6769</v>
       </c>
-      <c r="C1491" s="0" t="s">
+      <c r="C1491" s="4" t="s">
         <v>6770</v>
       </c>
-      <c r="D1491" s="0" t="s">
+      <c r="D1491" s="4" t="s">
         <v>6771</v>
       </c>
-      <c r="E1491" s="0" t="s">
+      <c r="E1491" s="4" t="s">
         <v>6772</v>
       </c>
-      <c r="F1491" s="10" t="s">
+      <c r="F1491" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1491" s="10" t="s">
+      <c r="G1491" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1491" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1492" s="0" t="s">
+      <c r="A1492" s="4" t="s">
         <v>6773</v>
       </c>
-      <c r="B1492" s="0" t="s">
+      <c r="B1492" s="4" t="s">
         <v>6774</v>
       </c>
-      <c r="C1492" s="0" t="s">
+      <c r="C1492" s="4" t="s">
         <v>6775</v>
       </c>
-      <c r="D1492" s="0" t="s">
+      <c r="D1492" s="4" t="s">
         <v>6776</v>
       </c>
-      <c r="E1492" s="8" t="s">
+      <c r="E1492" s="7" t="s">
         <v>6777</v>
       </c>
-      <c r="F1492" s="10" t="s">
+      <c r="F1492" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1492" s="10" t="s">
+      <c r="G1492" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1492" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1493" s="10" t="s">
+      <c r="A1493" s="1" t="s">
         <v>6778</v>
       </c>
-      <c r="B1493" s="10" t="s">
+      <c r="B1493" s="1" t="s">
         <v>6779</v>
       </c>
-      <c r="C1493" s="10" t="s">
+      <c r="C1493" s="1" t="s">
         <v>6780</v>
       </c>
-      <c r="D1493" s="10" t="s">
+      <c r="D1493" s="1" t="s">
         <v>6781</v>
       </c>
-      <c r="E1493" s="9" t="s">
+      <c r="E1493" s="1" t="s">
         <v>6782</v>
       </c>
-      <c r="F1493" s="10" t="s">
+      <c r="F1493" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1493" s="10" t="s">
+      <c r="G1493" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1493" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1494" s="12" t="s">
+      <c r="A1494" s="1" t="s">
         <v>6783</v>
       </c>
-      <c r="B1494" s="9" t="s">
+      <c r="B1494" s="1" t="s">
         <v>6784</v>
       </c>
-      <c r="C1494" s="9" t="s">
+      <c r="C1494" s="1" t="s">
         <v>6785</v>
       </c>
-      <c r="D1494" s="9" t="s">
+      <c r="D1494" s="1" t="s">
         <v>6786</v>
       </c>
-      <c r="E1494" s="9" t="s">
+      <c r="E1494" s="1" t="s">
         <v>6787</v>
       </c>
-      <c r="F1494" s="10" t="s">
+      <c r="F1494" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1494" s="10" t="s">
+      <c r="G1494" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1494" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1495" s="0" t="s">
+      <c r="A1495" s="4" t="s">
         <v>6788</v>
       </c>
-      <c r="B1495" s="0" t="s">
+      <c r="B1495" s="4" t="s">
         <v>6789</v>
       </c>
-      <c r="C1495" s="0" t="s">
+      <c r="C1495" s="4" t="s">
         <v>6790</v>
       </c>
-      <c r="D1495" s="0" t="s">
+      <c r="D1495" s="4" t="s">
         <v>6791</v>
       </c>
-      <c r="E1495" s="0" t="s">
+      <c r="E1495" s="4" t="s">
         <v>6792</v>
       </c>
-      <c r="F1495" s="10" t="s">
+      <c r="F1495" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1495" s="10" t="s">
+      <c r="G1495" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1495" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1496" s="0" t="s">
+      <c r="A1496" s="4" t="s">
         <v>6793</v>
       </c>
-      <c r="B1496" s="0" t="s">
+      <c r="B1496" s="4" t="s">
         <v>6794</v>
       </c>
-      <c r="C1496" s="0" t="s">
+      <c r="C1496" s="4" t="s">
         <v>6795</v>
       </c>
-      <c r="D1496" s="10" t="s">
+      <c r="D1496" s="1" t="s">
         <v>6796</v>
       </c>
-      <c r="E1496" s="8" t="s">
+      <c r="E1496" s="7" t="s">
         <v>6797</v>
       </c>
-      <c r="F1496" s="10" t="s">
+      <c r="F1496" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1496" s="10" t="s">
+      <c r="G1496" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1496" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1497" s="0" t="s">
+      <c r="A1497" s="4" t="s">
         <v>6798</v>
       </c>
-      <c r="B1497" s="0" t="s">
+      <c r="B1497" s="4" t="s">
         <v>6799</v>
       </c>
-      <c r="C1497" s="0" t="s">
+      <c r="C1497" s="4" t="s">
         <v>6800</v>
       </c>
-      <c r="D1497" s="0" t="s">
+      <c r="D1497" s="4" t="s">
         <v>6801</v>
       </c>
-      <c r="E1497" s="0" t="s">
+      <c r="E1497" s="4" t="s">
         <v>6802</v>
       </c>
-      <c r="F1497" s="10" t="s">
+      <c r="F1497" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1497" s="10" t="s">
+      <c r="G1497" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1497" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1498" s="0" t="s">
+      <c r="A1498" s="4" t="s">
         <v>6803</v>
       </c>
-      <c r="B1498" s="0" t="s">
+      <c r="B1498" s="4" t="s">
         <v>6804</v>
       </c>
-      <c r="C1498" s="0" t="s">
+      <c r="C1498" s="4" t="s">
         <v>6805</v>
       </c>
-      <c r="D1498" s="0" t="s">
+      <c r="D1498" s="4" t="s">
         <v>6806</v>
       </c>
-      <c r="E1498" s="0" t="s">
+      <c r="E1498" s="4" t="s">
         <v>6807</v>
       </c>
-      <c r="F1498" s="10" t="s">
+      <c r="F1498" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1498" s="10" t="s">
+      <c r="G1498" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1498" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1499" s="0" t="s">
+      <c r="A1499" s="4" t="s">
         <v>6808</v>
       </c>
-      <c r="B1499" s="0" t="s">
+      <c r="B1499" s="4" t="s">
         <v>6809</v>
       </c>
-      <c r="C1499" s="0" t="s">
+      <c r="C1499" s="4" t="s">
         <v>6810</v>
       </c>
-      <c r="D1499" s="0" t="s">
+      <c r="D1499" s="4" t="s">
         <v>6811</v>
       </c>
-      <c r="E1499" s="0" t="s">
+      <c r="E1499" s="4" t="s">
         <v>6812</v>
       </c>
-      <c r="F1499" s="10" t="s">
+      <c r="F1499" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1499" s="10" t="s">
+      <c r="G1499" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1499" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1500" s="0" t="s">
+      <c r="A1500" s="4" t="s">
         <v>6813</v>
       </c>
-      <c r="B1500" s="0" t="s">
+      <c r="B1500" s="4" t="s">
         <v>6814</v>
       </c>
-      <c r="C1500" s="0" t="s">
+      <c r="C1500" s="4" t="s">
         <v>6815</v>
       </c>
-      <c r="D1500" s="0" t="s">
+      <c r="D1500" s="4" t="s">
         <v>6816</v>
       </c>
-      <c r="E1500" s="0" t="s">
+      <c r="E1500" s="4" t="s">
         <v>6817</v>
       </c>
-      <c r="F1500" s="10" t="s">
+      <c r="F1500" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1500" s="10" t="s">
+      <c r="G1500" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1500" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1501" s="0" t="s">
+      <c r="A1501" s="4" t="s">
         <v>6818</v>
       </c>
-      <c r="B1501" s="0" t="s">
+      <c r="B1501" s="4" t="s">
         <v>6819</v>
       </c>
-      <c r="C1501" s="0" t="s">
+      <c r="C1501" s="4" t="s">
         <v>6820</v>
       </c>
-      <c r="D1501" s="0" t="s">
+      <c r="D1501" s="4" t="s">
         <v>6821</v>
       </c>
-      <c r="E1501" s="0" t="s">
+      <c r="E1501" s="4" t="s">
         <v>6822</v>
       </c>
-      <c r="F1501" s="10" t="s">
+      <c r="F1501" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1501" s="10" t="s">
+      <c r="G1501" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1501" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1502" s="0" t="s">
+      <c r="A1502" s="4" t="s">
         <v>6823</v>
       </c>
-      <c r="B1502" s="0" t="s">
+      <c r="B1502" s="4" t="s">
         <v>6824</v>
       </c>
-      <c r="C1502" s="0" t="s">
+      <c r="C1502" s="4" t="s">
         <v>6825</v>
       </c>
-      <c r="D1502" s="0" t="s">
+      <c r="D1502" s="4" t="s">
         <v>6826</v>
       </c>
-      <c r="E1502" s="0" t="s">
+      <c r="E1502" s="4" t="s">
         <v>6827</v>
       </c>
-      <c r="F1502" s="10" t="s">
+      <c r="F1502" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1502" s="10" t="s">
+      <c r="G1502" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1502" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1503" s="0" t="s">
+      <c r="A1503" s="4" t="s">
         <v>6828</v>
       </c>
-      <c r="B1503" s="0" t="s">
+      <c r="B1503" s="4" t="s">
         <v>6829</v>
       </c>
-      <c r="C1503" s="0" t="s">
+      <c r="C1503" s="4" t="s">
         <v>6830</v>
       </c>
-      <c r="D1503" s="0" t="s">
+      <c r="D1503" s="4" t="s">
         <v>6831</v>
       </c>
-      <c r="E1503" s="0" t="s">
+      <c r="E1503" s="4" t="s">
         <v>6832</v>
       </c>
-      <c r="F1503" s="10" t="s">
+      <c r="F1503" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1503" s="10" t="s">
+      <c r="G1503" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1503" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1504" s="8" t="s">
+      <c r="A1504" s="7" t="s">
         <v>6833</v>
       </c>
-      <c r="B1504" s="9" t="s">
+      <c r="B1504" s="1" t="s">
         <v>6834</v>
       </c>
-      <c r="C1504" s="9" t="s">
+      <c r="C1504" s="1" t="s">
         <v>6835</v>
       </c>
-      <c r="D1504" s="9" t="s">
+      <c r="D1504" s="1" t="s">
         <v>6836</v>
       </c>
-      <c r="E1504" s="9" t="s">
+      <c r="E1504" s="1" t="s">
         <v>6837</v>
       </c>
-      <c r="F1504" s="10" t="s">
+      <c r="F1504" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1504" s="10" t="s">
+      <c r="G1504" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1504" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1505" s="0" t="s">
+      <c r="A1505" s="4" t="s">
         <v>6838</v>
       </c>
-      <c r="B1505" s="0" t="s">
+      <c r="B1505" s="4" t="s">
         <v>6839</v>
       </c>
-      <c r="C1505" s="0" t="s">
+      <c r="C1505" s="4" t="s">
         <v>6840</v>
       </c>
-      <c r="D1505" s="0" t="s">
+      <c r="D1505" s="4" t="s">
         <v>6841</v>
       </c>
-      <c r="E1505" s="0" t="s">
+      <c r="E1505" s="4" t="s">
         <v>6842</v>
       </c>
-      <c r="F1505" s="10" t="s">
+      <c r="F1505" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1505" s="10" t="s">
+      <c r="G1505" s="1" t="s">
         <v>6124</v>
       </c>
-    </row>
-    <row r="1506" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1506" s="11" t="s">
+      <c r="H1505" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="9" t="s">
         <v>6843</v>
       </c>
-      <c r="B1506" s="9" t="s">
+      <c r="B1506" s="1" t="s">
         <v>6844</v>
       </c>
-      <c r="C1506" s="9" t="s">
+      <c r="C1506" s="1" t="s">
         <v>6845</v>
       </c>
-      <c r="D1506" s="9" t="s">
+      <c r="D1506" s="1" t="s">
         <v>6846</v>
       </c>
-      <c r="E1506" s="9" t="s">
+      <c r="E1506" s="1" t="s">
         <v>6847</v>
       </c>
-      <c r="F1506" s="10" t="s">
+      <c r="F1506" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1506" s="10" t="s">
+      <c r="G1506" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1506" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1507" s="8" t="s">
+      <c r="A1507" s="7" t="s">
         <v>6848</v>
       </c>
-      <c r="B1507" s="9" t="s">
+      <c r="B1507" s="1" t="s">
         <v>6849</v>
       </c>
-      <c r="C1507" s="9" t="s">
+      <c r="C1507" s="1" t="s">
         <v>6850</v>
       </c>
-      <c r="D1507" s="9" t="s">
+      <c r="D1507" s="1" t="s">
         <v>6851</v>
       </c>
-      <c r="E1507" s="9" t="s">
+      <c r="E1507" s="1" t="s">
         <v>6852</v>
       </c>
-      <c r="F1507" s="10" t="s">
+      <c r="F1507" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1507" s="10" t="s">
+      <c r="G1507" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1507" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1508" s="0" t="s">
+      <c r="A1508" s="4" t="s">
         <v>6853</v>
       </c>
-      <c r="B1508" s="0" t="s">
+      <c r="B1508" s="4" t="s">
         <v>6854</v>
       </c>
-      <c r="C1508" s="0" t="s">
+      <c r="C1508" s="4" t="s">
         <v>6855</v>
       </c>
-      <c r="D1508" s="0" t="s">
+      <c r="D1508" s="4" t="s">
         <v>6856</v>
       </c>
-      <c r="E1508" s="0" t="s">
+      <c r="E1508" s="4" t="s">
         <v>6857</v>
       </c>
-      <c r="F1508" s="10" t="s">
+      <c r="F1508" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1508" s="10" t="s">
+      <c r="G1508" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1508" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1509" s="0" t="s">
+      <c r="A1509" s="4" t="s">
         <v>6858</v>
       </c>
-      <c r="B1509" s="0" t="s">
+      <c r="B1509" s="4" t="s">
         <v>6859</v>
       </c>
-      <c r="C1509" s="0" t="s">
+      <c r="C1509" s="4" t="s">
         <v>6860</v>
       </c>
-      <c r="D1509" s="0" t="s">
+      <c r="D1509" s="4" t="s">
         <v>6861</v>
       </c>
-      <c r="E1509" s="0" t="s">
+      <c r="E1509" s="4" t="s">
         <v>6862</v>
       </c>
-      <c r="F1509" s="10" t="s">
+      <c r="F1509" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="G1509" s="10" t="s">
+      <c r="G1509" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1509" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1510" s="0" t="s">
+      <c r="A1510" s="4" t="s">
         <v>6863</v>
       </c>
-      <c r="B1510" s="0" t="s">
+      <c r="B1510" s="4" t="s">
         <v>6864</v>
       </c>
-      <c r="C1510" s="0" t="s">
+      <c r="C1510" s="4" t="s">
         <v>6865</v>
       </c>
-      <c r="D1510" s="0" t="s">
+      <c r="D1510" s="4" t="s">
         <v>6866</v>
       </c>
-      <c r="E1510" s="0" t="s">
+      <c r="E1510" s="4" t="s">
         <v>6867</v>
       </c>
-      <c r="F1510" s="0" t="s">
+      <c r="F1510" s="4" t="s">
         <v>2411</v>
       </c>
-      <c r="G1510" s="10" t="s">
+      <c r="G1510" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1510" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1511" s="8" t="s">
+      <c r="A1511" s="7" t="s">
         <v>6868</v>
       </c>
-      <c r="B1511" s="9" t="s">
+      <c r="B1511" s="1" t="s">
         <v>6869</v>
       </c>
-      <c r="C1511" s="9" t="s">
+      <c r="C1511" s="1" t="s">
         <v>6870</v>
       </c>
-      <c r="D1511" s="9" t="s">
+      <c r="D1511" s="1" t="s">
         <v>6871</v>
       </c>
-      <c r="E1511" s="9" t="s">
+      <c r="E1511" s="1" t="s">
         <v>6872</v>
       </c>
-      <c r="F1511" s="10" t="s">
+      <c r="F1511" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="G1511" s="10" t="s">
+      <c r="G1511" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1511" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1512" s="0" t="s">
+      <c r="A1512" s="4" t="s">
         <v>6873</v>
       </c>
-      <c r="B1512" s="0" t="s">
+      <c r="B1512" s="4" t="s">
         <v>6874</v>
       </c>
-      <c r="C1512" s="0" t="s">
+      <c r="C1512" s="4" t="s">
         <v>6875</v>
       </c>
-      <c r="D1512" s="0" t="s">
+      <c r="D1512" s="4" t="s">
         <v>6876</v>
       </c>
-      <c r="E1512" s="0" t="s">
+      <c r="E1512" s="4" t="s">
         <v>6877</v>
       </c>
-      <c r="F1512" s="10" t="s">
+      <c r="F1512" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="G1512" s="10" t="s">
+      <c r="G1512" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1512" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1513" s="0" t="s">
+      <c r="A1513" s="4" t="s">
         <v>6878</v>
       </c>
-      <c r="B1513" s="0" t="s">
+      <c r="B1513" s="4" t="s">
         <v>6879</v>
       </c>
-      <c r="C1513" s="10" t="s">
+      <c r="C1513" s="1" t="s">
         <v>6880</v>
       </c>
-      <c r="D1513" s="10" t="s">
+      <c r="D1513" s="1" t="s">
         <v>6881</v>
       </c>
-      <c r="E1513" s="10" t="s">
+      <c r="E1513" s="1" t="s">
         <v>6882</v>
       </c>
-      <c r="F1513" s="10" t="s">
+      <c r="F1513" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="G1513" s="10" t="s">
+      <c r="G1513" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1513" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1514" s="0" t="s">
+      <c r="A1514" s="4" t="s">
         <v>6883</v>
       </c>
-      <c r="B1514" s="0" t="s">
+      <c r="B1514" s="4" t="s">
         <v>6884</v>
       </c>
-      <c r="C1514" s="0" t="s">
+      <c r="C1514" s="4" t="s">
         <v>6885</v>
       </c>
-      <c r="D1514" s="10" t="s">
+      <c r="D1514" s="1" t="s">
         <v>6886</v>
       </c>
-      <c r="E1514" s="9" t="s">
+      <c r="E1514" s="1" t="s">
         <v>6887</v>
       </c>
-      <c r="F1514" s="10" t="s">
+      <c r="F1514" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="G1514" s="10" t="s">
+      <c r="G1514" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1514" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1515" s="8" t="s">
+      <c r="A1515" s="7" t="s">
         <v>6888</v>
       </c>
-      <c r="B1515" s="0" t="n">
+      <c r="B1515" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C1515" s="0" t="n">
+      <c r="C1515" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="D1515" s="0" t="n">
+      <c r="D1515" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="E1515" s="0" t="n">
+      <c r="E1515" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F1515" s="10" t="s">
+      <c r="F1515" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="G1515" s="10" t="s">
+      <c r="G1515" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1515" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1516" s="0" t="s">
+      <c r="A1516" s="4" t="s">
         <v>6889</v>
       </c>
-      <c r="B1516" s="0" t="s">
+      <c r="B1516" s="4" t="s">
         <v>6890</v>
       </c>
-      <c r="C1516" s="0" t="s">
+      <c r="C1516" s="4" t="s">
         <v>6891</v>
       </c>
-      <c r="D1516" s="0" t="s">
+      <c r="D1516" s="4" t="s">
         <v>6892</v>
       </c>
-      <c r="E1516" s="0" t="s">
+      <c r="E1516" s="4" t="s">
         <v>6893</v>
       </c>
-      <c r="F1516" s="10" t="s">
+      <c r="F1516" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="G1516" s="10" t="s">
+      <c r="G1516" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1516" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1517" s="8" t="s">
+      <c r="A1517" s="7" t="s">
         <v>6894</v>
       </c>
-      <c r="B1517" s="9" t="s">
+      <c r="B1517" s="1" t="s">
         <v>6895</v>
       </c>
-      <c r="C1517" s="9" t="s">
+      <c r="C1517" s="1" t="s">
         <v>6896</v>
       </c>
-      <c r="D1517" s="8" t="s">
+      <c r="D1517" s="7" t="s">
         <v>6897</v>
       </c>
-      <c r="E1517" s="8" t="s">
+      <c r="E1517" s="7" t="s">
         <v>6898</v>
       </c>
-      <c r="F1517" s="10" t="s">
+      <c r="F1517" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="G1517" s="10" t="s">
+      <c r="G1517" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1517" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1518" s="0" t="s">
+      <c r="A1518" s="4" t="s">
         <v>6899</v>
       </c>
-      <c r="B1518" s="0" t="s">
+      <c r="B1518" s="4" t="s">
         <v>6900</v>
       </c>
-      <c r="C1518" s="0" t="s">
+      <c r="C1518" s="4" t="s">
         <v>6901</v>
       </c>
-      <c r="D1518" s="0" t="s">
+      <c r="D1518" s="4" t="s">
         <v>6902</v>
       </c>
-      <c r="E1518" s="0" t="s">
+      <c r="E1518" s="4" t="s">
         <v>6903</v>
       </c>
-      <c r="F1518" s="0" t="s">
+      <c r="F1518" s="4" t="s">
         <v>6904</v>
       </c>
-      <c r="G1518" s="10" t="s">
+      <c r="G1518" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1518" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1519" s="8" t="s">
+      <c r="A1519" s="7" t="s">
         <v>6905</v>
       </c>
-      <c r="B1519" s="9" t="s">
+      <c r="B1519" s="1" t="s">
         <v>6906</v>
       </c>
-      <c r="C1519" s="10" t="s">
+      <c r="C1519" s="1" t="s">
         <v>6907</v>
       </c>
-      <c r="D1519" s="10" t="s">
+      <c r="D1519" s="1" t="s">
         <v>6908</v>
       </c>
-      <c r="E1519" s="10" t="s">
+      <c r="E1519" s="1" t="s">
         <v>6909</v>
       </c>
-      <c r="F1519" s="10" t="s">
+      <c r="F1519" s="1" t="s">
         <v>6904</v>
       </c>
-      <c r="G1519" s="10" t="s">
+      <c r="G1519" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1519" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1520" s="0" t="s">
+      <c r="A1520" s="4" t="s">
         <v>6910</v>
       </c>
-      <c r="B1520" s="0" t="s">
+      <c r="B1520" s="4" t="s">
         <v>6911</v>
       </c>
-      <c r="C1520" s="0" t="s">
+      <c r="C1520" s="4" t="s">
         <v>6912</v>
       </c>
-      <c r="D1520" s="0" t="s">
+      <c r="D1520" s="4" t="s">
         <v>6913</v>
       </c>
-      <c r="E1520" s="0" t="s">
+      <c r="E1520" s="4" t="s">
         <v>6914</v>
       </c>
-      <c r="F1520" s="10" t="s">
+      <c r="F1520" s="1" t="s">
         <v>6904</v>
       </c>
-      <c r="G1520" s="10" t="s">
+      <c r="G1520" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1520" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1521" s="0" t="s">
+      <c r="A1521" s="4" t="s">
         <v>6915</v>
       </c>
-      <c r="B1521" s="0" t="s">
+      <c r="B1521" s="4" t="s">
         <v>6916</v>
       </c>
-      <c r="C1521" s="0" t="s">
+      <c r="C1521" s="4" t="s">
         <v>6917</v>
       </c>
-      <c r="D1521" s="0" t="s">
+      <c r="D1521" s="4" t="s">
         <v>6918</v>
       </c>
-      <c r="E1521" s="0" t="s">
+      <c r="E1521" s="4" t="s">
         <v>6919</v>
       </c>
-      <c r="F1521" s="10" t="s">
+      <c r="F1521" s="1" t="s">
         <v>6904</v>
       </c>
-      <c r="G1521" s="10" t="s">
+      <c r="G1521" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1521" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1522" s="0" t="s">
+      <c r="A1522" s="4" t="s">
         <v>6920</v>
       </c>
-      <c r="B1522" s="0" t="s">
+      <c r="B1522" s="4" t="s">
         <v>6921</v>
       </c>
-      <c r="C1522" s="0" t="s">
+      <c r="C1522" s="4" t="s">
         <v>6922</v>
       </c>
-      <c r="D1522" s="0" t="s">
+      <c r="D1522" s="4" t="s">
         <v>6923</v>
       </c>
-      <c r="E1522" s="0" t="s">
+      <c r="E1522" s="4" t="s">
         <v>6924</v>
       </c>
-      <c r="F1522" s="10" t="s">
+      <c r="F1522" s="1" t="s">
         <v>6904</v>
       </c>
-      <c r="G1522" s="10" t="s">
+      <c r="G1522" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1522" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1523" s="0" t="s">
+      <c r="A1523" s="4" t="s">
         <v>6925</v>
       </c>
-      <c r="B1523" s="0" t="s">
+      <c r="B1523" s="4" t="s">
         <v>6926</v>
       </c>
-      <c r="C1523" s="0" t="s">
+      <c r="C1523" s="4" t="s">
         <v>6927</v>
       </c>
-      <c r="D1523" s="0" t="s">
+      <c r="D1523" s="4" t="s">
         <v>6928</v>
       </c>
-      <c r="E1523" s="0" t="s">
+      <c r="E1523" s="4" t="s">
         <v>6929</v>
       </c>
-      <c r="F1523" s="10" t="s">
+      <c r="F1523" s="1" t="s">
         <v>6904</v>
       </c>
-      <c r="G1523" s="10" t="s">
+      <c r="G1523" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1523" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1524" s="0" t="s">
+      <c r="A1524" s="4" t="s">
         <v>6930</v>
       </c>
-      <c r="B1524" s="0" t="s">
+      <c r="B1524" s="4" t="s">
         <v>6931</v>
       </c>
-      <c r="C1524" s="0" t="s">
+      <c r="C1524" s="4" t="s">
         <v>6932</v>
       </c>
-      <c r="D1524" s="0" t="s">
+      <c r="D1524" s="4" t="s">
         <v>6933</v>
       </c>
-      <c r="E1524" s="0" t="s">
+      <c r="E1524" s="4" t="s">
         <v>6934</v>
       </c>
-      <c r="F1524" s="10" t="s">
+      <c r="F1524" s="1" t="s">
         <v>6904</v>
       </c>
-      <c r="G1524" s="10" t="s">
+      <c r="G1524" s="1" t="s">
         <v>6124</v>
       </c>
+      <c r="H1524" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1525" s="0" t="s">
+      <c r="A1525" s="4" t="s">
         <v>6935</v>
       </c>
-      <c r="B1525" s="0" t="s">
+      <c r="B1525" s="4" t="s">
         <v>6936</v>
       </c>
-      <c r="C1525" s="0" t="s">
+      <c r="C1525" s="4" t="s">
         <v>6937</v>
       </c>
-      <c r="D1525" s="0" t="s">
+      <c r="D1525" s="4" t="s">
         <v>6938</v>
       </c>
-      <c r="E1525" s="0" t="s">
+      <c r="E1525" s="4" t="s">
         <v>6939</v>
       </c>
-      <c r="F1525" s="10" t="s">
+      <c r="F1525" s="1" t="s">
         <v>6904</v>
       </c>
-      <c r="G1525" s="10" t="s">
+      <c r="G1525" s="1" t="s">
         <v>6124</v>
+      </c>
+      <c r="H1525" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
